--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -1065,7 +1065,7 @@
           <a:bodyPr/>
           <a:p>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -1097,7 +1097,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
         </a:p>
       </txPr>
@@ -1302,7 +1302,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
               </a:p>
             </txPr>
@@ -1595,7 +1595,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
               </a:p>
             </txPr>
@@ -1888,7 +1888,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
               </a:p>
             </txPr>
@@ -2026,7 +2026,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
         </a:p>
       </txPr>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.3352</v>
+        <v>3.2914</v>
       </c>
       <c r="F3" t="n">
-        <v>1081.672064</v>
+        <v>1067.466848</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>81.72863999999981</v>
+        <v>67.52342399999998</v>
       </c>
       <c r="J3" t="n">
-        <v>8.17</v>
+        <v>6.75</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0525</v>
+        <v>2.0632</v>
       </c>
       <c r="F10" t="n">
-        <v>2135.482575</v>
+        <v>2146.615176</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>135.4639860000004</v>
+        <v>146.5965870000002</v>
       </c>
       <c r="J10" t="n">
-        <v>6.77</v>
+        <v>7.33</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2206</v>
+        <v>2.2346</v>
       </c>
       <c r="F15" t="n">
-        <v>20651.58</v>
+        <v>20781.78</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1205.280000000002</v>
+        <v>1335.48</v>
       </c>
       <c r="J15" t="n">
-        <v>6.2</v>
+        <v>6.87</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.3</v>
+        <v>27.43</v>
       </c>
       <c r="F16" t="n">
-        <v>13650</v>
+        <v>13715</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-165</v>
+        <v>-100</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.19</v>
+        <v>-0.72</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.52</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>17040</v>
+        <v>17280</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-720</v>
+        <v>-480</v>
       </c>
       <c r="J17" t="n">
-        <v>-4.05</v>
+        <v>-2.7</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.7819</v>
+        <v>1.7899</v>
       </c>
       <c r="F28" t="n">
-        <v>6875.995720000001</v>
+        <v>6906.866120000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>576.118840000001</v>
+        <v>606.9892400000008</v>
       </c>
       <c r="J28" t="n">
-        <v>9.140000000000001</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.7819</v>
+        <v>1.7899</v>
       </c>
       <c r="F29" t="n">
-        <v>15519.083851</v>
+        <v>15588.758171</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>519.0736840000009</v>
+        <v>588.7480040000009</v>
       </c>
       <c r="J29" t="n">
-        <v>3.46</v>
+        <v>3.92</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8401</v>
+        <v>1.8484</v>
       </c>
       <c r="F30" t="n">
-        <v>9675.411409</v>
+        <v>9719.053556000001</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>795.0232080000005</v>
+        <v>838.665355000001</v>
       </c>
       <c r="J30" t="n">
-        <v>8.949999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8401</v>
+        <v>1.8484</v>
       </c>
       <c r="F31" t="n">
-        <v>1240.724227</v>
+        <v>1246.320668</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>40.72590799999989</v>
+        <v>46.32234900000003</v>
       </c>
       <c r="J31" t="n">
-        <v>3.39</v>
+        <v>3.86</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.35</v>
+        <v>7.38</v>
       </c>
       <c r="F41" t="n">
-        <v>7350</v>
+        <v>7380</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="J41" t="n">
-        <v>3.39</v>
+        <v>3.81</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>40.81</v>
+        <v>40.77</v>
       </c>
       <c r="F43" t="n">
-        <v>61215</v>
+        <v>61155.00000000001</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-3240</v>
+        <v>-3299.999999999993</v>
       </c>
       <c r="J43" t="n">
-        <v>-5.03</v>
+        <v>-5.12</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.7069</v>
+        <v>2.7366</v>
       </c>
       <c r="F2" t="n">
-        <v>2002.266861</v>
+        <v>2024.235654</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>132.0346650000004</v>
+        <v>154.0034580000004</v>
       </c>
       <c r="J2" t="n">
-        <v>7.06</v>
+        <v>8.23</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.2914</v>
+        <v>3.3625</v>
       </c>
       <c r="F3" t="n">
-        <v>1067.466848</v>
+        <v>1090.526</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>67.52342399999998</v>
+        <v>90.58257599999979</v>
       </c>
       <c r="J3" t="n">
-        <v>6.75</v>
+        <v>9.06</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2055</v>
+        <v>1.2233</v>
       </c>
       <c r="F4" t="n">
-        <v>6871.35</v>
+        <v>6972.81</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1450.650000000001</v>
+        <v>1552.110000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>26.76</v>
+        <v>28.63</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9848</v>
+        <v>1.9947</v>
       </c>
       <c r="F5" t="n">
-        <v>2353.833864</v>
+        <v>2365.574571</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-46.1326769999996</v>
+        <v>-34.39196999999967</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.92</v>
+        <v>-1.43</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.462</v>
+        <v>1.4447</v>
       </c>
       <c r="F6" t="n">
-        <v>2481.43798</v>
+        <v>2452.074863</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-18.50046100000009</v>
+        <v>-47.86357799999951</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.74</v>
+        <v>-1.91</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.462</v>
+        <v>1.4447</v>
       </c>
       <c r="F7" t="n">
-        <v>5254.5742</v>
+        <v>5192.39627</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-65.41262000000006</v>
+        <v>-127.5905499999999</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.23</v>
+        <v>-2.4</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.6701</v>
+        <v>1.6755</v>
       </c>
       <c r="F8" t="n">
-        <v>21544.29</v>
+        <v>21613.95</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2245.889999999996</v>
+        <v>2315.549999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>11.64</v>
+        <v>12</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8523</v>
+        <v>2.8692</v>
       </c>
       <c r="F9" t="n">
-        <v>863.704963</v>
+        <v>868.8224520000001</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>114.76499</v>
+        <v>119.8824790000001</v>
       </c>
       <c r="J9" t="n">
-        <v>15.32</v>
+        <v>16.01</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0632</v>
+        <v>2.0673</v>
       </c>
       <c r="F10" t="n">
-        <v>2146.615176</v>
+        <v>2150.880939</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>146.5965870000002</v>
+        <v>150.8623500000001</v>
       </c>
       <c r="J10" t="n">
-        <v>7.33</v>
+        <v>7.54</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5391</v>
+        <v>1.5469</v>
       </c>
       <c r="F11" t="n">
-        <v>6367.610692999999</v>
+        <v>6399.881086999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>388.4858969999987</v>
+        <v>420.7562909999988</v>
       </c>
       <c r="J11" t="n">
-        <v>6.5</v>
+        <v>7.04</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5391</v>
+        <v>1.5469</v>
       </c>
       <c r="F12" t="n">
-        <v>9256.255136999998</v>
+        <v>9303.164882999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>156.3658199999991</v>
+        <v>203.2755660000003</v>
       </c>
       <c r="J12" t="n">
-        <v>1.72</v>
+        <v>2.23</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2346</v>
+        <v>2.2384</v>
       </c>
       <c r="F15" t="n">
-        <v>20781.78</v>
+        <v>20817.12</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1335.48</v>
+        <v>1370.82</v>
       </c>
       <c r="J15" t="n">
-        <v>6.87</v>
+        <v>7.05</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.43</v>
+        <v>27.35</v>
       </c>
       <c r="F16" t="n">
-        <v>13715</v>
+        <v>13675</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-100</v>
+        <v>-140</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.72</v>
+        <v>-1.01</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.640000000000001</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>17280</v>
+        <v>17420</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-480</v>
+        <v>-340</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.7</v>
+        <v>-1.91</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1006</v>
+        <v>1.0997</v>
       </c>
       <c r="F18" t="n">
-        <v>4323.365914</v>
+        <v>4319.830543</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>16.89121700000032</v>
+        <v>13.35584600000038</v>
       </c>
       <c r="J18" t="n">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5455</v>
+        <v>1.5521</v>
       </c>
       <c r="F19" t="n">
-        <v>13445.85</v>
+        <v>13503.27</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>-13.04999999999927</v>
+        <v>44.3700000000008</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.1</v>
+        <v>0.33</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2384</v>
+        <v>1.2418</v>
       </c>
       <c r="F20" t="n">
-        <v>9815.385023999999</v>
+        <v>9842.332947999999</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>-184.6725380000007</v>
+        <v>-157.7246140000007</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.85</v>
+        <v>-1.58</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.148</v>
+        <v>1.1475</v>
       </c>
       <c r="F21" t="n">
-        <v>12972.4</v>
+        <v>12966.75</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>339</v>
+        <v>333.3500000000004</v>
       </c>
       <c r="J21" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5302</v>
+        <v>1.537</v>
       </c>
       <c r="F22" t="n">
-        <v>816.958478</v>
+        <v>820.5889299999999</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>87.82490500000006</v>
+        <v>91.45535699999994</v>
       </c>
       <c r="J22" t="n">
-        <v>12.05</v>
+        <v>12.54</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5302</v>
+        <v>1.537</v>
       </c>
       <c r="F23" t="n">
-        <v>19772.846548</v>
+        <v>19860.71438</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>572.4330819999996</v>
+        <v>660.3009139999958</v>
       </c>
       <c r="J23" t="n">
-        <v>2.98</v>
+        <v>3.44</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3777</v>
+        <v>1.3836</v>
       </c>
       <c r="F24" t="n">
-        <v>901.456664</v>
+        <v>905.3171520000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>101.485032</v>
+        <v>105.3455200000001</v>
       </c>
       <c r="J24" t="n">
-        <v>12.69</v>
+        <v>13.17</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.5498</v>
+        <v>5.5753</v>
       </c>
       <c r="F26" t="n">
-        <v>2305.053932</v>
+        <v>2315.645102</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>205.0533579999997</v>
+        <v>215.6445279999998</v>
       </c>
       <c r="J26" t="n">
-        <v>9.76</v>
+        <v>10.27</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.7899</v>
+        <v>1.7958</v>
       </c>
       <c r="F28" t="n">
-        <v>6906.866120000001</v>
+        <v>6929.633040000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>606.9892400000008</v>
+        <v>629.7561600000008</v>
       </c>
       <c r="J28" t="n">
-        <v>9.630000000000001</v>
+        <v>10</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.7899</v>
+        <v>1.7958</v>
       </c>
       <c r="F29" t="n">
-        <v>15588.758171</v>
+        <v>15640.142982</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>588.7480040000009</v>
+        <v>640.1328150000008</v>
       </c>
       <c r="J29" t="n">
-        <v>3.92</v>
+        <v>4.27</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8484</v>
+        <v>1.8533</v>
       </c>
       <c r="F30" t="n">
-        <v>9719.053556000001</v>
+        <v>9744.818197000001</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>838.665355000001</v>
+        <v>864.4299960000008</v>
       </c>
       <c r="J30" t="n">
-        <v>9.44</v>
+        <v>9.73</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8484</v>
+        <v>1.8533</v>
       </c>
       <c r="F31" t="n">
-        <v>1246.320668</v>
+        <v>1249.624591</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>46.32234900000003</v>
+        <v>49.62627199999997</v>
       </c>
       <c r="J31" t="n">
-        <v>3.86</v>
+        <v>4.14</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.1716</v>
+        <v>2.1834</v>
       </c>
       <c r="F33" t="n">
-        <v>13246.76</v>
+        <v>13318.74</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>973.5600000000013</v>
+        <v>1045.539999999997</v>
       </c>
       <c r="J33" t="n">
-        <v>7.93</v>
+        <v>8.52</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.736</v>
+        <v>1.744</v>
       </c>
       <c r="F34" t="n">
-        <v>33157.6</v>
+        <v>33310.4</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>1986.399999999998</v>
+        <v>2139.200000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>6.37</v>
+        <v>6.86</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.7095</v>
+        <v>5.7233</v>
       </c>
       <c r="F35" t="n">
-        <v>34750.18661</v>
+        <v>34834.178654</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1550.200986000003</v>
+        <v>1634.193030000002</v>
       </c>
       <c r="J35" t="n">
-        <v>4.67</v>
+        <v>4.92</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.7095</v>
+        <v>5.7233</v>
       </c>
       <c r="F36" t="n">
-        <v>11800.73717</v>
+        <v>11829.259838</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>500.8001779999995</v>
+        <v>529.3228459999991</v>
       </c>
       <c r="J36" t="n">
-        <v>4.43</v>
+        <v>4.68</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.7095</v>
+        <v>5.7233</v>
       </c>
       <c r="F37" t="n">
-        <v>85642.5</v>
+        <v>85849.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>2347.5</v>
+        <v>2554.5</v>
       </c>
       <c r="J37" t="n">
-        <v>2.82</v>
+        <v>3.07</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3129</v>
+        <v>2.3161</v>
       </c>
       <c r="F38" t="n">
-        <v>16822.669989</v>
+        <v>16845.944901</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1022.641445999998</v>
+        <v>1045.916357999999</v>
       </c>
       <c r="J38" t="n">
-        <v>6.47</v>
+        <v>6.62</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3129</v>
+        <v>2.3161</v>
       </c>
       <c r="F39" t="n">
-        <v>24118.713039</v>
+        <v>24152.082351</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1118.914742999998</v>
+        <v>1152.284055</v>
       </c>
       <c r="J39" t="n">
-        <v>4.86</v>
+        <v>5.01</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8148</v>
+        <v>1.8193</v>
       </c>
       <c r="F40" t="n">
-        <v>12159.16</v>
+        <v>12189.31</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1707.16</v>
+        <v>1737.309999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>16.33</v>
+        <v>16.62</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.38</v>
+        <v>7.31</v>
       </c>
       <c r="F41" t="n">
-        <v>7380</v>
+        <v>7310</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>271</v>
+        <v>201</v>
       </c>
       <c r="J41" t="n">
-        <v>3.81</v>
+        <v>2.83</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>6.59</v>
+        <v>6.61</v>
       </c>
       <c r="F42" t="n">
-        <v>7249</v>
+        <v>7271</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>664.3999999999996</v>
+        <v>686.3999999999996</v>
       </c>
       <c r="J42" t="n">
-        <v>10.09</v>
+        <v>10.42</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>40.77</v>
+        <v>40.65</v>
       </c>
       <c r="F43" t="n">
-        <v>61155.00000000001</v>
+        <v>60975</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-3299.999999999993</v>
+        <v>-3480</v>
       </c>
       <c r="J43" t="n">
-        <v>-5.12</v>
+        <v>-5.4</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.7366</v>
+        <v>2.7644</v>
       </c>
       <c r="F2" t="n">
-        <v>2024.235654</v>
+        <v>2044.799036</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>154.0034580000004</v>
+        <v>174.5668400000004</v>
       </c>
       <c r="J2" t="n">
-        <v>8.23</v>
+        <v>9.33</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2233</v>
+        <v>1.2323</v>
       </c>
       <c r="F4" t="n">
-        <v>6972.81</v>
+        <v>7024.11</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1552.110000000001</v>
+        <v>1603.41</v>
       </c>
       <c r="J4" t="n">
-        <v>28.63</v>
+        <v>29.58</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4447</v>
+        <v>1.4456</v>
       </c>
       <c r="F6" t="n">
-        <v>2452.074863</v>
+        <v>2453.602424</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-47.86357799999951</v>
+        <v>-46.33601699999963</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.91</v>
+        <v>-1.85</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4447</v>
+        <v>1.4456</v>
       </c>
       <c r="F7" t="n">
-        <v>5192.39627</v>
+        <v>5195.63096</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-127.5905499999999</v>
+        <v>-124.3558600000006</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.4</v>
+        <v>-2.34</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.6755</v>
+        <v>1.6795</v>
       </c>
       <c r="F8" t="n">
-        <v>21613.95</v>
+        <v>21665.55</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2315.549999999999</v>
+        <v>2367.149999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>12</v>
+        <v>12.27</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8692</v>
+        <v>2.8739</v>
       </c>
       <c r="F9" t="n">
-        <v>868.8224520000001</v>
+        <v>870.2456589999999</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>119.8824790000001</v>
+        <v>121.3056859999999</v>
       </c>
       <c r="J9" t="n">
-        <v>16.01</v>
+        <v>16.2</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5469</v>
+        <v>1.5486</v>
       </c>
       <c r="F11" t="n">
-        <v>6399.881086999999</v>
+        <v>6406.914377999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>420.7562909999988</v>
+        <v>427.7895819999994</v>
       </c>
       <c r="J11" t="n">
-        <v>7.04</v>
+        <v>7.15</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5469</v>
+        <v>1.5486</v>
       </c>
       <c r="F12" t="n">
-        <v>9303.164882999999</v>
+        <v>9313.388801999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>203.2755660000003</v>
+        <v>213.4994850000003</v>
       </c>
       <c r="J12" t="n">
-        <v>2.23</v>
+        <v>2.35</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0997</v>
+        <v>1.0939</v>
       </c>
       <c r="F18" t="n">
-        <v>4319.830543</v>
+        <v>4297.047041000001</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>13.35584600000038</v>
+        <v>-9.427655999998933</v>
       </c>
       <c r="J18" t="n">
-        <v>0.31</v>
+        <v>-0.22</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5521</v>
+        <v>1.5485</v>
       </c>
       <c r="F19" t="n">
-        <v>13503.27</v>
+        <v>13471.95</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>44.3700000000008</v>
+        <v>13.05000000000109</v>
       </c>
       <c r="J19" t="n">
-        <v>0.33</v>
+        <v>0.1</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2418</v>
+        <v>1.2386</v>
       </c>
       <c r="F20" t="n">
-        <v>9842.332947999999</v>
+        <v>9816.970195999998</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>-157.7246140000007</v>
+        <v>-183.0873660000016</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.58</v>
+        <v>-1.83</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1475</v>
+        <v>1.1387</v>
       </c>
       <c r="F21" t="n">
-        <v>12966.75</v>
+        <v>12867.31</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>333.3500000000004</v>
+        <v>233.9100000000017</v>
       </c>
       <c r="J21" t="n">
-        <v>2.64</v>
+        <v>1.85</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.537</v>
+        <v>1.5418</v>
       </c>
       <c r="F22" t="n">
-        <v>820.5889299999999</v>
+        <v>823.151602</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>91.45535699999994</v>
+        <v>94.01802900000007</v>
       </c>
       <c r="J22" t="n">
-        <v>12.54</v>
+        <v>12.89</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.537</v>
+        <v>1.5418</v>
       </c>
       <c r="F23" t="n">
-        <v>19860.71438</v>
+        <v>19922.738732</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>660.3009139999958</v>
+        <v>722.3252659999998</v>
       </c>
       <c r="J23" t="n">
-        <v>3.44</v>
+        <v>3.76</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3836</v>
+        <v>1.3879</v>
       </c>
       <c r="F24" t="n">
-        <v>905.3171520000001</v>
+        <v>908.130728</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>105.3455200000001</v>
+        <v>108.159096</v>
       </c>
       <c r="J24" t="n">
-        <v>13.17</v>
+        <v>13.52</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.5753</v>
+        <v>5.5949</v>
       </c>
       <c r="F26" t="n">
-        <v>2315.645102</v>
+        <v>2323.785766</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>215.6445279999998</v>
+        <v>223.7851919999998</v>
       </c>
       <c r="J26" t="n">
-        <v>10.27</v>
+        <v>10.66</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.1834</v>
+        <v>2.1877</v>
       </c>
       <c r="F33" t="n">
-        <v>13318.74</v>
+        <v>13344.97</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1045.539999999997</v>
+        <v>1071.769999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>8.52</v>
+        <v>8.73</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.744</v>
+        <v>1.75</v>
       </c>
       <c r="F34" t="n">
-        <v>33310.4</v>
+        <v>33425</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2139.200000000001</v>
+        <v>2253.799999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>6.86</v>
+        <v>7.23</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.7233</v>
+        <v>5.7447</v>
       </c>
       <c r="F35" t="n">
-        <v>34834.178654</v>
+        <v>34964.427186</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1634.193030000002</v>
+        <v>1764.441562</v>
       </c>
       <c r="J35" t="n">
-        <v>4.92</v>
+        <v>5.31</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.7233</v>
+        <v>5.7447</v>
       </c>
       <c r="F36" t="n">
-        <v>11829.259838</v>
+        <v>11873.490642</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>529.3228459999991</v>
+        <v>573.5536499999998</v>
       </c>
       <c r="J36" t="n">
-        <v>4.68</v>
+        <v>5.08</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.7233</v>
+        <v>5.7447</v>
       </c>
       <c r="F37" t="n">
-        <v>85849.5</v>
+        <v>86170.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>2554.5</v>
+        <v>2875.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.07</v>
+        <v>3.45</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3161</v>
+        <v>2.3174</v>
       </c>
       <c r="F38" t="n">
-        <v>16845.944901</v>
+        <v>16855.400334</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1045.916357999999</v>
+        <v>1055.371791000001</v>
       </c>
       <c r="J38" t="n">
-        <v>6.62</v>
+        <v>6.68</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3161</v>
+        <v>2.3174</v>
       </c>
       <c r="F39" t="n">
-        <v>24152.082351</v>
+        <v>24165.638634</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1152.284055</v>
+        <v>1165.840338000002</v>
       </c>
       <c r="J39" t="n">
-        <v>5.01</v>
+        <v>5.07</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8193</v>
+        <v>1.8224</v>
       </c>
       <c r="F40" t="n">
-        <v>12189.31</v>
+        <v>12210.08</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1737.309999999999</v>
+        <v>1758.08</v>
       </c>
       <c r="J40" t="n">
-        <v>16.62</v>
+        <v>16.82</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.3625</v>
+        <v>3.4245</v>
       </c>
       <c r="F3" t="n">
-        <v>1090.526</v>
+        <v>1110.63384</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>90.58257599999979</v>
+        <v>110.6904159999999</v>
       </c>
       <c r="J3" t="n">
-        <v>9.06</v>
+        <v>11.07</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9947</v>
+        <v>2.006</v>
       </c>
       <c r="F5" t="n">
-        <v>2365.574571</v>
+        <v>2378.97558</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-34.39196999999967</v>
+        <v>-20.99096099999997</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.43</v>
+        <v>-0.87</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2384</v>
+        <v>2.2463</v>
       </c>
       <c r="F15" t="n">
-        <v>20817.12</v>
+        <v>20890.59</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1370.82</v>
+        <v>1444.290000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>7.05</v>
+        <v>7.43</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.35</v>
+        <v>27.21</v>
       </c>
       <c r="F16" t="n">
-        <v>13675</v>
+        <v>13605</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-140</v>
+        <v>-210</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.01</v>
+        <v>-1.52</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.710000000000001</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>17420</v>
+        <v>17760</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-340</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.91</v>
+        <v>0</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8533</v>
+        <v>1.8574</v>
       </c>
       <c r="F30" t="n">
-        <v>9744.818197000001</v>
+        <v>9766.376366</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>864.4299960000008</v>
+        <v>885.9881650000007</v>
       </c>
       <c r="J30" t="n">
-        <v>9.73</v>
+        <v>9.98</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8533</v>
+        <v>1.8574</v>
       </c>
       <c r="F31" t="n">
-        <v>1249.624591</v>
+        <v>1252.389098</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>49.62627199999997</v>
+        <v>52.39077899999984</v>
       </c>
       <c r="J31" t="n">
-        <v>4.14</v>
+        <v>4.37</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.31</v>
+        <v>7.25</v>
       </c>
       <c r="F41" t="n">
-        <v>7310</v>
+        <v>7250</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="J41" t="n">
-        <v>2.83</v>
+        <v>1.98</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>6.61</v>
+        <v>6.64</v>
       </c>
       <c r="F42" t="n">
-        <v>7271</v>
+        <v>7304</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>686.3999999999996</v>
+        <v>719.3999999999996</v>
       </c>
       <c r="J42" t="n">
-        <v>10.42</v>
+        <v>10.93</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>40.65</v>
+        <v>40.21</v>
       </c>
       <c r="F43" t="n">
-        <v>60975</v>
+        <v>60315</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-3480</v>
+        <v>-4140</v>
       </c>
       <c r="J43" t="n">
-        <v>-5.4</v>
+        <v>-6.42</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.7644</v>
+        <v>2.8871</v>
       </c>
       <c r="F2" t="n">
-        <v>2044.799036</v>
+        <v>2135.558999</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>174.5668400000004</v>
+        <v>265.3268030000004</v>
       </c>
       <c r="J2" t="n">
-        <v>9.33</v>
+        <v>14.19</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.4245</v>
+        <v>3.4889</v>
       </c>
       <c r="F3" t="n">
-        <v>1110.63384</v>
+        <v>1131.520048</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>110.6904159999999</v>
+        <v>131.576624</v>
       </c>
       <c r="J3" t="n">
-        <v>11.07</v>
+        <v>13.16</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2323</v>
+        <v>1.2518</v>
       </c>
       <c r="F4" t="n">
-        <v>7024.11</v>
+        <v>7135.26</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1603.41</v>
+        <v>1714.56</v>
       </c>
       <c r="J4" t="n">
-        <v>29.58</v>
+        <v>31.63</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4456</v>
+        <v>1.4433</v>
       </c>
       <c r="F6" t="n">
-        <v>2453.602424</v>
+        <v>2449.698657</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-46.33601699999963</v>
+        <v>-50.23978399999987</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.85</v>
+        <v>-2.01</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4456</v>
+        <v>1.4433</v>
       </c>
       <c r="F7" t="n">
-        <v>5195.63096</v>
+        <v>5187.36453</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-124.3558600000006</v>
+        <v>-132.6222900000002</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.34</v>
+        <v>-2.49</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.6795</v>
+        <v>1.7641</v>
       </c>
       <c r="F8" t="n">
-        <v>21665.55</v>
+        <v>22756.89</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2367.149999999998</v>
+        <v>3458.489999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>12.27</v>
+        <v>17.92</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8739</v>
+        <v>2.8839</v>
       </c>
       <c r="F9" t="n">
-        <v>870.2456589999999</v>
+        <v>873.273759</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>121.3056859999999</v>
+        <v>124.333786</v>
       </c>
       <c r="J9" t="n">
-        <v>16.2</v>
+        <v>16.6</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0673</v>
+        <v>2.0723</v>
       </c>
       <c r="F10" t="n">
-        <v>2150.880939</v>
+        <v>2156.083089</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>150.8623500000001</v>
+        <v>156.0644999999997</v>
       </c>
       <c r="J10" t="n">
-        <v>7.54</v>
+        <v>7.8</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5486</v>
+        <v>1.5533</v>
       </c>
       <c r="F11" t="n">
-        <v>6406.914377999999</v>
+        <v>6426.359358999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>427.7895819999994</v>
+        <v>447.2345629999991</v>
       </c>
       <c r="J11" t="n">
-        <v>7.15</v>
+        <v>7.48</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5486</v>
+        <v>1.5533</v>
       </c>
       <c r="F12" t="n">
-        <v>9313.388801999999</v>
+        <v>9341.654930999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>213.4994850000003</v>
+        <v>241.7656139999999</v>
       </c>
       <c r="J12" t="n">
-        <v>2.35</v>
+        <v>2.66</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2463</v>
+        <v>2.2637</v>
       </c>
       <c r="F15" t="n">
-        <v>20890.59</v>
+        <v>21052.41</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1444.290000000001</v>
+        <v>1606.110000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>7.43</v>
+        <v>8.26</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.21</v>
+        <v>27.65</v>
       </c>
       <c r="F16" t="n">
-        <v>13605</v>
+        <v>13825</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-210</v>
+        <v>10</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.52</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.880000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="F17" t="n">
-        <v>17760</v>
+        <v>18200</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0939</v>
+        <v>1.1047</v>
       </c>
       <c r="F18" t="n">
-        <v>4297.047041000001</v>
+        <v>4339.471493</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-9.427655999998933</v>
+        <v>32.99679600000036</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.22</v>
+        <v>0.77</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5485</v>
+        <v>1.5601</v>
       </c>
       <c r="F19" t="n">
-        <v>13471.95</v>
+        <v>13572.87</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>13.05000000000109</v>
+        <v>113.9700000000012</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1</v>
+        <v>0.85</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2386</v>
+        <v>1.2592</v>
       </c>
       <c r="F20" t="n">
-        <v>9816.970195999998</v>
+        <v>9980.242912</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>-183.0873660000016</v>
+        <v>-19.81465000000026</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.83</v>
+        <v>-0.2</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1387</v>
+        <v>1.1405</v>
       </c>
       <c r="F21" t="n">
-        <v>12867.31</v>
+        <v>12887.65</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>233.9100000000017</v>
+        <v>254.2500000000018</v>
       </c>
       <c r="J21" t="n">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5418</v>
+        <v>1.545</v>
       </c>
       <c r="F22" t="n">
-        <v>823.151602</v>
+        <v>824.8600499999999</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>94.01802900000007</v>
+        <v>95.72647699999993</v>
       </c>
       <c r="J22" t="n">
-        <v>12.89</v>
+        <v>13.13</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5418</v>
+        <v>1.545</v>
       </c>
       <c r="F23" t="n">
-        <v>19922.738732</v>
+        <v>19964.0883</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>722.3252659999998</v>
+        <v>763.6748339999976</v>
       </c>
       <c r="J23" t="n">
-        <v>3.76</v>
+        <v>3.98</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3879</v>
+        <v>1.3906</v>
       </c>
       <c r="F24" t="n">
-        <v>908.130728</v>
+        <v>909.8973920000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>108.159096</v>
+        <v>109.9257600000001</v>
       </c>
       <c r="J24" t="n">
-        <v>13.52</v>
+        <v>13.74</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.5949</v>
+        <v>5.6082</v>
       </c>
       <c r="F26" t="n">
-        <v>2323.785766</v>
+        <v>2329.309788</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>223.7851919999998</v>
+        <v>229.3092139999999</v>
       </c>
       <c r="J26" t="n">
-        <v>10.66</v>
+        <v>10.92</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.7958</v>
+        <v>1.7998</v>
       </c>
       <c r="F28" t="n">
-        <v>6929.633040000001</v>
+        <v>6945.068240000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>629.7561600000008</v>
+        <v>645.1913600000007</v>
       </c>
       <c r="J28" t="n">
-        <v>10</v>
+        <v>10.24</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.7958</v>
+        <v>1.7998</v>
       </c>
       <c r="F29" t="n">
-        <v>15640.142982</v>
+        <v>15674.980142</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>640.1328150000008</v>
+        <v>674.9699750000018</v>
       </c>
       <c r="J29" t="n">
-        <v>4.27</v>
+        <v>4.5</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8574</v>
+        <v>1.8883</v>
       </c>
       <c r="F30" t="n">
-        <v>9766.376366</v>
+        <v>9928.851347000002</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>885.9881650000007</v>
+        <v>1048.463146000002</v>
       </c>
       <c r="J30" t="n">
-        <v>9.98</v>
+        <v>11.81</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8574</v>
+        <v>1.8883</v>
       </c>
       <c r="F31" t="n">
-        <v>1252.389098</v>
+        <v>1273.224041</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>52.39077899999984</v>
+        <v>73.22572199999991</v>
       </c>
       <c r="J31" t="n">
-        <v>4.37</v>
+        <v>6.1</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.1877</v>
+        <v>2.195</v>
       </c>
       <c r="F33" t="n">
-        <v>13344.97</v>
+        <v>13389.5</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1071.769999999999</v>
+        <v>1116.299999999997</v>
       </c>
       <c r="J33" t="n">
-        <v>8.73</v>
+        <v>9.1</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.75</v>
+        <v>1.754</v>
       </c>
       <c r="F34" t="n">
-        <v>33425</v>
+        <v>33501.4</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2253.799999999999</v>
+        <v>2330.200000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>7.23</v>
+        <v>7.48</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.7447</v>
+        <v>5.7867</v>
       </c>
       <c r="F35" t="n">
-        <v>34964.427186</v>
+        <v>35220.055146</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1764.441562</v>
+        <v>2020.069521999998</v>
       </c>
       <c r="J35" t="n">
-        <v>5.31</v>
+        <v>6.08</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.7447</v>
+        <v>5.7867</v>
       </c>
       <c r="F36" t="n">
-        <v>11873.490642</v>
+        <v>11960.298762</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>573.5536499999998</v>
+        <v>660.3617699999995</v>
       </c>
       <c r="J36" t="n">
-        <v>5.08</v>
+        <v>5.84</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.7447</v>
+        <v>5.7867</v>
       </c>
       <c r="F37" t="n">
-        <v>86170.5</v>
+        <v>86800.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>2875.5</v>
+        <v>3505.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.45</v>
+        <v>4.21</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3174</v>
+        <v>2.3221</v>
       </c>
       <c r="F38" t="n">
-        <v>16855.400334</v>
+        <v>16889.585361</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1055.371791000001</v>
+        <v>1089.556817999997</v>
       </c>
       <c r="J38" t="n">
-        <v>6.68</v>
+        <v>6.9</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3174</v>
+        <v>2.3221</v>
       </c>
       <c r="F39" t="n">
-        <v>24165.638634</v>
+        <v>24214.649811</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1165.840338000002</v>
+        <v>1214.851514999998</v>
       </c>
       <c r="J39" t="n">
-        <v>5.07</v>
+        <v>5.28</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8224</v>
+        <v>1.8284</v>
       </c>
       <c r="F40" t="n">
-        <v>12210.08</v>
+        <v>12250.28</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1758.08</v>
+        <v>1798.280000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>16.82</v>
+        <v>17.21</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.25</v>
+        <v>7.29</v>
       </c>
       <c r="F41" t="n">
-        <v>7250</v>
+        <v>7290</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="J41" t="n">
-        <v>1.98</v>
+        <v>2.55</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>6.64</v>
+        <v>6.7</v>
       </c>
       <c r="F42" t="n">
-        <v>7304</v>
+        <v>7370</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>719.3999999999996</v>
+        <v>785.3999999999996</v>
       </c>
       <c r="J42" t="n">
-        <v>10.93</v>
+        <v>11.93</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>40.21</v>
+        <v>40.3</v>
       </c>
       <c r="F43" t="n">
-        <v>60315</v>
+        <v>60449.99999999999</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-4140</v>
+        <v>-4005.000000000007</v>
       </c>
       <c r="J43" t="n">
-        <v>-6.42</v>
+        <v>-6.21</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.8871</v>
+        <v>2.8453</v>
       </c>
       <c r="F2" t="n">
-        <v>2135.558999</v>
+        <v>2104.639957</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>265.3268030000004</v>
+        <v>234.4077610000004</v>
       </c>
       <c r="J2" t="n">
-        <v>14.19</v>
+        <v>12.53</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2518</v>
+        <v>1.2232</v>
       </c>
       <c r="F4" t="n">
-        <v>7135.26</v>
+        <v>6972.240000000001</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1714.56</v>
+        <v>1551.540000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>31.63</v>
+        <v>28.62</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.006</v>
+        <v>2.0509</v>
       </c>
       <c r="F5" t="n">
-        <v>2378.97558</v>
+        <v>2432.223837</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-20.99096099999997</v>
+        <v>32.25729600000022</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.87</v>
+        <v>1.34</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4433</v>
+        <v>1.4671</v>
       </c>
       <c r="F6" t="n">
-        <v>2449.698657</v>
+        <v>2490.094159</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-50.23978399999987</v>
+        <v>-9.844281999999566</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.01</v>
+        <v>-0.39</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4433</v>
+        <v>1.4671</v>
       </c>
       <c r="F7" t="n">
-        <v>5187.36453</v>
+        <v>5272.90411</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-132.6222900000002</v>
+        <v>-47.08270999999968</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.49</v>
+        <v>-0.89</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7641</v>
+        <v>1.7408</v>
       </c>
       <c r="F8" t="n">
-        <v>22756.89</v>
+        <v>22456.32</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3458.489999999998</v>
+        <v>3157.919999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>17.92</v>
+        <v>16.36</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8839</v>
+        <v>2.9044</v>
       </c>
       <c r="F9" t="n">
-        <v>873.273759</v>
+        <v>879.481364</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>124.333786</v>
+        <v>130.541391</v>
       </c>
       <c r="J9" t="n">
-        <v>16.6</v>
+        <v>17.43</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0723</v>
+        <v>2.0885</v>
       </c>
       <c r="F10" t="n">
-        <v>2156.083089</v>
+        <v>2172.938055</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>156.0644999999997</v>
+        <v>172.9194660000001</v>
       </c>
       <c r="J10" t="n">
-        <v>7.8</v>
+        <v>8.65</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5533</v>
+        <v>1.564</v>
       </c>
       <c r="F11" t="n">
-        <v>6426.359358999999</v>
+        <v>6470.627719999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>447.2345629999991</v>
+        <v>491.5029239999994</v>
       </c>
       <c r="J11" t="n">
-        <v>7.48</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5533</v>
+        <v>1.564</v>
       </c>
       <c r="F12" t="n">
-        <v>9341.654930999999</v>
+        <v>9406.00548</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>241.7656139999999</v>
+        <v>306.1161630000006</v>
       </c>
       <c r="J12" t="n">
-        <v>2.66</v>
+        <v>3.36</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1047</v>
+        <v>1.1155</v>
       </c>
       <c r="F18" t="n">
-        <v>4339.471493</v>
+        <v>4381.895945</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>32.99679600000036</v>
+        <v>75.42124800000056</v>
       </c>
       <c r="J18" t="n">
-        <v>0.77</v>
+        <v>1.75</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5601</v>
+        <v>1.576</v>
       </c>
       <c r="F19" t="n">
-        <v>13572.87</v>
+        <v>13711.2</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>113.9700000000012</v>
+        <v>252.3000000000011</v>
       </c>
       <c r="J19" t="n">
-        <v>0.85</v>
+        <v>1.87</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2592</v>
+        <v>1.2569</v>
       </c>
       <c r="F20" t="n">
-        <v>9980.242912</v>
+        <v>9962.013433999999</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>-19.81465000000026</v>
+        <v>-38.04412800000136</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.2</v>
+        <v>-0.38</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1405</v>
+        <v>1.1488</v>
       </c>
       <c r="F21" t="n">
-        <v>12887.65</v>
+        <v>12981.44</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>254.2500000000018</v>
+        <v>348.0400000000009</v>
       </c>
       <c r="J21" t="n">
-        <v>2.01</v>
+        <v>2.75</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.545</v>
+        <v>1.5695</v>
       </c>
       <c r="F22" t="n">
-        <v>824.8600499999999</v>
+        <v>837.940355</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>95.72647699999993</v>
+        <v>108.806782</v>
       </c>
       <c r="J22" t="n">
-        <v>13.13</v>
+        <v>14.92</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.545</v>
+        <v>1.5695</v>
       </c>
       <c r="F23" t="n">
-        <v>19964.0883</v>
+        <v>20280.67093</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>763.6748339999976</v>
+        <v>1080.257463999995</v>
       </c>
       <c r="J23" t="n">
-        <v>3.98</v>
+        <v>5.63</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3906</v>
+        <v>1.4122</v>
       </c>
       <c r="F24" t="n">
-        <v>909.8973920000001</v>
+        <v>924.030704</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>109.9257600000001</v>
+        <v>124.059072</v>
       </c>
       <c r="J24" t="n">
-        <v>13.74</v>
+        <v>15.51</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.6082</v>
+        <v>5.7022</v>
       </c>
       <c r="F26" t="n">
-        <v>2329.309788</v>
+        <v>2368.351748</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>229.3092139999999</v>
+        <v>268.3511739999999</v>
       </c>
       <c r="J26" t="n">
-        <v>10.92</v>
+        <v>12.78</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.7998</v>
+        <v>1.8296</v>
       </c>
       <c r="F28" t="n">
-        <v>6945.068240000001</v>
+        <v>7060.06048</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>645.1913600000007</v>
+        <v>760.1836000000003</v>
       </c>
       <c r="J28" t="n">
-        <v>10.24</v>
+        <v>12.07</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.7998</v>
+        <v>1.8296</v>
       </c>
       <c r="F29" t="n">
-        <v>15674.980142</v>
+        <v>15934.516984</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>674.9699750000018</v>
+        <v>934.5068169999995</v>
       </c>
       <c r="J29" t="n">
-        <v>4.5</v>
+        <v>6.23</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.195</v>
+        <v>2.2338</v>
       </c>
       <c r="F33" t="n">
-        <v>13389.5</v>
+        <v>13626.18</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1116.299999999997</v>
+        <v>1352.98</v>
       </c>
       <c r="J33" t="n">
-        <v>9.1</v>
+        <v>11.02</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.754</v>
+        <v>1.785</v>
       </c>
       <c r="F34" t="n">
-        <v>33501.4</v>
+        <v>34093.5</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2330.200000000001</v>
+        <v>2922.299999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>7.48</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.7867</v>
+        <v>5.9173</v>
       </c>
       <c r="F35" t="n">
-        <v>35220.055146</v>
+        <v>36014.936374</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2020.069521999998</v>
+        <v>2814.950749999996</v>
       </c>
       <c r="J35" t="n">
-        <v>6.08</v>
+        <v>8.48</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.7867</v>
+        <v>5.9173</v>
       </c>
       <c r="F36" t="n">
-        <v>11960.298762</v>
+        <v>12230.230678</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>660.3617699999995</v>
+        <v>930.2936859999991</v>
       </c>
       <c r="J36" t="n">
-        <v>5.84</v>
+        <v>8.23</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.7867</v>
+        <v>5.9173</v>
       </c>
       <c r="F37" t="n">
-        <v>86800.5</v>
+        <v>88759.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>3505.5</v>
+        <v>5464.5</v>
       </c>
       <c r="J37" t="n">
-        <v>4.21</v>
+        <v>6.56</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3221</v>
+        <v>2.3658</v>
       </c>
       <c r="F38" t="n">
-        <v>16889.585361</v>
+        <v>17207.433378</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1089.556817999997</v>
+        <v>1407.404835000001</v>
       </c>
       <c r="J38" t="n">
-        <v>6.9</v>
+        <v>8.91</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3221</v>
+        <v>2.3658</v>
       </c>
       <c r="F39" t="n">
-        <v>24214.649811</v>
+        <v>24670.349478</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1214.851514999998</v>
+        <v>1670.551181999999</v>
       </c>
       <c r="J39" t="n">
-        <v>5.28</v>
+        <v>7.26</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8284</v>
+        <v>1.8674</v>
       </c>
       <c r="F40" t="n">
-        <v>12250.28</v>
+        <v>12511.58</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1798.280000000001</v>
+        <v>2059.58</v>
       </c>
       <c r="J40" t="n">
-        <v>17.21</v>
+        <v>19.71</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.4889</v>
+        <v>3.3435</v>
       </c>
       <c r="F3" t="n">
-        <v>1131.520048</v>
+        <v>1084.36392</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>131.576624</v>
+        <v>84.42049599999996</v>
       </c>
       <c r="J3" t="n">
-        <v>13.16</v>
+        <v>8.44</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9044</v>
+        <v>2.8282</v>
       </c>
       <c r="F9" t="n">
-        <v>879.481364</v>
+        <v>856.407242</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>130.541391</v>
+        <v>107.467269</v>
       </c>
       <c r="J9" t="n">
-        <v>17.43</v>
+        <v>14.35</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0885</v>
+        <v>2.0379</v>
       </c>
       <c r="F10" t="n">
-        <v>2172.938055</v>
+        <v>2120.292297</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>172.9194660000001</v>
+        <v>120.2737079999999</v>
       </c>
       <c r="J10" t="n">
-        <v>8.65</v>
+        <v>6.01</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2637</v>
+        <v>2.2009</v>
       </c>
       <c r="F15" t="n">
-        <v>21052.41</v>
+        <v>20468.37</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1606.110000000001</v>
+        <v>1022.07</v>
       </c>
       <c r="J15" t="n">
-        <v>8.26</v>
+        <v>5.26</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.65</v>
+        <v>27.7</v>
       </c>
       <c r="F16" t="n">
-        <v>13825</v>
+        <v>13850</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="J16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>9.1</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>18200</v>
+        <v>17760</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8296</v>
+        <v>1.7676</v>
       </c>
       <c r="F28" t="n">
-        <v>7060.06048</v>
+        <v>6820.814880000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>760.1836000000003</v>
+        <v>520.938000000001</v>
       </c>
       <c r="J28" t="n">
-        <v>12.07</v>
+        <v>8.27</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8296</v>
+        <v>1.7676</v>
       </c>
       <c r="F29" t="n">
-        <v>15934.516984</v>
+        <v>15394.541004</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>934.5068169999995</v>
+        <v>394.5308370000021</v>
       </c>
       <c r="J29" t="n">
-        <v>6.23</v>
+        <v>2.63</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8883</v>
+        <v>1.8238</v>
       </c>
       <c r="F30" t="n">
-        <v>9928.851347000002</v>
+        <v>9589.704542000001</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1048.463146000002</v>
+        <v>709.3163410000016</v>
       </c>
       <c r="J30" t="n">
-        <v>11.81</v>
+        <v>7.99</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8883</v>
+        <v>1.8238</v>
       </c>
       <c r="F31" t="n">
-        <v>1273.224041</v>
+        <v>1229.733626</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>73.22572199999991</v>
+        <v>29.73530699999992</v>
       </c>
       <c r="J31" t="n">
-        <v>6.1</v>
+        <v>2.48</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.9173</v>
+        <v>5.6932</v>
       </c>
       <c r="F35" t="n">
-        <v>36014.936374</v>
+        <v>34650.978616</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2814.950749999996</v>
+        <v>1450.992992</v>
       </c>
       <c r="J35" t="n">
-        <v>8.48</v>
+        <v>4.37</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.9173</v>
+        <v>5.6932</v>
       </c>
       <c r="F36" t="n">
-        <v>12230.230678</v>
+        <v>11767.047352</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>930.2936859999991</v>
+        <v>467.1103600000006</v>
       </c>
       <c r="J36" t="n">
-        <v>8.23</v>
+        <v>4.13</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.9173</v>
+        <v>5.6932</v>
       </c>
       <c r="F37" t="n">
-        <v>88759.5</v>
+        <v>85398</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>5464.5</v>
+        <v>2103</v>
       </c>
       <c r="J37" t="n">
-        <v>6.56</v>
+        <v>2.52</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.29</v>
+        <v>7.32</v>
       </c>
       <c r="F41" t="n">
-        <v>7290</v>
+        <v>7320</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="J41" t="n">
-        <v>2.55</v>
+        <v>2.97</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="F42" t="n">
-        <v>7370</v>
+        <v>7480</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>785.3999999999996</v>
+        <v>895.3999999999996</v>
       </c>
       <c r="J42" t="n">
-        <v>11.93</v>
+        <v>13.6</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>40.3</v>
+        <v>39.76</v>
       </c>
       <c r="F43" t="n">
-        <v>60449.99999999999</v>
+        <v>59640</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-4005.000000000007</v>
+        <v>-4815</v>
       </c>
       <c r="J43" t="n">
-        <v>-6.21</v>
+        <v>-7.47</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.8453</v>
+        <v>2.9331</v>
       </c>
       <c r="F2" t="n">
-        <v>2104.639957</v>
+        <v>2169.584739</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>234.4077610000004</v>
+        <v>299.3525430000004</v>
       </c>
       <c r="J2" t="n">
-        <v>12.53</v>
+        <v>16.01</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2232</v>
+        <v>1.2172</v>
       </c>
       <c r="F4" t="n">
-        <v>6972.240000000001</v>
+        <v>6938.04</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1551.540000000001</v>
+        <v>1517.34</v>
       </c>
       <c r="J4" t="n">
-        <v>28.62</v>
+        <v>27.99</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0509</v>
+        <v>2.0112</v>
       </c>
       <c r="F5" t="n">
-        <v>2432.223837</v>
+        <v>2385.142416</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>32.25729600000022</v>
+        <v>-14.82412499999964</v>
       </c>
       <c r="J5" t="n">
-        <v>1.34</v>
+        <v>-0.62</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4671</v>
+        <v>1.472</v>
       </c>
       <c r="F6" t="n">
-        <v>2490.094159</v>
+        <v>2498.41088</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-9.844281999999566</v>
+        <v>-1.527560999999878</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.39</v>
+        <v>-0.06</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4671</v>
+        <v>1.472</v>
       </c>
       <c r="F7" t="n">
-        <v>5272.90411</v>
+        <v>5290.5152</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-47.08270999999968</v>
+        <v>-29.47162000000026</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.89</v>
+        <v>-0.55</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7408</v>
+        <v>1.7525</v>
       </c>
       <c r="F8" t="n">
-        <v>22456.32</v>
+        <v>22607.25</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3157.919999999998</v>
+        <v>3308.849999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>16.36</v>
+        <v>17.15</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8282</v>
+        <v>2.8681</v>
       </c>
       <c r="F9" t="n">
-        <v>856.407242</v>
+        <v>868.489361</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>107.467269</v>
+        <v>119.549388</v>
       </c>
       <c r="J9" t="n">
-        <v>14.35</v>
+        <v>15.96</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.564</v>
+        <v>1.5257</v>
       </c>
       <c r="F11" t="n">
-        <v>6470.627719999999</v>
+        <v>6312.171810999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>491.5029239999994</v>
+        <v>333.0470149999992</v>
       </c>
       <c r="J11" t="n">
-        <v>8.220000000000001</v>
+        <v>5.57</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.564</v>
+        <v>1.5257</v>
       </c>
       <c r="F12" t="n">
-        <v>9406.00548</v>
+        <v>9175.666599</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>306.1161630000006</v>
+        <v>75.77728200000092</v>
       </c>
       <c r="J12" t="n">
-        <v>3.36</v>
+        <v>0.83</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2009</v>
+        <v>2.2339</v>
       </c>
       <c r="F15" t="n">
-        <v>20468.37</v>
+        <v>20775.27</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1022.07</v>
+        <v>1328.970000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>5.26</v>
+        <v>6.83</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.7</v>
+        <v>27.74</v>
       </c>
       <c r="F16" t="n">
-        <v>13850</v>
+        <v>13870</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="J16" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.880000000000001</v>
+        <v>9.09</v>
       </c>
       <c r="F17" t="n">
-        <v>17760</v>
+        <v>18180</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1155</v>
+        <v>1.1103</v>
       </c>
       <c r="F18" t="n">
-        <v>4381.895945</v>
+        <v>4361.469357</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>75.42124800000056</v>
+        <v>54.99466000000029</v>
       </c>
       <c r="J18" t="n">
-        <v>1.75</v>
+        <v>1.28</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.576</v>
+        <v>1.5691</v>
       </c>
       <c r="F19" t="n">
-        <v>13711.2</v>
+        <v>13651.17</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>252.3000000000011</v>
+        <v>192.2700000000004</v>
       </c>
       <c r="J19" t="n">
-        <v>1.87</v>
+        <v>1.43</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1488</v>
+        <v>1.1557</v>
       </c>
       <c r="F21" t="n">
-        <v>12981.44</v>
+        <v>13059.41</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>348.0400000000009</v>
+        <v>426.0100000000002</v>
       </c>
       <c r="J21" t="n">
-        <v>2.75</v>
+        <v>3.37</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5695</v>
+        <v>1.5191</v>
       </c>
       <c r="F22" t="n">
-        <v>837.940355</v>
+        <v>811.032299</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>108.806782</v>
+        <v>81.89872600000001</v>
       </c>
       <c r="J22" t="n">
-        <v>14.92</v>
+        <v>11.23</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5695</v>
+        <v>1.5191</v>
       </c>
       <c r="F23" t="n">
-        <v>20280.67093</v>
+        <v>19629.415234</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1080.257463999995</v>
+        <v>429.0017679999983</v>
       </c>
       <c r="J23" t="n">
-        <v>5.63</v>
+        <v>2.23</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4122</v>
+        <v>1.3659</v>
       </c>
       <c r="F24" t="n">
-        <v>924.030704</v>
+        <v>893.735688</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>124.059072</v>
+        <v>93.76405599999998</v>
       </c>
       <c r="J24" t="n">
-        <v>15.51</v>
+        <v>11.72</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7022</v>
+        <v>5.5004</v>
       </c>
       <c r="F26" t="n">
-        <v>2368.351748</v>
+        <v>2284.536136</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>268.3511739999999</v>
+        <v>184.5355619999996</v>
       </c>
       <c r="J26" t="n">
-        <v>12.78</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8238</v>
+        <v>1.8607</v>
       </c>
       <c r="F30" t="n">
-        <v>9589.704542000001</v>
+        <v>9783.728063</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>709.3163410000016</v>
+        <v>903.3398620000007</v>
       </c>
       <c r="J30" t="n">
-        <v>7.99</v>
+        <v>10.17</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8238</v>
+        <v>1.8607</v>
       </c>
       <c r="F31" t="n">
-        <v>1229.733626</v>
+        <v>1254.614189</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>29.73530699999992</v>
+        <v>54.61586999999986</v>
       </c>
       <c r="J31" t="n">
-        <v>2.48</v>
+        <v>4.55</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2338</v>
+        <v>2.1551</v>
       </c>
       <c r="F33" t="n">
-        <v>13626.18</v>
+        <v>13146.11</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1352.98</v>
+        <v>872.9099999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>11.02</v>
+        <v>7.11</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.785</v>
+        <v>1.721</v>
       </c>
       <c r="F34" t="n">
-        <v>34093.5</v>
+        <v>32871.1</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2922.299999999999</v>
+        <v>1699.899999999998</v>
       </c>
       <c r="J34" t="n">
-        <v>9.369999999999999</v>
+        <v>5.45</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.6932</v>
+        <v>5.8207</v>
       </c>
       <c r="F35" t="n">
-        <v>34650.978616</v>
+        <v>35426.99206600001</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1450.992992</v>
+        <v>2227.006442000005</v>
       </c>
       <c r="J35" t="n">
-        <v>4.37</v>
+        <v>6.71</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.6932</v>
+        <v>5.8207</v>
       </c>
       <c r="F36" t="n">
-        <v>11767.047352</v>
+        <v>12030.572002</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>467.1103600000006</v>
+        <v>730.63501</v>
       </c>
       <c r="J36" t="n">
-        <v>4.13</v>
+        <v>6.47</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.6932</v>
+        <v>5.8207</v>
       </c>
       <c r="F37" t="n">
-        <v>85398</v>
+        <v>87310.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>2103</v>
+        <v>4015.5</v>
       </c>
       <c r="J37" t="n">
-        <v>2.52</v>
+        <v>4.82</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3658</v>
+        <v>2.2756</v>
       </c>
       <c r="F38" t="n">
-        <v>17207.433378</v>
+        <v>16551.371796</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1407.404835000001</v>
+        <v>751.3432529999991</v>
       </c>
       <c r="J38" t="n">
-        <v>8.91</v>
+        <v>4.76</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3658</v>
+        <v>2.2756</v>
       </c>
       <c r="F39" t="n">
-        <v>24670.349478</v>
+        <v>23729.751996</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1670.551181999999</v>
+        <v>729.9536999999982</v>
       </c>
       <c r="J39" t="n">
-        <v>7.26</v>
+        <v>3.17</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8674</v>
+        <v>1.7922</v>
       </c>
       <c r="F40" t="n">
-        <v>12511.58</v>
+        <v>12007.74</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2059.58</v>
+        <v>1555.74</v>
       </c>
       <c r="J40" t="n">
-        <v>19.71</v>
+        <v>14.88</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.32</v>
+        <v>7.26</v>
       </c>
       <c r="F41" t="n">
-        <v>7320</v>
+        <v>7260</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="J41" t="n">
-        <v>2.97</v>
+        <v>2.12</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>6.8</v>
+        <v>6.88</v>
       </c>
       <c r="F42" t="n">
-        <v>7480</v>
+        <v>7568</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>895.3999999999996</v>
+        <v>983.3999999999996</v>
       </c>
       <c r="J42" t="n">
-        <v>13.6</v>
+        <v>14.93</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>39.76</v>
+        <v>40.09</v>
       </c>
       <c r="F43" t="n">
-        <v>59640</v>
+        <v>60135.00000000001</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-4815</v>
+        <v>-4319.999999999993</v>
       </c>
       <c r="J43" t="n">
-        <v>-7.47</v>
+        <v>-6.7</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9331</v>
+        <v>2.9777</v>
       </c>
       <c r="F2" t="n">
-        <v>2169.584739</v>
+        <v>2202.574913</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>299.3525430000004</v>
+        <v>332.3427170000004</v>
       </c>
       <c r="J2" t="n">
-        <v>16.01</v>
+        <v>17.77</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.3435</v>
+        <v>3.3877</v>
       </c>
       <c r="F3" t="n">
-        <v>1084.36392</v>
+        <v>1098.698864</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>84.42049599999996</v>
+        <v>98.75543999999991</v>
       </c>
       <c r="J3" t="n">
-        <v>8.44</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2172</v>
+        <v>1.1955</v>
       </c>
       <c r="F4" t="n">
-        <v>6938.04</v>
+        <v>6814.35</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1517.34</v>
+        <v>1393.650000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>27.99</v>
+        <v>25.71</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0112</v>
+        <v>2.0084</v>
       </c>
       <c r="F5" t="n">
-        <v>2385.142416</v>
+        <v>2381.821812</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-14.82412499999964</v>
+        <v>-18.14472899999964</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.62</v>
+        <v>-0.76</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.472</v>
+        <v>1.4697</v>
       </c>
       <c r="F6" t="n">
-        <v>2498.41088</v>
+        <v>2494.507113</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.527560999999878</v>
+        <v>-5.431327999999667</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.06</v>
+        <v>-0.22</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.472</v>
+        <v>1.4697</v>
       </c>
       <c r="F7" t="n">
-        <v>5290.5152</v>
+        <v>5282.24877</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-29.47162000000026</v>
+        <v>-37.73804999999993</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.55</v>
+        <v>-0.71</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7525</v>
+        <v>1.7128</v>
       </c>
       <c r="F8" t="n">
-        <v>22607.25</v>
+        <v>22095.12</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3308.849999999999</v>
+        <v>2796.720000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>17.15</v>
+        <v>14.49</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8681</v>
+        <v>2.8643</v>
       </c>
       <c r="F9" t="n">
-        <v>868.489361</v>
+        <v>867.3386830000001</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>119.549388</v>
+        <v>118.3987100000001</v>
       </c>
       <c r="J9" t="n">
-        <v>15.96</v>
+        <v>15.81</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0379</v>
+        <v>2.0627</v>
       </c>
       <c r="F10" t="n">
-        <v>2120.292297</v>
+        <v>2146.094961</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>120.2737079999999</v>
+        <v>146.0763720000002</v>
       </c>
       <c r="J10" t="n">
-        <v>6.01</v>
+        <v>7.3</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5257</v>
+        <v>1.546</v>
       </c>
       <c r="F11" t="n">
-        <v>6312.171810999999</v>
+        <v>6396.157579999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>333.0470149999992</v>
+        <v>417.0327839999991</v>
       </c>
       <c r="J11" t="n">
-        <v>5.57</v>
+        <v>6.97</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5257</v>
+        <v>1.546</v>
       </c>
       <c r="F12" t="n">
-        <v>9175.666599</v>
+        <v>9297.75222</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>75.77728200000092</v>
+        <v>197.8629030000011</v>
       </c>
       <c r="J12" t="n">
-        <v>0.83</v>
+        <v>2.17</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2339</v>
+        <v>2.2307</v>
       </c>
       <c r="F15" t="n">
-        <v>20775.27</v>
+        <v>20745.51</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1328.970000000001</v>
+        <v>1299.210000000003</v>
       </c>
       <c r="J15" t="n">
-        <v>6.83</v>
+        <v>6.68</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.74</v>
+        <v>27.98</v>
       </c>
       <c r="F16" t="n">
-        <v>13870</v>
+        <v>13990</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4</v>
+        <v>1.27</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>9.09</v>
+        <v>9.18</v>
       </c>
       <c r="F17" t="n">
-        <v>18180</v>
+        <v>18360</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>420</v>
+        <v>600</v>
       </c>
       <c r="J17" t="n">
-        <v>2.36</v>
+        <v>3.38</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1103</v>
+        <v>1.1223</v>
       </c>
       <c r="F18" t="n">
-        <v>4361.469357</v>
+        <v>4408.607637</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>54.99466000000029</v>
+        <v>102.1329400000004</v>
       </c>
       <c r="J18" t="n">
-        <v>1.28</v>
+        <v>2.37</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5691</v>
+        <v>1.5866</v>
       </c>
       <c r="F19" t="n">
-        <v>13651.17</v>
+        <v>13803.42</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>192.2700000000004</v>
+        <v>344.5200000000004</v>
       </c>
       <c r="J19" t="n">
-        <v>1.43</v>
+        <v>2.56</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2569</v>
+        <v>1.2549</v>
       </c>
       <c r="F20" t="n">
-        <v>9962.013433999999</v>
+        <v>9946.161713999998</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>-38.04412800000136</v>
+        <v>-53.89584800000193</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.38</v>
+        <v>-0.54</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1557</v>
+        <v>1.1767</v>
       </c>
       <c r="F21" t="n">
-        <v>13059.41</v>
+        <v>13296.71</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>426.0100000000002</v>
+        <v>663.3100000000013</v>
       </c>
       <c r="J21" t="n">
-        <v>3.37</v>
+        <v>5.25</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5191</v>
+        <v>1.5479</v>
       </c>
       <c r="F22" t="n">
-        <v>811.032299</v>
+        <v>826.408331</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>81.89872600000001</v>
+        <v>97.27475800000002</v>
       </c>
       <c r="J22" t="n">
-        <v>11.23</v>
+        <v>13.34</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5191</v>
+        <v>1.5479</v>
       </c>
       <c r="F23" t="n">
-        <v>19629.415234</v>
+        <v>20001.561346</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>429.0017679999983</v>
+        <v>801.1478799999968</v>
       </c>
       <c r="J23" t="n">
-        <v>2.23</v>
+        <v>4.17</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3659</v>
+        <v>1.3916</v>
       </c>
       <c r="F24" t="n">
-        <v>893.735688</v>
+        <v>910.5517120000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>93.76405599999998</v>
+        <v>110.5800800000001</v>
       </c>
       <c r="J24" t="n">
-        <v>11.72</v>
+        <v>13.82</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.5004</v>
+        <v>5.616</v>
       </c>
       <c r="F26" t="n">
-        <v>2284.536136</v>
+        <v>2332.54944</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>184.5355619999996</v>
+        <v>232.5488659999996</v>
       </c>
       <c r="J26" t="n">
-        <v>8.789999999999999</v>
+        <v>11.07</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.7676</v>
+        <v>1.8032</v>
       </c>
       <c r="F28" t="n">
-        <v>6820.814880000001</v>
+        <v>6958.18816</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>520.938000000001</v>
+        <v>658.3112799999999</v>
       </c>
       <c r="J28" t="n">
-        <v>8.27</v>
+        <v>10.45</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.7676</v>
+        <v>1.8032</v>
       </c>
       <c r="F29" t="n">
-        <v>15394.541004</v>
+        <v>15704.591728</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>394.5308370000021</v>
+        <v>704.5815610000009</v>
       </c>
       <c r="J29" t="n">
-        <v>2.63</v>
+        <v>4.7</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8607</v>
+        <v>1.8488</v>
       </c>
       <c r="F30" t="n">
-        <v>9783.728063</v>
+        <v>9721.156792</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>903.3398620000007</v>
+        <v>840.768591</v>
       </c>
       <c r="J30" t="n">
-        <v>10.17</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8607</v>
+        <v>1.8488</v>
       </c>
       <c r="F31" t="n">
-        <v>1254.614189</v>
+        <v>1246.590376</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>54.61586999999986</v>
+        <v>46.59205699999984</v>
       </c>
       <c r="J31" t="n">
-        <v>4.55</v>
+        <v>3.88</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.1551</v>
+        <v>2.2039</v>
       </c>
       <c r="F33" t="n">
-        <v>13146.11</v>
+        <v>13443.79</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>872.9099999999999</v>
+        <v>1170.589999999998</v>
       </c>
       <c r="J33" t="n">
-        <v>7.11</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.721</v>
+        <v>1.757</v>
       </c>
       <c r="F34" t="n">
-        <v>32871.1</v>
+        <v>33558.7</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>1699.899999999998</v>
+        <v>2387.499999999996</v>
       </c>
       <c r="J34" t="n">
-        <v>5.45</v>
+        <v>7.66</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8207</v>
+        <v>5.7374</v>
       </c>
       <c r="F35" t="n">
-        <v>35426.99206600001</v>
+        <v>34919.996612</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2227.006442000005</v>
+        <v>1720.010988000002</v>
       </c>
       <c r="J35" t="n">
-        <v>6.71</v>
+        <v>5.18</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.8207</v>
+        <v>5.7374</v>
       </c>
       <c r="F36" t="n">
-        <v>12030.572002</v>
+        <v>11858.402564</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>730.63501</v>
+        <v>558.4655719999992</v>
       </c>
       <c r="J36" t="n">
-        <v>6.47</v>
+        <v>4.94</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.8207</v>
+        <v>5.7374</v>
       </c>
       <c r="F37" t="n">
-        <v>87310.5</v>
+        <v>86061</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>4015.5</v>
+        <v>2766</v>
       </c>
       <c r="J37" t="n">
-        <v>4.82</v>
+        <v>3.32</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.2756</v>
+        <v>2.3305</v>
       </c>
       <c r="F38" t="n">
-        <v>16551.371796</v>
+        <v>16950.682005</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>751.3432529999991</v>
+        <v>1150.653461999998</v>
       </c>
       <c r="J38" t="n">
-        <v>4.76</v>
+        <v>7.28</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.2756</v>
+        <v>2.3305</v>
       </c>
       <c r="F39" t="n">
-        <v>23729.751996</v>
+        <v>24302.244255</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>729.9536999999982</v>
+        <v>1302.445958999997</v>
       </c>
       <c r="J39" t="n">
-        <v>3.17</v>
+        <v>5.66</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.7922</v>
+        <v>1.8408</v>
       </c>
       <c r="F40" t="n">
-        <v>12007.74</v>
+        <v>12333.36</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1555.74</v>
+        <v>1881.360000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>14.88</v>
+        <v>18</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.26</v>
+        <v>7.47</v>
       </c>
       <c r="F41" t="n">
-        <v>7260</v>
+        <v>7470</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>151</v>
+        <v>361</v>
       </c>
       <c r="J41" t="n">
-        <v>2.12</v>
+        <v>5.08</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>6.88</v>
+        <v>7.11</v>
       </c>
       <c r="F42" t="n">
-        <v>7568</v>
+        <v>7821</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>983.3999999999996</v>
+        <v>1236.4</v>
       </c>
       <c r="J42" t="n">
-        <v>14.93</v>
+        <v>18.78</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>40.09</v>
+        <v>41.25</v>
       </c>
       <c r="F43" t="n">
-        <v>60135.00000000001</v>
+        <v>61875</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-4319.999999999993</v>
+        <v>-2580</v>
       </c>
       <c r="J43" t="n">
-        <v>-6.7</v>
+        <v>-4</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9777</v>
+        <v>3.0325</v>
       </c>
       <c r="F2" t="n">
-        <v>2202.574913</v>
+        <v>2243.109925</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>332.3427170000004</v>
+        <v>372.8777290000003</v>
       </c>
       <c r="J2" t="n">
-        <v>17.77</v>
+        <v>19.94</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.3877</v>
+        <v>3.3786</v>
       </c>
       <c r="F3" t="n">
-        <v>1098.698864</v>
+        <v>1095.747552</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>98.75543999999991</v>
+        <v>95.80412799999999</v>
       </c>
       <c r="J3" t="n">
-        <v>9.880000000000001</v>
+        <v>9.58</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.1955</v>
+        <v>1.2137</v>
       </c>
       <c r="F4" t="n">
-        <v>6814.35</v>
+        <v>6918.09</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1393.650000000001</v>
+        <v>1497.39</v>
       </c>
       <c r="J4" t="n">
-        <v>25.71</v>
+        <v>27.62</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4697</v>
+        <v>1.4661</v>
       </c>
       <c r="F6" t="n">
-        <v>2494.507113</v>
+        <v>2488.396869</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-5.431327999999667</v>
+        <v>-11.54157200000009</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.22</v>
+        <v>-0.46</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4697</v>
+        <v>1.4661</v>
       </c>
       <c r="F7" t="n">
-        <v>5282.24877</v>
+        <v>5269.31001</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-37.73804999999993</v>
+        <v>-50.67680999999993</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.71</v>
+        <v>-0.95</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7128</v>
+        <v>1.7467</v>
       </c>
       <c r="F8" t="n">
-        <v>22095.12</v>
+        <v>22532.43</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2796.720000000001</v>
+        <v>3234.029999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>14.49</v>
+        <v>16.76</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8643</v>
+        <v>2.8745</v>
       </c>
       <c r="F9" t="n">
-        <v>867.3386830000001</v>
+        <v>870.4273449999999</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>118.3987100000001</v>
+        <v>121.4873719999999</v>
       </c>
       <c r="J9" t="n">
-        <v>15.81</v>
+        <v>16.22</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0627</v>
+        <v>2.06</v>
       </c>
       <c r="F10" t="n">
-        <v>2146.094961</v>
+        <v>2143.2858</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>146.0763720000002</v>
+        <v>143.2672110000001</v>
       </c>
       <c r="J10" t="n">
-        <v>7.3</v>
+        <v>7.16</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.546</v>
+        <v>1.5438</v>
       </c>
       <c r="F11" t="n">
-        <v>6396.157579999999</v>
+        <v>6387.055673999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>417.0327839999991</v>
+        <v>407.9308779999992</v>
       </c>
       <c r="J11" t="n">
-        <v>6.97</v>
+        <v>6.82</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.546</v>
+        <v>1.5438</v>
       </c>
       <c r="F12" t="n">
-        <v>9297.75222</v>
+        <v>9284.521266</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>197.8629030000011</v>
+        <v>184.6319490000005</v>
       </c>
       <c r="J12" t="n">
-        <v>2.17</v>
+        <v>2.03</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2307</v>
+        <v>2.2393</v>
       </c>
       <c r="F15" t="n">
-        <v>20745.51</v>
+        <v>20825.49</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1299.210000000003</v>
+        <v>1379.190000000002</v>
       </c>
       <c r="J15" t="n">
-        <v>6.68</v>
+        <v>7.09</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.98</v>
+        <v>27.85</v>
       </c>
       <c r="F16" t="n">
-        <v>13990</v>
+        <v>13925</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="J16" t="n">
-        <v>1.27</v>
+        <v>0.8</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>9.18</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>18360</v>
+        <v>18260</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J17" t="n">
-        <v>3.38</v>
+        <v>2.82</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1223</v>
+        <v>1.1259</v>
       </c>
       <c r="F18" t="n">
-        <v>4408.607637</v>
+        <v>4422.749121</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>102.1329400000004</v>
+        <v>116.2744240000002</v>
       </c>
       <c r="J18" t="n">
-        <v>2.37</v>
+        <v>2.7</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5866</v>
+        <v>1.5938</v>
       </c>
       <c r="F19" t="n">
-        <v>13803.42</v>
+        <v>13866.06</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>344.5200000000004</v>
+        <v>407.1600000000017</v>
       </c>
       <c r="J19" t="n">
-        <v>2.56</v>
+        <v>3.03</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2549</v>
+        <v>1.2737</v>
       </c>
       <c r="F20" t="n">
-        <v>9946.161713999998</v>
+        <v>10095.167882</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>-53.89584800000193</v>
+        <v>95.11031999999977</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.54</v>
+        <v>0.95</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1767</v>
+        <v>1.1827</v>
       </c>
       <c r="F21" t="n">
-        <v>13296.71</v>
+        <v>13364.51</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>663.3100000000013</v>
+        <v>731.1100000000006</v>
       </c>
       <c r="J21" t="n">
-        <v>5.25</v>
+        <v>5.79</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5479</v>
+        <v>1.5385</v>
       </c>
       <c r="F22" t="n">
-        <v>826.408331</v>
+        <v>821.389765</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>97.27475800000002</v>
+        <v>92.25619200000006</v>
       </c>
       <c r="J22" t="n">
-        <v>13.34</v>
+        <v>12.65</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5479</v>
+        <v>1.5385</v>
       </c>
       <c r="F23" t="n">
-        <v>20001.561346</v>
+        <v>19880.09699</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>801.1478799999968</v>
+        <v>679.6835239999964</v>
       </c>
       <c r="J23" t="n">
-        <v>4.17</v>
+        <v>3.54</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3916</v>
+        <v>1.3821</v>
       </c>
       <c r="F24" t="n">
-        <v>910.5517120000001</v>
+        <v>904.3356720000002</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>110.5800800000001</v>
+        <v>104.3640400000002</v>
       </c>
       <c r="J24" t="n">
-        <v>13.82</v>
+        <v>13.05</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.616</v>
+        <v>5.5788</v>
       </c>
       <c r="F26" t="n">
-        <v>2332.54944</v>
+        <v>2317.098792</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>232.5488659999996</v>
+        <v>217.0982179999996</v>
       </c>
       <c r="J26" t="n">
-        <v>11.07</v>
+        <v>10.34</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8032</v>
+        <v>1.7917</v>
       </c>
       <c r="F28" t="n">
-        <v>6958.18816</v>
+        <v>6913.811960000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>658.3112799999999</v>
+        <v>613.9350800000011</v>
       </c>
       <c r="J28" t="n">
-        <v>10.45</v>
+        <v>9.75</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8032</v>
+        <v>1.7917</v>
       </c>
       <c r="F29" t="n">
-        <v>15704.591728</v>
+        <v>15604.434893</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>704.5815610000009</v>
+        <v>604.4247260000011</v>
       </c>
       <c r="J29" t="n">
-        <v>4.7</v>
+        <v>4.03</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8488</v>
+        <v>1.86</v>
       </c>
       <c r="F30" t="n">
-        <v>9721.156792</v>
+        <v>9780.047400000001</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>840.768591</v>
+        <v>899.6591990000015</v>
       </c>
       <c r="J30" t="n">
-        <v>9.470000000000001</v>
+        <v>10.13</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8488</v>
+        <v>1.86</v>
       </c>
       <c r="F31" t="n">
-        <v>1246.590376</v>
+        <v>1254.1422</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>46.59205699999984</v>
+        <v>54.14388099999996</v>
       </c>
       <c r="J31" t="n">
-        <v>3.88</v>
+        <v>4.51</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2039</v>
+        <v>2.1918</v>
       </c>
       <c r="F33" t="n">
-        <v>13443.79</v>
+        <v>13369.98</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1170.589999999998</v>
+        <v>1096.780000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>9.539999999999999</v>
+        <v>8.94</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.757</v>
+        <v>1.746</v>
       </c>
       <c r="F34" t="n">
-        <v>33558.7</v>
+        <v>33348.6</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2387.499999999996</v>
+        <v>2177.399999999998</v>
       </c>
       <c r="J34" t="n">
-        <v>7.66</v>
+        <v>6.99</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.7374</v>
+        <v>5.7738</v>
       </c>
       <c r="F35" t="n">
-        <v>34919.996612</v>
+        <v>35141.540844</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1720.010988000002</v>
+        <v>1941.555219999995</v>
       </c>
       <c r="J35" t="n">
-        <v>5.18</v>
+        <v>5.85</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.7374</v>
+        <v>5.7738</v>
       </c>
       <c r="F36" t="n">
-        <v>11858.402564</v>
+        <v>11933.636268</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>558.4655719999992</v>
+        <v>633.6992759999994</v>
       </c>
       <c r="J36" t="n">
-        <v>4.94</v>
+        <v>5.61</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.7374</v>
+        <v>5.7738</v>
       </c>
       <c r="F37" t="n">
-        <v>86061</v>
+        <v>86607</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>2766</v>
+        <v>3312</v>
       </c>
       <c r="J37" t="n">
-        <v>3.32</v>
+        <v>3.98</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3305</v>
+        <v>2.3058</v>
       </c>
       <c r="F38" t="n">
-        <v>16950.682005</v>
+        <v>16771.028778</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1150.653461999998</v>
+        <v>971.0002349999995</v>
       </c>
       <c r="J38" t="n">
-        <v>7.28</v>
+        <v>6.15</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3305</v>
+        <v>2.3058</v>
       </c>
       <c r="F39" t="n">
-        <v>24302.244255</v>
+        <v>24044.674878</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1302.445958999997</v>
+        <v>1044.876582000001</v>
       </c>
       <c r="J39" t="n">
-        <v>5.66</v>
+        <v>4.54</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8408</v>
+        <v>1.8212</v>
       </c>
       <c r="F40" t="n">
-        <v>12333.36</v>
+        <v>12202.04</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1881.360000000001</v>
+        <v>1750.039999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>18</v>
+        <v>16.74</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.47</v>
+        <v>7.43</v>
       </c>
       <c r="F41" t="n">
-        <v>7470</v>
+        <v>7430</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="J41" t="n">
-        <v>5.08</v>
+        <v>4.52</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.11</v>
+        <v>7.25</v>
       </c>
       <c r="F42" t="n">
-        <v>7821</v>
+        <v>7975</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1236.4</v>
+        <v>1390.4</v>
       </c>
       <c r="J42" t="n">
-        <v>18.78</v>
+        <v>21.12</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.25</v>
+        <v>41.5</v>
       </c>
       <c r="F43" t="n">
-        <v>61875</v>
+        <v>62250</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-2580</v>
+        <v>-2205</v>
       </c>
       <c r="J43" t="n">
-        <v>-4</v>
+        <v>-3.42</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0325</v>
+        <v>3.0611</v>
       </c>
       <c r="F2" t="n">
-        <v>2243.109925</v>
+        <v>2264.265059</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>372.8777290000003</v>
+        <v>394.0328630000004</v>
       </c>
       <c r="J2" t="n">
-        <v>19.94</v>
+        <v>21.07</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.3786</v>
+        <v>3.3669</v>
       </c>
       <c r="F3" t="n">
-        <v>1095.747552</v>
+        <v>1091.953008</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>95.80412799999999</v>
+        <v>92.0095839999999</v>
       </c>
       <c r="J3" t="n">
-        <v>9.58</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2137</v>
+        <v>1.2133</v>
       </c>
       <c r="F4" t="n">
-        <v>6918.09</v>
+        <v>6915.81</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1497.39</v>
+        <v>1495.110000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>27.62</v>
+        <v>27.58</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0084</v>
+        <v>2.0218</v>
       </c>
       <c r="F5" t="n">
-        <v>2381.821812</v>
+        <v>2397.713274</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-18.14472899999964</v>
+        <v>-2.253267000000051</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.76</v>
+        <v>-0.09</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4661</v>
+        <v>1.4872</v>
       </c>
       <c r="F6" t="n">
-        <v>2488.396869</v>
+        <v>2524.209688</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-11.54157200000009</v>
+        <v>24.27124700000013</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.46</v>
+        <v>0.97</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4661</v>
+        <v>1.4872</v>
       </c>
       <c r="F7" t="n">
-        <v>5269.31001</v>
+        <v>5345.14552</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-50.67680999999993</v>
+        <v>25.15869999999995</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.95</v>
+        <v>0.47</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7467</v>
+        <v>1.7704</v>
       </c>
       <c r="F8" t="n">
-        <v>22532.43</v>
+        <v>22838.16</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3234.029999999999</v>
+        <v>3539.759999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>16.76</v>
+        <v>18.34</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8745</v>
+        <v>2.8563</v>
       </c>
       <c r="F9" t="n">
-        <v>870.4273449999999</v>
+        <v>864.916203</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>121.4873719999999</v>
+        <v>115.97623</v>
       </c>
       <c r="J9" t="n">
-        <v>16.22</v>
+        <v>15.49</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.06</v>
+        <v>2.0687</v>
       </c>
       <c r="F10" t="n">
-        <v>2143.2858</v>
+        <v>2152.337541</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>143.2672110000001</v>
+        <v>152.3189520000003</v>
       </c>
       <c r="J10" t="n">
-        <v>7.16</v>
+        <v>7.62</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5438</v>
+        <v>1.5491</v>
       </c>
       <c r="F11" t="n">
-        <v>6387.055673999999</v>
+        <v>6408.982992999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>407.9308779999992</v>
+        <v>429.8581969999987</v>
       </c>
       <c r="J11" t="n">
-        <v>6.82</v>
+        <v>7.19</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5438</v>
+        <v>1.5491</v>
       </c>
       <c r="F12" t="n">
-        <v>9284.521266</v>
+        <v>9316.395836999998</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>184.6319490000005</v>
+        <v>216.506519999999</v>
       </c>
       <c r="J12" t="n">
-        <v>2.03</v>
+        <v>2.38</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2393</v>
+        <v>2.2243</v>
       </c>
       <c r="F15" t="n">
-        <v>20825.49</v>
+        <v>20685.99</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1379.190000000002</v>
+        <v>1239.689999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>7.09</v>
+        <v>6.37</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.85</v>
+        <v>28.13</v>
       </c>
       <c r="F16" t="n">
-        <v>13925</v>
+        <v>14065</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8</v>
+        <v>1.81</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>9.130000000000001</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>18260</v>
+        <v>18420</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>500</v>
+        <v>660</v>
       </c>
       <c r="J17" t="n">
-        <v>2.82</v>
+        <v>3.72</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1259</v>
+        <v>1.1323</v>
       </c>
       <c r="F18" t="n">
-        <v>4422.749121</v>
+        <v>4447.889537</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>116.2744240000002</v>
+        <v>141.4148400000004</v>
       </c>
       <c r="J18" t="n">
-        <v>2.7</v>
+        <v>3.28</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5938</v>
+        <v>1.6</v>
       </c>
       <c r="F19" t="n">
-        <v>13866.06</v>
+        <v>13920</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>407.1600000000017</v>
+        <v>461.1000000000004</v>
       </c>
       <c r="J19" t="n">
-        <v>3.03</v>
+        <v>3.43</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2737</v>
+        <v>1.288</v>
       </c>
       <c r="F20" t="n">
-        <v>10095.167882</v>
+        <v>10208.50768</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>95.11031999999977</v>
+        <v>208.4501180000007</v>
       </c>
       <c r="J20" t="n">
-        <v>0.95</v>
+        <v>2.08</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1827</v>
+        <v>1.1899</v>
       </c>
       <c r="F21" t="n">
-        <v>13364.51</v>
+        <v>13445.87</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>731.1100000000006</v>
+        <v>812.4699999999993</v>
       </c>
       <c r="J21" t="n">
-        <v>5.79</v>
+        <v>6.43</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5385</v>
+        <v>1.5472</v>
       </c>
       <c r="F22" t="n">
-        <v>821.389765</v>
+        <v>826.0346079999999</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>92.25619200000006</v>
+        <v>96.90103499999998</v>
       </c>
       <c r="J22" t="n">
-        <v>12.65</v>
+        <v>13.29</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5385</v>
+        <v>1.5472</v>
       </c>
       <c r="F23" t="n">
-        <v>19880.09699</v>
+        <v>19992.516128</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>679.6835239999964</v>
+        <v>792.1026619999975</v>
       </c>
       <c r="J23" t="n">
-        <v>3.54</v>
+        <v>4.13</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3821</v>
+        <v>1.3896</v>
       </c>
       <c r="F24" t="n">
-        <v>904.3356720000002</v>
+        <v>909.243072</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>104.3640400000002</v>
+        <v>109.27144</v>
       </c>
       <c r="J24" t="n">
-        <v>13.05</v>
+        <v>13.66</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.5788</v>
+        <v>5.6146</v>
       </c>
       <c r="F26" t="n">
-        <v>2317.098792</v>
+        <v>2331.967964</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>217.0982179999996</v>
+        <v>231.9673899999998</v>
       </c>
       <c r="J26" t="n">
-        <v>10.34</v>
+        <v>11.05</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.7917</v>
+        <v>1.8025</v>
       </c>
       <c r="F28" t="n">
-        <v>6913.811960000001</v>
+        <v>6955.487</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>613.9350800000011</v>
+        <v>655.6101200000003</v>
       </c>
       <c r="J28" t="n">
-        <v>9.75</v>
+        <v>10.41</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.7917</v>
+        <v>1.8025</v>
       </c>
       <c r="F29" t="n">
-        <v>15604.434893</v>
+        <v>15698.495225</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>604.4247260000011</v>
+        <v>698.485058000002</v>
       </c>
       <c r="J29" t="n">
-        <v>4.03</v>
+        <v>4.66</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.86</v>
+        <v>1.853</v>
       </c>
       <c r="F30" t="n">
-        <v>9780.047400000001</v>
+        <v>9743.24077</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>899.6591990000015</v>
+        <v>862.8525690000006</v>
       </c>
       <c r="J30" t="n">
-        <v>10.13</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.86</v>
+        <v>1.853</v>
       </c>
       <c r="F31" t="n">
-        <v>1254.1422</v>
+        <v>1249.42231</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>54.14388099999996</v>
+        <v>49.42399099999989</v>
       </c>
       <c r="J31" t="n">
-        <v>4.51</v>
+        <v>4.12</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.1918</v>
+        <v>2.2015</v>
       </c>
       <c r="F33" t="n">
-        <v>13369.98</v>
+        <v>13429.15</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1096.780000000001</v>
+        <v>1155.949999999997</v>
       </c>
       <c r="J33" t="n">
-        <v>8.94</v>
+        <v>9.42</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.746</v>
+        <v>1.757</v>
       </c>
       <c r="F34" t="n">
-        <v>33348.6</v>
+        <v>33558.7</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2177.399999999998</v>
+        <v>2387.499999999996</v>
       </c>
       <c r="J34" t="n">
-        <v>6.99</v>
+        <v>7.66</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.7738</v>
+        <v>5.7769</v>
       </c>
       <c r="F35" t="n">
-        <v>35141.540844</v>
+        <v>35160.408622</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1941.555219999995</v>
+        <v>1960.422998000002</v>
       </c>
       <c r="J35" t="n">
-        <v>5.85</v>
+        <v>5.9</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.7738</v>
+        <v>5.7769</v>
       </c>
       <c r="F36" t="n">
-        <v>11933.636268</v>
+        <v>11940.043534</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>633.6992759999994</v>
+        <v>640.1065420000014</v>
       </c>
       <c r="J36" t="n">
-        <v>5.61</v>
+        <v>5.66</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.7738</v>
+        <v>5.7769</v>
       </c>
       <c r="F37" t="n">
-        <v>86607</v>
+        <v>86653.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>3312</v>
+        <v>3358.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.98</v>
+        <v>4.03</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3058</v>
+        <v>2.329</v>
       </c>
       <c r="F38" t="n">
-        <v>16771.028778</v>
+        <v>16939.77189</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>971.0002349999995</v>
+        <v>1139.743347</v>
       </c>
       <c r="J38" t="n">
-        <v>6.15</v>
+        <v>7.21</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3058</v>
+        <v>2.329</v>
       </c>
       <c r="F39" t="n">
-        <v>24044.674878</v>
+        <v>24286.60239</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1044.876582000001</v>
+        <v>1286.804093999999</v>
       </c>
       <c r="J39" t="n">
-        <v>4.54</v>
+        <v>5.59</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8212</v>
+        <v>1.8428</v>
       </c>
       <c r="F40" t="n">
-        <v>12202.04</v>
+        <v>12346.76</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1750.039999999999</v>
+        <v>1894.76</v>
       </c>
       <c r="J40" t="n">
-        <v>16.74</v>
+        <v>18.13</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.43</v>
+        <v>7.63</v>
       </c>
       <c r="F41" t="n">
-        <v>7430</v>
+        <v>7630</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>321</v>
+        <v>521</v>
       </c>
       <c r="J41" t="n">
-        <v>4.52</v>
+        <v>7.33</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.25</v>
+        <v>7.49</v>
       </c>
       <c r="F42" t="n">
-        <v>7975</v>
+        <v>8239</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1390.4</v>
+        <v>1654.4</v>
       </c>
       <c r="J42" t="n">
-        <v>21.12</v>
+        <v>25.13</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.5</v>
+        <v>41.88</v>
       </c>
       <c r="F43" t="n">
-        <v>62250</v>
+        <v>62820.00000000001</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-2205</v>
+        <v>-1634.999999999993</v>
       </c>
       <c r="J43" t="n">
-        <v>-3.42</v>
+        <v>-2.54</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0611</v>
+        <v>3.1491</v>
       </c>
       <c r="F2" t="n">
-        <v>2264.265059</v>
+        <v>2329.357779</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>394.0328630000004</v>
+        <v>459.125583</v>
       </c>
       <c r="J2" t="n">
-        <v>21.07</v>
+        <v>24.55</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2133</v>
+        <v>1.183</v>
       </c>
       <c r="F4" t="n">
-        <v>6915.81</v>
+        <v>6743.1</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1495.110000000001</v>
+        <v>1322.400000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>27.58</v>
+        <v>24.4</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4872</v>
+        <v>1.4984</v>
       </c>
       <c r="F6" t="n">
-        <v>2524.209688</v>
+        <v>2543.219336</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>24.27124700000013</v>
+        <v>43.28089499999987</v>
       </c>
       <c r="J6" t="n">
-        <v>0.97</v>
+        <v>1.73</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4872</v>
+        <v>1.4984</v>
       </c>
       <c r="F7" t="n">
-        <v>5345.14552</v>
+        <v>5385.39944</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>25.15869999999995</v>
+        <v>65.41262000000006</v>
       </c>
       <c r="J7" t="n">
-        <v>0.47</v>
+        <v>1.23</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7704</v>
+        <v>1.7591</v>
       </c>
       <c r="F8" t="n">
-        <v>22838.16</v>
+        <v>22692.39</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3539.759999999998</v>
+        <v>3393.990000000002</v>
       </c>
       <c r="J8" t="n">
-        <v>18.34</v>
+        <v>17.59</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0687</v>
+        <v>2.0568</v>
       </c>
       <c r="F10" t="n">
-        <v>2152.337541</v>
+        <v>2139.956424</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>152.3189520000003</v>
+        <v>139.937835</v>
       </c>
       <c r="J10" t="n">
-        <v>7.62</v>
+        <v>7</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5491</v>
+        <v>1.5402</v>
       </c>
       <c r="F11" t="n">
-        <v>6408.982992999999</v>
+        <v>6372.161646</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>429.8581969999987</v>
+        <v>393.0368499999995</v>
       </c>
       <c r="J11" t="n">
-        <v>7.19</v>
+        <v>6.57</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5491</v>
+        <v>1.5402</v>
       </c>
       <c r="F12" t="n">
-        <v>9316.395836999998</v>
+        <v>9262.870613999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>216.506519999999</v>
+        <v>162.9812970000003</v>
       </c>
       <c r="J12" t="n">
-        <v>2.38</v>
+        <v>1.79</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1323</v>
+        <v>1.1276</v>
       </c>
       <c r="F18" t="n">
-        <v>4447.889537</v>
+        <v>4429.427044</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>141.4148400000004</v>
+        <v>122.9523470000004</v>
       </c>
       <c r="J18" t="n">
-        <v>3.28</v>
+        <v>2.86</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6</v>
+        <v>1.5877</v>
       </c>
       <c r="F19" t="n">
-        <v>13920</v>
+        <v>13812.99</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>461.1000000000004</v>
+        <v>354.0900000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>3.43</v>
+        <v>2.63</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.288</v>
+        <v>1.2711</v>
       </c>
       <c r="F20" t="n">
-        <v>10208.50768</v>
+        <v>10074.560646</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>208.4501180000007</v>
+        <v>74.50308399999813</v>
       </c>
       <c r="J20" t="n">
-        <v>2.08</v>
+        <v>0.75</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1899</v>
+        <v>1.1863</v>
       </c>
       <c r="F21" t="n">
-        <v>13445.87</v>
+        <v>13405.19</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>812.4699999999993</v>
+        <v>771.7899999999991</v>
       </c>
       <c r="J21" t="n">
-        <v>6.43</v>
+        <v>6.11</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5472</v>
+        <v>1.5416</v>
       </c>
       <c r="F22" t="n">
-        <v>826.0346079999999</v>
+        <v>823.0448240000001</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>96.90103499999998</v>
+        <v>93.91125100000011</v>
       </c>
       <c r="J22" t="n">
-        <v>13.29</v>
+        <v>12.88</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5472</v>
+        <v>1.5416</v>
       </c>
       <c r="F23" t="n">
-        <v>19992.516128</v>
+        <v>19920.154384</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>792.1026619999975</v>
+        <v>719.7409179999995</v>
       </c>
       <c r="J23" t="n">
-        <v>4.13</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3896</v>
+        <v>1.384</v>
       </c>
       <c r="F24" t="n">
-        <v>909.243072</v>
+        <v>905.57888</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>109.27144</v>
+        <v>105.607248</v>
       </c>
       <c r="J24" t="n">
-        <v>13.66</v>
+        <v>13.2</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.6146</v>
+        <v>5.5926</v>
       </c>
       <c r="F26" t="n">
-        <v>2331.967964</v>
+        <v>2322.830484</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>231.9673899999998</v>
+        <v>222.8299099999999</v>
       </c>
       <c r="J26" t="n">
-        <v>11.05</v>
+        <v>10.61</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8025</v>
+        <v>1.7959</v>
       </c>
       <c r="F28" t="n">
-        <v>6955.487</v>
+        <v>6930.01892</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>655.6101200000003</v>
+        <v>630.1420400000006</v>
       </c>
       <c r="J28" t="n">
-        <v>10.41</v>
+        <v>10</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8025</v>
+        <v>1.7959</v>
       </c>
       <c r="F29" t="n">
-        <v>15698.495225</v>
+        <v>15641.013911</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>698.485058000002</v>
+        <v>641.0037440000015</v>
       </c>
       <c r="J29" t="n">
-        <v>4.66</v>
+        <v>4.27</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2015</v>
+        <v>2.1936</v>
       </c>
       <c r="F33" t="n">
-        <v>13429.15</v>
+        <v>13380.96</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1155.949999999997</v>
+        <v>1107.759999999998</v>
       </c>
       <c r="J33" t="n">
-        <v>9.42</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.757</v>
+        <v>1.75</v>
       </c>
       <c r="F34" t="n">
-        <v>33558.7</v>
+        <v>33425</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2387.499999999996</v>
+        <v>2253.799999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>7.66</v>
+        <v>7.23</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.329</v>
+        <v>2.3246</v>
       </c>
       <c r="F38" t="n">
-        <v>16939.77189</v>
+        <v>16907.768886</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1139.743347</v>
+        <v>1107.740343000001</v>
       </c>
       <c r="J38" t="n">
-        <v>7.21</v>
+        <v>7.01</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.329</v>
+        <v>2.3246</v>
       </c>
       <c r="F39" t="n">
-        <v>24286.60239</v>
+        <v>24240.719586</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1286.804093999999</v>
+        <v>1240.921290000002</v>
       </c>
       <c r="J39" t="n">
-        <v>5.59</v>
+        <v>5.4</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8428</v>
+        <v>1.8408</v>
       </c>
       <c r="F40" t="n">
-        <v>12346.76</v>
+        <v>12333.36</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1894.76</v>
+        <v>1881.360000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>18.13</v>
+        <v>18</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.3669</v>
+        <v>3.2989</v>
       </c>
       <c r="F3" t="n">
-        <v>1091.953008</v>
+        <v>1069.899248</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>92.0095839999999</v>
+        <v>69.95582399999989</v>
       </c>
       <c r="J3" t="n">
-        <v>9.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0218</v>
+        <v>1.9945</v>
       </c>
       <c r="F5" t="n">
-        <v>2397.713274</v>
+        <v>2365.337385</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.253267000000051</v>
+        <v>-34.62915599999951</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.09</v>
+        <v>-1.44</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8563</v>
+        <v>2.8697</v>
       </c>
       <c r="F9" t="n">
-        <v>864.916203</v>
+        <v>868.973857</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>115.97623</v>
+        <v>120.0338839999999</v>
       </c>
       <c r="J9" t="n">
-        <v>15.49</v>
+        <v>16.03</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.13</v>
+        <v>28.12</v>
       </c>
       <c r="F16" t="n">
-        <v>14065</v>
+        <v>14060</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="J16" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>9.210000000000001</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>18420</v>
+        <v>18100</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>660</v>
+        <v>340</v>
       </c>
       <c r="J17" t="n">
-        <v>3.72</v>
+        <v>1.91</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.853</v>
+        <v>1.8644</v>
       </c>
       <c r="F30" t="n">
-        <v>9743.24077</v>
+        <v>9803.182996000001</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>862.8525690000006</v>
+        <v>922.7947950000016</v>
       </c>
       <c r="J30" t="n">
-        <v>9.720000000000001</v>
+        <v>10.39</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.853</v>
+        <v>1.8644</v>
       </c>
       <c r="F31" t="n">
-        <v>1249.42231</v>
+        <v>1257.108988</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>49.42399099999989</v>
+        <v>57.11066899999992</v>
       </c>
       <c r="J31" t="n">
-        <v>4.12</v>
+        <v>4.76</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.7769</v>
+        <v>5.7963</v>
       </c>
       <c r="F35" t="n">
-        <v>35160.408622</v>
+        <v>35278.484394</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1960.422998000002</v>
+        <v>2078.498769999998</v>
       </c>
       <c r="J35" t="n">
-        <v>5.9</v>
+        <v>6.26</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.7769</v>
+        <v>5.7963</v>
       </c>
       <c r="F36" t="n">
-        <v>11940.043534</v>
+        <v>11980.140618</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>640.1065420000014</v>
+        <v>680.2036259999986</v>
       </c>
       <c r="J36" t="n">
-        <v>5.66</v>
+        <v>6.02</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.7769</v>
+        <v>5.7963</v>
       </c>
       <c r="F37" t="n">
-        <v>86653.5</v>
+        <v>86944.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>3358.5</v>
+        <v>3649.5</v>
       </c>
       <c r="J37" t="n">
-        <v>4.03</v>
+        <v>4.38</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.63</v>
+        <v>7.59</v>
       </c>
       <c r="F41" t="n">
-        <v>7630</v>
+        <v>7590</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>521</v>
+        <v>481</v>
       </c>
       <c r="J41" t="n">
-        <v>7.33</v>
+        <v>6.77</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.49</v>
+        <v>7.54</v>
       </c>
       <c r="F42" t="n">
-        <v>8239</v>
+        <v>8294</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1654.4</v>
+        <v>1709.4</v>
       </c>
       <c r="J42" t="n">
-        <v>25.13</v>
+        <v>25.96</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.88</v>
+        <v>41.61</v>
       </c>
       <c r="F43" t="n">
-        <v>62820.00000000001</v>
+        <v>62415</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-1634.999999999993</v>
+        <v>-2040</v>
       </c>
       <c r="J43" t="n">
-        <v>-2.54</v>
+        <v>-3.16</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.1491</v>
+        <v>3.081</v>
       </c>
       <c r="F2" t="n">
-        <v>2329.357779</v>
+        <v>2278.98489</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>459.125583</v>
+        <v>408.7526940000002</v>
       </c>
       <c r="J2" t="n">
-        <v>24.55</v>
+        <v>21.86</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.2989</v>
+        <v>3.3238</v>
       </c>
       <c r="F3" t="n">
-        <v>1069.899248</v>
+        <v>1077.974816</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>69.95582399999989</v>
+        <v>78.03139199999987</v>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.183</v>
+        <v>1.1905</v>
       </c>
       <c r="F4" t="n">
-        <v>6743.1</v>
+        <v>6785.849999999999</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1322.400000000001</v>
+        <v>1365.15</v>
       </c>
       <c r="J4" t="n">
-        <v>24.4</v>
+        <v>25.18</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4984</v>
+        <v>1.5001</v>
       </c>
       <c r="F6" t="n">
-        <v>2543.219336</v>
+        <v>2546.104729</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>43.28089499999987</v>
+        <v>46.16628800000035</v>
       </c>
       <c r="J6" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4984</v>
+        <v>1.5001</v>
       </c>
       <c r="F7" t="n">
-        <v>5385.39944</v>
+        <v>5391.50941</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>65.41262000000006</v>
+        <v>71.52258999999958</v>
       </c>
       <c r="J7" t="n">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7591</v>
+        <v>1.8064</v>
       </c>
       <c r="F8" t="n">
-        <v>22692.39</v>
+        <v>23302.56</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3393.990000000002</v>
+        <v>4004.16</v>
       </c>
       <c r="J8" t="n">
-        <v>17.59</v>
+        <v>20.75</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8697</v>
+        <v>2.8994</v>
       </c>
       <c r="F9" t="n">
-        <v>868.973857</v>
+        <v>877.967314</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>120.0338839999999</v>
+        <v>129.027341</v>
       </c>
       <c r="J9" t="n">
-        <v>16.03</v>
+        <v>17.23</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0568</v>
+        <v>2.063</v>
       </c>
       <c r="F10" t="n">
-        <v>2139.956424</v>
+        <v>2146.40709</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>139.937835</v>
+        <v>146.3885010000001</v>
       </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>7.32</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5402</v>
+        <v>1.547</v>
       </c>
       <c r="F11" t="n">
-        <v>6372.161646</v>
+        <v>6400.294809999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>393.0368499999995</v>
+        <v>421.1700139999994</v>
       </c>
       <c r="J11" t="n">
-        <v>6.57</v>
+        <v>7.04</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5402</v>
+        <v>1.547</v>
       </c>
       <c r="F12" t="n">
-        <v>9262.870613999999</v>
+        <v>9303.76629</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>162.9812970000003</v>
+        <v>203.8769730000004</v>
       </c>
       <c r="J12" t="n">
-        <v>1.79</v>
+        <v>2.24</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2243</v>
+        <v>2.2598</v>
       </c>
       <c r="F15" t="n">
-        <v>20685.99</v>
+        <v>21016.14</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1239.689999999999</v>
+        <v>1569.84</v>
       </c>
       <c r="J15" t="n">
-        <v>6.37</v>
+        <v>8.07</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.12</v>
+        <v>28</v>
       </c>
       <c r="F16" t="n">
-        <v>14060</v>
+        <v>14000</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="J16" t="n">
-        <v>1.77</v>
+        <v>1.34</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1276</v>
+        <v>1.1302</v>
       </c>
       <c r="F18" t="n">
-        <v>4429.427044</v>
+        <v>4439.640338</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>122.9523470000004</v>
+        <v>133.1656410000005</v>
       </c>
       <c r="J18" t="n">
-        <v>2.86</v>
+        <v>3.09</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5877</v>
+        <v>1.5995</v>
       </c>
       <c r="F19" t="n">
-        <v>13812.99</v>
+        <v>13915.65</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>354.0900000000001</v>
+        <v>456.75</v>
       </c>
       <c r="J19" t="n">
-        <v>2.63</v>
+        <v>3.39</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2711</v>
+        <v>1.2871</v>
       </c>
       <c r="F20" t="n">
-        <v>10074.560646</v>
+        <v>10201.374406</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>74.50308399999813</v>
+        <v>201.316843999999</v>
       </c>
       <c r="J20" t="n">
-        <v>0.75</v>
+        <v>2.01</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1863</v>
+        <v>1.1867</v>
       </c>
       <c r="F21" t="n">
-        <v>13405.19</v>
+        <v>13409.71</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>771.7899999999991</v>
+        <v>776.3100000000013</v>
       </c>
       <c r="J21" t="n">
-        <v>6.11</v>
+        <v>6.14</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5416</v>
+        <v>1.5503</v>
       </c>
       <c r="F22" t="n">
-        <v>823.0448240000001</v>
+        <v>827.689667</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>93.91125100000011</v>
+        <v>98.55609400000003</v>
       </c>
       <c r="J22" t="n">
-        <v>12.88</v>
+        <v>13.52</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5416</v>
+        <v>1.5503</v>
       </c>
       <c r="F23" t="n">
-        <v>19920.154384</v>
+        <v>20032.573522</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>719.7409179999995</v>
+        <v>832.160055999997</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.384</v>
+        <v>1.3912</v>
       </c>
       <c r="F24" t="n">
-        <v>905.57888</v>
+        <v>910.2899840000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>105.607248</v>
+        <v>110.3183520000001</v>
       </c>
       <c r="J24" t="n">
-        <v>13.2</v>
+        <v>13.79</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.5926</v>
+        <v>5.6275</v>
       </c>
       <c r="F26" t="n">
-        <v>2322.830484</v>
+        <v>2337.32585</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>222.8299099999999</v>
+        <v>237.325276</v>
       </c>
       <c r="J26" t="n">
-        <v>10.61</v>
+        <v>11.3</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.7959</v>
+        <v>1.8063</v>
       </c>
       <c r="F28" t="n">
-        <v>6930.01892</v>
+        <v>6970.15044</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>630.1420400000006</v>
+        <v>670.2735600000005</v>
       </c>
       <c r="J28" t="n">
-        <v>10</v>
+        <v>10.64</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.7959</v>
+        <v>1.8063</v>
       </c>
       <c r="F29" t="n">
-        <v>15641.013911</v>
+        <v>15731.590527</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>641.0037440000015</v>
+        <v>731.5803600000017</v>
       </c>
       <c r="J29" t="n">
-        <v>4.27</v>
+        <v>4.88</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8644</v>
+        <v>1.888</v>
       </c>
       <c r="F30" t="n">
-        <v>9803.182996000001</v>
+        <v>9927.27392</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>922.7947950000016</v>
+        <v>1046.885719</v>
       </c>
       <c r="J30" t="n">
-        <v>10.39</v>
+        <v>11.79</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8644</v>
+        <v>1.888</v>
       </c>
       <c r="F31" t="n">
-        <v>1257.108988</v>
+        <v>1273.02176</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>57.11066899999992</v>
+        <v>73.02344099999982</v>
       </c>
       <c r="J31" t="n">
-        <v>4.76</v>
+        <v>6.09</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.1936</v>
+        <v>2.2082</v>
       </c>
       <c r="F33" t="n">
-        <v>13380.96</v>
+        <v>13470.02</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1107.759999999998</v>
+        <v>1196.82</v>
       </c>
       <c r="J33" t="n">
-        <v>9.029999999999999</v>
+        <v>9.75</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.75</v>
+        <v>1.761</v>
       </c>
       <c r="F34" t="n">
-        <v>33425</v>
+        <v>33635.1</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2253.799999999999</v>
+        <v>2463.899999999998</v>
       </c>
       <c r="J34" t="n">
-        <v>7.23</v>
+        <v>7.9</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.7963</v>
+        <v>5.8597</v>
       </c>
       <c r="F35" t="n">
-        <v>35278.484394</v>
+        <v>35664.360886</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2078.498769999998</v>
+        <v>2464.375262000001</v>
       </c>
       <c r="J35" t="n">
-        <v>6.26</v>
+        <v>7.42</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.7963</v>
+        <v>5.8597</v>
       </c>
       <c r="F36" t="n">
-        <v>11980.140618</v>
+        <v>12111.179542</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>680.2036259999986</v>
+        <v>811.2425500000008</v>
       </c>
       <c r="J36" t="n">
-        <v>6.02</v>
+        <v>7.18</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.7963</v>
+        <v>5.8597</v>
       </c>
       <c r="F37" t="n">
-        <v>86944.5</v>
+        <v>87895.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>3649.5</v>
+        <v>4600.5</v>
       </c>
       <c r="J37" t="n">
-        <v>4.38</v>
+        <v>5.52</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3246</v>
+        <v>2.3323</v>
       </c>
       <c r="F38" t="n">
-        <v>16907.768886</v>
+        <v>16963.774143</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1107.740343000001</v>
+        <v>1163.745599999998</v>
       </c>
       <c r="J38" t="n">
-        <v>7.01</v>
+        <v>7.37</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3246</v>
+        <v>2.3323</v>
       </c>
       <c r="F39" t="n">
-        <v>24240.719586</v>
+        <v>24321.014493</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1240.921290000002</v>
+        <v>1321.216196999998</v>
       </c>
       <c r="J39" t="n">
-        <v>5.4</v>
+        <v>5.74</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8408</v>
+        <v>1.8488</v>
       </c>
       <c r="F40" t="n">
-        <v>12333.36</v>
+        <v>12386.96</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1881.360000000001</v>
+        <v>1934.959999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>18</v>
+        <v>18.51</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.59</v>
+        <v>7.58</v>
       </c>
       <c r="F41" t="n">
-        <v>7590</v>
+        <v>7580</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="J41" t="n">
-        <v>6.77</v>
+        <v>6.63</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.54</v>
+        <v>7.75</v>
       </c>
       <c r="F42" t="n">
-        <v>8294</v>
+        <v>8525</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1709.4</v>
+        <v>1940.4</v>
       </c>
       <c r="J42" t="n">
-        <v>25.96</v>
+        <v>29.47</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.61</v>
+        <v>41.49</v>
       </c>
       <c r="F43" t="n">
-        <v>62415</v>
+        <v>62235</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-2040</v>
+        <v>-2220</v>
       </c>
       <c r="J43" t="n">
-        <v>-3.16</v>
+        <v>-3.44</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.081</v>
+        <v>3.1217</v>
       </c>
       <c r="F2" t="n">
-        <v>2278.98489</v>
+        <v>2309.090273</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>408.7526940000002</v>
+        <v>438.8580770000003</v>
       </c>
       <c r="J2" t="n">
-        <v>21.86</v>
+        <v>23.47</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.3238</v>
+        <v>3.3063</v>
       </c>
       <c r="F3" t="n">
-        <v>1077.974816</v>
+        <v>1072.299216</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>78.03139199999987</v>
+        <v>72.35579199999984</v>
       </c>
       <c r="J3" t="n">
-        <v>7.8</v>
+        <v>7.24</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.1905</v>
+        <v>1.2102</v>
       </c>
       <c r="F4" t="n">
-        <v>6785.849999999999</v>
+        <v>6898.139999999999</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1365.15</v>
+        <v>1477.44</v>
       </c>
       <c r="J4" t="n">
-        <v>25.18</v>
+        <v>27.26</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9945</v>
+        <v>2.0238</v>
       </c>
       <c r="F5" t="n">
-        <v>2365.337385</v>
+        <v>2400.085134</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-34.62915599999951</v>
+        <v>0.118593000000601</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.44</v>
+        <v>0</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.5001</v>
+        <v>1.5031</v>
       </c>
       <c r="F6" t="n">
-        <v>2546.104729</v>
+        <v>2551.196599</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>46.16628800000035</v>
+        <v>51.25815800000055</v>
       </c>
       <c r="J6" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.5001</v>
+        <v>1.5031</v>
       </c>
       <c r="F7" t="n">
-        <v>5391.50941</v>
+        <v>5402.29171</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>71.52258999999958</v>
+        <v>82.30489000000034</v>
       </c>
       <c r="J7" t="n">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8064</v>
+        <v>1.8001</v>
       </c>
       <c r="F8" t="n">
-        <v>23302.56</v>
+        <v>23221.29</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4004.16</v>
+        <v>3922.889999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>20.75</v>
+        <v>20.33</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8994</v>
+        <v>2.8978</v>
       </c>
       <c r="F9" t="n">
-        <v>877.967314</v>
+        <v>877.4828180000001</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>129.027341</v>
+        <v>128.5428450000001</v>
       </c>
       <c r="J9" t="n">
-        <v>17.23</v>
+        <v>17.16</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.063</v>
+        <v>2.0849</v>
       </c>
       <c r="F10" t="n">
-        <v>2146.40709</v>
+        <v>2169.192507</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>146.3885010000001</v>
+        <v>169.1739180000002</v>
       </c>
       <c r="J10" t="n">
-        <v>7.32</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.547</v>
+        <v>1.5616</v>
       </c>
       <c r="F11" t="n">
-        <v>6400.294809999999</v>
+        <v>6460.698367999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>421.1700139999994</v>
+        <v>481.5735719999993</v>
       </c>
       <c r="J11" t="n">
-        <v>7.04</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.547</v>
+        <v>1.5616</v>
       </c>
       <c r="F12" t="n">
-        <v>9303.76629</v>
+        <v>9391.571712000001</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>203.8769730000004</v>
+        <v>291.6823950000016</v>
       </c>
       <c r="J12" t="n">
-        <v>2.24</v>
+        <v>3.21</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2598</v>
+        <v>2.258</v>
       </c>
       <c r="F15" t="n">
-        <v>21016.14</v>
+        <v>20999.4</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1569.84</v>
+        <v>1553.100000000002</v>
       </c>
       <c r="J15" t="n">
-        <v>8.07</v>
+        <v>7.99</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28</v>
+        <v>27.89</v>
       </c>
       <c r="F16" t="n">
-        <v>14000</v>
+        <v>13945</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="J16" t="n">
-        <v>1.34</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>9.050000000000001</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>18100</v>
+        <v>18080</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="J17" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1302</v>
+        <v>1.1299</v>
       </c>
       <c r="F18" t="n">
-        <v>4439.640338</v>
+        <v>4438.461880999999</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>133.1656410000005</v>
+        <v>131.9871839999996</v>
       </c>
       <c r="J18" t="n">
-        <v>3.09</v>
+        <v>3.06</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5995</v>
+        <v>1.6002</v>
       </c>
       <c r="F19" t="n">
-        <v>13915.65</v>
+        <v>13921.74</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>456.75</v>
+        <v>462.8400000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>3.39</v>
+        <v>3.44</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2871</v>
+        <v>1.288</v>
       </c>
       <c r="F20" t="n">
-        <v>10201.374406</v>
+        <v>10208.50768</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>201.316843999999</v>
+        <v>208.4501180000007</v>
       </c>
       <c r="J20" t="n">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1867</v>
+        <v>1.1905</v>
       </c>
       <c r="F21" t="n">
-        <v>13409.71</v>
+        <v>13452.65</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>776.3100000000013</v>
+        <v>819.25</v>
       </c>
       <c r="J21" t="n">
-        <v>6.14</v>
+        <v>6.48</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5503</v>
+        <v>1.5689</v>
       </c>
       <c r="F22" t="n">
-        <v>827.689667</v>
+        <v>837.620021</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>98.55609400000003</v>
+        <v>108.486448</v>
       </c>
       <c r="J22" t="n">
-        <v>13.52</v>
+        <v>14.88</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5503</v>
+        <v>1.5689</v>
       </c>
       <c r="F23" t="n">
-        <v>20032.573522</v>
+        <v>20272.917886</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>832.160055999997</v>
+        <v>1072.504419999997</v>
       </c>
       <c r="J23" t="n">
-        <v>4.33</v>
+        <v>5.59</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3912</v>
+        <v>1.4087</v>
       </c>
       <c r="F24" t="n">
-        <v>910.2899840000001</v>
+        <v>921.7405840000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>110.3183520000001</v>
+        <v>121.7689520000001</v>
       </c>
       <c r="J24" t="n">
-        <v>13.79</v>
+        <v>15.22</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.6275</v>
+        <v>5.7008</v>
       </c>
       <c r="F26" t="n">
-        <v>2337.32585</v>
+        <v>2367.770272</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>237.325276</v>
+        <v>267.7696979999996</v>
       </c>
       <c r="J26" t="n">
-        <v>11.3</v>
+        <v>12.75</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8063</v>
+        <v>1.8289</v>
       </c>
       <c r="F28" t="n">
-        <v>6970.15044</v>
+        <v>7057.35932</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>670.2735600000005</v>
+        <v>757.4824400000007</v>
       </c>
       <c r="J28" t="n">
-        <v>10.64</v>
+        <v>12.02</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8063</v>
+        <v>1.8289</v>
       </c>
       <c r="F29" t="n">
-        <v>15731.590527</v>
+        <v>15928.420481</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>731.5803600000017</v>
+        <v>928.4103140000007</v>
       </c>
       <c r="J29" t="n">
-        <v>4.88</v>
+        <v>6.19</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.888</v>
+        <v>1.886</v>
       </c>
       <c r="F30" t="n">
-        <v>9927.27392</v>
+        <v>9916.757739999999</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1046.885719</v>
+        <v>1036.369538999999</v>
       </c>
       <c r="J30" t="n">
-        <v>11.79</v>
+        <v>11.67</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.888</v>
+        <v>1.886</v>
       </c>
       <c r="F31" t="n">
-        <v>1273.02176</v>
+        <v>1271.67322</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>73.02344099999982</v>
+        <v>71.67490099999986</v>
       </c>
       <c r="J31" t="n">
-        <v>6.09</v>
+        <v>5.97</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2082</v>
+        <v>2.2357</v>
       </c>
       <c r="F33" t="n">
-        <v>13470.02</v>
+        <v>13637.77</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1196.82</v>
+        <v>1364.57</v>
       </c>
       <c r="J33" t="n">
-        <v>9.75</v>
+        <v>11.12</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.761</v>
+        <v>1.784</v>
       </c>
       <c r="F34" t="n">
-        <v>33635.1</v>
+        <v>34074.4</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2463.899999999998</v>
+        <v>2903.200000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>7.9</v>
+        <v>9.31</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8597</v>
+        <v>5.8481</v>
       </c>
       <c r="F35" t="n">
-        <v>35664.360886</v>
+        <v>35593.758878</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2464.375262000001</v>
+        <v>2393.773254</v>
       </c>
       <c r="J35" t="n">
-        <v>7.42</v>
+        <v>7.21</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.8597</v>
+        <v>5.8481</v>
       </c>
       <c r="F36" t="n">
-        <v>12111.179542</v>
+        <v>12087.203966</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>811.2425500000008</v>
+        <v>787.2669739999983</v>
       </c>
       <c r="J36" t="n">
-        <v>7.18</v>
+        <v>6.97</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.8597</v>
+        <v>5.8481</v>
       </c>
       <c r="F37" t="n">
-        <v>87895.5</v>
+        <v>87721.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>4600.5</v>
+        <v>4426.5</v>
       </c>
       <c r="J37" t="n">
-        <v>5.52</v>
+        <v>5.31</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3323</v>
+        <v>2.3608</v>
       </c>
       <c r="F38" t="n">
-        <v>16963.774143</v>
+        <v>17171.066328</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1163.745599999998</v>
+        <v>1371.037784999997</v>
       </c>
       <c r="J38" t="n">
-        <v>7.37</v>
+        <v>8.68</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3323</v>
+        <v>2.3608</v>
       </c>
       <c r="F39" t="n">
-        <v>24321.014493</v>
+        <v>24618.209928</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1321.216196999998</v>
+        <v>1618.411631999996</v>
       </c>
       <c r="J39" t="n">
-        <v>5.74</v>
+        <v>7.04</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8488</v>
+        <v>1.8755</v>
       </c>
       <c r="F40" t="n">
-        <v>12386.96</v>
+        <v>12565.85</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1934.959999999999</v>
+        <v>2113.85</v>
       </c>
       <c r="J40" t="n">
-        <v>18.51</v>
+        <v>20.22</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.58</v>
+        <v>7.63</v>
       </c>
       <c r="F41" t="n">
-        <v>7580</v>
+        <v>7630</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>471</v>
+        <v>521</v>
       </c>
       <c r="J41" t="n">
-        <v>6.63</v>
+        <v>7.33</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.75</v>
+        <v>7.87</v>
       </c>
       <c r="F42" t="n">
-        <v>8525</v>
+        <v>8657</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1940.4</v>
+        <v>2072.4</v>
       </c>
       <c r="J42" t="n">
-        <v>29.47</v>
+        <v>31.47</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.49</v>
+        <v>41.98</v>
       </c>
       <c r="F43" t="n">
-        <v>62235</v>
+        <v>62969.99999999999</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-2220</v>
+        <v>-1485.000000000007</v>
       </c>
       <c r="J43" t="n">
-        <v>-3.44</v>
+        <v>-2.3</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.1217</v>
+        <v>3.0024</v>
       </c>
       <c r="F2" t="n">
-        <v>2309.090273</v>
+        <v>2220.845256000001</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>438.8580770000003</v>
+        <v>350.6130600000006</v>
       </c>
       <c r="J2" t="n">
-        <v>23.47</v>
+        <v>18.75</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.3063</v>
+        <v>3.2684</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.299216</v>
+        <v>1060.007488</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>72.35579199999984</v>
+        <v>60.06406399999992</v>
       </c>
       <c r="J3" t="n">
-        <v>7.24</v>
+        <v>6.01</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2102</v>
+        <v>1.2054</v>
       </c>
       <c r="F4" t="n">
-        <v>6898.139999999999</v>
+        <v>6870.78</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1477.44</v>
+        <v>1450.08</v>
       </c>
       <c r="J4" t="n">
-        <v>27.26</v>
+        <v>26.75</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0238</v>
+        <v>2.0256</v>
       </c>
       <c r="F5" t="n">
-        <v>2400.085134</v>
+        <v>2402.219808</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>0.118593000000601</v>
+        <v>2.253267000000051</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8001</v>
+        <v>1.7971</v>
       </c>
       <c r="F8" t="n">
-        <v>23221.29</v>
+        <v>23182.59</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3922.889999999999</v>
+        <v>3884.189999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>20.33</v>
+        <v>20.13</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8978</v>
+        <v>2.8835</v>
       </c>
       <c r="F9" t="n">
-        <v>877.4828180000001</v>
+        <v>873.152635</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>128.5428450000001</v>
+        <v>124.212662</v>
       </c>
       <c r="J9" t="n">
-        <v>17.16</v>
+        <v>16.59</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0849</v>
+        <v>2.084</v>
       </c>
       <c r="F10" t="n">
-        <v>2169.192507</v>
+        <v>2168.25612</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>169.1739180000002</v>
+        <v>168.237531</v>
       </c>
       <c r="J10" t="n">
-        <v>8.460000000000001</v>
+        <v>8.41</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5616</v>
+        <v>1.5606</v>
       </c>
       <c r="F11" t="n">
-        <v>6460.698367999999</v>
+        <v>6456.561137999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>481.5735719999993</v>
+        <v>477.4363419999991</v>
       </c>
       <c r="J11" t="n">
-        <v>8.050000000000001</v>
+        <v>7.99</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5616</v>
+        <v>1.5606</v>
       </c>
       <c r="F12" t="n">
-        <v>9391.571712000001</v>
+        <v>9385.557642</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>291.6823950000016</v>
+        <v>285.6683250000006</v>
       </c>
       <c r="J12" t="n">
-        <v>3.21</v>
+        <v>3.14</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.258</v>
+        <v>2.2464</v>
       </c>
       <c r="F15" t="n">
-        <v>20999.4</v>
+        <v>20891.52</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1553.100000000002</v>
+        <v>1445.220000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>7.99</v>
+        <v>7.43</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.89</v>
+        <v>28.04</v>
       </c>
       <c r="F16" t="n">
-        <v>13945</v>
+        <v>14020</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.48</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1299</v>
+        <v>1.1361</v>
       </c>
       <c r="F18" t="n">
-        <v>4438.461880999999</v>
+        <v>4462.816659</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>131.9871839999996</v>
+        <v>156.3419620000004</v>
       </c>
       <c r="J18" t="n">
-        <v>3.06</v>
+        <v>3.63</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6002</v>
+        <v>1.6018</v>
       </c>
       <c r="F19" t="n">
-        <v>13921.74</v>
+        <v>13935.66</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>462.8400000000001</v>
+        <v>476.7600000000002</v>
       </c>
       <c r="J19" t="n">
-        <v>3.44</v>
+        <v>3.54</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.288</v>
+        <v>1.2897</v>
       </c>
       <c r="F20" t="n">
-        <v>10208.50768</v>
+        <v>10221.981642</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>208.4501180000007</v>
+        <v>221.9240800000007</v>
       </c>
       <c r="J20" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1905</v>
+        <v>1.198</v>
       </c>
       <c r="F21" t="n">
-        <v>13452.65</v>
+        <v>13537.4</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>819.25</v>
+        <v>904</v>
       </c>
       <c r="J21" t="n">
-        <v>6.48</v>
+        <v>7.16</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5689</v>
+        <v>1.5672</v>
       </c>
       <c r="F22" t="n">
-        <v>837.620021</v>
+        <v>836.712408</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>108.486448</v>
+        <v>107.578835</v>
       </c>
       <c r="J22" t="n">
-        <v>14.88</v>
+        <v>14.75</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5689</v>
+        <v>1.5672</v>
       </c>
       <c r="F23" t="n">
-        <v>20272.917886</v>
+        <v>20250.950928</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1072.504419999997</v>
+        <v>1050.537461999997</v>
       </c>
       <c r="J23" t="n">
-        <v>5.59</v>
+        <v>5.47</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4087</v>
+        <v>1.4071</v>
       </c>
       <c r="F24" t="n">
-        <v>921.7405840000001</v>
+        <v>920.6936720000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>121.7689520000001</v>
+        <v>120.7220400000001</v>
       </c>
       <c r="J24" t="n">
-        <v>15.22</v>
+        <v>15.09</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7008</v>
+        <v>5.695</v>
       </c>
       <c r="F26" t="n">
-        <v>2367.770272</v>
+        <v>2365.3613</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>267.7696979999996</v>
+        <v>265.3607259999999</v>
       </c>
       <c r="J26" t="n">
-        <v>12.75</v>
+        <v>12.64</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8289</v>
+        <v>1.8269</v>
       </c>
       <c r="F28" t="n">
-        <v>7057.35932</v>
+        <v>7049.641720000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>757.4824400000007</v>
+        <v>749.7648400000007</v>
       </c>
       <c r="J28" t="n">
-        <v>12.02</v>
+        <v>11.9</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8289</v>
+        <v>1.8269</v>
       </c>
       <c r="F29" t="n">
-        <v>15928.420481</v>
+        <v>15911.001901</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>928.4103140000007</v>
+        <v>910.9917340000011</v>
       </c>
       <c r="J29" t="n">
-        <v>6.19</v>
+        <v>6.07</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.886</v>
+        <v>1.8687</v>
       </c>
       <c r="F30" t="n">
-        <v>9916.757739999999</v>
+        <v>9825.792783000001</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1036.369538999999</v>
+        <v>945.404582000001</v>
       </c>
       <c r="J30" t="n">
-        <v>11.67</v>
+        <v>10.65</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.886</v>
+        <v>1.8687</v>
       </c>
       <c r="F31" t="n">
-        <v>1271.67322</v>
+        <v>1260.008349</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>71.67490099999986</v>
+        <v>60.01002999999992</v>
       </c>
       <c r="J31" t="n">
-        <v>5.97</v>
+        <v>5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2357</v>
+        <v>2.2328</v>
       </c>
       <c r="F33" t="n">
-        <v>13637.77</v>
+        <v>13620.08</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1364.57</v>
+        <v>1346.879999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>11.12</v>
+        <v>10.97</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.784</v>
+        <v>1.782</v>
       </c>
       <c r="F34" t="n">
-        <v>34074.4</v>
+        <v>34036.2</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2903.200000000001</v>
+        <v>2864.999999999996</v>
       </c>
       <c r="J34" t="n">
-        <v>9.31</v>
+        <v>9.19</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8481</v>
+        <v>5.8044</v>
       </c>
       <c r="F35" t="n">
-        <v>35593.758878</v>
+        <v>35327.784072</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2393.773254</v>
+        <v>2127.798448000001</v>
       </c>
       <c r="J35" t="n">
-        <v>7.21</v>
+        <v>6.41</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.8481</v>
+        <v>5.8044</v>
       </c>
       <c r="F36" t="n">
-        <v>12087.203966</v>
+        <v>11996.882184</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>787.2669739999983</v>
+        <v>696.945192000001</v>
       </c>
       <c r="J36" t="n">
-        <v>6.97</v>
+        <v>6.17</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.8481</v>
+        <v>5.8044</v>
       </c>
       <c r="F37" t="n">
-        <v>87721.5</v>
+        <v>87066</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>4426.5</v>
+        <v>3771</v>
       </c>
       <c r="J37" t="n">
-        <v>5.31</v>
+        <v>4.53</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3608</v>
+        <v>2.3466</v>
       </c>
       <c r="F38" t="n">
-        <v>17171.066328</v>
+        <v>17067.783906</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1371.037784999997</v>
+        <v>1267.755363</v>
       </c>
       <c r="J38" t="n">
-        <v>8.68</v>
+        <v>8.02</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3608</v>
+        <v>2.3466</v>
       </c>
       <c r="F39" t="n">
-        <v>24618.209928</v>
+        <v>24470.133606</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1618.411631999996</v>
+        <v>1470.335309999999</v>
       </c>
       <c r="J39" t="n">
-        <v>7.04</v>
+        <v>6.39</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8755</v>
+        <v>1.8654</v>
       </c>
       <c r="F40" t="n">
-        <v>12565.85</v>
+        <v>12498.18</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2113.85</v>
+        <v>2046.18</v>
       </c>
       <c r="J40" t="n">
-        <v>20.22</v>
+        <v>19.58</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.63</v>
+        <v>7.76</v>
       </c>
       <c r="F41" t="n">
-        <v>7630</v>
+        <v>7760</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>521</v>
+        <v>651</v>
       </c>
       <c r="J41" t="n">
-        <v>7.33</v>
+        <v>9.16</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.87</v>
+        <v>8.09</v>
       </c>
       <c r="F42" t="n">
-        <v>8657</v>
+        <v>8899</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2072.4</v>
+        <v>2314.4</v>
       </c>
       <c r="J42" t="n">
-        <v>31.47</v>
+        <v>35.15</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.98</v>
+        <v>41.95</v>
       </c>
       <c r="F43" t="n">
-        <v>62969.99999999999</v>
+        <v>62925.00000000001</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-1485.000000000007</v>
+        <v>-1529.999999999993</v>
       </c>
       <c r="J43" t="n">
-        <v>-2.3</v>
+        <v>-2.37</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0024</v>
+        <v>2.9784</v>
       </c>
       <c r="F2" t="n">
-        <v>2220.845256000001</v>
+        <v>2203.092696</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>350.6130600000006</v>
+        <v>332.8605000000002</v>
       </c>
       <c r="J2" t="n">
-        <v>18.75</v>
+        <v>17.8</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.2684</v>
+        <v>3.2438</v>
       </c>
       <c r="F3" t="n">
-        <v>1060.007488</v>
+        <v>1052.029216</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>60.06406399999992</v>
+        <v>52.08579199999986</v>
       </c>
       <c r="J3" t="n">
-        <v>6.01</v>
+        <v>5.21</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2054</v>
+        <v>1.2089</v>
       </c>
       <c r="F4" t="n">
-        <v>6870.78</v>
+        <v>6890.73</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1450.08</v>
+        <v>1470.030000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>26.75</v>
+        <v>27.12</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0256</v>
+        <v>2.0093</v>
       </c>
       <c r="F5" t="n">
-        <v>2402.219808</v>
+        <v>2382.889149</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>2.253267000000051</v>
+        <v>-17.07739199999969</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09</v>
+        <v>-0.71</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7971</v>
+        <v>1.7669</v>
       </c>
       <c r="F8" t="n">
-        <v>23182.59</v>
+        <v>22793.01</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3884.189999999999</v>
+        <v>3494.609999999997</v>
       </c>
       <c r="J8" t="n">
-        <v>20.13</v>
+        <v>18.11</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8835</v>
+        <v>2.898</v>
       </c>
       <c r="F9" t="n">
-        <v>873.152635</v>
+        <v>877.5433800000001</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>124.212662</v>
+        <v>128.6034070000001</v>
       </c>
       <c r="J9" t="n">
-        <v>16.59</v>
+        <v>17.17</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.084</v>
+        <v>2.0745</v>
       </c>
       <c r="F10" t="n">
-        <v>2168.25612</v>
+        <v>2158.372035</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>168.237531</v>
+        <v>158.3534460000003</v>
       </c>
       <c r="J10" t="n">
-        <v>8.41</v>
+        <v>7.92</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5606</v>
+        <v>1.5537</v>
       </c>
       <c r="F11" t="n">
-        <v>6456.561137999999</v>
+        <v>6428.014251</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>477.4363419999991</v>
+        <v>448.8894549999995</v>
       </c>
       <c r="J11" t="n">
-        <v>7.99</v>
+        <v>7.51</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5606</v>
+        <v>1.5537</v>
       </c>
       <c r="F12" t="n">
-        <v>9385.557642</v>
+        <v>9344.060559</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>285.6683250000006</v>
+        <v>244.1712420000003</v>
       </c>
       <c r="J12" t="n">
-        <v>3.14</v>
+        <v>2.68</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2464</v>
+        <v>2.2583</v>
       </c>
       <c r="F15" t="n">
-        <v>20891.52</v>
+        <v>21002.19</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1445.220000000001</v>
+        <v>1555.890000000003</v>
       </c>
       <c r="J15" t="n">
-        <v>7.43</v>
+        <v>8</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.04</v>
+        <v>28.21</v>
       </c>
       <c r="F16" t="n">
-        <v>14020</v>
+        <v>14105</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="J16" t="n">
-        <v>1.48</v>
+        <v>2.1</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>9.039999999999999</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>18080</v>
+        <v>18240</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>320</v>
+        <v>480</v>
       </c>
       <c r="J17" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1361</v>
+        <v>1.1412</v>
       </c>
       <c r="F18" t="n">
-        <v>4462.816659</v>
+        <v>4482.850428</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>156.3419620000004</v>
+        <v>176.3757310000001</v>
       </c>
       <c r="J18" t="n">
-        <v>3.63</v>
+        <v>4.1</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6018</v>
+        <v>1.6148</v>
       </c>
       <c r="F19" t="n">
-        <v>13935.66</v>
+        <v>14048.76</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>476.7600000000002</v>
+        <v>589.8600000000006</v>
       </c>
       <c r="J19" t="n">
-        <v>3.54</v>
+        <v>4.38</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2897</v>
+        <v>1.2965</v>
       </c>
       <c r="F20" t="n">
-        <v>10221.981642</v>
+        <v>10275.87749</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>221.9240800000007</v>
+        <v>275.819927999999</v>
       </c>
       <c r="J20" t="n">
-        <v>2.22</v>
+        <v>2.76</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.198</v>
+        <v>1.2042</v>
       </c>
       <c r="F21" t="n">
-        <v>13537.4</v>
+        <v>13607.46</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>904</v>
+        <v>974.0599999999995</v>
       </c>
       <c r="J21" t="n">
-        <v>7.16</v>
+        <v>7.71</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5672</v>
+        <v>1.5538</v>
       </c>
       <c r="F22" t="n">
-        <v>836.712408</v>
+        <v>829.558282</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>107.578835</v>
+        <v>100.424709</v>
       </c>
       <c r="J22" t="n">
-        <v>14.75</v>
+        <v>13.77</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5672</v>
+        <v>1.5538</v>
       </c>
       <c r="F23" t="n">
-        <v>20250.950928</v>
+        <v>20077.799612</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1050.537461999997</v>
+        <v>877.3861459999971</v>
       </c>
       <c r="J23" t="n">
-        <v>5.47</v>
+        <v>4.57</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4071</v>
+        <v>1.3946</v>
       </c>
       <c r="F24" t="n">
-        <v>920.6936720000001</v>
+        <v>912.5146720000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>120.7220400000001</v>
+        <v>112.5430400000001</v>
       </c>
       <c r="J24" t="n">
-        <v>15.09</v>
+        <v>14.07</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.695</v>
+        <v>5.6403</v>
       </c>
       <c r="F26" t="n">
-        <v>2365.3613</v>
+        <v>2342.642202</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>265.3607259999999</v>
+        <v>242.6416279999999</v>
       </c>
       <c r="J26" t="n">
-        <v>12.64</v>
+        <v>11.55</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8269</v>
+        <v>1.8105</v>
       </c>
       <c r="F28" t="n">
-        <v>7049.641720000001</v>
+        <v>6986.3574</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>749.7648400000007</v>
+        <v>686.4805200000001</v>
       </c>
       <c r="J28" t="n">
-        <v>11.9</v>
+        <v>10.9</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8269</v>
+        <v>1.8105</v>
       </c>
       <c r="F29" t="n">
-        <v>15911.001901</v>
+        <v>15768.169545</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>910.9917340000011</v>
+        <v>768.1593780000021</v>
       </c>
       <c r="J29" t="n">
-        <v>6.07</v>
+        <v>5.12</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8687</v>
+        <v>1.8834</v>
       </c>
       <c r="F30" t="n">
-        <v>9825.792783000001</v>
+        <v>9903.086706</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>945.404582000001</v>
+        <v>1022.698505</v>
       </c>
       <c r="J30" t="n">
-        <v>10.65</v>
+        <v>11.52</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8687</v>
+        <v>1.8834</v>
       </c>
       <c r="F31" t="n">
-        <v>1260.008349</v>
+        <v>1269.920118</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>60.01002999999992</v>
+        <v>69.92179899999996</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>5.83</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2328</v>
+        <v>2.2126</v>
       </c>
       <c r="F33" t="n">
-        <v>13620.08</v>
+        <v>13496.86</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1346.879999999999</v>
+        <v>1223.66</v>
       </c>
       <c r="J33" t="n">
-        <v>10.97</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.782</v>
+        <v>1.765</v>
       </c>
       <c r="F34" t="n">
-        <v>34036.2</v>
+        <v>33711.5</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2864.999999999996</v>
+        <v>2540.299999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>9.19</v>
+        <v>8.15</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8044</v>
+        <v>5.8542</v>
       </c>
       <c r="F35" t="n">
-        <v>35327.784072</v>
+        <v>35630.885796</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2127.798448000001</v>
+        <v>2430.900171999994</v>
       </c>
       <c r="J35" t="n">
-        <v>6.41</v>
+        <v>7.32</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.8044</v>
+        <v>5.8542</v>
       </c>
       <c r="F36" t="n">
-        <v>11996.882184</v>
+        <v>12099.811812</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>696.945192000001</v>
+        <v>799.8748199999991</v>
       </c>
       <c r="J36" t="n">
-        <v>6.17</v>
+        <v>7.08</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.8044</v>
+        <v>5.8542</v>
       </c>
       <c r="F37" t="n">
-        <v>87066</v>
+        <v>87813</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>3771</v>
+        <v>4518</v>
       </c>
       <c r="J37" t="n">
-        <v>4.53</v>
+        <v>5.42</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3466</v>
+        <v>2.3276</v>
       </c>
       <c r="F38" t="n">
-        <v>17067.783906</v>
+        <v>16929.589116</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1267.755363</v>
+        <v>1129.560572999999</v>
       </c>
       <c r="J38" t="n">
-        <v>8.02</v>
+        <v>7.15</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3466</v>
+        <v>2.3276</v>
       </c>
       <c r="F39" t="n">
-        <v>24470.133606</v>
+        <v>24272.003316</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1470.335309999999</v>
+        <v>1272.205019999998</v>
       </c>
       <c r="J39" t="n">
-        <v>6.39</v>
+        <v>5.53</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8654</v>
+        <v>1.8505</v>
       </c>
       <c r="F40" t="n">
-        <v>12498.18</v>
+        <v>12398.35</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2046.18</v>
+        <v>1946.35</v>
       </c>
       <c r="J40" t="n">
-        <v>19.58</v>
+        <v>18.62</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.76</v>
+        <v>7.8</v>
       </c>
       <c r="F41" t="n">
-        <v>7760</v>
+        <v>7800</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>651</v>
+        <v>691</v>
       </c>
       <c r="J41" t="n">
-        <v>9.16</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>8.09</v>
+        <v>7.85</v>
       </c>
       <c r="F42" t="n">
-        <v>8899</v>
+        <v>8635</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2314.4</v>
+        <v>2050.4</v>
       </c>
       <c r="J42" t="n">
-        <v>35.15</v>
+        <v>31.14</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.95</v>
+        <v>42.35</v>
       </c>
       <c r="F43" t="n">
-        <v>62925.00000000001</v>
+        <v>63525</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-1529.999999999993</v>
+        <v>-930</v>
       </c>
       <c r="J43" t="n">
-        <v>-2.37</v>
+        <v>-1.44</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9784</v>
+        <v>2.9629</v>
       </c>
       <c r="F2" t="n">
-        <v>2203.092696</v>
+        <v>2191.627501</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>332.8605000000002</v>
+        <v>321.395305</v>
       </c>
       <c r="J2" t="n">
-        <v>17.8</v>
+        <v>17.18</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2089</v>
+        <v>1.2264</v>
       </c>
       <c r="F4" t="n">
-        <v>6890.73</v>
+        <v>6990.48</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1470.030000000001</v>
+        <v>1569.78</v>
       </c>
       <c r="J4" t="n">
-        <v>27.12</v>
+        <v>28.96</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.5031</v>
+        <v>1.5007</v>
       </c>
       <c r="F6" t="n">
-        <v>2551.196599</v>
+        <v>2547.123103</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>51.25815800000055</v>
+        <v>47.18466200000012</v>
       </c>
       <c r="J6" t="n">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.5031</v>
+        <v>1.5007</v>
       </c>
       <c r="F7" t="n">
-        <v>5402.29171</v>
+        <v>5393.66587</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>82.30489000000034</v>
+        <v>73.67904999999973</v>
       </c>
       <c r="J7" t="n">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7669</v>
+        <v>1.785</v>
       </c>
       <c r="F8" t="n">
-        <v>22793.01</v>
+        <v>23026.5</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3494.609999999997</v>
+        <v>3728.099999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>18.11</v>
+        <v>19.32</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0745</v>
+        <v>2.0841</v>
       </c>
       <c r="F10" t="n">
-        <v>2158.372035</v>
+        <v>2168.360163</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>158.3534460000003</v>
+        <v>168.3415739999998</v>
       </c>
       <c r="J10" t="n">
-        <v>7.92</v>
+        <v>8.42</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5537</v>
+        <v>1.5607</v>
       </c>
       <c r="F11" t="n">
-        <v>6428.014251</v>
+        <v>6456.974860999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>448.8894549999995</v>
+        <v>477.8500649999987</v>
       </c>
       <c r="J11" t="n">
-        <v>7.51</v>
+        <v>7.99</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5537</v>
+        <v>1.5607</v>
       </c>
       <c r="F12" t="n">
-        <v>9344.060559</v>
+        <v>9386.159049</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>244.1712420000003</v>
+        <v>286.2697320000007</v>
       </c>
       <c r="J12" t="n">
-        <v>2.68</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1412</v>
+        <v>1.1268</v>
       </c>
       <c r="F18" t="n">
-        <v>4482.850428</v>
+        <v>4426.284492</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>176.3757310000001</v>
+        <v>119.8097950000001</v>
       </c>
       <c r="J18" t="n">
-        <v>4.1</v>
+        <v>2.78</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6148</v>
+        <v>1.6065</v>
       </c>
       <c r="F19" t="n">
-        <v>14048.76</v>
+        <v>13976.55</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>589.8600000000006</v>
+        <v>517.6500000000015</v>
       </c>
       <c r="J19" t="n">
-        <v>4.38</v>
+        <v>3.85</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2965</v>
+        <v>1.2985</v>
       </c>
       <c r="F20" t="n">
-        <v>10275.87749</v>
+        <v>10291.72921</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>275.819927999999</v>
+        <v>291.6716479999995</v>
       </c>
       <c r="J20" t="n">
-        <v>2.76</v>
+        <v>2.92</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2042</v>
+        <v>1.1976</v>
       </c>
       <c r="F21" t="n">
-        <v>13607.46</v>
+        <v>13532.88</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>974.0599999999995</v>
+        <v>899.4799999999996</v>
       </c>
       <c r="J21" t="n">
-        <v>7.71</v>
+        <v>7.12</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5538</v>
+        <v>1.5652</v>
       </c>
       <c r="F22" t="n">
-        <v>829.558282</v>
+        <v>835.6446279999999</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>100.424709</v>
+        <v>106.5110549999999</v>
       </c>
       <c r="J22" t="n">
-        <v>13.77</v>
+        <v>14.61</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5538</v>
+        <v>1.5652</v>
       </c>
       <c r="F23" t="n">
-        <v>20077.799612</v>
+        <v>20225.107448</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>877.3861459999971</v>
+        <v>1024.693981999997</v>
       </c>
       <c r="J23" t="n">
-        <v>4.57</v>
+        <v>5.34</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3946</v>
+        <v>1.4055</v>
       </c>
       <c r="F24" t="n">
-        <v>912.5146720000001</v>
+        <v>919.6467600000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>112.5430400000001</v>
+        <v>119.6751280000001</v>
       </c>
       <c r="J24" t="n">
-        <v>14.07</v>
+        <v>14.96</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.6403</v>
+        <v>5.6867</v>
       </c>
       <c r="F26" t="n">
-        <v>2342.642202</v>
+        <v>2361.913978</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>242.6416279999999</v>
+        <v>261.9134039999999</v>
       </c>
       <c r="J26" t="n">
-        <v>11.55</v>
+        <v>12.47</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8105</v>
+        <v>1.8245</v>
       </c>
       <c r="F28" t="n">
-        <v>6986.3574</v>
+        <v>7040.3806</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>686.4805200000001</v>
+        <v>740.5037200000006</v>
       </c>
       <c r="J28" t="n">
-        <v>10.9</v>
+        <v>11.75</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8105</v>
+        <v>1.8245</v>
       </c>
       <c r="F29" t="n">
-        <v>15768.169545</v>
+        <v>15890.099605</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>768.1593780000021</v>
+        <v>890.0894380000009</v>
       </c>
       <c r="J29" t="n">
-        <v>5.12</v>
+        <v>5.93</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2126</v>
+        <v>2.2317</v>
       </c>
       <c r="F33" t="n">
-        <v>13496.86</v>
+        <v>13613.37</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1223.66</v>
+        <v>1340.17</v>
       </c>
       <c r="J33" t="n">
-        <v>9.970000000000001</v>
+        <v>10.92</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.765</v>
+        <v>1.779</v>
       </c>
       <c r="F34" t="n">
-        <v>33711.5</v>
+        <v>33978.9</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2540.299999999999</v>
+        <v>2807.700000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>8.15</v>
+        <v>9.01</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3276</v>
+        <v>2.3465</v>
       </c>
       <c r="F38" t="n">
-        <v>16929.589116</v>
+        <v>17067.056565</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1129.560572999999</v>
+        <v>1267.028021999999</v>
       </c>
       <c r="J38" t="n">
-        <v>7.15</v>
+        <v>8.02</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3276</v>
+        <v>2.3465</v>
       </c>
       <c r="F39" t="n">
-        <v>24272.003316</v>
+        <v>24469.090815</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1272.205019999998</v>
+        <v>1469.292518999995</v>
       </c>
       <c r="J39" t="n">
-        <v>5.53</v>
+        <v>6.39</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8505</v>
+        <v>1.8686</v>
       </c>
       <c r="F40" t="n">
-        <v>12398.35</v>
+        <v>12519.62</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1946.35</v>
+        <v>2067.620000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>18.62</v>
+        <v>19.78</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.2438</v>
+        <v>3.2832</v>
       </c>
       <c r="F3" t="n">
-        <v>1052.029216</v>
+        <v>1064.807424</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>52.08579199999986</v>
+        <v>64.86399999999981</v>
       </c>
       <c r="J3" t="n">
-        <v>5.21</v>
+        <v>6.49</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0093</v>
+        <v>2.0125</v>
       </c>
       <c r="F5" t="n">
-        <v>2382.889149</v>
+        <v>2386.684125</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-17.07739199999969</v>
+        <v>-13.28241599999956</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.71</v>
+        <v>-0.55</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.898</v>
+        <v>2.9201</v>
       </c>
       <c r="F9" t="n">
-        <v>877.5433800000001</v>
+        <v>884.235481</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>128.6034070000001</v>
+        <v>135.295508</v>
       </c>
       <c r="J9" t="n">
-        <v>17.17</v>
+        <v>18.06</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2583</v>
+        <v>2.2766</v>
       </c>
       <c r="F15" t="n">
-        <v>21002.19</v>
+        <v>21172.38</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1555.890000000003</v>
+        <v>1726.080000000002</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.21</v>
+        <v>28.14</v>
       </c>
       <c r="F16" t="n">
-        <v>14105</v>
+        <v>14070</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="J16" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>9.119999999999999</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>18240</v>
+        <v>18220</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="J17" t="n">
-        <v>2.7</v>
+        <v>2.59</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8834</v>
+        <v>1.9022</v>
       </c>
       <c r="F30" t="n">
-        <v>9903.086706</v>
+        <v>10001.938798</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1022.698505</v>
+        <v>1121.550596999999</v>
       </c>
       <c r="J30" t="n">
-        <v>11.52</v>
+        <v>12.63</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8834</v>
+        <v>1.9022</v>
       </c>
       <c r="F31" t="n">
-        <v>1269.920118</v>
+        <v>1282.596394</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>69.92179899999996</v>
+        <v>82.59807499999988</v>
       </c>
       <c r="J31" t="n">
-        <v>5.83</v>
+        <v>6.88</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8542</v>
+        <v>5.9394</v>
       </c>
       <c r="F35" t="n">
-        <v>35630.885796</v>
+        <v>36149.445372</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2430.900171999994</v>
+        <v>2949.459748000001</v>
       </c>
       <c r="J35" t="n">
-        <v>7.32</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.8542</v>
+        <v>5.9394</v>
       </c>
       <c r="F36" t="n">
-        <v>12099.811812</v>
+        <v>12275.908284</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>799.8748199999991</v>
+        <v>975.9712920000002</v>
       </c>
       <c r="J36" t="n">
-        <v>7.08</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.8542</v>
+        <v>5.9394</v>
       </c>
       <c r="F37" t="n">
-        <v>87813</v>
+        <v>89091</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>4518</v>
+        <v>5796</v>
       </c>
       <c r="J37" t="n">
-        <v>5.42</v>
+        <v>6.96</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.85</v>
+        <v>7.92</v>
       </c>
       <c r="F42" t="n">
-        <v>8635</v>
+        <v>8712</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2050.4</v>
+        <v>2127.4</v>
       </c>
       <c r="J42" t="n">
-        <v>31.14</v>
+        <v>32.31</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>42.35</v>
+        <v>41.9</v>
       </c>
       <c r="F43" t="n">
-        <v>63525</v>
+        <v>62850</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-930</v>
+        <v>-1605</v>
       </c>
       <c r="J43" t="n">
-        <v>-1.44</v>
+        <v>-2.49</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9629</v>
+        <v>2.9474</v>
       </c>
       <c r="F2" t="n">
-        <v>2191.627501</v>
+        <v>2180.162306</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>321.395305</v>
+        <v>309.9301100000002</v>
       </c>
       <c r="J2" t="n">
-        <v>17.18</v>
+        <v>16.57</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.2832</v>
+        <v>3.3435</v>
       </c>
       <c r="F3" t="n">
-        <v>1064.807424</v>
+        <v>1084.36392</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>64.86399999999981</v>
+        <v>84.42049599999996</v>
       </c>
       <c r="J3" t="n">
-        <v>6.49</v>
+        <v>8.44</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2264</v>
+        <v>1.2423</v>
       </c>
       <c r="F4" t="n">
-        <v>6990.48</v>
+        <v>7081.11</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1569.78</v>
+        <v>1660.41</v>
       </c>
       <c r="J4" t="n">
-        <v>28.96</v>
+        <v>30.63</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.5007</v>
+        <v>1.4989</v>
       </c>
       <c r="F6" t="n">
-        <v>2547.123103</v>
+        <v>2544.067981</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>47.18466200000012</v>
+        <v>44.12953999999991</v>
       </c>
       <c r="J6" t="n">
-        <v>1.89</v>
+        <v>1.77</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.5007</v>
+        <v>1.4989</v>
       </c>
       <c r="F7" t="n">
-        <v>5393.66587</v>
+        <v>5387.196489999999</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>73.67904999999973</v>
+        <v>67.20966999999928</v>
       </c>
       <c r="J7" t="n">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.785</v>
+        <v>1.8241</v>
       </c>
       <c r="F8" t="n">
-        <v>23026.5</v>
+        <v>23530.89</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3728.099999999999</v>
+        <v>4232.489999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>19.32</v>
+        <v>21.93</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9201</v>
+        <v>2.9518</v>
       </c>
       <c r="F9" t="n">
-        <v>884.235481</v>
+        <v>893.834558</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>135.295508</v>
+        <v>144.894585</v>
       </c>
       <c r="J9" t="n">
-        <v>18.06</v>
+        <v>19.35</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0841</v>
+        <v>2.1006</v>
       </c>
       <c r="F10" t="n">
-        <v>2168.360163</v>
+        <v>2185.527258</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>168.3415739999998</v>
+        <v>185.5086690000001</v>
       </c>
       <c r="J10" t="n">
-        <v>8.42</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5607</v>
+        <v>1.5716</v>
       </c>
       <c r="F11" t="n">
-        <v>6456.974860999999</v>
+        <v>6502.070667999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>477.8500649999987</v>
+        <v>522.9458719999993</v>
       </c>
       <c r="J11" t="n">
-        <v>7.99</v>
+        <v>8.75</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5607</v>
+        <v>1.5716</v>
       </c>
       <c r="F12" t="n">
-        <v>9386.159049</v>
+        <v>9451.712412000001</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>286.2697320000007</v>
+        <v>351.8230950000016</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3.87</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2766</v>
+        <v>2.3031</v>
       </c>
       <c r="F15" t="n">
-        <v>21172.38</v>
+        <v>21418.83</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1726.080000000002</v>
+        <v>1972.530000000002</v>
       </c>
       <c r="J15" t="n">
-        <v>8.880000000000001</v>
+        <v>10.14</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.14</v>
+        <v>28.26</v>
       </c>
       <c r="F16" t="n">
-        <v>14070</v>
+        <v>14130</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="J16" t="n">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>9.109999999999999</v>
+        <v>9.48</v>
       </c>
       <c r="F17" t="n">
-        <v>18220</v>
+        <v>18960</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>460</v>
+        <v>1200</v>
       </c>
       <c r="J17" t="n">
-        <v>2.59</v>
+        <v>6.76</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1268</v>
+        <v>1.1331</v>
       </c>
       <c r="F18" t="n">
-        <v>4426.284492</v>
+        <v>4451.032089</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>119.8097950000001</v>
+        <v>144.5573920000006</v>
       </c>
       <c r="J18" t="n">
-        <v>2.78</v>
+        <v>3.36</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6065</v>
+        <v>1.6139</v>
       </c>
       <c r="F19" t="n">
-        <v>13976.55</v>
+        <v>14040.93</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>517.6500000000015</v>
+        <v>582.0299999999988</v>
       </c>
       <c r="J19" t="n">
-        <v>3.85</v>
+        <v>4.32</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2985</v>
+        <v>1.304</v>
       </c>
       <c r="F20" t="n">
-        <v>10291.72921</v>
+        <v>10335.32144</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>291.6716479999995</v>
+        <v>335.2638779999997</v>
       </c>
       <c r="J20" t="n">
-        <v>2.92</v>
+        <v>3.35</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1976</v>
+        <v>1.1985</v>
       </c>
       <c r="F21" t="n">
-        <v>13532.88</v>
+        <v>13543.05</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>899.4799999999996</v>
+        <v>909.6499999999996</v>
       </c>
       <c r="J21" t="n">
-        <v>7.12</v>
+        <v>7.2</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5652</v>
+        <v>1.58</v>
       </c>
       <c r="F22" t="n">
-        <v>835.6446279999999</v>
+        <v>843.5462</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>106.5110549999999</v>
+        <v>114.412627</v>
       </c>
       <c r="J22" t="n">
-        <v>14.61</v>
+        <v>15.69</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5652</v>
+        <v>1.58</v>
       </c>
       <c r="F23" t="n">
-        <v>20225.107448</v>
+        <v>20416.3492</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1024.693981999997</v>
+        <v>1215.935733999999</v>
       </c>
       <c r="J23" t="n">
-        <v>5.34</v>
+        <v>6.33</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4055</v>
+        <v>1.4194</v>
       </c>
       <c r="F24" t="n">
-        <v>919.6467600000001</v>
+        <v>928.7418080000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>119.6751280000001</v>
+        <v>128.7701760000001</v>
       </c>
       <c r="J24" t="n">
-        <v>14.96</v>
+        <v>16.1</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.6867</v>
+        <v>5.7447</v>
       </c>
       <c r="F26" t="n">
-        <v>2361.913978</v>
+        <v>2386.003698</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>261.9134039999999</v>
+        <v>286.0031239999998</v>
       </c>
       <c r="J26" t="n">
-        <v>12.47</v>
+        <v>13.62</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8245</v>
+        <v>1.8424</v>
       </c>
       <c r="F28" t="n">
-        <v>7040.3806</v>
+        <v>7109.45312</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>740.5037200000006</v>
+        <v>809.5762400000003</v>
       </c>
       <c r="J28" t="n">
-        <v>11.75</v>
+        <v>12.85</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8245</v>
+        <v>1.8424</v>
       </c>
       <c r="F29" t="n">
-        <v>15890.099605</v>
+        <v>16045.995896</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>890.0894380000009</v>
+        <v>1045.985729000002</v>
       </c>
       <c r="J29" t="n">
-        <v>5.93</v>
+        <v>6.97</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9022</v>
+        <v>1.9339</v>
       </c>
       <c r="F30" t="n">
-        <v>10001.938798</v>
+        <v>10168.620251</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1121.550596999999</v>
+        <v>1288.232050000001</v>
       </c>
       <c r="J30" t="n">
-        <v>12.63</v>
+        <v>14.51</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9022</v>
+        <v>1.9339</v>
       </c>
       <c r="F31" t="n">
-        <v>1282.596394</v>
+        <v>1303.970753</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>82.59807499999988</v>
+        <v>103.9724339999998</v>
       </c>
       <c r="J31" t="n">
-        <v>6.88</v>
+        <v>8.66</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2317</v>
+        <v>2.2547</v>
       </c>
       <c r="F33" t="n">
-        <v>13613.37</v>
+        <v>13753.67</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1340.17</v>
+        <v>1480.469999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>10.92</v>
+        <v>12.06</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.779</v>
+        <v>1.798</v>
       </c>
       <c r="F34" t="n">
-        <v>33978.9</v>
+        <v>34341.8</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2807.700000000001</v>
+        <v>3170.600000000002</v>
       </c>
       <c r="J34" t="n">
-        <v>9.01</v>
+        <v>10.17</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.9394</v>
+        <v>6.0472</v>
       </c>
       <c r="F35" t="n">
-        <v>36149.445372</v>
+        <v>36805.557136</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2949.459748000001</v>
+        <v>3605.571512000002</v>
       </c>
       <c r="J35" t="n">
-        <v>8.880000000000001</v>
+        <v>10.86</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.9394</v>
+        <v>6.0472</v>
       </c>
       <c r="F36" t="n">
-        <v>12275.908284</v>
+        <v>12498.715792</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>975.9712920000002</v>
+        <v>1198.7788</v>
       </c>
       <c r="J36" t="n">
-        <v>8.640000000000001</v>
+        <v>10.61</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.9394</v>
+        <v>6.0472</v>
       </c>
       <c r="F37" t="n">
-        <v>89091</v>
+        <v>90708</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>5796</v>
+        <v>7413</v>
       </c>
       <c r="J37" t="n">
-        <v>6.96</v>
+        <v>8.9</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3465</v>
+        <v>2.3803</v>
       </c>
       <c r="F38" t="n">
-        <v>17067.056565</v>
+        <v>17312.897823</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1267.028021999999</v>
+        <v>1512.869279999999</v>
       </c>
       <c r="J38" t="n">
-        <v>8.02</v>
+        <v>9.58</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3465</v>
+        <v>2.3803</v>
       </c>
       <c r="F39" t="n">
-        <v>24469.090815</v>
+        <v>24821.554173</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1469.292518999995</v>
+        <v>1821.755877</v>
       </c>
       <c r="J39" t="n">
-        <v>6.39</v>
+        <v>7.92</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8686</v>
+        <v>1.9008</v>
       </c>
       <c r="F40" t="n">
-        <v>12519.62</v>
+        <v>12735.36</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2067.620000000001</v>
+        <v>2283.360000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>19.78</v>
+        <v>21.85</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="F41" t="n">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>691</v>
+        <v>791</v>
       </c>
       <c r="J41" t="n">
-        <v>9.720000000000001</v>
+        <v>11.13</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.92</v>
+        <v>8.18</v>
       </c>
       <c r="F42" t="n">
-        <v>8712</v>
+        <v>8998</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2127.4</v>
+        <v>2413.4</v>
       </c>
       <c r="J42" t="n">
-        <v>32.31</v>
+        <v>36.65</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.9</v>
+        <v>41.62</v>
       </c>
       <c r="F43" t="n">
-        <v>62850</v>
+        <v>62429.99999999999</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-1605</v>
+        <v>-2025.000000000007</v>
       </c>
       <c r="J43" t="n">
-        <v>-2.49</v>
+        <v>-3.14</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9474</v>
+        <v>2.8436</v>
       </c>
       <c r="F2" t="n">
-        <v>2180.162306</v>
+        <v>2103.382484</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>309.9301100000002</v>
+        <v>233.1502880000003</v>
       </c>
       <c r="J2" t="n">
-        <v>16.57</v>
+        <v>12.47</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.3435</v>
+        <v>3.2842</v>
       </c>
       <c r="F3" t="n">
-        <v>1084.36392</v>
+        <v>1065.131744</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>84.42049599999996</v>
+        <v>65.18831999999975</v>
       </c>
       <c r="J3" t="n">
-        <v>8.44</v>
+        <v>6.52</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2423</v>
+        <v>1.2357</v>
       </c>
       <c r="F4" t="n">
-        <v>7081.11</v>
+        <v>7043.49</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1660.41</v>
+        <v>1622.79</v>
       </c>
       <c r="J4" t="n">
-        <v>30.63</v>
+        <v>29.94</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0125</v>
+        <v>2.0189</v>
       </c>
       <c r="F5" t="n">
-        <v>2386.684125</v>
+        <v>2394.274077</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-13.28241599999956</v>
+        <v>-5.692463999999745</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.55</v>
+        <v>-0.24</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4989</v>
+        <v>1.4972</v>
       </c>
       <c r="F6" t="n">
-        <v>2544.067981</v>
+        <v>2541.182588</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>44.12953999999991</v>
+        <v>41.24414700000034</v>
       </c>
       <c r="J6" t="n">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4989</v>
+        <v>1.4972</v>
       </c>
       <c r="F7" t="n">
-        <v>5387.196489999999</v>
+        <v>5381.08652</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>67.20966999999928</v>
+        <v>61.09969999999976</v>
       </c>
       <c r="J7" t="n">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9518</v>
+        <v>2.9574</v>
       </c>
       <c r="F9" t="n">
-        <v>893.834558</v>
+        <v>895.5302939999999</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>144.894585</v>
+        <v>146.5903209999999</v>
       </c>
       <c r="J9" t="n">
-        <v>19.35</v>
+        <v>19.57</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1006</v>
+        <v>2.1214</v>
       </c>
       <c r="F10" t="n">
-        <v>2185.527258</v>
+        <v>2207.168202</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>185.5086690000001</v>
+        <v>207.1496130000003</v>
       </c>
       <c r="J10" t="n">
-        <v>9.279999999999999</v>
+        <v>10.36</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5716</v>
+        <v>1.5875</v>
       </c>
       <c r="F11" t="n">
-        <v>6502.070667999999</v>
+        <v>6567.852624999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>522.9458719999993</v>
+        <v>588.7278289999986</v>
       </c>
       <c r="J11" t="n">
-        <v>8.75</v>
+        <v>9.85</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5716</v>
+        <v>1.5875</v>
       </c>
       <c r="F12" t="n">
-        <v>9451.712412000001</v>
+        <v>9547.336125</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>351.8230950000016</v>
+        <v>447.4468080000006</v>
       </c>
       <c r="J12" t="n">
-        <v>3.87</v>
+        <v>4.92</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.3031</v>
+        <v>2.3076</v>
       </c>
       <c r="F15" t="n">
-        <v>21418.83</v>
+        <v>21460.68</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1972.530000000002</v>
+        <v>2014.380000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>10.14</v>
+        <v>10.36</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.26</v>
+        <v>28.46</v>
       </c>
       <c r="F16" t="n">
-        <v>14130</v>
+        <v>14230</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>315</v>
+        <v>415</v>
       </c>
       <c r="J16" t="n">
-        <v>2.28</v>
+        <v>3</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>9.48</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>18960</v>
+        <v>18780</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>1200</v>
+        <v>1020</v>
       </c>
       <c r="J17" t="n">
-        <v>6.76</v>
+        <v>5.74</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1331</v>
+        <v>1.1265</v>
       </c>
       <c r="F18" t="n">
-        <v>4451.032089</v>
+        <v>4425.106035000001</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>144.5573920000006</v>
+        <v>118.6313380000011</v>
       </c>
       <c r="J18" t="n">
-        <v>3.36</v>
+        <v>2.75</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6139</v>
+        <v>1.6055</v>
       </c>
       <c r="F19" t="n">
-        <v>14040.93</v>
+        <v>13967.85</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>582.0299999999988</v>
+        <v>508.9499999999989</v>
       </c>
       <c r="J19" t="n">
-        <v>4.32</v>
+        <v>3.78</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.304</v>
+        <v>1.2945</v>
       </c>
       <c r="F20" t="n">
-        <v>10335.32144</v>
+        <v>10260.02577</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>335.2638779999997</v>
+        <v>259.9682080000002</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>2.6</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1985</v>
+        <v>1.197</v>
       </c>
       <c r="F21" t="n">
-        <v>13543.05</v>
+        <v>13526.1</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>909.6499999999996</v>
+        <v>892.7000000000007</v>
       </c>
       <c r="J21" t="n">
-        <v>7.2</v>
+        <v>7.07</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.58</v>
+        <v>1.6046</v>
       </c>
       <c r="F22" t="n">
-        <v>843.5462</v>
+        <v>856.679894</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>114.412627</v>
+        <v>127.546321</v>
       </c>
       <c r="J22" t="n">
-        <v>15.69</v>
+        <v>17.49</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.58</v>
+        <v>1.6046</v>
       </c>
       <c r="F23" t="n">
-        <v>20416.3492</v>
+        <v>20734.224004</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1215.935733999999</v>
+        <v>1533.810537999998</v>
       </c>
       <c r="J23" t="n">
-        <v>6.33</v>
+        <v>7.99</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4194</v>
+        <v>1.4428</v>
       </c>
       <c r="F24" t="n">
-        <v>928.7418080000001</v>
+        <v>944.0528960000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>128.7701760000001</v>
+        <v>144.0812640000001</v>
       </c>
       <c r="J24" t="n">
-        <v>16.1</v>
+        <v>18.01</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7447</v>
+        <v>5.8439</v>
       </c>
       <c r="F26" t="n">
-        <v>2386.003698</v>
+        <v>2427.205426</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>286.0031239999998</v>
+        <v>327.2048519999994</v>
       </c>
       <c r="J26" t="n">
-        <v>13.62</v>
+        <v>15.58</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8424</v>
+        <v>1.8728</v>
       </c>
       <c r="F28" t="n">
-        <v>7109.45312</v>
+        <v>7226.76064</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>809.5762400000003</v>
+        <v>926.8837600000006</v>
       </c>
       <c r="J28" t="n">
-        <v>12.85</v>
+        <v>14.71</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8424</v>
+        <v>1.8728</v>
       </c>
       <c r="F29" t="n">
-        <v>16045.995896</v>
+        <v>16310.758312</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1045.985729000002</v>
+        <v>1310.748145000001</v>
       </c>
       <c r="J29" t="n">
-        <v>6.97</v>
+        <v>8.74</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9339</v>
+        <v>1.9469</v>
       </c>
       <c r="F30" t="n">
-        <v>10168.620251</v>
+        <v>10236.975421</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1288.232050000001</v>
+        <v>1356.587220000001</v>
       </c>
       <c r="J30" t="n">
-        <v>14.51</v>
+        <v>15.28</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9339</v>
+        <v>1.9469</v>
       </c>
       <c r="F31" t="n">
-        <v>1303.970753</v>
+        <v>1312.736263</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>103.9724339999998</v>
+        <v>112.737944</v>
       </c>
       <c r="J31" t="n">
-        <v>8.66</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2547</v>
+        <v>2.2923</v>
       </c>
       <c r="F33" t="n">
-        <v>13753.67</v>
+        <v>13983.03</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1480.469999999999</v>
+        <v>1709.83</v>
       </c>
       <c r="J33" t="n">
-        <v>12.06</v>
+        <v>13.93</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.798</v>
+        <v>1.829</v>
       </c>
       <c r="F34" t="n">
-        <v>34341.8</v>
+        <v>34933.9</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3170.600000000002</v>
+        <v>3762.700000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>10.17</v>
+        <v>12.07</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>6.0472</v>
+        <v>6.1359</v>
       </c>
       <c r="F35" t="n">
-        <v>36805.557136</v>
+        <v>37345.419042</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>3605.571512000002</v>
+        <v>4145.433418000001</v>
       </c>
       <c r="J35" t="n">
-        <v>10.86</v>
+        <v>12.49</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>6.0472</v>
+        <v>6.1359</v>
       </c>
       <c r="F36" t="n">
-        <v>12498.715792</v>
+        <v>12682.046274</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>1198.7788</v>
+        <v>1382.109282000001</v>
       </c>
       <c r="J36" t="n">
-        <v>10.61</v>
+        <v>12.23</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>6.0472</v>
+        <v>6.1359</v>
       </c>
       <c r="F37" t="n">
-        <v>90708</v>
+        <v>92038.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>7413</v>
+        <v>8743.5</v>
       </c>
       <c r="J37" t="n">
-        <v>8.9</v>
+        <v>10.5</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3803</v>
+        <v>2.427</v>
       </c>
       <c r="F38" t="n">
-        <v>17312.897823</v>
+        <v>17652.56607</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1512.869279999999</v>
+        <v>1852.537527</v>
       </c>
       <c r="J38" t="n">
-        <v>9.58</v>
+        <v>11.72</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3803</v>
+        <v>2.427</v>
       </c>
       <c r="F39" t="n">
-        <v>24821.554173</v>
+        <v>25308.53757</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1821.755877</v>
+        <v>2308.739274</v>
       </c>
       <c r="J39" t="n">
-        <v>7.92</v>
+        <v>10.04</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9008</v>
+        <v>1.9418</v>
       </c>
       <c r="F40" t="n">
-        <v>12735.36</v>
+        <v>13010.06</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2283.360000000001</v>
+        <v>2558.059999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>21.85</v>
+        <v>24.47</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.9</v>
+        <v>7.98</v>
       </c>
       <c r="F41" t="n">
-        <v>7900</v>
+        <v>7980</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>791</v>
+        <v>871</v>
       </c>
       <c r="J41" t="n">
-        <v>11.13</v>
+        <v>12.25</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>8.18</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>8998</v>
+        <v>9130</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2413.4</v>
+        <v>2545.4</v>
       </c>
       <c r="J42" t="n">
-        <v>36.65</v>
+        <v>38.66</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.62</v>
+        <v>41.53</v>
       </c>
       <c r="F43" t="n">
-        <v>62429.99999999999</v>
+        <v>62295</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-2025.000000000007</v>
+        <v>-2160</v>
       </c>
       <c r="J43" t="n">
-        <v>-3.14</v>
+        <v>-3.35</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.8436</v>
+        <v>2.8911</v>
       </c>
       <c r="F2" t="n">
-        <v>2103.382484</v>
+        <v>2138.517759</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>233.1502880000003</v>
+        <v>268.2855629999999</v>
       </c>
       <c r="J2" t="n">
-        <v>12.47</v>
+        <v>14.35</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.2842</v>
+        <v>3.2986</v>
       </c>
       <c r="F3" t="n">
-        <v>1065.131744</v>
+        <v>1069.801952</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>65.18831999999975</v>
+        <v>69.85852799999998</v>
       </c>
       <c r="J3" t="n">
-        <v>6.52</v>
+        <v>6.99</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2357</v>
+        <v>1.2523</v>
       </c>
       <c r="F4" t="n">
-        <v>7043.49</v>
+        <v>7138.11</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1622.79</v>
+        <v>1717.41</v>
       </c>
       <c r="J4" t="n">
-        <v>29.94</v>
+        <v>31.68</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0189</v>
+        <v>2.0049</v>
       </c>
       <c r="F5" t="n">
-        <v>2394.274077</v>
+        <v>2377.671057</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-5.692463999999745</v>
+        <v>-22.29548399999931</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.24</v>
+        <v>-0.93</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4972</v>
+        <v>1.4938</v>
       </c>
       <c r="F6" t="n">
-        <v>2541.182588</v>
+        <v>2535.411802</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>41.24414700000034</v>
+        <v>35.4733610000003</v>
       </c>
       <c r="J6" t="n">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4972</v>
+        <v>1.4938</v>
       </c>
       <c r="F7" t="n">
-        <v>5381.08652</v>
+        <v>5368.86658</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>61.09969999999976</v>
+        <v>48.87975999999981</v>
       </c>
       <c r="J7" t="n">
-        <v>1.15</v>
+        <v>0.92</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8241</v>
+        <v>1.8607</v>
       </c>
       <c r="F8" t="n">
-        <v>23530.89</v>
+        <v>24003.03</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4232.489999999998</v>
+        <v>4704.629999999997</v>
       </c>
       <c r="J8" t="n">
-        <v>21.93</v>
+        <v>24.38</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9574</v>
+        <v>2.9567</v>
       </c>
       <c r="F9" t="n">
-        <v>895.5302939999999</v>
+        <v>895.3183270000001</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>146.5903209999999</v>
+        <v>146.3783540000001</v>
       </c>
       <c r="J9" t="n">
-        <v>19.57</v>
+        <v>19.54</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1214</v>
+        <v>2.1262</v>
       </c>
       <c r="F10" t="n">
-        <v>2207.168202</v>
+        <v>2212.162266</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>207.1496130000003</v>
+        <v>212.1436769999998</v>
       </c>
       <c r="J10" t="n">
-        <v>10.36</v>
+        <v>10.61</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5875</v>
+        <v>1.5903</v>
       </c>
       <c r="F11" t="n">
-        <v>6567.852624999999</v>
+        <v>6579.436868999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>588.7278289999986</v>
+        <v>600.3120729999991</v>
       </c>
       <c r="J11" t="n">
-        <v>9.85</v>
+        <v>10.04</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5875</v>
+        <v>1.5903</v>
       </c>
       <c r="F12" t="n">
-        <v>9547.336125</v>
+        <v>9564.175520999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>447.4468080000006</v>
+        <v>464.286204</v>
       </c>
       <c r="J12" t="n">
-        <v>4.92</v>
+        <v>5.1</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.3076</v>
+        <v>2.3072</v>
       </c>
       <c r="F15" t="n">
-        <v>21460.68</v>
+        <v>21456.96</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2014.380000000001</v>
+        <v>2010.66</v>
       </c>
       <c r="J15" t="n">
-        <v>10.36</v>
+        <v>10.34</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.46</v>
+        <v>28.29</v>
       </c>
       <c r="F16" t="n">
-        <v>14230</v>
+        <v>14145</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>415</v>
+        <v>330</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2.39</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>9.390000000000001</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>18780</v>
+        <v>18740</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>1020</v>
+        <v>980</v>
       </c>
       <c r="J17" t="n">
-        <v>5.74</v>
+        <v>5.52</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1265</v>
+        <v>1.1235</v>
       </c>
       <c r="F18" t="n">
-        <v>4425.106035000001</v>
+        <v>4413.321465</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>118.6313380000011</v>
+        <v>106.8467680000003</v>
       </c>
       <c r="J18" t="n">
-        <v>2.75</v>
+        <v>2.48</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6055</v>
+        <v>1.6062</v>
       </c>
       <c r="F19" t="n">
-        <v>13967.85</v>
+        <v>13973.94</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>508.9499999999989</v>
+        <v>515.0400000000009</v>
       </c>
       <c r="J19" t="n">
-        <v>3.78</v>
+        <v>3.83</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2945</v>
+        <v>1.2941</v>
       </c>
       <c r="F20" t="n">
-        <v>10260.02577</v>
+        <v>10256.855426</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>259.9682080000002</v>
+        <v>256.7978640000001</v>
       </c>
       <c r="J20" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.197</v>
+        <v>1.187</v>
       </c>
       <c r="F21" t="n">
-        <v>13526.1</v>
+        <v>13413.1</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>892.7000000000007</v>
+        <v>779.7000000000007</v>
       </c>
       <c r="J21" t="n">
-        <v>7.07</v>
+        <v>6.17</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.6046</v>
+        <v>1.6147</v>
       </c>
       <c r="F22" t="n">
-        <v>856.679894</v>
+        <v>862.072183</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>127.546321</v>
+        <v>132.93861</v>
       </c>
       <c r="J22" t="n">
-        <v>17.49</v>
+        <v>18.23</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.6046</v>
+        <v>1.6147</v>
       </c>
       <c r="F23" t="n">
-        <v>20734.224004</v>
+        <v>20864.733578</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1533.810537999998</v>
+        <v>1664.320111999998</v>
       </c>
       <c r="J23" t="n">
-        <v>7.99</v>
+        <v>8.67</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4428</v>
+        <v>1.4524</v>
       </c>
       <c r="F24" t="n">
-        <v>944.0528960000001</v>
+        <v>950.334368</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>144.0812640000001</v>
+        <v>150.362736</v>
       </c>
       <c r="J24" t="n">
-        <v>18.01</v>
+        <v>18.8</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.8439</v>
+        <v>5.8851</v>
       </c>
       <c r="F26" t="n">
-        <v>2427.205426</v>
+        <v>2444.317434</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>327.2048519999994</v>
+        <v>344.3168599999999</v>
       </c>
       <c r="J26" t="n">
-        <v>15.58</v>
+        <v>16.4</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8728</v>
+        <v>1.8853</v>
       </c>
       <c r="F28" t="n">
-        <v>7226.76064</v>
+        <v>7274.99564</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>926.8837600000006</v>
+        <v>975.1187600000003</v>
       </c>
       <c r="J28" t="n">
-        <v>14.71</v>
+        <v>15.48</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8728</v>
+        <v>1.8853</v>
       </c>
       <c r="F29" t="n">
-        <v>16310.758312</v>
+        <v>16419.624437</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1310.748145000001</v>
+        <v>1419.614270000002</v>
       </c>
       <c r="J29" t="n">
-        <v>8.74</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9469</v>
+        <v>1.9542</v>
       </c>
       <c r="F30" t="n">
-        <v>10236.975421</v>
+        <v>10275.359478</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1356.587220000001</v>
+        <v>1394.971277000001</v>
       </c>
       <c r="J30" t="n">
-        <v>15.28</v>
+        <v>15.71</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9469</v>
+        <v>1.9542</v>
       </c>
       <c r="F31" t="n">
-        <v>1312.736263</v>
+        <v>1317.658434</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>112.737944</v>
+        <v>117.6601149999999</v>
       </c>
       <c r="J31" t="n">
-        <v>9.390000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2923</v>
+        <v>2.3054</v>
       </c>
       <c r="F33" t="n">
-        <v>13983.03</v>
+        <v>14062.94</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1709.83</v>
+        <v>1789.74</v>
       </c>
       <c r="J33" t="n">
-        <v>13.93</v>
+        <v>14.58</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.829</v>
+        <v>1.842</v>
       </c>
       <c r="F34" t="n">
-        <v>34933.9</v>
+        <v>35182.2</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3762.700000000001</v>
+        <v>4011.000000000004</v>
       </c>
       <c r="J34" t="n">
-        <v>12.07</v>
+        <v>12.87</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>6.1359</v>
+        <v>6.1935</v>
       </c>
       <c r="F35" t="n">
-        <v>37345.419042</v>
+        <v>37695.99453</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>4145.433418000001</v>
+        <v>4496.008906000003</v>
       </c>
       <c r="J35" t="n">
-        <v>12.49</v>
+        <v>13.54</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>6.1359</v>
+        <v>6.1935</v>
       </c>
       <c r="F36" t="n">
-        <v>12682.046274</v>
+        <v>12801.09741</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>1382.109282000001</v>
+        <v>1501.160418000001</v>
       </c>
       <c r="J36" t="n">
-        <v>12.23</v>
+        <v>13.28</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>6.1359</v>
+        <v>6.1935</v>
       </c>
       <c r="F37" t="n">
-        <v>92038.5</v>
+        <v>92902.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>8743.5</v>
+        <v>9607.5</v>
       </c>
       <c r="J37" t="n">
-        <v>10.5</v>
+        <v>11.53</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.427</v>
+        <v>2.445</v>
       </c>
       <c r="F38" t="n">
-        <v>17652.56607</v>
+        <v>17783.48745</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1852.537527</v>
+        <v>1983.458906999997</v>
       </c>
       <c r="J38" t="n">
-        <v>11.72</v>
+        <v>12.55</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.427</v>
+        <v>2.445</v>
       </c>
       <c r="F39" t="n">
-        <v>25308.53757</v>
+        <v>25496.23995</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>2308.739274</v>
+        <v>2496.441653999998</v>
       </c>
       <c r="J39" t="n">
-        <v>10.04</v>
+        <v>10.85</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9418</v>
+        <v>1.958</v>
       </c>
       <c r="F40" t="n">
-        <v>13010.06</v>
+        <v>13118.6</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2558.059999999999</v>
+        <v>2666.6</v>
       </c>
       <c r="J40" t="n">
-        <v>24.47</v>
+        <v>25.51</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.98</v>
+        <v>7.83</v>
       </c>
       <c r="F41" t="n">
-        <v>7980</v>
+        <v>7830</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>871</v>
+        <v>721</v>
       </c>
       <c r="J41" t="n">
-        <v>12.25</v>
+        <v>10.14</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="F42" t="n">
-        <v>9130</v>
+        <v>8910</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2545.4</v>
+        <v>2325.4</v>
       </c>
       <c r="J42" t="n">
-        <v>38.66</v>
+        <v>35.32</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.53</v>
+        <v>40.8</v>
       </c>
       <c r="F43" t="n">
-        <v>62295</v>
+        <v>61199.99999999999</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-2160</v>
+        <v>-3255.000000000007</v>
       </c>
       <c r="J43" t="n">
-        <v>-3.35</v>
+        <v>-5.05</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.8911</v>
+        <v>2.873</v>
       </c>
       <c r="F2" t="n">
-        <v>2138.517759</v>
+        <v>2125.12937</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>268.2855629999999</v>
+        <v>254.8971740000002</v>
       </c>
       <c r="J2" t="n">
-        <v>14.35</v>
+        <v>13.63</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.2986</v>
+        <v>3.326</v>
       </c>
       <c r="F3" t="n">
-        <v>1069.801952</v>
+        <v>1078.68832</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>69.85852799999998</v>
+        <v>78.74489599999993</v>
       </c>
       <c r="J3" t="n">
-        <v>6.99</v>
+        <v>7.87</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2523</v>
+        <v>1.2413</v>
       </c>
       <c r="F4" t="n">
-        <v>7138.11</v>
+        <v>7075.410000000001</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1717.41</v>
+        <v>1654.710000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>31.68</v>
+        <v>30.53</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0049</v>
+        <v>1.9991</v>
       </c>
       <c r="F5" t="n">
-        <v>2377.671057</v>
+        <v>2370.792663</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-22.29548399999931</v>
+        <v>-29.1738779999996</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.93</v>
+        <v>-1.22</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4938</v>
+        <v>1.4952</v>
       </c>
       <c r="F6" t="n">
-        <v>2535.411802</v>
+        <v>2537.788008</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>35.4733610000003</v>
+        <v>37.84956700000021</v>
       </c>
       <c r="J6" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4938</v>
+        <v>1.4952</v>
       </c>
       <c r="F7" t="n">
-        <v>5368.86658</v>
+        <v>5373.89832</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>48.87975999999981</v>
+        <v>53.91150000000016</v>
       </c>
       <c r="J7" t="n">
-        <v>0.92</v>
+        <v>1.01</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8607</v>
+        <v>1.8507</v>
       </c>
       <c r="F8" t="n">
-        <v>24003.03</v>
+        <v>23874.03</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4704.629999999997</v>
+        <v>4575.629999999997</v>
       </c>
       <c r="J8" t="n">
-        <v>24.38</v>
+        <v>23.71</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9567</v>
+        <v>2.9298</v>
       </c>
       <c r="F9" t="n">
-        <v>895.3183270000001</v>
+        <v>887.1727380000001</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>146.3783540000001</v>
+        <v>138.2327650000001</v>
       </c>
       <c r="J9" t="n">
-        <v>19.54</v>
+        <v>18.46</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1262</v>
+        <v>2.1271</v>
       </c>
       <c r="F10" t="n">
-        <v>2212.162266</v>
+        <v>2213.098653</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>212.1436769999998</v>
+        <v>213.080064</v>
       </c>
       <c r="J10" t="n">
-        <v>10.61</v>
+        <v>10.65</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5903</v>
+        <v>1.5901</v>
       </c>
       <c r="F11" t="n">
-        <v>6579.436868999999</v>
+        <v>6578.609423</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>600.3120729999991</v>
+        <v>599.4846269999998</v>
       </c>
       <c r="J11" t="n">
-        <v>10.04</v>
+        <v>10.03</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5903</v>
+        <v>1.5901</v>
       </c>
       <c r="F12" t="n">
-        <v>9564.175520999999</v>
+        <v>9562.972707000001</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>464.286204</v>
+        <v>463.0833900000016</v>
       </c>
       <c r="J12" t="n">
-        <v>5.1</v>
+        <v>5.09</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.3072</v>
+        <v>2.2848</v>
       </c>
       <c r="F15" t="n">
-        <v>21456.96</v>
+        <v>21248.64</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2010.66</v>
+        <v>1802.340000000004</v>
       </c>
       <c r="J15" t="n">
-        <v>10.34</v>
+        <v>9.27</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.29</v>
+        <v>28.46</v>
       </c>
       <c r="F16" t="n">
-        <v>14145</v>
+        <v>14230</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>330</v>
+        <v>415</v>
       </c>
       <c r="J16" t="n">
-        <v>2.39</v>
+        <v>3</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>9.369999999999999</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>18740</v>
+        <v>18760</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="J17" t="n">
-        <v>5.52</v>
+        <v>5.63</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1235</v>
+        <v>1.1304</v>
       </c>
       <c r="F18" t="n">
-        <v>4413.321465</v>
+        <v>4440.425976</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>106.8467680000003</v>
+        <v>133.9512790000008</v>
       </c>
       <c r="J18" t="n">
-        <v>2.48</v>
+        <v>3.11</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6062</v>
+        <v>1.5996</v>
       </c>
       <c r="F19" t="n">
-        <v>13973.94</v>
+        <v>13916.52</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>515.0400000000009</v>
+        <v>457.619999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>3.83</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2941</v>
+        <v>1.2973</v>
       </c>
       <c r="F20" t="n">
-        <v>10256.855426</v>
+        <v>10282.218178</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>256.7978640000001</v>
+        <v>282.1606159999992</v>
       </c>
       <c r="J20" t="n">
-        <v>2.57</v>
+        <v>2.82</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.187</v>
+        <v>1.1884</v>
       </c>
       <c r="F21" t="n">
-        <v>13413.1</v>
+        <v>13428.92</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>779.7000000000007</v>
+        <v>795.5199999999986</v>
       </c>
       <c r="J21" t="n">
-        <v>6.17</v>
+        <v>6.3</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.6147</v>
+        <v>1.6203</v>
       </c>
       <c r="F22" t="n">
-        <v>862.072183</v>
+        <v>865.061967</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>132.93861</v>
+        <v>135.928394</v>
       </c>
       <c r="J22" t="n">
-        <v>18.23</v>
+        <v>18.64</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.6147</v>
+        <v>1.6203</v>
       </c>
       <c r="F23" t="n">
-        <v>20864.733578</v>
+        <v>20937.095322</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1664.320111999998</v>
+        <v>1736.681855999999</v>
       </c>
       <c r="J23" t="n">
-        <v>8.67</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4524</v>
+        <v>1.4578</v>
       </c>
       <c r="F24" t="n">
-        <v>950.334368</v>
+        <v>953.867696</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>150.362736</v>
+        <v>153.896064</v>
       </c>
       <c r="J24" t="n">
-        <v>18.8</v>
+        <v>19.24</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.8851</v>
+        <v>5.9076</v>
       </c>
       <c r="F26" t="n">
-        <v>2444.317434</v>
+        <v>2453.662584</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>344.3168599999999</v>
+        <v>353.66201</v>
       </c>
       <c r="J26" t="n">
-        <v>16.4</v>
+        <v>16.84</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8853</v>
+        <v>1.8924</v>
       </c>
       <c r="F28" t="n">
-        <v>7274.99564</v>
+        <v>7302.393120000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>975.1187600000003</v>
+        <v>1002.516240000001</v>
       </c>
       <c r="J28" t="n">
-        <v>15.48</v>
+        <v>15.91</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8853</v>
+        <v>1.8924</v>
       </c>
       <c r="F29" t="n">
-        <v>16419.624437</v>
+        <v>16481.460396</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1419.614270000002</v>
+        <v>1481.450229000002</v>
       </c>
       <c r="J29" t="n">
-        <v>9.460000000000001</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9542</v>
+        <v>1.9274</v>
       </c>
       <c r="F30" t="n">
-        <v>10275.359478</v>
+        <v>10134.442666</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1394.971277000001</v>
+        <v>1254.054465000001</v>
       </c>
       <c r="J30" t="n">
-        <v>15.71</v>
+        <v>14.12</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9542</v>
+        <v>1.9274</v>
       </c>
       <c r="F31" t="n">
-        <v>1317.658434</v>
+        <v>1299.587998</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>117.6601149999999</v>
+        <v>99.58967899999993</v>
       </c>
       <c r="J31" t="n">
-        <v>9.81</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.3054</v>
+        <v>2.3143</v>
       </c>
       <c r="F33" t="n">
-        <v>14062.94</v>
+        <v>14117.23</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1789.74</v>
+        <v>1844.029999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>14.58</v>
+        <v>15.02</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.842</v>
+        <v>1.85</v>
       </c>
       <c r="F34" t="n">
-        <v>35182.2</v>
+        <v>35335</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>4011.000000000004</v>
+        <v>4163.799999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>12.87</v>
+        <v>13.36</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>6.1935</v>
+        <v>6.1128</v>
       </c>
       <c r="F35" t="n">
-        <v>37695.99453</v>
+        <v>37204.823664</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>4496.008906000003</v>
+        <v>4004.838040000002</v>
       </c>
       <c r="J35" t="n">
-        <v>13.54</v>
+        <v>12.06</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>6.1935</v>
+        <v>6.1128</v>
       </c>
       <c r="F36" t="n">
-        <v>12801.09741</v>
+        <v>12634.301808</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>1501.160418000001</v>
+        <v>1334.364815999999</v>
       </c>
       <c r="J36" t="n">
-        <v>13.28</v>
+        <v>11.81</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>6.1935</v>
+        <v>6.1128</v>
       </c>
       <c r="F37" t="n">
-        <v>92902.5</v>
+        <v>91692</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>9607.5</v>
+        <v>8397</v>
       </c>
       <c r="J37" t="n">
-        <v>11.53</v>
+        <v>10.08</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.445</v>
+        <v>2.4689</v>
       </c>
       <c r="F38" t="n">
-        <v>17783.48745</v>
+        <v>17957.321949</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1983.458906999997</v>
+        <v>2157.293406000001</v>
       </c>
       <c r="J38" t="n">
-        <v>12.55</v>
+        <v>13.65</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.445</v>
+        <v>2.4689</v>
       </c>
       <c r="F39" t="n">
-        <v>25496.23995</v>
+        <v>25745.466999</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>2496.441653999998</v>
+        <v>2745.668702999999</v>
       </c>
       <c r="J39" t="n">
-        <v>10.85</v>
+        <v>11.94</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.958</v>
+        <v>1.9793</v>
       </c>
       <c r="F40" t="n">
-        <v>13118.6</v>
+        <v>13261.31</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2666.6</v>
+        <v>2809.309999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>25.51</v>
+        <v>26.88</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.83</v>
+        <v>7.87</v>
       </c>
       <c r="F41" t="n">
-        <v>7830</v>
+        <v>7870</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>721</v>
+        <v>761</v>
       </c>
       <c r="J41" t="n">
-        <v>10.14</v>
+        <v>10.7</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>8.1</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>8910</v>
+        <v>8855</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2325.4</v>
+        <v>2270.4</v>
       </c>
       <c r="J42" t="n">
-        <v>35.32</v>
+        <v>34.48</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>40.8</v>
+        <v>41.26</v>
       </c>
       <c r="F43" t="n">
-        <v>61199.99999999999</v>
+        <v>61890</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-3255.000000000007</v>
+        <v>-2565</v>
       </c>
       <c r="J43" t="n">
-        <v>-5.05</v>
+        <v>-3.98</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.873</v>
+        <v>2.9171</v>
       </c>
       <c r="F2" t="n">
-        <v>2125.12937</v>
+        <v>2157.749699</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>254.8971740000002</v>
+        <v>287.517503</v>
       </c>
       <c r="J2" t="n">
-        <v>13.63</v>
+        <v>15.37</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2413</v>
+        <v>1.2259</v>
       </c>
       <c r="F4" t="n">
-        <v>7075.410000000001</v>
+        <v>6987.63</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1654.710000000001</v>
+        <v>1566.93</v>
       </c>
       <c r="J4" t="n">
-        <v>30.53</v>
+        <v>28.91</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4952</v>
+        <v>1.4876</v>
       </c>
       <c r="F6" t="n">
-        <v>2537.788008</v>
+        <v>2524.888604</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>37.84956700000021</v>
+        <v>24.95016300000043</v>
       </c>
       <c r="J6" t="n">
-        <v>1.51</v>
+        <v>1</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4952</v>
+        <v>1.4876</v>
       </c>
       <c r="F7" t="n">
-        <v>5373.89832</v>
+        <v>5346.58316</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>53.91150000000016</v>
+        <v>26.59634000000005</v>
       </c>
       <c r="J7" t="n">
-        <v>1.01</v>
+        <v>0.5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8507</v>
+        <v>1.8817</v>
       </c>
       <c r="F8" t="n">
-        <v>23874.03</v>
+        <v>24273.93</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4575.629999999997</v>
+        <v>4975.529999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>23.71</v>
+        <v>25.78</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1271</v>
+        <v>2.1076</v>
       </c>
       <c r="F10" t="n">
-        <v>2213.098653</v>
+        <v>2192.810268</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>213.080064</v>
+        <v>192.7916790000002</v>
       </c>
       <c r="J10" t="n">
-        <v>10.65</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5901</v>
+        <v>1.5766</v>
       </c>
       <c r="F11" t="n">
-        <v>6578.609423</v>
+        <v>6522.756817999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>599.4846269999998</v>
+        <v>543.6320219999989</v>
       </c>
       <c r="J11" t="n">
-        <v>10.03</v>
+        <v>9.09</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5901</v>
+        <v>1.5766</v>
       </c>
       <c r="F12" t="n">
-        <v>9562.972707000001</v>
+        <v>9481.782761999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>463.0833900000016</v>
+        <v>381.8934449999997</v>
       </c>
       <c r="J12" t="n">
-        <v>5.09</v>
+        <v>4.2</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1304</v>
+        <v>1.1252</v>
       </c>
       <c r="F18" t="n">
-        <v>4440.425976</v>
+        <v>4419.999388</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>133.9512790000008</v>
+        <v>113.5246910000005</v>
       </c>
       <c r="J18" t="n">
-        <v>3.11</v>
+        <v>2.64</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5996</v>
+        <v>1.5988</v>
       </c>
       <c r="F19" t="n">
-        <v>13916.52</v>
+        <v>13909.56</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>457.619999999999</v>
+        <v>450.6599999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2973</v>
+        <v>1.2812</v>
       </c>
       <c r="F20" t="n">
-        <v>10282.218178</v>
+        <v>10154.611832</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>282.1606159999992</v>
+        <v>154.5542699999987</v>
       </c>
       <c r="J20" t="n">
-        <v>2.82</v>
+        <v>1.55</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1884</v>
+        <v>1.1878</v>
       </c>
       <c r="F21" t="n">
-        <v>13428.92</v>
+        <v>13422.14</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>795.5199999999986</v>
+        <v>788.7399999999998</v>
       </c>
       <c r="J21" t="n">
-        <v>6.3</v>
+        <v>6.24</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.6203</v>
+        <v>1.5996</v>
       </c>
       <c r="F22" t="n">
-        <v>865.061967</v>
+        <v>854.0104439999999</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>135.928394</v>
+        <v>124.8768709999999</v>
       </c>
       <c r="J22" t="n">
-        <v>18.64</v>
+        <v>17.13</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.6203</v>
+        <v>1.5996</v>
       </c>
       <c r="F23" t="n">
-        <v>20937.095322</v>
+        <v>20669.615304</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1736.681855999999</v>
+        <v>1469.201837999997</v>
       </c>
       <c r="J23" t="n">
-        <v>9.050000000000001</v>
+        <v>7.65</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4578</v>
+        <v>1.4381</v>
       </c>
       <c r="F24" t="n">
-        <v>953.867696</v>
+        <v>940.9775920000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>153.896064</v>
+        <v>141.0059600000001</v>
       </c>
       <c r="J24" t="n">
-        <v>19.24</v>
+        <v>17.63</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.9076</v>
+        <v>5.8235</v>
       </c>
       <c r="F26" t="n">
-        <v>2453.662584</v>
+        <v>2418.73249</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>353.66201</v>
+        <v>318.7319159999997</v>
       </c>
       <c r="J26" t="n">
-        <v>16.84</v>
+        <v>15.18</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8924</v>
+        <v>1.8664</v>
       </c>
       <c r="F28" t="n">
-        <v>7302.393120000001</v>
+        <v>7202.06432</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>1002.516240000001</v>
+        <v>902.1874400000006</v>
       </c>
       <c r="J28" t="n">
-        <v>15.91</v>
+        <v>14.32</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8924</v>
+        <v>1.8664</v>
       </c>
       <c r="F29" t="n">
-        <v>16481.460396</v>
+        <v>16255.018856</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1481.450229000002</v>
+        <v>1255.008689000002</v>
       </c>
       <c r="J29" t="n">
-        <v>9.880000000000001</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.3143</v>
+        <v>2.2832</v>
       </c>
       <c r="F33" t="n">
-        <v>14117.23</v>
+        <v>13927.52</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1844.029999999999</v>
+        <v>1654.319999999998</v>
       </c>
       <c r="J33" t="n">
-        <v>15.02</v>
+        <v>13.48</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.85</v>
+        <v>1.823</v>
       </c>
       <c r="F34" t="n">
-        <v>35335</v>
+        <v>34819.3</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>4163.799999999999</v>
+        <v>3648.099999999995</v>
       </c>
       <c r="J34" t="n">
-        <v>13.36</v>
+        <v>11.7</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.4689</v>
+        <v>2.4297</v>
       </c>
       <c r="F38" t="n">
-        <v>17957.321949</v>
+        <v>17672.204277</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>2157.293406000001</v>
+        <v>1872.175734</v>
       </c>
       <c r="J38" t="n">
-        <v>13.65</v>
+        <v>11.85</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.4689</v>
+        <v>2.4297</v>
       </c>
       <c r="F39" t="n">
-        <v>25745.466999</v>
+        <v>25336.692927</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>2745.668702999999</v>
+        <v>2336.894630999999</v>
       </c>
       <c r="J39" t="n">
-        <v>11.94</v>
+        <v>10.16</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9793</v>
+        <v>1.9463</v>
       </c>
       <c r="F40" t="n">
-        <v>13261.31</v>
+        <v>13040.21</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2809.309999999999</v>
+        <v>2588.209999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>26.88</v>
+        <v>24.76</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.326</v>
+        <v>3.3082</v>
       </c>
       <c r="F3" t="n">
-        <v>1078.68832</v>
+        <v>1072.915424</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>78.74489599999993</v>
+        <v>72.97199999999975</v>
       </c>
       <c r="J3" t="n">
-        <v>7.87</v>
+        <v>7.3</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9298</v>
+        <v>2.9377</v>
       </c>
       <c r="F9" t="n">
-        <v>887.1727380000001</v>
+        <v>889.564937</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>138.2327650000001</v>
+        <v>140.624964</v>
       </c>
       <c r="J9" t="n">
-        <v>18.46</v>
+        <v>18.78</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2848</v>
+        <v>2.2913</v>
       </c>
       <c r="F15" t="n">
-        <v>21248.64</v>
+        <v>21309.09</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1802.340000000004</v>
+        <v>1862.790000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>9.27</v>
+        <v>9.58</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.46</v>
+        <v>28.11</v>
       </c>
       <c r="F16" t="n">
-        <v>14230</v>
+        <v>14055</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>415</v>
+        <v>240</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>1.74</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>9.380000000000001</v>
+        <v>9.08</v>
       </c>
       <c r="F17" t="n">
-        <v>18760</v>
+        <v>18160</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="J17" t="n">
-        <v>5.63</v>
+        <v>2.25</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9274</v>
+        <v>1.9367</v>
       </c>
       <c r="F30" t="n">
-        <v>10134.442666</v>
+        <v>10183.342903</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1254.054465000001</v>
+        <v>1302.954702000001</v>
       </c>
       <c r="J30" t="n">
-        <v>14.12</v>
+        <v>14.67</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9274</v>
+        <v>1.9367</v>
       </c>
       <c r="F31" t="n">
-        <v>1299.587998</v>
+        <v>1305.858709</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>99.58967899999993</v>
+        <v>105.8603900000001</v>
       </c>
       <c r="J31" t="n">
-        <v>8.300000000000001</v>
+        <v>8.82</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>6.1128</v>
+        <v>6.0981</v>
       </c>
       <c r="F35" t="n">
-        <v>37204.823664</v>
+        <v>37115.353878</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>4004.838040000002</v>
+        <v>3915.368254000001</v>
       </c>
       <c r="J35" t="n">
-        <v>12.06</v>
+        <v>11.79</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>6.1128</v>
+        <v>6.0981</v>
       </c>
       <c r="F36" t="n">
-        <v>12634.301808</v>
+        <v>12603.918966</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>1334.364815999999</v>
+        <v>1303.981973999998</v>
       </c>
       <c r="J36" t="n">
-        <v>11.81</v>
+        <v>11.54</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>6.1128</v>
+        <v>6.0981</v>
       </c>
       <c r="F37" t="n">
-        <v>91692</v>
+        <v>91471.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>8397</v>
+        <v>8176.5</v>
       </c>
       <c r="J37" t="n">
-        <v>10.08</v>
+        <v>9.82</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.87</v>
+        <v>7.79</v>
       </c>
       <c r="F41" t="n">
-        <v>7870</v>
+        <v>7790</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>761</v>
+        <v>681</v>
       </c>
       <c r="J41" t="n">
-        <v>10.7</v>
+        <v>9.58</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>8.050000000000001</v>
+        <v>7.94</v>
       </c>
       <c r="F42" t="n">
-        <v>8855</v>
+        <v>8734</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2270.4</v>
+        <v>2149.4</v>
       </c>
       <c r="J42" t="n">
-        <v>34.48</v>
+        <v>32.64</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.26</v>
+        <v>41.14</v>
       </c>
       <c r="F43" t="n">
-        <v>61890</v>
+        <v>61710</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-2565</v>
+        <v>-2745</v>
       </c>
       <c r="J43" t="n">
-        <v>-3.98</v>
+        <v>-4.26</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9171</v>
+        <v>2.9124</v>
       </c>
       <c r="F2" t="n">
-        <v>2157.749699</v>
+        <v>2154.273156</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>287.517503</v>
+        <v>284.0409600000003</v>
       </c>
       <c r="J2" t="n">
-        <v>15.37</v>
+        <v>15.19</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.3082</v>
+        <v>3.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.915424</v>
+        <v>1070.256</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>72.97199999999975</v>
+        <v>70.31257599999981</v>
       </c>
       <c r="J3" t="n">
-        <v>7.3</v>
+        <v>7.03</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2259</v>
+        <v>1.2282</v>
       </c>
       <c r="F4" t="n">
-        <v>6987.63</v>
+        <v>7000.74</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1566.93</v>
+        <v>1580.04</v>
       </c>
       <c r="J4" t="n">
-        <v>28.91</v>
+        <v>29.15</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9991</v>
+        <v>1.989</v>
       </c>
       <c r="F5" t="n">
-        <v>2370.792663</v>
+        <v>2358.81477</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-29.1738779999996</v>
+        <v>-41.15177099999937</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.22</v>
+        <v>-1.71</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4876</v>
+        <v>1.4772</v>
       </c>
       <c r="F6" t="n">
-        <v>2524.888604</v>
+        <v>2507.236788</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>24.95016300000043</v>
+        <v>7.298347000000376</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4876</v>
+        <v>1.4772</v>
       </c>
       <c r="F7" t="n">
-        <v>5346.58316</v>
+        <v>5309.20452</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>26.59634000000005</v>
+        <v>-10.78229999999985</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8817</v>
+        <v>1.8809</v>
       </c>
       <c r="F8" t="n">
-        <v>24273.93</v>
+        <v>24263.61</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4975.529999999999</v>
+        <v>4965.209999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>25.78</v>
+        <v>25.73</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9377</v>
+        <v>2.9418</v>
       </c>
       <c r="F9" t="n">
-        <v>889.564937</v>
+        <v>890.806458</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>140.624964</v>
+        <v>141.866485</v>
       </c>
       <c r="J9" t="n">
-        <v>18.78</v>
+        <v>18.94</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1076</v>
+        <v>2.1124</v>
       </c>
       <c r="F10" t="n">
-        <v>2192.810268</v>
+        <v>2197.804332</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>192.7916790000002</v>
+        <v>197.7857430000001</v>
       </c>
       <c r="J10" t="n">
-        <v>9.640000000000001</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5766</v>
+        <v>1.5804</v>
       </c>
       <c r="F11" t="n">
-        <v>6522.756817999999</v>
+        <v>6538.478292</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>543.6320219999989</v>
+        <v>559.3534959999997</v>
       </c>
       <c r="J11" t="n">
-        <v>9.09</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5766</v>
+        <v>1.5804</v>
       </c>
       <c r="F12" t="n">
-        <v>9481.782761999999</v>
+        <v>9504.636227999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>381.8934449999997</v>
+        <v>404.7469110000002</v>
       </c>
       <c r="J12" t="n">
-        <v>4.2</v>
+        <v>4.45</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2913</v>
+        <v>2.295</v>
       </c>
       <c r="F15" t="n">
-        <v>21309.09</v>
+        <v>21343.5</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1862.790000000001</v>
+        <v>1897.200000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>9.58</v>
+        <v>9.76</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.11</v>
+        <v>28.31</v>
       </c>
       <c r="F16" t="n">
-        <v>14055</v>
+        <v>14155</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="J16" t="n">
-        <v>1.74</v>
+        <v>2.46</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>9.08</v>
+        <v>9.1</v>
       </c>
       <c r="F17" t="n">
-        <v>18160</v>
+        <v>18200</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="J17" t="n">
-        <v>2.25</v>
+        <v>2.48</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1252</v>
+        <v>1.1361</v>
       </c>
       <c r="F18" t="n">
-        <v>4419.999388</v>
+        <v>4462.816659</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>113.5246910000005</v>
+        <v>156.3419620000004</v>
       </c>
       <c r="J18" t="n">
-        <v>2.64</v>
+        <v>3.63</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5988</v>
+        <v>1.6132</v>
       </c>
       <c r="F19" t="n">
-        <v>13909.56</v>
+        <v>14034.84</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>450.6599999999999</v>
+        <v>575.9400000000005</v>
       </c>
       <c r="J19" t="n">
-        <v>3.35</v>
+        <v>4.28</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2812</v>
+        <v>1.3004</v>
       </c>
       <c r="F20" t="n">
-        <v>10154.611832</v>
+        <v>10306.788344</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>154.5542699999987</v>
+        <v>306.7307819999987</v>
       </c>
       <c r="J20" t="n">
-        <v>1.55</v>
+        <v>3.07</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1878</v>
+        <v>1.2036</v>
       </c>
       <c r="F21" t="n">
-        <v>13422.14</v>
+        <v>13600.68</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>788.7399999999998</v>
+        <v>967.2800000000007</v>
       </c>
       <c r="J21" t="n">
-        <v>6.24</v>
+        <v>7.66</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5996</v>
+        <v>1.6067</v>
       </c>
       <c r="F22" t="n">
-        <v>854.0104439999999</v>
+        <v>857.801063</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>124.8768709999999</v>
+        <v>128.66749</v>
       </c>
       <c r="J22" t="n">
-        <v>17.13</v>
+        <v>17.65</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5996</v>
+        <v>1.6067</v>
       </c>
       <c r="F23" t="n">
-        <v>20669.615304</v>
+        <v>20761.359658</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1469.201837999997</v>
+        <v>1560.946191999999</v>
       </c>
       <c r="J23" t="n">
-        <v>7.65</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4381</v>
+        <v>1.4454</v>
       </c>
       <c r="F24" t="n">
-        <v>940.9775920000001</v>
+        <v>945.754128</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>141.0059600000001</v>
+        <v>145.782496</v>
       </c>
       <c r="J24" t="n">
-        <v>17.63</v>
+        <v>18.22</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.8235</v>
+        <v>5.8521</v>
       </c>
       <c r="F26" t="n">
-        <v>2418.73249</v>
+        <v>2430.611214</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>318.7319159999997</v>
+        <v>330.6106399999999</v>
       </c>
       <c r="J26" t="n">
-        <v>15.18</v>
+        <v>15.74</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8664</v>
+        <v>1.8753</v>
       </c>
       <c r="F28" t="n">
-        <v>7202.06432</v>
+        <v>7236.40764</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>902.1874400000006</v>
+        <v>936.5307600000006</v>
       </c>
       <c r="J28" t="n">
-        <v>14.32</v>
+        <v>14.87</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8664</v>
+        <v>1.8753</v>
       </c>
       <c r="F29" t="n">
-        <v>16255.018856</v>
+        <v>16332.531537</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1255.008689000002</v>
+        <v>1332.52137</v>
       </c>
       <c r="J29" t="n">
-        <v>8.369999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9367</v>
+        <v>1.9443</v>
       </c>
       <c r="F30" t="n">
-        <v>10183.342903</v>
+        <v>10223.304387</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1302.954702000001</v>
+        <v>1342.916186</v>
       </c>
       <c r="J30" t="n">
-        <v>14.67</v>
+        <v>15.12</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9367</v>
+        <v>1.9443</v>
       </c>
       <c r="F31" t="n">
-        <v>1305.858709</v>
+        <v>1310.983161</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>105.8603900000001</v>
+        <v>110.9848419999998</v>
       </c>
       <c r="J31" t="n">
-        <v>8.82</v>
+        <v>9.25</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2832</v>
+        <v>2.2962</v>
       </c>
       <c r="F33" t="n">
-        <v>13927.52</v>
+        <v>14006.82</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1654.319999999998</v>
+        <v>1733.619999999997</v>
       </c>
       <c r="J33" t="n">
-        <v>13.48</v>
+        <v>14.13</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.823</v>
+        <v>1.832</v>
       </c>
       <c r="F34" t="n">
-        <v>34819.3</v>
+        <v>34991.2</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3648.099999999995</v>
+        <v>3820.000000000004</v>
       </c>
       <c r="J34" t="n">
-        <v>11.7</v>
+        <v>12.25</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>6.0981</v>
+        <v>6.119</v>
       </c>
       <c r="F35" t="n">
-        <v>37115.353878</v>
+        <v>37242.55922</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>3915.368254000001</v>
+        <v>4042.573596000002</v>
       </c>
       <c r="J35" t="n">
-        <v>11.79</v>
+        <v>12.18</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>6.0981</v>
+        <v>6.119</v>
       </c>
       <c r="F36" t="n">
-        <v>12603.918966</v>
+        <v>12647.11634</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>1303.981973999998</v>
+        <v>1347.179348</v>
       </c>
       <c r="J36" t="n">
-        <v>11.54</v>
+        <v>11.92</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>6.0981</v>
+        <v>6.119</v>
       </c>
       <c r="F37" t="n">
-        <v>91471.5</v>
+        <v>91785</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>8176.5</v>
+        <v>8490</v>
       </c>
       <c r="J37" t="n">
-        <v>9.82</v>
+        <v>10.19</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.4297</v>
+        <v>2.4233</v>
       </c>
       <c r="F38" t="n">
-        <v>17672.204277</v>
+        <v>17625.654453</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1872.175734</v>
+        <v>1825.625909999999</v>
       </c>
       <c r="J38" t="n">
-        <v>11.85</v>
+        <v>11.55</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.4297</v>
+        <v>2.4233</v>
       </c>
       <c r="F39" t="n">
-        <v>25336.692927</v>
+        <v>25269.954303</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>2336.894630999999</v>
+        <v>2270.156006999998</v>
       </c>
       <c r="J39" t="n">
-        <v>10.16</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9463</v>
+        <v>1.9415</v>
       </c>
       <c r="F40" t="n">
-        <v>13040.21</v>
+        <v>13008.05</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2588.209999999999</v>
+        <v>2556.049999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>24.76</v>
+        <v>24.46</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.79</v>
+        <v>7.89</v>
       </c>
       <c r="F41" t="n">
-        <v>7790</v>
+        <v>7890</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>681</v>
+        <v>781</v>
       </c>
       <c r="J41" t="n">
-        <v>9.58</v>
+        <v>10.99</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.94</v>
+        <v>8.01</v>
       </c>
       <c r="F42" t="n">
-        <v>8734</v>
+        <v>8811</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2149.4</v>
+        <v>2226.4</v>
       </c>
       <c r="J42" t="n">
-        <v>32.64</v>
+        <v>33.81</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.14</v>
+        <v>41.84</v>
       </c>
       <c r="F43" t="n">
-        <v>61710</v>
+        <v>62760.00000000001</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-2745</v>
+        <v>-1694.999999999993</v>
       </c>
       <c r="J43" t="n">
-        <v>-4.26</v>
+        <v>-2.63</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9124</v>
+        <v>2.9019</v>
       </c>
       <c r="F2" t="n">
-        <v>2154.273156</v>
+        <v>2146.506411</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>284.0409600000003</v>
+        <v>276.2742150000004</v>
       </c>
       <c r="J2" t="n">
-        <v>15.19</v>
+        <v>14.77</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.3</v>
+        <v>3.1988</v>
       </c>
       <c r="F3" t="n">
-        <v>1070.256</v>
+        <v>1037.434816</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>70.31257599999981</v>
+        <v>37.49139199999991</v>
       </c>
       <c r="J3" t="n">
-        <v>7.03</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2282</v>
+        <v>1.2153</v>
       </c>
       <c r="F4" t="n">
-        <v>7000.74</v>
+        <v>6927.21</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1580.04</v>
+        <v>1506.51</v>
       </c>
       <c r="J4" t="n">
-        <v>29.15</v>
+        <v>27.79</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4772</v>
+        <v>1.4844</v>
       </c>
       <c r="F6" t="n">
-        <v>2507.236788</v>
+        <v>2519.457276</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>7.298347000000376</v>
+        <v>19.51883499999985</v>
       </c>
       <c r="J6" t="n">
-        <v>0.29</v>
+        <v>0.78</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4772</v>
+        <v>1.4844</v>
       </c>
       <c r="F7" t="n">
-        <v>5309.20452</v>
+        <v>5335.082039999999</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-10.78229999999985</v>
+        <v>15.09521999999924</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2</v>
+        <v>0.28</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8809</v>
+        <v>1.8586</v>
       </c>
       <c r="F8" t="n">
-        <v>24263.61</v>
+        <v>23975.94</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4965.209999999999</v>
+        <v>4677.539999999997</v>
       </c>
       <c r="J8" t="n">
-        <v>25.73</v>
+        <v>24.24</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9418</v>
+        <v>2.91</v>
       </c>
       <c r="F9" t="n">
-        <v>890.806458</v>
+        <v>881.1771</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>141.866485</v>
+        <v>132.237127</v>
       </c>
       <c r="J9" t="n">
-        <v>18.94</v>
+        <v>17.66</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1124</v>
+        <v>2.1155</v>
       </c>
       <c r="F10" t="n">
-        <v>2197.804332</v>
+        <v>2201.029665</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>197.7857430000001</v>
+        <v>201.011076</v>
       </c>
       <c r="J10" t="n">
-        <v>9.890000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5804</v>
+        <v>1.5826</v>
       </c>
       <c r="F11" t="n">
-        <v>6538.478292</v>
+        <v>6547.580198</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>559.3534959999997</v>
+        <v>568.4554019999996</v>
       </c>
       <c r="J11" t="n">
-        <v>9.359999999999999</v>
+        <v>9.51</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5804</v>
+        <v>1.5826</v>
       </c>
       <c r="F12" t="n">
-        <v>9504.636227999999</v>
+        <v>9517.867182</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>404.7469110000002</v>
+        <v>417.9778650000007</v>
       </c>
       <c r="J12" t="n">
-        <v>4.45</v>
+        <v>4.59</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.295</v>
+        <v>2.2686</v>
       </c>
       <c r="F15" t="n">
-        <v>21343.5</v>
+        <v>21097.98</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1897.200000000001</v>
+        <v>1651.680000000004</v>
       </c>
       <c r="J15" t="n">
-        <v>9.76</v>
+        <v>8.49</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.31</v>
+        <v>28.63</v>
       </c>
       <c r="F16" t="n">
-        <v>14155</v>
+        <v>14315</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="J16" t="n">
-        <v>2.46</v>
+        <v>3.62</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>9.1</v>
+        <v>9.01</v>
       </c>
       <c r="F17" t="n">
-        <v>18200</v>
+        <v>18020</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>440</v>
+        <v>260</v>
       </c>
       <c r="J17" t="n">
-        <v>2.48</v>
+        <v>1.46</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1361</v>
+        <v>1.139</v>
       </c>
       <c r="F18" t="n">
-        <v>4462.816659</v>
+        <v>4474.20841</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>156.3419620000004</v>
+        <v>167.7337130000005</v>
       </c>
       <c r="J18" t="n">
-        <v>3.63</v>
+        <v>3.89</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6132</v>
+        <v>1.6191</v>
       </c>
       <c r="F19" t="n">
-        <v>14034.84</v>
+        <v>14086.17</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>575.9400000000005</v>
+        <v>627.2700000000004</v>
       </c>
       <c r="J19" t="n">
-        <v>4.28</v>
+        <v>4.66</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3004</v>
+        <v>1.3046</v>
       </c>
       <c r="F20" t="n">
-        <v>10306.788344</v>
+        <v>10340.076956</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>306.7307819999987</v>
+        <v>340.019393999999</v>
       </c>
       <c r="J20" t="n">
-        <v>3.07</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2036</v>
+        <v>1.2166</v>
       </c>
       <c r="F21" t="n">
-        <v>13600.68</v>
+        <v>13747.58</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>967.2800000000007</v>
+        <v>1114.179999999998</v>
       </c>
       <c r="J21" t="n">
-        <v>7.66</v>
+        <v>8.82</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.6067</v>
+        <v>1.6126</v>
       </c>
       <c r="F22" t="n">
-        <v>857.801063</v>
+        <v>860.951014</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>128.66749</v>
+        <v>131.817441</v>
       </c>
       <c r="J22" t="n">
-        <v>17.65</v>
+        <v>18.08</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.6067</v>
+        <v>1.6126</v>
       </c>
       <c r="F23" t="n">
-        <v>20761.359658</v>
+        <v>20837.597924</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1560.946191999999</v>
+        <v>1637.184458</v>
       </c>
       <c r="J23" t="n">
-        <v>8.130000000000001</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4454</v>
+        <v>1.4513</v>
       </c>
       <c r="F24" t="n">
-        <v>945.754128</v>
+        <v>949.6146160000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>145.782496</v>
+        <v>149.6429840000001</v>
       </c>
       <c r="J24" t="n">
-        <v>18.22</v>
+        <v>18.71</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.8521</v>
+        <v>5.8754</v>
       </c>
       <c r="F26" t="n">
-        <v>2430.611214</v>
+        <v>2440.288636</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>330.6106399999999</v>
+        <v>340.2880619999996</v>
       </c>
       <c r="J26" t="n">
-        <v>15.74</v>
+        <v>16.2</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8753</v>
+        <v>1.8828</v>
       </c>
       <c r="F28" t="n">
-        <v>7236.40764</v>
+        <v>7265.34864</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>936.5307600000006</v>
+        <v>965.4717600000004</v>
       </c>
       <c r="J28" t="n">
-        <v>14.87</v>
+        <v>15.33</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8753</v>
+        <v>1.8828</v>
       </c>
       <c r="F29" t="n">
-        <v>16332.531537</v>
+        <v>16397.851212</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1332.52137</v>
+        <v>1397.841045000001</v>
       </c>
       <c r="J29" t="n">
-        <v>8.880000000000001</v>
+        <v>9.32</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9443</v>
+        <v>1.9069</v>
       </c>
       <c r="F30" t="n">
-        <v>10223.304387</v>
+        <v>10026.651821</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1342.916186</v>
+        <v>1146.263620000002</v>
       </c>
       <c r="J30" t="n">
-        <v>15.12</v>
+        <v>12.91</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9443</v>
+        <v>1.9069</v>
       </c>
       <c r="F31" t="n">
-        <v>1310.983161</v>
+        <v>1285.765463</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>110.9848419999998</v>
+        <v>85.76714399999992</v>
       </c>
       <c r="J31" t="n">
-        <v>9.25</v>
+        <v>7.15</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2962</v>
+        <v>2.3073</v>
       </c>
       <c r="F33" t="n">
-        <v>14006.82</v>
+        <v>14074.53</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1733.619999999997</v>
+        <v>1801.33</v>
       </c>
       <c r="J33" t="n">
-        <v>14.13</v>
+        <v>14.68</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.832</v>
+        <v>1.84</v>
       </c>
       <c r="F34" t="n">
-        <v>34991.2</v>
+        <v>35144</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3820.000000000004</v>
+        <v>3972.799999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>12.25</v>
+        <v>12.75</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>6.119</v>
+        <v>5.9911</v>
       </c>
       <c r="F35" t="n">
-        <v>37242.55922</v>
+        <v>36464.11121800001</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>4042.573596000002</v>
+        <v>3264.125594000005</v>
       </c>
       <c r="J35" t="n">
-        <v>12.18</v>
+        <v>9.83</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>6.119</v>
+        <v>5.9911</v>
       </c>
       <c r="F36" t="n">
-        <v>12647.11634</v>
+        <v>12382.764946</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>1347.179348</v>
+        <v>1082.827954</v>
       </c>
       <c r="J36" t="n">
-        <v>11.92</v>
+        <v>9.58</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>6.119</v>
+        <v>5.9911</v>
       </c>
       <c r="F37" t="n">
-        <v>91785</v>
+        <v>89866.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>8490</v>
+        <v>6571.5</v>
       </c>
       <c r="J37" t="n">
-        <v>10.19</v>
+        <v>7.89</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.4233</v>
+        <v>2.4285</v>
       </c>
       <c r="F38" t="n">
-        <v>17625.654453</v>
+        <v>17663.476185</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1825.625909999999</v>
+        <v>1863.447641999999</v>
       </c>
       <c r="J38" t="n">
-        <v>11.55</v>
+        <v>11.79</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.4233</v>
+        <v>2.4285</v>
       </c>
       <c r="F39" t="n">
-        <v>25269.954303</v>
+        <v>25324.179435</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>2270.156006999998</v>
+        <v>2324.381139000001</v>
       </c>
       <c r="J39" t="n">
-        <v>9.869999999999999</v>
+        <v>10.11</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9415</v>
+        <v>1.946</v>
       </c>
       <c r="F40" t="n">
-        <v>13008.05</v>
+        <v>13038.2</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2556.049999999999</v>
+        <v>2586.199999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>24.46</v>
+        <v>24.74</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.89</v>
+        <v>8.17</v>
       </c>
       <c r="F41" t="n">
-        <v>7890</v>
+        <v>8170</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>781</v>
+        <v>1061</v>
       </c>
       <c r="J41" t="n">
-        <v>10.99</v>
+        <v>14.92</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>8.01</v>
+        <v>8.18</v>
       </c>
       <c r="F42" t="n">
-        <v>8811</v>
+        <v>8998</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2226.4</v>
+        <v>2413.4</v>
       </c>
       <c r="J42" t="n">
-        <v>33.81</v>
+        <v>36.65</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.84</v>
+        <v>43.1</v>
       </c>
       <c r="F43" t="n">
-        <v>62760.00000000001</v>
+        <v>64650</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-1694.999999999993</v>
+        <v>195</v>
       </c>
       <c r="J43" t="n">
-        <v>-2.63</v>
+        <v>0.3</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9019</v>
+        <v>2.8822</v>
       </c>
       <c r="F2" t="n">
-        <v>2146.506411</v>
+        <v>2131.934518</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>276.2742150000004</v>
+        <v>261.7023220000001</v>
       </c>
       <c r="J2" t="n">
-        <v>14.77</v>
+        <v>13.99</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.1988</v>
+        <v>3.2284</v>
       </c>
       <c r="F3" t="n">
-        <v>1037.434816</v>
+        <v>1047.034688</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>37.49139199999991</v>
+        <v>47.09126399999991</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>4.71</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2153</v>
+        <v>1.2181</v>
       </c>
       <c r="F4" t="n">
-        <v>6927.21</v>
+        <v>6943.17</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1506.51</v>
+        <v>1522.47</v>
       </c>
       <c r="J4" t="n">
-        <v>27.79</v>
+        <v>28.09</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.989</v>
+        <v>1.9733</v>
       </c>
       <c r="F5" t="n">
-        <v>2358.81477</v>
+        <v>2340.195669</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-41.15177099999937</v>
+        <v>-59.7708719999996</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.71</v>
+        <v>-2.49</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4844</v>
+        <v>1.4824</v>
       </c>
       <c r="F6" t="n">
-        <v>2519.457276</v>
+        <v>2516.062696</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>19.51883499999985</v>
+        <v>16.12425500000018</v>
       </c>
       <c r="J6" t="n">
-        <v>0.78</v>
+        <v>0.64</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4844</v>
+        <v>1.4824</v>
       </c>
       <c r="F7" t="n">
-        <v>5335.082039999999</v>
+        <v>5327.89384</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>15.09521999999924</v>
+        <v>7.907019999999648</v>
       </c>
       <c r="J7" t="n">
-        <v>0.28</v>
+        <v>0.15</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8586</v>
+        <v>1.8128</v>
       </c>
       <c r="F8" t="n">
-        <v>23975.94</v>
+        <v>23385.12</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4677.539999999997</v>
+        <v>4086.719999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>24.24</v>
+        <v>21.18</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.91</v>
+        <v>2.9204</v>
       </c>
       <c r="F9" t="n">
-        <v>881.1771</v>
+        <v>884.326324</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>132.237127</v>
+        <v>135.386351</v>
       </c>
       <c r="J9" t="n">
-        <v>17.66</v>
+        <v>18.08</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1155</v>
+        <v>2.0942</v>
       </c>
       <c r="F10" t="n">
-        <v>2201.029665</v>
+        <v>2178.868506</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>201.011076</v>
+        <v>178.8499169999998</v>
       </c>
       <c r="J10" t="n">
-        <v>10.05</v>
+        <v>8.94</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5826</v>
+        <v>1.5669</v>
       </c>
       <c r="F11" t="n">
-        <v>6547.580198</v>
+        <v>6482.625686999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>568.4554019999996</v>
+        <v>503.5008909999988</v>
       </c>
       <c r="J11" t="n">
-        <v>9.51</v>
+        <v>8.42</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5826</v>
+        <v>1.5669</v>
       </c>
       <c r="F12" t="n">
-        <v>9517.867182</v>
+        <v>9423.446282999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>417.9778650000007</v>
+        <v>323.5569660000001</v>
       </c>
       <c r="J12" t="n">
-        <v>4.59</v>
+        <v>3.56</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2686</v>
+        <v>2.2776</v>
       </c>
       <c r="F15" t="n">
-        <v>21097.98</v>
+        <v>21181.68</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1651.680000000004</v>
+        <v>1735.380000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>8.49</v>
+        <v>8.92</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.63</v>
+        <v>28.39</v>
       </c>
       <c r="F16" t="n">
-        <v>14315</v>
+        <v>14195</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="J16" t="n">
-        <v>3.62</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>9.01</v>
+        <v>9.1</v>
       </c>
       <c r="F17" t="n">
-        <v>18020</v>
+        <v>18200</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>260</v>
+        <v>440</v>
       </c>
       <c r="J17" t="n">
-        <v>1.46</v>
+        <v>2.48</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.139</v>
+        <v>1.1371</v>
       </c>
       <c r="F18" t="n">
-        <v>4474.20841</v>
+        <v>4466.744849</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>167.7337130000005</v>
+        <v>160.2701520000001</v>
       </c>
       <c r="J18" t="n">
-        <v>3.89</v>
+        <v>3.72</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6191</v>
+        <v>1.6258</v>
       </c>
       <c r="F19" t="n">
-        <v>14086.17</v>
+        <v>14144.46</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>627.2700000000004</v>
+        <v>685.5599999999995</v>
       </c>
       <c r="J19" t="n">
-        <v>4.66</v>
+        <v>5.09</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3046</v>
+        <v>1.3108</v>
       </c>
       <c r="F20" t="n">
-        <v>10340.076956</v>
+        <v>10389.217288</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>340.019393999999</v>
+        <v>389.1597259999999</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>3.89</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.6126</v>
+        <v>1.5839</v>
       </c>
       <c r="F22" t="n">
-        <v>860.951014</v>
+        <v>845.628371</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>131.817441</v>
+        <v>116.4947980000001</v>
       </c>
       <c r="J22" t="n">
-        <v>18.08</v>
+        <v>15.98</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.6126</v>
+        <v>1.5839</v>
       </c>
       <c r="F23" t="n">
-        <v>20837.597924</v>
+        <v>20466.743986</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1637.184458</v>
+        <v>1266.33052</v>
       </c>
       <c r="J23" t="n">
-        <v>8.529999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4513</v>
+        <v>1.4234</v>
       </c>
       <c r="F24" t="n">
-        <v>949.6146160000001</v>
+        <v>931.359088</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>149.6429840000001</v>
+        <v>131.387456</v>
       </c>
       <c r="J24" t="n">
-        <v>18.71</v>
+        <v>16.42</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.8754</v>
+        <v>5.7574</v>
       </c>
       <c r="F26" t="n">
-        <v>2440.288636</v>
+        <v>2391.278516</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>340.2880619999996</v>
+        <v>291.2779419999997</v>
       </c>
       <c r="J26" t="n">
-        <v>16.2</v>
+        <v>13.87</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8828</v>
+        <v>1.8463</v>
       </c>
       <c r="F28" t="n">
-        <v>7265.34864</v>
+        <v>7124.50244</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>965.4717600000004</v>
+        <v>824.6255600000004</v>
       </c>
       <c r="J28" t="n">
-        <v>15.33</v>
+        <v>13.09</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8828</v>
+        <v>1.8463</v>
       </c>
       <c r="F29" t="n">
-        <v>16397.851212</v>
+        <v>16079.962127</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1397.841045000001</v>
+        <v>1079.951960000002</v>
       </c>
       <c r="J29" t="n">
-        <v>9.32</v>
+        <v>7.2</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9069</v>
+        <v>1.9202</v>
       </c>
       <c r="F30" t="n">
-        <v>10026.651821</v>
+        <v>10096.584418</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1146.263620000002</v>
+        <v>1216.196217000001</v>
       </c>
       <c r="J30" t="n">
-        <v>12.91</v>
+        <v>13.7</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9069</v>
+        <v>1.9202</v>
       </c>
       <c r="F31" t="n">
-        <v>1285.765463</v>
+        <v>1294.733254</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>85.76714399999992</v>
+        <v>94.73493499999995</v>
       </c>
       <c r="J31" t="n">
-        <v>7.15</v>
+        <v>7.89</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.3073</v>
+        <v>2.2622</v>
       </c>
       <c r="F33" t="n">
-        <v>14074.53</v>
+        <v>13799.42</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1801.33</v>
+        <v>1526.219999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>14.68</v>
+        <v>12.44</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.84</v>
+        <v>1.802</v>
       </c>
       <c r="F34" t="n">
-        <v>35144</v>
+        <v>34418.2</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3972.799999999999</v>
+        <v>3247.000000000004</v>
       </c>
       <c r="J34" t="n">
-        <v>12.75</v>
+        <v>10.42</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.9911</v>
+        <v>5.9906</v>
       </c>
       <c r="F35" t="n">
-        <v>36464.11121800001</v>
+        <v>36461.068028</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>3264.125594000005</v>
+        <v>3261.082404000001</v>
       </c>
       <c r="J35" t="n">
-        <v>9.83</v>
+        <v>9.82</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.9911</v>
+        <v>5.9906</v>
       </c>
       <c r="F36" t="n">
-        <v>12382.764946</v>
+        <v>12381.731516</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>1082.827954</v>
+        <v>1081.794523999999</v>
       </c>
       <c r="J36" t="n">
-        <v>9.58</v>
+        <v>9.57</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.9911</v>
+        <v>5.9906</v>
       </c>
       <c r="F37" t="n">
-        <v>89866.5</v>
+        <v>89859</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>6571.5</v>
+        <v>6564</v>
       </c>
       <c r="J37" t="n">
-        <v>7.89</v>
+        <v>7.88</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.4285</v>
+        <v>2.374</v>
       </c>
       <c r="F38" t="n">
-        <v>17663.476185</v>
+        <v>17267.07534</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1863.447641999999</v>
+        <v>1467.046796999999</v>
       </c>
       <c r="J38" t="n">
-        <v>11.79</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.4285</v>
+        <v>2.374</v>
       </c>
       <c r="F39" t="n">
-        <v>25324.179435</v>
+        <v>24755.85834</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>2324.381139000001</v>
+        <v>1756.060044000002</v>
       </c>
       <c r="J39" t="n">
-        <v>10.11</v>
+        <v>7.64</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.946</v>
+        <v>1.8988</v>
       </c>
       <c r="F40" t="n">
-        <v>13038.2</v>
+        <v>12721.96</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2586.199999999999</v>
+        <v>2269.960000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>24.74</v>
+        <v>21.72</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>8.17</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>8170</v>
+        <v>8119.999999999999</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>1061</v>
+        <v>1010.999999999999</v>
       </c>
       <c r="J41" t="n">
-        <v>14.92</v>
+        <v>14.22</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>8.18</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>8998</v>
+        <v>8943</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2413.4</v>
+        <v>2358.4</v>
       </c>
       <c r="J42" t="n">
-        <v>36.65</v>
+        <v>35.82</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>43.1</v>
+        <v>42.65</v>
       </c>
       <c r="F43" t="n">
-        <v>64650</v>
+        <v>63975</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>195</v>
+        <v>-480</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3</v>
+        <v>-0.74</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.8822</v>
+        <v>2.9061</v>
       </c>
       <c r="F2" t="n">
-        <v>2131.934518</v>
+        <v>2149.613109</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>261.7023220000001</v>
+        <v>279.380913</v>
       </c>
       <c r="J2" t="n">
-        <v>13.99</v>
+        <v>14.94</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.2284</v>
+        <v>3.2826</v>
       </c>
       <c r="F3" t="n">
-        <v>1047.034688</v>
+        <v>1064.612832</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>47.09126399999991</v>
+        <v>64.66940799999998</v>
       </c>
       <c r="J3" t="n">
-        <v>4.71</v>
+        <v>6.47</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2181</v>
+        <v>1.2369</v>
       </c>
       <c r="F4" t="n">
-        <v>6943.17</v>
+        <v>7050.330000000001</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1522.47</v>
+        <v>1629.630000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>28.09</v>
+        <v>30.06</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9733</v>
+        <v>1.9539</v>
       </c>
       <c r="F5" t="n">
-        <v>2340.195669</v>
+        <v>2317.188627</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-59.7708719999996</v>
+        <v>-82.77791399999978</v>
       </c>
       <c r="J5" t="n">
-        <v>-2.49</v>
+        <v>-3.45</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8128</v>
+        <v>1.8281</v>
       </c>
       <c r="F8" t="n">
-        <v>23385.12</v>
+        <v>23582.49</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4086.719999999998</v>
+        <v>4284.09</v>
       </c>
       <c r="J8" t="n">
-        <v>21.18</v>
+        <v>22.2</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9204</v>
+        <v>2.8886</v>
       </c>
       <c r="F9" t="n">
-        <v>884.326324</v>
+        <v>874.696966</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>135.386351</v>
+        <v>125.756993</v>
       </c>
       <c r="J9" t="n">
-        <v>18.08</v>
+        <v>16.79</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0942</v>
+        <v>2.1002</v>
       </c>
       <c r="F10" t="n">
-        <v>2178.868506</v>
+        <v>2185.111086</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>178.8499169999998</v>
+        <v>185.0924970000003</v>
       </c>
       <c r="J10" t="n">
-        <v>8.94</v>
+        <v>9.25</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5669</v>
+        <v>1.5722</v>
       </c>
       <c r="F11" t="n">
-        <v>6482.625686999999</v>
+        <v>6504.553005999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>503.5008909999988</v>
+        <v>525.4282099999991</v>
       </c>
       <c r="J11" t="n">
-        <v>8.42</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5669</v>
+        <v>1.5722</v>
       </c>
       <c r="F12" t="n">
-        <v>9423.446282999999</v>
+        <v>9455.320854</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>323.5569660000001</v>
+        <v>355.4315370000004</v>
       </c>
       <c r="J12" t="n">
-        <v>3.56</v>
+        <v>3.91</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2776</v>
+        <v>2.2507</v>
       </c>
       <c r="F15" t="n">
-        <v>21181.68</v>
+        <v>20931.51</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1735.380000000001</v>
+        <v>1485.210000000003</v>
       </c>
       <c r="J15" t="n">
-        <v>8.92</v>
+        <v>7.64</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.39</v>
+        <v>28.51</v>
       </c>
       <c r="F16" t="n">
-        <v>14195</v>
+        <v>14255</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="J16" t="n">
-        <v>2.75</v>
+        <v>3.18</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>9.1</v>
+        <v>9.15</v>
       </c>
       <c r="F17" t="n">
-        <v>18200</v>
+        <v>18300</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>440</v>
+        <v>540</v>
       </c>
       <c r="J17" t="n">
-        <v>2.48</v>
+        <v>3.04</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1371</v>
+        <v>1.1449</v>
       </c>
       <c r="F18" t="n">
-        <v>4466.744849</v>
+        <v>4497.384731</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>160.2701520000001</v>
+        <v>190.9100340000005</v>
       </c>
       <c r="J18" t="n">
-        <v>3.72</v>
+        <v>4.43</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6258</v>
+        <v>1.6322</v>
       </c>
       <c r="F19" t="n">
-        <v>14144.46</v>
+        <v>14200.14</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>685.5599999999995</v>
+        <v>741.2400000000016</v>
       </c>
       <c r="J19" t="n">
-        <v>5.09</v>
+        <v>5.51</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3108</v>
+        <v>1.3237</v>
       </c>
       <c r="F20" t="n">
-        <v>10389.217288</v>
+        <v>10491.460882</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>389.1597259999999</v>
+        <v>491.4033200000013</v>
       </c>
       <c r="J20" t="n">
-        <v>3.89</v>
+        <v>4.91</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2166</v>
+        <v>1.2162</v>
       </c>
       <c r="F21" t="n">
-        <v>13747.58</v>
+        <v>13743.06</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1114.179999999998</v>
+        <v>1109.66</v>
       </c>
       <c r="J21" t="n">
-        <v>8.82</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5839</v>
+        <v>1.5941</v>
       </c>
       <c r="F22" t="n">
-        <v>845.628371</v>
+        <v>851.0740490000001</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>116.4947980000001</v>
+        <v>121.9404760000001</v>
       </c>
       <c r="J22" t="n">
-        <v>15.98</v>
+        <v>16.72</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5839</v>
+        <v>1.5941</v>
       </c>
       <c r="F23" t="n">
-        <v>20466.743986</v>
+        <v>20598.545734</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1266.33052</v>
+        <v>1398.132267999998</v>
       </c>
       <c r="J23" t="n">
-        <v>6.6</v>
+        <v>7.28</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4234</v>
+        <v>1.4334</v>
       </c>
       <c r="F24" t="n">
-        <v>931.359088</v>
+        <v>937.9022880000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>131.387456</v>
+        <v>137.9306560000001</v>
       </c>
       <c r="J24" t="n">
-        <v>16.42</v>
+        <v>17.24</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7574</v>
+        <v>5.7987</v>
       </c>
       <c r="F26" t="n">
-        <v>2391.278516</v>
+        <v>2408.432058</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>291.2779419999997</v>
+        <v>308.4314839999997</v>
       </c>
       <c r="J26" t="n">
-        <v>13.87</v>
+        <v>14.69</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8463</v>
+        <v>1.8592</v>
       </c>
       <c r="F28" t="n">
-        <v>7124.50244</v>
+        <v>7174.28096</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>824.6255600000004</v>
+        <v>874.4040800000002</v>
       </c>
       <c r="J28" t="n">
-        <v>13.09</v>
+        <v>13.88</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8463</v>
+        <v>1.8592</v>
       </c>
       <c r="F29" t="n">
-        <v>16079.962127</v>
+        <v>16192.311968</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1079.951960000002</v>
+        <v>1192.301801000001</v>
       </c>
       <c r="J29" t="n">
-        <v>7.2</v>
+        <v>7.95</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9202</v>
+        <v>1.8844</v>
       </c>
       <c r="F30" t="n">
-        <v>10096.584418</v>
+        <v>9908.344796000001</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1216.196217000001</v>
+        <v>1027.956595000001</v>
       </c>
       <c r="J30" t="n">
-        <v>13.7</v>
+        <v>11.58</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9202</v>
+        <v>1.8844</v>
       </c>
       <c r="F31" t="n">
-        <v>1294.733254</v>
+        <v>1270.594388</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>94.73493499999995</v>
+        <v>70.59606899999994</v>
       </c>
       <c r="J31" t="n">
-        <v>7.89</v>
+        <v>5.88</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2622</v>
+        <v>2.2792</v>
       </c>
       <c r="F33" t="n">
-        <v>13799.42</v>
+        <v>13903.12</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1526.219999999999</v>
+        <v>1629.919999999998</v>
       </c>
       <c r="J33" t="n">
-        <v>12.44</v>
+        <v>13.28</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.802</v>
+        <v>1.816</v>
       </c>
       <c r="F34" t="n">
-        <v>34418.2</v>
+        <v>34685.6</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3247.000000000004</v>
+        <v>3514.399999999998</v>
       </c>
       <c r="J34" t="n">
-        <v>10.42</v>
+        <v>11.27</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.9906</v>
+        <v>5.8774</v>
       </c>
       <c r="F35" t="n">
-        <v>36461.068028</v>
+        <v>35772.089812</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>3261.082404000001</v>
+        <v>2572.104187999998</v>
       </c>
       <c r="J35" t="n">
-        <v>9.82</v>
+        <v>7.75</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.9906</v>
+        <v>5.8774</v>
       </c>
       <c r="F36" t="n">
-        <v>12381.731516</v>
+        <v>12147.762964</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>1081.794523999999</v>
+        <v>847.8259719999987</v>
       </c>
       <c r="J36" t="n">
-        <v>9.57</v>
+        <v>7.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.9906</v>
+        <v>5.8774</v>
       </c>
       <c r="F37" t="n">
-        <v>89859</v>
+        <v>88161</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>6564</v>
+        <v>4866</v>
       </c>
       <c r="J37" t="n">
-        <v>7.88</v>
+        <v>5.84</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.374</v>
+        <v>2.3925</v>
       </c>
       <c r="F38" t="n">
-        <v>17267.07534</v>
+        <v>17401.633425</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1467.046796999999</v>
+        <v>1601.604882</v>
       </c>
       <c r="J38" t="n">
-        <v>9.289999999999999</v>
+        <v>10.14</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.374</v>
+        <v>2.3925</v>
       </c>
       <c r="F39" t="n">
-        <v>24755.85834</v>
+        <v>24948.774675</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1756.060044000002</v>
+        <v>1948.976379</v>
       </c>
       <c r="J39" t="n">
-        <v>7.64</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8988</v>
+        <v>1.9146</v>
       </c>
       <c r="F40" t="n">
-        <v>12721.96</v>
+        <v>12827.82</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2269.960000000001</v>
+        <v>2375.82</v>
       </c>
       <c r="J40" t="n">
-        <v>21.72</v>
+        <v>22.73</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>8.119999999999999</v>
+        <v>8.09</v>
       </c>
       <c r="F41" t="n">
-        <v>8119.999999999999</v>
+        <v>8090</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>1010.999999999999</v>
+        <v>981</v>
       </c>
       <c r="J41" t="n">
-        <v>14.22</v>
+        <v>13.8</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>8.130000000000001</v>
+        <v>8.18</v>
       </c>
       <c r="F42" t="n">
-        <v>8943</v>
+        <v>8998</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2358.4</v>
+        <v>2413.4</v>
       </c>
       <c r="J42" t="n">
-        <v>35.82</v>
+        <v>36.65</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>42.65</v>
+        <v>42.4</v>
       </c>
       <c r="F43" t="n">
-        <v>63975</v>
+        <v>63600</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-480</v>
+        <v>-855</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.74</v>
+        <v>-1.33</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9061</v>
+        <v>2.9067</v>
       </c>
       <c r="F2" t="n">
-        <v>2149.613109</v>
+        <v>2150.056923</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>279.380913</v>
+        <v>279.8247270000002</v>
       </c>
       <c r="J2" t="n">
-        <v>14.94</v>
+        <v>14.96</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2369</v>
+        <v>1.2344</v>
       </c>
       <c r="F4" t="n">
-        <v>7050.330000000001</v>
+        <v>7036.08</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1629.630000000001</v>
+        <v>1615.38</v>
       </c>
       <c r="J4" t="n">
-        <v>30.06</v>
+        <v>29.8</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4824</v>
+        <v>1.4741</v>
       </c>
       <c r="F6" t="n">
-        <v>2516.062696</v>
+        <v>2501.975189</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>16.12425500000018</v>
+        <v>2.036747999999989</v>
       </c>
       <c r="J6" t="n">
-        <v>0.64</v>
+        <v>0.08</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4824</v>
+        <v>1.4741</v>
       </c>
       <c r="F7" t="n">
-        <v>5327.89384</v>
+        <v>5298.062809999999</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>7.907019999999648</v>
+        <v>-21.92401000000064</v>
       </c>
       <c r="J7" t="n">
-        <v>0.15</v>
+        <v>-0.41</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8281</v>
+        <v>1.8166</v>
       </c>
       <c r="F8" t="n">
-        <v>23582.49</v>
+        <v>23434.14</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4284.09</v>
+        <v>4135.739999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>22.2</v>
+        <v>21.43</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1002</v>
+        <v>2.0781</v>
       </c>
       <c r="F10" t="n">
-        <v>2185.111086</v>
+        <v>2162.117583</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>185.0924970000003</v>
+        <v>162.0989940000002</v>
       </c>
       <c r="J10" t="n">
-        <v>9.25</v>
+        <v>8.1</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5722</v>
+        <v>1.5564</v>
       </c>
       <c r="F11" t="n">
-        <v>6504.553005999999</v>
+        <v>6439.184772</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>525.4282099999991</v>
+        <v>460.0599759999996</v>
       </c>
       <c r="J11" t="n">
-        <v>8.789999999999999</v>
+        <v>7.69</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5722</v>
+        <v>1.5564</v>
       </c>
       <c r="F12" t="n">
-        <v>9455.320854</v>
+        <v>9360.298547999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>355.4315370000004</v>
+        <v>260.4092309999996</v>
       </c>
       <c r="J12" t="n">
-        <v>3.91</v>
+        <v>2.86</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1449</v>
+        <v>1.1443</v>
       </c>
       <c r="F18" t="n">
-        <v>4497.384731</v>
+        <v>4495.027817</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>190.9100340000005</v>
+        <v>188.5531200000005</v>
       </c>
       <c r="J18" t="n">
-        <v>4.43</v>
+        <v>4.38</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6322</v>
+        <v>1.6342</v>
       </c>
       <c r="F19" t="n">
-        <v>14200.14</v>
+        <v>14217.54</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>741.2400000000016</v>
+        <v>758.6400000000012</v>
       </c>
       <c r="J19" t="n">
-        <v>5.51</v>
+        <v>5.64</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3237</v>
+        <v>1.3276</v>
       </c>
       <c r="F20" t="n">
-        <v>10491.460882</v>
+        <v>10522.371736</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>491.4033200000013</v>
+        <v>522.3141739999992</v>
       </c>
       <c r="J20" t="n">
-        <v>4.91</v>
+        <v>5.22</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2162</v>
+        <v>1.2165</v>
       </c>
       <c r="F21" t="n">
-        <v>13743.06</v>
+        <v>13746.45</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1109.66</v>
+        <v>1113.049999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>8.779999999999999</v>
+        <v>8.81</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5941</v>
+        <v>1.5669</v>
       </c>
       <c r="F22" t="n">
-        <v>851.0740490000001</v>
+        <v>836.552241</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>121.9404760000001</v>
+        <v>107.418668</v>
       </c>
       <c r="J22" t="n">
-        <v>16.72</v>
+        <v>14.73</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5941</v>
+        <v>1.5669</v>
       </c>
       <c r="F23" t="n">
-        <v>20598.545734</v>
+        <v>20247.074406</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1398.132267999998</v>
+        <v>1046.660939999998</v>
       </c>
       <c r="J23" t="n">
-        <v>7.28</v>
+        <v>5.45</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4334</v>
+        <v>1.407</v>
       </c>
       <c r="F24" t="n">
-        <v>937.9022880000001</v>
+        <v>920.6282400000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>137.9306560000001</v>
+        <v>120.6566080000001</v>
       </c>
       <c r="J24" t="n">
-        <v>17.24</v>
+        <v>15.08</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7987</v>
+        <v>5.6861</v>
       </c>
       <c r="F26" t="n">
-        <v>2408.432058</v>
+        <v>2361.664774</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>308.4314839999997</v>
+        <v>261.6641999999997</v>
       </c>
       <c r="J26" t="n">
-        <v>14.69</v>
+        <v>12.46</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8592</v>
+        <v>1.8246</v>
       </c>
       <c r="F28" t="n">
-        <v>7174.28096</v>
+        <v>7040.76648</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>874.4040800000002</v>
+        <v>740.8896000000004</v>
       </c>
       <c r="J28" t="n">
-        <v>13.88</v>
+        <v>11.76</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8592</v>
+        <v>1.8246</v>
       </c>
       <c r="F29" t="n">
-        <v>16192.311968</v>
+        <v>15890.970534</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1192.301801000001</v>
+        <v>890.9603670000015</v>
       </c>
       <c r="J29" t="n">
-        <v>7.95</v>
+        <v>5.94</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2792</v>
+        <v>2.2341</v>
       </c>
       <c r="F33" t="n">
-        <v>13903.12</v>
+        <v>13628.01</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1629.919999999998</v>
+        <v>1354.810000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>13.28</v>
+        <v>11.04</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.816</v>
+        <v>1.78</v>
       </c>
       <c r="F34" t="n">
-        <v>34685.6</v>
+        <v>33998</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3514.399999999998</v>
+        <v>2826.799999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>11.27</v>
+        <v>9.07</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3925</v>
+        <v>2.3505</v>
       </c>
       <c r="F38" t="n">
-        <v>17401.633425</v>
+        <v>17096.150205</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1601.604882</v>
+        <v>1296.121661999998</v>
       </c>
       <c r="J38" t="n">
-        <v>10.14</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3925</v>
+        <v>2.3505</v>
       </c>
       <c r="F39" t="n">
-        <v>24948.774675</v>
+        <v>24510.802455</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1948.976379</v>
+        <v>1511.004158999996</v>
       </c>
       <c r="J39" t="n">
-        <v>8.470000000000001</v>
+        <v>6.57</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9146</v>
+        <v>1.8788</v>
       </c>
       <c r="F40" t="n">
-        <v>12827.82</v>
+        <v>12587.96</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2375.82</v>
+        <v>2135.960000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>22.73</v>
+        <v>20.44</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.2826</v>
+        <v>3.2387</v>
       </c>
       <c r="F3" t="n">
-        <v>1064.612832</v>
+        <v>1050.375184</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>64.66940799999998</v>
+        <v>50.43175999999994</v>
       </c>
       <c r="J3" t="n">
-        <v>6.47</v>
+        <v>5.04</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9539</v>
+        <v>1.9465</v>
       </c>
       <c r="F5" t="n">
-        <v>2317.188627</v>
+        <v>2308.412745</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-82.77791399999978</v>
+        <v>-91.55379599999969</v>
       </c>
       <c r="J5" t="n">
-        <v>-3.45</v>
+        <v>-3.81</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8886</v>
+        <v>2.891</v>
       </c>
       <c r="F9" t="n">
-        <v>874.696966</v>
+        <v>875.42371</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>125.756993</v>
+        <v>126.483737</v>
       </c>
       <c r="J9" t="n">
-        <v>16.79</v>
+        <v>16.89</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2507</v>
+        <v>2.2528</v>
       </c>
       <c r="F15" t="n">
-        <v>20931.51</v>
+        <v>20951.04</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1485.210000000003</v>
+        <v>1504.740000000002</v>
       </c>
       <c r="J15" t="n">
-        <v>7.64</v>
+        <v>7.74</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.51</v>
+        <v>28.52</v>
       </c>
       <c r="F16" t="n">
-        <v>14255</v>
+        <v>14260</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="J16" t="n">
-        <v>3.18</v>
+        <v>3.22</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>9.15</v>
+        <v>9.09</v>
       </c>
       <c r="F17" t="n">
-        <v>18300</v>
+        <v>18180</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="J17" t="n">
-        <v>3.04</v>
+        <v>2.36</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8844</v>
+        <v>1.8787</v>
       </c>
       <c r="F30" t="n">
-        <v>9908.344796000001</v>
+        <v>9878.373683</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1027.956595000001</v>
+        <v>997.985482</v>
       </c>
       <c r="J30" t="n">
-        <v>11.58</v>
+        <v>11.24</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8844</v>
+        <v>1.8787</v>
       </c>
       <c r="F31" t="n">
-        <v>1270.594388</v>
+        <v>1266.751049</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>70.59606899999994</v>
+        <v>66.75272999999993</v>
       </c>
       <c r="J31" t="n">
-        <v>5.88</v>
+        <v>5.56</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8774</v>
+        <v>5.8575</v>
       </c>
       <c r="F35" t="n">
-        <v>35772.089812</v>
+        <v>35650.97085</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2572.104187999998</v>
+        <v>2450.985225999997</v>
       </c>
       <c r="J35" t="n">
-        <v>7.75</v>
+        <v>7.38</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.8774</v>
+        <v>5.8575</v>
       </c>
       <c r="F36" t="n">
-        <v>12147.762964</v>
+        <v>12106.63245</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>847.8259719999987</v>
+        <v>806.6954580000001</v>
       </c>
       <c r="J36" t="n">
-        <v>7.5</v>
+        <v>7.14</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.8774</v>
+        <v>5.8575</v>
       </c>
       <c r="F37" t="n">
-        <v>88161</v>
+        <v>87862.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>4866</v>
+        <v>4567.5</v>
       </c>
       <c r="J37" t="n">
-        <v>5.84</v>
+        <v>5.48</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>8.09</v>
+        <v>8.02</v>
       </c>
       <c r="F41" t="n">
-        <v>8090</v>
+        <v>8020</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>981</v>
+        <v>911</v>
       </c>
       <c r="J41" t="n">
-        <v>13.8</v>
+        <v>12.81</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>8.18</v>
+        <v>8.06</v>
       </c>
       <c r="F42" t="n">
-        <v>8998</v>
+        <v>8866</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2413.4</v>
+        <v>2281.4</v>
       </c>
       <c r="J42" t="n">
-        <v>36.65</v>
+        <v>34.65</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>42.4</v>
+        <v>42.45</v>
       </c>
       <c r="F43" t="n">
-        <v>63600</v>
+        <v>63675.00000000001</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-855</v>
+        <v>-779.9999999999927</v>
       </c>
       <c r="J43" t="n">
-        <v>-1.33</v>
+        <v>-1.21</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9067</v>
+        <v>2.9571</v>
       </c>
       <c r="F2" t="n">
-        <v>2150.056923</v>
+        <v>2187.337299</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>279.8247270000002</v>
+        <v>317.1051030000003</v>
       </c>
       <c r="J2" t="n">
-        <v>14.96</v>
+        <v>16.96</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.2387</v>
+        <v>3.3104</v>
       </c>
       <c r="F3" t="n">
-        <v>1050.375184</v>
+        <v>1073.628928</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>50.43175999999994</v>
+        <v>73.68550400000004</v>
       </c>
       <c r="J3" t="n">
-        <v>5.04</v>
+        <v>7.37</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2344</v>
+        <v>1.2374</v>
       </c>
       <c r="F4" t="n">
-        <v>7036.08</v>
+        <v>7053.18</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1615.38</v>
+        <v>1632.48</v>
       </c>
       <c r="J4" t="n">
-        <v>29.8</v>
+        <v>30.12</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9465</v>
+        <v>1.9761</v>
       </c>
       <c r="F5" t="n">
-        <v>2308.412745</v>
+        <v>2343.516273</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-91.55379599999969</v>
+        <v>-56.4502679999996</v>
       </c>
       <c r="J5" t="n">
-        <v>-3.81</v>
+        <v>-2.35</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4741</v>
+        <v>1.4706</v>
       </c>
       <c r="F6" t="n">
-        <v>2501.975189</v>
+        <v>2496.034674</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>2.036747999999989</v>
+        <v>-3.903766999999789</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08</v>
+        <v>-0.16</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4741</v>
+        <v>1.4706</v>
       </c>
       <c r="F7" t="n">
-        <v>5298.062809999999</v>
+        <v>5285.483459999999</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-21.92401000000064</v>
+        <v>-34.50336000000061</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.41</v>
+        <v>-0.65</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8166</v>
+        <v>1.8313</v>
       </c>
       <c r="F8" t="n">
-        <v>23434.14</v>
+        <v>23623.77</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4135.739999999998</v>
+        <v>4325.369999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>21.43</v>
+        <v>22.41</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.891</v>
+        <v>2.9332</v>
       </c>
       <c r="F9" t="n">
-        <v>875.42371</v>
+        <v>888.2022919999999</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>126.483737</v>
+        <v>139.2623189999999</v>
       </c>
       <c r="J9" t="n">
-        <v>16.89</v>
+        <v>18.59</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0781</v>
+        <v>2.0767</v>
       </c>
       <c r="F10" t="n">
-        <v>2162.117583</v>
+        <v>2160.660981</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>162.0989940000002</v>
+        <v>160.6423920000004</v>
       </c>
       <c r="J10" t="n">
-        <v>8.1</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5564</v>
+        <v>1.5576</v>
       </c>
       <c r="F11" t="n">
-        <v>6439.184772</v>
+        <v>6444.149448</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>460.0599759999996</v>
+        <v>465.0246520000001</v>
       </c>
       <c r="J11" t="n">
-        <v>7.69</v>
+        <v>7.78</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5564</v>
+        <v>1.5576</v>
       </c>
       <c r="F12" t="n">
-        <v>9360.298547999999</v>
+        <v>9367.515432</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>260.4092309999996</v>
+        <v>267.6261150000009</v>
       </c>
       <c r="J12" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2528</v>
+        <v>2.2884</v>
       </c>
       <c r="F15" t="n">
-        <v>20951.04</v>
+        <v>21282.12</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1504.740000000002</v>
+        <v>1835.820000000003</v>
       </c>
       <c r="J15" t="n">
-        <v>7.74</v>
+        <v>9.44</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.52</v>
+        <v>28.53</v>
       </c>
       <c r="F16" t="n">
-        <v>14260</v>
+        <v>14265</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="J16" t="n">
-        <v>3.22</v>
+        <v>3.26</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>9.09</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>18180</v>
+        <v>18220</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="J17" t="n">
-        <v>2.36</v>
+        <v>2.59</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1443</v>
+        <v>1.1557</v>
       </c>
       <c r="F18" t="n">
-        <v>4495.027817</v>
+        <v>4539.809183</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>188.5531200000005</v>
+        <v>233.3344860000007</v>
       </c>
       <c r="J18" t="n">
-        <v>4.38</v>
+        <v>5.42</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6342</v>
+        <v>1.6467</v>
       </c>
       <c r="F19" t="n">
-        <v>14217.54</v>
+        <v>14326.29</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>758.6400000000012</v>
+        <v>867.3900000000012</v>
       </c>
       <c r="J19" t="n">
-        <v>5.64</v>
+        <v>6.44</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3276</v>
+        <v>1.3434</v>
       </c>
       <c r="F20" t="n">
-        <v>10522.371736</v>
+        <v>10647.600324</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>522.3141739999992</v>
+        <v>647.5427619999991</v>
       </c>
       <c r="J20" t="n">
-        <v>5.22</v>
+        <v>6.48</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2165</v>
+        <v>1.2277</v>
       </c>
       <c r="F21" t="n">
-        <v>13746.45</v>
+        <v>13873.01</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1113.049999999999</v>
+        <v>1239.610000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>8.81</v>
+        <v>9.81</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5669</v>
+        <v>1.5628</v>
       </c>
       <c r="F22" t="n">
-        <v>836.552241</v>
+        <v>834.363292</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>107.418668</v>
+        <v>105.229719</v>
       </c>
       <c r="J22" t="n">
-        <v>14.73</v>
+        <v>14.43</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5669</v>
+        <v>1.5628</v>
       </c>
       <c r="F23" t="n">
-        <v>20247.074406</v>
+        <v>20194.095272</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1046.660939999998</v>
+        <v>993.6818059999969</v>
       </c>
       <c r="J23" t="n">
-        <v>5.45</v>
+        <v>5.18</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.407</v>
+        <v>1.4028</v>
       </c>
       <c r="F24" t="n">
-        <v>920.6282400000001</v>
+        <v>917.8800960000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>120.6566080000001</v>
+        <v>117.9084640000001</v>
       </c>
       <c r="J24" t="n">
-        <v>15.08</v>
+        <v>14.74</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.6861</v>
+        <v>5.6682</v>
       </c>
       <c r="F26" t="n">
-        <v>2361.664774</v>
+        <v>2354.230188</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>261.6641999999997</v>
+        <v>254.2296139999994</v>
       </c>
       <c r="J26" t="n">
-        <v>12.46</v>
+        <v>12.11</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8246</v>
+        <v>1.819</v>
       </c>
       <c r="F28" t="n">
-        <v>7040.76648</v>
+        <v>7019.157200000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>740.8896000000004</v>
+        <v>719.2803200000008</v>
       </c>
       <c r="J28" t="n">
-        <v>11.76</v>
+        <v>11.42</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8246</v>
+        <v>1.819</v>
       </c>
       <c r="F29" t="n">
-        <v>15890.970534</v>
+        <v>15842.19851</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>890.9603670000015</v>
+        <v>842.1883430000016</v>
       </c>
       <c r="J29" t="n">
-        <v>5.94</v>
+        <v>5.61</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8787</v>
+        <v>1.9182</v>
       </c>
       <c r="F30" t="n">
-        <v>9878.373683</v>
+        <v>10086.068238</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>997.985482</v>
+        <v>1205.680037</v>
       </c>
       <c r="J30" t="n">
-        <v>11.24</v>
+        <v>13.58</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8787</v>
+        <v>1.9182</v>
       </c>
       <c r="F31" t="n">
-        <v>1266.751049</v>
+        <v>1293.384714</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>66.75272999999993</v>
+        <v>93.38639499999977</v>
       </c>
       <c r="J31" t="n">
-        <v>5.56</v>
+        <v>7.78</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2341</v>
+        <v>2.2278</v>
       </c>
       <c r="F33" t="n">
-        <v>13628.01</v>
+        <v>13589.58</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1354.810000000001</v>
+        <v>1316.379999999997</v>
       </c>
       <c r="J33" t="n">
-        <v>11.04</v>
+        <v>10.73</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.78</v>
+        <v>1.774</v>
       </c>
       <c r="F34" t="n">
-        <v>33998</v>
+        <v>33883.4</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2826.799999999999</v>
+        <v>2712.200000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>9.07</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8575</v>
+        <v>6.0034</v>
       </c>
       <c r="F35" t="n">
-        <v>35650.97085</v>
+        <v>36538.973692</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2450.985225999997</v>
+        <v>3338.988067999999</v>
       </c>
       <c r="J35" t="n">
-        <v>7.38</v>
+        <v>10.06</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.8575</v>
+        <v>6.0034</v>
       </c>
       <c r="F36" t="n">
-        <v>12106.63245</v>
+        <v>12408.187324</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>806.6954580000001</v>
+        <v>1108.250332</v>
       </c>
       <c r="J36" t="n">
-        <v>7.14</v>
+        <v>9.81</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.8575</v>
+        <v>6.0034</v>
       </c>
       <c r="F37" t="n">
-        <v>87862.5</v>
+        <v>90051</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>4567.5</v>
+        <v>6756</v>
       </c>
       <c r="J37" t="n">
-        <v>5.48</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3505</v>
+        <v>2.3374</v>
       </c>
       <c r="F38" t="n">
-        <v>17096.150205</v>
+        <v>17000.868534</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1296.121661999998</v>
+        <v>1200.839991000001</v>
       </c>
       <c r="J38" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3505</v>
+        <v>2.3374</v>
       </c>
       <c r="F39" t="n">
-        <v>24510.802455</v>
+        <v>24374.196834</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1511.004158999996</v>
+        <v>1374.398538000001</v>
       </c>
       <c r="J39" t="n">
-        <v>6.57</v>
+        <v>5.98</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8788</v>
+        <v>1.8671</v>
       </c>
       <c r="F40" t="n">
-        <v>12587.96</v>
+        <v>12509.57</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2135.960000000001</v>
+        <v>2057.57</v>
       </c>
       <c r="J40" t="n">
-        <v>20.44</v>
+        <v>19.69</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>8.02</v>
+        <v>8.1</v>
       </c>
       <c r="F41" t="n">
-        <v>8020</v>
+        <v>8100</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>911</v>
+        <v>991</v>
       </c>
       <c r="J41" t="n">
-        <v>12.81</v>
+        <v>13.94</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>8.06</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>8866</v>
+        <v>8932</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2281.4</v>
+        <v>2347.4</v>
       </c>
       <c r="J42" t="n">
-        <v>34.65</v>
+        <v>35.65</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>42.45</v>
+        <v>42.69</v>
       </c>
       <c r="F43" t="n">
-        <v>63675.00000000001</v>
+        <v>64035</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-779.9999999999927</v>
+        <v>-420</v>
       </c>
       <c r="J43" t="n">
-        <v>-1.21</v>
+        <v>-0.65</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9571</v>
+        <v>2.9942</v>
       </c>
       <c r="F2" t="n">
-        <v>2187.337299</v>
+        <v>2214.779798</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>317.1051030000003</v>
+        <v>344.5476020000006</v>
       </c>
       <c r="J2" t="n">
-        <v>16.96</v>
+        <v>18.42</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2374</v>
+        <v>1.2271</v>
       </c>
       <c r="F4" t="n">
-        <v>7053.18</v>
+        <v>6994.47</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1632.48</v>
+        <v>1573.77</v>
       </c>
       <c r="J4" t="n">
-        <v>30.12</v>
+        <v>29.03</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4706</v>
+        <v>1.4766</v>
       </c>
       <c r="F6" t="n">
-        <v>2496.034674</v>
+        <v>2506.218414</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-3.903766999999789</v>
+        <v>6.279973000000155</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.16</v>
+        <v>0.25</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4706</v>
+        <v>1.4766</v>
       </c>
       <c r="F7" t="n">
-        <v>5285.483459999999</v>
+        <v>5307.048059999999</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-34.50336000000061</v>
+        <v>-12.93876000000091</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.65</v>
+        <v>-0.24</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8313</v>
+        <v>1.8263</v>
       </c>
       <c r="F8" t="n">
-        <v>23623.77</v>
+        <v>23559.27</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4325.369999999999</v>
+        <v>4260.869999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>22.41</v>
+        <v>22.08</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9332</v>
+        <v>2.9391</v>
       </c>
       <c r="F9" t="n">
-        <v>888.2022919999999</v>
+        <v>889.9888709999999</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>139.2623189999999</v>
+        <v>141.0488979999999</v>
       </c>
       <c r="J9" t="n">
-        <v>18.59</v>
+        <v>18.83</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0767</v>
+        <v>2.1076</v>
       </c>
       <c r="F10" t="n">
-        <v>2160.660981</v>
+        <v>2192.810268</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>160.6423920000004</v>
+        <v>192.7916790000002</v>
       </c>
       <c r="J10" t="n">
-        <v>8.029999999999999</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5576</v>
+        <v>1.5788</v>
       </c>
       <c r="F11" t="n">
-        <v>6444.149448</v>
+        <v>6531.858723999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>465.0246520000001</v>
+        <v>552.7339279999987</v>
       </c>
       <c r="J11" t="n">
-        <v>7.78</v>
+        <v>9.24</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5576</v>
+        <v>1.5788</v>
       </c>
       <c r="F12" t="n">
-        <v>9367.515432</v>
+        <v>9495.013715999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>267.6261150000009</v>
+        <v>395.1243990000003</v>
       </c>
       <c r="J12" t="n">
-        <v>2.94</v>
+        <v>4.34</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2884</v>
+        <v>2.2934</v>
       </c>
       <c r="F15" t="n">
-        <v>21282.12</v>
+        <v>21328.62</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1835.820000000003</v>
+        <v>1882.320000000003</v>
       </c>
       <c r="J15" t="n">
-        <v>9.44</v>
+        <v>9.68</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.53</v>
+        <v>28.7</v>
       </c>
       <c r="F16" t="n">
-        <v>14265</v>
+        <v>14350</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>450</v>
+        <v>535</v>
       </c>
       <c r="J16" t="n">
-        <v>3.26</v>
+        <v>3.87</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>9.109999999999999</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>18220</v>
+        <v>18100</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="J17" t="n">
-        <v>2.59</v>
+        <v>1.91</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1557</v>
+        <v>1.152</v>
       </c>
       <c r="F18" t="n">
-        <v>4539.809183</v>
+        <v>4525.27488</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>233.3344860000007</v>
+        <v>218.8001830000003</v>
       </c>
       <c r="J18" t="n">
-        <v>5.42</v>
+        <v>5.08</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6467</v>
+        <v>1.6433</v>
       </c>
       <c r="F19" t="n">
-        <v>14326.29</v>
+        <v>14296.71</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>867.3900000000012</v>
+        <v>837.8099999999995</v>
       </c>
       <c r="J19" t="n">
-        <v>6.44</v>
+        <v>6.22</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3434</v>
+        <v>1.3469</v>
       </c>
       <c r="F20" t="n">
-        <v>10647.600324</v>
+        <v>10675.340834</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>647.5427619999991</v>
+        <v>675.2832719999988</v>
       </c>
       <c r="J20" t="n">
-        <v>6.48</v>
+        <v>6.75</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2277</v>
+        <v>1.2311</v>
       </c>
       <c r="F21" t="n">
-        <v>13873.01</v>
+        <v>13911.43</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1239.610000000001</v>
+        <v>1278.030000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>9.81</v>
+        <v>10.12</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5628</v>
+        <v>1.5933</v>
       </c>
       <c r="F22" t="n">
-        <v>834.363292</v>
+        <v>850.646937</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>105.229719</v>
+        <v>121.513364</v>
       </c>
       <c r="J22" t="n">
-        <v>14.43</v>
+        <v>16.67</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5628</v>
+        <v>1.5933</v>
       </c>
       <c r="F23" t="n">
-        <v>20194.095272</v>
+        <v>20588.208342</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>993.6818059999969</v>
+        <v>1387.794875999996</v>
       </c>
       <c r="J23" t="n">
-        <v>5.18</v>
+        <v>7.23</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4028</v>
+        <v>1.4318</v>
       </c>
       <c r="F24" t="n">
-        <v>917.8800960000001</v>
+        <v>936.8553760000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>117.9084640000001</v>
+        <v>136.8837440000001</v>
       </c>
       <c r="J24" t="n">
-        <v>14.74</v>
+        <v>17.11</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.6682</v>
+        <v>5.7921</v>
       </c>
       <c r="F26" t="n">
-        <v>2354.230188</v>
+        <v>2405.690814</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>254.2296139999994</v>
+        <v>305.6902399999994</v>
       </c>
       <c r="J26" t="n">
-        <v>12.11</v>
+        <v>14.56</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.819</v>
+        <v>1.8576</v>
       </c>
       <c r="F28" t="n">
-        <v>7019.157200000001</v>
+        <v>7168.10688</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>719.2803200000008</v>
+        <v>868.2300000000005</v>
       </c>
       <c r="J28" t="n">
-        <v>11.42</v>
+        <v>13.78</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.819</v>
+        <v>1.8576</v>
       </c>
       <c r="F29" t="n">
-        <v>15842.19851</v>
+        <v>16178.377104</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>842.1883430000016</v>
+        <v>1178.366937000001</v>
       </c>
       <c r="J29" t="n">
-        <v>5.61</v>
+        <v>7.86</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9182</v>
+        <v>1.913</v>
       </c>
       <c r="F30" t="n">
-        <v>10086.068238</v>
+        <v>10058.72617</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1205.680037</v>
+        <v>1178.337969</v>
       </c>
       <c r="J30" t="n">
-        <v>13.58</v>
+        <v>13.27</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9182</v>
+        <v>1.913</v>
       </c>
       <c r="F31" t="n">
-        <v>1293.384714</v>
+        <v>1289.87851</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>93.38639499999977</v>
+        <v>89.88019099999997</v>
       </c>
       <c r="J31" t="n">
-        <v>7.78</v>
+        <v>7.49</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2278</v>
+        <v>2.2756</v>
       </c>
       <c r="F33" t="n">
-        <v>13589.58</v>
+        <v>13881.16</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1316.379999999997</v>
+        <v>1607.959999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>10.73</v>
+        <v>13.1</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.774</v>
+        <v>1.814</v>
       </c>
       <c r="F34" t="n">
-        <v>33883.4</v>
+        <v>34647.4</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2712.200000000001</v>
+        <v>3476.200000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>8.699999999999999</v>
+        <v>11.15</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>6.0034</v>
+        <v>5.9653</v>
       </c>
       <c r="F35" t="n">
-        <v>36538.973692</v>
+        <v>36307.082614</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>3338.988067999999</v>
+        <v>3107.096989999998</v>
       </c>
       <c r="J35" t="n">
-        <v>10.06</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>6.0034</v>
+        <v>5.9653</v>
       </c>
       <c r="F36" t="n">
-        <v>12408.187324</v>
+        <v>12329.439958</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>1108.250332</v>
+        <v>1029.502966</v>
       </c>
       <c r="J36" t="n">
-        <v>9.81</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>6.0034</v>
+        <v>5.9653</v>
       </c>
       <c r="F37" t="n">
-        <v>90051</v>
+        <v>89479.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>6756</v>
+        <v>6184.5</v>
       </c>
       <c r="J37" t="n">
-        <v>8.109999999999999</v>
+        <v>7.42</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3374</v>
+        <v>2.399</v>
       </c>
       <c r="F38" t="n">
-        <v>17000.868534</v>
+        <v>17448.91059</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1200.839991000001</v>
+        <v>1648.882046999999</v>
       </c>
       <c r="J38" t="n">
-        <v>7.6</v>
+        <v>10.44</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3374</v>
+        <v>2.399</v>
       </c>
       <c r="F39" t="n">
-        <v>24374.196834</v>
+        <v>25016.55609</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1374.398538000001</v>
+        <v>2016.757793999997</v>
       </c>
       <c r="J39" t="n">
-        <v>5.98</v>
+        <v>8.77</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8671</v>
+        <v>1.919</v>
       </c>
       <c r="F40" t="n">
-        <v>12509.57</v>
+        <v>12857.3</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2057.57</v>
+        <v>2405.300000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>19.69</v>
+        <v>23.01</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>8.1</v>
+        <v>8.16</v>
       </c>
       <c r="F41" t="n">
-        <v>8100</v>
+        <v>8160</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>991</v>
+        <v>1051</v>
       </c>
       <c r="J41" t="n">
-        <v>13.94</v>
+        <v>14.78</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>8.119999999999999</v>
+        <v>8.32</v>
       </c>
       <c r="F42" t="n">
-        <v>8932</v>
+        <v>9152</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2347.4</v>
+        <v>2567.4</v>
       </c>
       <c r="J42" t="n">
-        <v>35.65</v>
+        <v>38.99</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>42.69</v>
+        <v>43.12</v>
       </c>
       <c r="F43" t="n">
-        <v>64035</v>
+        <v>64679.99999999999</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-420</v>
+        <v>224.9999999999927</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.65</v>
+        <v>0.35</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9942</v>
+        <v>2.9883</v>
       </c>
       <c r="F2" t="n">
-        <v>2214.779798</v>
+        <v>2210.415627</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>344.5476020000006</v>
+        <v>340.1834310000004</v>
       </c>
       <c r="J2" t="n">
-        <v>18.42</v>
+        <v>18.19</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.3104</v>
+        <v>3.3063</v>
       </c>
       <c r="F3" t="n">
-        <v>1073.628928</v>
+        <v>1072.299216</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>73.68550400000004</v>
+        <v>72.35579199999984</v>
       </c>
       <c r="J3" t="n">
-        <v>7.37</v>
+        <v>7.24</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2271</v>
+        <v>1.2241</v>
       </c>
       <c r="F4" t="n">
-        <v>6994.47</v>
+        <v>6977.37</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1573.77</v>
+        <v>1556.67</v>
       </c>
       <c r="J4" t="n">
-        <v>29.03</v>
+        <v>28.72</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9761</v>
+        <v>1.9866</v>
       </c>
       <c r="F5" t="n">
-        <v>2343.516273</v>
+        <v>2355.968538</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-56.4502679999996</v>
+        <v>-43.9980029999997</v>
       </c>
       <c r="J5" t="n">
-        <v>-2.35</v>
+        <v>-1.83</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4766</v>
+        <v>1.4815</v>
       </c>
       <c r="F6" t="n">
-        <v>2506.218414</v>
+        <v>2514.535135</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>6.279973000000155</v>
+        <v>14.5966940000003</v>
       </c>
       <c r="J6" t="n">
-        <v>0.25</v>
+        <v>0.58</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4766</v>
+        <v>1.4815</v>
       </c>
       <c r="F7" t="n">
-        <v>5307.048059999999</v>
+        <v>5324.65915</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-12.93876000000091</v>
+        <v>4.672330000000329</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.24</v>
+        <v>0.09</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8263</v>
+        <v>1.8276</v>
       </c>
       <c r="F8" t="n">
-        <v>23559.27</v>
+        <v>23576.04</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4260.869999999999</v>
+        <v>4277.639999999996</v>
       </c>
       <c r="J8" t="n">
-        <v>22.08</v>
+        <v>22.17</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9391</v>
+        <v>2.9397</v>
       </c>
       <c r="F9" t="n">
-        <v>889.9888709999999</v>
+        <v>890.170557</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>141.0488979999999</v>
+        <v>141.230584</v>
       </c>
       <c r="J9" t="n">
-        <v>18.83</v>
+        <v>18.86</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1076</v>
+        <v>2.1129</v>
       </c>
       <c r="F10" t="n">
-        <v>2192.810268</v>
+        <v>2198.324547</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>192.7916790000002</v>
+        <v>198.3059579999997</v>
       </c>
       <c r="J10" t="n">
-        <v>9.640000000000001</v>
+        <v>9.92</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5788</v>
+        <v>1.5818</v>
       </c>
       <c r="F11" t="n">
-        <v>6531.858723999999</v>
+        <v>6544.270414</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>552.7339279999987</v>
+        <v>565.1456179999996</v>
       </c>
       <c r="J11" t="n">
-        <v>9.24</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5788</v>
+        <v>1.5818</v>
       </c>
       <c r="F12" t="n">
-        <v>9495.013715999999</v>
+        <v>9513.055926000001</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>395.1243990000003</v>
+        <v>413.1666090000017</v>
       </c>
       <c r="J12" t="n">
-        <v>4.34</v>
+        <v>4.54</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2934</v>
+        <v>2.2939</v>
       </c>
       <c r="F15" t="n">
-        <v>21328.62</v>
+        <v>21333.27</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1882.320000000003</v>
+        <v>1886.969999999998</v>
       </c>
       <c r="J15" t="n">
-        <v>9.68</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.7</v>
+        <v>28.62</v>
       </c>
       <c r="F16" t="n">
-        <v>14350</v>
+        <v>14310</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="J16" t="n">
-        <v>3.87</v>
+        <v>3.58</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>9.050000000000001</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>18100</v>
+        <v>17940</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="J17" t="n">
-        <v>1.91</v>
+        <v>1.01</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.152</v>
+        <v>1.1567</v>
       </c>
       <c r="F18" t="n">
-        <v>4525.27488</v>
+        <v>4543.737373</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>218.8001830000003</v>
+        <v>237.2626760000003</v>
       </c>
       <c r="J18" t="n">
-        <v>5.08</v>
+        <v>5.51</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6433</v>
+        <v>1.6444</v>
       </c>
       <c r="F19" t="n">
-        <v>14296.71</v>
+        <v>14306.28</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>837.8099999999995</v>
+        <v>847.380000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>6.22</v>
+        <v>6.3</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3469</v>
+        <v>1.3596</v>
       </c>
       <c r="F20" t="n">
-        <v>10675.340834</v>
+        <v>10775.999256</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>675.2832719999988</v>
+        <v>775.9416939999992</v>
       </c>
       <c r="J20" t="n">
-        <v>6.75</v>
+        <v>7.76</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2311</v>
+        <v>1.2402</v>
       </c>
       <c r="F21" t="n">
-        <v>13911.43</v>
+        <v>14014.26</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1278.030000000001</v>
+        <v>1380.860000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>10.12</v>
+        <v>10.93</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5933</v>
+        <v>1.589</v>
       </c>
       <c r="F22" t="n">
-        <v>850.646937</v>
+        <v>848.3512099999999</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>121.513364</v>
+        <v>119.217637</v>
       </c>
       <c r="J22" t="n">
-        <v>16.67</v>
+        <v>16.35</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5933</v>
+        <v>1.589</v>
       </c>
       <c r="F23" t="n">
-        <v>20588.208342</v>
+        <v>20532.64486</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1387.794875999996</v>
+        <v>1332.231393999999</v>
       </c>
       <c r="J23" t="n">
-        <v>7.23</v>
+        <v>6.94</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4318</v>
+        <v>1.4279</v>
       </c>
       <c r="F24" t="n">
-        <v>936.8553760000001</v>
+        <v>934.303528</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>136.8837440000001</v>
+        <v>134.331896</v>
       </c>
       <c r="J24" t="n">
-        <v>17.11</v>
+        <v>16.79</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7921</v>
+        <v>5.7753</v>
       </c>
       <c r="F26" t="n">
-        <v>2405.690814</v>
+        <v>2398.713102</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>305.6902399999994</v>
+        <v>298.7125279999996</v>
       </c>
       <c r="J26" t="n">
-        <v>14.56</v>
+        <v>14.22</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8576</v>
+        <v>1.8524</v>
       </c>
       <c r="F28" t="n">
-        <v>7168.10688</v>
+        <v>7148.041120000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>868.2300000000005</v>
+        <v>848.164240000001</v>
       </c>
       <c r="J28" t="n">
-        <v>13.78</v>
+        <v>13.46</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8576</v>
+        <v>1.8524</v>
       </c>
       <c r="F29" t="n">
-        <v>16178.377104</v>
+        <v>16133.088796</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1178.366937000001</v>
+        <v>1133.078629000001</v>
       </c>
       <c r="J29" t="n">
-        <v>7.86</v>
+        <v>7.55</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.913</v>
+        <v>1.911</v>
       </c>
       <c r="F30" t="n">
-        <v>10058.72617</v>
+        <v>10048.20999</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1178.337969</v>
+        <v>1167.821789000001</v>
       </c>
       <c r="J30" t="n">
-        <v>13.27</v>
+        <v>13.15</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.913</v>
+        <v>1.911</v>
       </c>
       <c r="F31" t="n">
-        <v>1289.87851</v>
+        <v>1288.52997</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>89.88019099999997</v>
+        <v>88.53165100000001</v>
       </c>
       <c r="J31" t="n">
-        <v>7.49</v>
+        <v>7.38</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2756</v>
+        <v>2.2694</v>
       </c>
       <c r="F33" t="n">
-        <v>13881.16</v>
+        <v>13843.34</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1607.959999999999</v>
+        <v>1570.139999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>13.1</v>
+        <v>12.79</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.814</v>
+        <v>1.808</v>
       </c>
       <c r="F34" t="n">
-        <v>34647.4</v>
+        <v>34532.8</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3476.200000000001</v>
+        <v>3361.600000000002</v>
       </c>
       <c r="J34" t="n">
-        <v>11.15</v>
+        <v>10.78</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.9653</v>
+        <v>5.9757</v>
       </c>
       <c r="F35" t="n">
-        <v>36307.082614</v>
+        <v>36370.380966</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>3107.096989999998</v>
+        <v>3170.395341999996</v>
       </c>
       <c r="J35" t="n">
-        <v>9.359999999999999</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.9653</v>
+        <v>5.9757</v>
       </c>
       <c r="F36" t="n">
-        <v>12329.439958</v>
+        <v>12350.935302</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>1029.502966</v>
+        <v>1050.998309999999</v>
       </c>
       <c r="J36" t="n">
-        <v>9.109999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.9653</v>
+        <v>5.9757</v>
       </c>
       <c r="F37" t="n">
-        <v>89479.5</v>
+        <v>89635.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>6184.5</v>
+        <v>6340.5</v>
       </c>
       <c r="J37" t="n">
-        <v>7.42</v>
+        <v>7.61</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.399</v>
+        <v>2.3829</v>
       </c>
       <c r="F38" t="n">
-        <v>17448.91059</v>
+        <v>17331.808689</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1648.882046999999</v>
+        <v>1531.780145999997</v>
       </c>
       <c r="J38" t="n">
-        <v>10.44</v>
+        <v>9.69</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.399</v>
+        <v>2.3829</v>
       </c>
       <c r="F39" t="n">
-        <v>25016.55609</v>
+        <v>24848.666739</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>2016.757793999997</v>
+        <v>1848.868442999996</v>
       </c>
       <c r="J39" t="n">
-        <v>8.77</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.919</v>
+        <v>1.9052</v>
       </c>
       <c r="F40" t="n">
-        <v>12857.3</v>
+        <v>12764.84</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2405.300000000001</v>
+        <v>2312.84</v>
       </c>
       <c r="J40" t="n">
-        <v>23.01</v>
+        <v>22.13</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>8.16</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>8160</v>
+        <v>8210</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>1051</v>
+        <v>1101</v>
       </c>
       <c r="J41" t="n">
-        <v>14.78</v>
+        <v>15.49</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>8.32</v>
+        <v>8.56</v>
       </c>
       <c r="F42" t="n">
-        <v>9152</v>
+        <v>9416</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2567.4</v>
+        <v>2831.4</v>
       </c>
       <c r="J42" t="n">
-        <v>38.99</v>
+        <v>43</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>43.12</v>
+        <v>42.97</v>
       </c>
       <c r="F43" t="n">
-        <v>64679.99999999999</v>
+        <v>64455</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>224.9999999999927</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9883</v>
+        <v>3.0312</v>
       </c>
       <c r="F2" t="n">
-        <v>2210.415627</v>
+        <v>2242.148328</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>340.1834310000004</v>
+        <v>371.9161320000003</v>
       </c>
       <c r="J2" t="n">
-        <v>18.19</v>
+        <v>19.89</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.3063</v>
+        <v>3.3219</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.299216</v>
+        <v>1077.358608</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>72.35579199999984</v>
+        <v>77.41518399999995</v>
       </c>
       <c r="J3" t="n">
-        <v>7.24</v>
+        <v>7.74</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2241</v>
+        <v>1.2417</v>
       </c>
       <c r="F4" t="n">
-        <v>6977.37</v>
+        <v>7077.690000000001</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1556.67</v>
+        <v>1656.990000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>28.72</v>
+        <v>30.57</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9866</v>
+        <v>1.9877</v>
       </c>
       <c r="F5" t="n">
-        <v>2355.968538</v>
+        <v>2357.273061</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-43.9980029999997</v>
+        <v>-42.69347999999945</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.83</v>
+        <v>-1.78</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8276</v>
+        <v>1.8279</v>
       </c>
       <c r="F8" t="n">
-        <v>23576.04</v>
+        <v>23579.91</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4277.639999999996</v>
+        <v>4281.509999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>22.17</v>
+        <v>22.19</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9397</v>
+        <v>2.8953</v>
       </c>
       <c r="F9" t="n">
-        <v>890.170557</v>
+        <v>876.7257930000001</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>141.230584</v>
+        <v>127.7858200000001</v>
       </c>
       <c r="J9" t="n">
-        <v>18.86</v>
+        <v>17.06</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1129</v>
+        <v>2.114</v>
       </c>
       <c r="F10" t="n">
-        <v>2198.324547</v>
+        <v>2199.46902</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>198.3059579999997</v>
+        <v>199.450431</v>
       </c>
       <c r="J10" t="n">
-        <v>9.92</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5818</v>
+        <v>1.5821</v>
       </c>
       <c r="F11" t="n">
-        <v>6544.270414</v>
+        <v>6545.511583</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>565.1456179999996</v>
+        <v>566.3867869999995</v>
       </c>
       <c r="J11" t="n">
-        <v>9.449999999999999</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5818</v>
+        <v>1.5821</v>
       </c>
       <c r="F12" t="n">
-        <v>9513.055926000001</v>
+        <v>9514.860146999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>413.1666090000017</v>
+        <v>414.9708300000002</v>
       </c>
       <c r="J12" t="n">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2939</v>
+        <v>2.257</v>
       </c>
       <c r="F15" t="n">
-        <v>21333.27</v>
+        <v>20990.1</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1886.969999999998</v>
+        <v>1543.800000000003</v>
       </c>
       <c r="J15" t="n">
-        <v>9.699999999999999</v>
+        <v>7.94</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.62</v>
+        <v>28.44</v>
       </c>
       <c r="F16" t="n">
-        <v>14310</v>
+        <v>14220</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>495</v>
+        <v>405</v>
       </c>
       <c r="J16" t="n">
-        <v>3.58</v>
+        <v>2.93</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.970000000000001</v>
+        <v>8.99</v>
       </c>
       <c r="F17" t="n">
-        <v>17940</v>
+        <v>17980</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="J17" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1567</v>
+        <v>1.1553</v>
       </c>
       <c r="F18" t="n">
-        <v>4543.737373</v>
+        <v>4538.237907</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>237.2626760000003</v>
+        <v>231.7632100000001</v>
       </c>
       <c r="J18" t="n">
-        <v>5.51</v>
+        <v>5.38</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6444</v>
+        <v>1.6488</v>
       </c>
       <c r="F19" t="n">
-        <v>14306.28</v>
+        <v>14344.56</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>847.380000000001</v>
+        <v>885.6599999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>6.3</v>
+        <v>6.58</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3596</v>
+        <v>1.3495</v>
       </c>
       <c r="F20" t="n">
-        <v>10775.999256</v>
+        <v>10695.94807</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>775.9416939999992</v>
+        <v>695.8905079999986</v>
       </c>
       <c r="J20" t="n">
-        <v>7.76</v>
+        <v>6.96</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2402</v>
+        <v>1.2384</v>
       </c>
       <c r="F21" t="n">
-        <v>14014.26</v>
+        <v>13993.92</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1380.860000000001</v>
+        <v>1360.52</v>
       </c>
       <c r="J21" t="n">
-        <v>10.93</v>
+        <v>10.77</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.589</v>
+        <v>1.5876</v>
       </c>
       <c r="F22" t="n">
-        <v>848.3512099999999</v>
+        <v>847.603764</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>119.217637</v>
+        <v>118.470191</v>
       </c>
       <c r="J22" t="n">
-        <v>16.35</v>
+        <v>16.25</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.589</v>
+        <v>1.5876</v>
       </c>
       <c r="F23" t="n">
-        <v>20532.64486</v>
+        <v>20514.554424</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1332.231393999999</v>
+        <v>1314.140957999996</v>
       </c>
       <c r="J23" t="n">
-        <v>6.94</v>
+        <v>6.84</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4279</v>
+        <v>1.4265</v>
       </c>
       <c r="F24" t="n">
-        <v>934.303528</v>
+        <v>933.3874800000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>134.331896</v>
+        <v>133.4158480000001</v>
       </c>
       <c r="J24" t="n">
-        <v>16.79</v>
+        <v>16.68</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7753</v>
+        <v>5.7699</v>
       </c>
       <c r="F26" t="n">
-        <v>2398.713102</v>
+        <v>2396.470266</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>298.7125279999996</v>
+        <v>296.4696919999997</v>
       </c>
       <c r="J26" t="n">
-        <v>14.22</v>
+        <v>14.12</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8524</v>
+        <v>1.8505</v>
       </c>
       <c r="F28" t="n">
-        <v>7148.041120000001</v>
+        <v>7140.709400000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>848.164240000001</v>
+        <v>840.8325200000008</v>
       </c>
       <c r="J28" t="n">
-        <v>13.46</v>
+        <v>13.35</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8524</v>
+        <v>1.8505</v>
       </c>
       <c r="F29" t="n">
-        <v>16133.088796</v>
+        <v>16116.541145</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1133.078629000001</v>
+        <v>1116.530978000001</v>
       </c>
       <c r="J29" t="n">
-        <v>7.55</v>
+        <v>7.44</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.911</v>
+        <v>1.8747</v>
       </c>
       <c r="F30" t="n">
-        <v>10048.20999</v>
+        <v>9857.341323000001</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1167.821789000001</v>
+        <v>976.9531220000008</v>
       </c>
       <c r="J30" t="n">
-        <v>13.15</v>
+        <v>11</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.911</v>
+        <v>1.8747</v>
       </c>
       <c r="F31" t="n">
-        <v>1288.52997</v>
+        <v>1264.053969</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>88.53165100000001</v>
+        <v>64.05565000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>7.38</v>
+        <v>5.34</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2694</v>
+        <v>2.2669</v>
       </c>
       <c r="F33" t="n">
-        <v>13843.34</v>
+        <v>13828.09</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1570.139999999999</v>
+        <v>1554.889999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>12.79</v>
+        <v>12.67</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.808</v>
+        <v>1.806</v>
       </c>
       <c r="F34" t="n">
-        <v>34532.8</v>
+        <v>34494.6</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3361.600000000002</v>
+        <v>3323.399999999998</v>
       </c>
       <c r="J34" t="n">
-        <v>10.78</v>
+        <v>10.66</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3829</v>
+        <v>2.3786</v>
       </c>
       <c r="F38" t="n">
-        <v>17331.808689</v>
+        <v>17300.533026</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1531.780145999997</v>
+        <v>1500.504483000001</v>
       </c>
       <c r="J38" t="n">
-        <v>9.69</v>
+        <v>9.5</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3829</v>
+        <v>2.3786</v>
       </c>
       <c r="F39" t="n">
-        <v>24848.666739</v>
+        <v>24803.826726</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1848.868442999996</v>
+        <v>1804.028429999998</v>
       </c>
       <c r="J39" t="n">
-        <v>8.039999999999999</v>
+        <v>7.84</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9052</v>
+        <v>1.9015</v>
       </c>
       <c r="F40" t="n">
-        <v>12764.84</v>
+        <v>12740.05</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2312.84</v>
+        <v>2288.049999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>22.13</v>
+        <v>21.89</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>8.210000000000001</v>
+        <v>8.23</v>
       </c>
       <c r="F41" t="n">
-        <v>8210</v>
+        <v>8230</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>1101</v>
+        <v>1121</v>
       </c>
       <c r="J41" t="n">
-        <v>15.49</v>
+        <v>15.77</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>42.97</v>
+        <v>43.24</v>
       </c>
       <c r="F43" t="n">
-        <v>64455</v>
+        <v>64860</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0312</v>
+        <v>2.9988</v>
       </c>
       <c r="F2" t="n">
-        <v>2242.148328</v>
+        <v>2218.182372</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>371.9161320000003</v>
+        <v>347.9501760000003</v>
       </c>
       <c r="J2" t="n">
-        <v>19.89</v>
+        <v>18.6</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2417</v>
+        <v>1.2217</v>
       </c>
       <c r="F4" t="n">
-        <v>7077.690000000001</v>
+        <v>6963.69</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1656.990000000001</v>
+        <v>1542.99</v>
       </c>
       <c r="J4" t="n">
-        <v>30.57</v>
+        <v>28.46</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4815</v>
+        <v>1.4804</v>
       </c>
       <c r="F6" t="n">
-        <v>2514.535135</v>
+        <v>2512.668116</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>14.5966940000003</v>
+        <v>12.72967500000004</v>
       </c>
       <c r="J6" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4815</v>
+        <v>1.4804</v>
       </c>
       <c r="F7" t="n">
-        <v>5324.65915</v>
+        <v>5320.705639999999</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>4.672330000000329</v>
+        <v>0.7188199999991411</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8279</v>
+        <v>1.7986</v>
       </c>
       <c r="F8" t="n">
-        <v>23579.91</v>
+        <v>23201.94</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4281.509999999998</v>
+        <v>3903.539999999997</v>
       </c>
       <c r="J8" t="n">
-        <v>22.19</v>
+        <v>20.23</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.114</v>
+        <v>2.0842</v>
       </c>
       <c r="F10" t="n">
-        <v>2199.46902</v>
+        <v>2168.464206</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>199.450431</v>
+        <v>168.4456170000001</v>
       </c>
       <c r="J10" t="n">
-        <v>9.970000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5821</v>
+        <v>1.5607</v>
       </c>
       <c r="F11" t="n">
-        <v>6545.511583</v>
+        <v>6456.974860999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>566.3867869999995</v>
+        <v>477.8500649999987</v>
       </c>
       <c r="J11" t="n">
-        <v>9.470000000000001</v>
+        <v>7.99</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5821</v>
+        <v>1.5607</v>
       </c>
       <c r="F12" t="n">
-        <v>9514.860146999999</v>
+        <v>9386.159049</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>414.9708300000002</v>
+        <v>286.2697320000007</v>
       </c>
       <c r="J12" t="n">
-        <v>4.56</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1553</v>
+        <v>1.1385</v>
       </c>
       <c r="F18" t="n">
-        <v>4538.237907</v>
+        <v>4472.244315</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>231.7632100000001</v>
+        <v>165.7696180000003</v>
       </c>
       <c r="J18" t="n">
-        <v>5.38</v>
+        <v>3.85</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6488</v>
+        <v>1.639</v>
       </c>
       <c r="F19" t="n">
-        <v>14344.56</v>
+        <v>14259.3</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>885.6599999999999</v>
+        <v>800.3999999999996</v>
       </c>
       <c r="J19" t="n">
-        <v>6.58</v>
+        <v>5.95</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3495</v>
+        <v>1.3337</v>
       </c>
       <c r="F20" t="n">
-        <v>10695.94807</v>
+        <v>10570.719482</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>695.8905079999986</v>
+        <v>570.6619200000005</v>
       </c>
       <c r="J20" t="n">
-        <v>6.96</v>
+        <v>5.71</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2384</v>
+        <v>1.234</v>
       </c>
       <c r="F21" t="n">
-        <v>13993.92</v>
+        <v>13944.2</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1360.52</v>
+        <v>1310.800000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>10.77</v>
+        <v>10.38</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5876</v>
+        <v>1.5601</v>
       </c>
       <c r="F22" t="n">
-        <v>847.603764</v>
+        <v>832.921789</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>118.470191</v>
+        <v>103.788216</v>
       </c>
       <c r="J22" t="n">
-        <v>16.25</v>
+        <v>14.23</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5876</v>
+        <v>1.5601</v>
       </c>
       <c r="F23" t="n">
-        <v>20514.554424</v>
+        <v>20159.206574</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1314.140957999996</v>
+        <v>958.793107999998</v>
       </c>
       <c r="J23" t="n">
-        <v>6.84</v>
+        <v>4.99</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4265</v>
+        <v>1.4002</v>
       </c>
       <c r="F24" t="n">
-        <v>933.3874800000001</v>
+        <v>916.178864</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>133.4158480000001</v>
+        <v>116.207232</v>
       </c>
       <c r="J24" t="n">
-        <v>16.68</v>
+        <v>14.53</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7699</v>
+        <v>5.6552</v>
       </c>
       <c r="F26" t="n">
-        <v>2396.470266</v>
+        <v>2348.830768</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>296.4696919999997</v>
+        <v>248.8301939999997</v>
       </c>
       <c r="J26" t="n">
-        <v>14.12</v>
+        <v>11.85</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8505</v>
+        <v>1.8152</v>
       </c>
       <c r="F28" t="n">
-        <v>7140.709400000001</v>
+        <v>7004.49376</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>840.8325200000008</v>
+        <v>704.6168800000005</v>
       </c>
       <c r="J28" t="n">
-        <v>13.35</v>
+        <v>11.18</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8505</v>
+        <v>1.8152</v>
       </c>
       <c r="F29" t="n">
-        <v>16116.541145</v>
+        <v>15809.103208</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1116.530978000001</v>
+        <v>809.0930410000001</v>
       </c>
       <c r="J29" t="n">
-        <v>7.44</v>
+        <v>5.39</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2669</v>
+        <v>2.2135</v>
       </c>
       <c r="F33" t="n">
-        <v>13828.09</v>
+        <v>13502.35</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1554.889999999999</v>
+        <v>1229.149999999998</v>
       </c>
       <c r="J33" t="n">
-        <v>12.67</v>
+        <v>10.01</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.806</v>
+        <v>1.77</v>
       </c>
       <c r="F34" t="n">
-        <v>34494.6</v>
+        <v>33807</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3323.399999999998</v>
+        <v>2635.799999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>10.66</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.9757</v>
+        <v>5.8474</v>
       </c>
       <c r="F35" t="n">
-        <v>36370.380966</v>
+        <v>35589.498412</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>3170.395341999996</v>
+        <v>2389.512788</v>
       </c>
       <c r="J35" t="n">
-        <v>9.550000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.9757</v>
+        <v>5.8474</v>
       </c>
       <c r="F36" t="n">
-        <v>12350.935302</v>
+        <v>12085.757164</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>1050.998309999999</v>
+        <v>785.8201720000015</v>
       </c>
       <c r="J36" t="n">
-        <v>9.300000000000001</v>
+        <v>6.95</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.9757</v>
+        <v>5.8474</v>
       </c>
       <c r="F37" t="n">
-        <v>89635.5</v>
+        <v>87711</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>6340.5</v>
+        <v>4416</v>
       </c>
       <c r="J37" t="n">
-        <v>7.61</v>
+        <v>5.3</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3786</v>
+        <v>2.3262</v>
       </c>
       <c r="F38" t="n">
-        <v>17300.533026</v>
+        <v>16919.406342</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1500.504483000001</v>
+        <v>1119.377798999998</v>
       </c>
       <c r="J38" t="n">
-        <v>9.5</v>
+        <v>7.08</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3786</v>
+        <v>2.3262</v>
       </c>
       <c r="F39" t="n">
-        <v>24803.826726</v>
+        <v>24257.404242</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1804.028429999998</v>
+        <v>1257.605946</v>
       </c>
       <c r="J39" t="n">
-        <v>7.84</v>
+        <v>5.47</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9015</v>
+        <v>1.8566</v>
       </c>
       <c r="F40" t="n">
-        <v>12740.05</v>
+        <v>12439.22</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2288.049999999999</v>
+        <v>1987.219999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>21.89</v>
+        <v>19.01</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.3219</v>
+        <v>3.2607</v>
       </c>
       <c r="F3" t="n">
-        <v>1077.358608</v>
+        <v>1057.510224</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>77.41518399999995</v>
+        <v>57.56679999999983</v>
       </c>
       <c r="J3" t="n">
-        <v>7.74</v>
+        <v>5.76</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9877</v>
+        <v>1.9789</v>
       </c>
       <c r="F5" t="n">
-        <v>2357.273061</v>
+        <v>2346.836877</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-42.69347999999945</v>
+        <v>-53.12966399999959</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.78</v>
+        <v>-2.21</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8953</v>
+        <v>2.8934</v>
       </c>
       <c r="F9" t="n">
-        <v>876.7257930000001</v>
+        <v>876.1504540000001</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>127.7858200000001</v>
+        <v>127.2104810000001</v>
       </c>
       <c r="J9" t="n">
-        <v>17.06</v>
+        <v>16.99</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.257</v>
+        <v>2.2547</v>
       </c>
       <c r="F15" t="n">
-        <v>20990.1</v>
+        <v>20968.71</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1543.800000000003</v>
+        <v>1522.410000000003</v>
       </c>
       <c r="J15" t="n">
-        <v>7.94</v>
+        <v>7.83</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.44</v>
+        <v>28.37</v>
       </c>
       <c r="F16" t="n">
-        <v>14220</v>
+        <v>14185</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="J16" t="n">
-        <v>2.93</v>
+        <v>2.68</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.99</v>
+        <v>8.9</v>
       </c>
       <c r="F17" t="n">
-        <v>17980</v>
+        <v>17800</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="J17" t="n">
-        <v>1.24</v>
+        <v>0.23</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8474</v>
+        <v>5.8835</v>
       </c>
       <c r="F35" t="n">
-        <v>35589.498412</v>
+        <v>35809.21673</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2389.512788</v>
+        <v>2609.231105999999</v>
       </c>
       <c r="J35" t="n">
-        <v>7.2</v>
+        <v>7.86</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.8474</v>
+        <v>5.8835</v>
       </c>
       <c r="F36" t="n">
-        <v>12085.757164</v>
+        <v>12160.37081</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>785.8201720000015</v>
+        <v>860.4338179999995</v>
       </c>
       <c r="J36" t="n">
-        <v>6.95</v>
+        <v>7.61</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.8474</v>
+        <v>5.8835</v>
       </c>
       <c r="F37" t="n">
-        <v>87711</v>
+        <v>88252.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>4416</v>
+        <v>4957.5</v>
       </c>
       <c r="J37" t="n">
-        <v>5.3</v>
+        <v>5.95</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>8.23</v>
+        <v>8.25</v>
       </c>
       <c r="F41" t="n">
-        <v>8230</v>
+        <v>8250</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>1121</v>
+        <v>1141</v>
       </c>
       <c r="J41" t="n">
-        <v>15.77</v>
+        <v>16.05</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>8.56</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>9416</v>
+        <v>9295</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2831.4</v>
+        <v>2710.4</v>
       </c>
       <c r="J42" t="n">
-        <v>43</v>
+        <v>41.16</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>43.24</v>
+        <v>43.1</v>
       </c>
       <c r="F43" t="n">
-        <v>64860</v>
+        <v>64650</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>405</v>
+        <v>195</v>
       </c>
       <c r="J43" t="n">
-        <v>0.63</v>
+        <v>0.3</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9988</v>
+        <v>2.9471</v>
       </c>
       <c r="F2" t="n">
-        <v>2218.182372</v>
+        <v>2179.940399</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>347.9501760000003</v>
+        <v>309.7082030000001</v>
       </c>
       <c r="J2" t="n">
-        <v>18.6</v>
+        <v>16.56</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.2607</v>
+        <v>3.2389</v>
       </c>
       <c r="F3" t="n">
-        <v>1057.510224</v>
+        <v>1050.440048</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>57.56679999999983</v>
+        <v>50.49662399999988</v>
       </c>
       <c r="J3" t="n">
-        <v>5.76</v>
+        <v>5.05</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2217</v>
+        <v>1.2165</v>
       </c>
       <c r="F4" t="n">
-        <v>6963.69</v>
+        <v>6934.049999999999</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1542.99</v>
+        <v>1513.349999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>28.46</v>
+        <v>27.92</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9789</v>
+        <v>1.9547</v>
       </c>
       <c r="F5" t="n">
-        <v>2346.836877</v>
+        <v>2318.137371</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-53.12966399999959</v>
+        <v>-81.82916999999952</v>
       </c>
       <c r="J5" t="n">
-        <v>-2.21</v>
+        <v>-3.41</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4804</v>
+        <v>1.4782</v>
       </c>
       <c r="F6" t="n">
-        <v>2512.668116</v>
+        <v>2508.934078</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>12.72967500000004</v>
+        <v>8.995636999999988</v>
       </c>
       <c r="J6" t="n">
-        <v>0.51</v>
+        <v>0.36</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4804</v>
+        <v>1.4782</v>
       </c>
       <c r="F7" t="n">
-        <v>5320.705639999999</v>
+        <v>5312.79862</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7188199999991411</v>
+        <v>-7.188200000000506</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01</v>
+        <v>-0.14</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7986</v>
+        <v>1.798</v>
       </c>
       <c r="F8" t="n">
-        <v>23201.94</v>
+        <v>23194.2</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3903.539999999997</v>
+        <v>3895.799999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>20.23</v>
+        <v>20.19</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8934</v>
+        <v>2.868</v>
       </c>
       <c r="F9" t="n">
-        <v>876.1504540000001</v>
+        <v>868.45908</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>127.2104810000001</v>
+        <v>119.519107</v>
       </c>
       <c r="J9" t="n">
-        <v>16.99</v>
+        <v>15.96</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0842</v>
+        <v>2.082</v>
       </c>
       <c r="F10" t="n">
-        <v>2168.464206</v>
+        <v>2166.17526</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>168.4456170000001</v>
+        <v>166.156671</v>
       </c>
       <c r="J10" t="n">
-        <v>8.42</v>
+        <v>8.31</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5607</v>
+        <v>1.5593</v>
       </c>
       <c r="F11" t="n">
-        <v>6456.974860999999</v>
+        <v>6451.182738999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>477.8500649999987</v>
+        <v>472.0579429999989</v>
       </c>
       <c r="J11" t="n">
-        <v>7.99</v>
+        <v>7.9</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5607</v>
+        <v>1.5593</v>
       </c>
       <c r="F12" t="n">
-        <v>9386.159049</v>
+        <v>9377.739350999998</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>286.2697320000007</v>
+        <v>277.8500339999991</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2547</v>
+        <v>2.2337</v>
       </c>
       <c r="F15" t="n">
-        <v>20968.71</v>
+        <v>20773.41</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1522.410000000003</v>
+        <v>1327.110000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>7.83</v>
+        <v>6.82</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.37</v>
+        <v>28.16</v>
       </c>
       <c r="F16" t="n">
-        <v>14185</v>
+        <v>14080</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>370</v>
+        <v>265</v>
       </c>
       <c r="J16" t="n">
-        <v>2.68</v>
+        <v>1.92</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>17800</v>
+        <v>17600</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>40</v>
+        <v>-160</v>
       </c>
       <c r="J17" t="n">
-        <v>0.23</v>
+        <v>-0.9</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1385</v>
+        <v>1.1313</v>
       </c>
       <c r="F18" t="n">
-        <v>4472.244315</v>
+        <v>4443.961347</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>165.7696180000003</v>
+        <v>137.4866500000007</v>
       </c>
       <c r="J18" t="n">
-        <v>3.85</v>
+        <v>3.19</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.639</v>
+        <v>1.631</v>
       </c>
       <c r="F19" t="n">
-        <v>14259.3</v>
+        <v>14189.7</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>800.3999999999996</v>
+        <v>730.8000000000011</v>
       </c>
       <c r="J19" t="n">
-        <v>5.95</v>
+        <v>5.43</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3337</v>
+        <v>1.338</v>
       </c>
       <c r="F20" t="n">
-        <v>10570.719482</v>
+        <v>10604.80068</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>570.6619200000005</v>
+        <v>604.7431180000003</v>
       </c>
       <c r="J20" t="n">
-        <v>5.71</v>
+        <v>6.05</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.234</v>
+        <v>1.2242</v>
       </c>
       <c r="F21" t="n">
-        <v>13944.2</v>
+        <v>13833.46</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1310.800000000001</v>
+        <v>1200.059999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>10.38</v>
+        <v>9.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5601</v>
+        <v>1.5603</v>
       </c>
       <c r="F22" t="n">
-        <v>832.921789</v>
+        <v>833.028567</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>103.788216</v>
+        <v>103.894994</v>
       </c>
       <c r="J22" t="n">
-        <v>14.23</v>
+        <v>14.25</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5601</v>
+        <v>1.5603</v>
       </c>
       <c r="F23" t="n">
-        <v>20159.206574</v>
+        <v>20161.790922</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>958.793107999998</v>
+        <v>961.3774559999983</v>
       </c>
       <c r="J23" t="n">
-        <v>4.99</v>
+        <v>5.01</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4002</v>
+        <v>1.4004</v>
       </c>
       <c r="F24" t="n">
-        <v>916.178864</v>
+        <v>916.3097280000002</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>116.207232</v>
+        <v>116.3380960000002</v>
       </c>
       <c r="J24" t="n">
-        <v>14.53</v>
+        <v>14.54</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8152</v>
+        <v>1.8155</v>
       </c>
       <c r="F28" t="n">
-        <v>7004.49376</v>
+        <v>7005.6514</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>704.6168800000005</v>
+        <v>705.7745199999999</v>
       </c>
       <c r="J28" t="n">
-        <v>11.18</v>
+        <v>11.2</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8152</v>
+        <v>1.8155</v>
       </c>
       <c r="F29" t="n">
-        <v>15809.103208</v>
+        <v>15811.715995</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>809.0930410000001</v>
+        <v>811.7058280000001</v>
       </c>
       <c r="J29" t="n">
-        <v>5.39</v>
+        <v>5.41</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8747</v>
+        <v>1.8597</v>
       </c>
       <c r="F30" t="n">
-        <v>9857.341323000001</v>
+        <v>9778.469972999999</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>976.9531220000008</v>
+        <v>898.0817719999995</v>
       </c>
       <c r="J30" t="n">
-        <v>11</v>
+        <v>10.11</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8747</v>
+        <v>1.8597</v>
       </c>
       <c r="F31" t="n">
-        <v>1264.053969</v>
+        <v>1253.939919</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>64.05565000000001</v>
+        <v>53.94159999999988</v>
       </c>
       <c r="J31" t="n">
-        <v>5.34</v>
+        <v>4.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2135</v>
+        <v>2.2158</v>
       </c>
       <c r="F33" t="n">
-        <v>13502.35</v>
+        <v>13516.38</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1229.149999999998</v>
+        <v>1243.18</v>
       </c>
       <c r="J33" t="n">
-        <v>10.01</v>
+        <v>10.13</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8835</v>
+        <v>5.8053</v>
       </c>
       <c r="F35" t="n">
-        <v>35809.21673</v>
+        <v>35333.261814</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2609.231105999999</v>
+        <v>2133.276189999997</v>
       </c>
       <c r="J35" t="n">
-        <v>7.86</v>
+        <v>6.43</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.8835</v>
+        <v>5.8053</v>
       </c>
       <c r="F36" t="n">
-        <v>12160.37081</v>
+        <v>11998.742358</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>860.4338179999995</v>
+        <v>698.8053660000005</v>
       </c>
       <c r="J36" t="n">
-        <v>7.61</v>
+        <v>6.18</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.8835</v>
+        <v>5.8053</v>
       </c>
       <c r="F37" t="n">
-        <v>88252.5</v>
+        <v>87079.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>4957.5</v>
+        <v>3784.5</v>
       </c>
       <c r="J37" t="n">
-        <v>5.95</v>
+        <v>4.54</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3262</v>
+        <v>2.3308</v>
       </c>
       <c r="F38" t="n">
-        <v>16919.406342</v>
+        <v>16952.864028</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1119.377798999998</v>
+        <v>1152.835485</v>
       </c>
       <c r="J38" t="n">
-        <v>7.08</v>
+        <v>7.3</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3262</v>
+        <v>2.3308</v>
       </c>
       <c r="F39" t="n">
-        <v>24257.404242</v>
+        <v>24305.372628</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1257.605946</v>
+        <v>1305.574332</v>
       </c>
       <c r="J39" t="n">
-        <v>5.47</v>
+        <v>5.68</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8566</v>
+        <v>1.8609</v>
       </c>
       <c r="F40" t="n">
-        <v>12439.22</v>
+        <v>12468.03</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1987.219999999999</v>
+        <v>2016.030000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>19.01</v>
+        <v>19.29</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>8.25</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>8250</v>
+        <v>8140.000000000001</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>1141</v>
+        <v>1031.000000000001</v>
       </c>
       <c r="J41" t="n">
-        <v>16.05</v>
+        <v>14.5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>8.449999999999999</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>9295</v>
+        <v>9108</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2710.4</v>
+        <v>2523.4</v>
       </c>
       <c r="J42" t="n">
-        <v>41.16</v>
+        <v>38.32</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>43.1</v>
+        <v>42.56</v>
       </c>
       <c r="F43" t="n">
-        <v>64650</v>
+        <v>63840</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>195</v>
+        <v>-615</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3</v>
+        <v>-0.95</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9471</v>
+        <v>2.9042</v>
       </c>
       <c r="F2" t="n">
-        <v>2179.940399</v>
+        <v>2148.207698</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>309.7082030000001</v>
+        <v>277.9755020000002</v>
       </c>
       <c r="J2" t="n">
-        <v>16.56</v>
+        <v>14.86</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.2389</v>
+        <v>3.168</v>
       </c>
       <c r="F3" t="n">
-        <v>1050.440048</v>
+        <v>1027.44576</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>50.49662399999988</v>
+        <v>27.50233600000001</v>
       </c>
       <c r="J3" t="n">
-        <v>5.05</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2165</v>
+        <v>1.2071</v>
       </c>
       <c r="F4" t="n">
-        <v>6934.049999999999</v>
+        <v>6880.47</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1513.349999999999</v>
+        <v>1459.77</v>
       </c>
       <c r="J4" t="n">
-        <v>27.92</v>
+        <v>26.93</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9547</v>
+        <v>1.9216</v>
       </c>
       <c r="F5" t="n">
-        <v>2318.137371</v>
+        <v>2278.883088</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-81.82916999999952</v>
+        <v>-121.0834529999997</v>
       </c>
       <c r="J5" t="n">
-        <v>-3.41</v>
+        <v>-5.05</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4782</v>
+        <v>1.4866</v>
       </c>
       <c r="F6" t="n">
-        <v>2508.934078</v>
+        <v>2523.191314</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>8.995636999999988</v>
+        <v>23.25287299999991</v>
       </c>
       <c r="J6" t="n">
-        <v>0.36</v>
+        <v>0.93</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4782</v>
+        <v>1.4866</v>
       </c>
       <c r="F7" t="n">
-        <v>5312.79862</v>
+        <v>5342.98906</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-7.188200000000506</v>
+        <v>23.0022399999998</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.14</v>
+        <v>0.43</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.798</v>
+        <v>1.7397</v>
       </c>
       <c r="F8" t="n">
-        <v>23194.2</v>
+        <v>22442.13</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3895.799999999999</v>
+        <v>3143.73</v>
       </c>
       <c r="J8" t="n">
-        <v>20.19</v>
+        <v>16.29</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.868</v>
+        <v>2.8471</v>
       </c>
       <c r="F9" t="n">
-        <v>868.45908</v>
+        <v>862.130351</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>119.519107</v>
+        <v>113.190378</v>
       </c>
       <c r="J9" t="n">
-        <v>15.96</v>
+        <v>15.11</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.082</v>
+        <v>2.0647</v>
       </c>
       <c r="F10" t="n">
-        <v>2166.17526</v>
+        <v>2148.175821</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>166.156671</v>
+        <v>148.1572320000002</v>
       </c>
       <c r="J10" t="n">
-        <v>8.31</v>
+        <v>7.41</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5593</v>
+        <v>1.5473</v>
       </c>
       <c r="F11" t="n">
-        <v>6451.182738999999</v>
+        <v>6401.535978999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>472.0579429999989</v>
+        <v>422.4111829999993</v>
       </c>
       <c r="J11" t="n">
-        <v>7.9</v>
+        <v>7.06</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5593</v>
+        <v>1.5473</v>
       </c>
       <c r="F12" t="n">
-        <v>9377.739350999998</v>
+        <v>9305.570510999998</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>277.8500339999991</v>
+        <v>205.6811939999989</v>
       </c>
       <c r="J12" t="n">
-        <v>3.05</v>
+        <v>2.26</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2337</v>
+        <v>2.2165</v>
       </c>
       <c r="F15" t="n">
-        <v>20773.41</v>
+        <v>20613.45</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1327.110000000001</v>
+        <v>1167.150000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.16</v>
+        <v>28.15</v>
       </c>
       <c r="F16" t="n">
-        <v>14080</v>
+        <v>14075</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J16" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.800000000000001</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>17600</v>
+        <v>17560</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-160</v>
+        <v>-200</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.9</v>
+        <v>-1.13</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1313</v>
+        <v>1.1257</v>
       </c>
       <c r="F18" t="n">
-        <v>4443.961347</v>
+        <v>4421.963483</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>137.4866500000007</v>
+        <v>115.4887859999999</v>
       </c>
       <c r="J18" t="n">
-        <v>3.19</v>
+        <v>2.68</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.631</v>
+        <v>1.6085</v>
       </c>
       <c r="F19" t="n">
-        <v>14189.7</v>
+        <v>13993.95</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>730.8000000000011</v>
+        <v>535.0500000000011</v>
       </c>
       <c r="J19" t="n">
-        <v>5.43</v>
+        <v>3.98</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.338</v>
+        <v>1.3146</v>
       </c>
       <c r="F20" t="n">
-        <v>10604.80068</v>
+        <v>10419.335556</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>604.7431180000003</v>
+        <v>419.277994</v>
       </c>
       <c r="J20" t="n">
-        <v>6.05</v>
+        <v>4.19</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2242</v>
+        <v>1.2154</v>
       </c>
       <c r="F21" t="n">
-        <v>13833.46</v>
+        <v>13734.02</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1200.059999999999</v>
+        <v>1100.620000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>9.5</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5603</v>
+        <v>1.5489</v>
       </c>
       <c r="F22" t="n">
-        <v>833.028567</v>
+        <v>826.9422209999999</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>103.894994</v>
+        <v>97.80864799999995</v>
       </c>
       <c r="J22" t="n">
-        <v>14.25</v>
+        <v>13.41</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5603</v>
+        <v>1.5489</v>
       </c>
       <c r="F23" t="n">
-        <v>20161.790922</v>
+        <v>20014.483086</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>961.3774559999983</v>
+        <v>814.0696199999984</v>
       </c>
       <c r="J23" t="n">
-        <v>5.01</v>
+        <v>4.24</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4004</v>
+        <v>1.3895</v>
       </c>
       <c r="F24" t="n">
-        <v>916.3097280000002</v>
+        <v>909.17764</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>116.3380960000002</v>
+        <v>109.206008</v>
       </c>
       <c r="J24" t="n">
-        <v>14.54</v>
+        <v>13.65</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.6552</v>
+        <v>5.6077</v>
       </c>
       <c r="F26" t="n">
-        <v>2348.830768</v>
+        <v>2329.102118</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>248.8301939999997</v>
+        <v>229.1015439999996</v>
       </c>
       <c r="J26" t="n">
-        <v>11.85</v>
+        <v>10.91</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8155</v>
+        <v>1.8008</v>
       </c>
       <c r="F28" t="n">
-        <v>7005.6514</v>
+        <v>6948.92704</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>705.7745199999999</v>
+        <v>649.0501600000007</v>
       </c>
       <c r="J28" t="n">
-        <v>11.2</v>
+        <v>10.3</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8155</v>
+        <v>1.8008</v>
       </c>
       <c r="F29" t="n">
-        <v>15811.715995</v>
+        <v>15683.689432</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>811.7058280000001</v>
+        <v>683.6792650000007</v>
       </c>
       <c r="J29" t="n">
-        <v>5.41</v>
+        <v>4.56</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8597</v>
+        <v>1.8397</v>
       </c>
       <c r="F30" t="n">
-        <v>9778.469972999999</v>
+        <v>9673.308172999999</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>898.0817719999995</v>
+        <v>792.9199719999997</v>
       </c>
       <c r="J30" t="n">
-        <v>10.11</v>
+        <v>8.93</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8597</v>
+        <v>1.8397</v>
       </c>
       <c r="F31" t="n">
-        <v>1253.939919</v>
+        <v>1240.454519</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94159999999988</v>
+        <v>40.45619999999985</v>
       </c>
       <c r="J31" t="n">
-        <v>4.5</v>
+        <v>3.37</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2158</v>
+        <v>2.199</v>
       </c>
       <c r="F33" t="n">
-        <v>13516.38</v>
+        <v>13413.9</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1243.18</v>
+        <v>1140.699999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>10.13</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.77</v>
+        <v>1.755</v>
       </c>
       <c r="F34" t="n">
-        <v>33807</v>
+        <v>33520.5</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2635.799999999999</v>
+        <v>2349.299999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>8.460000000000001</v>
+        <v>7.54</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8053</v>
+        <v>5.718</v>
       </c>
       <c r="F35" t="n">
-        <v>35333.261814</v>
+        <v>34801.92084</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2133.276189999997</v>
+        <v>1601.935215999998</v>
       </c>
       <c r="J35" t="n">
-        <v>6.43</v>
+        <v>4.83</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.8053</v>
+        <v>5.718</v>
       </c>
       <c r="F36" t="n">
-        <v>11998.742358</v>
+        <v>11818.30548</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>698.8053660000005</v>
+        <v>518.3684880000001</v>
       </c>
       <c r="J36" t="n">
-        <v>6.18</v>
+        <v>4.59</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.8053</v>
+        <v>5.718</v>
       </c>
       <c r="F37" t="n">
-        <v>87079.5</v>
+        <v>85770</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>3784.5</v>
+        <v>2475</v>
       </c>
       <c r="J37" t="n">
-        <v>4.54</v>
+        <v>2.97</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3308</v>
+        <v>2.3128</v>
       </c>
       <c r="F38" t="n">
-        <v>16952.864028</v>
+        <v>16821.942648</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1152.835485</v>
+        <v>1021.914105</v>
       </c>
       <c r="J38" t="n">
-        <v>7.3</v>
+        <v>6.47</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3308</v>
+        <v>2.3128</v>
       </c>
       <c r="F39" t="n">
-        <v>24305.372628</v>
+        <v>24117.670248</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1305.574332</v>
+        <v>1117.871952000001</v>
       </c>
       <c r="J39" t="n">
-        <v>5.68</v>
+        <v>4.86</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8609</v>
+        <v>1.8466</v>
       </c>
       <c r="F40" t="n">
-        <v>12468.03</v>
+        <v>12372.22</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2016.030000000001</v>
+        <v>1920.219999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>19.29</v>
+        <v>18.37</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>8.140000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>8140.000000000001</v>
+        <v>8200</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>1031.000000000001</v>
+        <v>1091</v>
       </c>
       <c r="J41" t="n">
-        <v>14.5</v>
+        <v>15.35</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>8.279999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>9108</v>
+        <v>9020</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2523.4</v>
+        <v>2435.4</v>
       </c>
       <c r="J42" t="n">
-        <v>38.32</v>
+        <v>36.99</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>42.56</v>
+        <v>42.88</v>
       </c>
       <c r="F43" t="n">
-        <v>63840</v>
+        <v>64320.00000000001</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-615</v>
+        <v>-134.9999999999927</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.95</v>
+        <v>-0.21</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9042</v>
+        <v>2.9583</v>
       </c>
       <c r="F2" t="n">
-        <v>2148.207698</v>
+        <v>2188.224927</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>277.9755020000002</v>
+        <v>317.9927310000003</v>
       </c>
       <c r="J2" t="n">
-        <v>14.86</v>
+        <v>17</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.168</v>
+        <v>3.1705</v>
       </c>
       <c r="F3" t="n">
-        <v>1027.44576</v>
+        <v>1028.25656</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>27.50233600000001</v>
+        <v>28.31313599999999</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.83</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2071</v>
+        <v>1.2106</v>
       </c>
       <c r="F4" t="n">
-        <v>6880.47</v>
+        <v>6900.419999999999</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1459.77</v>
+        <v>1479.719999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>26.93</v>
+        <v>27.3</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9216</v>
+        <v>1.9186</v>
       </c>
       <c r="F5" t="n">
-        <v>2278.883088</v>
+        <v>2275.325298</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-121.0834529999997</v>
+        <v>-124.6412429999996</v>
       </c>
       <c r="J5" t="n">
-        <v>-5.05</v>
+        <v>-5.19</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4866</v>
+        <v>1.4816</v>
       </c>
       <c r="F6" t="n">
-        <v>2523.191314</v>
+        <v>2514.704864</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>23.25287299999991</v>
+        <v>14.76642300000003</v>
       </c>
       <c r="J6" t="n">
-        <v>0.93</v>
+        <v>0.59</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4866</v>
+        <v>1.4816</v>
       </c>
       <c r="F7" t="n">
-        <v>5342.98906</v>
+        <v>5325.01856</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>23.0022399999998</v>
+        <v>5.031739999999445</v>
       </c>
       <c r="J7" t="n">
-        <v>0.43</v>
+        <v>0.09</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7397</v>
+        <v>1.7289</v>
       </c>
       <c r="F8" t="n">
-        <v>22442.13</v>
+        <v>22302.81</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3143.73</v>
+        <v>3004.41</v>
       </c>
       <c r="J8" t="n">
-        <v>16.29</v>
+        <v>15.57</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8471</v>
+        <v>2.8577</v>
       </c>
       <c r="F9" t="n">
-        <v>862.130351</v>
+        <v>865.340137</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>113.190378</v>
+        <v>116.400164</v>
       </c>
       <c r="J9" t="n">
-        <v>15.11</v>
+        <v>15.54</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0647</v>
+        <v>2.0485</v>
       </c>
       <c r="F10" t="n">
-        <v>2148.175821</v>
+        <v>2131.320855</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>148.1572320000002</v>
+        <v>131.3022660000004</v>
       </c>
       <c r="J10" t="n">
-        <v>7.41</v>
+        <v>6.57</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5473</v>
+        <v>1.5371</v>
       </c>
       <c r="F11" t="n">
-        <v>6401.535978999999</v>
+        <v>6359.336232999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>422.4111829999993</v>
+        <v>380.211436999999</v>
       </c>
       <c r="J11" t="n">
-        <v>7.06</v>
+        <v>6.36</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5473</v>
+        <v>1.5371</v>
       </c>
       <c r="F12" t="n">
-        <v>9305.570510999998</v>
+        <v>9244.226997</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>205.6811939999989</v>
+        <v>144.3376800000005</v>
       </c>
       <c r="J12" t="n">
-        <v>2.26</v>
+        <v>1.59</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2165</v>
+        <v>2.2255</v>
       </c>
       <c r="F15" t="n">
-        <v>20613.45</v>
+        <v>20697.15</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1167.150000000001</v>
+        <v>1250.849999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>6.43</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.15</v>
+        <v>28.18</v>
       </c>
       <c r="F16" t="n">
-        <v>14075</v>
+        <v>14090</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="J16" t="n">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.779999999999999</v>
+        <v>8.75</v>
       </c>
       <c r="F17" t="n">
-        <v>17560</v>
+        <v>17500</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-200</v>
+        <v>-260</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.13</v>
+        <v>-1.46</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1257</v>
+        <v>1.1319</v>
       </c>
       <c r="F18" t="n">
-        <v>4421.963483</v>
+        <v>4446.318260999999</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>115.4887859999999</v>
+        <v>139.8435639999998</v>
       </c>
       <c r="J18" t="n">
-        <v>2.68</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6085</v>
+        <v>1.611</v>
       </c>
       <c r="F19" t="n">
-        <v>13993.95</v>
+        <v>14015.7</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>535.0500000000011</v>
+        <v>556.8000000000011</v>
       </c>
       <c r="J19" t="n">
-        <v>3.98</v>
+        <v>4.14</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3146</v>
+        <v>1.3173</v>
       </c>
       <c r="F20" t="n">
-        <v>10419.335556</v>
+        <v>10440.735378</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>419.277994</v>
+        <v>440.6778159999994</v>
       </c>
       <c r="J20" t="n">
-        <v>4.19</v>
+        <v>4.41</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2154</v>
+        <v>1.2184</v>
       </c>
       <c r="F21" t="n">
-        <v>13734.02</v>
+        <v>13767.92</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1100.620000000001</v>
+        <v>1134.52</v>
       </c>
       <c r="J21" t="n">
-        <v>8.710000000000001</v>
+        <v>8.98</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5489</v>
+        <v>1.5339</v>
       </c>
       <c r="F22" t="n">
-        <v>826.9422209999999</v>
+        <v>818.933871</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>97.80864799999995</v>
+        <v>89.800298</v>
       </c>
       <c r="J22" t="n">
-        <v>13.41</v>
+        <v>12.32</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5489</v>
+        <v>1.5339</v>
       </c>
       <c r="F23" t="n">
-        <v>20014.483086</v>
+        <v>19820.656986</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>814.0696199999984</v>
+        <v>620.24352</v>
       </c>
       <c r="J23" t="n">
-        <v>4.24</v>
+        <v>3.23</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3895</v>
+        <v>1.3749</v>
       </c>
       <c r="F24" t="n">
-        <v>909.17764</v>
+        <v>899.6245680000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>109.206008</v>
+        <v>99.65293600000007</v>
       </c>
       <c r="J24" t="n">
-        <v>13.65</v>
+        <v>12.46</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.6077</v>
+        <v>5.545</v>
       </c>
       <c r="F26" t="n">
-        <v>2329.102118</v>
+        <v>2303.0603</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>229.1015439999996</v>
+        <v>203.0597259999995</v>
       </c>
       <c r="J26" t="n">
-        <v>10.91</v>
+        <v>9.67</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8008</v>
+        <v>1.7812</v>
       </c>
       <c r="F28" t="n">
-        <v>6948.92704</v>
+        <v>6873.29456</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>649.0501600000007</v>
+        <v>573.4176800000005</v>
       </c>
       <c r="J28" t="n">
-        <v>10.3</v>
+        <v>9.1</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8008</v>
+        <v>1.7812</v>
       </c>
       <c r="F29" t="n">
-        <v>15683.689432</v>
+        <v>15512.987348</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>683.6792650000007</v>
+        <v>512.9771810000002</v>
       </c>
       <c r="J29" t="n">
-        <v>4.56</v>
+        <v>3.42</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8397</v>
+        <v>1.8498</v>
       </c>
       <c r="F30" t="n">
-        <v>9673.308172999999</v>
+        <v>9726.414882000001</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>792.9199719999997</v>
+        <v>846.0266810000012</v>
       </c>
       <c r="J30" t="n">
-        <v>8.93</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8397</v>
+        <v>1.8498</v>
       </c>
       <c r="F31" t="n">
-        <v>1240.454519</v>
+        <v>1247.264646</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>40.45619999999985</v>
+        <v>47.26632700000005</v>
       </c>
       <c r="J31" t="n">
-        <v>3.37</v>
+        <v>3.94</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.199</v>
+        <v>2.1753</v>
       </c>
       <c r="F33" t="n">
-        <v>13413.9</v>
+        <v>13269.33</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1140.699999999999</v>
+        <v>996.1299999999992</v>
       </c>
       <c r="J33" t="n">
-        <v>9.289999999999999</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.755</v>
+        <v>1.735</v>
       </c>
       <c r="F34" t="n">
-        <v>33520.5</v>
+        <v>33138.5</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2349.299999999999</v>
+        <v>1967.299999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>7.54</v>
+        <v>6.31</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.718</v>
+        <v>5.7672</v>
       </c>
       <c r="F35" t="n">
-        <v>34801.92084</v>
+        <v>35101.370736</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1601.935215999998</v>
+        <v>1901.385111999996</v>
       </c>
       <c r="J35" t="n">
-        <v>4.83</v>
+        <v>5.73</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.718</v>
+        <v>5.7672</v>
       </c>
       <c r="F36" t="n">
-        <v>11818.30548</v>
+        <v>11919.994992</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>518.3684880000001</v>
+        <v>620.0579999999991</v>
       </c>
       <c r="J36" t="n">
-        <v>4.59</v>
+        <v>5.49</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.718</v>
+        <v>5.7672</v>
       </c>
       <c r="F37" t="n">
-        <v>85770</v>
+        <v>86508</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>2475</v>
+        <v>3213</v>
       </c>
       <c r="J37" t="n">
-        <v>2.97</v>
+        <v>3.86</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3128</v>
+        <v>2.2855</v>
       </c>
       <c r="F38" t="n">
-        <v>16821.942648</v>
+        <v>16623.378555</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1021.914105</v>
+        <v>823.350011999999</v>
       </c>
       <c r="J38" t="n">
-        <v>6.47</v>
+        <v>5.21</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3128</v>
+        <v>2.2855</v>
       </c>
       <c r="F39" t="n">
-        <v>24117.670248</v>
+        <v>23832.988305</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1117.871952000001</v>
+        <v>833.1900089999981</v>
       </c>
       <c r="J39" t="n">
-        <v>4.86</v>
+        <v>3.62</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8466</v>
+        <v>1.8232</v>
       </c>
       <c r="F40" t="n">
-        <v>12372.22</v>
+        <v>12215.44</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1920.219999999999</v>
+        <v>1763.439999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>18.37</v>
+        <v>16.87</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>8.199999999999999</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>8200</v>
+        <v>8210</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>1091</v>
+        <v>1101</v>
       </c>
       <c r="J41" t="n">
-        <v>15.35</v>
+        <v>15.49</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>8.199999999999999</v>
+        <v>8.19</v>
       </c>
       <c r="F42" t="n">
-        <v>9020</v>
+        <v>9009</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2435.4</v>
+        <v>2424.4</v>
       </c>
       <c r="J42" t="n">
-        <v>36.99</v>
+        <v>36.82</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>42.88</v>
+        <v>43.22</v>
       </c>
       <c r="F43" t="n">
-        <v>64320.00000000001</v>
+        <v>64830</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-134.9999999999927</v>
+        <v>375</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.21</v>
+        <v>0.58</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9583</v>
+        <v>2.9431</v>
       </c>
       <c r="F2" t="n">
-        <v>2188.224927</v>
+        <v>2176.981639</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>317.9927310000003</v>
+        <v>306.7494430000002</v>
       </c>
       <c r="J2" t="n">
-        <v>17</v>
+        <v>16.4</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.1705</v>
+        <v>3.136</v>
       </c>
       <c r="F3" t="n">
-        <v>1028.25656</v>
+        <v>1017.06752</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>28.31313599999999</v>
+        <v>17.12409600000001</v>
       </c>
       <c r="J3" t="n">
-        <v>2.83</v>
+        <v>1.71</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2106</v>
+        <v>1.2025</v>
       </c>
       <c r="F4" t="n">
-        <v>6900.419999999999</v>
+        <v>6854.249999999999</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1479.719999999999</v>
+        <v>1433.549999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>27.3</v>
+        <v>26.45</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4816</v>
+        <v>1.4884</v>
       </c>
       <c r="F6" t="n">
-        <v>2514.704864</v>
+        <v>2526.246436</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>14.76642300000003</v>
+        <v>26.30799500000012</v>
       </c>
       <c r="J6" t="n">
-        <v>0.59</v>
+        <v>1.05</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4816</v>
+        <v>1.4884</v>
       </c>
       <c r="F7" t="n">
-        <v>5325.01856</v>
+        <v>5349.458439999999</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>5.031739999999445</v>
+        <v>29.47161999999935</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09</v>
+        <v>0.55</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7289</v>
+        <v>1.7476</v>
       </c>
       <c r="F8" t="n">
-        <v>22302.81</v>
+        <v>22544.04</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3004.41</v>
+        <v>3245.639999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>15.57</v>
+        <v>16.82</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8577</v>
+        <v>2.8168</v>
       </c>
       <c r="F9" t="n">
-        <v>865.340137</v>
+        <v>852.9552080000001</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>116.400164</v>
+        <v>104.0152350000001</v>
       </c>
       <c r="J9" t="n">
-        <v>15.54</v>
+        <v>13.89</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0485</v>
+        <v>2.0552</v>
       </c>
       <c r="F10" t="n">
-        <v>2131.320855</v>
+        <v>2138.291736</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>131.3022660000004</v>
+        <v>138.2731470000001</v>
       </c>
       <c r="J10" t="n">
-        <v>6.57</v>
+        <v>6.91</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5371</v>
+        <v>1.5424</v>
       </c>
       <c r="F11" t="n">
-        <v>6359.336232999999</v>
+        <v>6381.263551999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>380.211436999999</v>
+        <v>402.1387559999994</v>
       </c>
       <c r="J11" t="n">
-        <v>6.36</v>
+        <v>6.73</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5371</v>
+        <v>1.5424</v>
       </c>
       <c r="F12" t="n">
-        <v>9244.226997</v>
+        <v>9276.101568</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>144.3376800000005</v>
+        <v>176.2122510000008</v>
       </c>
       <c r="J12" t="n">
-        <v>1.59</v>
+        <v>1.94</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2255</v>
+        <v>2.1919</v>
       </c>
       <c r="F15" t="n">
-        <v>20697.15</v>
+        <v>20384.67</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1250.849999999999</v>
+        <v>938.369999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>6.43</v>
+        <v>4.83</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.18</v>
+        <v>28.17</v>
       </c>
       <c r="F16" t="n">
-        <v>14090</v>
+        <v>14085</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="J16" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.75</v>
+        <v>8.73</v>
       </c>
       <c r="F17" t="n">
-        <v>17500</v>
+        <v>17460</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-260</v>
+        <v>-300</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.46</v>
+        <v>-1.69</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1319</v>
+        <v>1.1335</v>
       </c>
       <c r="F18" t="n">
-        <v>4446.318260999999</v>
+        <v>4452.603365</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>139.8435639999998</v>
+        <v>146.1286680000003</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>3.39</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.611</v>
+        <v>1.6079</v>
       </c>
       <c r="F19" t="n">
-        <v>14015.7</v>
+        <v>13988.73</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>556.8000000000011</v>
+        <v>529.8300000000017</v>
       </c>
       <c r="J19" t="n">
-        <v>4.14</v>
+        <v>3.94</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3173</v>
+        <v>1.318</v>
       </c>
       <c r="F20" t="n">
-        <v>10440.735378</v>
+        <v>10446.28348</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>440.6778159999994</v>
+        <v>446.2259180000001</v>
       </c>
       <c r="J20" t="n">
-        <v>4.41</v>
+        <v>4.46</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2184</v>
+        <v>1.2237</v>
       </c>
       <c r="F21" t="n">
-        <v>13767.92</v>
+        <v>13827.81</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1134.52</v>
+        <v>1194.41</v>
       </c>
       <c r="J21" t="n">
-        <v>8.98</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5339</v>
+        <v>1.5414</v>
       </c>
       <c r="F22" t="n">
-        <v>818.933871</v>
+        <v>822.938046</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>89.800298</v>
+        <v>93.80447300000003</v>
       </c>
       <c r="J22" t="n">
-        <v>12.32</v>
+        <v>12.87</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5339</v>
+        <v>1.5414</v>
       </c>
       <c r="F23" t="n">
-        <v>19820.656986</v>
+        <v>19917.570036</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>620.24352</v>
+        <v>717.1565699999992</v>
       </c>
       <c r="J23" t="n">
-        <v>3.23</v>
+        <v>3.74</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3749</v>
+        <v>1.3823</v>
       </c>
       <c r="F24" t="n">
-        <v>899.6245680000001</v>
+        <v>904.4665360000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>99.65293600000007</v>
+        <v>104.4949040000001</v>
       </c>
       <c r="J24" t="n">
-        <v>12.46</v>
+        <v>13.06</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.545</v>
+        <v>5.5759</v>
       </c>
       <c r="F26" t="n">
-        <v>2303.0603</v>
+        <v>2315.894306</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>203.0597259999995</v>
+        <v>215.8937319999995</v>
       </c>
       <c r="J26" t="n">
-        <v>9.67</v>
+        <v>10.28</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.7812</v>
+        <v>1.791</v>
       </c>
       <c r="F28" t="n">
-        <v>6873.29456</v>
+        <v>6911.1108</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>573.4176800000005</v>
+        <v>611.2339200000006</v>
       </c>
       <c r="J28" t="n">
-        <v>9.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.7812</v>
+        <v>1.791</v>
       </c>
       <c r="F29" t="n">
-        <v>15512.987348</v>
+        <v>15598.33839</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>512.9771810000002</v>
+        <v>598.3282230000004</v>
       </c>
       <c r="J29" t="n">
-        <v>3.42</v>
+        <v>3.99</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8498</v>
+        <v>1.8091</v>
       </c>
       <c r="F30" t="n">
-        <v>9726.414882000001</v>
+        <v>9512.410619</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>846.0266810000012</v>
+        <v>632.0224180000005</v>
       </c>
       <c r="J30" t="n">
-        <v>9.529999999999999</v>
+        <v>7.12</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8498</v>
+        <v>1.8091</v>
       </c>
       <c r="F31" t="n">
-        <v>1247.264646</v>
+        <v>1219.821857</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>47.26632700000005</v>
+        <v>19.82353799999987</v>
       </c>
       <c r="J31" t="n">
-        <v>3.94</v>
+        <v>1.65</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.1753</v>
+        <v>2.1864</v>
       </c>
       <c r="F33" t="n">
-        <v>13269.33</v>
+        <v>13337.04</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>996.1299999999992</v>
+        <v>1063.839999999998</v>
       </c>
       <c r="J33" t="n">
-        <v>8.119999999999999</v>
+        <v>8.67</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.735</v>
+        <v>1.745</v>
       </c>
       <c r="F34" t="n">
-        <v>33138.5</v>
+        <v>33329.5</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>1967.299999999999</v>
+        <v>2158.299999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>6.31</v>
+        <v>6.92</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.7672</v>
+        <v>5.6272</v>
       </c>
       <c r="F35" t="n">
-        <v>35101.370736</v>
+        <v>34249.277536</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1901.385111999996</v>
+        <v>1049.291912000001</v>
       </c>
       <c r="J35" t="n">
-        <v>5.73</v>
+        <v>3.16</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.7672</v>
+        <v>5.6272</v>
       </c>
       <c r="F36" t="n">
-        <v>11919.994992</v>
+        <v>11630.634592</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>620.0579999999991</v>
+        <v>330.6975999999995</v>
       </c>
       <c r="J36" t="n">
-        <v>5.49</v>
+        <v>2.93</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.7672</v>
+        <v>5.6272</v>
       </c>
       <c r="F37" t="n">
-        <v>86508</v>
+        <v>84408</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>3213</v>
+        <v>1113</v>
       </c>
       <c r="J37" t="n">
-        <v>3.86</v>
+        <v>1.34</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.2855</v>
+        <v>2.3063</v>
       </c>
       <c r="F38" t="n">
-        <v>16623.378555</v>
+        <v>16774.665483</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>823.350011999999</v>
+        <v>974.6369399999967</v>
       </c>
       <c r="J38" t="n">
-        <v>5.21</v>
+        <v>6.17</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.2855</v>
+        <v>2.3063</v>
       </c>
       <c r="F39" t="n">
-        <v>23832.988305</v>
+        <v>24049.888833</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>833.1900089999981</v>
+        <v>1050.090536999996</v>
       </c>
       <c r="J39" t="n">
-        <v>3.62</v>
+        <v>4.57</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8232</v>
+        <v>1.842</v>
       </c>
       <c r="F40" t="n">
-        <v>12215.44</v>
+        <v>12341.4</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1763.439999999999</v>
+        <v>1889.400000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>16.87</v>
+        <v>18.08</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>8.210000000000001</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>8210</v>
+        <v>8280</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>1101</v>
+        <v>1171</v>
       </c>
       <c r="J41" t="n">
-        <v>15.49</v>
+        <v>16.47</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>8.19</v>
+        <v>8.15</v>
       </c>
       <c r="F42" t="n">
-        <v>9009</v>
+        <v>8965</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2424.4</v>
+        <v>2380.4</v>
       </c>
       <c r="J42" t="n">
-        <v>36.82</v>
+        <v>36.15</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>43.22</v>
+        <v>43.24</v>
       </c>
       <c r="F43" t="n">
-        <v>64830</v>
+        <v>64860</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="J43" t="n">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9431</v>
+        <v>2.9265</v>
       </c>
       <c r="F2" t="n">
-        <v>2176.981639</v>
+        <v>2164.702785</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>306.7494430000002</v>
+        <v>294.470589</v>
       </c>
       <c r="J2" t="n">
-        <v>16.4</v>
+        <v>15.75</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2025</v>
+        <v>1.1697</v>
       </c>
       <c r="F4" t="n">
-        <v>6854.249999999999</v>
+        <v>6667.29</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1433.549999999999</v>
+        <v>1246.59</v>
       </c>
       <c r="J4" t="n">
-        <v>26.45</v>
+        <v>23</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9186</v>
+        <v>1.9215</v>
       </c>
       <c r="F5" t="n">
-        <v>2275.325298</v>
+        <v>2278.764495</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-124.6412429999996</v>
+        <v>-121.2020459999999</v>
       </c>
       <c r="J5" t="n">
-        <v>-5.19</v>
+        <v>-5.05</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4884</v>
+        <v>1.4887</v>
       </c>
       <c r="F6" t="n">
-        <v>2526.246436</v>
+        <v>2526.755623</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>26.30799500000012</v>
+        <v>26.81718200000023</v>
       </c>
       <c r="J6" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4884</v>
+        <v>1.4887</v>
       </c>
       <c r="F7" t="n">
-        <v>5349.458439999999</v>
+        <v>5350.53667</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>29.47161999999935</v>
+        <v>30.54984999999942</v>
       </c>
       <c r="J7" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7476</v>
+        <v>1.7122</v>
       </c>
       <c r="F8" t="n">
-        <v>22544.04</v>
+        <v>22087.38</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3245.639999999999</v>
+        <v>2788.98</v>
       </c>
       <c r="J8" t="n">
-        <v>16.82</v>
+        <v>14.45</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0552</v>
+        <v>2.032</v>
       </c>
       <c r="F10" t="n">
-        <v>2138.291736</v>
+        <v>2114.15376</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>138.2731470000001</v>
+        <v>114.1351710000001</v>
       </c>
       <c r="J10" t="n">
-        <v>6.91</v>
+        <v>5.71</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5424</v>
+        <v>1.5232</v>
       </c>
       <c r="F11" t="n">
-        <v>6381.263551999999</v>
+        <v>6301.828735999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>402.1387559999994</v>
+        <v>322.7039399999994</v>
       </c>
       <c r="J11" t="n">
-        <v>6.73</v>
+        <v>5.4</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5424</v>
+        <v>1.5232</v>
       </c>
       <c r="F12" t="n">
-        <v>9276.101568</v>
+        <v>9160.631424000001</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>176.2122510000008</v>
+        <v>60.74210700000185</v>
       </c>
       <c r="J12" t="n">
-        <v>1.94</v>
+        <v>0.67</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1335</v>
+        <v>1.1211</v>
       </c>
       <c r="F18" t="n">
-        <v>4452.603365</v>
+        <v>4403.893809</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>146.1286680000003</v>
+        <v>97.4191120000005</v>
       </c>
       <c r="J18" t="n">
-        <v>3.39</v>
+        <v>2.26</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6079</v>
+        <v>1.5797</v>
       </c>
       <c r="F19" t="n">
-        <v>13988.73</v>
+        <v>13743.39</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>529.8300000000017</v>
+        <v>284.4900000000016</v>
       </c>
       <c r="J19" t="n">
-        <v>3.94</v>
+        <v>2.11</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.318</v>
+        <v>1.2942</v>
       </c>
       <c r="F20" t="n">
-        <v>10446.28348</v>
+        <v>10257.648012</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>446.2259180000001</v>
+        <v>257.5904499999997</v>
       </c>
       <c r="J20" t="n">
-        <v>4.46</v>
+        <v>2.58</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2237</v>
+        <v>1.2094</v>
       </c>
       <c r="F21" t="n">
-        <v>13827.81</v>
+        <v>13666.22</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1194.41</v>
+        <v>1032.820000000002</v>
       </c>
       <c r="J21" t="n">
-        <v>9.449999999999999</v>
+        <v>8.18</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5414</v>
+        <v>1.511</v>
       </c>
       <c r="F22" t="n">
-        <v>822.938046</v>
+        <v>806.7077899999999</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>93.80447300000003</v>
+        <v>77.57421699999998</v>
       </c>
       <c r="J22" t="n">
-        <v>12.87</v>
+        <v>10.64</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5414</v>
+        <v>1.511</v>
       </c>
       <c r="F23" t="n">
-        <v>19917.570036</v>
+        <v>19524.74914</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>717.1565699999992</v>
+        <v>324.3356739999981</v>
       </c>
       <c r="J23" t="n">
-        <v>3.74</v>
+        <v>1.69</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3823</v>
+        <v>1.3525</v>
       </c>
       <c r="F24" t="n">
-        <v>904.4665360000001</v>
+        <v>884.9678000000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>104.4949040000001</v>
+        <v>84.99616800000013</v>
       </c>
       <c r="J24" t="n">
-        <v>13.06</v>
+        <v>10.62</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.5759</v>
+        <v>5.4481</v>
       </c>
       <c r="F26" t="n">
-        <v>2315.894306</v>
+        <v>2262.813854</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>215.8937319999995</v>
+        <v>162.8132799999998</v>
       </c>
       <c r="J26" t="n">
-        <v>10.28</v>
+        <v>7.75</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.791</v>
+        <v>1.7515</v>
       </c>
       <c r="F28" t="n">
-        <v>6911.1108</v>
+        <v>6758.688200000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>611.2339200000006</v>
+        <v>458.8113200000007</v>
       </c>
       <c r="J28" t="n">
-        <v>9.699999999999999</v>
+        <v>7.28</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.791</v>
+        <v>1.7515</v>
       </c>
       <c r="F29" t="n">
-        <v>15598.33839</v>
+        <v>15254.321435</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>598.3282230000004</v>
+        <v>254.3112680000013</v>
       </c>
       <c r="J29" t="n">
-        <v>3.99</v>
+        <v>1.7</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.1864</v>
+        <v>2.1367</v>
       </c>
       <c r="F33" t="n">
-        <v>13337.04</v>
+        <v>13033.87</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1063.839999999998</v>
+        <v>760.6699999999983</v>
       </c>
       <c r="J33" t="n">
-        <v>8.67</v>
+        <v>6.2</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.745</v>
+        <v>1.705</v>
       </c>
       <c r="F34" t="n">
-        <v>33329.5</v>
+        <v>32565.5</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2158.299999999999</v>
+        <v>1394.299999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>6.92</v>
+        <v>4.47</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3063</v>
+        <v>2.2531</v>
       </c>
       <c r="F38" t="n">
-        <v>16774.665483</v>
+        <v>16387.720071</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>974.6369399999967</v>
+        <v>587.6915279999994</v>
       </c>
       <c r="J38" t="n">
-        <v>6.17</v>
+        <v>3.72</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3063</v>
+        <v>2.2531</v>
       </c>
       <c r="F39" t="n">
-        <v>24049.888833</v>
+        <v>23495.124021</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1050.090536999996</v>
+        <v>495.3257249999988</v>
       </c>
       <c r="J39" t="n">
-        <v>4.57</v>
+        <v>2.15</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.842</v>
+        <v>1.7972</v>
       </c>
       <c r="F40" t="n">
-        <v>12341.4</v>
+        <v>12041.24</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1889.400000000001</v>
+        <v>1589.24</v>
       </c>
       <c r="J40" t="n">
-        <v>18.08</v>
+        <v>15.21</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.136</v>
+        <v>3.0696</v>
       </c>
       <c r="F3" t="n">
-        <v>1017.06752</v>
+        <v>995.5326719999999</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>17.12409600000001</v>
+        <v>-4.410752000000116</v>
       </c>
       <c r="J3" t="n">
-        <v>1.71</v>
+        <v>-0.44</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8168</v>
+        <v>2.8417</v>
       </c>
       <c r="F9" t="n">
-        <v>852.9552080000001</v>
+        <v>860.495177</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>104.0152350000001</v>
+        <v>111.555204</v>
       </c>
       <c r="J9" t="n">
-        <v>13.89</v>
+        <v>14.9</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.1919</v>
+        <v>2.2129</v>
       </c>
       <c r="F15" t="n">
-        <v>20384.67</v>
+        <v>20579.97</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>938.369999999999</v>
+        <v>1133.669999999998</v>
       </c>
       <c r="J15" t="n">
-        <v>4.83</v>
+        <v>5.83</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.17</v>
+        <v>28.18</v>
       </c>
       <c r="F16" t="n">
-        <v>14085</v>
+        <v>14090</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="J16" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.73</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>17460</v>
+        <v>17400</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-300</v>
+        <v>-360</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.69</v>
+        <v>-2.03</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8091</v>
+        <v>1.8216</v>
       </c>
       <c r="F30" t="n">
-        <v>9512.410619</v>
+        <v>9578.136744000001</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>632.0224180000005</v>
+        <v>697.7485430000015</v>
       </c>
       <c r="J30" t="n">
-        <v>7.12</v>
+        <v>7.86</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8091</v>
+        <v>1.8216</v>
       </c>
       <c r="F31" t="n">
-        <v>1219.821857</v>
+        <v>1228.250232</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>19.82353799999987</v>
+        <v>28.25191300000006</v>
       </c>
       <c r="J31" t="n">
-        <v>1.65</v>
+        <v>2.35</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>8.279999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>8280</v>
+        <v>8200</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>1171</v>
+        <v>1091</v>
       </c>
       <c r="J41" t="n">
-        <v>16.47</v>
+        <v>15.35</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>8.15</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>8965</v>
+        <v>8843.999999999998</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2380.4</v>
+        <v>2259.399999999998</v>
       </c>
       <c r="J42" t="n">
-        <v>36.15</v>
+        <v>34.31</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>43.24</v>
+        <v>43.1</v>
       </c>
       <c r="F43" t="n">
-        <v>64860</v>
+        <v>64650</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>405</v>
+        <v>195</v>
       </c>
       <c r="J43" t="n">
-        <v>0.63</v>
+        <v>0.3</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9265</v>
+        <v>2.9304</v>
       </c>
       <c r="F2" t="n">
-        <v>2164.702785</v>
+        <v>2167.587576</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>294.470589</v>
+        <v>297.3553800000004</v>
       </c>
       <c r="J2" t="n">
-        <v>15.75</v>
+        <v>15.9</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.0696</v>
+        <v>3.1375</v>
       </c>
       <c r="F3" t="n">
-        <v>995.5326719999999</v>
+        <v>1017.554</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.410752000000116</v>
+        <v>17.61057600000004</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.44</v>
+        <v>1.76</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.1697</v>
+        <v>1.1715</v>
       </c>
       <c r="F4" t="n">
-        <v>6667.29</v>
+        <v>6677.55</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1246.59</v>
+        <v>1256.85</v>
       </c>
       <c r="J4" t="n">
-        <v>23</v>
+        <v>23.19</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9215</v>
+        <v>1.9043</v>
       </c>
       <c r="F5" t="n">
-        <v>2278.764495</v>
+        <v>2258.366499</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-121.2020459999999</v>
+        <v>-141.6000419999996</v>
       </c>
       <c r="J5" t="n">
-        <v>-5.05</v>
+        <v>-5.9</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4887</v>
+        <v>1.4689</v>
       </c>
       <c r="F6" t="n">
-        <v>2526.755623</v>
+        <v>2493.149281</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>26.81718200000023</v>
+        <v>-6.789159999999811</v>
       </c>
       <c r="J6" t="n">
-        <v>1.07</v>
+        <v>-0.27</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4887</v>
+        <v>1.4689</v>
       </c>
       <c r="F7" t="n">
-        <v>5350.53667</v>
+        <v>5279.37349</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>30.54984999999942</v>
+        <v>-40.61333000000013</v>
       </c>
       <c r="J7" t="n">
-        <v>0.57</v>
+        <v>-0.76</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7122</v>
+        <v>1.7176</v>
       </c>
       <c r="F8" t="n">
-        <v>22087.38</v>
+        <v>22157.04</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2788.98</v>
+        <v>2858.639999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>14.45</v>
+        <v>14.81</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8417</v>
+        <v>2.8823</v>
       </c>
       <c r="F9" t="n">
-        <v>860.495177</v>
+        <v>872.789263</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>111.555204</v>
+        <v>123.84929</v>
       </c>
       <c r="J9" t="n">
-        <v>14.9</v>
+        <v>16.54</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.032</v>
+        <v>2.0439</v>
       </c>
       <c r="F10" t="n">
-        <v>2114.15376</v>
+        <v>2126.534877</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>114.1351710000001</v>
+        <v>126.516288</v>
       </c>
       <c r="J10" t="n">
-        <v>5.71</v>
+        <v>6.33</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5232</v>
+        <v>1.5352</v>
       </c>
       <c r="F11" t="n">
-        <v>6301.828735999999</v>
+        <v>6351.475495999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>322.7039399999994</v>
+        <v>372.3506999999991</v>
       </c>
       <c r="J11" t="n">
-        <v>5.4</v>
+        <v>6.23</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5232</v>
+        <v>1.5352</v>
       </c>
       <c r="F12" t="n">
-        <v>9160.631424000001</v>
+        <v>9232.800264</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>60.74210700000185</v>
+        <v>132.9109470000003</v>
       </c>
       <c r="J12" t="n">
-        <v>0.67</v>
+        <v>1.46</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2129</v>
+        <v>2.2463</v>
       </c>
       <c r="F15" t="n">
-        <v>20579.97</v>
+        <v>20890.59</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1133.669999999998</v>
+        <v>1444.290000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>5.83</v>
+        <v>7.43</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.18</v>
+        <v>28.19</v>
       </c>
       <c r="F16" t="n">
-        <v>14090</v>
+        <v>14095</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="J16" t="n">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.699999999999999</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>17400</v>
+        <v>17440</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-360</v>
+        <v>-320</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.03</v>
+        <v>-1.8</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1211</v>
+        <v>1.1154</v>
       </c>
       <c r="F18" t="n">
-        <v>4403.893809</v>
+        <v>4381.503126</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>97.4191120000005</v>
+        <v>75.02842899999996</v>
       </c>
       <c r="J18" t="n">
-        <v>2.26</v>
+        <v>1.74</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5797</v>
+        <v>1.5719</v>
       </c>
       <c r="F19" t="n">
-        <v>13743.39</v>
+        <v>13675.53</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>284.4900000000016</v>
+        <v>216.630000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>2.11</v>
+        <v>1.61</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2942</v>
+        <v>1.3057</v>
       </c>
       <c r="F20" t="n">
-        <v>10257.648012</v>
+        <v>10348.795402</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>257.5904499999997</v>
+        <v>348.7378399999998</v>
       </c>
       <c r="J20" t="n">
-        <v>2.58</v>
+        <v>3.49</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2094</v>
+        <v>1.2016</v>
       </c>
       <c r="F21" t="n">
-        <v>13666.22</v>
+        <v>13578.08</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1032.820000000002</v>
+        <v>944.6800000000003</v>
       </c>
       <c r="J21" t="n">
-        <v>8.18</v>
+        <v>7.48</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.511</v>
+        <v>1.5202</v>
       </c>
       <c r="F22" t="n">
-        <v>806.7077899999999</v>
+        <v>811.6195779999999</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>77.57421699999998</v>
+        <v>82.48600499999998</v>
       </c>
       <c r="J22" t="n">
-        <v>10.64</v>
+        <v>11.31</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.511</v>
+        <v>1.5202</v>
       </c>
       <c r="F23" t="n">
-        <v>19524.74914</v>
+        <v>19643.629148</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>324.3356739999981</v>
+        <v>443.2156819999982</v>
       </c>
       <c r="J23" t="n">
-        <v>1.69</v>
+        <v>2.31</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3525</v>
+        <v>1.3617</v>
       </c>
       <c r="F24" t="n">
-        <v>884.9678000000001</v>
+        <v>890.987544</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>84.99616800000013</v>
+        <v>91.01591199999996</v>
       </c>
       <c r="J24" t="n">
-        <v>10.62</v>
+        <v>11.38</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.4481</v>
+        <v>5.487</v>
       </c>
       <c r="F26" t="n">
-        <v>2262.813854</v>
+        <v>2278.97058</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>162.8132799999998</v>
+        <v>178.9700059999996</v>
       </c>
       <c r="J26" t="n">
-        <v>7.75</v>
+        <v>8.52</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.7515</v>
+        <v>1.7636</v>
       </c>
       <c r="F28" t="n">
-        <v>6758.688200000001</v>
+        <v>6805.379680000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>458.8113200000007</v>
+        <v>505.5028000000011</v>
       </c>
       <c r="J28" t="n">
-        <v>7.28</v>
+        <v>8.02</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.7515</v>
+        <v>1.7636</v>
       </c>
       <c r="F29" t="n">
-        <v>15254.321435</v>
+        <v>15359.703844</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>254.3112680000013</v>
+        <v>359.6936770000011</v>
       </c>
       <c r="J29" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8216</v>
+        <v>1.8663</v>
       </c>
       <c r="F30" t="n">
-        <v>9578.136744000001</v>
+        <v>9813.173367000001</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>697.7485430000015</v>
+        <v>932.7851660000015</v>
       </c>
       <c r="J30" t="n">
-        <v>7.86</v>
+        <v>10.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8216</v>
+        <v>1.8663</v>
       </c>
       <c r="F31" t="n">
-        <v>1228.250232</v>
+        <v>1258.390101</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>28.25191300000006</v>
+        <v>58.39178199999992</v>
       </c>
       <c r="J31" t="n">
-        <v>2.35</v>
+        <v>4.87</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.1367</v>
+        <v>2.1522</v>
       </c>
       <c r="F33" t="n">
-        <v>13033.87</v>
+        <v>13128.42</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>760.6699999999983</v>
+        <v>855.2199999999993</v>
       </c>
       <c r="J33" t="n">
-        <v>6.2</v>
+        <v>6.97</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.705</v>
+        <v>1.717</v>
       </c>
       <c r="F34" t="n">
-        <v>32565.5</v>
+        <v>32794.7</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>1394.299999999999</v>
+        <v>1623.500000000004</v>
       </c>
       <c r="J34" t="n">
-        <v>4.47</v>
+        <v>5.21</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.6272</v>
+        <v>5.7616</v>
       </c>
       <c r="F35" t="n">
-        <v>34249.277536</v>
+        <v>35067.287008</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1049.291912000001</v>
+        <v>1867.301383999999</v>
       </c>
       <c r="J35" t="n">
-        <v>3.16</v>
+        <v>5.62</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.6272</v>
+        <v>5.7616</v>
       </c>
       <c r="F36" t="n">
-        <v>11630.634592</v>
+        <v>11908.420576</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>330.6975999999995</v>
+        <v>608.4835839999996</v>
       </c>
       <c r="J36" t="n">
-        <v>2.93</v>
+        <v>5.38</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.6272</v>
+        <v>5.7616</v>
       </c>
       <c r="F37" t="n">
-        <v>84408</v>
+        <v>86424</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>1113</v>
+        <v>3129</v>
       </c>
       <c r="J37" t="n">
-        <v>1.34</v>
+        <v>3.76</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.2531</v>
+        <v>2.2688</v>
       </c>
       <c r="F38" t="n">
-        <v>16387.720071</v>
+        <v>16501.912608</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>587.6915279999994</v>
+        <v>701.884065000002</v>
       </c>
       <c r="J38" t="n">
-        <v>3.72</v>
+        <v>4.44</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.2531</v>
+        <v>2.2688</v>
       </c>
       <c r="F39" t="n">
-        <v>23495.124021</v>
+        <v>23658.842208</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>495.3257249999988</v>
+        <v>659.043912000001</v>
       </c>
       <c r="J39" t="n">
-        <v>2.15</v>
+        <v>2.87</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.7972</v>
+        <v>1.8094</v>
       </c>
       <c r="F40" t="n">
-        <v>12041.24</v>
+        <v>12122.98</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1589.24</v>
+        <v>1670.98</v>
       </c>
       <c r="J40" t="n">
-        <v>15.21</v>
+        <v>15.99</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>8.199999999999999</v>
+        <v>8.18</v>
       </c>
       <c r="F41" t="n">
-        <v>8200</v>
+        <v>8180</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>1091</v>
+        <v>1071</v>
       </c>
       <c r="J41" t="n">
-        <v>15.35</v>
+        <v>15.07</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>8.039999999999999</v>
+        <v>7.99</v>
       </c>
       <c r="F42" t="n">
-        <v>8843.999999999998</v>
+        <v>8789</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2259.399999999998</v>
+        <v>2204.4</v>
       </c>
       <c r="J42" t="n">
-        <v>34.31</v>
+        <v>33.48</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>43.1</v>
+        <v>42.66</v>
       </c>
       <c r="F43" t="n">
-        <v>64650</v>
+        <v>63989.99999999999</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>195</v>
+        <v>-465.0000000000073</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3</v>
+        <v>-0.72</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9304</v>
+        <v>2.977</v>
       </c>
       <c r="F2" t="n">
-        <v>2167.587576</v>
+        <v>2202.05713</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>297.3553800000004</v>
+        <v>331.8249340000002</v>
       </c>
       <c r="J2" t="n">
-        <v>15.9</v>
+        <v>17.74</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.1375</v>
+        <v>3.1485</v>
       </c>
       <c r="F3" t="n">
-        <v>1017.554</v>
+        <v>1021.12152</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>17.61057600000004</v>
+        <v>21.17809599999987</v>
       </c>
       <c r="J3" t="n">
-        <v>1.76</v>
+        <v>2.12</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.1715</v>
+        <v>1.1844</v>
       </c>
       <c r="F4" t="n">
-        <v>6677.55</v>
+        <v>6751.079999999999</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1256.85</v>
+        <v>1330.379999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>23.19</v>
+        <v>24.54</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9043</v>
+        <v>1.9117</v>
       </c>
       <c r="F5" t="n">
-        <v>2258.366499</v>
+        <v>2267.142381</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-141.6000419999996</v>
+        <v>-132.8241599999997</v>
       </c>
       <c r="J5" t="n">
-        <v>-5.9</v>
+        <v>-5.53</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4689</v>
+        <v>1.467</v>
       </c>
       <c r="F6" t="n">
-        <v>2493.149281</v>
+        <v>2489.92443</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-6.789159999999811</v>
+        <v>-10.01401099999975</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.27</v>
+        <v>-0.4</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4689</v>
+        <v>1.467</v>
       </c>
       <c r="F7" t="n">
-        <v>5279.37349</v>
+        <v>5272.5447</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-40.61333000000013</v>
+        <v>-47.4421199999997</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.76</v>
+        <v>-0.89</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7176</v>
+        <v>1.7117</v>
       </c>
       <c r="F8" t="n">
-        <v>22157.04</v>
+        <v>22080.93</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2858.639999999999</v>
+        <v>2782.529999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>14.81</v>
+        <v>14.42</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8823</v>
+        <v>2.9062</v>
       </c>
       <c r="F9" t="n">
-        <v>872.789263</v>
+        <v>880.026422</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>123.84929</v>
+        <v>131.086449</v>
       </c>
       <c r="J9" t="n">
-        <v>16.54</v>
+        <v>17.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0439</v>
+        <v>2.0721</v>
       </c>
       <c r="F10" t="n">
-        <v>2126.534877</v>
+        <v>2155.875003</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>126.516288</v>
+        <v>155.8564140000001</v>
       </c>
       <c r="J10" t="n">
-        <v>6.33</v>
+        <v>7.79</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5352</v>
+        <v>1.5547</v>
       </c>
       <c r="F11" t="n">
-        <v>6351.475495999999</v>
+        <v>6432.151480999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>372.3506999999991</v>
+        <v>453.0266849999989</v>
       </c>
       <c r="J11" t="n">
-        <v>6.23</v>
+        <v>7.58</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5352</v>
+        <v>1.5547</v>
       </c>
       <c r="F12" t="n">
-        <v>9232.800264</v>
+        <v>9350.074628999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>132.9109470000003</v>
+        <v>250.1853119999996</v>
       </c>
       <c r="J12" t="n">
-        <v>1.46</v>
+        <v>2.75</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2463</v>
+        <v>2.2662</v>
       </c>
       <c r="F15" t="n">
-        <v>20890.59</v>
+        <v>21075.66</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1444.290000000001</v>
+        <v>1629.360000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>7.43</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.19</v>
+        <v>28.03</v>
       </c>
       <c r="F16" t="n">
-        <v>14095</v>
+        <v>14015</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="J16" t="n">
-        <v>2.03</v>
+        <v>1.45</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.720000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>17440</v>
+        <v>17400</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-320</v>
+        <v>-360</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.8</v>
+        <v>-2.03</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1154</v>
+        <v>1.119</v>
       </c>
       <c r="F18" t="n">
-        <v>4381.503126</v>
+        <v>4395.64461</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>75.02842899999996</v>
+        <v>89.16991300000063</v>
       </c>
       <c r="J18" t="n">
-        <v>1.74</v>
+        <v>2.07</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5719</v>
+        <v>1.5798</v>
       </c>
       <c r="F19" t="n">
-        <v>13675.53</v>
+        <v>13744.26</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>216.630000000001</v>
+        <v>285.3600000000006</v>
       </c>
       <c r="J19" t="n">
-        <v>1.61</v>
+        <v>2.12</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3057</v>
+        <v>1.3101</v>
       </c>
       <c r="F20" t="n">
-        <v>10348.795402</v>
+        <v>10383.669186</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>348.7378399999998</v>
+        <v>383.6116239999992</v>
       </c>
       <c r="J20" t="n">
-        <v>3.49</v>
+        <v>3.84</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2016</v>
+        <v>1.2091</v>
       </c>
       <c r="F21" t="n">
-        <v>13578.08</v>
+        <v>13662.83</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>944.6800000000003</v>
+        <v>1029.43</v>
       </c>
       <c r="J21" t="n">
-        <v>7.48</v>
+        <v>8.15</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5202</v>
+        <v>1.5528</v>
       </c>
       <c r="F22" t="n">
-        <v>811.6195779999999</v>
+        <v>829.0243919999999</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>82.48600499999998</v>
+        <v>99.89081899999996</v>
       </c>
       <c r="J22" t="n">
-        <v>11.31</v>
+        <v>13.7</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5202</v>
+        <v>1.5528</v>
       </c>
       <c r="F23" t="n">
-        <v>19643.629148</v>
+        <v>20064.877872</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>443.2156819999982</v>
+        <v>864.4644059999991</v>
       </c>
       <c r="J23" t="n">
-        <v>2.31</v>
+        <v>4.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3617</v>
+        <v>1.3945</v>
       </c>
       <c r="F24" t="n">
-        <v>890.987544</v>
+        <v>912.4492400000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>91.01591199999996</v>
+        <v>112.4776080000001</v>
       </c>
       <c r="J24" t="n">
-        <v>11.38</v>
+        <v>14.06</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.487</v>
+        <v>5.6263</v>
       </c>
       <c r="F26" t="n">
-        <v>2278.97058</v>
+        <v>2336.827442</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>178.9700059999996</v>
+        <v>236.8268679999996</v>
       </c>
       <c r="J26" t="n">
-        <v>8.52</v>
+        <v>11.28</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.7636</v>
+        <v>1.8068</v>
       </c>
       <c r="F28" t="n">
-        <v>6805.379680000001</v>
+        <v>6972.07984</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>505.5028000000011</v>
+        <v>672.2029600000005</v>
       </c>
       <c r="J28" t="n">
-        <v>8.02</v>
+        <v>10.67</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.7636</v>
+        <v>1.8068</v>
       </c>
       <c r="F29" t="n">
-        <v>15359.703844</v>
+        <v>15735.945172</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>359.6936770000011</v>
+        <v>735.9350050000012</v>
       </c>
       <c r="J29" t="n">
-        <v>2.4</v>
+        <v>4.91</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8663</v>
+        <v>1.876</v>
       </c>
       <c r="F30" t="n">
-        <v>9813.173367000001</v>
+        <v>9864.17684</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>932.7851660000015</v>
+        <v>983.7886390000003</v>
       </c>
       <c r="J30" t="n">
-        <v>10.5</v>
+        <v>11.08</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8663</v>
+        <v>1.876</v>
       </c>
       <c r="F31" t="n">
-        <v>1258.390101</v>
+        <v>1264.93052</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>58.39178199999992</v>
+        <v>64.93220099999985</v>
       </c>
       <c r="J31" t="n">
-        <v>4.87</v>
+        <v>5.41</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.1522</v>
+        <v>2.2066</v>
       </c>
       <c r="F33" t="n">
-        <v>13128.42</v>
+        <v>13460.26</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>855.2199999999993</v>
+        <v>1187.059999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>6.97</v>
+        <v>9.67</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.717</v>
+        <v>1.761</v>
       </c>
       <c r="F34" t="n">
-        <v>32794.7</v>
+        <v>33635.1</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>1623.500000000004</v>
+        <v>2463.899999999998</v>
       </c>
       <c r="J34" t="n">
-        <v>5.21</v>
+        <v>7.9</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.7616</v>
+        <v>5.761</v>
       </c>
       <c r="F35" t="n">
-        <v>35067.287008</v>
+        <v>35063.63518</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1867.301383999999</v>
+        <v>1863.649556000004</v>
       </c>
       <c r="J35" t="n">
-        <v>5.62</v>
+        <v>5.61</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.7616</v>
+        <v>5.761</v>
       </c>
       <c r="F36" t="n">
-        <v>11908.420576</v>
+        <v>11907.18046</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>608.4835839999996</v>
+        <v>607.2434680000006</v>
       </c>
       <c r="J36" t="n">
-        <v>5.38</v>
+        <v>5.37</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.7616</v>
+        <v>5.761</v>
       </c>
       <c r="F37" t="n">
-        <v>86424</v>
+        <v>86415</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>3129</v>
+        <v>3120</v>
       </c>
       <c r="J37" t="n">
-        <v>3.76</v>
+        <v>3.75</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.2688</v>
+        <v>2.3434</v>
       </c>
       <c r="F38" t="n">
-        <v>16501.912608</v>
+        <v>17044.508994</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>701.884065000002</v>
+        <v>1244.480450999999</v>
       </c>
       <c r="J38" t="n">
-        <v>4.44</v>
+        <v>7.88</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.2688</v>
+        <v>2.3434</v>
       </c>
       <c r="F39" t="n">
-        <v>23658.842208</v>
+        <v>24436.764294</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>659.043912000001</v>
+        <v>1436.965998</v>
       </c>
       <c r="J39" t="n">
-        <v>2.87</v>
+        <v>6.25</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8094</v>
+        <v>1.8732</v>
       </c>
       <c r="F40" t="n">
-        <v>12122.98</v>
+        <v>12550.44</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1670.98</v>
+        <v>2098.440000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>15.99</v>
+        <v>20.08</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>8.18</v>
+        <v>8.31</v>
       </c>
       <c r="F41" t="n">
-        <v>8180</v>
+        <v>8310</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>1071</v>
+        <v>1201</v>
       </c>
       <c r="J41" t="n">
-        <v>15.07</v>
+        <v>16.89</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.99</v>
+        <v>8.07</v>
       </c>
       <c r="F42" t="n">
-        <v>8789</v>
+        <v>8877</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2204.4</v>
+        <v>2292.4</v>
       </c>
       <c r="J42" t="n">
-        <v>33.48</v>
+        <v>34.81</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>42.66</v>
+        <v>43.34</v>
       </c>
       <c r="F43" t="n">
-        <v>63989.99999999999</v>
+        <v>65010.00000000001</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-465.0000000000073</v>
+        <v>555.0000000000073</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.72</v>
+        <v>0.86</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.977</v>
+        <v>2.9761</v>
       </c>
       <c r="F2" t="n">
-        <v>2202.05713</v>
+        <v>2201.391409</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>331.8249340000002</v>
+        <v>331.1592130000004</v>
       </c>
       <c r="J2" t="n">
-        <v>17.74</v>
+        <v>17.71</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.1485</v>
+        <v>3.16</v>
       </c>
       <c r="F3" t="n">
-        <v>1021.12152</v>
+        <v>1024.8512</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>21.17809599999987</v>
+        <v>24.90777600000001</v>
       </c>
       <c r="J3" t="n">
-        <v>2.12</v>
+        <v>2.49</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.1844</v>
+        <v>1.1909</v>
       </c>
       <c r="F4" t="n">
-        <v>6751.079999999999</v>
+        <v>6788.13</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1330.379999999999</v>
+        <v>1367.43</v>
       </c>
       <c r="J4" t="n">
-        <v>24.54</v>
+        <v>25.23</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9117</v>
+        <v>1.9298</v>
       </c>
       <c r="F5" t="n">
-        <v>2267.142381</v>
+        <v>2288.607714</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-132.8241599999997</v>
+        <v>-111.3588269999996</v>
       </c>
       <c r="J5" t="n">
-        <v>-5.53</v>
+        <v>-4.64</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.467</v>
+        <v>1.4667</v>
       </c>
       <c r="F6" t="n">
-        <v>2489.92443</v>
+        <v>2489.415243</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-10.01401099999975</v>
+        <v>-10.52319799999987</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.4</v>
+        <v>-0.42</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.467</v>
+        <v>1.4667</v>
       </c>
       <c r="F7" t="n">
-        <v>5272.5447</v>
+        <v>5271.466469999999</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-47.4421199999997</v>
+        <v>-48.52035000000069</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.89</v>
+        <v>-0.91</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7117</v>
+        <v>1.7467</v>
       </c>
       <c r="F8" t="n">
-        <v>22080.93</v>
+        <v>22532.43</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2782.529999999999</v>
+        <v>3234.029999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>14.42</v>
+        <v>16.76</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9062</v>
+        <v>2.9241</v>
       </c>
       <c r="F9" t="n">
-        <v>880.026422</v>
+        <v>885.446721</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>131.086449</v>
+        <v>136.506748</v>
       </c>
       <c r="J9" t="n">
-        <v>17.5</v>
+        <v>18.23</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0721</v>
+        <v>2.0881</v>
       </c>
       <c r="F10" t="n">
-        <v>2155.875003</v>
+        <v>2172.521883</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>155.8564140000001</v>
+        <v>172.5032939999999</v>
       </c>
       <c r="J10" t="n">
-        <v>7.79</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5547</v>
+        <v>1.5662</v>
       </c>
       <c r="F11" t="n">
-        <v>6432.151480999999</v>
+        <v>6479.729625999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>453.0266849999989</v>
+        <v>500.6048299999993</v>
       </c>
       <c r="J11" t="n">
-        <v>7.58</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5547</v>
+        <v>1.5662</v>
       </c>
       <c r="F12" t="n">
-        <v>9350.074628999999</v>
+        <v>9419.236434</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>250.1853119999996</v>
+        <v>319.3471170000012</v>
       </c>
       <c r="J12" t="n">
-        <v>2.75</v>
+        <v>3.51</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2662</v>
+        <v>2.2809</v>
       </c>
       <c r="F15" t="n">
-        <v>21075.66</v>
+        <v>21212.37</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1629.360000000001</v>
+        <v>1766.07</v>
       </c>
       <c r="J15" t="n">
-        <v>8.380000000000001</v>
+        <v>9.08</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.03</v>
+        <v>27.93</v>
       </c>
       <c r="F16" t="n">
-        <v>14015</v>
+        <v>13965</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J16" t="n">
-        <v>1.45</v>
+        <v>1.09</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.699999999999999</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>17400</v>
+        <v>17260</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-360</v>
+        <v>-500</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.03</v>
+        <v>-2.82</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.119</v>
+        <v>1.116</v>
       </c>
       <c r="F18" t="n">
-        <v>4395.64461</v>
+        <v>4383.86004</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>89.16991300000063</v>
+        <v>77.38534300000083</v>
       </c>
       <c r="J18" t="n">
-        <v>2.07</v>
+        <v>1.8</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5798</v>
+        <v>1.5731</v>
       </c>
       <c r="F19" t="n">
-        <v>13744.26</v>
+        <v>13685.97</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>285.3600000000006</v>
+        <v>227.0699999999997</v>
       </c>
       <c r="J19" t="n">
-        <v>2.12</v>
+        <v>1.69</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3101</v>
+        <v>1.3149</v>
       </c>
       <c r="F20" t="n">
-        <v>10383.669186</v>
+        <v>10421.713314</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>383.6116239999992</v>
+        <v>421.6557519999988</v>
       </c>
       <c r="J20" t="n">
-        <v>3.84</v>
+        <v>4.22</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2091</v>
+        <v>1.2021</v>
       </c>
       <c r="F21" t="n">
-        <v>13662.83</v>
+        <v>13583.73</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1029.43</v>
+        <v>950.3299999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>8.15</v>
+        <v>7.52</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5528</v>
+        <v>1.5599</v>
       </c>
       <c r="F22" t="n">
-        <v>829.0243919999999</v>
+        <v>832.815011</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>99.89081899999996</v>
+        <v>103.6814380000001</v>
       </c>
       <c r="J22" t="n">
-        <v>13.7</v>
+        <v>14.22</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5528</v>
+        <v>1.5599</v>
       </c>
       <c r="F23" t="n">
-        <v>20064.877872</v>
+        <v>20156.622226</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>864.4644059999991</v>
+        <v>956.2087599999977</v>
       </c>
       <c r="J23" t="n">
-        <v>4.5</v>
+        <v>4.98</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3945</v>
+        <v>1.4017</v>
       </c>
       <c r="F24" t="n">
-        <v>912.4492400000001</v>
+        <v>917.160344</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>112.4776080000001</v>
+        <v>117.188712</v>
       </c>
       <c r="J24" t="n">
-        <v>14.06</v>
+        <v>14.65</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.6263</v>
+        <v>5.6567</v>
       </c>
       <c r="F26" t="n">
-        <v>2336.827442</v>
+        <v>2349.453778</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>236.8268679999996</v>
+        <v>249.4532039999995</v>
       </c>
       <c r="J26" t="n">
-        <v>11.28</v>
+        <v>11.88</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8068</v>
+        <v>1.8162</v>
       </c>
       <c r="F28" t="n">
-        <v>6972.07984</v>
+        <v>7008.35256</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>672.2029600000005</v>
+        <v>708.4756800000005</v>
       </c>
       <c r="J28" t="n">
-        <v>10.67</v>
+        <v>11.25</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8068</v>
+        <v>1.8162</v>
       </c>
       <c r="F29" t="n">
-        <v>15735.945172</v>
+        <v>15817.812498</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>735.9350050000012</v>
+        <v>817.8023310000008</v>
       </c>
       <c r="J29" t="n">
-        <v>4.91</v>
+        <v>5.45</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.876</v>
+        <v>1.8908</v>
       </c>
       <c r="F30" t="n">
-        <v>9864.17684</v>
+        <v>9941.996572</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>983.7886390000003</v>
+        <v>1061.608371</v>
       </c>
       <c r="J30" t="n">
-        <v>11.08</v>
+        <v>11.95</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.876</v>
+        <v>1.8908</v>
       </c>
       <c r="F31" t="n">
-        <v>1264.93052</v>
+        <v>1274.909716</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>64.93220099999985</v>
+        <v>74.91139699999985</v>
       </c>
       <c r="J31" t="n">
-        <v>5.41</v>
+        <v>6.24</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2066</v>
+        <v>2.2157</v>
       </c>
       <c r="F33" t="n">
-        <v>13460.26</v>
+        <v>13515.77</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1187.059999999999</v>
+        <v>1242.57</v>
       </c>
       <c r="J33" t="n">
-        <v>9.67</v>
+        <v>10.12</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.761</v>
+        <v>1.771</v>
       </c>
       <c r="F34" t="n">
-        <v>33635.1</v>
+        <v>33826.1</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2463.899999999998</v>
+        <v>2654.899999999998</v>
       </c>
       <c r="J34" t="n">
-        <v>7.9</v>
+        <v>8.52</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.761</v>
+        <v>5.8265</v>
       </c>
       <c r="F35" t="n">
-        <v>35063.63518</v>
+        <v>35462.29307</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1863.649556000004</v>
+        <v>2262.307445999999</v>
       </c>
       <c r="J35" t="n">
-        <v>5.61</v>
+        <v>6.81</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.761</v>
+        <v>5.8265</v>
       </c>
       <c r="F36" t="n">
-        <v>11907.18046</v>
+        <v>12042.55979</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>607.2434680000006</v>
+        <v>742.6227980000003</v>
       </c>
       <c r="J36" t="n">
-        <v>5.37</v>
+        <v>6.57</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.761</v>
+        <v>5.8265</v>
       </c>
       <c r="F37" t="n">
-        <v>86415</v>
+        <v>87397.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>3120</v>
+        <v>4102.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.75</v>
+        <v>4.93</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3434</v>
+        <v>2.3572</v>
       </c>
       <c r="F38" t="n">
-        <v>17044.508994</v>
+        <v>17144.882052</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1244.480450999999</v>
+        <v>1344.853509</v>
       </c>
       <c r="J38" t="n">
-        <v>7.88</v>
+        <v>8.51</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3434</v>
+        <v>2.3572</v>
       </c>
       <c r="F39" t="n">
-        <v>24436.764294</v>
+        <v>24580.669452</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1436.965998</v>
+        <v>1580.871156000001</v>
       </c>
       <c r="J39" t="n">
-        <v>6.25</v>
+        <v>6.87</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8732</v>
+        <v>1.8843</v>
       </c>
       <c r="F40" t="n">
-        <v>12550.44</v>
+        <v>12624.81</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2098.440000000001</v>
+        <v>2172.810000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>20.08</v>
+        <v>20.79</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>8.31</v>
+        <v>8.15</v>
       </c>
       <c r="F41" t="n">
-        <v>8310</v>
+        <v>8150</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>1201</v>
+        <v>1041</v>
       </c>
       <c r="J41" t="n">
-        <v>16.89</v>
+        <v>14.64</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>8.07</v>
+        <v>7.95</v>
       </c>
       <c r="F42" t="n">
-        <v>8877</v>
+        <v>8745</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2292.4</v>
+        <v>2160.4</v>
       </c>
       <c r="J42" t="n">
-        <v>34.81</v>
+        <v>32.81</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>43.34</v>
+        <v>43.18</v>
       </c>
       <c r="F43" t="n">
-        <v>65010.00000000001</v>
+        <v>64770</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>555.0000000000073</v>
+        <v>315</v>
       </c>
       <c r="J43" t="n">
-        <v>0.86</v>
+        <v>0.49</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9761</v>
+        <v>2.9841</v>
       </c>
       <c r="F2" t="n">
-        <v>2201.391409</v>
+        <v>2207.308929</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>331.1592130000004</v>
+        <v>337.0767330000003</v>
       </c>
       <c r="J2" t="n">
-        <v>17.71</v>
+        <v>18.02</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.16</v>
+        <v>3.1699</v>
       </c>
       <c r="F3" t="n">
-        <v>1024.8512</v>
+        <v>1028.061968</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>24.90777600000001</v>
+        <v>28.11854399999993</v>
       </c>
       <c r="J3" t="n">
-        <v>2.49</v>
+        <v>2.81</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.1909</v>
+        <v>1.1894</v>
       </c>
       <c r="F4" t="n">
-        <v>6788.13</v>
+        <v>6779.58</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1367.43</v>
+        <v>1358.88</v>
       </c>
       <c r="J4" t="n">
-        <v>25.23</v>
+        <v>25.07</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9298</v>
+        <v>1.9542</v>
       </c>
       <c r="F5" t="n">
-        <v>2288.607714</v>
+        <v>2317.544406</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-111.3588269999996</v>
+        <v>-82.4221349999998</v>
       </c>
       <c r="J5" t="n">
-        <v>-4.64</v>
+        <v>-3.43</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4667</v>
+        <v>1.4782</v>
       </c>
       <c r="F6" t="n">
-        <v>2489.415243</v>
+        <v>2508.934078</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-10.52319799999987</v>
+        <v>8.995636999999988</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.42</v>
+        <v>0.36</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4667</v>
+        <v>1.4782</v>
       </c>
       <c r="F7" t="n">
-        <v>5271.466469999999</v>
+        <v>5312.79862</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-48.52035000000069</v>
+        <v>-7.188200000000506</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.91</v>
+        <v>-0.14</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7467</v>
+        <v>1.7687</v>
       </c>
       <c r="F8" t="n">
-        <v>22532.43</v>
+        <v>22816.23</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3234.029999999999</v>
+        <v>3517.829999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>16.76</v>
+        <v>18.23</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9241</v>
+        <v>2.9234</v>
       </c>
       <c r="F9" t="n">
-        <v>885.446721</v>
+        <v>885.234754</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>136.506748</v>
+        <v>136.2947809999999</v>
       </c>
       <c r="J9" t="n">
-        <v>18.23</v>
+        <v>18.2</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0881</v>
+        <v>2.1024</v>
       </c>
       <c r="F10" t="n">
-        <v>2172.521883</v>
+        <v>2187.400032</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>172.5032939999999</v>
+        <v>187.381443</v>
       </c>
       <c r="J10" t="n">
-        <v>8.630000000000001</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5662</v>
+        <v>1.5745</v>
       </c>
       <c r="F11" t="n">
-        <v>6479.729625999999</v>
+        <v>6514.068635</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>500.6048299999993</v>
+        <v>534.9438389999996</v>
       </c>
       <c r="J11" t="n">
-        <v>8.369999999999999</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5662</v>
+        <v>1.5745</v>
       </c>
       <c r="F12" t="n">
-        <v>9419.236434</v>
+        <v>9469.153215</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>319.3471170000012</v>
+        <v>369.2638980000011</v>
       </c>
       <c r="J12" t="n">
-        <v>3.51</v>
+        <v>4.06</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2809</v>
+        <v>2.2803</v>
       </c>
       <c r="F15" t="n">
-        <v>21212.37</v>
+        <v>21206.79</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1766.07</v>
+        <v>1760.490000000002</v>
       </c>
       <c r="J15" t="n">
-        <v>9.08</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.93</v>
+        <v>28.01</v>
       </c>
       <c r="F16" t="n">
-        <v>13965</v>
+        <v>14005</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="J16" t="n">
-        <v>1.09</v>
+        <v>1.38</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.630000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="F17" t="n">
-        <v>17260</v>
+        <v>17200</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-500</v>
+        <v>-560</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.82</v>
+        <v>-3.15</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.116</v>
+        <v>1.1203</v>
       </c>
       <c r="F18" t="n">
-        <v>4383.86004</v>
+        <v>4400.751257</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>77.38534300000083</v>
+        <v>94.27656000000025</v>
       </c>
       <c r="J18" t="n">
-        <v>1.8</v>
+        <v>2.19</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5731</v>
+        <v>1.5757</v>
       </c>
       <c r="F19" t="n">
-        <v>13685.97</v>
+        <v>13708.59</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>227.0699999999997</v>
+        <v>249.6900000000005</v>
       </c>
       <c r="J19" t="n">
-        <v>1.69</v>
+        <v>1.86</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3149</v>
+        <v>1.3109</v>
       </c>
       <c r="F20" t="n">
-        <v>10421.713314</v>
+        <v>10390.009874</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>421.6557519999988</v>
+        <v>389.9523119999994</v>
       </c>
       <c r="J20" t="n">
-        <v>4.22</v>
+        <v>3.9</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2021</v>
+        <v>1.2045</v>
       </c>
       <c r="F21" t="n">
-        <v>13583.73</v>
+        <v>13610.85</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>950.3299999999999</v>
+        <v>977.4499999999989</v>
       </c>
       <c r="J21" t="n">
-        <v>7.52</v>
+        <v>7.74</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5599</v>
+        <v>1.5706</v>
       </c>
       <c r="F22" t="n">
-        <v>832.815011</v>
+        <v>838.5276339999999</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>103.6814380000001</v>
+        <v>109.394061</v>
       </c>
       <c r="J22" t="n">
-        <v>14.22</v>
+        <v>15</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5599</v>
+        <v>1.5706</v>
       </c>
       <c r="F23" t="n">
-        <v>20156.622226</v>
+        <v>20294.884844</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>956.2087599999977</v>
+        <v>1094.471377999998</v>
       </c>
       <c r="J23" t="n">
-        <v>4.98</v>
+        <v>5.7</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4017</v>
+        <v>1.4126</v>
       </c>
       <c r="F24" t="n">
-        <v>917.160344</v>
+        <v>924.2924320000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>117.188712</v>
+        <v>124.3208000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>14.65</v>
+        <v>15.54</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.6567</v>
+        <v>5.7033</v>
       </c>
       <c r="F26" t="n">
-        <v>2349.453778</v>
+        <v>2368.808622</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>249.4532039999995</v>
+        <v>268.8080479999994</v>
       </c>
       <c r="J26" t="n">
-        <v>11.88</v>
+        <v>12.8</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8162</v>
+        <v>1.8306</v>
       </c>
       <c r="F28" t="n">
-        <v>7008.35256</v>
+        <v>7063.91928</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>708.4756800000005</v>
+        <v>764.0424000000003</v>
       </c>
       <c r="J28" t="n">
-        <v>11.25</v>
+        <v>12.13</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8162</v>
+        <v>1.8306</v>
       </c>
       <c r="F29" t="n">
-        <v>15817.812498</v>
+        <v>15943.226274</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>817.8023310000008</v>
+        <v>943.216107000002</v>
       </c>
       <c r="J29" t="n">
-        <v>5.45</v>
+        <v>6.29</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8908</v>
+        <v>1.8904</v>
       </c>
       <c r="F30" t="n">
-        <v>9941.996572</v>
+        <v>9939.893336000001</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1061.608371</v>
+        <v>1059.505135000001</v>
       </c>
       <c r="J30" t="n">
-        <v>11.95</v>
+        <v>11.93</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8908</v>
+        <v>1.8904</v>
       </c>
       <c r="F31" t="n">
-        <v>1274.909716</v>
+        <v>1274.640008</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>74.91139699999985</v>
+        <v>74.64168900000004</v>
       </c>
       <c r="J31" t="n">
-        <v>6.24</v>
+        <v>6.22</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2157</v>
+        <v>2.2304</v>
       </c>
       <c r="F33" t="n">
-        <v>13515.77</v>
+        <v>13605.44</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1242.57</v>
+        <v>1332.24</v>
       </c>
       <c r="J33" t="n">
-        <v>10.12</v>
+        <v>10.85</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.771</v>
+        <v>1.786</v>
       </c>
       <c r="F34" t="n">
-        <v>33826.1</v>
+        <v>34112.6</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2654.899999999998</v>
+        <v>2941.399999999998</v>
       </c>
       <c r="J34" t="n">
-        <v>8.52</v>
+        <v>9.44</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8265</v>
+        <v>5.8251</v>
       </c>
       <c r="F35" t="n">
-        <v>35462.29307</v>
+        <v>35453.772138</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2262.307445999999</v>
+        <v>2253.786513999999</v>
       </c>
       <c r="J35" t="n">
-        <v>6.81</v>
+        <v>6.79</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.8265</v>
+        <v>5.8251</v>
       </c>
       <c r="F36" t="n">
-        <v>12042.55979</v>
+        <v>12039.666186</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>742.6227980000003</v>
+        <v>739.7291939999996</v>
       </c>
       <c r="J36" t="n">
-        <v>6.57</v>
+        <v>6.55</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.8265</v>
+        <v>5.8251</v>
       </c>
       <c r="F37" t="n">
-        <v>87397.5</v>
+        <v>87376.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>4102.5</v>
+        <v>4081.5</v>
       </c>
       <c r="J37" t="n">
-        <v>4.93</v>
+        <v>4.9</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3572</v>
+        <v>2.3771</v>
       </c>
       <c r="F38" t="n">
-        <v>17144.882052</v>
+        <v>17289.622911</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1344.853509</v>
+        <v>1489.594367999998</v>
       </c>
       <c r="J38" t="n">
-        <v>8.51</v>
+        <v>9.43</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3572</v>
+        <v>2.3771</v>
       </c>
       <c r="F39" t="n">
-        <v>24580.669452</v>
+        <v>24788.184861</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1580.871156000001</v>
+        <v>1788.386564999997</v>
       </c>
       <c r="J39" t="n">
-        <v>6.87</v>
+        <v>7.78</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8843</v>
+        <v>1.9003</v>
       </c>
       <c r="F40" t="n">
-        <v>12624.81</v>
+        <v>12732.01</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2172.810000000001</v>
+        <v>2280.01</v>
       </c>
       <c r="J40" t="n">
-        <v>20.79</v>
+        <v>21.81</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.95</v>
+        <v>8.08</v>
       </c>
       <c r="F42" t="n">
-        <v>8745</v>
+        <v>8888</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2160.4</v>
+        <v>2303.4</v>
       </c>
       <c r="J42" t="n">
-        <v>32.81</v>
+        <v>34.98</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>43.18</v>
+        <v>43.1</v>
       </c>
       <c r="F43" t="n">
-        <v>64770</v>
+        <v>64650</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>315</v>
+        <v>195</v>
       </c>
       <c r="J43" t="n">
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9841</v>
+        <v>2.997</v>
       </c>
       <c r="F2" t="n">
-        <v>2207.308929</v>
+        <v>2216.85093</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>337.0767330000003</v>
+        <v>346.6187340000001</v>
       </c>
       <c r="J2" t="n">
-        <v>18.02</v>
+        <v>18.53</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.1894</v>
+        <v>1.1949</v>
       </c>
       <c r="F4" t="n">
-        <v>6779.58</v>
+        <v>6810.93</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1358.88</v>
+        <v>1390.23</v>
       </c>
       <c r="J4" t="n">
-        <v>25.07</v>
+        <v>25.65</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9542</v>
+        <v>1.9607</v>
       </c>
       <c r="F5" t="n">
-        <v>2317.544406</v>
+        <v>2325.252951</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-82.4221349999998</v>
+        <v>-74.71358999999939</v>
       </c>
       <c r="J5" t="n">
-        <v>-3.43</v>
+        <v>-3.11</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7687</v>
+        <v>1.7667</v>
       </c>
       <c r="F8" t="n">
-        <v>22816.23</v>
+        <v>22790.43</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3517.829999999998</v>
+        <v>3492.029999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>18.23</v>
+        <v>18.09</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1024</v>
+        <v>2.1016</v>
       </c>
       <c r="F10" t="n">
-        <v>2187.400032</v>
+        <v>2186.567688</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>187.381443</v>
+        <v>186.5490990000001</v>
       </c>
       <c r="J10" t="n">
-        <v>9.369999999999999</v>
+        <v>9.33</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5745</v>
+        <v>1.5741</v>
       </c>
       <c r="F11" t="n">
-        <v>6514.068635</v>
+        <v>6512.413742999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>534.9438389999996</v>
+        <v>533.2889469999991</v>
       </c>
       <c r="J11" t="n">
-        <v>8.949999999999999</v>
+        <v>8.92</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5745</v>
+        <v>1.5741</v>
       </c>
       <c r="F12" t="n">
-        <v>9469.153215</v>
+        <v>9466.747587</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>369.2638980000011</v>
+        <v>366.8582700000006</v>
       </c>
       <c r="J12" t="n">
-        <v>4.06</v>
+        <v>4.03</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1203</v>
+        <v>1.1177</v>
       </c>
       <c r="F18" t="n">
-        <v>4400.751257</v>
+        <v>4390.537963</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>94.27656000000025</v>
+        <v>84.06326600000011</v>
       </c>
       <c r="J18" t="n">
-        <v>2.19</v>
+        <v>1.95</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5757</v>
+        <v>1.5774</v>
       </c>
       <c r="F19" t="n">
-        <v>13708.59</v>
+        <v>13723.38</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>249.6900000000005</v>
+        <v>264.4799999999996</v>
       </c>
       <c r="J19" t="n">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3109</v>
+        <v>1.3045</v>
       </c>
       <c r="F20" t="n">
-        <v>10390.009874</v>
+        <v>10339.28437</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>389.9523119999994</v>
+        <v>339.2268079999994</v>
       </c>
       <c r="J20" t="n">
-        <v>3.9</v>
+        <v>3.39</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2045</v>
+        <v>1.2025</v>
       </c>
       <c r="F21" t="n">
-        <v>13610.85</v>
+        <v>13588.25</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>977.4499999999989</v>
+        <v>954.8499999999985</v>
       </c>
       <c r="J21" t="n">
-        <v>7.74</v>
+        <v>7.56</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5706</v>
+        <v>1.5703</v>
       </c>
       <c r="F22" t="n">
-        <v>838.5276339999999</v>
+        <v>838.367467</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>109.394061</v>
+        <v>109.2338940000001</v>
       </c>
       <c r="J22" t="n">
-        <v>15</v>
+        <v>14.98</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5706</v>
+        <v>1.5703</v>
       </c>
       <c r="F23" t="n">
-        <v>20294.884844</v>
+        <v>20291.008322</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1094.471377999998</v>
+        <v>1090.594856</v>
       </c>
       <c r="J23" t="n">
-        <v>5.7</v>
+        <v>5.68</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4126</v>
+        <v>1.4124</v>
       </c>
       <c r="F24" t="n">
-        <v>924.2924320000001</v>
+        <v>924.1615680000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>124.3208000000001</v>
+        <v>124.1899360000001</v>
       </c>
       <c r="J24" t="n">
-        <v>15.54</v>
+        <v>15.52</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7033</v>
+        <v>5.7019</v>
       </c>
       <c r="F26" t="n">
-        <v>2368.808622</v>
+        <v>2368.227146</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>268.8080479999994</v>
+        <v>268.2265719999996</v>
       </c>
       <c r="J26" t="n">
-        <v>12.8</v>
+        <v>12.77</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8306</v>
+        <v>1.8302</v>
       </c>
       <c r="F28" t="n">
-        <v>7063.91928</v>
+        <v>7062.375760000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>764.0424000000003</v>
+        <v>762.498880000001</v>
       </c>
       <c r="J28" t="n">
-        <v>12.13</v>
+        <v>12.1</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8306</v>
+        <v>1.8302</v>
       </c>
       <c r="F29" t="n">
-        <v>15943.226274</v>
+        <v>15939.742558</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>943.216107000002</v>
+        <v>939.7323910000014</v>
       </c>
       <c r="J29" t="n">
-        <v>6.29</v>
+        <v>6.26</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2304</v>
+        <v>2.2306</v>
       </c>
       <c r="F33" t="n">
-        <v>13605.44</v>
+        <v>13606.66</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1332.24</v>
+        <v>1333.459999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>10.85</v>
+        <v>10.86</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.786</v>
+        <v>1.785</v>
       </c>
       <c r="F34" t="n">
-        <v>34112.6</v>
+        <v>34093.5</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2941.399999999998</v>
+        <v>2922.299999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>9.44</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3771</v>
+        <v>2.3765</v>
       </c>
       <c r="F38" t="n">
-        <v>17289.622911</v>
+        <v>17285.258865</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1489.594367999998</v>
+        <v>1485.230321999999</v>
       </c>
       <c r="J38" t="n">
-        <v>9.43</v>
+        <v>9.4</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3771</v>
+        <v>2.3765</v>
       </c>
       <c r="F39" t="n">
-        <v>24788.184861</v>
+        <v>24781.928115</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1788.386564999997</v>
+        <v>1782.129818999998</v>
       </c>
       <c r="J39" t="n">
-        <v>7.78</v>
+        <v>7.75</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9003</v>
+        <v>1.8998</v>
       </c>
       <c r="F40" t="n">
-        <v>12732.01</v>
+        <v>12728.66</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2280.01</v>
+        <v>2276.66</v>
       </c>
       <c r="J40" t="n">
-        <v>21.81</v>
+        <v>21.78</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.1699</v>
+        <v>3.1844</v>
       </c>
       <c r="F3" t="n">
-        <v>1028.061968</v>
+        <v>1032.764608</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>28.11854399999993</v>
+        <v>32.8211839999999</v>
       </c>
       <c r="J3" t="n">
-        <v>2.81</v>
+        <v>3.28</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9234</v>
+        <v>2.9383</v>
       </c>
       <c r="F9" t="n">
-        <v>885.234754</v>
+        <v>889.746623</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>136.2947809999999</v>
+        <v>140.80665</v>
       </c>
       <c r="J9" t="n">
-        <v>18.2</v>
+        <v>18.8</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2803</v>
+        <v>2.2927</v>
       </c>
       <c r="F15" t="n">
-        <v>21206.79</v>
+        <v>21322.11</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1760.490000000002</v>
+        <v>1875.810000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>9.050000000000001</v>
+        <v>9.65</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.01</v>
+        <v>28.05</v>
       </c>
       <c r="F16" t="n">
-        <v>14005</v>
+        <v>14025</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="J16" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.6</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>17200</v>
+        <v>17220</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-560</v>
+        <v>-540</v>
       </c>
       <c r="J17" t="n">
-        <v>-3.15</v>
+        <v>-3.04</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8904</v>
+        <v>1.9046</v>
       </c>
       <c r="F30" t="n">
-        <v>9939.893336000001</v>
+        <v>10014.558214</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1059.505135000001</v>
+        <v>1134.170013000001</v>
       </c>
       <c r="J30" t="n">
-        <v>11.93</v>
+        <v>12.77</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8904</v>
+        <v>1.9046</v>
       </c>
       <c r="F31" t="n">
-        <v>1274.640008</v>
+        <v>1284.214642</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>74.64168900000004</v>
+        <v>84.21632299999987</v>
       </c>
       <c r="J31" t="n">
-        <v>6.22</v>
+        <v>7.02</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8251</v>
+        <v>5.855</v>
       </c>
       <c r="F35" t="n">
-        <v>35453.772138</v>
+        <v>35635.7549</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2253.786513999999</v>
+        <v>2435.769275999999</v>
       </c>
       <c r="J35" t="n">
-        <v>6.79</v>
+        <v>7.34</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.8251</v>
+        <v>5.855</v>
       </c>
       <c r="F36" t="n">
-        <v>12039.666186</v>
+        <v>12101.4653</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>739.7291939999996</v>
+        <v>801.5283080000008</v>
       </c>
       <c r="J36" t="n">
-        <v>6.55</v>
+        <v>7.09</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.8251</v>
+        <v>5.855</v>
       </c>
       <c r="F37" t="n">
-        <v>87376.5</v>
+        <v>87825</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>4081.5</v>
+        <v>4530</v>
       </c>
       <c r="J37" t="n">
-        <v>4.9</v>
+        <v>5.44</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>8.15</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>8150</v>
+        <v>8050.000000000001</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>1041</v>
+        <v>941.0000000000009</v>
       </c>
       <c r="J41" t="n">
-        <v>14.64</v>
+        <v>13.24</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>8.08</v>
+        <v>8.01</v>
       </c>
       <c r="F42" t="n">
-        <v>8888</v>
+        <v>8811</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2303.4</v>
+        <v>2226.4</v>
       </c>
       <c r="J42" t="n">
-        <v>34.98</v>
+        <v>33.81</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>43.1</v>
+        <v>43.08</v>
       </c>
       <c r="F43" t="n">
-        <v>64650</v>
+        <v>64620</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.997</v>
+        <v>3.0282</v>
       </c>
       <c r="F2" t="n">
-        <v>2216.85093</v>
+        <v>2239.929258</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>346.6187340000001</v>
+        <v>369.6970620000002</v>
       </c>
       <c r="J2" t="n">
-        <v>18.53</v>
+        <v>19.77</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.1844</v>
+        <v>3.211</v>
       </c>
       <c r="F3" t="n">
-        <v>1032.764608</v>
+        <v>1041.39152</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>32.8211839999999</v>
+        <v>41.44809599999985</v>
       </c>
       <c r="J3" t="n">
-        <v>3.28</v>
+        <v>4.15</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.1949</v>
+        <v>1.209</v>
       </c>
       <c r="F4" t="n">
-        <v>6810.93</v>
+        <v>6891.3</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1390.23</v>
+        <v>1470.6</v>
       </c>
       <c r="J4" t="n">
-        <v>25.65</v>
+        <v>27.13</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9607</v>
+        <v>1.9466</v>
       </c>
       <c r="F5" t="n">
-        <v>2325.252951</v>
+        <v>2308.531338</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-74.71358999999939</v>
+        <v>-91.43520299999955</v>
       </c>
       <c r="J5" t="n">
-        <v>-3.11</v>
+        <v>-3.81</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7667</v>
+        <v>1.7428</v>
       </c>
       <c r="F8" t="n">
-        <v>22790.43</v>
+        <v>22482.12</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3492.029999999999</v>
+        <v>3183.719999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>18.09</v>
+        <v>16.5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9383</v>
+        <v>2.9227</v>
       </c>
       <c r="F9" t="n">
-        <v>889.746623</v>
+        <v>885.022787</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>140.80665</v>
+        <v>136.082814</v>
       </c>
       <c r="J9" t="n">
-        <v>18.8</v>
+        <v>18.17</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1016</v>
+        <v>2.1119</v>
       </c>
       <c r="F10" t="n">
-        <v>2186.567688</v>
+        <v>2197.284117</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>186.5490990000001</v>
+        <v>197.2655280000001</v>
       </c>
       <c r="J10" t="n">
-        <v>9.33</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5741</v>
+        <v>1.5813</v>
       </c>
       <c r="F11" t="n">
-        <v>6512.413742999999</v>
+        <v>6542.201798999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>533.2889469999991</v>
+        <v>563.0770029999985</v>
       </c>
       <c r="J11" t="n">
-        <v>8.92</v>
+        <v>9.42</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5741</v>
+        <v>1.5813</v>
       </c>
       <c r="F12" t="n">
-        <v>9466.747587</v>
+        <v>9510.048890999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>366.8582700000006</v>
+        <v>410.1595739999993</v>
       </c>
       <c r="J12" t="n">
-        <v>4.03</v>
+        <v>4.51</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2927</v>
+        <v>2.2803</v>
       </c>
       <c r="F15" t="n">
-        <v>21322.11</v>
+        <v>21206.79</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1875.810000000001</v>
+        <v>1760.490000000002</v>
       </c>
       <c r="J15" t="n">
-        <v>9.65</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.05</v>
+        <v>28.03</v>
       </c>
       <c r="F16" t="n">
-        <v>14025</v>
+        <v>14015</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="J16" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.609999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>17220</v>
+        <v>17400</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-540</v>
+        <v>-360</v>
       </c>
       <c r="J17" t="n">
-        <v>-3.04</v>
+        <v>-2.03</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1177</v>
+        <v>1.1231</v>
       </c>
       <c r="F18" t="n">
-        <v>4390.537963</v>
+        <v>4411.750189</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>84.06326600000011</v>
+        <v>105.2754920000007</v>
       </c>
       <c r="J18" t="n">
-        <v>1.95</v>
+        <v>2.44</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5774</v>
+        <v>1.5903</v>
       </c>
       <c r="F19" t="n">
-        <v>13723.38</v>
+        <v>13835.61</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>264.4799999999996</v>
+        <v>376.7100000000009</v>
       </c>
       <c r="J19" t="n">
-        <v>1.97</v>
+        <v>2.8</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3045</v>
+        <v>1.3083</v>
       </c>
       <c r="F20" t="n">
-        <v>10339.28437</v>
+        <v>10369.402638</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>339.2268079999994</v>
+        <v>369.3450759999996</v>
       </c>
       <c r="J20" t="n">
-        <v>3.39</v>
+        <v>3.69</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2025</v>
+        <v>1.2108</v>
       </c>
       <c r="F21" t="n">
-        <v>13588.25</v>
+        <v>13682.04</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>954.8499999999985</v>
+        <v>1048.640000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>7.56</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5703</v>
+        <v>1.5806</v>
       </c>
       <c r="F22" t="n">
-        <v>838.367467</v>
+        <v>843.866534</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>109.2338940000001</v>
+        <v>114.732961</v>
       </c>
       <c r="J22" t="n">
-        <v>14.98</v>
+        <v>15.74</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5703</v>
+        <v>1.5806</v>
       </c>
       <c r="F23" t="n">
-        <v>20291.008322</v>
+        <v>20424.102244</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1090.594856</v>
+        <v>1223.688778</v>
       </c>
       <c r="J23" t="n">
-        <v>5.68</v>
+        <v>6.37</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4124</v>
+        <v>1.4229</v>
       </c>
       <c r="F24" t="n">
-        <v>924.1615680000001</v>
+        <v>931.0319280000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>124.1899360000001</v>
+        <v>131.0602960000001</v>
       </c>
       <c r="J24" t="n">
-        <v>15.52</v>
+        <v>16.38</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7019</v>
+        <v>5.7455</v>
       </c>
       <c r="F26" t="n">
-        <v>2368.227146</v>
+        <v>2386.33597</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>268.2265719999996</v>
+        <v>286.3353959999995</v>
       </c>
       <c r="J26" t="n">
-        <v>12.77</v>
+        <v>13.64</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8302</v>
+        <v>1.8439</v>
       </c>
       <c r="F28" t="n">
-        <v>7062.375760000001</v>
+        <v>7115.241320000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>762.498880000001</v>
+        <v>815.3644400000012</v>
       </c>
       <c r="J28" t="n">
-        <v>12.1</v>
+        <v>12.94</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8302</v>
+        <v>1.8439</v>
       </c>
       <c r="F29" t="n">
-        <v>15939.742558</v>
+        <v>16059.059831</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>939.7323910000014</v>
+        <v>1059.049664000002</v>
       </c>
       <c r="J29" t="n">
-        <v>6.26</v>
+        <v>7.06</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9046</v>
+        <v>1.8973</v>
       </c>
       <c r="F30" t="n">
-        <v>10014.558214</v>
+        <v>9976.174156999999</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1134.170013000001</v>
+        <v>1095.785956</v>
       </c>
       <c r="J30" t="n">
-        <v>12.77</v>
+        <v>12.34</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9046</v>
+        <v>1.8973</v>
       </c>
       <c r="F31" t="n">
-        <v>1284.214642</v>
+        <v>1279.292471</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>84.21632299999987</v>
+        <v>79.29415199999994</v>
       </c>
       <c r="J31" t="n">
-        <v>7.02</v>
+        <v>6.61</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2306</v>
+        <v>2.247</v>
       </c>
       <c r="F33" t="n">
-        <v>13606.66</v>
+        <v>13706.7</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1333.459999999999</v>
+        <v>1433.499999999998</v>
       </c>
       <c r="J33" t="n">
-        <v>10.86</v>
+        <v>11.68</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.785</v>
+        <v>1.799</v>
       </c>
       <c r="F34" t="n">
-        <v>34093.5</v>
+        <v>34360.9</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2922.299999999999</v>
+        <v>3189.700000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>9.369999999999999</v>
+        <v>10.23</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.855</v>
+        <v>5.8547</v>
       </c>
       <c r="F35" t="n">
-        <v>35635.7549</v>
+        <v>35633.928986</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2435.769275999999</v>
+        <v>2433.943361999998</v>
       </c>
       <c r="J35" t="n">
-        <v>7.34</v>
+        <v>7.33</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.855</v>
+        <v>5.8547</v>
       </c>
       <c r="F36" t="n">
-        <v>12101.4653</v>
+        <v>12100.845242</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,7 +5573,7 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>801.5283080000008</v>
+        <v>800.9082500000004</v>
       </c>
       <c r="J36" t="n">
         <v>7.09</v>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.855</v>
+        <v>5.8547</v>
       </c>
       <c r="F37" t="n">
-        <v>87825</v>
+        <v>87820.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>4530</v>
+        <v>4525.5</v>
       </c>
       <c r="J37" t="n">
-        <v>5.44</v>
+        <v>5.43</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3765</v>
+        <v>2.3936</v>
       </c>
       <c r="F38" t="n">
-        <v>17285.258865</v>
+        <v>17409.634176</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1485.230321999999</v>
+        <v>1609.605632999999</v>
       </c>
       <c r="J38" t="n">
-        <v>9.4</v>
+        <v>10.19</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3765</v>
+        <v>2.3936</v>
       </c>
       <c r="F39" t="n">
-        <v>24781.928115</v>
+        <v>24960.245376</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1782.129818999998</v>
+        <v>1960.447080000002</v>
       </c>
       <c r="J39" t="n">
-        <v>7.75</v>
+        <v>8.52</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8998</v>
+        <v>1.9152</v>
       </c>
       <c r="F40" t="n">
-        <v>12728.66</v>
+        <v>12831.84</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2276.66</v>
+        <v>2379.84</v>
       </c>
       <c r="J40" t="n">
-        <v>21.78</v>
+        <v>22.77</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>8.050000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="F41" t="n">
-        <v>8050.000000000001</v>
+        <v>8090</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>941.0000000000009</v>
+        <v>981</v>
       </c>
       <c r="J41" t="n">
-        <v>13.24</v>
+        <v>13.8</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>8.01</v>
+        <v>7.97</v>
       </c>
       <c r="F42" t="n">
-        <v>8811</v>
+        <v>8767</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2226.4</v>
+        <v>2182.4</v>
       </c>
       <c r="J42" t="n">
-        <v>33.81</v>
+        <v>33.14</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>43.08</v>
+        <v>43.44</v>
       </c>
       <c r="F43" t="n">
-        <v>64620</v>
+        <v>65160</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>165</v>
+        <v>705</v>
       </c>
       <c r="J43" t="n">
-        <v>0.26</v>
+        <v>1.09</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0282</v>
+        <v>3.0175</v>
       </c>
       <c r="F2" t="n">
-        <v>2239.929258</v>
+        <v>2232.014575</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>369.6970620000002</v>
+        <v>361.7823790000002</v>
       </c>
       <c r="J2" t="n">
-        <v>19.77</v>
+        <v>19.34</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.211</v>
+        <v>3.202</v>
       </c>
       <c r="F3" t="n">
-        <v>1041.39152</v>
+        <v>1038.47264</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>41.44809599999985</v>
+        <v>38.52921599999991</v>
       </c>
       <c r="J3" t="n">
-        <v>4.15</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.209</v>
+        <v>1.2015</v>
       </c>
       <c r="F4" t="n">
-        <v>6891.3</v>
+        <v>6848.55</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1470.6</v>
+        <v>1427.85</v>
       </c>
       <c r="J4" t="n">
-        <v>27.13</v>
+        <v>26.34</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9466</v>
+        <v>1.957</v>
       </c>
       <c r="F5" t="n">
-        <v>2308.531338</v>
+        <v>2320.86501</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-91.43520299999955</v>
+        <v>-79.1015309999998</v>
       </c>
       <c r="J5" t="n">
-        <v>-3.81</v>
+        <v>-3.3</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4782</v>
+        <v>1.4739</v>
       </c>
       <c r="F6" t="n">
-        <v>2508.934078</v>
+        <v>2501.635731</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>8.995636999999988</v>
+        <v>1.697290000000066</v>
       </c>
       <c r="J6" t="n">
-        <v>0.36</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4782</v>
+        <v>1.4739</v>
       </c>
       <c r="F7" t="n">
-        <v>5312.79862</v>
+        <v>5297.343989999999</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-7.188200000000506</v>
+        <v>-22.64283000000069</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.14</v>
+        <v>-0.43</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7428</v>
+        <v>1.7409</v>
       </c>
       <c r="F8" t="n">
-        <v>22482.12</v>
+        <v>22457.61</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3183.719999999998</v>
+        <v>3159.209999999995</v>
       </c>
       <c r="J8" t="n">
-        <v>16.5</v>
+        <v>16.37</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9227</v>
+        <v>2.9307</v>
       </c>
       <c r="F9" t="n">
-        <v>885.022787</v>
+        <v>887.4452669999999</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>136.082814</v>
+        <v>138.5052939999999</v>
       </c>
       <c r="J9" t="n">
-        <v>18.17</v>
+        <v>18.49</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1119</v>
+        <v>2.1027</v>
       </c>
       <c r="F10" t="n">
-        <v>2197.284117</v>
+        <v>2187.712161</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>197.2655280000001</v>
+        <v>187.6935719999999</v>
       </c>
       <c r="J10" t="n">
-        <v>9.859999999999999</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5813</v>
+        <v>1.5742</v>
       </c>
       <c r="F11" t="n">
-        <v>6542.201798999999</v>
+        <v>6512.827466</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>563.0770029999985</v>
+        <v>533.7026699999997</v>
       </c>
       <c r="J11" t="n">
-        <v>9.42</v>
+        <v>8.93</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5813</v>
+        <v>1.5742</v>
       </c>
       <c r="F12" t="n">
-        <v>9510.048890999999</v>
+        <v>9467.348994</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>410.1595739999993</v>
+        <v>367.4596770000007</v>
       </c>
       <c r="J12" t="n">
-        <v>4.51</v>
+        <v>4.04</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.03</v>
+        <v>28.25</v>
       </c>
       <c r="F16" t="n">
-        <v>14015</v>
+        <v>14125</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="J16" t="n">
-        <v>1.45</v>
+        <v>2.24</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1231</v>
+        <v>1.1244</v>
       </c>
       <c r="F18" t="n">
-        <v>4411.750189</v>
+        <v>4416.856836</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>105.2754920000007</v>
+        <v>110.3821390000003</v>
       </c>
       <c r="J18" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5903</v>
+        <v>1.5883</v>
       </c>
       <c r="F19" t="n">
-        <v>13835.61</v>
+        <v>13818.21</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>376.7100000000009</v>
+        <v>359.3100000000013</v>
       </c>
       <c r="J19" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3083</v>
+        <v>1.3273</v>
       </c>
       <c r="F20" t="n">
-        <v>10369.402638</v>
+        <v>10519.993978</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>369.3450759999996</v>
+        <v>519.9364159999986</v>
       </c>
       <c r="J20" t="n">
-        <v>3.69</v>
+        <v>5.2</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2108</v>
+        <v>1.2098</v>
       </c>
       <c r="F21" t="n">
-        <v>13682.04</v>
+        <v>13670.74</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1048.640000000001</v>
+        <v>1037.34</v>
       </c>
       <c r="J21" t="n">
-        <v>8.300000000000001</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5806</v>
+        <v>1.5753</v>
       </c>
       <c r="F22" t="n">
-        <v>843.866534</v>
+        <v>841.0369169999999</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>114.732961</v>
+        <v>111.9033439999999</v>
       </c>
       <c r="J22" t="n">
-        <v>15.74</v>
+        <v>15.35</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5806</v>
+        <v>1.5753</v>
       </c>
       <c r="F23" t="n">
-        <v>20424.102244</v>
+        <v>20355.617022</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1223.688778</v>
+        <v>1155.203555999997</v>
       </c>
       <c r="J23" t="n">
-        <v>6.37</v>
+        <v>6.02</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4229</v>
+        <v>1.4174</v>
       </c>
       <c r="F24" t="n">
-        <v>931.0319280000001</v>
+        <v>927.433168</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>131.0602960000001</v>
+        <v>127.461536</v>
       </c>
       <c r="J24" t="n">
-        <v>16.38</v>
+        <v>15.93</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7455</v>
+        <v>5.7229</v>
       </c>
       <c r="F26" t="n">
-        <v>2386.33597</v>
+        <v>2376.949286</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>286.3353959999995</v>
+        <v>276.9487119999999</v>
       </c>
       <c r="J26" t="n">
-        <v>13.64</v>
+        <v>13.19</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8439</v>
+        <v>1.8368</v>
       </c>
       <c r="F28" t="n">
-        <v>7115.241320000001</v>
+        <v>7087.84384</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>815.3644400000012</v>
+        <v>787.9669600000007</v>
       </c>
       <c r="J28" t="n">
-        <v>12.94</v>
+        <v>12.51</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8439</v>
+        <v>1.8368</v>
       </c>
       <c r="F29" t="n">
-        <v>16059.059831</v>
+        <v>15997.223872</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1059.049664000002</v>
+        <v>997.2137050000019</v>
       </c>
       <c r="J29" t="n">
-        <v>7.06</v>
+        <v>6.65</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8973</v>
+        <v>1.9133</v>
       </c>
       <c r="F30" t="n">
-        <v>9976.174156999999</v>
+        <v>10060.303597</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1095.785956</v>
+        <v>1179.915396</v>
       </c>
       <c r="J30" t="n">
-        <v>12.34</v>
+        <v>13.29</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8973</v>
+        <v>1.9133</v>
       </c>
       <c r="F31" t="n">
-        <v>1279.292471</v>
+        <v>1290.080791</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>79.29415199999994</v>
+        <v>90.08247199999983</v>
       </c>
       <c r="J31" t="n">
-        <v>6.61</v>
+        <v>7.51</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.247</v>
+        <v>2.2368</v>
       </c>
       <c r="F33" t="n">
-        <v>13706.7</v>
+        <v>13644.48</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1433.499999999998</v>
+        <v>1371.280000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>11.68</v>
+        <v>11.17</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.799</v>
+        <v>1.792</v>
       </c>
       <c r="F34" t="n">
-        <v>34360.9</v>
+        <v>34227.2</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3189.700000000001</v>
+        <v>3055.999999999996</v>
       </c>
       <c r="J34" t="n">
-        <v>10.23</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8547</v>
+        <v>5.9038</v>
       </c>
       <c r="F35" t="n">
-        <v>35633.928986</v>
+        <v>35932.770244</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2433.943361999998</v>
+        <v>2732.784619999999</v>
       </c>
       <c r="J35" t="n">
-        <v>7.33</v>
+        <v>8.23</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.8547</v>
+        <v>5.9038</v>
       </c>
       <c r="F36" t="n">
-        <v>12100.845242</v>
+        <v>12202.328068</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>800.9082500000004</v>
+        <v>902.3910759999999</v>
       </c>
       <c r="J36" t="n">
-        <v>7.09</v>
+        <v>7.99</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.8547</v>
+        <v>5.9038</v>
       </c>
       <c r="F37" t="n">
-        <v>87820.5</v>
+        <v>88557</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>4525.5</v>
+        <v>5262</v>
       </c>
       <c r="J37" t="n">
-        <v>5.43</v>
+        <v>6.32</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3936</v>
+        <v>2.383</v>
       </c>
       <c r="F38" t="n">
-        <v>17409.634176</v>
+        <v>17332.53603</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1609.605632999999</v>
+        <v>1532.507486999999</v>
       </c>
       <c r="J38" t="n">
-        <v>10.19</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3936</v>
+        <v>2.383</v>
       </c>
       <c r="F39" t="n">
-        <v>24960.245376</v>
+        <v>24849.70953</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1960.447080000002</v>
+        <v>1849.911233999999</v>
       </c>
       <c r="J39" t="n">
-        <v>8.52</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9152</v>
+        <v>1.9057</v>
       </c>
       <c r="F40" t="n">
-        <v>12831.84</v>
+        <v>12768.19</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2379.84</v>
+        <v>2316.190000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>22.77</v>
+        <v>22.16</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>8.09</v>
+        <v>8.06</v>
       </c>
       <c r="F41" t="n">
-        <v>8090</v>
+        <v>8060.000000000001</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>981</v>
+        <v>951.0000000000009</v>
       </c>
       <c r="J41" t="n">
-        <v>13.8</v>
+        <v>13.38</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.97</v>
+        <v>8</v>
       </c>
       <c r="F42" t="n">
-        <v>8767</v>
+        <v>8800</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2182.4</v>
+        <v>2215.4</v>
       </c>
       <c r="J42" t="n">
-        <v>33.14</v>
+        <v>33.65</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>43.44</v>
+        <v>43.27</v>
       </c>
       <c r="F43" t="n">
-        <v>65160</v>
+        <v>64905.00000000001</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>705</v>
+        <v>450.0000000000073</v>
       </c>
       <c r="J43" t="n">
-        <v>1.09</v>
+        <v>0.7</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0175</v>
+        <v>3.0028</v>
       </c>
       <c r="F2" t="n">
-        <v>2232.014575</v>
+        <v>2221.141132</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>361.7823790000002</v>
+        <v>350.9089360000003</v>
       </c>
       <c r="J2" t="n">
-        <v>19.34</v>
+        <v>18.76</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.202</v>
+        <v>3.181</v>
       </c>
       <c r="F3" t="n">
-        <v>1038.47264</v>
+        <v>1031.66192</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>38.52921599999991</v>
+        <v>31.71849599999996</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>3.17</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2015</v>
+        <v>1.1948</v>
       </c>
       <c r="F4" t="n">
-        <v>6848.55</v>
+        <v>6810.360000000001</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1427.85</v>
+        <v>1389.660000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>26.34</v>
+        <v>25.64</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.957</v>
+        <v>1.9573</v>
       </c>
       <c r="F5" t="n">
-        <v>2320.86501</v>
+        <v>2321.220789</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-79.1015309999998</v>
+        <v>-78.74575199999981</v>
       </c>
       <c r="J5" t="n">
-        <v>-3.3</v>
+        <v>-3.28</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4739</v>
+        <v>1.4661</v>
       </c>
       <c r="F6" t="n">
-        <v>2501.635731</v>
+        <v>2488.396869</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>1.697290000000066</v>
+        <v>-11.54157200000009</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.46</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4739</v>
+        <v>1.4661</v>
       </c>
       <c r="F7" t="n">
-        <v>5297.343989999999</v>
+        <v>5269.31001</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-22.64283000000069</v>
+        <v>-50.67680999999993</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.43</v>
+        <v>-0.95</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7409</v>
+        <v>1.7588</v>
       </c>
       <c r="F8" t="n">
-        <v>22457.61</v>
+        <v>22688.52</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3159.209999999995</v>
+        <v>3390.119999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>16.37</v>
+        <v>17.57</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9307</v>
+        <v>2.9375</v>
       </c>
       <c r="F9" t="n">
-        <v>887.4452669999999</v>
+        <v>889.504375</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>138.5052939999999</v>
+        <v>140.564402</v>
       </c>
       <c r="J9" t="n">
-        <v>18.49</v>
+        <v>18.77</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1027</v>
+        <v>2.1063</v>
       </c>
       <c r="F10" t="n">
-        <v>2187.712161</v>
+        <v>2191.457709</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>187.6935719999999</v>
+        <v>191.4391200000002</v>
       </c>
       <c r="J10" t="n">
-        <v>9.380000000000001</v>
+        <v>9.57</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5742</v>
+        <v>1.5781</v>
       </c>
       <c r="F11" t="n">
-        <v>6512.827466</v>
+        <v>6528.962662999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>533.7026699999997</v>
+        <v>549.8378669999993</v>
       </c>
       <c r="J11" t="n">
-        <v>8.93</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5742</v>
+        <v>1.5781</v>
       </c>
       <c r="F12" t="n">
-        <v>9467.348994</v>
+        <v>9490.803867000001</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>367.4596770000007</v>
+        <v>390.9145500000013</v>
       </c>
       <c r="J12" t="n">
-        <v>4.04</v>
+        <v>4.3</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2803</v>
+        <v>2.2869</v>
       </c>
       <c r="F15" t="n">
-        <v>21206.79</v>
+        <v>21268.17</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1760.490000000002</v>
+        <v>1821.870000000003</v>
       </c>
       <c r="J15" t="n">
-        <v>9.050000000000001</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.25</v>
+        <v>28.3</v>
       </c>
       <c r="F16" t="n">
-        <v>14125</v>
+        <v>14150</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="J16" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.699999999999999</v>
+        <v>8.69</v>
       </c>
       <c r="F17" t="n">
-        <v>17400</v>
+        <v>17380</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-360</v>
+        <v>-380</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.03</v>
+        <v>-2.14</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1244</v>
+        <v>1.1246</v>
       </c>
       <c r="F18" t="n">
-        <v>4416.856836</v>
+        <v>4417.642474</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>110.3821390000003</v>
+        <v>111.1677770000006</v>
       </c>
       <c r="J18" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5883</v>
+        <v>1.5852</v>
       </c>
       <c r="F19" t="n">
-        <v>13818.21</v>
+        <v>13791.24</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>359.3100000000013</v>
+        <v>332.3400000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>2.67</v>
+        <v>2.47</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3273</v>
+        <v>1.3193</v>
       </c>
       <c r="F20" t="n">
-        <v>10519.993978</v>
+        <v>10456.587098</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>519.9364159999986</v>
+        <v>456.5295359999982</v>
       </c>
       <c r="J20" t="n">
-        <v>5.2</v>
+        <v>4.57</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2098</v>
+        <v>1.2038</v>
       </c>
       <c r="F21" t="n">
-        <v>13670.74</v>
+        <v>13602.94</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1037.34</v>
+        <v>969.5400000000009</v>
       </c>
       <c r="J21" t="n">
-        <v>8.210000000000001</v>
+        <v>7.67</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5753</v>
+        <v>1.5868</v>
       </c>
       <c r="F22" t="n">
-        <v>841.0369169999999</v>
+        <v>847.176652</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>111.9033439999999</v>
+        <v>118.043079</v>
       </c>
       <c r="J22" t="n">
-        <v>15.35</v>
+        <v>16.19</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5753</v>
+        <v>1.5868</v>
       </c>
       <c r="F23" t="n">
-        <v>20355.617022</v>
+        <v>20504.217032</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1155.203555999997</v>
+        <v>1303.803565999999</v>
       </c>
       <c r="J23" t="n">
-        <v>6.02</v>
+        <v>6.79</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4174</v>
+        <v>1.4293</v>
       </c>
       <c r="F24" t="n">
-        <v>927.433168</v>
+        <v>935.2195760000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>127.461536</v>
+        <v>135.2479440000001</v>
       </c>
       <c r="J24" t="n">
-        <v>15.93</v>
+        <v>16.91</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7229</v>
+        <v>5.772</v>
       </c>
       <c r="F26" t="n">
-        <v>2376.949286</v>
+        <v>2397.34248</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>276.9487119999999</v>
+        <v>297.3419059999997</v>
       </c>
       <c r="J26" t="n">
-        <v>13.19</v>
+        <v>14.16</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8368</v>
+        <v>1.8522</v>
       </c>
       <c r="F28" t="n">
-        <v>7087.84384</v>
+        <v>7147.26936</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>787.9669600000007</v>
+        <v>847.3924800000004</v>
       </c>
       <c r="J28" t="n">
-        <v>12.51</v>
+        <v>13.45</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8368</v>
+        <v>1.8522</v>
       </c>
       <c r="F29" t="n">
-        <v>15997.223872</v>
+        <v>16131.346938</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>997.2137050000019</v>
+        <v>1131.336771000002</v>
       </c>
       <c r="J29" t="n">
-        <v>6.65</v>
+        <v>7.54</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9133</v>
+        <v>1.916</v>
       </c>
       <c r="F30" t="n">
-        <v>10060.303597</v>
+        <v>10074.50044</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1179.915396</v>
+        <v>1194.112239</v>
       </c>
       <c r="J30" t="n">
-        <v>13.29</v>
+        <v>13.45</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9133</v>
+        <v>1.916</v>
       </c>
       <c r="F31" t="n">
-        <v>1290.080791</v>
+        <v>1291.90132</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>90.08247199999983</v>
+        <v>91.9030009999999</v>
       </c>
       <c r="J31" t="n">
-        <v>7.51</v>
+        <v>7.66</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2368</v>
+        <v>2.2549</v>
       </c>
       <c r="F33" t="n">
-        <v>13644.48</v>
+        <v>13754.89</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1371.280000000001</v>
+        <v>1481.690000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>11.17</v>
+        <v>12.07</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.792</v>
+        <v>1.808</v>
       </c>
       <c r="F34" t="n">
-        <v>34227.2</v>
+        <v>34532.8</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3055.999999999996</v>
+        <v>3361.600000000002</v>
       </c>
       <c r="J34" t="n">
-        <v>9.800000000000001</v>
+        <v>10.78</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.9038</v>
+        <v>5.8804</v>
       </c>
       <c r="F35" t="n">
-        <v>35932.770244</v>
+        <v>35790.348952</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2732.784619999999</v>
+        <v>2590.363327999999</v>
       </c>
       <c r="J35" t="n">
-        <v>8.23</v>
+        <v>7.8</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.9038</v>
+        <v>5.8804</v>
       </c>
       <c r="F36" t="n">
-        <v>12202.328068</v>
+        <v>12153.963544</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>902.3910759999999</v>
+        <v>854.0265519999994</v>
       </c>
       <c r="J36" t="n">
-        <v>7.99</v>
+        <v>7.56</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.9038</v>
+        <v>5.8804</v>
       </c>
       <c r="F37" t="n">
-        <v>88557</v>
+        <v>88206</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>5262</v>
+        <v>4911</v>
       </c>
       <c r="J37" t="n">
-        <v>6.32</v>
+        <v>5.9</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.383</v>
+        <v>2.4043</v>
       </c>
       <c r="F38" t="n">
-        <v>17332.53603</v>
+        <v>17487.459663</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1532.507486999999</v>
+        <v>1687.431120000001</v>
       </c>
       <c r="J38" t="n">
-        <v>9.699999999999999</v>
+        <v>10.68</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.383</v>
+        <v>2.4043</v>
       </c>
       <c r="F39" t="n">
-        <v>24849.70953</v>
+        <v>25071.824013</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1849.911233999999</v>
+        <v>2072.025717</v>
       </c>
       <c r="J39" t="n">
-        <v>8.039999999999999</v>
+        <v>9.01</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9057</v>
+        <v>1.9248</v>
       </c>
       <c r="F40" t="n">
-        <v>12768.19</v>
+        <v>12896.16</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2316.190000000001</v>
+        <v>2444.16</v>
       </c>
       <c r="J40" t="n">
-        <v>22.16</v>
+        <v>23.38</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>8.06</v>
+        <v>8.07</v>
       </c>
       <c r="F41" t="n">
-        <v>8060.000000000001</v>
+        <v>8070</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>951.0000000000009</v>
+        <v>961</v>
       </c>
       <c r="J41" t="n">
-        <v>13.38</v>
+        <v>13.52</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>8</v>
+        <v>7.96</v>
       </c>
       <c r="F42" t="n">
-        <v>8800</v>
+        <v>8756</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2215.4</v>
+        <v>2171.4</v>
       </c>
       <c r="J42" t="n">
-        <v>33.65</v>
+        <v>32.98</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>43.27</v>
+        <v>43.05</v>
       </c>
       <c r="F43" t="n">
-        <v>64905.00000000001</v>
+        <v>64574.99999999999</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>450.0000000000073</v>
+        <v>119.9999999999927</v>
       </c>
       <c r="J43" t="n">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0028</v>
+        <v>3.0002</v>
       </c>
       <c r="F2" t="n">
-        <v>2221.141132</v>
+        <v>2219.217938</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>350.9089360000003</v>
+        <v>348.9857420000003</v>
       </c>
       <c r="J2" t="n">
-        <v>18.76</v>
+        <v>18.66</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.181</v>
+        <v>3.2053</v>
       </c>
       <c r="F3" t="n">
-        <v>1031.66192</v>
+        <v>1039.542896</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>31.71849599999996</v>
+        <v>39.59947199999988</v>
       </c>
       <c r="J3" t="n">
-        <v>3.17</v>
+        <v>3.96</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.1948</v>
+        <v>1.1995</v>
       </c>
       <c r="F4" t="n">
-        <v>6810.360000000001</v>
+        <v>6837.15</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1389.660000000001</v>
+        <v>1416.45</v>
       </c>
       <c r="J4" t="n">
-        <v>25.64</v>
+        <v>26.13</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9573</v>
+        <v>1.975</v>
       </c>
       <c r="F5" t="n">
-        <v>2321.220789</v>
+        <v>2342.21175</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-78.74575199999981</v>
+        <v>-57.75479099999939</v>
       </c>
       <c r="J5" t="n">
-        <v>-3.28</v>
+        <v>-2.41</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4661</v>
+        <v>1.4565</v>
       </c>
       <c r="F6" t="n">
-        <v>2488.396869</v>
+        <v>2472.102885</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-11.54157200000009</v>
+        <v>-27.835556</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.46</v>
+        <v>-1.11</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4661</v>
+        <v>1.4565</v>
       </c>
       <c r="F7" t="n">
-        <v>5269.31001</v>
+        <v>5234.80665</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-50.67680999999993</v>
+        <v>-85.18017000000054</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.95</v>
+        <v>-1.6</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7588</v>
+        <v>1.8049</v>
       </c>
       <c r="F8" t="n">
-        <v>22688.52</v>
+        <v>23283.21</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3390.119999999999</v>
+        <v>3984.809999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>17.57</v>
+        <v>20.65</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9375</v>
+        <v>2.9397</v>
       </c>
       <c r="F9" t="n">
-        <v>889.504375</v>
+        <v>890.170557</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>140.564402</v>
+        <v>141.230584</v>
       </c>
       <c r="J9" t="n">
-        <v>18.77</v>
+        <v>18.86</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1063</v>
+        <v>2.1123</v>
       </c>
       <c r="F10" t="n">
-        <v>2191.457709</v>
+        <v>2197.700289</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>191.4391200000002</v>
+        <v>197.6816999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>9.57</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5781</v>
+        <v>1.581</v>
       </c>
       <c r="F11" t="n">
-        <v>6528.962662999999</v>
+        <v>6540.96063</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>549.8378669999993</v>
+        <v>561.8358339999995</v>
       </c>
       <c r="J11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5781</v>
+        <v>1.581</v>
       </c>
       <c r="F12" t="n">
-        <v>9490.803867000001</v>
+        <v>9508.24467</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>390.9145500000013</v>
+        <v>408.3553530000008</v>
       </c>
       <c r="J12" t="n">
-        <v>4.3</v>
+        <v>4.49</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2869</v>
+        <v>2.2942</v>
       </c>
       <c r="F15" t="n">
-        <v>21268.17</v>
+        <v>21336.06</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1821.870000000003</v>
+        <v>1889.760000000002</v>
       </c>
       <c r="J15" t="n">
-        <v>9.369999999999999</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.3</v>
+        <v>28.24</v>
       </c>
       <c r="F16" t="n">
-        <v>14150</v>
+        <v>14120</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="J16" t="n">
-        <v>2.42</v>
+        <v>2.21</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.69</v>
+        <v>8.68</v>
       </c>
       <c r="F17" t="n">
-        <v>17380</v>
+        <v>17360</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-380</v>
+        <v>-400</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.14</v>
+        <v>-2.25</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1246</v>
+        <v>1.1199</v>
       </c>
       <c r="F18" t="n">
-        <v>4417.642474</v>
+        <v>4399.179980999999</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>111.1677770000006</v>
+        <v>92.70528399999966</v>
       </c>
       <c r="J18" t="n">
-        <v>2.58</v>
+        <v>2.15</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5852</v>
+        <v>1.5797</v>
       </c>
       <c r="F19" t="n">
-        <v>13791.24</v>
+        <v>13743.39</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>332.3400000000001</v>
+        <v>284.4900000000016</v>
       </c>
       <c r="J19" t="n">
-        <v>2.47</v>
+        <v>2.11</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3193</v>
+        <v>1.3206</v>
       </c>
       <c r="F20" t="n">
-        <v>10456.587098</v>
+        <v>10466.890716</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>456.5295359999982</v>
+        <v>466.8331539999999</v>
       </c>
       <c r="J20" t="n">
-        <v>4.57</v>
+        <v>4.67</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2038</v>
+        <v>1.1982</v>
       </c>
       <c r="F21" t="n">
-        <v>13602.94</v>
+        <v>13539.66</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>969.5400000000009</v>
+        <v>906.2600000000002</v>
       </c>
       <c r="J21" t="n">
-        <v>7.67</v>
+        <v>7.17</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5868</v>
+        <v>1.5887</v>
       </c>
       <c r="F22" t="n">
-        <v>847.176652</v>
+        <v>848.1910429999999</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>118.043079</v>
+        <v>119.05747</v>
       </c>
       <c r="J22" t="n">
-        <v>16.19</v>
+        <v>16.33</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5868</v>
+        <v>1.5887</v>
       </c>
       <c r="F23" t="n">
-        <v>20504.217032</v>
+        <v>20528.768338</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1303.803565999999</v>
+        <v>1328.354871999996</v>
       </c>
       <c r="J23" t="n">
-        <v>6.79</v>
+        <v>6.92</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4293</v>
+        <v>1.4313</v>
       </c>
       <c r="F24" t="n">
-        <v>935.2195760000001</v>
+        <v>936.528216</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>135.2479440000001</v>
+        <v>136.556584</v>
       </c>
       <c r="J24" t="n">
-        <v>16.91</v>
+        <v>17.07</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.772</v>
+        <v>5.7808</v>
       </c>
       <c r="F26" t="n">
-        <v>2397.34248</v>
+        <v>2400.997472</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>297.3419059999997</v>
+        <v>300.9968979999999</v>
       </c>
       <c r="J26" t="n">
-        <v>14.16</v>
+        <v>14.33</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8522</v>
+        <v>1.8548</v>
       </c>
       <c r="F28" t="n">
-        <v>7147.26936</v>
+        <v>7157.30224</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>847.3924800000004</v>
+        <v>857.4253600000002</v>
       </c>
       <c r="J28" t="n">
-        <v>13.45</v>
+        <v>13.61</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8522</v>
+        <v>1.8548</v>
       </c>
       <c r="F29" t="n">
-        <v>16131.346938</v>
+        <v>16153.991092</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1131.336771000002</v>
+        <v>1153.980925000002</v>
       </c>
       <c r="J29" t="n">
-        <v>7.54</v>
+        <v>7.69</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.916</v>
+        <v>1.9136</v>
       </c>
       <c r="F30" t="n">
-        <v>10074.50044</v>
+        <v>10061.881024</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1194.112239</v>
+        <v>1181.492823</v>
       </c>
       <c r="J30" t="n">
-        <v>13.45</v>
+        <v>13.3</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.916</v>
+        <v>1.9136</v>
       </c>
       <c r="F31" t="n">
-        <v>1291.90132</v>
+        <v>1290.283072</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>91.9030009999999</v>
+        <v>90.28475299999991</v>
       </c>
       <c r="J31" t="n">
-        <v>7.66</v>
+        <v>7.52</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2549</v>
+        <v>2.2577</v>
       </c>
       <c r="F33" t="n">
-        <v>13754.89</v>
+        <v>13771.97</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1481.690000000001</v>
+        <v>1498.769999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>12.07</v>
+        <v>12.21</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.808</v>
+        <v>1.811</v>
       </c>
       <c r="F34" t="n">
-        <v>34532.8</v>
+        <v>34590.1</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3361.600000000002</v>
+        <v>3418.899999999998</v>
       </c>
       <c r="J34" t="n">
-        <v>10.78</v>
+        <v>10.97</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8804</v>
+        <v>5.9001</v>
       </c>
       <c r="F35" t="n">
-        <v>35790.348952</v>
+        <v>35910.250638</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2590.363327999999</v>
+        <v>2710.265014000004</v>
       </c>
       <c r="J35" t="n">
-        <v>7.8</v>
+        <v>8.16</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.8804</v>
+        <v>5.9001</v>
       </c>
       <c r="F36" t="n">
-        <v>12153.963544</v>
+        <v>12194.680686</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>854.0265519999994</v>
+        <v>894.7436940000007</v>
       </c>
       <c r="J36" t="n">
-        <v>7.56</v>
+        <v>7.92</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.8804</v>
+        <v>5.9001</v>
       </c>
       <c r="F37" t="n">
-        <v>88206</v>
+        <v>88501.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>4911</v>
+        <v>5206.5</v>
       </c>
       <c r="J37" t="n">
-        <v>5.9</v>
+        <v>6.25</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.4043</v>
+        <v>2.4069</v>
       </c>
       <c r="F38" t="n">
-        <v>17487.459663</v>
+        <v>17506.370529</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1687.431120000001</v>
+        <v>1706.341985999999</v>
       </c>
       <c r="J38" t="n">
-        <v>10.68</v>
+        <v>10.8</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.4043</v>
+        <v>2.4069</v>
       </c>
       <c r="F39" t="n">
-        <v>25071.824013</v>
+        <v>25098.936579</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>2072.025717</v>
+        <v>2099.138282999997</v>
       </c>
       <c r="J39" t="n">
-        <v>9.01</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9248</v>
+        <v>1.9278</v>
       </c>
       <c r="F40" t="n">
-        <v>12896.16</v>
+        <v>12916.26</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2444.16</v>
+        <v>2464.26</v>
       </c>
       <c r="J40" t="n">
-        <v>23.38</v>
+        <v>23.58</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>8.07</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>8070</v>
+        <v>8039.999999999999</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>961</v>
+        <v>930.9999999999991</v>
       </c>
       <c r="J41" t="n">
-        <v>13.52</v>
+        <v>13.1</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.96</v>
+        <v>7.89</v>
       </c>
       <c r="F42" t="n">
-        <v>8756</v>
+        <v>8679</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2171.4</v>
+        <v>2094.4</v>
       </c>
       <c r="J42" t="n">
-        <v>32.98</v>
+        <v>31.81</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>43.05</v>
+        <v>43.25</v>
       </c>
       <c r="F43" t="n">
-        <v>64574.99999999999</v>
+        <v>64875</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>119.9999999999927</v>
+        <v>420</v>
       </c>
       <c r="J43" t="n">
-        <v>0.19</v>
+        <v>0.65</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0002</v>
+        <v>3.0215</v>
       </c>
       <c r="F2" t="n">
-        <v>2219.217938</v>
+        <v>2234.973335</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>348.9857420000003</v>
+        <v>364.7411390000002</v>
       </c>
       <c r="J2" t="n">
-        <v>18.66</v>
+        <v>19.5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.1995</v>
+        <v>1.2109</v>
       </c>
       <c r="F4" t="n">
-        <v>6837.15</v>
+        <v>6902.13</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1416.45</v>
+        <v>1481.43</v>
       </c>
       <c r="J4" t="n">
-        <v>26.13</v>
+        <v>27.33</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4565</v>
+        <v>1.4608</v>
       </c>
       <c r="F6" t="n">
-        <v>2472.102885</v>
+        <v>2479.401232</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-27.835556</v>
+        <v>-20.53720899999962</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.11</v>
+        <v>-0.82</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4565</v>
+        <v>1.4608</v>
       </c>
       <c r="F7" t="n">
-        <v>5234.80665</v>
+        <v>5250.261280000001</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-85.18017000000054</v>
+        <v>-69.72553999999946</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.6</v>
+        <v>-1.31</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8049</v>
+        <v>1.7938</v>
       </c>
       <c r="F8" t="n">
-        <v>23283.21</v>
+        <v>23140.02</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3984.809999999998</v>
+        <v>3841.619999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>20.65</v>
+        <v>19.91</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1123</v>
+        <v>2.1131</v>
       </c>
       <c r="F10" t="n">
-        <v>2197.700289</v>
+        <v>2198.532633</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>197.6816999999999</v>
+        <v>198.5140440000002</v>
       </c>
       <c r="J10" t="n">
-        <v>9.880000000000001</v>
+        <v>9.93</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.581</v>
+        <v>1.5818</v>
       </c>
       <c r="F11" t="n">
-        <v>6540.96063</v>
+        <v>6544.270414</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>561.8358339999995</v>
+        <v>565.1456179999996</v>
       </c>
       <c r="J11" t="n">
-        <v>9.4</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.581</v>
+        <v>1.5818</v>
       </c>
       <c r="F12" t="n">
-        <v>9508.24467</v>
+        <v>9513.055926000001</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>408.3553530000008</v>
+        <v>413.1666090000017</v>
       </c>
       <c r="J12" t="n">
-        <v>4.49</v>
+        <v>4.54</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1199</v>
+        <v>1.1193</v>
       </c>
       <c r="F18" t="n">
-        <v>4399.179980999999</v>
+        <v>4396.823067</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>92.70528399999966</v>
+        <v>90.34837000000061</v>
       </c>
       <c r="J18" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5797</v>
+        <v>1.581</v>
       </c>
       <c r="F19" t="n">
-        <v>13743.39</v>
+        <v>13754.7</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>284.4900000000016</v>
+        <v>295.7999999999993</v>
       </c>
       <c r="J19" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3206</v>
+        <v>1.3187</v>
       </c>
       <c r="F20" t="n">
-        <v>10466.890716</v>
+        <v>10451.831582</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>466.8331539999999</v>
+        <v>451.7740199999989</v>
       </c>
       <c r="J20" t="n">
-        <v>4.67</v>
+        <v>4.52</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1982</v>
+        <v>1.1916</v>
       </c>
       <c r="F21" t="n">
-        <v>13539.66</v>
+        <v>13465.08</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>906.2600000000002</v>
+        <v>831.6800000000003</v>
       </c>
       <c r="J21" t="n">
-        <v>7.17</v>
+        <v>6.58</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5887</v>
+        <v>1.587</v>
       </c>
       <c r="F22" t="n">
-        <v>848.1910429999999</v>
+        <v>847.28343</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>119.05747</v>
+        <v>118.149857</v>
       </c>
       <c r="J22" t="n">
-        <v>16.33</v>
+        <v>16.2</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5887</v>
+        <v>1.587</v>
       </c>
       <c r="F23" t="n">
-        <v>20528.768338</v>
+        <v>20506.80138</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1328.354871999996</v>
+        <v>1306.387913999999</v>
       </c>
       <c r="J23" t="n">
-        <v>6.92</v>
+        <v>6.8</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4313</v>
+        <v>1.4296</v>
       </c>
       <c r="F24" t="n">
-        <v>936.528216</v>
+        <v>935.415872</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>136.556584</v>
+        <v>135.44424</v>
       </c>
       <c r="J24" t="n">
-        <v>17.07</v>
+        <v>16.93</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7808</v>
+        <v>5.7732</v>
       </c>
       <c r="F26" t="n">
-        <v>2400.997472</v>
+        <v>2397.840888</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>300.9968979999999</v>
+        <v>297.8403139999996</v>
       </c>
       <c r="J26" t="n">
-        <v>14.33</v>
+        <v>14.18</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8548</v>
+        <v>1.8526</v>
       </c>
       <c r="F28" t="n">
-        <v>7157.30224</v>
+        <v>7148.81288</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>857.4253600000002</v>
+        <v>848.9360000000006</v>
       </c>
       <c r="J28" t="n">
-        <v>13.61</v>
+        <v>13.48</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8548</v>
+        <v>1.8526</v>
       </c>
       <c r="F29" t="n">
-        <v>16153.991092</v>
+        <v>16134.830654</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1153.980925000002</v>
+        <v>1134.820487000001</v>
       </c>
       <c r="J29" t="n">
-        <v>7.69</v>
+        <v>7.57</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2577</v>
+        <v>2.2569</v>
       </c>
       <c r="F33" t="n">
-        <v>13771.97</v>
+        <v>13767.09</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1498.769999999999</v>
+        <v>1493.889999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>12.21</v>
+        <v>12.17</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.811</v>
+        <v>1.808</v>
       </c>
       <c r="F34" t="n">
-        <v>34590.1</v>
+        <v>34532.8</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3418.899999999998</v>
+        <v>3361.600000000002</v>
       </c>
       <c r="J34" t="n">
-        <v>10.97</v>
+        <v>10.78</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.4069</v>
+        <v>2.4091</v>
       </c>
       <c r="F38" t="n">
-        <v>17506.370529</v>
+        <v>17522.372031</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1706.341985999999</v>
+        <v>1722.343487999999</v>
       </c>
       <c r="J38" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.4069</v>
+        <v>2.4091</v>
       </c>
       <c r="F39" t="n">
-        <v>25098.936579</v>
+        <v>25121.877981</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>2099.138282999997</v>
+        <v>2122.079685000001</v>
       </c>
       <c r="J39" t="n">
-        <v>9.130000000000001</v>
+        <v>9.23</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9278</v>
+        <v>1.9297</v>
       </c>
       <c r="F40" t="n">
-        <v>12916.26</v>
+        <v>12928.99</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2464.26</v>
+        <v>2476.99</v>
       </c>
       <c r="J40" t="n">
-        <v>23.58</v>
+        <v>23.7</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.2053</v>
+        <v>3.2319</v>
       </c>
       <c r="F3" t="n">
-        <v>1039.542896</v>
+        <v>1048.169808</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>39.59947199999988</v>
+        <v>48.22638399999983</v>
       </c>
       <c r="J3" t="n">
-        <v>3.96</v>
+        <v>4.82</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9397</v>
+        <v>2.9458</v>
       </c>
       <c r="F9" t="n">
-        <v>890.170557</v>
+        <v>892.0176980000001</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>141.230584</v>
+        <v>143.0777250000001</v>
       </c>
       <c r="J9" t="n">
-        <v>18.86</v>
+        <v>19.1</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2942</v>
+        <v>2.2993</v>
       </c>
       <c r="F15" t="n">
-        <v>21336.06</v>
+        <v>21383.49</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1889.760000000002</v>
+        <v>1937.190000000002</v>
       </c>
       <c r="J15" t="n">
-        <v>9.720000000000001</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.24</v>
+        <v>28.07</v>
       </c>
       <c r="F16" t="n">
-        <v>14120</v>
+        <v>14035</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="J16" t="n">
-        <v>2.21</v>
+        <v>1.59</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.68</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>17360</v>
+        <v>17600</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-400</v>
+        <v>-160</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.25</v>
+        <v>-0.9</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9136</v>
+        <v>1.922</v>
       </c>
       <c r="F30" t="n">
-        <v>10061.881024</v>
+        <v>10106.04898</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1181.492823</v>
+        <v>1225.660779</v>
       </c>
       <c r="J30" t="n">
-        <v>13.3</v>
+        <v>13.8</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9136</v>
+        <v>1.922</v>
       </c>
       <c r="F31" t="n">
-        <v>1290.283072</v>
+        <v>1295.94694</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>90.28475299999991</v>
+        <v>95.94862099999978</v>
       </c>
       <c r="J31" t="n">
-        <v>7.52</v>
+        <v>8</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.9001</v>
+        <v>5.9258</v>
       </c>
       <c r="F35" t="n">
-        <v>35910.250638</v>
+        <v>36066.670604</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2710.265014000004</v>
+        <v>2866.684979999998</v>
       </c>
       <c r="J35" t="n">
-        <v>8.16</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.9001</v>
+        <v>5.9258</v>
       </c>
       <c r="F36" t="n">
-        <v>12194.680686</v>
+        <v>12247.798988</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>894.7436940000007</v>
+        <v>947.8619959999996</v>
       </c>
       <c r="J36" t="n">
-        <v>7.92</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.9001</v>
+        <v>5.9258</v>
       </c>
       <c r="F37" t="n">
-        <v>88501.5</v>
+        <v>88887</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>5206.5</v>
+        <v>5592</v>
       </c>
       <c r="J37" t="n">
-        <v>6.25</v>
+        <v>6.71</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>8.039999999999999</v>
+        <v>7.99</v>
       </c>
       <c r="F41" t="n">
-        <v>8039.999999999999</v>
+        <v>7990</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>930.9999999999991</v>
+        <v>881</v>
       </c>
       <c r="J41" t="n">
-        <v>13.1</v>
+        <v>12.39</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.89</v>
+        <v>7.82</v>
       </c>
       <c r="F42" t="n">
-        <v>8679</v>
+        <v>8602</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2094.4</v>
+        <v>2017.4</v>
       </c>
       <c r="J42" t="n">
-        <v>31.81</v>
+        <v>30.64</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>43.25</v>
+        <v>43.44</v>
       </c>
       <c r="F43" t="n">
-        <v>64875</v>
+        <v>65160</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>420</v>
+        <v>705</v>
       </c>
       <c r="J43" t="n">
-        <v>0.65</v>
+        <v>1.09</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0215</v>
+        <v>3.0143</v>
       </c>
       <c r="F2" t="n">
-        <v>2234.973335</v>
+        <v>2229.647567</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>364.7411390000002</v>
+        <v>359.4153710000001</v>
       </c>
       <c r="J2" t="n">
-        <v>19.5</v>
+        <v>19.22</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.2319</v>
+        <v>3.1893</v>
       </c>
       <c r="F3" t="n">
-        <v>1048.169808</v>
+        <v>1034.353776</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>48.22638399999983</v>
+        <v>34.41035199999988</v>
       </c>
       <c r="J3" t="n">
-        <v>4.82</v>
+        <v>3.44</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2109</v>
+        <v>1.2213</v>
       </c>
       <c r="F4" t="n">
-        <v>6902.13</v>
+        <v>6961.41</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1481.43</v>
+        <v>1540.71</v>
       </c>
       <c r="J4" t="n">
-        <v>27.33</v>
+        <v>28.42</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.975</v>
+        <v>1.9872</v>
       </c>
       <c r="F5" t="n">
-        <v>2342.21175</v>
+        <v>2356.680096</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-57.75479099999939</v>
+        <v>-43.28644499999973</v>
       </c>
       <c r="J5" t="n">
-        <v>-2.41</v>
+        <v>-1.8</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4608</v>
+        <v>1.4665</v>
       </c>
       <c r="F6" t="n">
-        <v>2479.401232</v>
+        <v>2489.075785</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-20.53720899999962</v>
+        <v>-10.86265599999979</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.82</v>
+        <v>-0.43</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4608</v>
+        <v>1.4665</v>
       </c>
       <c r="F7" t="n">
-        <v>5250.261280000001</v>
+        <v>5270.747649999999</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-69.72553999999946</v>
+        <v>-49.23917000000074</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.31</v>
+        <v>-0.93</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7938</v>
+        <v>1.7891</v>
       </c>
       <c r="F8" t="n">
-        <v>23140.02</v>
+        <v>23079.39</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3841.619999999999</v>
+        <v>3780.989999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>19.91</v>
+        <v>19.59</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9458</v>
+        <v>2.9368</v>
       </c>
       <c r="F9" t="n">
-        <v>892.0176980000001</v>
+        <v>889.2924079999999</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>143.0777250000001</v>
+        <v>140.3524349999999</v>
       </c>
       <c r="J9" t="n">
-        <v>19.1</v>
+        <v>18.74</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1131</v>
+        <v>2.1173</v>
       </c>
       <c r="F10" t="n">
-        <v>2198.532633</v>
+        <v>2202.902439</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>198.5140440000002</v>
+        <v>202.8838500000004</v>
       </c>
       <c r="J10" t="n">
-        <v>9.93</v>
+        <v>10.14</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5818</v>
+        <v>1.585</v>
       </c>
       <c r="F11" t="n">
-        <v>6544.270414</v>
+        <v>6557.509549999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>565.1456179999996</v>
+        <v>578.3847539999988</v>
       </c>
       <c r="J11" t="n">
-        <v>9.449999999999999</v>
+        <v>9.67</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5818</v>
+        <v>1.585</v>
       </c>
       <c r="F12" t="n">
-        <v>9513.055926000001</v>
+        <v>9532.300949999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>413.1666090000017</v>
+        <v>432.4116329999997</v>
       </c>
       <c r="J12" t="n">
-        <v>4.54</v>
+        <v>4.75</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2993</v>
+        <v>2.2917</v>
       </c>
       <c r="F15" t="n">
-        <v>21383.49</v>
+        <v>21312.81</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1937.190000000002</v>
+        <v>1866.510000000002</v>
       </c>
       <c r="J15" t="n">
-        <v>9.960000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.07</v>
+        <v>27.93</v>
       </c>
       <c r="F16" t="n">
-        <v>14035</v>
+        <v>13965</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="J16" t="n">
-        <v>1.59</v>
+        <v>1.09</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.800000000000001</v>
+        <v>8.76</v>
       </c>
       <c r="F17" t="n">
-        <v>17600</v>
+        <v>17520</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-160</v>
+        <v>-240</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.9</v>
+        <v>-1.35</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1193</v>
+        <v>1.1128</v>
       </c>
       <c r="F18" t="n">
-        <v>4396.823067</v>
+        <v>4371.289832</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>90.34837000000061</v>
+        <v>64.81513500000074</v>
       </c>
       <c r="J18" t="n">
-        <v>2.1</v>
+        <v>1.51</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.581</v>
+        <v>1.5726</v>
       </c>
       <c r="F19" t="n">
-        <v>13754.7</v>
+        <v>13681.62</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>295.7999999999993</v>
+        <v>222.7200000000012</v>
       </c>
       <c r="J19" t="n">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3187</v>
+        <v>1.3029</v>
       </c>
       <c r="F20" t="n">
-        <v>10451.831582</v>
+        <v>10326.602994</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>451.7740199999989</v>
+        <v>326.545431999999</v>
       </c>
       <c r="J20" t="n">
-        <v>4.52</v>
+        <v>3.27</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1916</v>
+        <v>1.1886</v>
       </c>
       <c r="F21" t="n">
-        <v>13465.08</v>
+        <v>13431.18</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>831.6800000000003</v>
+        <v>797.7800000000007</v>
       </c>
       <c r="J21" t="n">
-        <v>6.58</v>
+        <v>6.31</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.587</v>
+        <v>1.5931</v>
       </c>
       <c r="F22" t="n">
-        <v>847.28343</v>
+        <v>850.5401589999999</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>118.149857</v>
+        <v>121.4065859999999</v>
       </c>
       <c r="J22" t="n">
-        <v>16.2</v>
+        <v>16.65</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.587</v>
+        <v>1.5931</v>
       </c>
       <c r="F23" t="n">
-        <v>20506.80138</v>
+        <v>20585.623994</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1306.387913999999</v>
+        <v>1385.210527999996</v>
       </c>
       <c r="J23" t="n">
-        <v>6.8</v>
+        <v>7.21</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4296</v>
+        <v>1.4358</v>
       </c>
       <c r="F24" t="n">
-        <v>935.415872</v>
+        <v>939.472656</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>135.44424</v>
+        <v>139.501024</v>
       </c>
       <c r="J24" t="n">
-        <v>16.93</v>
+        <v>17.44</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7732</v>
+        <v>5.799</v>
       </c>
       <c r="F26" t="n">
-        <v>2397.840888</v>
+        <v>2408.55666</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>297.8403139999996</v>
+        <v>308.5560860000001</v>
       </c>
       <c r="J26" t="n">
-        <v>14.18</v>
+        <v>14.69</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8526</v>
+        <v>1.8607</v>
       </c>
       <c r="F28" t="n">
-        <v>7148.81288</v>
+        <v>7180.06916</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>848.9360000000006</v>
+        <v>880.1922800000002</v>
       </c>
       <c r="J28" t="n">
-        <v>13.48</v>
+        <v>13.97</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8526</v>
+        <v>1.8607</v>
       </c>
       <c r="F29" t="n">
-        <v>16134.830654</v>
+        <v>16205.375903</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1134.820487000001</v>
+        <v>1205.365736000002</v>
       </c>
       <c r="J29" t="n">
-        <v>7.57</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.922</v>
+        <v>1.9179</v>
       </c>
       <c r="F30" t="n">
-        <v>10106.04898</v>
+        <v>10084.490811</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1225.660779</v>
+        <v>1204.10261</v>
       </c>
       <c r="J30" t="n">
-        <v>13.8</v>
+        <v>13.56</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.922</v>
+        <v>1.9179</v>
       </c>
       <c r="F31" t="n">
-        <v>1295.94694</v>
+        <v>1293.182433</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>95.94862099999978</v>
+        <v>93.18411399999991</v>
       </c>
       <c r="J31" t="n">
-        <v>8</v>
+        <v>7.77</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2569</v>
+        <v>2.267</v>
       </c>
       <c r="F33" t="n">
-        <v>13767.09</v>
+        <v>13828.7</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1493.889999999999</v>
+        <v>1555.499999999998</v>
       </c>
       <c r="J33" t="n">
-        <v>12.17</v>
+        <v>12.67</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.808</v>
+        <v>1.817</v>
       </c>
       <c r="F34" t="n">
-        <v>34532.8</v>
+        <v>34704.7</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3361.600000000002</v>
+        <v>3533.499999999996</v>
       </c>
       <c r="J34" t="n">
-        <v>10.78</v>
+        <v>11.34</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.9258</v>
+        <v>5.9737</v>
       </c>
       <c r="F35" t="n">
-        <v>36066.670604</v>
+        <v>36358.208206</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2866.684979999998</v>
+        <v>3158.222582000002</v>
       </c>
       <c r="J35" t="n">
-        <v>8.630000000000001</v>
+        <v>9.51</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.9258</v>
+        <v>5.9737</v>
       </c>
       <c r="F36" t="n">
-        <v>12247.798988</v>
+        <v>12346.801582</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>947.8619959999996</v>
+        <v>1046.864589999999</v>
       </c>
       <c r="J36" t="n">
-        <v>8.390000000000001</v>
+        <v>9.26</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.9258</v>
+        <v>5.9737</v>
       </c>
       <c r="F37" t="n">
-        <v>88887</v>
+        <v>89605.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>5592</v>
+        <v>6310.5</v>
       </c>
       <c r="J37" t="n">
-        <v>6.71</v>
+        <v>7.58</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.4091</v>
+        <v>2.4263</v>
       </c>
       <c r="F38" t="n">
-        <v>17522.372031</v>
+        <v>17647.474683</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1722.343487999999</v>
+        <v>1847.44614</v>
       </c>
       <c r="J38" t="n">
-        <v>10.9</v>
+        <v>11.69</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.4091</v>
+        <v>2.4263</v>
       </c>
       <c r="F39" t="n">
-        <v>25121.877981</v>
+        <v>25301.238033</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>2122.079685000001</v>
+        <v>2301.439736999997</v>
       </c>
       <c r="J39" t="n">
-        <v>9.23</v>
+        <v>10.01</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9297</v>
+        <v>1.9454</v>
       </c>
       <c r="F40" t="n">
-        <v>12928.99</v>
+        <v>13034.18</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2476.99</v>
+        <v>2582.18</v>
       </c>
       <c r="J40" t="n">
-        <v>23.7</v>
+        <v>24.71</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.99</v>
+        <v>8.01</v>
       </c>
       <c r="F41" t="n">
-        <v>7990</v>
+        <v>8010</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="J41" t="n">
-        <v>12.39</v>
+        <v>12.67</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.82</v>
+        <v>7.86</v>
       </c>
       <c r="F42" t="n">
-        <v>8602</v>
+        <v>8646</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2017.4</v>
+        <v>2061.4</v>
       </c>
       <c r="J42" t="n">
-        <v>30.64</v>
+        <v>31.31</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>43.44</v>
+        <v>43.18</v>
       </c>
       <c r="F43" t="n">
-        <v>65160</v>
+        <v>64770</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>705</v>
+        <v>315</v>
       </c>
       <c r="J43" t="n">
-        <v>1.09</v>
+        <v>0.49</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0143</v>
+        <v>2.9931</v>
       </c>
       <c r="F2" t="n">
-        <v>2229.647567</v>
+        <v>2213.966139</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>359.4153710000001</v>
+        <v>343.7339430000002</v>
       </c>
       <c r="J2" t="n">
-        <v>19.22</v>
+        <v>18.38</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.1893</v>
+        <v>3.1453</v>
       </c>
       <c r="F3" t="n">
-        <v>1034.353776</v>
+        <v>1020.083696</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>34.41035199999988</v>
+        <v>20.14027199999998</v>
       </c>
       <c r="J3" t="n">
-        <v>3.44</v>
+        <v>2.01</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2213</v>
+        <v>1.2145</v>
       </c>
       <c r="F4" t="n">
-        <v>6961.41</v>
+        <v>6922.65</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1540.71</v>
+        <v>1501.95</v>
       </c>
       <c r="J4" t="n">
-        <v>28.42</v>
+        <v>27.71</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9872</v>
+        <v>1.996</v>
       </c>
       <c r="F5" t="n">
-        <v>2356.680096</v>
+        <v>2367.11628</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-43.28644499999973</v>
+        <v>-32.85026099999959</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.8</v>
+        <v>-1.37</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4665</v>
+        <v>1.4515</v>
       </c>
       <c r="F6" t="n">
-        <v>2489.075785</v>
+        <v>2463.616435</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-10.86265599999979</v>
+        <v>-36.32200599999987</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.43</v>
+        <v>-1.45</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4665</v>
+        <v>1.4515</v>
       </c>
       <c r="F7" t="n">
-        <v>5270.747649999999</v>
+        <v>5216.83615</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-49.23917000000074</v>
+        <v>-103.15067</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.93</v>
+        <v>-1.94</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7891</v>
+        <v>1.784</v>
       </c>
       <c r="F8" t="n">
-        <v>23079.39</v>
+        <v>23013.6</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3780.989999999998</v>
+        <v>3715.200000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>19.59</v>
+        <v>19.25</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1173</v>
+        <v>2.1118</v>
       </c>
       <c r="F10" t="n">
-        <v>2202.902439</v>
+        <v>2197.180074</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>202.8838500000004</v>
+        <v>197.1614850000003</v>
       </c>
       <c r="J10" t="n">
-        <v>10.14</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.585</v>
+        <v>1.5805</v>
       </c>
       <c r="F11" t="n">
-        <v>6557.509549999999</v>
+        <v>6538.892014999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>578.3847539999988</v>
+        <v>559.7672189999994</v>
       </c>
       <c r="J11" t="n">
-        <v>9.67</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.585</v>
+        <v>1.5805</v>
       </c>
       <c r="F12" t="n">
-        <v>9532.300949999999</v>
+        <v>9505.237634999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>432.4116329999997</v>
+        <v>405.3483180000003</v>
       </c>
       <c r="J12" t="n">
-        <v>4.75</v>
+        <v>4.45</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2917</v>
+        <v>2.2899</v>
       </c>
       <c r="F15" t="n">
-        <v>21312.81</v>
+        <v>21296.07</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1866.510000000002</v>
+        <v>1849.77</v>
       </c>
       <c r="J15" t="n">
-        <v>9.6</v>
+        <v>9.51</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.76</v>
+        <v>8.66</v>
       </c>
       <c r="F17" t="n">
-        <v>17520</v>
+        <v>17320</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-240</v>
+        <v>-440</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.35</v>
+        <v>-2.48</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1128</v>
+        <v>1.1048</v>
       </c>
       <c r="F18" t="n">
-        <v>4371.289832</v>
+        <v>4339.864312</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>64.81513500000074</v>
+        <v>33.38961500000005</v>
       </c>
       <c r="J18" t="n">
-        <v>1.51</v>
+        <v>0.78</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5726</v>
+        <v>1.5584</v>
       </c>
       <c r="F19" t="n">
-        <v>13681.62</v>
+        <v>13558.08</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>222.7200000000012</v>
+        <v>99.18000000000029</v>
       </c>
       <c r="J19" t="n">
-        <v>1.65</v>
+        <v>0.74</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3029</v>
+        <v>1.2893</v>
       </c>
       <c r="F20" t="n">
-        <v>10326.602994</v>
+        <v>10218.811298</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>326.545431999999</v>
+        <v>218.7537359999988</v>
       </c>
       <c r="J20" t="n">
-        <v>3.27</v>
+        <v>2.19</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1886</v>
+        <v>1.1822</v>
       </c>
       <c r="F21" t="n">
-        <v>13431.18</v>
+        <v>13358.86</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>797.7800000000007</v>
+        <v>725.4599999999991</v>
       </c>
       <c r="J21" t="n">
-        <v>6.31</v>
+        <v>5.74</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5931</v>
+        <v>1.59</v>
       </c>
       <c r="F22" t="n">
-        <v>850.5401589999999</v>
+        <v>848.8851</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>121.4065859999999</v>
+        <v>119.751527</v>
       </c>
       <c r="J22" t="n">
-        <v>16.65</v>
+        <v>16.42</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5931</v>
+        <v>1.59</v>
       </c>
       <c r="F23" t="n">
-        <v>20585.623994</v>
+        <v>20545.5666</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1385.210527999996</v>
+        <v>1345.153134</v>
       </c>
       <c r="J23" t="n">
-        <v>7.21</v>
+        <v>7.01</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4358</v>
+        <v>1.4327</v>
       </c>
       <c r="F24" t="n">
-        <v>939.472656</v>
+        <v>937.4442640000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>139.501024</v>
+        <v>137.4726320000001</v>
       </c>
       <c r="J24" t="n">
-        <v>17.44</v>
+        <v>17.18</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.799</v>
+        <v>5.785</v>
       </c>
       <c r="F26" t="n">
-        <v>2408.55666</v>
+        <v>2402.7419</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>308.5560860000001</v>
+        <v>302.7413259999998</v>
       </c>
       <c r="J26" t="n">
-        <v>14.69</v>
+        <v>14.42</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8607</v>
+        <v>1.8566</v>
       </c>
       <c r="F28" t="n">
-        <v>7180.06916</v>
+        <v>7164.24808</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>880.1922800000002</v>
+        <v>864.3712000000005</v>
       </c>
       <c r="J28" t="n">
-        <v>13.97</v>
+        <v>13.72</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8607</v>
+        <v>1.8566</v>
       </c>
       <c r="F29" t="n">
-        <v>16205.375903</v>
+        <v>16169.667814</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1205.365736000002</v>
+        <v>1169.657647000002</v>
       </c>
       <c r="J29" t="n">
-        <v>8.039999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9179</v>
+        <v>1.9209</v>
       </c>
       <c r="F30" t="n">
-        <v>10084.490811</v>
+        <v>10100.265081</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1204.10261</v>
+        <v>1219.876880000002</v>
       </c>
       <c r="J30" t="n">
-        <v>13.56</v>
+        <v>13.74</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9179</v>
+        <v>1.9209</v>
       </c>
       <c r="F31" t="n">
-        <v>1293.182433</v>
+        <v>1295.205243</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>93.18411399999991</v>
+        <v>95.20692400000007</v>
       </c>
       <c r="J31" t="n">
-        <v>7.77</v>
+        <v>7.93</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.267</v>
+        <v>2.2616</v>
       </c>
       <c r="F33" t="n">
-        <v>13828.7</v>
+        <v>13795.76</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1555.499999999998</v>
+        <v>1522.559999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>12.67</v>
+        <v>12.41</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.817</v>
+        <v>1.813</v>
       </c>
       <c r="F34" t="n">
-        <v>34704.7</v>
+        <v>34628.3</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3533.499999999996</v>
+        <v>3457.099999999995</v>
       </c>
       <c r="J34" t="n">
-        <v>11.34</v>
+        <v>11.09</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.9737</v>
+        <v>5.9839</v>
       </c>
       <c r="F35" t="n">
-        <v>36358.208206</v>
+        <v>36420.28928200001</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>3158.222582000002</v>
+        <v>3220.303658000004</v>
       </c>
       <c r="J35" t="n">
-        <v>9.51</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.9737</v>
+        <v>5.9839</v>
       </c>
       <c r="F36" t="n">
-        <v>12346.801582</v>
+        <v>12367.883554</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>1046.864589999999</v>
+        <v>1067.946562000001</v>
       </c>
       <c r="J36" t="n">
-        <v>9.26</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.9737</v>
+        <v>5.9839</v>
       </c>
       <c r="F37" t="n">
-        <v>89605.5</v>
+        <v>89758.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>6310.5</v>
+        <v>6463.5</v>
       </c>
       <c r="J37" t="n">
-        <v>7.58</v>
+        <v>7.76</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.4263</v>
+        <v>2.4304</v>
       </c>
       <c r="F38" t="n">
-        <v>17647.474683</v>
+        <v>17677.295664</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1847.44614</v>
+        <v>1877.267121000001</v>
       </c>
       <c r="J38" t="n">
-        <v>11.69</v>
+        <v>11.88</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.4263</v>
+        <v>2.4304</v>
       </c>
       <c r="F39" t="n">
-        <v>25301.238033</v>
+        <v>25343.992464</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>2301.439736999997</v>
+        <v>2344.194168000002</v>
       </c>
       <c r="J39" t="n">
-        <v>10.01</v>
+        <v>10.19</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9454</v>
+        <v>1.9485</v>
       </c>
       <c r="F40" t="n">
-        <v>13034.18</v>
+        <v>13054.95</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2582.18</v>
+        <v>2602.949999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>24.71</v>
+        <v>24.9</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>8.01</v>
+        <v>8.09</v>
       </c>
       <c r="F41" t="n">
-        <v>8010</v>
+        <v>8090</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>901</v>
+        <v>981</v>
       </c>
       <c r="J41" t="n">
-        <v>12.67</v>
+        <v>13.8</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.86</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>8646</v>
+        <v>8855</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2061.4</v>
+        <v>2270.4</v>
       </c>
       <c r="J42" t="n">
-        <v>31.31</v>
+        <v>34.48</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>43.18</v>
+        <v>43.08</v>
       </c>
       <c r="F43" t="n">
-        <v>64770</v>
+        <v>64620</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>315</v>
+        <v>165</v>
       </c>
       <c r="J43" t="n">
-        <v>0.49</v>
+        <v>0.26</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9931</v>
+        <v>3.0045</v>
       </c>
       <c r="F2" t="n">
-        <v>2213.966139</v>
+        <v>2222.398605</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>343.7339430000002</v>
+        <v>352.1664090000004</v>
       </c>
       <c r="J2" t="n">
-        <v>18.38</v>
+        <v>18.83</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.1453</v>
+        <v>3.1752</v>
       </c>
       <c r="F3" t="n">
-        <v>1020.083696</v>
+        <v>1029.780864</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>20.14027199999998</v>
+        <v>29.83743999999979</v>
       </c>
       <c r="J3" t="n">
-        <v>2.01</v>
+        <v>2.98</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2145</v>
+        <v>1.215</v>
       </c>
       <c r="F4" t="n">
-        <v>6922.65</v>
+        <v>6925.500000000001</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1501.95</v>
+        <v>1504.800000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>27.71</v>
+        <v>27.76</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4515</v>
+        <v>1.453</v>
       </c>
       <c r="F6" t="n">
-        <v>2463.616435</v>
+        <v>2466.16237</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-36.32200599999987</v>
+        <v>-33.77607099999977</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.45</v>
+        <v>-1.35</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4515</v>
+        <v>1.453</v>
       </c>
       <c r="F7" t="n">
-        <v>5216.83615</v>
+        <v>5222.2273</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-103.15067</v>
+        <v>-97.75951999999961</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.94</v>
+        <v>-1.84</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.784</v>
+        <v>1.7708</v>
       </c>
       <c r="F8" t="n">
-        <v>23013.6</v>
+        <v>22843.32</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3715.200000000001</v>
+        <v>3544.919999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>19.25</v>
+        <v>18.37</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9368</v>
+        <v>2.9524</v>
       </c>
       <c r="F9" t="n">
-        <v>889.2924079999999</v>
+        <v>894.016244</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>140.3524349999999</v>
+        <v>145.076271</v>
       </c>
       <c r="J9" t="n">
-        <v>18.74</v>
+        <v>19.37</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1118</v>
+        <v>2.111</v>
       </c>
       <c r="F10" t="n">
-        <v>2197.180074</v>
+        <v>2196.34773</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>197.1614850000003</v>
+        <v>196.3291410000004</v>
       </c>
       <c r="J10" t="n">
-        <v>9.859999999999999</v>
+        <v>9.82</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5805</v>
+        <v>1.5796</v>
       </c>
       <c r="F11" t="n">
-        <v>6538.892014999999</v>
+        <v>6535.168507999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>559.7672189999994</v>
+        <v>556.0437119999988</v>
       </c>
       <c r="J11" t="n">
-        <v>9.359999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5805</v>
+        <v>1.5796</v>
       </c>
       <c r="F12" t="n">
-        <v>9505.237634999999</v>
+        <v>9499.824971999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>405.3483180000003</v>
+        <v>399.9356549999993</v>
       </c>
       <c r="J12" t="n">
-        <v>4.45</v>
+        <v>4.39</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2899</v>
+        <v>2.3046</v>
       </c>
       <c r="F15" t="n">
-        <v>21296.07</v>
+        <v>21432.78</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1849.77</v>
+        <v>1986.480000000003</v>
       </c>
       <c r="J15" t="n">
-        <v>9.51</v>
+        <v>10.22</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.93</v>
+        <v>27.92</v>
       </c>
       <c r="F16" t="n">
-        <v>13965</v>
+        <v>13960</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J16" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.66</v>
+        <v>8.67</v>
       </c>
       <c r="F17" t="n">
-        <v>17320</v>
+        <v>17340</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-440</v>
+        <v>-420</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.48</v>
+        <v>-2.36</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1048</v>
+        <v>1.1027</v>
       </c>
       <c r="F18" t="n">
-        <v>4339.864312</v>
+        <v>4331.615113</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>33.38961500000005</v>
+        <v>25.14041600000019</v>
       </c>
       <c r="J18" t="n">
-        <v>0.78</v>
+        <v>0.58</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5584</v>
+        <v>1.5571</v>
       </c>
       <c r="F19" t="n">
-        <v>13558.08</v>
+        <v>13546.77</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>99.18000000000029</v>
+        <v>87.86999999999898</v>
       </c>
       <c r="J19" t="n">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2893</v>
+        <v>1.2898</v>
       </c>
       <c r="F20" t="n">
-        <v>10218.811298</v>
+        <v>10222.774228</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>218.7537359999988</v>
+        <v>222.7166660000003</v>
       </c>
       <c r="J20" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1822</v>
+        <v>1.1766</v>
       </c>
       <c r="F21" t="n">
-        <v>13358.86</v>
+        <v>13295.58</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>725.4599999999991</v>
+        <v>662.1800000000021</v>
       </c>
       <c r="J21" t="n">
-        <v>5.74</v>
+        <v>5.24</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.59</v>
+        <v>1.5923</v>
       </c>
       <c r="F22" t="n">
-        <v>848.8851</v>
+        <v>850.1130470000001</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>119.751527</v>
+        <v>120.9794740000001</v>
       </c>
       <c r="J22" t="n">
-        <v>16.42</v>
+        <v>16.59</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.59</v>
+        <v>1.5923</v>
       </c>
       <c r="F23" t="n">
-        <v>20545.5666</v>
+        <v>20575.286602</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1345.153134</v>
+        <v>1374.873135999998</v>
       </c>
       <c r="J23" t="n">
-        <v>7.01</v>
+        <v>7.16</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4327</v>
+        <v>1.435</v>
       </c>
       <c r="F24" t="n">
-        <v>937.4442640000001</v>
+        <v>938.9492000000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>137.4726320000001</v>
+        <v>138.9775680000001</v>
       </c>
       <c r="J24" t="n">
-        <v>17.18</v>
+        <v>17.37</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.785</v>
+        <v>5.7939</v>
       </c>
       <c r="F26" t="n">
-        <v>2402.7419</v>
+        <v>2406.438426</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>302.7413259999998</v>
+        <v>306.4378519999996</v>
       </c>
       <c r="J26" t="n">
-        <v>14.42</v>
+        <v>14.59</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8566</v>
+        <v>1.8596</v>
       </c>
       <c r="F28" t="n">
-        <v>7164.24808</v>
+        <v>7175.82448</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>864.3712000000005</v>
+        <v>875.9476000000004</v>
       </c>
       <c r="J28" t="n">
-        <v>13.72</v>
+        <v>13.9</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8566</v>
+        <v>1.8596</v>
       </c>
       <c r="F29" t="n">
-        <v>16169.667814</v>
+        <v>16195.795684</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1169.657647000002</v>
+        <v>1195.785517</v>
       </c>
       <c r="J29" t="n">
-        <v>7.8</v>
+        <v>7.97</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9209</v>
+        <v>1.928</v>
       </c>
       <c r="F30" t="n">
-        <v>10100.265081</v>
+        <v>10137.59752</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1219.876880000002</v>
+        <v>1257.209319</v>
       </c>
       <c r="J30" t="n">
-        <v>13.74</v>
+        <v>14.16</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9209</v>
+        <v>1.928</v>
       </c>
       <c r="F31" t="n">
-        <v>1295.205243</v>
+        <v>1299.99256</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>95.20692400000007</v>
+        <v>99.99424099999987</v>
       </c>
       <c r="J31" t="n">
-        <v>7.93</v>
+        <v>8.33</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2616</v>
+        <v>2.2654</v>
       </c>
       <c r="F33" t="n">
-        <v>13795.76</v>
+        <v>13818.94</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1522.559999999999</v>
+        <v>1545.74</v>
       </c>
       <c r="J33" t="n">
-        <v>12.41</v>
+        <v>12.59</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.813</v>
+        <v>1.816</v>
       </c>
       <c r="F34" t="n">
-        <v>34628.3</v>
+        <v>34685.6</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3457.099999999995</v>
+        <v>3514.399999999998</v>
       </c>
       <c r="J34" t="n">
-        <v>11.09</v>
+        <v>11.27</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.9839</v>
+        <v>5.986</v>
       </c>
       <c r="F35" t="n">
-        <v>36420.28928200001</v>
+        <v>36433.07068</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>3220.303658000004</v>
+        <v>3233.085055999996</v>
       </c>
       <c r="J35" t="n">
-        <v>9.699999999999999</v>
+        <v>9.74</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.9839</v>
+        <v>5.986</v>
       </c>
       <c r="F36" t="n">
-        <v>12367.883554</v>
+        <v>12372.22396</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>1067.946562000001</v>
+        <v>1072.286968</v>
       </c>
       <c r="J36" t="n">
-        <v>9.449999999999999</v>
+        <v>9.49</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.9839</v>
+        <v>5.986</v>
       </c>
       <c r="F37" t="n">
-        <v>89758.5</v>
+        <v>89790</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>6463.5</v>
+        <v>6495</v>
       </c>
       <c r="J37" t="n">
-        <v>7.76</v>
+        <v>7.8</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.4304</v>
+        <v>2.4363</v>
       </c>
       <c r="F38" t="n">
-        <v>17677.295664</v>
+        <v>17720.208783</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1877.267121000001</v>
+        <v>1920.180240000002</v>
       </c>
       <c r="J38" t="n">
-        <v>11.88</v>
+        <v>12.15</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.4304</v>
+        <v>2.4363</v>
       </c>
       <c r="F39" t="n">
-        <v>25343.992464</v>
+        <v>25405.517133</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>2344.194168000002</v>
+        <v>2405.718837</v>
       </c>
       <c r="J39" t="n">
-        <v>10.19</v>
+        <v>10.46</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9485</v>
+        <v>1.9544</v>
       </c>
       <c r="F40" t="n">
-        <v>13054.95</v>
+        <v>13094.48</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2602.949999999999</v>
+        <v>2642.48</v>
       </c>
       <c r="J40" t="n">
-        <v>24.9</v>
+        <v>25.28</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>8.09</v>
+        <v>7.95</v>
       </c>
       <c r="F41" t="n">
-        <v>8090</v>
+        <v>7950</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>981</v>
+        <v>841</v>
       </c>
       <c r="J41" t="n">
-        <v>13.8</v>
+        <v>11.83</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>8.050000000000001</v>
+        <v>7.84</v>
       </c>
       <c r="F42" t="n">
-        <v>8855</v>
+        <v>8624</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2270.4</v>
+        <v>2039.4</v>
       </c>
       <c r="J42" t="n">
-        <v>34.48</v>
+        <v>30.97</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>43.08</v>
+        <v>41.86</v>
       </c>
       <c r="F43" t="n">
-        <v>64620</v>
+        <v>62790</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>165</v>
+        <v>-1665</v>
       </c>
       <c r="J43" t="n">
-        <v>0.26</v>
+        <v>-2.58</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0045</v>
+        <v>3.0092</v>
       </c>
       <c r="F2" t="n">
-        <v>2222.398605</v>
+        <v>2225.875148</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>352.1664090000004</v>
+        <v>355.6429520000002</v>
       </c>
       <c r="J2" t="n">
-        <v>18.83</v>
+        <v>19.02</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.1752</v>
+        <v>3.1517</v>
       </c>
       <c r="F3" t="n">
-        <v>1029.780864</v>
+        <v>1022.159344</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>29.83743999999979</v>
+        <v>22.21591999999987</v>
       </c>
       <c r="J3" t="n">
-        <v>2.98</v>
+        <v>2.22</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.215</v>
+        <v>1.2049</v>
       </c>
       <c r="F4" t="n">
-        <v>6925.500000000001</v>
+        <v>6867.93</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1504.800000000001</v>
+        <v>1447.23</v>
       </c>
       <c r="J4" t="n">
-        <v>27.76</v>
+        <v>26.7</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.996</v>
+        <v>2.0103</v>
       </c>
       <c r="F5" t="n">
-        <v>2367.11628</v>
+        <v>2384.075079</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-32.85026099999959</v>
+        <v>-15.89146199999959</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.37</v>
+        <v>-0.66</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.453</v>
+        <v>1.4447</v>
       </c>
       <c r="F6" t="n">
-        <v>2466.16237</v>
+        <v>2452.074863</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-33.77607099999977</v>
+        <v>-47.86357799999951</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.35</v>
+        <v>-1.91</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.453</v>
+        <v>1.4447</v>
       </c>
       <c r="F7" t="n">
-        <v>5222.2273</v>
+        <v>5192.39627</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-97.75951999999961</v>
+        <v>-127.5905499999999</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.84</v>
+        <v>-2.4</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7708</v>
+        <v>1.7636</v>
       </c>
       <c r="F8" t="n">
-        <v>22843.32</v>
+        <v>22750.44</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3544.919999999998</v>
+        <v>3452.040000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>18.37</v>
+        <v>17.89</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9524</v>
+        <v>2.9557</v>
       </c>
       <c r="F9" t="n">
-        <v>894.016244</v>
+        <v>895.015517</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>145.076271</v>
+        <v>146.075544</v>
       </c>
       <c r="J9" t="n">
-        <v>19.37</v>
+        <v>19.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.111</v>
+        <v>2.1212</v>
       </c>
       <c r="F10" t="n">
-        <v>2196.34773</v>
+        <v>2206.960116</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>196.3291410000004</v>
+        <v>206.9415270000002</v>
       </c>
       <c r="J10" t="n">
-        <v>9.82</v>
+        <v>10.35</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5796</v>
+        <v>1.5861</v>
       </c>
       <c r="F11" t="n">
-        <v>6535.168507999999</v>
+        <v>6562.060503</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>556.0437119999988</v>
+        <v>582.9357069999996</v>
       </c>
       <c r="J11" t="n">
-        <v>9.300000000000001</v>
+        <v>9.75</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5796</v>
+        <v>1.5861</v>
       </c>
       <c r="F12" t="n">
-        <v>9499.824971999999</v>
+        <v>9538.916427</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>399.9356549999993</v>
+        <v>439.0271100000009</v>
       </c>
       <c r="J12" t="n">
-        <v>4.39</v>
+        <v>4.82</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.3046</v>
+        <v>2.307</v>
       </c>
       <c r="F15" t="n">
-        <v>21432.78</v>
+        <v>21455.1</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1986.480000000003</v>
+        <v>2008.799999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>10.22</v>
+        <v>10.33</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.92</v>
+        <v>27.85</v>
       </c>
       <c r="F16" t="n">
-        <v>13960</v>
+        <v>13925</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="J16" t="n">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.67</v>
+        <v>8.69</v>
       </c>
       <c r="F17" t="n">
-        <v>17340</v>
+        <v>17380</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-420</v>
+        <v>-380</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.36</v>
+        <v>-2.14</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1027</v>
+        <v>1.099</v>
       </c>
       <c r="F18" t="n">
-        <v>4331.615113</v>
+        <v>4317.08081</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>25.14041600000019</v>
+        <v>10.60611300000073</v>
       </c>
       <c r="J18" t="n">
-        <v>0.58</v>
+        <v>0.25</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5571</v>
+        <v>1.5492</v>
       </c>
       <c r="F19" t="n">
-        <v>13546.77</v>
+        <v>13478.04</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>87.86999999999898</v>
+        <v>19.13999999999942</v>
       </c>
       <c r="J19" t="n">
-        <v>0.65</v>
+        <v>0.14</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2898</v>
+        <v>1.2838</v>
       </c>
       <c r="F20" t="n">
-        <v>10222.774228</v>
+        <v>10175.219068</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>222.7166660000003</v>
+        <v>175.1615060000004</v>
       </c>
       <c r="J20" t="n">
-        <v>2.23</v>
+        <v>1.75</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1766</v>
+        <v>1.1746</v>
       </c>
       <c r="F21" t="n">
-        <v>13295.58</v>
+        <v>13272.98</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>662.1800000000021</v>
+        <v>639.5800000000017</v>
       </c>
       <c r="J21" t="n">
-        <v>5.24</v>
+        <v>5.06</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5923</v>
+        <v>1.5951</v>
       </c>
       <c r="F22" t="n">
-        <v>850.1130470000001</v>
+        <v>851.607939</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>120.9794740000001</v>
+        <v>122.474366</v>
       </c>
       <c r="J22" t="n">
-        <v>16.59</v>
+        <v>16.8</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5923</v>
+        <v>1.5951</v>
       </c>
       <c r="F23" t="n">
-        <v>20575.286602</v>
+        <v>20611.467474</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1374.873135999998</v>
+        <v>1411.054007999999</v>
       </c>
       <c r="J23" t="n">
-        <v>7.16</v>
+        <v>7.35</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.435</v>
+        <v>1.4404</v>
       </c>
       <c r="F24" t="n">
-        <v>938.9492000000001</v>
+        <v>942.482528</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>138.9775680000001</v>
+        <v>142.510896</v>
       </c>
       <c r="J24" t="n">
-        <v>17.37</v>
+        <v>17.81</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7939</v>
+        <v>5.8154</v>
       </c>
       <c r="F26" t="n">
-        <v>2406.438426</v>
+        <v>2415.368236</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>306.4378519999996</v>
+        <v>315.3676619999997</v>
       </c>
       <c r="J26" t="n">
-        <v>14.59</v>
+        <v>15.02</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8596</v>
+        <v>1.8665</v>
       </c>
       <c r="F28" t="n">
-        <v>7175.82448</v>
+        <v>7202.4502</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>875.9476000000004</v>
+        <v>902.5733200000004</v>
       </c>
       <c r="J28" t="n">
-        <v>13.9</v>
+        <v>14.33</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8596</v>
+        <v>1.8665</v>
       </c>
       <c r="F29" t="n">
-        <v>16195.795684</v>
+        <v>16255.889785</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1195.785517</v>
+        <v>1255.879618000001</v>
       </c>
       <c r="J29" t="n">
-        <v>7.97</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.928</v>
+        <v>1.9199</v>
       </c>
       <c r="F30" t="n">
-        <v>10137.59752</v>
+        <v>10095.006991</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1257.209319</v>
+        <v>1214.61879</v>
       </c>
       <c r="J30" t="n">
-        <v>14.16</v>
+        <v>13.68</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.928</v>
+        <v>1.9199</v>
       </c>
       <c r="F31" t="n">
-        <v>1299.99256</v>
+        <v>1294.530973</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>99.99424099999987</v>
+        <v>94.53265399999987</v>
       </c>
       <c r="J31" t="n">
-        <v>8.33</v>
+        <v>7.88</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2654</v>
+        <v>2.2722</v>
       </c>
       <c r="F33" t="n">
-        <v>13818.94</v>
+        <v>13860.42</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1545.74</v>
+        <v>1587.220000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>12.59</v>
+        <v>12.93</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.816</v>
+        <v>1.823</v>
       </c>
       <c r="F34" t="n">
-        <v>34685.6</v>
+        <v>34819.3</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3514.399999999998</v>
+        <v>3648.099999999995</v>
       </c>
       <c r="J34" t="n">
-        <v>11.27</v>
+        <v>11.7</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.986</v>
+        <v>5.9502</v>
       </c>
       <c r="F35" t="n">
-        <v>36433.07068</v>
+        <v>36215.178276</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>3233.085055999996</v>
+        <v>3015.192651999998</v>
       </c>
       <c r="J35" t="n">
-        <v>9.74</v>
+        <v>9.08</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.986</v>
+        <v>5.9502</v>
       </c>
       <c r="F36" t="n">
-        <v>12372.22396</v>
+        <v>12298.230372</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>1072.286968</v>
+        <v>998.2933799999992</v>
       </c>
       <c r="J36" t="n">
-        <v>9.49</v>
+        <v>8.83</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.986</v>
+        <v>5.9502</v>
       </c>
       <c r="F37" t="n">
-        <v>89790</v>
+        <v>89253</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>6495</v>
+        <v>5958</v>
       </c>
       <c r="J37" t="n">
-        <v>7.8</v>
+        <v>7.15</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.4363</v>
+        <v>2.4428</v>
       </c>
       <c r="F38" t="n">
-        <v>17720.208783</v>
+        <v>17767.485948</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1920.180240000002</v>
+        <v>1967.457405000001</v>
       </c>
       <c r="J38" t="n">
-        <v>12.15</v>
+        <v>12.45</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.4363</v>
+        <v>2.4428</v>
       </c>
       <c r="F39" t="n">
-        <v>25405.517133</v>
+        <v>25473.298548</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>2405.718837</v>
+        <v>2473.500251999998</v>
       </c>
       <c r="J39" t="n">
-        <v>10.46</v>
+        <v>10.75</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9544</v>
+        <v>1.9609</v>
       </c>
       <c r="F40" t="n">
-        <v>13094.48</v>
+        <v>13138.03</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2642.48</v>
+        <v>2686.030000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>25.28</v>
+        <v>25.7</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.95</v>
+        <v>7.97</v>
       </c>
       <c r="F41" t="n">
-        <v>7950</v>
+        <v>7970</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>841</v>
+        <v>861</v>
       </c>
       <c r="J41" t="n">
-        <v>11.83</v>
+        <v>12.11</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.84</v>
+        <v>7.87</v>
       </c>
       <c r="F42" t="n">
-        <v>8624</v>
+        <v>8657</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2039.4</v>
+        <v>2072.4</v>
       </c>
       <c r="J42" t="n">
-        <v>30.97</v>
+        <v>31.47</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.86</v>
+        <v>41.75</v>
       </c>
       <c r="F43" t="n">
-        <v>62790</v>
+        <v>62625</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-1665</v>
+        <v>-1830</v>
       </c>
       <c r="J43" t="n">
-        <v>-2.58</v>
+        <v>-2.84</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0092</v>
+        <v>3.0445</v>
       </c>
       <c r="F2" t="n">
-        <v>2225.875148</v>
+        <v>2251.986205</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>355.6429520000002</v>
+        <v>381.7540090000002</v>
       </c>
       <c r="J2" t="n">
-        <v>19.02</v>
+        <v>20.41</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2049</v>
+        <v>1.2149</v>
       </c>
       <c r="F4" t="n">
-        <v>6867.93</v>
+        <v>6924.93</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1447.23</v>
+        <v>1504.23</v>
       </c>
       <c r="J4" t="n">
-        <v>26.7</v>
+        <v>27.75</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4447</v>
+        <v>1.444</v>
       </c>
       <c r="F6" t="n">
-        <v>2452.074863</v>
+        <v>2450.88676</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-47.86357799999951</v>
+        <v>-49.05168099999992</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.91</v>
+        <v>-1.96</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4447</v>
+        <v>1.444</v>
       </c>
       <c r="F7" t="n">
-        <v>5192.39627</v>
+        <v>5189.8804</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-127.5905499999999</v>
+        <v>-130.1064200000001</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.4</v>
+        <v>-2.45</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7636</v>
+        <v>1.7904</v>
       </c>
       <c r="F8" t="n">
-        <v>22750.44</v>
+        <v>23096.16</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3452.040000000001</v>
+        <v>3797.759999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>17.89</v>
+        <v>19.68</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1212</v>
+        <v>2.124</v>
       </c>
       <c r="F10" t="n">
-        <v>2206.960116</v>
+        <v>2209.87332</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>206.9415270000002</v>
+        <v>209.8547310000001</v>
       </c>
       <c r="J10" t="n">
-        <v>10.35</v>
+        <v>10.49</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5861</v>
+        <v>1.5872</v>
       </c>
       <c r="F11" t="n">
-        <v>6562.060503</v>
+        <v>6566.611455999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>582.9357069999996</v>
+        <v>587.4866599999987</v>
       </c>
       <c r="J11" t="n">
-        <v>9.75</v>
+        <v>9.83</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5861</v>
+        <v>1.5872</v>
       </c>
       <c r="F12" t="n">
-        <v>9538.916427</v>
+        <v>9545.531903999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>439.0271100000009</v>
+        <v>445.6425870000003</v>
       </c>
       <c r="J12" t="n">
-        <v>4.82</v>
+        <v>4.9</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.099</v>
+        <v>1.0977</v>
       </c>
       <c r="F18" t="n">
-        <v>4317.08081</v>
+        <v>4311.974163</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>10.60611300000073</v>
+        <v>5.499466000000211</v>
       </c>
       <c r="J18" t="n">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5492</v>
+        <v>1.5453</v>
       </c>
       <c r="F19" t="n">
-        <v>13478.04</v>
+        <v>13444.11</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>19.13999999999942</v>
+        <v>-14.79000000000087</v>
       </c>
       <c r="J19" t="n">
-        <v>0.14</v>
+        <v>-0.11</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2838</v>
+        <v>1.2934</v>
       </c>
       <c r="F20" t="n">
-        <v>10175.219068</v>
+        <v>10251.307324</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>175.1615060000004</v>
+        <v>251.2497620000013</v>
       </c>
       <c r="J20" t="n">
-        <v>1.75</v>
+        <v>2.51</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1746</v>
+        <v>1.17</v>
       </c>
       <c r="F21" t="n">
-        <v>13272.98</v>
+        <v>13221</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>639.5800000000017</v>
+        <v>587.6000000000004</v>
       </c>
       <c r="J21" t="n">
-        <v>5.06</v>
+        <v>4.65</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5951</v>
+        <v>1.5924</v>
       </c>
       <c r="F22" t="n">
-        <v>851.607939</v>
+        <v>850.166436</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>122.474366</v>
+        <v>121.032863</v>
       </c>
       <c r="J22" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5951</v>
+        <v>1.5924</v>
       </c>
       <c r="F23" t="n">
-        <v>20611.467474</v>
+        <v>20576.578776</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1411.054007999999</v>
+        <v>1376.165309999997</v>
       </c>
       <c r="J23" t="n">
-        <v>7.35</v>
+        <v>7.17</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4404</v>
+        <v>1.4345</v>
       </c>
       <c r="F24" t="n">
-        <v>942.482528</v>
+        <v>938.6220400000002</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>142.510896</v>
+        <v>138.6504080000002</v>
       </c>
       <c r="J24" t="n">
-        <v>17.81</v>
+        <v>17.33</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.8154</v>
+        <v>5.7913</v>
       </c>
       <c r="F26" t="n">
-        <v>2415.368236</v>
+        <v>2405.358542</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>315.3676619999997</v>
+        <v>305.3579679999998</v>
       </c>
       <c r="J26" t="n">
-        <v>15.02</v>
+        <v>14.54</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8665</v>
+        <v>1.8588</v>
       </c>
       <c r="F28" t="n">
-        <v>7202.4502</v>
+        <v>7172.737440000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>902.5733200000004</v>
+        <v>872.860560000001</v>
       </c>
       <c r="J28" t="n">
-        <v>14.33</v>
+        <v>13.86</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8665</v>
+        <v>1.8588</v>
       </c>
       <c r="F29" t="n">
-        <v>16255.889785</v>
+        <v>16188.828252</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1255.879618000001</v>
+        <v>1188.818085000001</v>
       </c>
       <c r="J29" t="n">
-        <v>8.369999999999999</v>
+        <v>7.93</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2722</v>
+        <v>2.2632</v>
       </c>
       <c r="F33" t="n">
-        <v>13860.42</v>
+        <v>13805.52</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1587.220000000001</v>
+        <v>1532.319999999998</v>
       </c>
       <c r="J33" t="n">
-        <v>12.93</v>
+        <v>12.49</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.823</v>
+        <v>1.815</v>
       </c>
       <c r="F34" t="n">
-        <v>34819.3</v>
+        <v>34666.5</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3648.099999999995</v>
+        <v>3495.299999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>11.7</v>
+        <v>11.21</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.4428</v>
+        <v>2.4255</v>
       </c>
       <c r="F38" t="n">
-        <v>17767.485948</v>
+        <v>17641.655955</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1967.457405000001</v>
+        <v>1841.627411999998</v>
       </c>
       <c r="J38" t="n">
-        <v>12.45</v>
+        <v>11.66</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.4428</v>
+        <v>2.4255</v>
       </c>
       <c r="F39" t="n">
-        <v>25473.298548</v>
+        <v>25292.895705</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>2473.500251999998</v>
+        <v>2293.097408999998</v>
       </c>
       <c r="J39" t="n">
-        <v>10.75</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9609</v>
+        <v>1.946</v>
       </c>
       <c r="F40" t="n">
-        <v>13138.03</v>
+        <v>13038.2</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2686.030000000001</v>
+        <v>2586.199999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>25.7</v>
+        <v>24.74</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.1517</v>
+        <v>3.1958</v>
       </c>
       <c r="F3" t="n">
-        <v>1022.159344</v>
+        <v>1036.461856</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>22.21591999999987</v>
+        <v>36.51843200000008</v>
       </c>
       <c r="J3" t="n">
-        <v>2.22</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9557</v>
+        <v>2.924</v>
       </c>
       <c r="F9" t="n">
-        <v>895.015517</v>
+        <v>885.41644</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>146.075544</v>
+        <v>136.476467</v>
       </c>
       <c r="J9" t="n">
-        <v>19.5</v>
+        <v>18.22</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.307</v>
+        <v>2.2807</v>
       </c>
       <c r="F15" t="n">
-        <v>21455.1</v>
+        <v>21210.51</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2008.799999999999</v>
+        <v>1764.209999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>10.33</v>
+        <v>9.07</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.85</v>
+        <v>27.99</v>
       </c>
       <c r="F16" t="n">
-        <v>13925</v>
+        <v>13995</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.69</v>
+        <v>8.75</v>
       </c>
       <c r="F17" t="n">
-        <v>17380</v>
+        <v>17500</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-380</v>
+        <v>-260</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.14</v>
+        <v>-1.46</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4345</v>
+        <v>1.408</v>
       </c>
       <c r="F24" t="n">
-        <v>938.6220400000002</v>
+        <v>921.28256</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>138.6504080000002</v>
+        <v>121.310928</v>
       </c>
       <c r="J24" t="n">
-        <v>17.33</v>
+        <v>15.16</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9199</v>
+        <v>1.8843</v>
       </c>
       <c r="F30" t="n">
-        <v>10095.006991</v>
+        <v>9907.818987000001</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1214.61879</v>
+        <v>1027.430786000001</v>
       </c>
       <c r="J30" t="n">
-        <v>13.68</v>
+        <v>11.57</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9199</v>
+        <v>1.8843</v>
       </c>
       <c r="F31" t="n">
-        <v>1294.530973</v>
+        <v>1270.526961</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>94.53265399999987</v>
+        <v>70.52864199999999</v>
       </c>
       <c r="J31" t="n">
-        <v>7.88</v>
+        <v>5.88</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.9502</v>
+        <v>5.7899</v>
       </c>
       <c r="F35" t="n">
-        <v>36215.178276</v>
+        <v>35239.531562</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>3015.192651999998</v>
+        <v>2039.545938000003</v>
       </c>
       <c r="J35" t="n">
-        <v>9.08</v>
+        <v>6.14</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.9502</v>
+        <v>5.7899</v>
       </c>
       <c r="F36" t="n">
-        <v>12298.230372</v>
+        <v>11966.912714</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>998.2933799999992</v>
+        <v>666.975722000001</v>
       </c>
       <c r="J36" t="n">
-        <v>8.83</v>
+        <v>5.9</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.9502</v>
+        <v>5.7899</v>
       </c>
       <c r="F37" t="n">
-        <v>89253</v>
+        <v>86848.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>5958</v>
+        <v>3553.5</v>
       </c>
       <c r="J37" t="n">
-        <v>7.15</v>
+        <v>4.27</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.97</v>
+        <v>7.82</v>
       </c>
       <c r="F41" t="n">
-        <v>7970</v>
+        <v>7820</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>861</v>
+        <v>711</v>
       </c>
       <c r="J41" t="n">
-        <v>12.11</v>
+        <v>10</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.87</v>
+        <v>7.58</v>
       </c>
       <c r="F42" t="n">
-        <v>8657</v>
+        <v>8338</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2072.4</v>
+        <v>1753.4</v>
       </c>
       <c r="J42" t="n">
-        <v>31.47</v>
+        <v>26.63</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.75</v>
+        <v>41.74</v>
       </c>
       <c r="F43" t="n">
-        <v>62625</v>
+        <v>62610</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-1830</v>
+        <v>-1845</v>
       </c>
       <c r="J43" t="n">
-        <v>-2.84</v>
+        <v>-2.86</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0445</v>
+        <v>3.0827</v>
       </c>
       <c r="F2" t="n">
-        <v>2251.986205</v>
+        <v>2280.242363</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>381.7540090000002</v>
+        <v>410.0101670000004</v>
       </c>
       <c r="J2" t="n">
-        <v>20.41</v>
+        <v>21.92</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.1958</v>
+        <v>3.1635</v>
       </c>
       <c r="F3" t="n">
-        <v>1036.461856</v>
+        <v>1025.98632</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>36.51843200000008</v>
+        <v>26.04289599999993</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2149</v>
+        <v>1.2063</v>
       </c>
       <c r="F4" t="n">
-        <v>6924.93</v>
+        <v>6875.91</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1504.23</v>
+        <v>1455.21</v>
       </c>
       <c r="J4" t="n">
-        <v>27.75</v>
+        <v>26.85</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0103</v>
+        <v>2.011</v>
       </c>
       <c r="F5" t="n">
-        <v>2384.075079</v>
+        <v>2384.90523</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-15.89146199999959</v>
+        <v>-15.06131099999948</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.66</v>
+        <v>-0.63</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.444</v>
+        <v>1.4475</v>
       </c>
       <c r="F6" t="n">
-        <v>2450.88676</v>
+        <v>2456.827275</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-49.05168099999992</v>
+        <v>-43.11116599999968</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.96</v>
+        <v>-1.72</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.444</v>
+        <v>1.4475</v>
       </c>
       <c r="F7" t="n">
-        <v>5189.8804</v>
+        <v>5202.45975</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-130.1064200000001</v>
+        <v>-117.5270700000001</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.45</v>
+        <v>-2.21</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7904</v>
+        <v>1.773</v>
       </c>
       <c r="F8" t="n">
-        <v>23096.16</v>
+        <v>22871.7</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3797.759999999998</v>
+        <v>3573.299999999996</v>
       </c>
       <c r="J8" t="n">
-        <v>19.68</v>
+        <v>18.52</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.924</v>
+        <v>2.9205</v>
       </c>
       <c r="F9" t="n">
-        <v>885.41644</v>
+        <v>884.3566050000001</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>136.476467</v>
+        <v>135.416632</v>
       </c>
       <c r="J9" t="n">
-        <v>18.22</v>
+        <v>18.08</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.124</v>
+        <v>2.1025</v>
       </c>
       <c r="F10" t="n">
-        <v>2209.87332</v>
+        <v>2187.504075</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>209.8547310000001</v>
+        <v>187.4854860000003</v>
       </c>
       <c r="J10" t="n">
-        <v>10.49</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5872</v>
+        <v>1.5744</v>
       </c>
       <c r="F11" t="n">
-        <v>6566.611455999999</v>
+        <v>6513.654911999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>587.4866599999987</v>
+        <v>534.530115999999</v>
       </c>
       <c r="J11" t="n">
-        <v>9.83</v>
+        <v>8.94</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5872</v>
+        <v>1.5744</v>
       </c>
       <c r="F12" t="n">
-        <v>9545.531903999999</v>
+        <v>9468.551808</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>445.6425870000003</v>
+        <v>368.662491000001</v>
       </c>
       <c r="J12" t="n">
-        <v>4.9</v>
+        <v>4.05</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2807</v>
+        <v>2.2777</v>
       </c>
       <c r="F15" t="n">
-        <v>21210.51</v>
+        <v>21182.61</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1764.209999999999</v>
+        <v>1736.309999999998</v>
       </c>
       <c r="J15" t="n">
-        <v>9.07</v>
+        <v>8.93</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.99</v>
+        <v>28.06</v>
       </c>
       <c r="F16" t="n">
-        <v>13995</v>
+        <v>14030</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="J16" t="n">
-        <v>1.3</v>
+        <v>1.56</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.75</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>17500</v>
+        <v>17420</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-260</v>
+        <v>-340</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.46</v>
+        <v>-1.91</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0977</v>
+        <v>1.087</v>
       </c>
       <c r="F18" t="n">
-        <v>4311.974163</v>
+        <v>4269.94253</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>5.499466000000211</v>
+        <v>-36.53216699999939</v>
       </c>
       <c r="J18" t="n">
-        <v>0.13</v>
+        <v>-0.85</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5453</v>
+        <v>1.5539</v>
       </c>
       <c r="F19" t="n">
-        <v>13444.11</v>
+        <v>13518.93</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>-14.79000000000087</v>
+        <v>60.03000000000065</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.11</v>
+        <v>0.45</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2934</v>
+        <v>1.2929</v>
       </c>
       <c r="F20" t="n">
-        <v>10251.307324</v>
+        <v>10247.344394</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>251.2497620000013</v>
+        <v>247.2868319999998</v>
       </c>
       <c r="J20" t="n">
-        <v>2.51</v>
+        <v>2.47</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.17</v>
+        <v>1.1743</v>
       </c>
       <c r="F21" t="n">
-        <v>13221</v>
+        <v>13269.59</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>587.6000000000004</v>
+        <v>636.1899999999987</v>
       </c>
       <c r="J21" t="n">
-        <v>4.65</v>
+        <v>5.04</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5924</v>
+        <v>1.5785</v>
       </c>
       <c r="F22" t="n">
-        <v>850.166436</v>
+        <v>842.745365</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>121.032863</v>
+        <v>113.611792</v>
       </c>
       <c r="J22" t="n">
-        <v>16.6</v>
+        <v>15.58</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5924</v>
+        <v>1.5785</v>
       </c>
       <c r="F23" t="n">
-        <v>20576.578776</v>
+        <v>20396.96659</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1376.165309999997</v>
+        <v>1196.553123999998</v>
       </c>
       <c r="J23" t="n">
-        <v>7.17</v>
+        <v>6.23</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7913</v>
+        <v>5.6785</v>
       </c>
       <c r="F26" t="n">
-        <v>2405.358542</v>
+        <v>2358.50819</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>305.3579679999998</v>
+        <v>258.5076159999994</v>
       </c>
       <c r="J26" t="n">
-        <v>14.54</v>
+        <v>12.31</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8588</v>
+        <v>1.824</v>
       </c>
       <c r="F28" t="n">
-        <v>7172.737440000001</v>
+        <v>7038.4512</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>872.860560000001</v>
+        <v>738.5743200000006</v>
       </c>
       <c r="J28" t="n">
-        <v>13.86</v>
+        <v>11.72</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8588</v>
+        <v>1.824</v>
       </c>
       <c r="F29" t="n">
-        <v>16188.828252</v>
+        <v>15885.74496</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1188.818085000001</v>
+        <v>885.7347930000014</v>
       </c>
       <c r="J29" t="n">
-        <v>7.93</v>
+        <v>5.9</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8843</v>
+        <v>1.8757</v>
       </c>
       <c r="F30" t="n">
-        <v>9907.818987000001</v>
+        <v>9862.599413</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1027.430786000001</v>
+        <v>982.2112120000002</v>
       </c>
       <c r="J30" t="n">
-        <v>11.57</v>
+        <v>11.06</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8843</v>
+        <v>1.8757</v>
       </c>
       <c r="F31" t="n">
-        <v>1270.526961</v>
+        <v>1264.728239</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>70.52864199999999</v>
+        <v>64.72991999999977</v>
       </c>
       <c r="J31" t="n">
-        <v>5.88</v>
+        <v>5.39</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2632</v>
+        <v>2.2189</v>
       </c>
       <c r="F33" t="n">
-        <v>13805.52</v>
+        <v>13535.29</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1532.319999999998</v>
+        <v>1262.09</v>
       </c>
       <c r="J33" t="n">
-        <v>12.49</v>
+        <v>10.28</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.815</v>
+        <v>1.779</v>
       </c>
       <c r="F34" t="n">
-        <v>34666.5</v>
+        <v>33978.9</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3495.299999999999</v>
+        <v>2807.700000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>11.21</v>
+        <v>9.01</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.7899</v>
+        <v>5.7365</v>
       </c>
       <c r="F35" t="n">
-        <v>35239.531562</v>
+        <v>34914.51887</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2039.545938000003</v>
+        <v>1714.533245999999</v>
       </c>
       <c r="J35" t="n">
-        <v>6.14</v>
+        <v>5.16</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.7899</v>
+        <v>5.7365</v>
       </c>
       <c r="F36" t="n">
-        <v>11966.912714</v>
+        <v>11856.54239</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>666.975722000001</v>
+        <v>556.6053980000015</v>
       </c>
       <c r="J36" t="n">
-        <v>5.9</v>
+        <v>4.93</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.7899</v>
+        <v>5.7365</v>
       </c>
       <c r="F37" t="n">
-        <v>86848.5</v>
+        <v>86047.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>3553.5</v>
+        <v>2752.5</v>
       </c>
       <c r="J37" t="n">
-        <v>4.27</v>
+        <v>3.3</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.4255</v>
+        <v>2.3621</v>
       </c>
       <c r="F38" t="n">
-        <v>17641.655955</v>
+        <v>17180.521761</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1841.627411999998</v>
+        <v>1380.493218</v>
       </c>
       <c r="J38" t="n">
-        <v>11.66</v>
+        <v>8.74</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.4255</v>
+        <v>2.3621</v>
       </c>
       <c r="F39" t="n">
-        <v>25292.895705</v>
+        <v>24631.766211</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>2293.097408999998</v>
+        <v>1631.967914999997</v>
       </c>
       <c r="J39" t="n">
-        <v>9.970000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.946</v>
+        <v>1.8921</v>
       </c>
       <c r="F40" t="n">
-        <v>13038.2</v>
+        <v>12677.07</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2586.199999999999</v>
+        <v>2225.07</v>
       </c>
       <c r="J40" t="n">
-        <v>24.74</v>
+        <v>21.29</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.82</v>
+        <v>7.81</v>
       </c>
       <c r="F41" t="n">
-        <v>7820</v>
+        <v>7810</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="J41" t="n">
-        <v>10</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.58</v>
+        <v>7.45</v>
       </c>
       <c r="F42" t="n">
-        <v>8338</v>
+        <v>8195</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1753.4</v>
+        <v>1610.4</v>
       </c>
       <c r="J42" t="n">
-        <v>26.63</v>
+        <v>24.46</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.74</v>
+        <v>41.78</v>
       </c>
       <c r="F43" t="n">
-        <v>62610</v>
+        <v>62670</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-1845</v>
+        <v>-1785</v>
       </c>
       <c r="J43" t="n">
-        <v>-2.86</v>
+        <v>-2.77</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0827</v>
+        <v>3.0467</v>
       </c>
       <c r="F2" t="n">
-        <v>2280.242363</v>
+        <v>2253.613523</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>410.0101670000004</v>
+        <v>383.3813270000001</v>
       </c>
       <c r="J2" t="n">
-        <v>21.92</v>
+        <v>20.5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.1635</v>
+        <v>3.1117</v>
       </c>
       <c r="F3" t="n">
-        <v>1025.98632</v>
+        <v>1009.186544</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>26.04289599999993</v>
+        <v>9.243119999999863</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>0.92</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2063</v>
+        <v>1.1898</v>
       </c>
       <c r="F4" t="n">
-        <v>6875.91</v>
+        <v>6781.86</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1455.21</v>
+        <v>1361.16</v>
       </c>
       <c r="J4" t="n">
-        <v>26.85</v>
+        <v>25.11</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4475</v>
+        <v>1.4421</v>
       </c>
       <c r="F6" t="n">
-        <v>2456.827275</v>
+        <v>2447.661909</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-43.11116599999968</v>
+        <v>-52.27653199999986</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.72</v>
+        <v>-2.09</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4475</v>
+        <v>1.4421</v>
       </c>
       <c r="F7" t="n">
-        <v>5202.45975</v>
+        <v>5183.05161</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-117.5270700000001</v>
+        <v>-136.9352100000006</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.21</v>
+        <v>-2.57</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.773</v>
+        <v>1.7475</v>
       </c>
       <c r="F8" t="n">
-        <v>22871.7</v>
+        <v>22542.75</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3573.299999999996</v>
+        <v>3244.349999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>18.52</v>
+        <v>16.81</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9205</v>
+        <v>2.9118</v>
       </c>
       <c r="F9" t="n">
-        <v>884.3566050000001</v>
+        <v>881.722158</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>135.416632</v>
+        <v>132.782185</v>
       </c>
       <c r="J9" t="n">
-        <v>18.08</v>
+        <v>17.73</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1025</v>
+        <v>2.1006</v>
       </c>
       <c r="F10" t="n">
-        <v>2187.504075</v>
+        <v>2185.527258</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>187.4854860000003</v>
+        <v>185.5086690000001</v>
       </c>
       <c r="J10" t="n">
-        <v>9.369999999999999</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5744</v>
+        <v>1.5709</v>
       </c>
       <c r="F11" t="n">
-        <v>6513.654911999999</v>
+        <v>6499.174606999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>534.530115999999</v>
+        <v>520.049810999999</v>
       </c>
       <c r="J11" t="n">
-        <v>8.94</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5744</v>
+        <v>1.5709</v>
       </c>
       <c r="F12" t="n">
-        <v>9468.551808</v>
+        <v>9447.502563</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>368.662491000001</v>
+        <v>347.6132460000008</v>
       </c>
       <c r="J12" t="n">
-        <v>4.05</v>
+        <v>3.82</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2777</v>
+        <v>2.2706</v>
       </c>
       <c r="F15" t="n">
-        <v>21182.61</v>
+        <v>21116.58</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1736.309999999998</v>
+        <v>1670.279999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>8.93</v>
+        <v>8.59</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.06</v>
+        <v>27.93</v>
       </c>
       <c r="F16" t="n">
-        <v>14030</v>
+        <v>13965</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="J16" t="n">
-        <v>1.56</v>
+        <v>1.09</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.710000000000001</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>17420</v>
+        <v>17260</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-340</v>
+        <v>-500</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.91</v>
+        <v>-2.82</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.087</v>
+        <v>1.0842</v>
       </c>
       <c r="F18" t="n">
-        <v>4269.94253</v>
+        <v>4258.943598</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-36.53216699999939</v>
+        <v>-47.53109899999981</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.85</v>
+        <v>-1.1</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5539</v>
+        <v>1.5418</v>
       </c>
       <c r="F19" t="n">
-        <v>13518.93</v>
+        <v>13413.66</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>60.03000000000065</v>
+        <v>-45.23999999999978</v>
       </c>
       <c r="J19" t="n">
-        <v>0.45</v>
+        <v>-0.34</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2929</v>
+        <v>1.2751</v>
       </c>
       <c r="F20" t="n">
-        <v>10247.344394</v>
+        <v>10106.264086</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>247.2868319999998</v>
+        <v>106.2065239999993</v>
       </c>
       <c r="J20" t="n">
-        <v>2.47</v>
+        <v>1.06</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1743</v>
+        <v>1.1683</v>
       </c>
       <c r="F21" t="n">
-        <v>13269.59</v>
+        <v>13201.79</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>636.1899999999987</v>
+        <v>568.3899999999994</v>
       </c>
       <c r="J21" t="n">
-        <v>5.04</v>
+        <v>4.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5785</v>
+        <v>1.5667</v>
       </c>
       <c r="F22" t="n">
-        <v>842.745365</v>
+        <v>836.445463</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>113.611792</v>
+        <v>107.3118900000001</v>
       </c>
       <c r="J22" t="n">
-        <v>15.58</v>
+        <v>14.72</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5785</v>
+        <v>1.5667</v>
       </c>
       <c r="F23" t="n">
-        <v>20396.96659</v>
+        <v>20244.490058</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1196.553123999998</v>
+        <v>1044.076591999998</v>
       </c>
       <c r="J23" t="n">
-        <v>6.23</v>
+        <v>5.44</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.408</v>
+        <v>1.4018</v>
       </c>
       <c r="F24" t="n">
-        <v>921.28256</v>
+        <v>917.225776</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>121.310928</v>
+        <v>117.254144</v>
       </c>
       <c r="J24" t="n">
-        <v>15.16</v>
+        <v>14.66</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.6785</v>
+        <v>5.6507</v>
       </c>
       <c r="F26" t="n">
-        <v>2358.50819</v>
+        <v>2346.961738</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>258.5076159999994</v>
+        <v>246.9611639999994</v>
       </c>
       <c r="J26" t="n">
-        <v>12.31</v>
+        <v>11.76</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.824</v>
+        <v>1.8155</v>
       </c>
       <c r="F28" t="n">
-        <v>7038.4512</v>
+        <v>7005.6514</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>738.5743200000006</v>
+        <v>705.7745199999999</v>
       </c>
       <c r="J28" t="n">
-        <v>11.72</v>
+        <v>11.2</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.824</v>
+        <v>1.8155</v>
       </c>
       <c r="F29" t="n">
-        <v>15885.74496</v>
+        <v>15811.715995</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>885.7347930000014</v>
+        <v>811.7058280000001</v>
       </c>
       <c r="J29" t="n">
-        <v>5.9</v>
+        <v>5.41</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8757</v>
+        <v>1.8788</v>
       </c>
       <c r="F30" t="n">
-        <v>9862.599413</v>
+        <v>9878.899492</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>982.2112120000002</v>
+        <v>998.5112910000007</v>
       </c>
       <c r="J30" t="n">
-        <v>11.06</v>
+        <v>11.24</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8757</v>
+        <v>1.8788</v>
       </c>
       <c r="F31" t="n">
-        <v>1264.728239</v>
+        <v>1266.818476</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>64.72991999999977</v>
+        <v>66.82015699999988</v>
       </c>
       <c r="J31" t="n">
-        <v>5.39</v>
+        <v>5.57</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2189</v>
+        <v>2.2053</v>
       </c>
       <c r="F33" t="n">
-        <v>13535.29</v>
+        <v>13452.33</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1262.09</v>
+        <v>1179.129999999997</v>
       </c>
       <c r="J33" t="n">
-        <v>10.28</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.779</v>
+        <v>1.77</v>
       </c>
       <c r="F34" t="n">
-        <v>33978.9</v>
+        <v>33807</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2807.700000000001</v>
+        <v>2635.799999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>9.01</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.7365</v>
+        <v>5.7488</v>
       </c>
       <c r="F35" t="n">
-        <v>34914.51887</v>
+        <v>34989.381344</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1714.533245999999</v>
+        <v>1789.39572</v>
       </c>
       <c r="J35" t="n">
-        <v>5.16</v>
+        <v>5.39</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.7365</v>
+        <v>5.7488</v>
       </c>
       <c r="F36" t="n">
-        <v>11856.54239</v>
+        <v>11881.964768</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>556.6053980000015</v>
+        <v>582.0277760000008</v>
       </c>
       <c r="J36" t="n">
-        <v>4.93</v>
+        <v>5.15</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.7365</v>
+        <v>5.7488</v>
       </c>
       <c r="F37" t="n">
-        <v>86047.5</v>
+        <v>86232</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>2752.5</v>
+        <v>2937</v>
       </c>
       <c r="J37" t="n">
-        <v>3.3</v>
+        <v>3.53</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3621</v>
+        <v>2.341</v>
       </c>
       <c r="F38" t="n">
-        <v>17180.521761</v>
+        <v>17027.05281</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1380.493218</v>
+        <v>1227.024267000001</v>
       </c>
       <c r="J38" t="n">
-        <v>8.74</v>
+        <v>7.77</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3621</v>
+        <v>2.341</v>
       </c>
       <c r="F39" t="n">
-        <v>24631.766211</v>
+        <v>24411.73731</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1631.967914999997</v>
+        <v>1411.939014</v>
       </c>
       <c r="J39" t="n">
-        <v>7.1</v>
+        <v>6.14</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8921</v>
+        <v>1.8746</v>
       </c>
       <c r="F40" t="n">
-        <v>12677.07</v>
+        <v>12559.82</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2225.07</v>
+        <v>2107.82</v>
       </c>
       <c r="J40" t="n">
-        <v>21.29</v>
+        <v>20.17</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.81</v>
+        <v>7.78</v>
       </c>
       <c r="F41" t="n">
-        <v>7810</v>
+        <v>7780</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>701</v>
+        <v>671</v>
       </c>
       <c r="J41" t="n">
-        <v>9.859999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.45</v>
+        <v>7.35</v>
       </c>
       <c r="F42" t="n">
-        <v>8195</v>
+        <v>8085</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1610.4</v>
+        <v>1500.4</v>
       </c>
       <c r="J42" t="n">
-        <v>24.46</v>
+        <v>22.79</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.78</v>
+        <v>41.6</v>
       </c>
       <c r="F43" t="n">
-        <v>62670</v>
+        <v>62400</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-1785</v>
+        <v>-2055</v>
       </c>
       <c r="J43" t="n">
-        <v>-2.77</v>
+        <v>-3.19</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0467</v>
+        <v>3.07</v>
       </c>
       <c r="F2" t="n">
-        <v>2253.613523</v>
+        <v>2270.8483</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>383.3813270000001</v>
+        <v>400.6161040000002</v>
       </c>
       <c r="J2" t="n">
-        <v>20.5</v>
+        <v>21.42</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.1117</v>
+        <v>3.1303</v>
       </c>
       <c r="F3" t="n">
-        <v>1009.186544</v>
+        <v>1015.218896</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>9.243119999999863</v>
+        <v>15.27547199999992</v>
       </c>
       <c r="J3" t="n">
-        <v>0.92</v>
+        <v>1.53</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.1898</v>
+        <v>1.2132</v>
       </c>
       <c r="F4" t="n">
-        <v>6781.86</v>
+        <v>6915.240000000001</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1361.16</v>
+        <v>1494.540000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>25.11</v>
+        <v>27.57</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.011</v>
+        <v>1.9885</v>
       </c>
       <c r="F5" t="n">
-        <v>2384.90523</v>
+        <v>2358.221805</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-15.06131099999948</v>
+        <v>-41.74473599999965</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.63</v>
+        <v>-1.74</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4421</v>
+        <v>1.4312</v>
       </c>
       <c r="F6" t="n">
-        <v>2447.661909</v>
+        <v>2429.161448</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-52.27653199999986</v>
+        <v>-70.77699299999995</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.09</v>
+        <v>-2.83</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4421</v>
+        <v>1.4312</v>
       </c>
       <c r="F7" t="n">
-        <v>5183.05161</v>
+        <v>5143.87592</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-136.9352100000006</v>
+        <v>-176.1108999999997</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.57</v>
+        <v>-3.31</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7475</v>
+        <v>1.7479</v>
       </c>
       <c r="F8" t="n">
-        <v>22542.75</v>
+        <v>22547.91</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3244.349999999999</v>
+        <v>3249.509999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>16.81</v>
+        <v>16.84</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9118</v>
+        <v>2.8787</v>
       </c>
       <c r="F9" t="n">
-        <v>881.722158</v>
+        <v>871.6991469999999</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>132.782185</v>
+        <v>122.7591739999999</v>
       </c>
       <c r="J9" t="n">
-        <v>17.73</v>
+        <v>16.39</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1006</v>
+        <v>2.0928</v>
       </c>
       <c r="F10" t="n">
-        <v>2185.527258</v>
+        <v>2177.411904</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>185.5086690000001</v>
+        <v>177.393315</v>
       </c>
       <c r="J10" t="n">
-        <v>9.279999999999999</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5709</v>
+        <v>1.567</v>
       </c>
       <c r="F11" t="n">
-        <v>6499.174606999999</v>
+        <v>6483.039409999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>520.049810999999</v>
+        <v>503.9146139999993</v>
       </c>
       <c r="J11" t="n">
-        <v>8.699999999999999</v>
+        <v>8.43</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5709</v>
+        <v>1.567</v>
       </c>
       <c r="F12" t="n">
-        <v>9447.502563</v>
+        <v>9424.047689999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>347.6132460000008</v>
+        <v>324.1583730000002</v>
       </c>
       <c r="J12" t="n">
-        <v>3.82</v>
+        <v>3.56</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2706</v>
+        <v>2.2435</v>
       </c>
       <c r="F15" t="n">
-        <v>21116.58</v>
+        <v>20864.55</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1670.279999999999</v>
+        <v>1418.25</v>
       </c>
       <c r="J15" t="n">
-        <v>8.59</v>
+        <v>7.29</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.93</v>
+        <v>27.92</v>
       </c>
       <c r="F16" t="n">
-        <v>13965</v>
+        <v>13960</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J16" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.630000000000001</v>
+        <v>8.67</v>
       </c>
       <c r="F17" t="n">
-        <v>17260</v>
+        <v>17340</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-500</v>
+        <v>-420</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.82</v>
+        <v>-2.36</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0842</v>
+        <v>1.0875</v>
       </c>
       <c r="F18" t="n">
-        <v>4258.943598</v>
+        <v>4271.906625</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-47.53109899999981</v>
+        <v>-34.56807200000003</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.1</v>
+        <v>-0.8</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5418</v>
+        <v>1.5463</v>
       </c>
       <c r="F19" t="n">
-        <v>13413.66</v>
+        <v>13452.81</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>-45.23999999999978</v>
+        <v>-6.090000000000146</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.34</v>
+        <v>-0.05</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1683</v>
+        <v>1.1692</v>
       </c>
       <c r="F21" t="n">
-        <v>13201.79</v>
+        <v>13211.96</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>568.3899999999994</v>
+        <v>578.5600000000013</v>
       </c>
       <c r="J21" t="n">
-        <v>4.5</v>
+        <v>4.58</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5667</v>
+        <v>1.569</v>
       </c>
       <c r="F22" t="n">
-        <v>836.445463</v>
+        <v>837.67341</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>107.3118900000001</v>
+        <v>108.539837</v>
       </c>
       <c r="J22" t="n">
-        <v>14.72</v>
+        <v>14.89</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5667</v>
+        <v>1.569</v>
       </c>
       <c r="F23" t="n">
-        <v>20244.490058</v>
+        <v>20274.21006</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1044.076591999998</v>
+        <v>1073.796593999996</v>
       </c>
       <c r="J23" t="n">
-        <v>5.44</v>
+        <v>5.59</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4018</v>
+        <v>1.4043</v>
       </c>
       <c r="F24" t="n">
-        <v>917.225776</v>
+        <v>918.8615760000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>117.254144</v>
+        <v>118.8899440000001</v>
       </c>
       <c r="J24" t="n">
-        <v>14.66</v>
+        <v>14.86</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.6507</v>
+        <v>5.6599</v>
       </c>
       <c r="F26" t="n">
-        <v>2346.961738</v>
+        <v>2350.782866</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>246.9611639999994</v>
+        <v>250.7822919999999</v>
       </c>
       <c r="J26" t="n">
-        <v>11.76</v>
+        <v>11.94</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8155</v>
+        <v>1.8186</v>
       </c>
       <c r="F28" t="n">
-        <v>7005.6514</v>
+        <v>7017.61368</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>705.7745199999999</v>
+        <v>717.7368000000006</v>
       </c>
       <c r="J28" t="n">
-        <v>11.2</v>
+        <v>11.39</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8155</v>
+        <v>1.8186</v>
       </c>
       <c r="F29" t="n">
-        <v>15811.715995</v>
+        <v>15838.714794</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>811.7058280000001</v>
+        <v>838.704627000001</v>
       </c>
       <c r="J29" t="n">
-        <v>5.41</v>
+        <v>5.59</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8788</v>
+        <v>1.8437</v>
       </c>
       <c r="F30" t="n">
-        <v>9878.899492</v>
+        <v>9694.340533000001</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>998.5112910000007</v>
+        <v>813.9523320000008</v>
       </c>
       <c r="J30" t="n">
-        <v>11.24</v>
+        <v>9.17</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8788</v>
+        <v>1.8437</v>
       </c>
       <c r="F31" t="n">
-        <v>1266.818476</v>
+        <v>1243.151599</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>66.82015699999988</v>
+        <v>43.15327999999977</v>
       </c>
       <c r="J31" t="n">
-        <v>5.57</v>
+        <v>3.6</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2053</v>
+        <v>2.2089</v>
       </c>
       <c r="F33" t="n">
-        <v>13452.33</v>
+        <v>13474.29</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1179.129999999997</v>
+        <v>1201.089999999998</v>
       </c>
       <c r="J33" t="n">
-        <v>9.609999999999999</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.77</v>
+        <v>1.773</v>
       </c>
       <c r="F34" t="n">
-        <v>33807</v>
+        <v>33864.3</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2635.799999999999</v>
+        <v>2693.099999999995</v>
       </c>
       <c r="J34" t="n">
-        <v>8.460000000000001</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.7488</v>
+        <v>5.6292</v>
       </c>
       <c r="F35" t="n">
-        <v>34989.381344</v>
+        <v>34261.450296</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1789.39572</v>
+        <v>1061.464672000002</v>
       </c>
       <c r="J35" t="n">
-        <v>5.39</v>
+        <v>3.2</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.7488</v>
+        <v>5.6292</v>
       </c>
       <c r="F36" t="n">
-        <v>11881.964768</v>
+        <v>11634.768312</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>582.0277760000008</v>
+        <v>334.8313199999993</v>
       </c>
       <c r="J36" t="n">
-        <v>5.15</v>
+        <v>2.96</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.7488</v>
+        <v>5.6292</v>
       </c>
       <c r="F37" t="n">
-        <v>86232</v>
+        <v>84438</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>2937</v>
+        <v>1143</v>
       </c>
       <c r="J37" t="n">
-        <v>3.53</v>
+        <v>1.37</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.341</v>
+        <v>2.344</v>
       </c>
       <c r="F38" t="n">
-        <v>17027.05281</v>
+        <v>17048.87304</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1227.024267000001</v>
+        <v>1248.844496999998</v>
       </c>
       <c r="J38" t="n">
-        <v>7.77</v>
+        <v>7.9</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.341</v>
+        <v>2.344</v>
       </c>
       <c r="F39" t="n">
-        <v>24411.73731</v>
+        <v>24443.02104</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1411.939014</v>
+        <v>1443.222743999999</v>
       </c>
       <c r="J39" t="n">
-        <v>6.14</v>
+        <v>6.27</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8746</v>
+        <v>1.878</v>
       </c>
       <c r="F40" t="n">
-        <v>12559.82</v>
+        <v>12582.6</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2107.82</v>
+        <v>2130.599999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>20.17</v>
+        <v>20.38</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.78</v>
+        <v>7.81</v>
       </c>
       <c r="F41" t="n">
-        <v>7780</v>
+        <v>7810</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="J41" t="n">
-        <v>9.44</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.35</v>
+        <v>7.46</v>
       </c>
       <c r="F42" t="n">
-        <v>8085</v>
+        <v>8206</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1500.4</v>
+        <v>1621.4</v>
       </c>
       <c r="J42" t="n">
-        <v>22.79</v>
+        <v>24.62</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.6</v>
+        <v>41.54</v>
       </c>
       <c r="F43" t="n">
-        <v>62400</v>
+        <v>62310</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-2055</v>
+        <v>-2145</v>
       </c>
       <c r="J43" t="n">
-        <v>-3.19</v>
+        <v>-3.33</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.07</v>
+        <v>3.0783</v>
       </c>
       <c r="F2" t="n">
-        <v>2270.8483</v>
+        <v>2276.987727</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>400.6161040000002</v>
+        <v>406.7555310000002</v>
       </c>
       <c r="J2" t="n">
-        <v>21.42</v>
+        <v>21.75</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.1303</v>
+        <v>3.1263</v>
       </c>
       <c r="F3" t="n">
-        <v>1015.218896</v>
+        <v>1013.921616</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>15.27547199999992</v>
+        <v>13.97819199999992</v>
       </c>
       <c r="J3" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2132</v>
+        <v>1.2058</v>
       </c>
       <c r="F4" t="n">
-        <v>6915.240000000001</v>
+        <v>6873.059999999999</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1494.540000000001</v>
+        <v>1452.36</v>
       </c>
       <c r="J4" t="n">
-        <v>27.57</v>
+        <v>26.79</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4312</v>
+        <v>1.4346</v>
       </c>
       <c r="F6" t="n">
-        <v>2429.161448</v>
+        <v>2434.932234</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-70.77699299999995</v>
+        <v>-65.00620699999945</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.83</v>
+        <v>-2.6</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4312</v>
+        <v>1.4346</v>
       </c>
       <c r="F7" t="n">
-        <v>5143.87592</v>
+        <v>5156.09586</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-176.1108999999997</v>
+        <v>-163.8909599999997</v>
       </c>
       <c r="J7" t="n">
-        <v>-3.31</v>
+        <v>-3.08</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7479</v>
+        <v>1.7228</v>
       </c>
       <c r="F8" t="n">
-        <v>22547.91</v>
+        <v>22224.12</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3249.509999999998</v>
+        <v>2925.720000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>16.84</v>
+        <v>15.16</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8787</v>
+        <v>2.9006</v>
       </c>
       <c r="F9" t="n">
-        <v>871.6991469999999</v>
+        <v>878.330686</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>122.7591739999999</v>
+        <v>129.390713</v>
       </c>
       <c r="J9" t="n">
-        <v>16.39</v>
+        <v>17.28</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0928</v>
+        <v>2.0718</v>
       </c>
       <c r="F10" t="n">
-        <v>2177.411904</v>
+        <v>2155.562874</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>177.393315</v>
+        <v>155.5442850000002</v>
       </c>
       <c r="J10" t="n">
-        <v>8.869999999999999</v>
+        <v>7.78</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.567</v>
+        <v>1.5492</v>
       </c>
       <c r="F11" t="n">
-        <v>6483.039409999999</v>
+        <v>6409.396715999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>503.9146139999993</v>
+        <v>430.2719199999992</v>
       </c>
       <c r="J11" t="n">
-        <v>8.43</v>
+        <v>7.2</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.567</v>
+        <v>1.5492</v>
       </c>
       <c r="F12" t="n">
-        <v>9424.047689999999</v>
+        <v>9316.997243999998</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>324.1583730000002</v>
+        <v>217.1079269999991</v>
       </c>
       <c r="J12" t="n">
-        <v>3.56</v>
+        <v>2.39</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2435</v>
+        <v>2.2616</v>
       </c>
       <c r="F15" t="n">
-        <v>20864.55</v>
+        <v>21032.88</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1418.25</v>
+        <v>1586.580000000002</v>
       </c>
       <c r="J15" t="n">
-        <v>7.29</v>
+        <v>8.16</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.92</v>
+        <v>28.03</v>
       </c>
       <c r="F16" t="n">
-        <v>13960</v>
+        <v>14015</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="J16" t="n">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.67</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>17340</v>
+        <v>17400</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-420</v>
+        <v>-360</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.36</v>
+        <v>-2.03</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0875</v>
+        <v>1.096</v>
       </c>
       <c r="F18" t="n">
-        <v>4271.906625</v>
+        <v>4305.296240000001</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-34.56807200000003</v>
+        <v>-1.178456999999071</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.8</v>
+        <v>-0.03</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5463</v>
+        <v>1.5386</v>
       </c>
       <c r="F19" t="n">
-        <v>13452.81</v>
+        <v>13385.82</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>-6.090000000000146</v>
+        <v>-73.07999999999993</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.05</v>
+        <v>-0.54</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2751</v>
+        <v>1.2791</v>
       </c>
       <c r="F20" t="n">
-        <v>10106.264086</v>
+        <v>10137.967526</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>106.2065239999993</v>
+        <v>137.9099639999986</v>
       </c>
       <c r="J20" t="n">
-        <v>1.06</v>
+        <v>1.38</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1692</v>
+        <v>1.1811</v>
       </c>
       <c r="F21" t="n">
-        <v>13211.96</v>
+        <v>13346.43</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>578.5600000000013</v>
+        <v>713.0300000000007</v>
       </c>
       <c r="J21" t="n">
-        <v>4.58</v>
+        <v>5.64</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.569</v>
+        <v>1.5402</v>
       </c>
       <c r="F22" t="n">
-        <v>837.67341</v>
+        <v>822.297378</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>108.539837</v>
+        <v>93.16380500000002</v>
       </c>
       <c r="J22" t="n">
-        <v>14.89</v>
+        <v>12.78</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.569</v>
+        <v>1.5402</v>
       </c>
       <c r="F23" t="n">
-        <v>20274.21006</v>
+        <v>19902.063948</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1073.796593999996</v>
+        <v>701.6504819999973</v>
       </c>
       <c r="J23" t="n">
-        <v>5.59</v>
+        <v>3.65</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4043</v>
+        <v>1.3782</v>
       </c>
       <c r="F24" t="n">
-        <v>918.8615760000001</v>
+        <v>901.7838240000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>118.8899440000001</v>
+        <v>101.8121920000001</v>
       </c>
       <c r="J24" t="n">
-        <v>14.86</v>
+        <v>12.73</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.6599</v>
+        <v>5.5504</v>
       </c>
       <c r="F26" t="n">
-        <v>2350.782866</v>
+        <v>2305.303136</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>250.7822919999999</v>
+        <v>205.3025619999999</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8186</v>
+        <v>1.7847</v>
       </c>
       <c r="F28" t="n">
-        <v>7017.61368</v>
+        <v>6886.80036</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>717.7368000000006</v>
+        <v>586.9234800000004</v>
       </c>
       <c r="J28" t="n">
-        <v>11.39</v>
+        <v>9.32</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8186</v>
+        <v>1.7847</v>
       </c>
       <c r="F29" t="n">
-        <v>15838.714794</v>
+        <v>15543.469863</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>838.704627000001</v>
+        <v>543.4596959999999</v>
       </c>
       <c r="J29" t="n">
-        <v>5.59</v>
+        <v>3.62</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8437</v>
+        <v>1.8703</v>
       </c>
       <c r="F30" t="n">
-        <v>9694.340533000001</v>
+        <v>9834.205727</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>813.9523320000008</v>
+        <v>953.8175260000007</v>
       </c>
       <c r="J30" t="n">
-        <v>9.17</v>
+        <v>10.74</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8437</v>
+        <v>1.8703</v>
       </c>
       <c r="F31" t="n">
-        <v>1243.151599</v>
+        <v>1261.087181</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>43.15327999999977</v>
+        <v>61.08886200000006</v>
       </c>
       <c r="J31" t="n">
-        <v>3.6</v>
+        <v>5.09</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2089</v>
+        <v>2.1672</v>
       </c>
       <c r="F33" t="n">
-        <v>13474.29</v>
+        <v>13219.92</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1201.089999999998</v>
+        <v>946.7199999999975</v>
       </c>
       <c r="J33" t="n">
-        <v>9.789999999999999</v>
+        <v>7.71</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.773</v>
+        <v>1.739</v>
       </c>
       <c r="F34" t="n">
-        <v>33864.3</v>
+        <v>33214.9</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2693.099999999995</v>
+        <v>2043.700000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>8.640000000000001</v>
+        <v>6.56</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.6292</v>
+        <v>5.7047</v>
       </c>
       <c r="F35" t="n">
-        <v>34261.450296</v>
+        <v>34720.971986</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1061.464672000002</v>
+        <v>1520.986361999996</v>
       </c>
       <c r="J35" t="n">
-        <v>3.2</v>
+        <v>4.58</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.6292</v>
+        <v>5.7047</v>
       </c>
       <c r="F36" t="n">
-        <v>11634.768312</v>
+        <v>11790.816242</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>334.8313199999993</v>
+        <v>490.87925</v>
       </c>
       <c r="J36" t="n">
-        <v>2.96</v>
+        <v>4.34</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.6292</v>
+        <v>5.7047</v>
       </c>
       <c r="F37" t="n">
-        <v>84438</v>
+        <v>85570.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>1143</v>
+        <v>2275.5</v>
       </c>
       <c r="J37" t="n">
-        <v>1.37</v>
+        <v>2.73</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.344</v>
+        <v>2.2888</v>
       </c>
       <c r="F38" t="n">
-        <v>17048.87304</v>
+        <v>16647.380808</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1248.844496999998</v>
+        <v>847.3522650000014</v>
       </c>
       <c r="J38" t="n">
-        <v>7.9</v>
+        <v>5.36</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.344</v>
+        <v>2.2888</v>
       </c>
       <c r="F39" t="n">
-        <v>24443.02104</v>
+        <v>23867.400408</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1443.222743999999</v>
+        <v>867.6021120000005</v>
       </c>
       <c r="J39" t="n">
-        <v>6.27</v>
+        <v>3.77</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.878</v>
+        <v>1.8313</v>
       </c>
       <c r="F40" t="n">
-        <v>12582.6</v>
+        <v>12269.71</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2130.599999999999</v>
+        <v>1817.709999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>20.38</v>
+        <v>17.39</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.81</v>
+        <v>7.96</v>
       </c>
       <c r="F41" t="n">
-        <v>7810</v>
+        <v>7960</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>701</v>
+        <v>851</v>
       </c>
       <c r="J41" t="n">
-        <v>9.859999999999999</v>
+        <v>11.97</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.46</v>
+        <v>7.59</v>
       </c>
       <c r="F42" t="n">
-        <v>8206</v>
+        <v>8349</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1621.4</v>
+        <v>1764.4</v>
       </c>
       <c r="J42" t="n">
-        <v>24.62</v>
+        <v>26.8</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.54</v>
+        <v>42.37</v>
       </c>
       <c r="F43" t="n">
-        <v>62310</v>
+        <v>63554.99999999999</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-2145</v>
+        <v>-900.0000000000073</v>
       </c>
       <c r="J43" t="n">
-        <v>-3.33</v>
+        <v>-1.4</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0783</v>
+        <v>3.078</v>
       </c>
       <c r="F2" t="n">
-        <v>2276.987727</v>
+        <v>2276.76582</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>406.7555310000002</v>
+        <v>406.5336240000001</v>
       </c>
       <c r="J2" t="n">
-        <v>21.75</v>
+        <v>21.74</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2058</v>
+        <v>1.213</v>
       </c>
       <c r="F4" t="n">
-        <v>6873.059999999999</v>
+        <v>6914.1</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1452.36</v>
+        <v>1493.400000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>26.79</v>
+        <v>27.55</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9885</v>
+        <v>2.0061</v>
       </c>
       <c r="F5" t="n">
-        <v>2358.221805</v>
+        <v>2379.094173</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-41.74473599999965</v>
+        <v>-20.87236799999982</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.74</v>
+        <v>-0.87</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4346</v>
+        <v>1.4358</v>
       </c>
       <c r="F6" t="n">
-        <v>2434.932234</v>
+        <v>2436.968982</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-65.00620699999945</v>
+        <v>-62.96945899999992</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.6</v>
+        <v>-2.52</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4346</v>
+        <v>1.4358</v>
       </c>
       <c r="F7" t="n">
-        <v>5156.09586</v>
+        <v>5160.40878</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-163.8909599999997</v>
+        <v>-159.5780400000003</v>
       </c>
       <c r="J7" t="n">
-        <v>-3.08</v>
+        <v>-3</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7228</v>
+        <v>1.7368</v>
       </c>
       <c r="F8" t="n">
-        <v>22224.12</v>
+        <v>22404.72</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2925.720000000001</v>
+        <v>3106.319999999996</v>
       </c>
       <c r="J8" t="n">
-        <v>15.16</v>
+        <v>16.1</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0718</v>
+        <v>2.0872</v>
       </c>
       <c r="F10" t="n">
-        <v>2155.562874</v>
+        <v>2171.585496</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>155.5442850000002</v>
+        <v>171.5669070000001</v>
       </c>
       <c r="J10" t="n">
-        <v>7.78</v>
+        <v>8.58</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5492</v>
+        <v>1.561</v>
       </c>
       <c r="F11" t="n">
-        <v>6409.396715999999</v>
+        <v>6458.216029999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>430.2719199999992</v>
+        <v>479.0912339999986</v>
       </c>
       <c r="J11" t="n">
-        <v>7.2</v>
+        <v>8.01</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5492</v>
+        <v>1.561</v>
       </c>
       <c r="F12" t="n">
-        <v>9316.997243999998</v>
+        <v>9387.963269999998</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>217.1079269999991</v>
+        <v>288.0739529999992</v>
       </c>
       <c r="J12" t="n">
-        <v>2.39</v>
+        <v>3.17</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.096</v>
+        <v>1.0956</v>
       </c>
       <c r="F18" t="n">
-        <v>4305.296240000001</v>
+        <v>4303.724964</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.178456999999071</v>
+        <v>-2.749732999999651</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.03</v>
+        <v>-0.06</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5386</v>
+        <v>1.5413</v>
       </c>
       <c r="F19" t="n">
-        <v>13385.82</v>
+        <v>13409.31</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>-73.07999999999993</v>
+        <v>-49.59000000000015</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.54</v>
+        <v>-0.37</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2791</v>
+        <v>1.2813</v>
       </c>
       <c r="F20" t="n">
-        <v>10137.967526</v>
+        <v>10155.404418</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>137.9099639999986</v>
+        <v>155.3468560000001</v>
       </c>
       <c r="J20" t="n">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1811</v>
+        <v>1.1794</v>
       </c>
       <c r="F21" t="n">
-        <v>13346.43</v>
+        <v>13327.22</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>713.0300000000007</v>
+        <v>693.8199999999997</v>
       </c>
       <c r="J21" t="n">
-        <v>5.64</v>
+        <v>5.49</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5402</v>
+        <v>1.5618</v>
       </c>
       <c r="F22" t="n">
-        <v>822.297378</v>
+        <v>833.8294020000001</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>93.16380500000002</v>
+        <v>104.6958290000001</v>
       </c>
       <c r="J22" t="n">
-        <v>12.78</v>
+        <v>14.36</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5402</v>
+        <v>1.5618</v>
       </c>
       <c r="F23" t="n">
-        <v>19902.063948</v>
+        <v>20181.173532</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>701.6504819999973</v>
+        <v>980.7600659999989</v>
       </c>
       <c r="J23" t="n">
-        <v>3.65</v>
+        <v>5.11</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3782</v>
+        <v>1.3978</v>
       </c>
       <c r="F24" t="n">
-        <v>901.7838240000001</v>
+        <v>914.6084960000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>101.8121920000001</v>
+        <v>114.6368640000001</v>
       </c>
       <c r="J24" t="n">
-        <v>12.73</v>
+        <v>14.33</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.5504</v>
+        <v>5.633</v>
       </c>
       <c r="F26" t="n">
-        <v>2305.303136</v>
+        <v>2339.61022</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>205.3025619999999</v>
+        <v>239.6096459999999</v>
       </c>
       <c r="J26" t="n">
-        <v>9.779999999999999</v>
+        <v>11.41</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.7847</v>
+        <v>1.8103</v>
       </c>
       <c r="F28" t="n">
-        <v>6886.80036</v>
+        <v>6985.58564</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>586.9234800000004</v>
+        <v>685.7087600000004</v>
       </c>
       <c r="J28" t="n">
-        <v>9.32</v>
+        <v>10.88</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.7847</v>
+        <v>1.8103</v>
       </c>
       <c r="F29" t="n">
-        <v>15543.469863</v>
+        <v>15766.427687</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>543.4596959999999</v>
+        <v>766.4175200000009</v>
       </c>
       <c r="J29" t="n">
-        <v>3.62</v>
+        <v>5.11</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.1672</v>
+        <v>2.1987</v>
       </c>
       <c r="F33" t="n">
-        <v>13219.92</v>
+        <v>13412.07</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>946.7199999999975</v>
+        <v>1138.869999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>7.71</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.739</v>
+        <v>1.765</v>
       </c>
       <c r="F34" t="n">
-        <v>33214.9</v>
+        <v>33711.5</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2043.700000000001</v>
+        <v>2540.299999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>6.56</v>
+        <v>8.15</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.2888</v>
+        <v>2.3272</v>
       </c>
       <c r="F38" t="n">
-        <v>16647.380808</v>
+        <v>16926.679752</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>847.3522650000014</v>
+        <v>1126.651209</v>
       </c>
       <c r="J38" t="n">
-        <v>5.36</v>
+        <v>7.13</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.2888</v>
+        <v>2.3272</v>
       </c>
       <c r="F39" t="n">
-        <v>23867.400408</v>
+        <v>24267.832152</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>867.6021120000005</v>
+        <v>1268.033855999998</v>
       </c>
       <c r="J39" t="n">
-        <v>3.77</v>
+        <v>5.51</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8313</v>
+        <v>1.8643</v>
       </c>
       <c r="F40" t="n">
-        <v>12269.71</v>
+        <v>12490.81</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1817.709999999999</v>
+        <v>2038.810000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>17.39</v>
+        <v>19.51</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.1263</v>
+        <v>3.1592</v>
       </c>
       <c r="F3" t="n">
-        <v>1013.921616</v>
+        <v>1024.591744</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>13.97819199999992</v>
+        <v>24.64831999999979</v>
       </c>
       <c r="J3" t="n">
-        <v>1.4</v>
+        <v>2.46</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0061</v>
+        <v>2.0099</v>
       </c>
       <c r="F5" t="n">
-        <v>2379.094173</v>
+        <v>2383.600707</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-20.87236799999982</v>
+        <v>-16.36583399999972</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.87</v>
+        <v>-0.68</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9006</v>
+        <v>2.9235</v>
       </c>
       <c r="F9" t="n">
-        <v>878.330686</v>
+        <v>885.2650350000001</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>129.390713</v>
+        <v>136.3250620000001</v>
       </c>
       <c r="J9" t="n">
-        <v>17.28</v>
+        <v>18.2</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2616</v>
+        <v>2.2802</v>
       </c>
       <c r="F15" t="n">
-        <v>21032.88</v>
+        <v>21205.86</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1586.580000000002</v>
+        <v>1759.559999999998</v>
       </c>
       <c r="J15" t="n">
-        <v>8.16</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>28.03</v>
+        <v>27.84</v>
       </c>
       <c r="F16" t="n">
-        <v>14015</v>
+        <v>13920</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="J16" t="n">
-        <v>1.45</v>
+        <v>0.76</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.699999999999999</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>17400</v>
+        <v>17560</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-360</v>
+        <v>-200</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.03</v>
+        <v>-1.13</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8703</v>
+        <v>1.8926</v>
       </c>
       <c r="F30" t="n">
-        <v>9834.205727</v>
+        <v>9951.461134000001</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>953.8175260000007</v>
+        <v>1071.072933000001</v>
       </c>
       <c r="J30" t="n">
-        <v>10.74</v>
+        <v>12.06</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8703</v>
+        <v>1.8926</v>
       </c>
       <c r="F31" t="n">
-        <v>1261.087181</v>
+        <v>1276.123402</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>61.08886200000006</v>
+        <v>76.1250829999999</v>
       </c>
       <c r="J31" t="n">
-        <v>5.09</v>
+        <v>6.34</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.7047</v>
+        <v>5.8077</v>
       </c>
       <c r="F35" t="n">
-        <v>34720.971986</v>
+        <v>35347.869126</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1520.986361999996</v>
+        <v>2147.883501999997</v>
       </c>
       <c r="J35" t="n">
-        <v>4.58</v>
+        <v>6.47</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.7047</v>
+        <v>5.8077</v>
       </c>
       <c r="F36" t="n">
-        <v>11790.816242</v>
+        <v>12003.702822</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>490.87925</v>
+        <v>703.7658299999985</v>
       </c>
       <c r="J36" t="n">
-        <v>4.34</v>
+        <v>6.23</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.7047</v>
+        <v>5.8077</v>
       </c>
       <c r="F37" t="n">
-        <v>85570.5</v>
+        <v>87115.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>2275.5</v>
+        <v>3820.5</v>
       </c>
       <c r="J37" t="n">
-        <v>2.73</v>
+        <v>4.59</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.96</v>
+        <v>7.86</v>
       </c>
       <c r="F41" t="n">
-        <v>7960</v>
+        <v>7860</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>851</v>
+        <v>751</v>
       </c>
       <c r="J41" t="n">
-        <v>11.97</v>
+        <v>10.56</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.59</v>
+        <v>7.51</v>
       </c>
       <c r="F42" t="n">
-        <v>8349</v>
+        <v>8261</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1764.4</v>
+        <v>1676.4</v>
       </c>
       <c r="J42" t="n">
-        <v>26.8</v>
+        <v>25.46</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>42.37</v>
+        <v>42.08</v>
       </c>
       <c r="F43" t="n">
-        <v>63554.99999999999</v>
+        <v>63120</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-900.0000000000073</v>
+        <v>-1335</v>
       </c>
       <c r="J43" t="n">
-        <v>-1.4</v>
+        <v>-2.07</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.078</v>
+        <v>3.1295</v>
       </c>
       <c r="F2" t="n">
-        <v>2276.76582</v>
+        <v>2314.859855</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>406.5336240000001</v>
+        <v>444.6276590000002</v>
       </c>
       <c r="J2" t="n">
-        <v>21.74</v>
+        <v>23.77</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.1592</v>
+        <v>3.2162</v>
       </c>
       <c r="F3" t="n">
-        <v>1024.591744</v>
+        <v>1043.077984</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>24.64831999999979</v>
+        <v>43.13455999999996</v>
       </c>
       <c r="J3" t="n">
-        <v>2.46</v>
+        <v>4.31</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.213</v>
+        <v>1.2271</v>
       </c>
       <c r="F4" t="n">
-        <v>6914.1</v>
+        <v>6994.47</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1493.400000000001</v>
+        <v>1573.77</v>
       </c>
       <c r="J4" t="n">
-        <v>27.55</v>
+        <v>29.03</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0099</v>
+        <v>2.0076</v>
       </c>
       <c r="F5" t="n">
-        <v>2383.600707</v>
+        <v>2380.873068</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-16.36583399999972</v>
+        <v>-19.09347299999945</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.68</v>
+        <v>-0.8</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4358</v>
+        <v>1.4606</v>
       </c>
       <c r="F6" t="n">
-        <v>2436.968982</v>
+        <v>2479.061774</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-62.96945899999992</v>
+        <v>-20.876667</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.52</v>
+        <v>-0.84</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4358</v>
+        <v>1.4606</v>
       </c>
       <c r="F7" t="n">
-        <v>5160.40878</v>
+        <v>5249.54246</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-159.5780400000003</v>
+        <v>-70.44436000000042</v>
       </c>
       <c r="J7" t="n">
-        <v>-3</v>
+        <v>-1.32</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7368</v>
+        <v>1.7508</v>
       </c>
       <c r="F8" t="n">
-        <v>22404.72</v>
+        <v>22585.32</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3106.319999999996</v>
+        <v>3286.919999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>16.1</v>
+        <v>17.03</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9235</v>
+        <v>2.9419</v>
       </c>
       <c r="F9" t="n">
-        <v>885.2650350000001</v>
+        <v>890.836739</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>136.3250620000001</v>
+        <v>141.896766</v>
       </c>
       <c r="J9" t="n">
-        <v>18.2</v>
+        <v>18.95</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0872</v>
+        <v>2.102</v>
       </c>
       <c r="F10" t="n">
-        <v>2171.585496</v>
+        <v>2186.98386</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>171.5669070000001</v>
+        <v>186.9652709999998</v>
       </c>
       <c r="J10" t="n">
-        <v>8.58</v>
+        <v>9.35</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.561</v>
+        <v>1.5731</v>
       </c>
       <c r="F11" t="n">
-        <v>6458.216029999999</v>
+        <v>6508.276512999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>479.0912339999986</v>
+        <v>529.1517169999988</v>
       </c>
       <c r="J11" t="n">
-        <v>8.01</v>
+        <v>8.85</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.561</v>
+        <v>1.5731</v>
       </c>
       <c r="F12" t="n">
-        <v>9387.963269999998</v>
+        <v>9460.733516999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>288.0739529999992</v>
+        <v>360.8441999999995</v>
       </c>
       <c r="J12" t="n">
-        <v>3.17</v>
+        <v>3.97</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.84</v>
+        <v>27.5</v>
       </c>
       <c r="F16" t="n">
-        <v>13920</v>
+        <v>13750</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>105</v>
+        <v>-65</v>
       </c>
       <c r="J16" t="n">
-        <v>0.76</v>
+        <v>-0.47</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.779999999999999</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>17560</v>
+        <v>17420</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-200</v>
+        <v>-340</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.13</v>
+        <v>-1.91</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0956</v>
+        <v>1.0921</v>
       </c>
       <c r="F18" t="n">
-        <v>4303.724964</v>
+        <v>4289.976299</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-2.749732999999651</v>
+        <v>-16.49839799999972</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.06</v>
+        <v>-0.38</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5413</v>
+        <v>1.5342</v>
       </c>
       <c r="F19" t="n">
-        <v>13409.31</v>
+        <v>13347.54</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>-49.59000000000015</v>
+        <v>-111.3599999999988</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.37</v>
+        <v>-0.83</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2813</v>
+        <v>1.2838</v>
       </c>
       <c r="F20" t="n">
-        <v>10155.404418</v>
+        <v>10175.219068</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>155.3468560000001</v>
+        <v>175.1615060000004</v>
       </c>
       <c r="J20" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1794</v>
+        <v>1.1724</v>
       </c>
       <c r="F21" t="n">
-        <v>13327.22</v>
+        <v>13248.12</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>693.8199999999997</v>
+        <v>614.7200000000012</v>
       </c>
       <c r="J21" t="n">
-        <v>5.49</v>
+        <v>4.87</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5618</v>
+        <v>1.58</v>
       </c>
       <c r="F22" t="n">
-        <v>833.8294020000001</v>
+        <v>843.5462</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>104.6958290000001</v>
+        <v>114.412627</v>
       </c>
       <c r="J22" t="n">
-        <v>14.36</v>
+        <v>15.69</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5618</v>
+        <v>1.58</v>
       </c>
       <c r="F23" t="n">
-        <v>20181.173532</v>
+        <v>20416.3492</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>980.7600659999989</v>
+        <v>1215.935733999999</v>
       </c>
       <c r="J23" t="n">
-        <v>5.11</v>
+        <v>6.33</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3978</v>
+        <v>1.4143</v>
       </c>
       <c r="F24" t="n">
-        <v>914.6084960000001</v>
+        <v>925.404776</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>114.6368640000001</v>
+        <v>125.433144</v>
       </c>
       <c r="J24" t="n">
-        <v>14.33</v>
+        <v>15.68</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.633</v>
+        <v>5.7025</v>
       </c>
       <c r="F26" t="n">
-        <v>2339.61022</v>
+        <v>2368.47635</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>239.6096459999999</v>
+        <v>268.4757759999998</v>
       </c>
       <c r="J26" t="n">
-        <v>11.41</v>
+        <v>12.78</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8103</v>
+        <v>1.8317</v>
       </c>
       <c r="F28" t="n">
-        <v>6985.58564</v>
+        <v>7068.163960000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>685.7087600000004</v>
+        <v>768.287080000001</v>
       </c>
       <c r="J28" t="n">
-        <v>10.88</v>
+        <v>12.2</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8103</v>
+        <v>1.8317</v>
       </c>
       <c r="F29" t="n">
-        <v>15766.427687</v>
+        <v>15952.806493</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>766.4175200000009</v>
+        <v>952.7963260000015</v>
       </c>
       <c r="J29" t="n">
-        <v>5.11</v>
+        <v>6.35</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8926</v>
+        <v>1.9014</v>
       </c>
       <c r="F30" t="n">
-        <v>9951.461134000001</v>
+        <v>9997.732325999999</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1071.072933000001</v>
+        <v>1117.344125</v>
       </c>
       <c r="J30" t="n">
-        <v>12.06</v>
+        <v>12.58</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8926</v>
+        <v>1.9014</v>
       </c>
       <c r="F31" t="n">
-        <v>1276.123402</v>
+        <v>1282.056978</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>76.1250829999999</v>
+        <v>82.05865899999981</v>
       </c>
       <c r="J31" t="n">
-        <v>6.34</v>
+        <v>6.84</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.1987</v>
+        <v>2.2272</v>
       </c>
       <c r="F33" t="n">
-        <v>13412.07</v>
+        <v>13585.92</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1138.869999999999</v>
+        <v>1312.719999999998</v>
       </c>
       <c r="J33" t="n">
-        <v>9.279999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.765</v>
+        <v>1.787</v>
       </c>
       <c r="F34" t="n">
-        <v>33711.5</v>
+        <v>34131.7</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2540.299999999999</v>
+        <v>2960.499999999996</v>
       </c>
       <c r="J34" t="n">
-        <v>8.15</v>
+        <v>9.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8077</v>
+        <v>5.8319</v>
       </c>
       <c r="F35" t="n">
-        <v>35347.869126</v>
+        <v>35495.159522</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2147.883501999997</v>
+        <v>2295.173898000001</v>
       </c>
       <c r="J35" t="n">
-        <v>6.47</v>
+        <v>6.91</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.8077</v>
+        <v>5.8319</v>
       </c>
       <c r="F36" t="n">
-        <v>12003.702822</v>
+        <v>12053.720834</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>703.7658299999985</v>
+        <v>753.7838420000007</v>
       </c>
       <c r="J36" t="n">
-        <v>6.23</v>
+        <v>6.67</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.8077</v>
+        <v>5.8319</v>
       </c>
       <c r="F37" t="n">
-        <v>87115.5</v>
+        <v>87478.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>3820.5</v>
+        <v>4183.5</v>
       </c>
       <c r="J37" t="n">
-        <v>4.59</v>
+        <v>5.02</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3272</v>
+        <v>2.363</v>
       </c>
       <c r="F38" t="n">
-        <v>16926.679752</v>
+        <v>17187.06783</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1126.651209</v>
+        <v>1387.039287</v>
       </c>
       <c r="J38" t="n">
-        <v>7.13</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3272</v>
+        <v>2.363</v>
       </c>
       <c r="F39" t="n">
-        <v>24267.832152</v>
+        <v>24641.15133</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1268.033855999998</v>
+        <v>1641.353034</v>
       </c>
       <c r="J39" t="n">
-        <v>5.51</v>
+        <v>7.14</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8643</v>
+        <v>1.8952</v>
       </c>
       <c r="F40" t="n">
-        <v>12490.81</v>
+        <v>12697.84</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2038.810000000001</v>
+        <v>2245.84</v>
       </c>
       <c r="J40" t="n">
-        <v>19.51</v>
+        <v>21.49</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.86</v>
+        <v>7.89</v>
       </c>
       <c r="F41" t="n">
-        <v>7860</v>
+        <v>7890</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>751</v>
+        <v>781</v>
       </c>
       <c r="J41" t="n">
-        <v>10.56</v>
+        <v>10.99</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.51</v>
+        <v>7.58</v>
       </c>
       <c r="F42" t="n">
-        <v>8261</v>
+        <v>8338</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1676.4</v>
+        <v>1753.4</v>
       </c>
       <c r="J42" t="n">
-        <v>25.46</v>
+        <v>26.63</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>42.08</v>
+        <v>41.74</v>
       </c>
       <c r="F43" t="n">
-        <v>63120</v>
+        <v>62610</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-1335</v>
+        <v>-1845</v>
       </c>
       <c r="J43" t="n">
-        <v>-2.07</v>
+        <v>-2.86</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.1295</v>
+        <v>3.1731</v>
       </c>
       <c r="F2" t="n">
-        <v>2314.859855</v>
+        <v>2347.110339</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>444.6276590000002</v>
+        <v>476.8781429999999</v>
       </c>
       <c r="J2" t="n">
-        <v>23.77</v>
+        <v>25.5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.2162</v>
+        <v>3.2071</v>
       </c>
       <c r="F3" t="n">
-        <v>1043.077984</v>
+        <v>1040.126672</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>43.13455999999996</v>
+        <v>40.18324800000005</v>
       </c>
       <c r="J3" t="n">
-        <v>4.31</v>
+        <v>4.02</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2271</v>
+        <v>1.2298</v>
       </c>
       <c r="F4" t="n">
-        <v>6994.47</v>
+        <v>7009.86</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1573.77</v>
+        <v>1589.16</v>
       </c>
       <c r="J4" t="n">
-        <v>29.03</v>
+        <v>29.32</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4606</v>
+        <v>1.4641</v>
       </c>
       <c r="F6" t="n">
-        <v>2479.061774</v>
+        <v>2485.002289</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-20.876667</v>
+        <v>-14.93615199999977</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.84</v>
+        <v>-0.6</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4606</v>
+        <v>1.4641</v>
       </c>
       <c r="F7" t="n">
-        <v>5249.54246</v>
+        <v>5262.12181</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-70.44436000000042</v>
+        <v>-57.86501000000044</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.32</v>
+        <v>-1.09</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7508</v>
+        <v>1.7643</v>
       </c>
       <c r="F8" t="n">
-        <v>22585.32</v>
+        <v>22759.47</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3286.919999999998</v>
+        <v>3461.07</v>
       </c>
       <c r="J8" t="n">
-        <v>17.03</v>
+        <v>17.93</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9419</v>
+        <v>2.9527</v>
       </c>
       <c r="F9" t="n">
-        <v>890.836739</v>
+        <v>894.1070870000001</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>141.896766</v>
+        <v>145.1671140000001</v>
       </c>
       <c r="J9" t="n">
-        <v>18.95</v>
+        <v>19.38</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.102</v>
+        <v>2.1146</v>
       </c>
       <c r="F10" t="n">
-        <v>2186.98386</v>
+        <v>2200.093278</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>186.9652709999998</v>
+        <v>200.0746889999998</v>
       </c>
       <c r="J10" t="n">
-        <v>9.35</v>
+        <v>10</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5731</v>
+        <v>1.5825</v>
       </c>
       <c r="F11" t="n">
-        <v>6508.276512999999</v>
+        <v>6547.166474999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>529.1517169999988</v>
+        <v>568.041678999999</v>
       </c>
       <c r="J11" t="n">
-        <v>8.85</v>
+        <v>9.5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5731</v>
+        <v>1.5825</v>
       </c>
       <c r="F12" t="n">
-        <v>9460.733516999999</v>
+        <v>9517.265775</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>360.8441999999995</v>
+        <v>417.3764580000006</v>
       </c>
       <c r="J12" t="n">
-        <v>3.97</v>
+        <v>4.59</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2802</v>
+        <v>2.304</v>
       </c>
       <c r="F15" t="n">
-        <v>21205.86</v>
+        <v>21427.2</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1759.559999999998</v>
+        <v>1980.899999999998</v>
       </c>
       <c r="J15" t="n">
-        <v>9.050000000000001</v>
+        <v>10.19</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.5</v>
+        <v>27.71</v>
       </c>
       <c r="F16" t="n">
-        <v>13750</v>
+        <v>13855</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-65</v>
+        <v>40</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.47</v>
+        <v>0.29</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.710000000000001</v>
+        <v>8.69</v>
       </c>
       <c r="F17" t="n">
-        <v>17420</v>
+        <v>17380</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-340</v>
+        <v>-380</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.91</v>
+        <v>-2.14</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0921</v>
+        <v>1.0932</v>
       </c>
       <c r="F18" t="n">
-        <v>4289.976299</v>
+        <v>4294.297308</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-16.49839799999972</v>
+        <v>-12.17738899999949</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.38</v>
+        <v>-0.28</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5342</v>
+        <v>1.5345</v>
       </c>
       <c r="F19" t="n">
-        <v>13347.54</v>
+        <v>13350.15</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>-111.3599999999988</v>
+        <v>-108.75</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.83</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2838</v>
+        <v>1.286</v>
       </c>
       <c r="F20" t="n">
-        <v>10175.219068</v>
+        <v>10192.65596</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>175.1615060000004</v>
+        <v>192.5983980000001</v>
       </c>
       <c r="J20" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1724</v>
+        <v>1.1745</v>
       </c>
       <c r="F21" t="n">
-        <v>13248.12</v>
+        <v>13271.85</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>614.7200000000012</v>
+        <v>638.4500000000007</v>
       </c>
       <c r="J21" t="n">
-        <v>4.87</v>
+        <v>5.05</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.58</v>
+        <v>1.5874</v>
       </c>
       <c r="F22" t="n">
-        <v>843.5462</v>
+        <v>847.496986</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>114.412627</v>
+        <v>118.363413</v>
       </c>
       <c r="J22" t="n">
-        <v>15.69</v>
+        <v>16.23</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.58</v>
+        <v>1.5874</v>
       </c>
       <c r="F23" t="n">
-        <v>20416.3492</v>
+        <v>20511.970076</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1215.935733999999</v>
+        <v>1311.556609999996</v>
       </c>
       <c r="J23" t="n">
-        <v>6.33</v>
+        <v>6.83</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4143</v>
+        <v>1.4209</v>
       </c>
       <c r="F24" t="n">
-        <v>925.404776</v>
+        <v>929.7232880000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>125.433144</v>
+        <v>129.7516560000001</v>
       </c>
       <c r="J24" t="n">
-        <v>15.68</v>
+        <v>16.22</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7025</v>
+        <v>5.7304</v>
       </c>
       <c r="F26" t="n">
-        <v>2368.47635</v>
+        <v>2380.064336</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>268.4757759999998</v>
+        <v>280.0637619999998</v>
       </c>
       <c r="J26" t="n">
-        <v>12.78</v>
+        <v>13.34</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8317</v>
+        <v>1.8401</v>
       </c>
       <c r="F28" t="n">
-        <v>7068.163960000001</v>
+        <v>7100.577880000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>768.287080000001</v>
+        <v>800.7010000000009</v>
       </c>
       <c r="J28" t="n">
-        <v>12.2</v>
+        <v>12.71</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8317</v>
+        <v>1.8401</v>
       </c>
       <c r="F29" t="n">
-        <v>15952.806493</v>
+        <v>16025.964529</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>952.7963260000015</v>
+        <v>1025.954362000002</v>
       </c>
       <c r="J29" t="n">
-        <v>6.35</v>
+        <v>6.84</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9014</v>
+        <v>1.9091</v>
       </c>
       <c r="F30" t="n">
-        <v>9997.732325999999</v>
+        <v>10038.219619</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1117.344125</v>
+        <v>1157.831418</v>
       </c>
       <c r="J30" t="n">
-        <v>12.58</v>
+        <v>13.04</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9014</v>
+        <v>1.9091</v>
       </c>
       <c r="F31" t="n">
-        <v>1282.056978</v>
+        <v>1287.248857</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>82.05865899999981</v>
+        <v>87.25053800000001</v>
       </c>
       <c r="J31" t="n">
-        <v>6.84</v>
+        <v>7.27</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2272</v>
+        <v>2.2362</v>
       </c>
       <c r="F33" t="n">
-        <v>13585.92</v>
+        <v>13640.82</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1312.719999999998</v>
+        <v>1367.620000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>10.7</v>
+        <v>11.14</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.787</v>
+        <v>1.7955</v>
       </c>
       <c r="F34" t="n">
-        <v>34131.7</v>
+        <v>34294.05</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2960.499999999996</v>
+        <v>3122.850000000002</v>
       </c>
       <c r="J34" t="n">
-        <v>9.5</v>
+        <v>10.02</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8319</v>
+        <v>5.8782</v>
       </c>
       <c r="F35" t="n">
-        <v>35495.159522</v>
+        <v>35776.958916</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2295.173898000001</v>
+        <v>2576.973291999995</v>
       </c>
       <c r="J35" t="n">
-        <v>6.91</v>
+        <v>7.76</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.8319</v>
+        <v>5.8782</v>
       </c>
       <c r="F36" t="n">
-        <v>12053.720834</v>
+        <v>12149.416452</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>753.7838420000007</v>
+        <v>849.4794599999987</v>
       </c>
       <c r="J36" t="n">
-        <v>6.67</v>
+        <v>7.52</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.8319</v>
+        <v>5.8782</v>
       </c>
       <c r="F37" t="n">
-        <v>87478.5</v>
+        <v>88173</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>4183.5</v>
+        <v>4878</v>
       </c>
       <c r="J37" t="n">
-        <v>5.02</v>
+        <v>5.86</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.363</v>
+        <v>2.3728</v>
       </c>
       <c r="F38" t="n">
-        <v>17187.06783</v>
+        <v>17258.347248</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1387.039287</v>
+        <v>1458.318704999998</v>
       </c>
       <c r="J38" t="n">
-        <v>8.779999999999999</v>
+        <v>9.23</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.363</v>
+        <v>2.3728</v>
       </c>
       <c r="F39" t="n">
-        <v>24641.15133</v>
+        <v>24743.344848</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1641.353034</v>
+        <v>1743.546551999996</v>
       </c>
       <c r="J39" t="n">
-        <v>7.14</v>
+        <v>7.58</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8952</v>
+        <v>1.9046</v>
       </c>
       <c r="F40" t="n">
-        <v>12697.84</v>
+        <v>12760.82</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2245.84</v>
+        <v>2308.82</v>
       </c>
       <c r="J40" t="n">
-        <v>21.49</v>
+        <v>22.09</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.89</v>
+        <v>7.92</v>
       </c>
       <c r="F41" t="n">
-        <v>7890</v>
+        <v>7920</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>781</v>
+        <v>811</v>
       </c>
       <c r="J41" t="n">
-        <v>10.99</v>
+        <v>11.41</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.58</v>
+        <v>7.67</v>
       </c>
       <c r="F42" t="n">
-        <v>8338</v>
+        <v>8437</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1753.4</v>
+        <v>1852.4</v>
       </c>
       <c r="J42" t="n">
-        <v>26.63</v>
+        <v>28.13</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.74</v>
+        <v>41.93</v>
       </c>
       <c r="F43" t="n">
-        <v>62610</v>
+        <v>62895</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-1845</v>
+        <v>-1560</v>
       </c>
       <c r="J43" t="n">
-        <v>-2.86</v>
+        <v>-2.42</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.1731</v>
+        <v>3.1757</v>
       </c>
       <c r="F2" t="n">
-        <v>2347.110339</v>
+        <v>2349.033533</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>476.8781429999999</v>
+        <v>478.8013370000003</v>
       </c>
       <c r="J2" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.2071</v>
+        <v>3.2019</v>
       </c>
       <c r="F3" t="n">
-        <v>1040.126672</v>
+        <v>1038.440208</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>40.18324800000005</v>
+        <v>38.49678399999993</v>
       </c>
       <c r="J3" t="n">
-        <v>4.02</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2298</v>
+        <v>1.2364</v>
       </c>
       <c r="F4" t="n">
-        <v>7009.86</v>
+        <v>7047.48</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1589.16</v>
+        <v>1626.78</v>
       </c>
       <c r="J4" t="n">
-        <v>29.32</v>
+        <v>30.01</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0076</v>
+        <v>2.0182</v>
       </c>
       <c r="F5" t="n">
-        <v>2380.873068</v>
+        <v>2393.443926</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-19.09347299999945</v>
+        <v>-6.522614999999405</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.8</v>
+        <v>-0.27</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4641</v>
+        <v>1.4614</v>
       </c>
       <c r="F6" t="n">
-        <v>2485.002289</v>
+        <v>2480.419606</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-14.93615199999977</v>
+        <v>-19.51883499999985</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.6</v>
+        <v>-0.78</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4641</v>
+        <v>1.4614</v>
       </c>
       <c r="F7" t="n">
-        <v>5262.12181</v>
+        <v>5252.41774</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-57.86501000000044</v>
+        <v>-67.56908000000021</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.09</v>
+        <v>-1.27</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7643</v>
+        <v>1.7636</v>
       </c>
       <c r="F8" t="n">
-        <v>22759.47</v>
+        <v>22750.44</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3461.07</v>
+        <v>3452.040000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>17.93</v>
+        <v>17.89</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9527</v>
+        <v>2.9597</v>
       </c>
       <c r="F9" t="n">
-        <v>894.1070870000001</v>
+        <v>896.226757</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>145.1671140000001</v>
+        <v>147.286784</v>
       </c>
       <c r="J9" t="n">
-        <v>19.38</v>
+        <v>19.67</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1146</v>
+        <v>2.1218</v>
       </c>
       <c r="F10" t="n">
-        <v>2200.093278</v>
+        <v>2207.584374</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>200.0746889999998</v>
+        <v>207.565785</v>
       </c>
       <c r="J10" t="n">
-        <v>10</v>
+        <v>10.38</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5825</v>
+        <v>1.5887</v>
       </c>
       <c r="F11" t="n">
-        <v>6547.166474999999</v>
+        <v>6572.817300999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>568.041678999999</v>
+        <v>593.6925049999991</v>
       </c>
       <c r="J11" t="n">
-        <v>9.5</v>
+        <v>9.93</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5825</v>
+        <v>1.5887</v>
       </c>
       <c r="F12" t="n">
-        <v>9517.265775</v>
+        <v>9554.553008999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>417.3764580000006</v>
+        <v>454.6636920000001</v>
       </c>
       <c r="J12" t="n">
-        <v>4.59</v>
+        <v>5</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.304</v>
+        <v>2.3097</v>
       </c>
       <c r="F15" t="n">
-        <v>21427.2</v>
+        <v>21480.21</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1980.899999999998</v>
+        <v>2033.91</v>
       </c>
       <c r="J15" t="n">
-        <v>10.19</v>
+        <v>10.46</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.71</v>
+        <v>27.63</v>
       </c>
       <c r="F16" t="n">
-        <v>13855</v>
+        <v>13815</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.69</v>
+        <v>8.73</v>
       </c>
       <c r="F17" t="n">
-        <v>17380</v>
+        <v>17460</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-380</v>
+        <v>-300</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.14</v>
+        <v>-1.69</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0932</v>
+        <v>1.0927</v>
       </c>
       <c r="F18" t="n">
-        <v>4294.297308</v>
+        <v>4292.333213</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-12.17738899999949</v>
+        <v>-14.14148399999976</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.28</v>
+        <v>-0.33</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5345</v>
+        <v>1.5382</v>
       </c>
       <c r="F19" t="n">
-        <v>13350.15</v>
+        <v>13382.34</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>-108.75</v>
+        <v>-76.55999999999949</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.57</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.286</v>
+        <v>1.2843</v>
       </c>
       <c r="F20" t="n">
-        <v>10192.65596</v>
+        <v>10179.181998</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>192.5983980000001</v>
+        <v>179.1244360000001</v>
       </c>
       <c r="J20" t="n">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1745</v>
+        <v>1.1753</v>
       </c>
       <c r="F21" t="n">
-        <v>13271.85</v>
+        <v>13280.89</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>638.4500000000007</v>
+        <v>647.4899999999998</v>
       </c>
       <c r="J21" t="n">
-        <v>5.05</v>
+        <v>5.13</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5874</v>
+        <v>1.595</v>
       </c>
       <c r="F22" t="n">
-        <v>847.496986</v>
+        <v>851.5545499999999</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>118.363413</v>
+        <v>122.420977</v>
       </c>
       <c r="J22" t="n">
-        <v>16.23</v>
+        <v>16.79</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5874</v>
+        <v>1.595</v>
       </c>
       <c r="F23" t="n">
-        <v>20511.970076</v>
+        <v>20610.1753</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1311.556609999996</v>
+        <v>1409.761833999997</v>
       </c>
       <c r="J23" t="n">
-        <v>6.83</v>
+        <v>7.34</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4209</v>
+        <v>1.4276</v>
       </c>
       <c r="F24" t="n">
-        <v>929.7232880000001</v>
+        <v>934.1072320000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>129.7516560000001</v>
+        <v>134.1356000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>16.22</v>
+        <v>16.77</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7304</v>
+        <v>5.7582</v>
       </c>
       <c r="F26" t="n">
-        <v>2380.064336</v>
+        <v>2391.610788</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>280.0637619999998</v>
+        <v>291.6102139999998</v>
       </c>
       <c r="J26" t="n">
-        <v>13.34</v>
+        <v>13.89</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8401</v>
+        <v>1.8475</v>
       </c>
       <c r="F28" t="n">
-        <v>7100.577880000001</v>
+        <v>7129.133</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>800.7010000000009</v>
+        <v>829.25612</v>
       </c>
       <c r="J28" t="n">
-        <v>12.71</v>
+        <v>13.16</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8401</v>
+        <v>1.8475</v>
       </c>
       <c r="F29" t="n">
-        <v>16025.964529</v>
+        <v>16090.413275</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1025.954362000002</v>
+        <v>1090.403108</v>
       </c>
       <c r="J29" t="n">
-        <v>6.84</v>
+        <v>7.27</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9091</v>
+        <v>1.9126</v>
       </c>
       <c r="F30" t="n">
-        <v>10038.219619</v>
+        <v>10056.622934</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1157.831418</v>
+        <v>1176.234733000001</v>
       </c>
       <c r="J30" t="n">
-        <v>13.04</v>
+        <v>13.25</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9091</v>
+        <v>1.9126</v>
       </c>
       <c r="F31" t="n">
-        <v>1287.248857</v>
+        <v>1289.608802</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>87.25053800000001</v>
+        <v>89.61048299999993</v>
       </c>
       <c r="J31" t="n">
-        <v>7.27</v>
+        <v>7.47</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2362</v>
+        <v>2.2443</v>
       </c>
       <c r="F33" t="n">
-        <v>13640.82</v>
+        <v>13690.23</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1367.620000000001</v>
+        <v>1417.029999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>11.14</v>
+        <v>11.55</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7955</v>
+        <v>1.8032</v>
       </c>
       <c r="F34" t="n">
-        <v>34294.05</v>
+        <v>34441.12</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3122.850000000002</v>
+        <v>3269.919999999995</v>
       </c>
       <c r="J34" t="n">
-        <v>10.02</v>
+        <v>10.49</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8782</v>
+        <v>5.8859</v>
       </c>
       <c r="F35" t="n">
-        <v>35776.958916</v>
+        <v>35823.824042</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2576.973291999995</v>
+        <v>2623.838417999999</v>
       </c>
       <c r="J35" t="n">
-        <v>7.76</v>
+        <v>7.9</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.8782</v>
+        <v>5.8859</v>
       </c>
       <c r="F36" t="n">
-        <v>12149.416452</v>
+        <v>12165.331274</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>849.4794599999987</v>
+        <v>865.3942820000011</v>
       </c>
       <c r="J36" t="n">
-        <v>7.52</v>
+        <v>7.66</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.8782</v>
+        <v>5.8859</v>
       </c>
       <c r="F37" t="n">
-        <v>88173</v>
+        <v>88288.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>4878</v>
+        <v>4993.5</v>
       </c>
       <c r="J37" t="n">
-        <v>5.86</v>
+        <v>5.99</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3728</v>
+        <v>2.388</v>
       </c>
       <c r="F38" t="n">
-        <v>17258.347248</v>
+        <v>17368.90308</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1458.318704999998</v>
+        <v>1568.874537</v>
       </c>
       <c r="J38" t="n">
-        <v>9.23</v>
+        <v>9.93</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3728</v>
+        <v>2.388</v>
       </c>
       <c r="F39" t="n">
-        <v>24743.344848</v>
+        <v>24901.84908</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1743.546551999996</v>
+        <v>1902.050783999999</v>
       </c>
       <c r="J39" t="n">
-        <v>7.58</v>
+        <v>8.27</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9046</v>
+        <v>1.9182</v>
       </c>
       <c r="F40" t="n">
-        <v>12760.82</v>
+        <v>12851.94</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2308.82</v>
+        <v>2399.939999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>22.09</v>
+        <v>22.96</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.92</v>
+        <v>7.9</v>
       </c>
       <c r="F41" t="n">
-        <v>7920</v>
+        <v>7900</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>811</v>
+        <v>791</v>
       </c>
       <c r="J41" t="n">
-        <v>11.41</v>
+        <v>11.13</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.67</v>
+        <v>7.63</v>
       </c>
       <c r="F42" t="n">
-        <v>8437</v>
+        <v>8393</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1852.4</v>
+        <v>1808.4</v>
       </c>
       <c r="J42" t="n">
-        <v>28.13</v>
+        <v>27.46</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.1757</v>
+        <v>3.1608</v>
       </c>
       <c r="F2" t="n">
-        <v>2349.033533</v>
+        <v>2338.012152</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>478.8013370000003</v>
+        <v>467.7799560000003</v>
       </c>
       <c r="J2" t="n">
-        <v>25.6</v>
+        <v>25.01</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.2019</v>
+        <v>3.1985</v>
       </c>
       <c r="F3" t="n">
-        <v>1038.440208</v>
+        <v>1037.33752</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>38.49678399999993</v>
+        <v>37.39409599999999</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>3.74</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2364</v>
+        <v>1.2398</v>
       </c>
       <c r="F4" t="n">
-        <v>7047.48</v>
+        <v>7066.86</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1626.78</v>
+        <v>1646.16</v>
       </c>
       <c r="J4" t="n">
-        <v>30.01</v>
+        <v>30.37</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0182</v>
+        <v>2.018</v>
       </c>
       <c r="F5" t="n">
-        <v>2393.443926</v>
+        <v>2393.20674</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-6.522614999999405</v>
+        <v>-6.759800999999698</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.27</v>
+        <v>-0.28</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4614</v>
+        <v>1.458</v>
       </c>
       <c r="F6" t="n">
-        <v>2480.419606</v>
+        <v>2474.64882</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-19.51883499999985</v>
+        <v>-25.2896209999999</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.78</v>
+        <v>-1.01</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4614</v>
+        <v>1.458</v>
       </c>
       <c r="F7" t="n">
-        <v>5252.41774</v>
+        <v>5240.1978</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-67.56908000000021</v>
+        <v>-79.78902000000016</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.27</v>
+        <v>-1.5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7636</v>
+        <v>1.7609</v>
       </c>
       <c r="F8" t="n">
-        <v>22750.44</v>
+        <v>22715.61</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3452.040000000001</v>
+        <v>3417.209999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>17.89</v>
+        <v>17.71</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9597</v>
+        <v>2.9567</v>
       </c>
       <c r="F9" t="n">
-        <v>896.226757</v>
+        <v>895.3183270000001</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>147.286784</v>
+        <v>146.3783540000001</v>
       </c>
       <c r="J9" t="n">
-        <v>19.67</v>
+        <v>19.54</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1218</v>
+        <v>2.1268</v>
       </c>
       <c r="F10" t="n">
-        <v>2207.584374</v>
+        <v>2212.786524</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>207.565785</v>
+        <v>212.7679350000001</v>
       </c>
       <c r="J10" t="n">
-        <v>10.38</v>
+        <v>10.64</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5887</v>
+        <v>1.5922</v>
       </c>
       <c r="F11" t="n">
-        <v>6572.817300999999</v>
+        <v>6587.297605999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>593.6925049999991</v>
+        <v>608.1728099999991</v>
       </c>
       <c r="J11" t="n">
-        <v>9.93</v>
+        <v>10.17</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5887</v>
+        <v>1.5922</v>
       </c>
       <c r="F12" t="n">
-        <v>9554.553008999999</v>
+        <v>9575.602253999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>454.6636920000001</v>
+        <v>475.7129370000002</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>5.23</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.3097</v>
+        <v>2.307</v>
       </c>
       <c r="F15" t="n">
-        <v>21480.21</v>
+        <v>21455.1</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2033.91</v>
+        <v>2008.799999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>10.46</v>
+        <v>10.33</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.63</v>
+        <v>27.61</v>
       </c>
       <c r="F16" t="n">
-        <v>13815</v>
+        <v>13805</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.73</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>17460</v>
+        <v>17560</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.69</v>
+        <v>-1.13</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0927</v>
+        <v>1.0944</v>
       </c>
       <c r="F18" t="n">
-        <v>4292.333213</v>
+        <v>4299.011136</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-14.14148399999976</v>
+        <v>-7.463560999999572</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.33</v>
+        <v>-0.17</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5382</v>
+        <v>1.5425</v>
       </c>
       <c r="F19" t="n">
-        <v>13382.34</v>
+        <v>13419.75</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>-76.55999999999949</v>
+        <v>-39.14999999999964</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.57</v>
+        <v>-0.29</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2843</v>
+        <v>1.2829</v>
       </c>
       <c r="F20" t="n">
-        <v>10179.181998</v>
+        <v>10168.085794</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>179.1244360000001</v>
+        <v>168.0282319999988</v>
       </c>
       <c r="J20" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1753</v>
+        <v>1.1771</v>
       </c>
       <c r="F21" t="n">
-        <v>13280.89</v>
+        <v>13301.23</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>647.4899999999998</v>
+        <v>667.8299999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>5.13</v>
+        <v>5.29</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.595</v>
+        <v>1.5976</v>
       </c>
       <c r="F22" t="n">
-        <v>851.5545499999999</v>
+        <v>852.9426639999999</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>122.420977</v>
+        <v>123.809091</v>
       </c>
       <c r="J22" t="n">
-        <v>16.79</v>
+        <v>16.98</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.595</v>
+        <v>1.5976</v>
       </c>
       <c r="F23" t="n">
-        <v>20610.1753</v>
+        <v>20643.771824</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1409.761833999997</v>
+        <v>1443.358357999998</v>
       </c>
       <c r="J23" t="n">
-        <v>7.34</v>
+        <v>7.52</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4276</v>
+        <v>1.4299</v>
       </c>
       <c r="F24" t="n">
-        <v>934.1072320000001</v>
+        <v>935.612168</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>134.1356000000001</v>
+        <v>135.640536</v>
       </c>
       <c r="J24" t="n">
-        <v>16.77</v>
+        <v>16.96</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7582</v>
+        <v>5.7702</v>
       </c>
       <c r="F26" t="n">
-        <v>2391.610788</v>
+        <v>2396.594868</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>291.6102139999998</v>
+        <v>296.5942939999995</v>
       </c>
       <c r="J26" t="n">
-        <v>13.89</v>
+        <v>14.12</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8475</v>
+        <v>1.851</v>
       </c>
       <c r="F28" t="n">
-        <v>7129.133</v>
+        <v>7142.638800000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>829.25612</v>
+        <v>842.7619200000008</v>
       </c>
       <c r="J28" t="n">
-        <v>13.16</v>
+        <v>13.38</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8475</v>
+        <v>1.851</v>
       </c>
       <c r="F29" t="n">
-        <v>16090.413275</v>
+        <v>16120.89579</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1090.403108</v>
+        <v>1120.885623000002</v>
       </c>
       <c r="J29" t="n">
-        <v>7.27</v>
+        <v>7.47</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9126</v>
+        <v>1.9105</v>
       </c>
       <c r="F30" t="n">
-        <v>10056.622934</v>
+        <v>10045.580945</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1176.234733000001</v>
+        <v>1165.192744000002</v>
       </c>
       <c r="J30" t="n">
-        <v>13.25</v>
+        <v>13.12</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9126</v>
+        <v>1.9105</v>
       </c>
       <c r="F31" t="n">
-        <v>1289.608802</v>
+        <v>1288.192835</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>89.61048299999993</v>
+        <v>88.19451600000002</v>
       </c>
       <c r="J31" t="n">
-        <v>7.47</v>
+        <v>7.35</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2443</v>
+        <v>2.246</v>
       </c>
       <c r="F33" t="n">
-        <v>13690.23</v>
+        <v>13700.6</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1417.029999999999</v>
+        <v>1427.4</v>
       </c>
       <c r="J33" t="n">
-        <v>11.55</v>
+        <v>11.63</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.8032</v>
+        <v>1.8067</v>
       </c>
       <c r="F34" t="n">
-        <v>34441.12</v>
+        <v>34507.97</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3269.919999999995</v>
+        <v>3336.77</v>
       </c>
       <c r="J34" t="n">
-        <v>10.49</v>
+        <v>10.7</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8859</v>
+        <v>5.8799</v>
       </c>
       <c r="F35" t="n">
-        <v>35823.824042</v>
+        <v>35787.305762</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2623.838417999999</v>
+        <v>2587.320138000003</v>
       </c>
       <c r="J35" t="n">
-        <v>7.9</v>
+        <v>7.79</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.8859</v>
+        <v>5.8799</v>
       </c>
       <c r="F36" t="n">
-        <v>12165.331274</v>
+        <v>12152.930114</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>865.3942820000011</v>
+        <v>852.9931219999999</v>
       </c>
       <c r="J36" t="n">
-        <v>7.66</v>
+        <v>7.55</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.8859</v>
+        <v>5.8799</v>
       </c>
       <c r="F37" t="n">
-        <v>88288.5</v>
+        <v>88198.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>4993.5</v>
+        <v>4903.5</v>
       </c>
       <c r="J37" t="n">
-        <v>5.99</v>
+        <v>5.89</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.388</v>
+        <v>2.3901</v>
       </c>
       <c r="F38" t="n">
-        <v>17368.90308</v>
+        <v>17384.177241</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1568.874537</v>
+        <v>1584.148697999997</v>
       </c>
       <c r="J38" t="n">
-        <v>9.93</v>
+        <v>10.03</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.388</v>
+        <v>2.3901</v>
       </c>
       <c r="F39" t="n">
-        <v>24901.84908</v>
+        <v>24923.747691</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1902.050783999999</v>
+        <v>1923.949394999996</v>
       </c>
       <c r="J39" t="n">
-        <v>8.27</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9182</v>
+        <v>1.9209</v>
       </c>
       <c r="F40" t="n">
-        <v>12851.94</v>
+        <v>12870.03</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2399.939999999999</v>
+        <v>2418.030000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>22.96</v>
+        <v>23.13</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.9</v>
+        <v>7.84</v>
       </c>
       <c r="F41" t="n">
-        <v>7900</v>
+        <v>7840</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>791</v>
+        <v>731</v>
       </c>
       <c r="J41" t="n">
-        <v>11.13</v>
+        <v>10.28</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.63</v>
+        <v>7.55</v>
       </c>
       <c r="F42" t="n">
-        <v>8393</v>
+        <v>8305</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1808.4</v>
+        <v>1720.4</v>
       </c>
       <c r="J42" t="n">
-        <v>27.46</v>
+        <v>26.13</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.93</v>
+        <v>41.79</v>
       </c>
       <c r="F43" t="n">
-        <v>62895</v>
+        <v>62685</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-1560</v>
+        <v>-1770</v>
       </c>
       <c r="J43" t="n">
-        <v>-2.42</v>
+        <v>-2.75</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.1608</v>
+        <v>3.1735</v>
       </c>
       <c r="F2" t="n">
-        <v>2338.012152</v>
+        <v>2347.406215</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>467.7799560000003</v>
+        <v>477.1740190000005</v>
       </c>
       <c r="J2" t="n">
-        <v>25.01</v>
+        <v>25.51</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2398</v>
+        <v>1.2466</v>
       </c>
       <c r="F4" t="n">
-        <v>7066.86</v>
+        <v>7105.62</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1646.16</v>
+        <v>1684.92</v>
       </c>
       <c r="J4" t="n">
-        <v>30.37</v>
+        <v>31.08</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7609</v>
+        <v>1.7675</v>
       </c>
       <c r="F8" t="n">
-        <v>22715.61</v>
+        <v>22800.75</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3417.209999999999</v>
+        <v>3502.349999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>17.71</v>
+        <v>18.15</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1268</v>
+        <v>2.1247</v>
       </c>
       <c r="F10" t="n">
-        <v>2212.786524</v>
+        <v>2210.601621</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>212.7679350000001</v>
+        <v>210.5830319999998</v>
       </c>
       <c r="J10" t="n">
-        <v>10.64</v>
+        <v>10.53</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5922</v>
+        <v>1.5906</v>
       </c>
       <c r="F11" t="n">
-        <v>6587.297605999999</v>
+        <v>6580.678037999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>608.1728099999991</v>
+        <v>601.553241999999</v>
       </c>
       <c r="J11" t="n">
-        <v>10.17</v>
+        <v>10.06</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5922</v>
+        <v>1.5906</v>
       </c>
       <c r="F12" t="n">
-        <v>9575.602253999999</v>
+        <v>9565.979742</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>475.7129370000002</v>
+        <v>466.0904250000003</v>
       </c>
       <c r="J12" t="n">
-        <v>5.23</v>
+        <v>5.12</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0944</v>
+        <v>1.0922</v>
       </c>
       <c r="F18" t="n">
-        <v>4299.011136</v>
+        <v>4290.369118000001</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-7.463560999999572</v>
+        <v>-16.10557899999912</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.17</v>
+        <v>-0.37</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5425</v>
+        <v>1.5501</v>
       </c>
       <c r="F19" t="n">
-        <v>13419.75</v>
+        <v>13485.87</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>-39.14999999999964</v>
+        <v>26.97000000000116</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.29</v>
+        <v>0.2</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2829</v>
+        <v>1.2824</v>
       </c>
       <c r="F20" t="n">
-        <v>10168.085794</v>
+        <v>10164.122864</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>168.0282319999988</v>
+        <v>164.0653019999991</v>
       </c>
       <c r="J20" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1771</v>
+        <v>1.175</v>
       </c>
       <c r="F21" t="n">
-        <v>13301.23</v>
+        <v>13277.5</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>667.8299999999999</v>
+        <v>644.1000000000004</v>
       </c>
       <c r="J21" t="n">
-        <v>5.29</v>
+        <v>5.1</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5976</v>
+        <v>1.5959</v>
       </c>
       <c r="F22" t="n">
-        <v>852.9426639999999</v>
+        <v>852.0350510000001</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>123.809091</v>
+        <v>122.9014780000001</v>
       </c>
       <c r="J22" t="n">
-        <v>16.98</v>
+        <v>16.86</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5976</v>
+        <v>1.5959</v>
       </c>
       <c r="F23" t="n">
-        <v>20643.771824</v>
+        <v>20621.804866</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1443.358357999998</v>
+        <v>1421.3914</v>
       </c>
       <c r="J23" t="n">
-        <v>7.52</v>
+        <v>7.4</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4299</v>
+        <v>1.4282</v>
       </c>
       <c r="F24" t="n">
-        <v>935.612168</v>
+        <v>934.499824</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>135.640536</v>
+        <v>134.528192</v>
       </c>
       <c r="J24" t="n">
-        <v>16.96</v>
+        <v>16.82</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7702</v>
+        <v>5.7649</v>
       </c>
       <c r="F26" t="n">
-        <v>2396.594868</v>
+        <v>2394.393566</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>296.5942939999995</v>
+        <v>294.3929919999996</v>
       </c>
       <c r="J26" t="n">
-        <v>14.12</v>
+        <v>14.02</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.851</v>
+        <v>1.8491</v>
       </c>
       <c r="F28" t="n">
-        <v>7142.638800000001</v>
+        <v>7135.30708</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>842.7619200000008</v>
+        <v>835.4302000000007</v>
       </c>
       <c r="J28" t="n">
-        <v>13.38</v>
+        <v>13.26</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.851</v>
+        <v>1.8491</v>
       </c>
       <c r="F29" t="n">
-        <v>16120.89579</v>
+        <v>16104.348139</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1120.885623000002</v>
+        <v>1104.337972000001</v>
       </c>
       <c r="J29" t="n">
-        <v>7.47</v>
+        <v>7.36</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.246</v>
+        <v>2.2434</v>
       </c>
       <c r="F33" t="n">
-        <v>13700.6</v>
+        <v>13684.74</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1427.4</v>
+        <v>1411.539999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>11.63</v>
+        <v>11.5</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.8067</v>
+        <v>1.8047</v>
       </c>
       <c r="F34" t="n">
-        <v>34507.97</v>
+        <v>34469.77</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3336.77</v>
+        <v>3298.569999999996</v>
       </c>
       <c r="J34" t="n">
-        <v>10.7</v>
+        <v>10.58</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3901</v>
+        <v>2.3862</v>
       </c>
       <c r="F38" t="n">
-        <v>17384.177241</v>
+        <v>17355.810942</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1584.148697999997</v>
+        <v>1555.782399</v>
       </c>
       <c r="J38" t="n">
-        <v>10.03</v>
+        <v>9.85</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3901</v>
+        <v>2.3862</v>
       </c>
       <c r="F39" t="n">
-        <v>24923.747691</v>
+        <v>24883.078842</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1923.949394999996</v>
+        <v>1883.280545999998</v>
       </c>
       <c r="J39" t="n">
-        <v>8.369999999999999</v>
+        <v>8.19</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9209</v>
+        <v>1.9188</v>
       </c>
       <c r="F40" t="n">
-        <v>12870.03</v>
+        <v>12855.96</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2418.030000000001</v>
+        <v>2403.960000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>23.13</v>
+        <v>23</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.1985</v>
+        <v>3.1999</v>
       </c>
       <c r="F3" t="n">
-        <v>1037.33752</v>
+        <v>1037.791568</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>37.39409599999999</v>
+        <v>37.84814399999982</v>
       </c>
       <c r="J3" t="n">
-        <v>3.74</v>
+        <v>3.79</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9567</v>
+        <v>2.9547</v>
       </c>
       <c r="F9" t="n">
-        <v>895.3183270000001</v>
+        <v>894.712707</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>146.3783540000001</v>
+        <v>145.772734</v>
       </c>
       <c r="J9" t="n">
-        <v>19.54</v>
+        <v>19.46</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.307</v>
+        <v>2.3055</v>
       </c>
       <c r="F15" t="n">
-        <v>21455.1</v>
+        <v>21441.15</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2008.799999999999</v>
+        <v>1994.849999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>10.33</v>
+        <v>10.26</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.61</v>
+        <v>27.64</v>
       </c>
       <c r="F16" t="n">
-        <v>13805</v>
+        <v>13820</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.779999999999999</v>
+        <v>8.77</v>
       </c>
       <c r="F17" t="n">
-        <v>17560</v>
+        <v>17540</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-200</v>
+        <v>-220</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.13</v>
+        <v>-1.24</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9105</v>
+        <v>1.9088</v>
       </c>
       <c r="F30" t="n">
-        <v>10045.580945</v>
+        <v>10036.642192</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1165.192744000002</v>
+        <v>1156.253991000001</v>
       </c>
       <c r="J30" t="n">
-        <v>13.12</v>
+        <v>13.02</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9105</v>
+        <v>1.9088</v>
       </c>
       <c r="F31" t="n">
-        <v>1288.192835</v>
+        <v>1287.046576</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>88.19451600000002</v>
+        <v>87.04825699999992</v>
       </c>
       <c r="J31" t="n">
-        <v>7.35</v>
+        <v>7.25</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8799</v>
+        <v>5.8876</v>
       </c>
       <c r="F35" t="n">
-        <v>35787.305762</v>
+        <v>35834.170888</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2587.320138000003</v>
+        <v>2634.185264</v>
       </c>
       <c r="J35" t="n">
-        <v>7.79</v>
+        <v>7.93</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.8799</v>
+        <v>5.8876</v>
       </c>
       <c r="F36" t="n">
-        <v>12152.930114</v>
+        <v>12168.844936</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>852.9931219999999</v>
+        <v>868.9079440000005</v>
       </c>
       <c r="J36" t="n">
-        <v>7.55</v>
+        <v>7.69</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.8799</v>
+        <v>5.8876</v>
       </c>
       <c r="F37" t="n">
-        <v>88198.5</v>
+        <v>88314</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>4903.5</v>
+        <v>5019</v>
       </c>
       <c r="J37" t="n">
-        <v>5.89</v>
+        <v>6.03</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.84</v>
+        <v>7.81</v>
       </c>
       <c r="F41" t="n">
-        <v>7840</v>
+        <v>7810</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>731</v>
+        <v>701</v>
       </c>
       <c r="J41" t="n">
-        <v>10.28</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.55</v>
+        <v>7.49</v>
       </c>
       <c r="F42" t="n">
-        <v>8305</v>
+        <v>8239</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1720.4</v>
+        <v>1654.4</v>
       </c>
       <c r="J42" t="n">
-        <v>26.13</v>
+        <v>25.13</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.79</v>
+        <v>41.66</v>
       </c>
       <c r="F43" t="n">
-        <v>62685</v>
+        <v>62489.99999999999</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-1770</v>
+        <v>-1965.000000000007</v>
       </c>
       <c r="J43" t="n">
-        <v>-2.75</v>
+        <v>-3.05</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.1735</v>
+        <v>3.1643</v>
       </c>
       <c r="F2" t="n">
-        <v>2347.406215</v>
+        <v>2340.601067</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>477.1740190000005</v>
+        <v>470.3688710000001</v>
       </c>
       <c r="J2" t="n">
-        <v>25.51</v>
+        <v>25.15</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.1999</v>
+        <v>3.1462</v>
       </c>
       <c r="F3" t="n">
-        <v>1037.791568</v>
+        <v>1020.375584</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>37.84814399999982</v>
+        <v>20.43215999999984</v>
       </c>
       <c r="J3" t="n">
-        <v>3.79</v>
+        <v>2.04</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2466</v>
+        <v>1.2406</v>
       </c>
       <c r="F4" t="n">
-        <v>7105.62</v>
+        <v>7071.419999999999</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1684.92</v>
+        <v>1650.719999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>31.08</v>
+        <v>30.45</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.018</v>
+        <v>2.0162</v>
       </c>
       <c r="F5" t="n">
-        <v>2393.20674</v>
+        <v>2391.072066</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-6.759800999999698</v>
+        <v>-8.894474999999602</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.28</v>
+        <v>-0.37</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.458</v>
+        <v>1.45</v>
       </c>
       <c r="F6" t="n">
-        <v>2474.64882</v>
+        <v>2461.0705</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-25.2896209999999</v>
+        <v>-38.86794099999997</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.01</v>
+        <v>-1.55</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.458</v>
+        <v>1.45</v>
       </c>
       <c r="F7" t="n">
-        <v>5240.1978</v>
+        <v>5211.445</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-79.78902000000016</v>
+        <v>-108.5418200000004</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.5</v>
+        <v>-2.04</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7675</v>
+        <v>1.7592</v>
       </c>
       <c r="F8" t="n">
-        <v>22800.75</v>
+        <v>22693.68</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3502.349999999999</v>
+        <v>3395.279999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>18.15</v>
+        <v>17.59</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9547</v>
+        <v>2.9439</v>
       </c>
       <c r="F9" t="n">
-        <v>894.712707</v>
+        <v>891.442359</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>145.772734</v>
+        <v>142.502386</v>
       </c>
       <c r="J9" t="n">
-        <v>19.46</v>
+        <v>19.03</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1247</v>
+        <v>2.1235</v>
       </c>
       <c r="F10" t="n">
-        <v>2210.601621</v>
+        <v>2209.353105</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>210.5830319999998</v>
+        <v>209.3345160000001</v>
       </c>
       <c r="J10" t="n">
-        <v>10.53</v>
+        <v>10.47</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5906</v>
+        <v>1.5896</v>
       </c>
       <c r="F11" t="n">
-        <v>6580.678037999999</v>
+        <v>6576.540807999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>601.553241999999</v>
+        <v>597.4160119999988</v>
       </c>
       <c r="J11" t="n">
-        <v>10.06</v>
+        <v>9.99</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5906</v>
+        <v>1.5896</v>
       </c>
       <c r="F12" t="n">
-        <v>9565.979742</v>
+        <v>9559.965671999998</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>466.0904250000003</v>
+        <v>460.0763549999992</v>
       </c>
       <c r="J12" t="n">
-        <v>5.12</v>
+        <v>5.06</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.3055</v>
+        <v>2.2964</v>
       </c>
       <c r="F15" t="n">
-        <v>21441.15</v>
+        <v>21356.52</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1994.849999999999</v>
+        <v>1910.220000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>10.26</v>
+        <v>9.82</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.64</v>
+        <v>27.5</v>
       </c>
       <c r="F16" t="n">
-        <v>13820</v>
+        <v>13750</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>-65</v>
       </c>
       <c r="J16" t="n">
-        <v>0.04</v>
+        <v>-0.47</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.77</v>
+        <v>8.68</v>
       </c>
       <c r="F17" t="n">
-        <v>17540</v>
+        <v>17360</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-220</v>
+        <v>-400</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.24</v>
+        <v>-2.25</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0922</v>
+        <v>1.0908</v>
       </c>
       <c r="F18" t="n">
-        <v>4290.369118000001</v>
+        <v>4284.869652</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-16.10557899999912</v>
+        <v>-21.60504499999934</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.37</v>
+        <v>-0.5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5501</v>
+        <v>1.5467</v>
       </c>
       <c r="F19" t="n">
-        <v>13485.87</v>
+        <v>13456.29</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>26.97000000000116</v>
+        <v>-2.610000000000582</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2</v>
+        <v>-0.02</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2824</v>
+        <v>1.2753</v>
       </c>
       <c r="F20" t="n">
-        <v>10164.122864</v>
+        <v>10107.849258</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>164.0653019999991</v>
+        <v>107.7916960000002</v>
       </c>
       <c r="J20" t="n">
-        <v>1.64</v>
+        <v>1.08</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.175</v>
+        <v>1.1757</v>
       </c>
       <c r="F21" t="n">
-        <v>13277.5</v>
+        <v>13285.41</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>644.1000000000004</v>
+        <v>652.0100000000002</v>
       </c>
       <c r="J21" t="n">
-        <v>5.1</v>
+        <v>5.16</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5959</v>
+        <v>1.5942</v>
       </c>
       <c r="F22" t="n">
-        <v>852.0350510000001</v>
+        <v>851.127438</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>122.9014780000001</v>
+        <v>121.993865</v>
       </c>
       <c r="J22" t="n">
-        <v>16.86</v>
+        <v>16.73</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5959</v>
+        <v>1.5942</v>
       </c>
       <c r="F23" t="n">
-        <v>20621.804866</v>
+        <v>20599.837908</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1421.3914</v>
+        <v>1399.424442</v>
       </c>
       <c r="J23" t="n">
-        <v>7.4</v>
+        <v>7.29</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4282</v>
+        <v>1.4271</v>
       </c>
       <c r="F24" t="n">
-        <v>934.499824</v>
+        <v>933.7800720000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>134.528192</v>
+        <v>133.8084400000001</v>
       </c>
       <c r="J24" t="n">
-        <v>16.82</v>
+        <v>16.73</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7649</v>
+        <v>5.731</v>
       </c>
       <c r="F26" t="n">
-        <v>2394.393566</v>
+        <v>2380.31354</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>294.3929919999996</v>
+        <v>280.3129659999995</v>
       </c>
       <c r="J26" t="n">
-        <v>14.02</v>
+        <v>13.35</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8491</v>
+        <v>1.8475</v>
       </c>
       <c r="F28" t="n">
-        <v>7135.30708</v>
+        <v>7129.133</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>835.4302000000007</v>
+        <v>829.25612</v>
       </c>
       <c r="J28" t="n">
-        <v>13.26</v>
+        <v>13.16</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8491</v>
+        <v>1.8475</v>
       </c>
       <c r="F29" t="n">
-        <v>16104.348139</v>
+        <v>16090.413275</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1104.337972000001</v>
+        <v>1090.403108</v>
       </c>
       <c r="J29" t="n">
-        <v>7.36</v>
+        <v>7.27</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2434</v>
+        <v>2.243</v>
       </c>
       <c r="F33" t="n">
-        <v>13684.74</v>
+        <v>13682.3</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1411.539999999999</v>
+        <v>1409.099999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>11.5</v>
+        <v>11.48</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.8047</v>
+        <v>1.803</v>
       </c>
       <c r="F34" t="n">
-        <v>34469.77</v>
+        <v>34437.3</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3298.569999999996</v>
+        <v>3266.099999999995</v>
       </c>
       <c r="J34" t="n">
-        <v>10.58</v>
+        <v>10.48</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8876</v>
+        <v>5.8603</v>
       </c>
       <c r="F35" t="n">
-        <v>35834.170888</v>
+        <v>35668.012714</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2634.185264</v>
+        <v>2468.027089999996</v>
       </c>
       <c r="J35" t="n">
-        <v>7.93</v>
+        <v>7.43</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.8876</v>
+        <v>5.8603</v>
       </c>
       <c r="F36" t="n">
-        <v>12168.844936</v>
+        <v>12112.419658</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>868.9079440000005</v>
+        <v>812.4826659999999</v>
       </c>
       <c r="J36" t="n">
-        <v>7.69</v>
+        <v>7.19</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.8876</v>
+        <v>5.8603</v>
       </c>
       <c r="F37" t="n">
-        <v>88314</v>
+        <v>87904.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>5019</v>
+        <v>4609.5</v>
       </c>
       <c r="J37" t="n">
-        <v>6.03</v>
+        <v>5.53</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3862</v>
+        <v>2.3843</v>
       </c>
       <c r="F38" t="n">
-        <v>17355.810942</v>
+        <v>17341.991463</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1555.782399</v>
+        <v>1541.962919999998</v>
       </c>
       <c r="J38" t="n">
-        <v>9.85</v>
+        <v>9.76</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3862</v>
+        <v>2.3843</v>
       </c>
       <c r="F39" t="n">
-        <v>24883.078842</v>
+        <v>24863.265813</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1883.280545999998</v>
+        <v>1863.467517000001</v>
       </c>
       <c r="J39" t="n">
-        <v>8.19</v>
+        <v>8.1</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9188</v>
+        <v>1.918</v>
       </c>
       <c r="F40" t="n">
-        <v>12855.96</v>
+        <v>12850.6</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2403.960000000001</v>
+        <v>2398.6</v>
       </c>
       <c r="J40" t="n">
-        <v>23</v>
+        <v>22.95</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.81</v>
+        <v>7.84</v>
       </c>
       <c r="F41" t="n">
-        <v>7810</v>
+        <v>7840</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>701</v>
+        <v>731</v>
       </c>
       <c r="J41" t="n">
-        <v>9.859999999999999</v>
+        <v>10.28</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.49</v>
+        <v>7.63</v>
       </c>
       <c r="F42" t="n">
-        <v>8239</v>
+        <v>8393</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1654.4</v>
+        <v>1808.4</v>
       </c>
       <c r="J42" t="n">
-        <v>25.13</v>
+        <v>27.46</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.66</v>
+        <v>41.9</v>
       </c>
       <c r="F43" t="n">
-        <v>62489.99999999999</v>
+        <v>62850</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-1965.000000000007</v>
+        <v>-1605</v>
       </c>
       <c r="J43" t="n">
-        <v>-3.05</v>
+        <v>-2.49</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.1643</v>
+        <v>3.0955</v>
       </c>
       <c r="F2" t="n">
-        <v>2340.601067</v>
+        <v>2289.710395</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>470.3688710000001</v>
+        <v>419.4781990000001</v>
       </c>
       <c r="J2" t="n">
-        <v>25.15</v>
+        <v>22.43</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.1462</v>
+        <v>3.1562</v>
       </c>
       <c r="F3" t="n">
-        <v>1020.375584</v>
+        <v>1023.618784</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>20.43215999999984</v>
+        <v>23.67535999999996</v>
       </c>
       <c r="J3" t="n">
-        <v>2.04</v>
+        <v>2.37</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2406</v>
+        <v>1.2446</v>
       </c>
       <c r="F4" t="n">
-        <v>7071.419999999999</v>
+        <v>7094.219999999999</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1650.719999999999</v>
+        <v>1673.52</v>
       </c>
       <c r="J4" t="n">
-        <v>30.45</v>
+        <v>30.87</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0162</v>
+        <v>2.0144</v>
       </c>
       <c r="F5" t="n">
-        <v>2391.072066</v>
+        <v>2388.937392</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-8.894474999999602</v>
+        <v>-11.02914899999951</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.37</v>
+        <v>-0.46</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.45</v>
+        <v>1.442</v>
       </c>
       <c r="F6" t="n">
-        <v>2461.0705</v>
+        <v>2447.49218</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-38.86794099999997</v>
+        <v>-52.44626100000005</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.55</v>
+        <v>-2.1</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.45</v>
+        <v>1.442</v>
       </c>
       <c r="F7" t="n">
-        <v>5211.445</v>
+        <v>5182.6922</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-108.5418200000004</v>
+        <v>-137.2946200000006</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.04</v>
+        <v>-2.58</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7592</v>
+        <v>1.7556</v>
       </c>
       <c r="F8" t="n">
-        <v>22693.68</v>
+        <v>22647.24</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3395.279999999999</v>
+        <v>3348.84</v>
       </c>
       <c r="J8" t="n">
-        <v>17.59</v>
+        <v>17.35</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9439</v>
+        <v>2.9406</v>
       </c>
       <c r="F9" t="n">
-        <v>891.442359</v>
+        <v>890.443086</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>142.502386</v>
+        <v>141.503113</v>
       </c>
       <c r="J9" t="n">
-        <v>19.03</v>
+        <v>18.89</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1235</v>
+        <v>2.1162</v>
       </c>
       <c r="F10" t="n">
-        <v>2209.353105</v>
+        <v>2201.757966</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>209.3345160000001</v>
+        <v>201.7393770000001</v>
       </c>
       <c r="J10" t="n">
-        <v>10.47</v>
+        <v>10.09</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5896</v>
+        <v>1.584</v>
       </c>
       <c r="F11" t="n">
-        <v>6576.540807999999</v>
+        <v>6553.372319999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>597.4160119999988</v>
+        <v>574.2475239999994</v>
       </c>
       <c r="J11" t="n">
-        <v>9.99</v>
+        <v>9.6</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5896</v>
+        <v>1.584</v>
       </c>
       <c r="F12" t="n">
-        <v>9559.965671999998</v>
+        <v>9526.28688</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>460.0763549999992</v>
+        <v>426.3975630000004</v>
       </c>
       <c r="J12" t="n">
-        <v>5.06</v>
+        <v>4.69</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2964</v>
+        <v>2.2938</v>
       </c>
       <c r="F15" t="n">
-        <v>21356.52</v>
+        <v>21332.34</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1910.220000000001</v>
+        <v>1886.040000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>9.82</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.5</v>
+        <v>27.35</v>
       </c>
       <c r="F16" t="n">
-        <v>13750</v>
+        <v>13675</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-65</v>
+        <v>-140</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.47</v>
+        <v>-1.01</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.68</v>
+        <v>8.67</v>
       </c>
       <c r="F17" t="n">
-        <v>17360</v>
+        <v>17340</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-400</v>
+        <v>-420</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.25</v>
+        <v>-2.36</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0908</v>
+        <v>1.0883</v>
       </c>
       <c r="F18" t="n">
-        <v>4284.869652</v>
+        <v>4275.049177</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-21.60504499999934</v>
+        <v>-31.42551999999978</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.5</v>
+        <v>-0.73</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5467</v>
+        <v>1.5461</v>
       </c>
       <c r="F19" t="n">
-        <v>13456.29</v>
+        <v>13451.07</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>-2.610000000000582</v>
+        <v>-7.829999999999927</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.02</v>
+        <v>-0.06</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2753</v>
+        <v>1.2712</v>
       </c>
       <c r="F20" t="n">
-        <v>10107.849258</v>
+        <v>10075.353232</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>107.7916960000002</v>
+        <v>75.29567000000134</v>
       </c>
       <c r="J20" t="n">
-        <v>1.08</v>
+        <v>0.75</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1757</v>
+        <v>1.1741</v>
       </c>
       <c r="F21" t="n">
-        <v>13285.41</v>
+        <v>13267.33</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>652.0100000000002</v>
+        <v>633.9300000000003</v>
       </c>
       <c r="J21" t="n">
-        <v>5.16</v>
+        <v>5.02</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5942</v>
+        <v>1.5867</v>
       </c>
       <c r="F22" t="n">
-        <v>851.127438</v>
+        <v>847.123263</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>121.993865</v>
+        <v>117.98969</v>
       </c>
       <c r="J22" t="n">
-        <v>16.73</v>
+        <v>16.18</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5942</v>
+        <v>1.5867</v>
       </c>
       <c r="F23" t="n">
-        <v>20599.837908</v>
+        <v>20502.924858</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1399.424442</v>
+        <v>1302.511391999997</v>
       </c>
       <c r="J23" t="n">
-        <v>7.29</v>
+        <v>6.78</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4271</v>
+        <v>1.4203</v>
       </c>
       <c r="F24" t="n">
-        <v>933.7800720000001</v>
+        <v>929.330696</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>133.8084400000001</v>
+        <v>129.359064</v>
       </c>
       <c r="J24" t="n">
-        <v>16.73</v>
+        <v>16.17</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8475</v>
+        <v>1.8386</v>
       </c>
       <c r="F28" t="n">
-        <v>7129.133</v>
+        <v>7094.789680000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>829.25612</v>
+        <v>794.912800000001</v>
       </c>
       <c r="J28" t="n">
-        <v>13.16</v>
+        <v>12.62</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8475</v>
+        <v>1.8386</v>
       </c>
       <c r="F29" t="n">
-        <v>16090.413275</v>
+        <v>16012.900594</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1090.403108</v>
+        <v>1012.890427000002</v>
       </c>
       <c r="J29" t="n">
-        <v>7.27</v>
+        <v>6.75</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9088</v>
+        <v>1.8959</v>
       </c>
       <c r="F30" t="n">
-        <v>10036.642192</v>
+        <v>9968.812830999999</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1156.253991000001</v>
+        <v>1088.42463</v>
       </c>
       <c r="J30" t="n">
-        <v>13.02</v>
+        <v>12.26</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9088</v>
+        <v>1.8959</v>
       </c>
       <c r="F31" t="n">
-        <v>1287.046576</v>
+        <v>1278.348493</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>87.04825699999992</v>
+        <v>78.35017399999992</v>
       </c>
       <c r="J31" t="n">
-        <v>7.25</v>
+        <v>6.53</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.243</v>
+        <v>2.2323</v>
       </c>
       <c r="F33" t="n">
-        <v>13682.3</v>
+        <v>13617.03</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1409.099999999999</v>
+        <v>1343.829999999998</v>
       </c>
       <c r="J33" t="n">
-        <v>11.48</v>
+        <v>10.95</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.803</v>
+        <v>1.7938</v>
       </c>
       <c r="F34" t="n">
-        <v>34437.3</v>
+        <v>34261.58</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3266.099999999995</v>
+        <v>3090.380000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>10.48</v>
+        <v>9.91</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8603</v>
+        <v>5.8471</v>
       </c>
       <c r="F35" t="n">
-        <v>35668.012714</v>
+        <v>35587.672498</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2468.027089999996</v>
+        <v>2387.686873999999</v>
       </c>
       <c r="J35" t="n">
-        <v>7.43</v>
+        <v>7.19</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.8603</v>
+        <v>5.8471</v>
       </c>
       <c r="F36" t="n">
-        <v>12112.419658</v>
+        <v>12085.137106</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>812.4826659999999</v>
+        <v>785.2001140000011</v>
       </c>
       <c r="J36" t="n">
-        <v>7.19</v>
+        <v>6.95</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.8603</v>
+        <v>5.8471</v>
       </c>
       <c r="F37" t="n">
-        <v>87904.5</v>
+        <v>87706.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>4609.5</v>
+        <v>4411.5</v>
       </c>
       <c r="J37" t="n">
-        <v>5.53</v>
+        <v>5.3</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3843</v>
+        <v>2.374</v>
       </c>
       <c r="F38" t="n">
-        <v>17341.991463</v>
+        <v>17267.07534</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1541.962919999998</v>
+        <v>1467.046796999999</v>
       </c>
       <c r="J38" t="n">
-        <v>9.76</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3843</v>
+        <v>2.374</v>
       </c>
       <c r="F39" t="n">
-        <v>24863.265813</v>
+        <v>24755.85834</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1863.467517000001</v>
+        <v>1756.060044000002</v>
       </c>
       <c r="J39" t="n">
-        <v>8.1</v>
+        <v>7.64</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.918</v>
+        <v>1.9087</v>
       </c>
       <c r="F40" t="n">
-        <v>12850.6</v>
+        <v>12788.29</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2398.6</v>
+        <v>2336.290000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>22.95</v>
+        <v>22.35</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.84</v>
+        <v>7.83</v>
       </c>
       <c r="F41" t="n">
-        <v>7840</v>
+        <v>7830</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="J41" t="n">
-        <v>10.28</v>
+        <v>10.14</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.63</v>
+        <v>7.6</v>
       </c>
       <c r="F42" t="n">
-        <v>8393</v>
+        <v>8360</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1808.4</v>
+        <v>1775.4</v>
       </c>
       <c r="J42" t="n">
-        <v>27.46</v>
+        <v>26.96</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.9</v>
+        <v>42.24</v>
       </c>
       <c r="F43" t="n">
-        <v>62850</v>
+        <v>63360</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-1605</v>
+        <v>-1095</v>
       </c>
       <c r="J43" t="n">
-        <v>-2.49</v>
+        <v>-1.7</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0955</v>
+        <v>3.0744</v>
       </c>
       <c r="F2" t="n">
-        <v>2289.710395</v>
+        <v>2274.102936</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>419.4781990000001</v>
+        <v>403.8707400000003</v>
       </c>
       <c r="J2" t="n">
-        <v>22.43</v>
+        <v>21.59</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2446</v>
+        <v>1.2411</v>
       </c>
       <c r="F4" t="n">
-        <v>7094.219999999999</v>
+        <v>7074.27</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1673.52</v>
+        <v>1653.570000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>30.87</v>
+        <v>30.5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0144</v>
+        <v>2.0265</v>
       </c>
       <c r="F5" t="n">
-        <v>2388.937392</v>
+        <v>2403.287145</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-11.02914899999951</v>
+        <v>3.320604000000458</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.46</v>
+        <v>0.14</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.442</v>
+        <v>1.4434</v>
       </c>
       <c r="F6" t="n">
-        <v>2447.49218</v>
+        <v>2449.868386</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-52.44626100000005</v>
+        <v>-50.07005499999968</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.1</v>
+        <v>-2</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.442</v>
+        <v>1.4434</v>
       </c>
       <c r="F7" t="n">
-        <v>5182.6922</v>
+        <v>5187.72394</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-137.2946200000006</v>
+        <v>-132.2628800000002</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.58</v>
+        <v>-2.49</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7556</v>
+        <v>1.7482</v>
       </c>
       <c r="F8" t="n">
-        <v>22647.24</v>
+        <v>22551.78</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3348.84</v>
+        <v>3253.379999999997</v>
       </c>
       <c r="J8" t="n">
-        <v>17.35</v>
+        <v>16.86</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1162</v>
+        <v>2.1147</v>
       </c>
       <c r="F10" t="n">
-        <v>2201.757966</v>
+        <v>2200.197321</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>201.7393770000001</v>
+        <v>200.1787320000001</v>
       </c>
       <c r="J10" t="n">
-        <v>10.09</v>
+        <v>10.01</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.584</v>
+        <v>1.5824</v>
       </c>
       <c r="F11" t="n">
-        <v>6553.372319999999</v>
+        <v>6546.752751999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>574.2475239999994</v>
+        <v>567.6279559999994</v>
       </c>
       <c r="J11" t="n">
-        <v>9.6</v>
+        <v>9.49</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.584</v>
+        <v>1.5824</v>
       </c>
       <c r="F12" t="n">
-        <v>9526.28688</v>
+        <v>9516.664368</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>426.3975630000004</v>
+        <v>416.7750510000005</v>
       </c>
       <c r="J12" t="n">
-        <v>4.69</v>
+        <v>4.58</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0883</v>
+        <v>1.0921</v>
       </c>
       <c r="F18" t="n">
-        <v>4275.049177</v>
+        <v>4289.976299</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-31.42551999999978</v>
+        <v>-16.49839799999972</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.73</v>
+        <v>-0.38</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5461</v>
+        <v>1.5474</v>
       </c>
       <c r="F19" t="n">
-        <v>13451.07</v>
+        <v>13462.38</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>-7.829999999999927</v>
+        <v>3.480000000001382</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.06</v>
+        <v>0.03</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2712</v>
+        <v>1.2664</v>
       </c>
       <c r="F20" t="n">
-        <v>10075.353232</v>
+        <v>10037.309104</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>75.29567000000134</v>
+        <v>37.25154199999997</v>
       </c>
       <c r="J20" t="n">
-        <v>0.75</v>
+        <v>0.37</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1741</v>
+        <v>1.1745</v>
       </c>
       <c r="F21" t="n">
-        <v>13267.33</v>
+        <v>13271.85</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>633.9300000000003</v>
+        <v>638.4500000000007</v>
       </c>
       <c r="J21" t="n">
-        <v>5.02</v>
+        <v>5.05</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5867</v>
+        <v>1.5833</v>
       </c>
       <c r="F22" t="n">
-        <v>847.123263</v>
+        <v>845.3080369999999</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>117.98969</v>
+        <v>116.1744639999999</v>
       </c>
       <c r="J22" t="n">
-        <v>16.18</v>
+        <v>15.93</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5867</v>
+        <v>1.5833</v>
       </c>
       <c r="F23" t="n">
-        <v>20502.924858</v>
+        <v>20458.990942</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1302.511391999997</v>
+        <v>1258.577475999999</v>
       </c>
       <c r="J23" t="n">
-        <v>6.78</v>
+        <v>6.55</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4203</v>
+        <v>1.4174</v>
       </c>
       <c r="F24" t="n">
-        <v>929.330696</v>
+        <v>927.433168</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>129.359064</v>
+        <v>127.461536</v>
       </c>
       <c r="J24" t="n">
-        <v>16.17</v>
+        <v>15.93</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.731</v>
+        <v>5.718</v>
       </c>
       <c r="F26" t="n">
-        <v>2380.31354</v>
+        <v>2374.91412</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>280.3129659999995</v>
+        <v>274.9135459999998</v>
       </c>
       <c r="J26" t="n">
-        <v>13.35</v>
+        <v>13.09</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8386</v>
+        <v>1.8347</v>
       </c>
       <c r="F28" t="n">
-        <v>7094.789680000001</v>
+        <v>7079.740360000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>794.912800000001</v>
+        <v>779.8634800000009</v>
       </c>
       <c r="J28" t="n">
-        <v>12.62</v>
+        <v>12.38</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8386</v>
+        <v>1.8347</v>
       </c>
       <c r="F29" t="n">
-        <v>16012.900594</v>
+        <v>15978.934363</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1012.890427000002</v>
+        <v>978.9241960000018</v>
       </c>
       <c r="J29" t="n">
-        <v>6.75</v>
+        <v>6.53</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2323</v>
+        <v>2.2209</v>
       </c>
       <c r="F33" t="n">
-        <v>13617.03</v>
+        <v>13547.49</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1343.829999999998</v>
+        <v>1274.289999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>10.95</v>
+        <v>10.38</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7938</v>
+        <v>1.7898</v>
       </c>
       <c r="F34" t="n">
-        <v>34261.58</v>
+        <v>34185.18</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3090.380000000001</v>
+        <v>3013.98</v>
       </c>
       <c r="J34" t="n">
-        <v>9.91</v>
+        <v>9.67</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.374</v>
+        <v>2.3699</v>
       </c>
       <c r="F38" t="n">
-        <v>17267.07534</v>
+        <v>17237.254359</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1467.046796999999</v>
+        <v>1437.225815999998</v>
       </c>
       <c r="J38" t="n">
-        <v>9.289999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.374</v>
+        <v>2.3699</v>
       </c>
       <c r="F39" t="n">
-        <v>24755.85834</v>
+        <v>24713.103909</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1756.060044000002</v>
+        <v>1713.305612999997</v>
       </c>
       <c r="J39" t="n">
-        <v>7.64</v>
+        <v>7.45</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9087</v>
+        <v>1.9062</v>
       </c>
       <c r="F40" t="n">
-        <v>12788.29</v>
+        <v>12771.54</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2336.290000000001</v>
+        <v>2319.539999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>22.35</v>
+        <v>22.19</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.1562</v>
+        <v>3.1531</v>
       </c>
       <c r="F3" t="n">
-        <v>1023.618784</v>
+        <v>1022.613392</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>23.67535999999996</v>
+        <v>22.66996799999981</v>
       </c>
       <c r="J3" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0265</v>
+        <v>2.0193</v>
       </c>
       <c r="F5" t="n">
-        <v>2403.287145</v>
+        <v>2394.748449</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>3.320604000000458</v>
+        <v>-5.218091999999615</v>
       </c>
       <c r="J5" t="n">
-        <v>0.14</v>
+        <v>-0.22</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9406</v>
+        <v>2.9181</v>
       </c>
       <c r="F9" t="n">
-        <v>890.443086</v>
+        <v>883.629861</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>141.503113</v>
+        <v>134.689888</v>
       </c>
       <c r="J9" t="n">
-        <v>18.89</v>
+        <v>17.98</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.35</v>
+        <v>27.2</v>
       </c>
       <c r="F16" t="n">
-        <v>13675</v>
+        <v>13600</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-140</v>
+        <v>-215</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.01</v>
+        <v>-1.56</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8959</v>
+        <v>1.8793</v>
       </c>
       <c r="F30" t="n">
-        <v>9968.812830999999</v>
+        <v>9881.528537</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1088.42463</v>
+        <v>1001.140336</v>
       </c>
       <c r="J30" t="n">
-        <v>12.26</v>
+        <v>11.27</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8959</v>
+        <v>1.8793</v>
       </c>
       <c r="F31" t="n">
-        <v>1278.348493</v>
+        <v>1267.155611</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>78.35017399999992</v>
+        <v>67.15729199999987</v>
       </c>
       <c r="J31" t="n">
-        <v>6.53</v>
+        <v>5.6</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8471</v>
+        <v>5.7956</v>
       </c>
       <c r="F35" t="n">
-        <v>35587.672498</v>
+        <v>35274.223928</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2387.686873999999</v>
+        <v>2074.238303999999</v>
       </c>
       <c r="J35" t="n">
-        <v>7.19</v>
+        <v>6.25</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.8471</v>
+        <v>5.7956</v>
       </c>
       <c r="F36" t="n">
-        <v>12085.137106</v>
+        <v>11978.693816</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>785.2001140000011</v>
+        <v>678.7568240000001</v>
       </c>
       <c r="J36" t="n">
-        <v>6.95</v>
+        <v>6.01</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.8471</v>
+        <v>5.7956</v>
       </c>
       <c r="F37" t="n">
-        <v>87706.5</v>
+        <v>86934</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>4411.5</v>
+        <v>3639</v>
       </c>
       <c r="J37" t="n">
-        <v>5.3</v>
+        <v>4.37</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.83</v>
+        <v>7.91</v>
       </c>
       <c r="F41" t="n">
-        <v>7830</v>
+        <v>7910</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>721</v>
+        <v>801</v>
       </c>
       <c r="J41" t="n">
-        <v>10.14</v>
+        <v>11.27</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.6</v>
+        <v>7.65</v>
       </c>
       <c r="F42" t="n">
-        <v>8360</v>
+        <v>8415</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1775.4</v>
+        <v>1830.4</v>
       </c>
       <c r="J42" t="n">
-        <v>26.96</v>
+        <v>27.8</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>42.24</v>
+        <v>42.48</v>
       </c>
       <c r="F43" t="n">
-        <v>63360</v>
+        <v>63719.99999999999</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-1095</v>
+        <v>-735.0000000000073</v>
       </c>
       <c r="J43" t="n">
-        <v>-1.7</v>
+        <v>-1.14</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0744</v>
+        <v>3.1301</v>
       </c>
       <c r="F2" t="n">
-        <v>2274.102936</v>
+        <v>2315.303669</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>403.8707400000003</v>
+        <v>445.0714730000004</v>
       </c>
       <c r="J2" t="n">
-        <v>21.59</v>
+        <v>23.8</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.1531</v>
+        <v>3.2684</v>
       </c>
       <c r="F3" t="n">
-        <v>1022.613392</v>
+        <v>1060.007488</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>22.66996799999981</v>
+        <v>60.06406399999992</v>
       </c>
       <c r="J3" t="n">
-        <v>2.27</v>
+        <v>6.01</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2411</v>
+        <v>1.2673</v>
       </c>
       <c r="F4" t="n">
-        <v>7074.27</v>
+        <v>7223.610000000001</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1653.570000000001</v>
+        <v>1802.910000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>30.5</v>
+        <v>33.26</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4434</v>
+        <v>1.4472</v>
       </c>
       <c r="F6" t="n">
-        <v>2449.868386</v>
+        <v>2456.318088</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-50.07005499999968</v>
+        <v>-43.6203529999998</v>
       </c>
       <c r="J6" t="n">
-        <v>-2</v>
+        <v>-1.74</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4434</v>
+        <v>1.4472</v>
       </c>
       <c r="F7" t="n">
-        <v>5187.72394</v>
+        <v>5201.38152</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-132.2628800000002</v>
+        <v>-118.6053000000002</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.49</v>
+        <v>-2.23</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7482</v>
+        <v>1.792</v>
       </c>
       <c r="F8" t="n">
-        <v>22551.78</v>
+        <v>23116.8</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3253.379999999997</v>
+        <v>3818.399999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>16.86</v>
+        <v>19.79</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9181</v>
+        <v>2.9386</v>
       </c>
       <c r="F9" t="n">
-        <v>883.629861</v>
+        <v>889.8374660000001</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>134.689888</v>
+        <v>140.8974930000001</v>
       </c>
       <c r="J9" t="n">
-        <v>17.98</v>
+        <v>18.81</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1147</v>
+        <v>2.0999</v>
       </c>
       <c r="F10" t="n">
-        <v>2200.197321</v>
+        <v>2184.798957</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>200.1787320000001</v>
+        <v>184.780368</v>
       </c>
       <c r="J10" t="n">
-        <v>10.01</v>
+        <v>9.24</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5824</v>
+        <v>1.5705</v>
       </c>
       <c r="F11" t="n">
-        <v>6546.752751999999</v>
+        <v>6497.519714999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>567.6279559999994</v>
+        <v>518.3949189999994</v>
       </c>
       <c r="J11" t="n">
-        <v>9.49</v>
+        <v>8.67</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5824</v>
+        <v>1.5705</v>
       </c>
       <c r="F12" t="n">
-        <v>9516.664368</v>
+        <v>9445.096935</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>416.7750510000005</v>
+        <v>345.2076180000004</v>
       </c>
       <c r="J12" t="n">
-        <v>4.58</v>
+        <v>3.79</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2938</v>
+        <v>2.2915</v>
       </c>
       <c r="F15" t="n">
-        <v>21332.34</v>
+        <v>21310.95</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1886.040000000001</v>
+        <v>1864.650000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>9.699999999999999</v>
+        <v>9.59</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F16" t="n">
-        <v>13600</v>
+        <v>13650</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-215</v>
+        <v>-165</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.56</v>
+        <v>-1.19</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.67</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>17340</v>
+        <v>17420</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-420</v>
+        <v>-340</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.36</v>
+        <v>-1.91</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0921</v>
+        <v>1.0917</v>
       </c>
       <c r="F18" t="n">
-        <v>4289.976299</v>
+        <v>4288.405022999999</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-16.49839799999972</v>
+        <v>-18.0696740000003</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.38</v>
+        <v>-0.42</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5474</v>
+        <v>1.5532</v>
       </c>
       <c r="F19" t="n">
-        <v>13462.38</v>
+        <v>13512.84</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>3.480000000001382</v>
+        <v>53.94000000000051</v>
       </c>
       <c r="J19" t="n">
-        <v>0.03</v>
+        <v>0.4</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2664</v>
+        <v>1.2683</v>
       </c>
       <c r="F20" t="n">
-        <v>10037.309104</v>
+        <v>10052.368238</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>37.25154199999997</v>
+        <v>52.31067599999915</v>
       </c>
       <c r="J20" t="n">
-        <v>0.37</v>
+        <v>0.52</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1745</v>
+        <v>1.1736</v>
       </c>
       <c r="F21" t="n">
-        <v>13271.85</v>
+        <v>13261.68</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>638.4500000000007</v>
+        <v>628.2800000000007</v>
       </c>
       <c r="J21" t="n">
-        <v>5.05</v>
+        <v>4.97</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5833</v>
+        <v>1.5696</v>
       </c>
       <c r="F22" t="n">
-        <v>845.3080369999999</v>
+        <v>837.993744</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>116.1744639999999</v>
+        <v>108.860171</v>
       </c>
       <c r="J22" t="n">
-        <v>15.93</v>
+        <v>14.93</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5833</v>
+        <v>1.5696</v>
       </c>
       <c r="F23" t="n">
-        <v>20458.990942</v>
+        <v>20281.963104</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1258.577475999999</v>
+        <v>1081.549638</v>
       </c>
       <c r="J23" t="n">
-        <v>6.55</v>
+        <v>5.63</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4174</v>
+        <v>1.4052</v>
       </c>
       <c r="F24" t="n">
-        <v>927.433168</v>
+        <v>919.4504640000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>127.461536</v>
+        <v>119.4788320000001</v>
       </c>
       <c r="J24" t="n">
-        <v>15.93</v>
+        <v>14.94</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.718</v>
+        <v>5.6666</v>
       </c>
       <c r="F26" t="n">
-        <v>2374.91412</v>
+        <v>2353.565644</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>274.9135459999998</v>
+        <v>253.5650699999997</v>
       </c>
       <c r="J26" t="n">
-        <v>13.09</v>
+        <v>12.07</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8347</v>
+        <v>1.8188</v>
       </c>
       <c r="F28" t="n">
-        <v>7079.740360000001</v>
+        <v>7018.38544</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>779.8634800000009</v>
+        <v>718.5085600000002</v>
       </c>
       <c r="J28" t="n">
-        <v>12.38</v>
+        <v>11.41</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8347</v>
+        <v>1.8188</v>
       </c>
       <c r="F29" t="n">
-        <v>15978.934363</v>
+        <v>15840.456652</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>978.9241960000018</v>
+        <v>840.4464850000004</v>
       </c>
       <c r="J29" t="n">
-        <v>6.53</v>
+        <v>5.6</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8793</v>
+        <v>1.8887</v>
       </c>
       <c r="F30" t="n">
-        <v>9881.528537</v>
+        <v>9930.954583000001</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1001.140336</v>
+        <v>1050.566382000001</v>
       </c>
       <c r="J30" t="n">
-        <v>11.27</v>
+        <v>11.83</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8793</v>
+        <v>1.8887</v>
       </c>
       <c r="F31" t="n">
-        <v>1267.155611</v>
+        <v>1273.493749</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>67.15729199999987</v>
+        <v>73.49542999999994</v>
       </c>
       <c r="J31" t="n">
-        <v>5.6</v>
+        <v>6.12</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2209</v>
+        <v>2.203</v>
       </c>
       <c r="F33" t="n">
-        <v>13547.49</v>
+        <v>13438.3</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1274.289999999999</v>
+        <v>1165.099999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>10.38</v>
+        <v>9.49</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7898</v>
+        <v>1.7735</v>
       </c>
       <c r="F34" t="n">
-        <v>34185.18</v>
+        <v>33873.85</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3013.98</v>
+        <v>2702.649999999998</v>
       </c>
       <c r="J34" t="n">
-        <v>9.67</v>
+        <v>8.67</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.7956</v>
+        <v>5.7878</v>
       </c>
       <c r="F35" t="n">
-        <v>35274.223928</v>
+        <v>35226.750164</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2074.238303999999</v>
+        <v>2026.764539999996</v>
       </c>
       <c r="J35" t="n">
-        <v>6.25</v>
+        <v>6.1</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.7956</v>
+        <v>5.7878</v>
       </c>
       <c r="F36" t="n">
-        <v>11978.693816</v>
+        <v>11962.572308</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>678.7568240000001</v>
+        <v>662.6353159999999</v>
       </c>
       <c r="J36" t="n">
-        <v>6.01</v>
+        <v>5.86</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.7956</v>
+        <v>5.7878</v>
       </c>
       <c r="F37" t="n">
-        <v>86934</v>
+        <v>86817</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>3639</v>
+        <v>3522</v>
       </c>
       <c r="J37" t="n">
-        <v>4.37</v>
+        <v>4.23</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3699</v>
+        <v>2.3482</v>
       </c>
       <c r="F38" t="n">
-        <v>17237.254359</v>
+        <v>17079.421362</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1437.225815999998</v>
+        <v>1279.392818999997</v>
       </c>
       <c r="J38" t="n">
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3699</v>
+        <v>2.3482</v>
       </c>
       <c r="F39" t="n">
-        <v>24713.103909</v>
+        <v>24486.818262</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1713.305612999997</v>
+        <v>1487.019965999996</v>
       </c>
       <c r="J39" t="n">
-        <v>7.45</v>
+        <v>6.47</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9062</v>
+        <v>1.8883</v>
       </c>
       <c r="F40" t="n">
-        <v>12771.54</v>
+        <v>12651.61</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2319.539999999999</v>
+        <v>2199.610000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>22.19</v>
+        <v>21.04</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.91</v>
+        <v>7.81</v>
       </c>
       <c r="F41" t="n">
-        <v>7910</v>
+        <v>7810</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>801</v>
+        <v>701</v>
       </c>
       <c r="J41" t="n">
-        <v>11.27</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.65</v>
+        <v>7.57</v>
       </c>
       <c r="F42" t="n">
-        <v>8415</v>
+        <v>8327</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1830.4</v>
+        <v>1742.4</v>
       </c>
       <c r="J42" t="n">
-        <v>27.8</v>
+        <v>26.46</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>42.48</v>
+        <v>42.45</v>
       </c>
       <c r="F43" t="n">
-        <v>63719.99999999999</v>
+        <v>63675.00000000001</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-735.0000000000073</v>
+        <v>-779.9999999999927</v>
       </c>
       <c r="J43" t="n">
-        <v>-1.14</v>
+        <v>-1.21</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.1301</v>
+        <v>3.1587</v>
       </c>
       <c r="F2" t="n">
-        <v>2315.303669</v>
+        <v>2336.458803</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>445.0714730000004</v>
+        <v>466.2266070000005</v>
       </c>
       <c r="J2" t="n">
-        <v>23.8</v>
+        <v>24.93</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.2684</v>
+        <v>3.3231</v>
       </c>
       <c r="F3" t="n">
-        <v>1060.007488</v>
+        <v>1077.747792</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>60.06406399999992</v>
+        <v>77.80436800000007</v>
       </c>
       <c r="J3" t="n">
-        <v>6.01</v>
+        <v>7.78</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2673</v>
+        <v>1.2885</v>
       </c>
       <c r="F4" t="n">
-        <v>7223.610000000001</v>
+        <v>7344.45</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1802.910000000001</v>
+        <v>1923.75</v>
       </c>
       <c r="J4" t="n">
-        <v>33.26</v>
+        <v>35.49</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0193</v>
+        <v>2.0404</v>
       </c>
       <c r="F5" t="n">
-        <v>2394.748449</v>
+        <v>2419.771572</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-5.218091999999615</v>
+        <v>19.80503100000033</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.22</v>
+        <v>0.83</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4472</v>
+        <v>1.4491</v>
       </c>
       <c r="F6" t="n">
-        <v>2456.318088</v>
+        <v>2459.542939</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-43.6203529999998</v>
+        <v>-40.39550199999985</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.74</v>
+        <v>-1.62</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4472</v>
+        <v>1.4491</v>
       </c>
       <c r="F7" t="n">
-        <v>5201.38152</v>
+        <v>5208.21031</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-118.6053000000002</v>
+        <v>-111.7765099999997</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.23</v>
+        <v>-2.1</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.792</v>
+        <v>1.8219</v>
       </c>
       <c r="F8" t="n">
-        <v>23116.8</v>
+        <v>23502.51</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3818.399999999998</v>
+        <v>4204.110000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>19.79</v>
+        <v>21.78</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9386</v>
+        <v>2.9537</v>
       </c>
       <c r="F9" t="n">
-        <v>889.8374660000001</v>
+        <v>894.409897</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>140.8974930000001</v>
+        <v>145.469924</v>
       </c>
       <c r="J9" t="n">
-        <v>18.81</v>
+        <v>19.42</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0999</v>
+        <v>2.1133</v>
       </c>
       <c r="F10" t="n">
-        <v>2184.798957</v>
+        <v>2198.740719</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>184.780368</v>
+        <v>198.7221300000003</v>
       </c>
       <c r="J10" t="n">
-        <v>9.24</v>
+        <v>9.94</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5705</v>
+        <v>1.5803</v>
       </c>
       <c r="F11" t="n">
-        <v>6497.519714999999</v>
+        <v>6538.064568999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>518.3949189999994</v>
+        <v>558.9397729999991</v>
       </c>
       <c r="J11" t="n">
-        <v>8.67</v>
+        <v>9.35</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5705</v>
+        <v>1.5803</v>
       </c>
       <c r="F12" t="n">
-        <v>9445.096935</v>
+        <v>9504.034820999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>345.2076180000004</v>
+        <v>404.1455040000001</v>
       </c>
       <c r="J12" t="n">
-        <v>3.79</v>
+        <v>4.44</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2915</v>
+        <v>2.3039</v>
       </c>
       <c r="F15" t="n">
-        <v>21310.95</v>
+        <v>21426.27</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1864.650000000001</v>
+        <v>1979.970000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>9.59</v>
+        <v>10.18</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.3</v>
+        <v>27.44</v>
       </c>
       <c r="F16" t="n">
-        <v>13650</v>
+        <v>13720</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-165</v>
+        <v>-95</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.19</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.710000000000001</v>
+        <v>8.77</v>
       </c>
       <c r="F17" t="n">
-        <v>17420</v>
+        <v>17540</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-340</v>
+        <v>-220</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.91</v>
+        <v>-1.24</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0917</v>
+        <v>1.0989</v>
       </c>
       <c r="F18" t="n">
-        <v>4288.405022999999</v>
+        <v>4316.687991</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-18.0696740000003</v>
+        <v>10.21329400000013</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.42</v>
+        <v>0.24</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5532</v>
+        <v>1.5717</v>
       </c>
       <c r="F19" t="n">
-        <v>13512.84</v>
+        <v>13673.79</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94000000000051</v>
+        <v>214.8900000000012</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2683</v>
+        <v>1.2755</v>
       </c>
       <c r="F20" t="n">
-        <v>10052.368238</v>
+        <v>10109.43443</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>52.31067599999915</v>
+        <v>109.3768679999994</v>
       </c>
       <c r="J20" t="n">
-        <v>0.52</v>
+        <v>1.09</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1736</v>
+        <v>1.1747</v>
       </c>
       <c r="F21" t="n">
-        <v>13261.68</v>
+        <v>13274.11</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>628.2800000000007</v>
+        <v>640.7100000000009</v>
       </c>
       <c r="J21" t="n">
-        <v>4.97</v>
+        <v>5.07</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5696</v>
+        <v>1.5772</v>
       </c>
       <c r="F22" t="n">
-        <v>837.993744</v>
+        <v>842.0513079999999</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>108.860171</v>
+        <v>112.917735</v>
       </c>
       <c r="J22" t="n">
-        <v>14.93</v>
+        <v>15.49</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5696</v>
+        <v>1.5772</v>
       </c>
       <c r="F23" t="n">
-        <v>20281.963104</v>
+        <v>20380.168328</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1081.549638</v>
+        <v>1179.754861999998</v>
       </c>
       <c r="J23" t="n">
-        <v>5.63</v>
+        <v>6.14</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4052</v>
+        <v>1.4115</v>
       </c>
       <c r="F24" t="n">
-        <v>919.4504640000001</v>
+        <v>923.5726800000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>119.4788320000001</v>
+        <v>123.6010480000001</v>
       </c>
       <c r="J24" t="n">
-        <v>14.94</v>
+        <v>15.45</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.6666</v>
+        <v>5.6947</v>
       </c>
       <c r="F26" t="n">
-        <v>2353.565644</v>
+        <v>2365.236698</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>253.5650699999997</v>
+        <v>265.2361239999996</v>
       </c>
       <c r="J26" t="n">
-        <v>12.07</v>
+        <v>12.63</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8188</v>
+        <v>1.8277</v>
       </c>
       <c r="F28" t="n">
-        <v>7018.38544</v>
+        <v>7052.728760000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>718.5085600000002</v>
+        <v>752.8518800000011</v>
       </c>
       <c r="J28" t="n">
-        <v>11.41</v>
+        <v>11.95</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8188</v>
+        <v>1.8277</v>
       </c>
       <c r="F29" t="n">
-        <v>15840.456652</v>
+        <v>15917.969333</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>840.4464850000004</v>
+        <v>917.9591660000024</v>
       </c>
       <c r="J29" t="n">
-        <v>5.6</v>
+        <v>6.12</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8887</v>
+        <v>1.9041</v>
       </c>
       <c r="F30" t="n">
-        <v>9930.954583000001</v>
+        <v>10011.929169</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1050.566382000001</v>
+        <v>1131.540967999999</v>
       </c>
       <c r="J30" t="n">
-        <v>11.83</v>
+        <v>12.74</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8887</v>
+        <v>1.9041</v>
       </c>
       <c r="F31" t="n">
-        <v>1273.493749</v>
+        <v>1283.877507</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>73.49542999999994</v>
+        <v>83.87918799999989</v>
       </c>
       <c r="J31" t="n">
-        <v>6.12</v>
+        <v>6.99</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.203</v>
+        <v>2.2124</v>
       </c>
       <c r="F33" t="n">
-        <v>13438.3</v>
+        <v>13495.64</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1165.099999999999</v>
+        <v>1222.440000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>9.49</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7735</v>
+        <v>1.7825</v>
       </c>
       <c r="F34" t="n">
-        <v>33873.85</v>
+        <v>34045.75</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2702.649999999998</v>
+        <v>2874.549999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>8.67</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.7878</v>
+        <v>5.8208</v>
       </c>
       <c r="F35" t="n">
-        <v>35226.750164</v>
+        <v>35427.600704</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2026.764539999996</v>
+        <v>2227.615080000003</v>
       </c>
       <c r="J35" t="n">
-        <v>6.1</v>
+        <v>6.71</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.7878</v>
+        <v>5.8208</v>
       </c>
       <c r="F36" t="n">
-        <v>11962.572308</v>
+        <v>12030.778688</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>662.6353159999999</v>
+        <v>730.8416959999995</v>
       </c>
       <c r="J36" t="n">
-        <v>5.86</v>
+        <v>6.47</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.7878</v>
+        <v>5.8208</v>
       </c>
       <c r="F37" t="n">
-        <v>86817</v>
+        <v>87312</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>3522</v>
+        <v>4017</v>
       </c>
       <c r="J37" t="n">
-        <v>4.23</v>
+        <v>4.82</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3482</v>
+        <v>2.3593</v>
       </c>
       <c r="F38" t="n">
-        <v>17079.421362</v>
+        <v>17160.156213</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1279.392818999997</v>
+        <v>1360.127670000002</v>
       </c>
       <c r="J38" t="n">
-        <v>8.1</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3482</v>
+        <v>2.3593</v>
       </c>
       <c r="F39" t="n">
-        <v>24486.818262</v>
+        <v>24602.568063</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1487.019965999996</v>
+        <v>1602.769767000002</v>
       </c>
       <c r="J39" t="n">
-        <v>6.47</v>
+        <v>6.97</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8883</v>
+        <v>1.8986</v>
       </c>
       <c r="F40" t="n">
-        <v>12651.61</v>
+        <v>12720.62</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2199.610000000001</v>
+        <v>2268.620000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>21.04</v>
+        <v>21.71</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.81</v>
+        <v>7.78</v>
       </c>
       <c r="F41" t="n">
-        <v>7810</v>
+        <v>7780</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>701</v>
+        <v>671</v>
       </c>
       <c r="J41" t="n">
-        <v>9.859999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.57</v>
+        <v>7.54</v>
       </c>
       <c r="F42" t="n">
-        <v>8327</v>
+        <v>8294</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1742.4</v>
+        <v>1709.4</v>
       </c>
       <c r="J42" t="n">
-        <v>26.46</v>
+        <v>25.96</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>42.45</v>
+        <v>42.75</v>
       </c>
       <c r="F43" t="n">
-        <v>63675.00000000001</v>
+        <v>64125</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-779.9999999999927</v>
+        <v>-330</v>
       </c>
       <c r="J43" t="n">
-        <v>-1.21</v>
+        <v>-0.51</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.1587</v>
+        <v>3.1492</v>
       </c>
       <c r="F2" t="n">
-        <v>2336.458803</v>
+        <v>2329.431748</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>466.2266070000005</v>
+        <v>459.199552</v>
       </c>
       <c r="J2" t="n">
-        <v>24.93</v>
+        <v>24.55</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.3231</v>
+        <v>3.3152</v>
       </c>
       <c r="F3" t="n">
-        <v>1077.747792</v>
+        <v>1075.185664</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>77.80436800000007</v>
+        <v>75.24223999999981</v>
       </c>
       <c r="J3" t="n">
-        <v>7.78</v>
+        <v>7.52</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0404</v>
+        <v>2.0552</v>
       </c>
       <c r="F5" t="n">
-        <v>2419.771572</v>
+        <v>2437.323336</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>19.80503100000033</v>
+        <v>37.3567950000006</v>
       </c>
       <c r="J5" t="n">
-        <v>0.83</v>
+        <v>1.56</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4491</v>
+        <v>1.4505</v>
       </c>
       <c r="F6" t="n">
-        <v>2459.542939</v>
+        <v>2461.919145</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-40.39550199999985</v>
+        <v>-38.01929599999994</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.62</v>
+        <v>-1.52</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4491</v>
+        <v>1.4505</v>
       </c>
       <c r="F7" t="n">
-        <v>5208.21031</v>
+        <v>5213.24205</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-111.7765099999997</v>
+        <v>-106.7447700000002</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.1</v>
+        <v>-2.01</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8219</v>
+        <v>1.8046</v>
       </c>
       <c r="F8" t="n">
-        <v>23502.51</v>
+        <v>23279.34</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4204.110000000001</v>
+        <v>3980.939999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>21.78</v>
+        <v>20.63</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9537</v>
+        <v>2.9446</v>
       </c>
       <c r="F9" t="n">
-        <v>894.409897</v>
+        <v>891.654326</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>145.469924</v>
+        <v>142.714353</v>
       </c>
       <c r="J9" t="n">
-        <v>19.42</v>
+        <v>19.06</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1133</v>
+        <v>2.1224</v>
       </c>
       <c r="F10" t="n">
-        <v>2198.740719</v>
+        <v>2208.208632</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>198.7221300000003</v>
+        <v>208.1900429999998</v>
       </c>
       <c r="J10" t="n">
-        <v>9.94</v>
+        <v>10.41</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5803</v>
+        <v>1.5879</v>
       </c>
       <c r="F11" t="n">
-        <v>6538.064568999999</v>
+        <v>6569.507517</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>558.9397729999991</v>
+        <v>590.3827209999999</v>
       </c>
       <c r="J11" t="n">
-        <v>9.35</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5803</v>
+        <v>1.5879</v>
       </c>
       <c r="F12" t="n">
-        <v>9504.034820999999</v>
+        <v>9549.741753</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>404.1455040000001</v>
+        <v>449.852436000001</v>
       </c>
       <c r="J12" t="n">
-        <v>4.44</v>
+        <v>4.94</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.3039</v>
+        <v>2.2969</v>
       </c>
       <c r="F15" t="n">
-        <v>21426.27</v>
+        <v>21361.17</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1979.970000000001</v>
+        <v>1914.869999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>10.18</v>
+        <v>9.85</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.44</v>
+        <v>27.23</v>
       </c>
       <c r="F16" t="n">
-        <v>13720</v>
+        <v>13615</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-95</v>
+        <v>-200</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-1.45</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.77</v>
+        <v>8.92</v>
       </c>
       <c r="F17" t="n">
-        <v>17540</v>
+        <v>17840</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-220</v>
+        <v>80</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.24</v>
+        <v>0.45</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0989</v>
+        <v>1.1006</v>
       </c>
       <c r="F18" t="n">
-        <v>4316.687991</v>
+        <v>4323.365914</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>10.21329400000013</v>
+        <v>16.89121700000032</v>
       </c>
       <c r="J18" t="n">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5717</v>
+        <v>1.5724</v>
       </c>
       <c r="F19" t="n">
-        <v>13673.79</v>
+        <v>13679.88</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>214.8900000000012</v>
+        <v>220.9800000000014</v>
       </c>
       <c r="J19" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2755</v>
+        <v>1.2799</v>
       </c>
       <c r="F20" t="n">
-        <v>10109.43443</v>
+        <v>10144.308214</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>109.3768679999994</v>
+        <v>144.2506520000006</v>
       </c>
       <c r="J20" t="n">
-        <v>1.09</v>
+        <v>1.44</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1747</v>
+        <v>1.1685</v>
       </c>
       <c r="F21" t="n">
-        <v>13274.11</v>
+        <v>13204.05</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>640.7100000000009</v>
+        <v>570.6500000000015</v>
       </c>
       <c r="J21" t="n">
-        <v>5.07</v>
+        <v>4.52</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5772</v>
+        <v>1.5898</v>
       </c>
       <c r="F22" t="n">
-        <v>842.0513079999999</v>
+        <v>848.778322</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>112.917735</v>
+        <v>119.644749</v>
       </c>
       <c r="J22" t="n">
-        <v>15.49</v>
+        <v>16.41</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5772</v>
+        <v>1.5898</v>
       </c>
       <c r="F23" t="n">
-        <v>20380.168328</v>
+        <v>20542.982252</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1179.754861999998</v>
+        <v>1342.568786</v>
       </c>
       <c r="J23" t="n">
-        <v>6.14</v>
+        <v>6.99</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4115</v>
+        <v>1.4226</v>
       </c>
       <c r="F24" t="n">
-        <v>923.5726800000001</v>
+        <v>930.8356320000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>123.6010480000001</v>
+        <v>130.8640000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>15.45</v>
+        <v>16.36</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.6947</v>
+        <v>5.7443</v>
       </c>
       <c r="F26" t="n">
-        <v>2365.236698</v>
+        <v>2385.837562</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>265.2361239999996</v>
+        <v>285.8369879999996</v>
       </c>
       <c r="J26" t="n">
-        <v>12.63</v>
+        <v>13.61</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8277</v>
+        <v>1.8426</v>
       </c>
       <c r="F28" t="n">
-        <v>7052.728760000001</v>
+        <v>7110.224880000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>752.8518800000011</v>
+        <v>810.3480000000009</v>
       </c>
       <c r="J28" t="n">
-        <v>11.95</v>
+        <v>12.86</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8277</v>
+        <v>1.8426</v>
       </c>
       <c r="F29" t="n">
-        <v>15917.969333</v>
+        <v>16047.737754</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>917.9591660000024</v>
+        <v>1047.727587000001</v>
       </c>
       <c r="J29" t="n">
-        <v>6.12</v>
+        <v>6.98</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9041</v>
+        <v>1.9057</v>
       </c>
       <c r="F30" t="n">
-        <v>10011.929169</v>
+        <v>10020.342113</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1131.540967999999</v>
+        <v>1139.953912000001</v>
       </c>
       <c r="J30" t="n">
-        <v>12.74</v>
+        <v>12.84</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9041</v>
+        <v>1.9057</v>
       </c>
       <c r="F31" t="n">
-        <v>1283.877507</v>
+        <v>1284.956339</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>83.87918799999989</v>
+        <v>84.95801999999981</v>
       </c>
       <c r="J31" t="n">
-        <v>6.99</v>
+        <v>7.08</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2124</v>
+        <v>2.233</v>
       </c>
       <c r="F33" t="n">
-        <v>13495.64</v>
+        <v>13621.3</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1222.440000000001</v>
+        <v>1348.1</v>
       </c>
       <c r="J33" t="n">
-        <v>9.960000000000001</v>
+        <v>10.98</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7825</v>
+        <v>1.7978</v>
       </c>
       <c r="F34" t="n">
-        <v>34045.75</v>
+        <v>34337.98</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2874.549999999999</v>
+        <v>3166.780000000002</v>
       </c>
       <c r="J34" t="n">
-        <v>9.220000000000001</v>
+        <v>10.16</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8208</v>
+        <v>5.8264</v>
       </c>
       <c r="F35" t="n">
-        <v>35427.600704</v>
+        <v>35461.68443199999</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2227.615080000003</v>
+        <v>2261.698807999994</v>
       </c>
       <c r="J35" t="n">
-        <v>6.71</v>
+        <v>6.81</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.8208</v>
+        <v>5.8264</v>
       </c>
       <c r="F36" t="n">
-        <v>12030.778688</v>
+        <v>12042.353104</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>730.8416959999995</v>
+        <v>742.416111999999</v>
       </c>
       <c r="J36" t="n">
-        <v>6.47</v>
+        <v>6.57</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.8208</v>
+        <v>5.8264</v>
       </c>
       <c r="F37" t="n">
-        <v>87312</v>
+        <v>87396</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>4017</v>
+        <v>4101</v>
       </c>
       <c r="J37" t="n">
-        <v>4.82</v>
+        <v>4.92</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3593</v>
+        <v>2.3762</v>
       </c>
       <c r="F38" t="n">
-        <v>17160.156213</v>
+        <v>17283.076842</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1360.127670000002</v>
+        <v>1483.048298999998</v>
       </c>
       <c r="J38" t="n">
-        <v>8.609999999999999</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3593</v>
+        <v>2.3762</v>
       </c>
       <c r="F39" t="n">
-        <v>24602.568063</v>
+        <v>24778.799742</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1602.769767000002</v>
+        <v>1779.001445999998</v>
       </c>
       <c r="J39" t="n">
-        <v>6.97</v>
+        <v>7.73</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8986</v>
+        <v>1.9132</v>
       </c>
       <c r="F40" t="n">
-        <v>12720.62</v>
+        <v>12818.44</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2268.620000000001</v>
+        <v>2366.440000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>21.71</v>
+        <v>22.64</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.78</v>
+        <v>7.74</v>
       </c>
       <c r="F41" t="n">
-        <v>7780</v>
+        <v>7740</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>671</v>
+        <v>631</v>
       </c>
       <c r="J41" t="n">
-        <v>9.44</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.54</v>
+        <v>7.47</v>
       </c>
       <c r="F42" t="n">
-        <v>8294</v>
+        <v>8217</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1709.4</v>
+        <v>1632.4</v>
       </c>
       <c r="J42" t="n">
-        <v>25.96</v>
+        <v>24.79</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>42.75</v>
+        <v>42.2</v>
       </c>
       <c r="F43" t="n">
-        <v>64125</v>
+        <v>63300.00000000001</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-330</v>
+        <v>-1154.999999999993</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.51</v>
+        <v>-1.79</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.1492</v>
+        <v>3.1382</v>
       </c>
       <c r="F2" t="n">
-        <v>2329.431748</v>
+        <v>2321.295158</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>459.199552</v>
+        <v>451.062962</v>
       </c>
       <c r="J2" t="n">
-        <v>24.55</v>
+        <v>24.12</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.3152</v>
+        <v>3.307</v>
       </c>
       <c r="F3" t="n">
-        <v>1075.185664</v>
+        <v>1072.52624</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>75.24223999999981</v>
+        <v>72.58281599999987</v>
       </c>
       <c r="J3" t="n">
-        <v>7.52</v>
+        <v>7.26</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2885</v>
+        <v>1.282</v>
       </c>
       <c r="F4" t="n">
-        <v>7344.45</v>
+        <v>7307.400000000001</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1923.75</v>
+        <v>1886.700000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>35.49</v>
+        <v>34.81</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0552</v>
+        <v>2.0544</v>
       </c>
       <c r="F5" t="n">
-        <v>2437.323336</v>
+        <v>2436.374592</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>37.3567950000006</v>
+        <v>36.40805099999989</v>
       </c>
       <c r="J5" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4505</v>
+        <v>1.4559</v>
       </c>
       <c r="F6" t="n">
-        <v>2461.919145</v>
+        <v>2471.084511</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-38.01929599999994</v>
+        <v>-28.85392999999976</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.52</v>
+        <v>-1.15</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4505</v>
+        <v>1.4559</v>
       </c>
       <c r="F7" t="n">
-        <v>5213.24205</v>
+        <v>5232.650189999999</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-106.7447700000002</v>
+        <v>-87.3366300000007</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.01</v>
+        <v>-1.64</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8046</v>
+        <v>1.7721</v>
       </c>
       <c r="F8" t="n">
-        <v>23279.34</v>
+        <v>22860.09</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3980.939999999999</v>
+        <v>3561.689999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>20.63</v>
+        <v>18.46</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9446</v>
+        <v>2.945</v>
       </c>
       <c r="F9" t="n">
-        <v>891.654326</v>
+        <v>891.77545</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>142.714353</v>
+        <v>142.835477</v>
       </c>
       <c r="J9" t="n">
-        <v>19.06</v>
+        <v>19.07</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1224</v>
+        <v>2.118</v>
       </c>
       <c r="F10" t="n">
-        <v>2208.208632</v>
+        <v>2203.63074</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>208.1900429999998</v>
+        <v>203.612151</v>
       </c>
       <c r="J10" t="n">
-        <v>10.41</v>
+        <v>10.18</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5879</v>
+        <v>1.584</v>
       </c>
       <c r="F11" t="n">
-        <v>6569.507517</v>
+        <v>6553.372319999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>590.3827209999999</v>
+        <v>574.2475239999994</v>
       </c>
       <c r="J11" t="n">
-        <v>9.869999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5879</v>
+        <v>1.584</v>
       </c>
       <c r="F12" t="n">
-        <v>9549.741753</v>
+        <v>9526.28688</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>449.852436000001</v>
+        <v>426.3975630000004</v>
       </c>
       <c r="J12" t="n">
-        <v>4.94</v>
+        <v>4.69</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2969</v>
+        <v>2.297</v>
       </c>
       <c r="F15" t="n">
-        <v>21361.17</v>
+        <v>21362.1</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,7 +4712,7 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1914.869999999999</v>
+        <v>1915.800000000003</v>
       </c>
       <c r="J15" t="n">
         <v>9.85</v>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.23</v>
+        <v>27.27</v>
       </c>
       <c r="F16" t="n">
-        <v>13615</v>
+        <v>13635</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-200</v>
+        <v>-180</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.45</v>
+        <v>-1.3</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.92</v>
+        <v>9.09</v>
       </c>
       <c r="F17" t="n">
-        <v>17840</v>
+        <v>18180</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="J17" t="n">
-        <v>0.45</v>
+        <v>2.36</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1006</v>
+        <v>1.0975</v>
       </c>
       <c r="F18" t="n">
-        <v>4323.365914</v>
+        <v>4311.188525</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>16.89121700000032</v>
+        <v>4.713827999999921</v>
       </c>
       <c r="J18" t="n">
-        <v>0.39</v>
+        <v>0.11</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5724</v>
+        <v>1.5673</v>
       </c>
       <c r="F19" t="n">
-        <v>13679.88</v>
+        <v>13635.51</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>220.9800000000014</v>
+        <v>176.6099999999988</v>
       </c>
       <c r="J19" t="n">
-        <v>1.64</v>
+        <v>1.31</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2799</v>
+        <v>1.2807</v>
       </c>
       <c r="F20" t="n">
-        <v>10144.308214</v>
+        <v>10150.648902</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>144.2506520000006</v>
+        <v>150.591339999999</v>
       </c>
       <c r="J20" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1685</v>
+        <v>1.1611</v>
       </c>
       <c r="F21" t="n">
-        <v>13204.05</v>
+        <v>13120.43</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>570.6500000000015</v>
+        <v>487.0300000000007</v>
       </c>
       <c r="J21" t="n">
-        <v>4.52</v>
+        <v>3.86</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5898</v>
+        <v>1.5909</v>
       </c>
       <c r="F22" t="n">
-        <v>848.778322</v>
+        <v>849.365601</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>119.644749</v>
+        <v>120.232028</v>
       </c>
       <c r="J22" t="n">
-        <v>16.41</v>
+        <v>16.49</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5898</v>
+        <v>1.5909</v>
       </c>
       <c r="F23" t="n">
-        <v>20542.982252</v>
+        <v>20557.196166</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1342.568786</v>
+        <v>1356.782699999996</v>
       </c>
       <c r="J23" t="n">
-        <v>6.99</v>
+        <v>7.07</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4226</v>
+        <v>1.4235</v>
       </c>
       <c r="F24" t="n">
-        <v>930.8356320000001</v>
+        <v>931.42452</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>130.8640000000001</v>
+        <v>131.452888</v>
       </c>
       <c r="J24" t="n">
-        <v>16.36</v>
+        <v>16.43</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7443</v>
+        <v>5.7488</v>
       </c>
       <c r="F26" t="n">
-        <v>2385.837562</v>
+        <v>2387.706592</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>285.8369879999996</v>
+        <v>287.7060179999999</v>
       </c>
       <c r="J26" t="n">
-        <v>13.61</v>
+        <v>13.7</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8426</v>
+        <v>1.8438</v>
       </c>
       <c r="F28" t="n">
-        <v>7110.224880000001</v>
+        <v>7114.855440000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>810.3480000000009</v>
+        <v>814.9785600000014</v>
       </c>
       <c r="J28" t="n">
-        <v>12.86</v>
+        <v>12.94</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8426</v>
+        <v>1.8438</v>
       </c>
       <c r="F29" t="n">
-        <v>16047.737754</v>
+        <v>16058.188902</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1047.727587000001</v>
+        <v>1058.178735000001</v>
       </c>
       <c r="J29" t="n">
-        <v>6.98</v>
+        <v>7.05</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9057</v>
+        <v>1.8958</v>
       </c>
       <c r="F30" t="n">
-        <v>10020.342113</v>
+        <v>9968.287022</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1139.953912000001</v>
+        <v>1087.898821000001</v>
       </c>
       <c r="J30" t="n">
-        <v>12.84</v>
+        <v>12.25</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9057</v>
+        <v>1.8958</v>
       </c>
       <c r="F31" t="n">
-        <v>1284.956339</v>
+        <v>1278.281066</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>84.95801999999981</v>
+        <v>78.28274699999997</v>
       </c>
       <c r="J31" t="n">
-        <v>7.08</v>
+        <v>6.52</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.233</v>
+        <v>2.2377</v>
       </c>
       <c r="F33" t="n">
-        <v>13621.3</v>
+        <v>13649.97</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1348.1</v>
+        <v>1376.769999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>10.98</v>
+        <v>11.22</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7978</v>
+        <v>1.7991</v>
       </c>
       <c r="F34" t="n">
-        <v>34337.98</v>
+        <v>34362.81</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3166.780000000002</v>
+        <v>3191.609999999997</v>
       </c>
       <c r="J34" t="n">
-        <v>10.16</v>
+        <v>10.24</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8264</v>
+        <v>5.7467</v>
       </c>
       <c r="F35" t="n">
-        <v>35461.68443199999</v>
+        <v>34976.599946</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2261.698807999994</v>
+        <v>1776.614322000001</v>
       </c>
       <c r="J35" t="n">
-        <v>6.81</v>
+        <v>5.35</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.8264</v>
+        <v>5.7467</v>
       </c>
       <c r="F36" t="n">
-        <v>12042.353104</v>
+        <v>11877.624362</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>742.416111999999</v>
+        <v>577.6873699999996</v>
       </c>
       <c r="J36" t="n">
-        <v>6.57</v>
+        <v>5.11</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.8264</v>
+        <v>5.7467</v>
       </c>
       <c r="F37" t="n">
-        <v>87396</v>
+        <v>86200.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>4101</v>
+        <v>2905.5</v>
       </c>
       <c r="J37" t="n">
-        <v>4.92</v>
+        <v>3.49</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3762</v>
+        <v>2.3801</v>
       </c>
       <c r="F38" t="n">
-        <v>17283.076842</v>
+        <v>17311.443141</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1483.048298999998</v>
+        <v>1511.414597999999</v>
       </c>
       <c r="J38" t="n">
-        <v>9.390000000000001</v>
+        <v>9.57</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3762</v>
+        <v>2.3801</v>
       </c>
       <c r="F39" t="n">
-        <v>24778.799742</v>
+        <v>24819.468591</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1779.001445999998</v>
+        <v>1819.670295</v>
       </c>
       <c r="J39" t="n">
-        <v>7.73</v>
+        <v>7.91</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9132</v>
+        <v>1.9174</v>
       </c>
       <c r="F40" t="n">
-        <v>12818.44</v>
+        <v>12846.58</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2366.440000000001</v>
+        <v>2394.58</v>
       </c>
       <c r="J40" t="n">
-        <v>22.64</v>
+        <v>22.91</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.74</v>
+        <v>7.69</v>
       </c>
       <c r="F41" t="n">
-        <v>7740</v>
+        <v>7690</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="J41" t="n">
-        <v>8.880000000000001</v>
+        <v>8.17</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.47</v>
+        <v>7.42</v>
       </c>
       <c r="F42" t="n">
-        <v>8217</v>
+        <v>8162</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1632.4</v>
+        <v>1577.4</v>
       </c>
       <c r="J42" t="n">
-        <v>24.79</v>
+        <v>23.96</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>42.2</v>
+        <v>41.54</v>
       </c>
       <c r="F43" t="n">
-        <v>63300.00000000001</v>
+        <v>62310</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-1154.999999999993</v>
+        <v>-2145</v>
       </c>
       <c r="J43" t="n">
-        <v>-1.79</v>
+        <v>-3.33</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.1382</v>
+        <v>3.1598</v>
       </c>
       <c r="F2" t="n">
-        <v>2321.295158</v>
+        <v>2337.272462</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>451.062962</v>
+        <v>467.0402660000004</v>
       </c>
       <c r="J2" t="n">
-        <v>24.12</v>
+        <v>24.97</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.282</v>
+        <v>1.2933</v>
       </c>
       <c r="F4" t="n">
-        <v>7307.400000000001</v>
+        <v>7371.809999999999</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1886.700000000001</v>
+        <v>1951.11</v>
       </c>
       <c r="J4" t="n">
-        <v>34.81</v>
+        <v>35.99</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4559</v>
+        <v>1.4429</v>
       </c>
       <c r="F6" t="n">
-        <v>2471.084511</v>
+        <v>2449.019741</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-28.85392999999976</v>
+        <v>-50.91869999999972</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.15</v>
+        <v>-2.04</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4559</v>
+        <v>1.4429</v>
       </c>
       <c r="F7" t="n">
-        <v>5232.650189999999</v>
+        <v>5185.92689</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-87.3366300000007</v>
+        <v>-134.0599300000003</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.64</v>
+        <v>-2.52</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7721</v>
+        <v>1.792</v>
       </c>
       <c r="F8" t="n">
-        <v>22860.09</v>
+        <v>23116.8</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3561.689999999999</v>
+        <v>3818.399999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>18.46</v>
+        <v>19.79</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.118</v>
+        <v>2.1169</v>
       </c>
       <c r="F10" t="n">
-        <v>2203.63074</v>
+        <v>2202.486267</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>203.612151</v>
+        <v>202.4676779999998</v>
       </c>
       <c r="J10" t="n">
-        <v>10.18</v>
+        <v>10.12</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0975</v>
+        <v>1.1028</v>
       </c>
       <c r="F18" t="n">
-        <v>4311.188525</v>
+        <v>4332.007932</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>4.713827999999921</v>
+        <v>25.53323500000079</v>
       </c>
       <c r="J18" t="n">
-        <v>0.11</v>
+        <v>0.59</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5673</v>
+        <v>1.5726</v>
       </c>
       <c r="F19" t="n">
-        <v>13635.51</v>
+        <v>13681.62</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>176.6099999999988</v>
+        <v>222.7200000000012</v>
       </c>
       <c r="J19" t="n">
-        <v>1.31</v>
+        <v>1.65</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2807</v>
+        <v>1.2844</v>
       </c>
       <c r="F20" t="n">
-        <v>10150.648902</v>
+        <v>10179.974584</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>150.591339999999</v>
+        <v>179.9170219999996</v>
       </c>
       <c r="J20" t="n">
-        <v>1.51</v>
+        <v>1.8</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1611</v>
+        <v>1.1616</v>
       </c>
       <c r="F21" t="n">
-        <v>13120.43</v>
+        <v>13126.08</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>487.0300000000007</v>
+        <v>492.6800000000003</v>
       </c>
       <c r="J21" t="n">
-        <v>3.86</v>
+        <v>3.9</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5909</v>
+        <v>1.5825</v>
       </c>
       <c r="F22" t="n">
-        <v>849.365601</v>
+        <v>844.8809249999999</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>120.232028</v>
+        <v>115.747352</v>
       </c>
       <c r="J22" t="n">
-        <v>16.49</v>
+        <v>15.87</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5909</v>
+        <v>1.5825</v>
       </c>
       <c r="F23" t="n">
-        <v>20557.196166</v>
+        <v>20448.65355</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1356.782699999996</v>
+        <v>1248.240083999997</v>
       </c>
       <c r="J23" t="n">
-        <v>7.07</v>
+        <v>6.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4235</v>
+        <v>1.4154</v>
       </c>
       <c r="F24" t="n">
-        <v>931.42452</v>
+        <v>926.1245280000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>131.452888</v>
+        <v>126.1528960000001</v>
       </c>
       <c r="J24" t="n">
-        <v>16.43</v>
+        <v>15.77</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7488</v>
+        <v>5.7163</v>
       </c>
       <c r="F26" t="n">
-        <v>2387.706592</v>
+        <v>2374.208042</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>287.7060179999999</v>
+        <v>274.2074680000001</v>
       </c>
       <c r="J26" t="n">
-        <v>13.7</v>
+        <v>13.06</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8438</v>
+        <v>1.834</v>
       </c>
       <c r="F28" t="n">
-        <v>7114.855440000001</v>
+        <v>7077.039200000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>814.9785600000014</v>
+        <v>777.1623200000013</v>
       </c>
       <c r="J28" t="n">
-        <v>12.94</v>
+        <v>12.34</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8438</v>
+        <v>1.834</v>
       </c>
       <c r="F29" t="n">
-        <v>16058.188902</v>
+        <v>15972.83786</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1058.178735000001</v>
+        <v>972.8276930000011</v>
       </c>
       <c r="J29" t="n">
-        <v>7.05</v>
+        <v>6.49</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2377</v>
+        <v>2.2222</v>
       </c>
       <c r="F33" t="n">
-        <v>13649.97</v>
+        <v>13555.42</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1376.769999999999</v>
+        <v>1282.219999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>11.22</v>
+        <v>10.45</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7991</v>
+        <v>1.789</v>
       </c>
       <c r="F34" t="n">
-        <v>34362.81</v>
+        <v>34169.9</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3191.609999999997</v>
+        <v>2998.700000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>10.24</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3801</v>
+        <v>2.3536</v>
       </c>
       <c r="F38" t="n">
-        <v>17311.443141</v>
+        <v>17118.697776</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1511.414597999999</v>
+        <v>1318.669233000001</v>
       </c>
       <c r="J38" t="n">
-        <v>9.57</v>
+        <v>8.35</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3801</v>
+        <v>2.3536</v>
       </c>
       <c r="F39" t="n">
-        <v>24819.468591</v>
+        <v>24543.128976</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1819.670295</v>
+        <v>1543.330679999999</v>
       </c>
       <c r="J39" t="n">
-        <v>7.91</v>
+        <v>6.71</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9174</v>
+        <v>1.895</v>
       </c>
       <c r="F40" t="n">
-        <v>12846.58</v>
+        <v>12696.5</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2394.58</v>
+        <v>2244.5</v>
       </c>
       <c r="J40" t="n">
-        <v>22.91</v>
+        <v>21.47</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.307</v>
+        <v>3.3417</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.52624</v>
+        <v>1083.780144</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>72.58281599999987</v>
+        <v>83.83671999999979</v>
       </c>
       <c r="J3" t="n">
-        <v>7.26</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.945</v>
+        <v>2.9603</v>
       </c>
       <c r="F9" t="n">
-        <v>891.77545</v>
+        <v>896.408443</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>142.835477</v>
+        <v>147.46847</v>
       </c>
       <c r="J9" t="n">
-        <v>19.07</v>
+        <v>19.69</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.297</v>
+        <v>2.3093</v>
       </c>
       <c r="F15" t="n">
-        <v>21362.1</v>
+        <v>21476.49</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1915.800000000003</v>
+        <v>2030.189999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>9.85</v>
+        <v>10.44</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.27</v>
+        <v>27.29</v>
       </c>
       <c r="F16" t="n">
-        <v>13635</v>
+        <v>13645</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-180</v>
+        <v>-170</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.3</v>
+        <v>-1.23</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>9.09</v>
+        <v>9.07</v>
       </c>
       <c r="F17" t="n">
-        <v>18180</v>
+        <v>18140</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="J17" t="n">
-        <v>2.36</v>
+        <v>2.14</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8958</v>
+        <v>1.9123</v>
       </c>
       <c r="F30" t="n">
-        <v>9968.287022</v>
+        <v>10055.045507</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1087.898821000001</v>
+        <v>1174.657306000001</v>
       </c>
       <c r="J30" t="n">
-        <v>12.25</v>
+        <v>13.23</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8958</v>
+        <v>1.9123</v>
       </c>
       <c r="F31" t="n">
-        <v>1278.281066</v>
+        <v>1289.406521</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>78.28274699999997</v>
+        <v>89.40820200000007</v>
       </c>
       <c r="J31" t="n">
-        <v>6.52</v>
+        <v>7.45</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.7467</v>
+        <v>5.7949</v>
       </c>
       <c r="F35" t="n">
-        <v>34976.599946</v>
+        <v>35269.963462</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1776.614322000001</v>
+        <v>2069.977837999999</v>
       </c>
       <c r="J35" t="n">
-        <v>5.35</v>
+        <v>6.23</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.7467</v>
+        <v>5.7949</v>
       </c>
       <c r="F36" t="n">
-        <v>11877.624362</v>
+        <v>11977.247014</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>577.6873699999996</v>
+        <v>677.3100219999997</v>
       </c>
       <c r="J36" t="n">
-        <v>5.11</v>
+        <v>5.99</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.7467</v>
+        <v>5.7949</v>
       </c>
       <c r="F37" t="n">
-        <v>86200.5</v>
+        <v>86923.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>2905.5</v>
+        <v>3628.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.49</v>
+        <v>4.36</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="F41" t="n">
-        <v>7690</v>
+        <v>7700</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="J41" t="n">
-        <v>8.17</v>
+        <v>8.31</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.42</v>
+        <v>7.38</v>
       </c>
       <c r="F42" t="n">
-        <v>8162</v>
+        <v>8118</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1577.4</v>
+        <v>1533.4</v>
       </c>
       <c r="J42" t="n">
-        <v>23.96</v>
+        <v>23.29</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.54</v>
+        <v>41.3</v>
       </c>
       <c r="F43" t="n">
-        <v>62310</v>
+        <v>61949.99999999999</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-2145</v>
+        <v>-2505.000000000007</v>
       </c>
       <c r="J43" t="n">
-        <v>-3.33</v>
+        <v>-3.89</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.1598</v>
+        <v>3.2213</v>
       </c>
       <c r="F2" t="n">
-        <v>2337.272462</v>
+        <v>2382.763397</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>467.0402660000004</v>
+        <v>512.5312010000002</v>
       </c>
       <c r="J2" t="n">
-        <v>24.97</v>
+        <v>27.4</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.3417</v>
+        <v>3.4017</v>
       </c>
       <c r="F3" t="n">
-        <v>1083.780144</v>
+        <v>1103.239344</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>83.83671999999979</v>
+        <v>103.2959199999998</v>
       </c>
       <c r="J3" t="n">
-        <v>8.380000000000001</v>
+        <v>10.33</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2933</v>
+        <v>1.308</v>
       </c>
       <c r="F4" t="n">
-        <v>7371.809999999999</v>
+        <v>7455.6</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1951.11</v>
+        <v>2034.900000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>35.99</v>
+        <v>37.54</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0544</v>
+        <v>2.0671</v>
       </c>
       <c r="F5" t="n">
-        <v>2436.374592</v>
+        <v>2451.435903</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>36.40805099999989</v>
+        <v>51.46936200000027</v>
       </c>
       <c r="J5" t="n">
-        <v>1.52</v>
+        <v>2.14</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4429</v>
+        <v>1.4291</v>
       </c>
       <c r="F6" t="n">
-        <v>2449.019741</v>
+        <v>2425.597139</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-50.91869999999972</v>
+        <v>-74.34130199999981</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.04</v>
+        <v>-2.97</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4429</v>
+        <v>1.4291</v>
       </c>
       <c r="F7" t="n">
-        <v>5185.92689</v>
+        <v>5136.32831</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-134.0599300000003</v>
+        <v>-183.6585100000002</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.52</v>
+        <v>-3.45</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.792</v>
+        <v>1.7828</v>
       </c>
       <c r="F8" t="n">
-        <v>23116.8</v>
+        <v>22998.12</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3818.399999999998</v>
+        <v>3699.719999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>19.79</v>
+        <v>19.17</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9603</v>
+        <v>2.964</v>
       </c>
       <c r="F9" t="n">
-        <v>896.408443</v>
+        <v>897.5288399999999</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>147.46847</v>
+        <v>148.5888669999999</v>
       </c>
       <c r="J9" t="n">
-        <v>19.69</v>
+        <v>19.84</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1169</v>
+        <v>2.1276</v>
       </c>
       <c r="F10" t="n">
-        <v>2202.486267</v>
+        <v>2213.618868</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>202.4676779999998</v>
+        <v>213.6002790000005</v>
       </c>
       <c r="J10" t="n">
-        <v>10.12</v>
+        <v>10.68</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.584</v>
+        <v>1.5917</v>
       </c>
       <c r="F11" t="n">
-        <v>6553.372319999999</v>
+        <v>6585.228990999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>574.2475239999994</v>
+        <v>606.104194999999</v>
       </c>
       <c r="J11" t="n">
-        <v>9.6</v>
+        <v>10.14</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.584</v>
+        <v>1.5917</v>
       </c>
       <c r="F12" t="n">
-        <v>9526.28688</v>
+        <v>9572.595218999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>426.3975630000004</v>
+        <v>472.7059019999997</v>
       </c>
       <c r="J12" t="n">
-        <v>4.69</v>
+        <v>5.19</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.3093</v>
+        <v>2.312</v>
       </c>
       <c r="F15" t="n">
-        <v>21476.49</v>
+        <v>21501.6</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2030.189999999999</v>
+        <v>2055.299999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>10.44</v>
+        <v>10.57</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.29</v>
+        <v>27.45</v>
       </c>
       <c r="F16" t="n">
-        <v>13645</v>
+        <v>13725</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-170</v>
+        <v>-90</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.23</v>
+        <v>-0.65</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>9.07</v>
+        <v>9.25</v>
       </c>
       <c r="F17" t="n">
-        <v>18140</v>
+        <v>18500</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>380</v>
+        <v>740</v>
       </c>
       <c r="J17" t="n">
-        <v>2.14</v>
+        <v>4.17</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1028</v>
+        <v>1.1022</v>
       </c>
       <c r="F18" t="n">
-        <v>4332.007932</v>
+        <v>4329.651018</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>25.53323500000079</v>
+        <v>23.17632100000083</v>
       </c>
       <c r="J18" t="n">
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5726</v>
+        <v>1.578</v>
       </c>
       <c r="F19" t="n">
-        <v>13681.62</v>
+        <v>13728.6</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>222.7200000000012</v>
+        <v>269.7000000000007</v>
       </c>
       <c r="J19" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2844</v>
+        <v>1.2841</v>
       </c>
       <c r="F20" t="n">
-        <v>10179.974584</v>
+        <v>10177.596826</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>179.9170219999996</v>
+        <v>177.5392639999991</v>
       </c>
       <c r="J20" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1616</v>
+        <v>1.1637</v>
       </c>
       <c r="F21" t="n">
-        <v>13126.08</v>
+        <v>13149.81</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>492.6800000000003</v>
+        <v>516.4099999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>3.9</v>
+        <v>4.09</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5825</v>
+        <v>1.5961</v>
       </c>
       <c r="F22" t="n">
-        <v>844.8809249999999</v>
+        <v>852.141829</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>115.747352</v>
+        <v>123.0082560000001</v>
       </c>
       <c r="J22" t="n">
-        <v>15.87</v>
+        <v>16.87</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5825</v>
+        <v>1.5961</v>
       </c>
       <c r="F23" t="n">
-        <v>20448.65355</v>
+        <v>20624.389214</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1248.240083999997</v>
+        <v>1423.975747999997</v>
       </c>
       <c r="J23" t="n">
-        <v>6.5</v>
+        <v>7.42</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4154</v>
+        <v>1.4282</v>
       </c>
       <c r="F24" t="n">
-        <v>926.1245280000001</v>
+        <v>934.499824</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>126.1528960000001</v>
+        <v>134.528192</v>
       </c>
       <c r="J24" t="n">
-        <v>15.77</v>
+        <v>16.82</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7163</v>
+        <v>5.7692</v>
       </c>
       <c r="F26" t="n">
-        <v>2374.208042</v>
+        <v>2396.179528</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>274.2074680000001</v>
+        <v>296.1789539999995</v>
       </c>
       <c r="J26" t="n">
-        <v>13.06</v>
+        <v>14.1</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.834</v>
+        <v>1.85</v>
       </c>
       <c r="F28" t="n">
-        <v>7077.039200000001</v>
+        <v>7138.780000000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>777.1623200000013</v>
+        <v>838.9031200000009</v>
       </c>
       <c r="J28" t="n">
-        <v>12.34</v>
+        <v>13.32</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.834</v>
+        <v>1.85</v>
       </c>
       <c r="F29" t="n">
-        <v>15972.83786</v>
+        <v>16112.1865</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>972.8276930000011</v>
+        <v>1112.176333000001</v>
       </c>
       <c r="J29" t="n">
-        <v>6.49</v>
+        <v>7.41</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9123</v>
+        <v>1.9132</v>
       </c>
       <c r="F30" t="n">
-        <v>10055.045507</v>
+        <v>10059.777788</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1174.657306000001</v>
+        <v>1179.389587000001</v>
       </c>
       <c r="J30" t="n">
-        <v>13.23</v>
+        <v>13.28</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9123</v>
+        <v>1.9132</v>
       </c>
       <c r="F31" t="n">
-        <v>1289.406521</v>
+        <v>1290.013364</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>89.40820200000007</v>
+        <v>90.01504499999987</v>
       </c>
       <c r="J31" t="n">
-        <v>7.45</v>
+        <v>7.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2222</v>
+        <v>2.2445</v>
       </c>
       <c r="F33" t="n">
-        <v>13555.42</v>
+        <v>13691.45</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1282.219999999999</v>
+        <v>1418.249999999998</v>
       </c>
       <c r="J33" t="n">
-        <v>10.45</v>
+        <v>11.56</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.789</v>
+        <v>1.8054</v>
       </c>
       <c r="F34" t="n">
-        <v>34169.9</v>
+        <v>34483.14</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2998.700000000001</v>
+        <v>3311.939999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>9.619999999999999</v>
+        <v>10.62</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.7949</v>
+        <v>5.811</v>
       </c>
       <c r="F35" t="n">
-        <v>35269.963462</v>
+        <v>35367.95418</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2069.977837999999</v>
+        <v>2167.968556</v>
       </c>
       <c r="J35" t="n">
-        <v>6.23</v>
+        <v>6.53</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.7949</v>
+        <v>5.811</v>
       </c>
       <c r="F36" t="n">
-        <v>11977.247014</v>
+        <v>12010.52346</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>677.3100219999997</v>
+        <v>710.5864679999995</v>
       </c>
       <c r="J36" t="n">
-        <v>5.99</v>
+        <v>6.29</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.7949</v>
+        <v>5.811</v>
       </c>
       <c r="F37" t="n">
-        <v>86923.5</v>
+        <v>87165</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>3628.5</v>
+        <v>3870</v>
       </c>
       <c r="J37" t="n">
-        <v>4.36</v>
+        <v>4.65</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3536</v>
+        <v>2.377</v>
       </c>
       <c r="F38" t="n">
-        <v>17118.697776</v>
+        <v>17288.89557</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1318.669233000001</v>
+        <v>1488.867026999997</v>
       </c>
       <c r="J38" t="n">
-        <v>8.35</v>
+        <v>9.42</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3536</v>
+        <v>2.377</v>
       </c>
       <c r="F39" t="n">
-        <v>24543.128976</v>
+        <v>24787.14207</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1543.330679999999</v>
+        <v>1787.343773999997</v>
       </c>
       <c r="J39" t="n">
-        <v>6.71</v>
+        <v>7.77</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.895</v>
+        <v>1.9158</v>
       </c>
       <c r="F40" t="n">
-        <v>12696.5</v>
+        <v>12835.86</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2244.5</v>
+        <v>2383.859999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>21.47</v>
+        <v>22.81</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.7</v>
+        <v>7.75</v>
       </c>
       <c r="F41" t="n">
-        <v>7700</v>
+        <v>7750</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>591</v>
+        <v>641</v>
       </c>
       <c r="J41" t="n">
-        <v>8.31</v>
+        <v>9.02</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.38</v>
+        <v>7.5</v>
       </c>
       <c r="F42" t="n">
-        <v>8118</v>
+        <v>8250</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1533.4</v>
+        <v>1665.4</v>
       </c>
       <c r="J42" t="n">
-        <v>23.29</v>
+        <v>25.29</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="F43" t="n">
-        <v>61949.99999999999</v>
+        <v>61800.00000000001</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-2505.000000000007</v>
+        <v>-2654.999999999993</v>
       </c>
       <c r="J43" t="n">
-        <v>-3.89</v>
+        <v>-4.12</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.2213</v>
+        <v>3.2262</v>
       </c>
       <c r="F2" t="n">
-        <v>2382.763397</v>
+        <v>2386.387878</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>512.5312010000002</v>
+        <v>516.1556820000001</v>
       </c>
       <c r="J2" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.4017</v>
+        <v>3.4303</v>
       </c>
       <c r="F3" t="n">
-        <v>1103.239344</v>
+        <v>1112.514896</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>103.2959199999998</v>
+        <v>112.5714719999999</v>
       </c>
       <c r="J3" t="n">
-        <v>10.33</v>
+        <v>11.26</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.308</v>
+        <v>1.2976</v>
       </c>
       <c r="F4" t="n">
-        <v>7455.6</v>
+        <v>7396.320000000001</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2034.900000000001</v>
+        <v>1975.620000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>37.54</v>
+        <v>36.45</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4291</v>
+        <v>1.4279</v>
       </c>
       <c r="F6" t="n">
-        <v>2425.597139</v>
+        <v>2423.560391</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-74.34130199999981</v>
+        <v>-76.3780499999998</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.97</v>
+        <v>-3.06</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4291</v>
+        <v>1.4279</v>
       </c>
       <c r="F7" t="n">
-        <v>5136.32831</v>
+        <v>5132.01539</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-183.6585100000002</v>
+        <v>-187.9714300000005</v>
       </c>
       <c r="J7" t="n">
-        <v>-3.45</v>
+        <v>-3.53</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7828</v>
+        <v>1.8302</v>
       </c>
       <c r="F8" t="n">
-        <v>22998.12</v>
+        <v>23609.58</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3699.719999999998</v>
+        <v>4311.18</v>
       </c>
       <c r="J8" t="n">
-        <v>19.17</v>
+        <v>22.34</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.964</v>
+        <v>2.9583</v>
       </c>
       <c r="F9" t="n">
-        <v>897.5288399999999</v>
+        <v>895.802823</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>148.5888669999999</v>
+        <v>146.86285</v>
       </c>
       <c r="J9" t="n">
-        <v>19.84</v>
+        <v>19.61</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1276</v>
+        <v>2.1304</v>
       </c>
       <c r="F10" t="n">
-        <v>2213.618868</v>
+        <v>2216.532072</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>213.6002790000005</v>
+        <v>216.513483</v>
       </c>
       <c r="J10" t="n">
-        <v>10.68</v>
+        <v>10.83</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5917</v>
+        <v>1.5934</v>
       </c>
       <c r="F11" t="n">
-        <v>6585.228990999999</v>
+        <v>6592.262281999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>606.104194999999</v>
+        <v>613.1374859999987</v>
       </c>
       <c r="J11" t="n">
-        <v>10.14</v>
+        <v>10.25</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5917</v>
+        <v>1.5934</v>
       </c>
       <c r="F12" t="n">
-        <v>9572.595218999999</v>
+        <v>9582.819137999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>472.7059019999997</v>
+        <v>482.9298209999997</v>
       </c>
       <c r="J12" t="n">
-        <v>5.19</v>
+        <v>5.31</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.312</v>
+        <v>2.3072</v>
       </c>
       <c r="F15" t="n">
-        <v>21501.6</v>
+        <v>21456.96</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2055.299999999999</v>
+        <v>2010.66</v>
       </c>
       <c r="J15" t="n">
-        <v>10.57</v>
+        <v>10.34</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>9.25</v>
+        <v>8.99</v>
       </c>
       <c r="F17" t="n">
-        <v>18500</v>
+        <v>17980</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>740</v>
+        <v>220</v>
       </c>
       <c r="J17" t="n">
-        <v>4.17</v>
+        <v>1.24</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1022</v>
+        <v>1.1015</v>
       </c>
       <c r="F18" t="n">
-        <v>4329.651018</v>
+        <v>4326.901285</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>23.17632100000083</v>
+        <v>20.42658800000027</v>
       </c>
       <c r="J18" t="n">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.578</v>
+        <v>1.5727</v>
       </c>
       <c r="F19" t="n">
-        <v>13728.6</v>
+        <v>13682.49</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>269.7000000000007</v>
+        <v>223.5900000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>1.66</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2841</v>
+        <v>1.2912</v>
       </c>
       <c r="F20" t="n">
-        <v>10177.596826</v>
+        <v>10233.870432</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>177.5392639999991</v>
+        <v>233.8128699999997</v>
       </c>
       <c r="J20" t="n">
-        <v>1.78</v>
+        <v>2.34</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1637</v>
+        <v>1.1668</v>
       </c>
       <c r="F21" t="n">
-        <v>13149.81</v>
+        <v>13184.84</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>516.4099999999999</v>
+        <v>551.4400000000005</v>
       </c>
       <c r="J21" t="n">
-        <v>4.09</v>
+        <v>4.36</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5961</v>
+        <v>1.5968</v>
       </c>
       <c r="F22" t="n">
-        <v>852.141829</v>
+        <v>852.515552</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>123.0082560000001</v>
+        <v>123.381979</v>
       </c>
       <c r="J22" t="n">
-        <v>16.87</v>
+        <v>16.92</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5961</v>
+        <v>1.5968</v>
       </c>
       <c r="F23" t="n">
-        <v>20624.389214</v>
+        <v>20633.434432</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1423.975747999997</v>
+        <v>1433.020965999996</v>
       </c>
       <c r="J23" t="n">
-        <v>7.42</v>
+        <v>7.46</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4282</v>
+        <v>1.4294</v>
       </c>
       <c r="F24" t="n">
-        <v>934.499824</v>
+        <v>935.2850080000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>134.528192</v>
+        <v>135.3133760000001</v>
       </c>
       <c r="J24" t="n">
-        <v>16.82</v>
+        <v>16.91</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7692</v>
+        <v>5.7723</v>
       </c>
       <c r="F26" t="n">
-        <v>2396.179528</v>
+        <v>2397.467082</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>296.1789539999995</v>
+        <v>297.466508</v>
       </c>
       <c r="J26" t="n">
-        <v>14.1</v>
+        <v>14.17</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.85</v>
+        <v>1.8509</v>
       </c>
       <c r="F28" t="n">
-        <v>7138.780000000001</v>
+        <v>7142.25292</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>838.9031200000009</v>
+        <v>842.3760400000001</v>
       </c>
       <c r="J28" t="n">
-        <v>13.32</v>
+        <v>13.37</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.85</v>
+        <v>1.8509</v>
       </c>
       <c r="F29" t="n">
-        <v>16112.1865</v>
+        <v>16120.024861</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1112.176333000001</v>
+        <v>1120.014694000001</v>
       </c>
       <c r="J29" t="n">
-        <v>7.41</v>
+        <v>7.47</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9132</v>
+        <v>1.91</v>
       </c>
       <c r="F30" t="n">
-        <v>10059.777788</v>
+        <v>10042.9519</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1179.389587000001</v>
+        <v>1162.563699</v>
       </c>
       <c r="J30" t="n">
-        <v>13.28</v>
+        <v>13.09</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9132</v>
+        <v>1.91</v>
       </c>
       <c r="F31" t="n">
-        <v>1290.013364</v>
+        <v>1287.8557</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>90.01504499999987</v>
+        <v>87.8573809999998</v>
       </c>
       <c r="J31" t="n">
-        <v>7.5</v>
+        <v>7.32</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2445</v>
+        <v>2.2438</v>
       </c>
       <c r="F33" t="n">
-        <v>13691.45</v>
+        <v>13687.18</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1418.249999999998</v>
+        <v>1413.979999999998</v>
       </c>
       <c r="J33" t="n">
-        <v>11.56</v>
+        <v>11.52</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.8054</v>
+        <v>1.8063</v>
       </c>
       <c r="F34" t="n">
-        <v>34483.14</v>
+        <v>34500.33</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3311.939999999999</v>
+        <v>3329.130000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>10.62</v>
+        <v>10.68</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.811</v>
+        <v>5.8032</v>
       </c>
       <c r="F35" t="n">
-        <v>35367.95418</v>
+        <v>35320.48041600001</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2167.968556</v>
+        <v>2120.494792000005</v>
       </c>
       <c r="J35" t="n">
-        <v>6.53</v>
+        <v>6.39</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.811</v>
+        <v>5.8032</v>
       </c>
       <c r="F36" t="n">
-        <v>12010.52346</v>
+        <v>11994.401952</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>710.5864679999995</v>
+        <v>694.4649600000012</v>
       </c>
       <c r="J36" t="n">
-        <v>6.29</v>
+        <v>6.15</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.811</v>
+        <v>5.8032</v>
       </c>
       <c r="F37" t="n">
-        <v>87165</v>
+        <v>87048</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>3870</v>
+        <v>3753</v>
       </c>
       <c r="J37" t="n">
-        <v>4.65</v>
+        <v>4.51</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.377</v>
+        <v>2.3807</v>
       </c>
       <c r="F38" t="n">
-        <v>17288.89557</v>
+        <v>17315.807187</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1488.867026999997</v>
+        <v>1515.778643999998</v>
       </c>
       <c r="J38" t="n">
-        <v>9.42</v>
+        <v>9.59</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.377</v>
+        <v>2.3807</v>
       </c>
       <c r="F39" t="n">
-        <v>24787.14207</v>
+        <v>24825.725337</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1787.343773999997</v>
+        <v>1825.927040999999</v>
       </c>
       <c r="J39" t="n">
-        <v>7.77</v>
+        <v>7.94</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9158</v>
+        <v>1.919</v>
       </c>
       <c r="F40" t="n">
-        <v>12835.86</v>
+        <v>12857.3</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2383.859999999999</v>
+        <v>2405.300000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>22.81</v>
+        <v>23.01</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.75</v>
+        <v>7.79</v>
       </c>
       <c r="F41" t="n">
-        <v>7750</v>
+        <v>7790</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>641</v>
+        <v>681</v>
       </c>
       <c r="J41" t="n">
-        <v>9.02</v>
+        <v>9.58</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.5</v>
+        <v>7.58</v>
       </c>
       <c r="F42" t="n">
-        <v>8250</v>
+        <v>8338</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1665.4</v>
+        <v>1753.4</v>
       </c>
       <c r="J42" t="n">
-        <v>25.29</v>
+        <v>26.63</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.2</v>
+        <v>41.13</v>
       </c>
       <c r="F43" t="n">
-        <v>61800.00000000001</v>
+        <v>61695.00000000001</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-2654.999999999993</v>
+        <v>-2759.999999999993</v>
       </c>
       <c r="J43" t="n">
-        <v>-4.12</v>
+        <v>-4.28</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.2262</v>
+        <v>3.2653</v>
       </c>
       <c r="F2" t="n">
-        <v>2386.387878</v>
+        <v>2415.309757</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>516.1556820000001</v>
+        <v>545.0775610000001</v>
       </c>
       <c r="J2" t="n">
-        <v>27.6</v>
+        <v>29.14</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.4303</v>
+        <v>3.4337</v>
       </c>
       <c r="F3" t="n">
-        <v>1112.514896</v>
+        <v>1113.617584</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>112.5714719999999</v>
+        <v>113.67416</v>
       </c>
       <c r="J3" t="n">
-        <v>11.26</v>
+        <v>11.37</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0671</v>
+        <v>2.0698</v>
       </c>
       <c r="F5" t="n">
-        <v>2451.435903</v>
+        <v>2454.637914</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>51.46936200000027</v>
+        <v>54.67137300000013</v>
       </c>
       <c r="J5" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4279</v>
+        <v>1.4256</v>
       </c>
       <c r="F6" t="n">
-        <v>2423.560391</v>
+        <v>2419.656624</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-76.3780499999998</v>
+        <v>-80.28181700000005</v>
       </c>
       <c r="J6" t="n">
-        <v>-3.06</v>
+        <v>-3.21</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4279</v>
+        <v>1.4256</v>
       </c>
       <c r="F7" t="n">
-        <v>5132.01539</v>
+        <v>5123.74896</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-187.9714300000005</v>
+        <v>-196.2378600000002</v>
       </c>
       <c r="J7" t="n">
-        <v>-3.53</v>
+        <v>-3.69</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8302</v>
+        <v>1.852</v>
       </c>
       <c r="F8" t="n">
-        <v>23609.58</v>
+        <v>23890.8</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4311.18</v>
+        <v>4592.400000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>22.34</v>
+        <v>23.8</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9583</v>
+        <v>2.9441</v>
       </c>
       <c r="F9" t="n">
-        <v>895.802823</v>
+        <v>891.502921</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>146.86285</v>
+        <v>142.562948</v>
       </c>
       <c r="J9" t="n">
-        <v>19.61</v>
+        <v>19.04</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1304</v>
+        <v>2.1266</v>
       </c>
       <c r="F10" t="n">
-        <v>2216.532072</v>
+        <v>2212.578438</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>216.513483</v>
+        <v>212.559849</v>
       </c>
       <c r="J10" t="n">
-        <v>10.83</v>
+        <v>10.63</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5934</v>
+        <v>1.5905</v>
       </c>
       <c r="F11" t="n">
-        <v>6592.262281999999</v>
+        <v>6580.264314999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>613.1374859999987</v>
+        <v>601.1395189999994</v>
       </c>
       <c r="J11" t="n">
-        <v>10.25</v>
+        <v>10.05</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5934</v>
+        <v>1.5905</v>
       </c>
       <c r="F12" t="n">
-        <v>9582.819137999999</v>
+        <v>9565.378334999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>482.9298209999997</v>
+        <v>465.4890180000002</v>
       </c>
       <c r="J12" t="n">
-        <v>5.31</v>
+        <v>5.12</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.3072</v>
+        <v>2.295</v>
       </c>
       <c r="F15" t="n">
-        <v>21456.96</v>
+        <v>21343.5</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2010.66</v>
+        <v>1897.200000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>10.34</v>
+        <v>9.76</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>27.45</v>
+        <v>26.98</v>
       </c>
       <c r="F16" t="n">
-        <v>13725</v>
+        <v>13490</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-90</v>
+        <v>-325</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.65</v>
+        <v>-2.35</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.99</v>
+        <v>8.94</v>
       </c>
       <c r="F17" t="n">
-        <v>17980</v>
+        <v>17880</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="J17" t="n">
-        <v>1.24</v>
+        <v>0.68</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1015</v>
+        <v>1.0942</v>
       </c>
       <c r="F18" t="n">
-        <v>4326.901285</v>
+        <v>4298.225498000001</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>20.42658800000027</v>
+        <v>-8.249198999998953</v>
       </c>
       <c r="J18" t="n">
-        <v>0.47</v>
+        <v>-0.19</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5727</v>
+        <v>1.5621</v>
       </c>
       <c r="F19" t="n">
-        <v>13682.49</v>
+        <v>13590.27</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>223.5900000000001</v>
+        <v>131.3700000000008</v>
       </c>
       <c r="J19" t="n">
-        <v>1.66</v>
+        <v>0.98</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2912</v>
+        <v>1.2898</v>
       </c>
       <c r="F20" t="n">
-        <v>10233.870432</v>
+        <v>10222.774228</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>233.8128699999997</v>
+        <v>222.7166660000003</v>
       </c>
       <c r="J20" t="n">
-        <v>2.34</v>
+        <v>2.23</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1668</v>
+        <v>1.1549</v>
       </c>
       <c r="F21" t="n">
-        <v>13184.84</v>
+        <v>13050.37</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>551.4400000000005</v>
+        <v>416.9700000000012</v>
       </c>
       <c r="J21" t="n">
-        <v>4.36</v>
+        <v>3.3</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5968</v>
+        <v>1.5939</v>
       </c>
       <c r="F22" t="n">
-        <v>852.515552</v>
+        <v>850.967271</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>123.381979</v>
+        <v>121.833698</v>
       </c>
       <c r="J22" t="n">
-        <v>16.92</v>
+        <v>16.71</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5968</v>
+        <v>1.5939</v>
       </c>
       <c r="F23" t="n">
-        <v>20633.434432</v>
+        <v>20595.961386</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1433.020965999996</v>
+        <v>1395.547920000001</v>
       </c>
       <c r="J23" t="n">
-        <v>7.46</v>
+        <v>7.27</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4294</v>
+        <v>1.4271</v>
       </c>
       <c r="F24" t="n">
-        <v>935.2850080000001</v>
+        <v>933.7800720000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>135.3133760000001</v>
+        <v>133.8084400000001</v>
       </c>
       <c r="J24" t="n">
-        <v>16.91</v>
+        <v>16.73</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7723</v>
+        <v>5.7613</v>
       </c>
       <c r="F26" t="n">
-        <v>2397.467082</v>
+        <v>2392.898342</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>297.466508</v>
+        <v>292.8977679999998</v>
       </c>
       <c r="J26" t="n">
-        <v>14.17</v>
+        <v>13.95</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8509</v>
+        <v>1.8477</v>
       </c>
       <c r="F28" t="n">
-        <v>7142.25292</v>
+        <v>7129.90476</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>842.3760400000001</v>
+        <v>830.0278800000006</v>
       </c>
       <c r="J28" t="n">
-        <v>13.37</v>
+        <v>13.18</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8509</v>
+        <v>1.8477</v>
       </c>
       <c r="F29" t="n">
-        <v>16120.024861</v>
+        <v>16092.155133</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1120.014694000001</v>
+        <v>1092.144966</v>
       </c>
       <c r="J29" t="n">
-        <v>7.47</v>
+        <v>7.28</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.91</v>
+        <v>1.8913</v>
       </c>
       <c r="F30" t="n">
-        <v>10042.9519</v>
+        <v>9944.625617</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1162.563699</v>
+        <v>1064.237416</v>
       </c>
       <c r="J30" t="n">
-        <v>13.09</v>
+        <v>11.98</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.91</v>
+        <v>1.8913</v>
       </c>
       <c r="F31" t="n">
-        <v>1287.8557</v>
+        <v>1275.246851</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>87.8573809999998</v>
+        <v>75.24853199999984</v>
       </c>
       <c r="J31" t="n">
-        <v>7.32</v>
+        <v>6.27</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2438</v>
+        <v>2.2404</v>
       </c>
       <c r="F33" t="n">
-        <v>13687.18</v>
+        <v>13666.44</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1413.979999999998</v>
+        <v>1393.24</v>
       </c>
       <c r="J33" t="n">
-        <v>11.52</v>
+        <v>11.35</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.8063</v>
+        <v>1.8029</v>
       </c>
       <c r="F34" t="n">
-        <v>34500.33</v>
+        <v>34435.39</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3329.130000000001</v>
+        <v>3264.189999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>10.68</v>
+        <v>10.47</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8032</v>
+        <v>5.7268</v>
       </c>
       <c r="F35" t="n">
-        <v>35320.48041600001</v>
+        <v>34855.480984</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2120.494792000005</v>
+        <v>1655.495360000001</v>
       </c>
       <c r="J35" t="n">
-        <v>6.39</v>
+        <v>4.99</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.8032</v>
+        <v>5.7268</v>
       </c>
       <c r="F36" t="n">
-        <v>11994.401952</v>
+        <v>11836.493848</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>694.4649600000012</v>
+        <v>536.5568559999992</v>
       </c>
       <c r="J36" t="n">
-        <v>6.15</v>
+        <v>4.75</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.8032</v>
+        <v>5.7268</v>
       </c>
       <c r="F37" t="n">
-        <v>87048</v>
+        <v>85902</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>3753</v>
+        <v>2607</v>
       </c>
       <c r="J37" t="n">
-        <v>4.51</v>
+        <v>3.13</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3807</v>
+        <v>2.3786</v>
       </c>
       <c r="F38" t="n">
-        <v>17315.807187</v>
+        <v>17300.533026</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1515.778643999998</v>
+        <v>1500.504483000001</v>
       </c>
       <c r="J38" t="n">
-        <v>9.59</v>
+        <v>9.5</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3807</v>
+        <v>2.3786</v>
       </c>
       <c r="F39" t="n">
-        <v>24825.725337</v>
+        <v>24803.826726</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1825.927040999999</v>
+        <v>1804.028429999998</v>
       </c>
       <c r="J39" t="n">
-        <v>7.94</v>
+        <v>7.84</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.919</v>
+        <v>1.9176</v>
       </c>
       <c r="F40" t="n">
-        <v>12857.3</v>
+        <v>12847.92</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2405.300000000001</v>
+        <v>2395.92</v>
       </c>
       <c r="J40" t="n">
-        <v>23.01</v>
+        <v>22.92</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.79</v>
+        <v>7.68</v>
       </c>
       <c r="F41" t="n">
-        <v>7790</v>
+        <v>7680</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>681</v>
+        <v>571</v>
       </c>
       <c r="J41" t="n">
-        <v>9.58</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.58</v>
+        <v>7.44</v>
       </c>
       <c r="F42" t="n">
-        <v>8338</v>
+        <v>8184</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1753.4</v>
+        <v>1599.4</v>
       </c>
       <c r="J42" t="n">
-        <v>26.63</v>
+        <v>24.29</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>41.13</v>
+        <v>40.11</v>
       </c>
       <c r="F43" t="n">
-        <v>61695.00000000001</v>
+        <v>60165</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-2759.999999999993</v>
+        <v>-4290</v>
       </c>
       <c r="J43" t="n">
-        <v>-4.28</v>
+        <v>-6.66</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.2653</v>
+        <v>3.254</v>
       </c>
       <c r="F2" t="n">
-        <v>2415.309757</v>
+        <v>2406.95126</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>545.0775610000001</v>
+        <v>536.7190640000003</v>
       </c>
       <c r="J2" t="n">
-        <v>29.14</v>
+        <v>28.7</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.4337</v>
+        <v>3.416</v>
       </c>
       <c r="F3" t="n">
-        <v>1113.617584</v>
+        <v>1107.87712</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>113.67416</v>
+        <v>107.9336959999998</v>
       </c>
       <c r="J3" t="n">
-        <v>11.37</v>
+        <v>10.79</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2976</v>
+        <v>1.3005</v>
       </c>
       <c r="F4" t="n">
-        <v>7396.320000000001</v>
+        <v>7412.85</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1975.620000000001</v>
+        <v>1992.150000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>36.45</v>
+        <v>36.75</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0698</v>
+        <v>2.0615</v>
       </c>
       <c r="F5" t="n">
-        <v>2454.637914</v>
+        <v>2444.794695</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>54.67137300000013</v>
+        <v>44.82815400000027</v>
       </c>
       <c r="J5" t="n">
-        <v>2.28</v>
+        <v>1.87</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4256</v>
+        <v>1.4261</v>
       </c>
       <c r="F6" t="n">
-        <v>2419.656624</v>
+        <v>2420.505269</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-80.28181700000005</v>
+        <v>-79.43317200000001</v>
       </c>
       <c r="J6" t="n">
-        <v>-3.21</v>
+        <v>-3.18</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4256</v>
+        <v>1.4261</v>
       </c>
       <c r="F7" t="n">
-        <v>5123.74896</v>
+        <v>5125.54601</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-196.2378600000002</v>
+        <v>-194.4408100000001</v>
       </c>
       <c r="J7" t="n">
-        <v>-3.69</v>
+        <v>-3.65</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.852</v>
+        <v>1.8522</v>
       </c>
       <c r="F8" t="n">
-        <v>23890.8</v>
+        <v>23893.38</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4592.400000000001</v>
+        <v>4594.98</v>
       </c>
       <c r="J8" t="n">
-        <v>23.8</v>
+        <v>23.81</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9441</v>
+        <v>2.949</v>
       </c>
       <c r="F9" t="n">
-        <v>891.502921</v>
+        <v>892.98669</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>142.562948</v>
+        <v>144.0467169999999</v>
       </c>
       <c r="J9" t="n">
-        <v>19.04</v>
+        <v>19.23</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1266</v>
+        <v>2.1166</v>
       </c>
       <c r="F10" t="n">
-        <v>2212.578438</v>
+        <v>2202.174138</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>212.559849</v>
+        <v>202.1555490000003</v>
       </c>
       <c r="J10" t="n">
-        <v>10.63</v>
+        <v>10.11</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5905</v>
+        <v>1.5826</v>
       </c>
       <c r="F11" t="n">
-        <v>6580.264314999999</v>
+        <v>6547.580198</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>601.1395189999994</v>
+        <v>568.4554019999996</v>
       </c>
       <c r="J11" t="n">
-        <v>10.05</v>
+        <v>9.51</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5905</v>
+        <v>1.5826</v>
       </c>
       <c r="F12" t="n">
-        <v>9565.378334999999</v>
+        <v>9517.867182</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>465.4890180000002</v>
+        <v>417.9778650000007</v>
       </c>
       <c r="J12" t="n">
-        <v>5.12</v>
+        <v>4.59</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.295</v>
+        <v>2.2989</v>
       </c>
       <c r="F15" t="n">
-        <v>21343.5</v>
+        <v>21379.77</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1897.200000000001</v>
+        <v>1933.470000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>9.76</v>
+        <v>9.94</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>26.98</v>
+        <v>26.88</v>
       </c>
       <c r="F16" t="n">
-        <v>13490</v>
+        <v>13440</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-325</v>
+        <v>-375</v>
       </c>
       <c r="J16" t="n">
-        <v>-2.35</v>
+        <v>-2.71</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.94</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>17880</v>
+        <v>17760</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0942</v>
+        <v>1.0762</v>
       </c>
       <c r="F18" t="n">
-        <v>4298.225498000001</v>
+        <v>4227.518078</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-8.249198999998953</v>
+        <v>-78.95661899999959</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.19</v>
+        <v>-1.83</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5621</v>
+        <v>1.5591</v>
       </c>
       <c r="F19" t="n">
-        <v>13590.27</v>
+        <v>13564.17</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>131.3700000000008</v>
+        <v>105.2700000000004</v>
       </c>
       <c r="J19" t="n">
-        <v>0.98</v>
+        <v>0.78</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2898</v>
+        <v>1.2905</v>
       </c>
       <c r="F20" t="n">
-        <v>10222.774228</v>
+        <v>10228.32233</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>222.7166660000003</v>
+        <v>228.2647679999991</v>
       </c>
       <c r="J20" t="n">
-        <v>2.23</v>
+        <v>2.28</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1549</v>
+        <v>1.1519</v>
       </c>
       <c r="F21" t="n">
-        <v>13050.37</v>
+        <v>13016.47</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>416.9700000000012</v>
+        <v>383.0699999999997</v>
       </c>
       <c r="J21" t="n">
-        <v>3.3</v>
+        <v>3.03</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5939</v>
+        <v>1.578</v>
       </c>
       <c r="F22" t="n">
-        <v>850.967271</v>
+        <v>842.47842</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>121.833698</v>
+        <v>113.3448470000001</v>
       </c>
       <c r="J22" t="n">
-        <v>16.71</v>
+        <v>15.55</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5939</v>
+        <v>1.578</v>
       </c>
       <c r="F23" t="n">
-        <v>20595.961386</v>
+        <v>20390.50572</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1395.547920000001</v>
+        <v>1190.092253999999</v>
       </c>
       <c r="J23" t="n">
-        <v>7.27</v>
+        <v>6.2</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4271</v>
+        <v>1.4122</v>
       </c>
       <c r="F24" t="n">
-        <v>933.7800720000001</v>
+        <v>924.030704</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>133.8084400000001</v>
+        <v>124.059072</v>
       </c>
       <c r="J24" t="n">
-        <v>16.73</v>
+        <v>15.51</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7613</v>
+        <v>5.7014</v>
       </c>
       <c r="F26" t="n">
-        <v>2392.898342</v>
+        <v>2368.019475999999</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>292.8977679999998</v>
+        <v>268.0189019999993</v>
       </c>
       <c r="J26" t="n">
-        <v>13.95</v>
+        <v>12.76</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8477</v>
+        <v>1.8293</v>
       </c>
       <c r="F28" t="n">
-        <v>7129.90476</v>
+        <v>7058.90284</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>830.0278800000006</v>
+        <v>759.0259599999999</v>
       </c>
       <c r="J28" t="n">
-        <v>13.18</v>
+        <v>12.05</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8477</v>
+        <v>1.8293</v>
       </c>
       <c r="F29" t="n">
-        <v>16092.155133</v>
+        <v>15931.904197</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1092.144966</v>
+        <v>931.8940300000013</v>
       </c>
       <c r="J29" t="n">
-        <v>7.28</v>
+        <v>6.21</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8913</v>
+        <v>1.8958</v>
       </c>
       <c r="F30" t="n">
-        <v>9944.625617</v>
+        <v>9968.287022</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1064.237416</v>
+        <v>1087.898821000001</v>
       </c>
       <c r="J30" t="n">
-        <v>11.98</v>
+        <v>12.25</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8913</v>
+        <v>1.8958</v>
       </c>
       <c r="F31" t="n">
-        <v>1275.246851</v>
+        <v>1278.281066</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>75.24853199999984</v>
+        <v>78.28274699999997</v>
       </c>
       <c r="J31" t="n">
-        <v>6.27</v>
+        <v>6.52</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2404</v>
+        <v>2.2154</v>
       </c>
       <c r="F33" t="n">
-        <v>13666.44</v>
+        <v>13513.94</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1393.24</v>
+        <v>1240.739999999998</v>
       </c>
       <c r="J33" t="n">
-        <v>11.35</v>
+        <v>10.11</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.8029</v>
+        <v>1.7841</v>
       </c>
       <c r="F34" t="n">
-        <v>34435.39</v>
+        <v>34076.31</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3264.189999999999</v>
+        <v>2905.109999999997</v>
       </c>
       <c r="J34" t="n">
-        <v>10.47</v>
+        <v>9.32</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.7268</v>
+        <v>5.7487</v>
       </c>
       <c r="F35" t="n">
-        <v>34855.480984</v>
+        <v>34988.772706</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1655.495360000001</v>
+        <v>1788.787082000003</v>
       </c>
       <c r="J35" t="n">
-        <v>4.99</v>
+        <v>5.39</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.7268</v>
+        <v>5.7487</v>
       </c>
       <c r="F36" t="n">
-        <v>11836.493848</v>
+        <v>11881.758082</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>536.5568559999992</v>
+        <v>581.8210900000013</v>
       </c>
       <c r="J36" t="n">
-        <v>4.75</v>
+        <v>5.15</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.7268</v>
+        <v>5.7487</v>
       </c>
       <c r="F37" t="n">
-        <v>85902</v>
+        <v>86230.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>2607</v>
+        <v>2935.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.13</v>
+        <v>3.52</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3786</v>
+        <v>2.3473</v>
       </c>
       <c r="F38" t="n">
-        <v>17300.533026</v>
+        <v>17072.875293</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1500.504483000001</v>
+        <v>1272.846750000001</v>
       </c>
       <c r="J38" t="n">
-        <v>9.5</v>
+        <v>8.06</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3786</v>
+        <v>2.3473</v>
       </c>
       <c r="F39" t="n">
-        <v>24803.826726</v>
+        <v>24477.433143</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1804.028429999998</v>
+        <v>1477.634847000001</v>
       </c>
       <c r="J39" t="n">
-        <v>7.84</v>
+        <v>6.42</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9176</v>
+        <v>1.8908</v>
       </c>
       <c r="F40" t="n">
-        <v>12847.92</v>
+        <v>12668.36</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2395.92</v>
+        <v>2216.360000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>22.92</v>
+        <v>21.21</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.68</v>
+        <v>7.67</v>
       </c>
       <c r="F41" t="n">
-        <v>7680</v>
+        <v>7670</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="J41" t="n">
-        <v>8.029999999999999</v>
+        <v>7.89</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.44</v>
+        <v>7.33</v>
       </c>
       <c r="F42" t="n">
-        <v>8184</v>
+        <v>8063</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1599.4</v>
+        <v>1478.4</v>
       </c>
       <c r="J42" t="n">
-        <v>24.29</v>
+        <v>22.45</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>40.11</v>
+        <v>39.49</v>
       </c>
       <c r="F43" t="n">
-        <v>60165</v>
+        <v>59235</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-4290</v>
+        <v>-5220</v>
       </c>
       <c r="J43" t="n">
-        <v>-6.66</v>
+        <v>-8.1</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.254</v>
+        <v>3.2491</v>
       </c>
       <c r="F2" t="n">
-        <v>2406.95126</v>
+        <v>2403.326779</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>536.7190640000003</v>
+        <v>533.0945830000001</v>
       </c>
       <c r="J2" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.3005</v>
+        <v>1.2955</v>
       </c>
       <c r="F4" t="n">
-        <v>7412.85</v>
+        <v>7384.35</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1992.150000000001</v>
+        <v>1963.650000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>36.75</v>
+        <v>36.23</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8522</v>
+        <v>1.8466</v>
       </c>
       <c r="F8" t="n">
-        <v>23893.38</v>
+        <v>23821.14</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4594.98</v>
+        <v>4522.739999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81</v>
+        <v>23.44</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1166</v>
+        <v>2.1216</v>
       </c>
       <c r="F10" t="n">
-        <v>2202.174138</v>
+        <v>2207.376288</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>202.1555490000003</v>
+        <v>207.3576989999999</v>
       </c>
       <c r="J10" t="n">
-        <v>10.11</v>
+        <v>10.37</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5826</v>
+        <v>1.5853</v>
       </c>
       <c r="F11" t="n">
-        <v>6547.580198</v>
+        <v>6558.750718999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>568.4554019999996</v>
+        <v>579.6259229999987</v>
       </c>
       <c r="J11" t="n">
-        <v>9.51</v>
+        <v>9.69</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5826</v>
+        <v>1.5853</v>
       </c>
       <c r="F12" t="n">
-        <v>9517.867182</v>
+        <v>9534.105170999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>417.9778650000007</v>
+        <v>434.215854</v>
       </c>
       <c r="J12" t="n">
-        <v>4.59</v>
+        <v>4.77</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0762</v>
+        <v>1.0719</v>
       </c>
       <c r="F18" t="n">
-        <v>4227.518078</v>
+        <v>4210.626861000001</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-78.95661899999959</v>
+        <v>-95.84783599999901</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.83</v>
+        <v>-2.23</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5591</v>
+        <v>1.5459</v>
       </c>
       <c r="F19" t="n">
-        <v>13564.17</v>
+        <v>13449.33</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>105.2700000000004</v>
+        <v>-9.569999999999709</v>
       </c>
       <c r="J19" t="n">
-        <v>0.78</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2905</v>
+        <v>1.29</v>
       </c>
       <c r="F20" t="n">
-        <v>10228.32233</v>
+        <v>10224.3594</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>228.2647679999991</v>
+        <v>224.3018379999994</v>
       </c>
       <c r="J20" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1519</v>
+        <v>1.1424</v>
       </c>
       <c r="F21" t="n">
-        <v>13016.47</v>
+        <v>12909.12</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>383.0699999999997</v>
+        <v>275.7200000000012</v>
       </c>
       <c r="J21" t="n">
-        <v>3.03</v>
+        <v>2.18</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.578</v>
+        <v>1.5816</v>
       </c>
       <c r="F22" t="n">
-        <v>842.47842</v>
+        <v>844.4004239999999</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>113.3448470000001</v>
+        <v>115.266851</v>
       </c>
       <c r="J22" t="n">
-        <v>15.55</v>
+        <v>15.81</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.578</v>
+        <v>1.5816</v>
       </c>
       <c r="F23" t="n">
-        <v>20390.50572</v>
+        <v>20437.023984</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1190.092253999999</v>
+        <v>1236.610517999998</v>
       </c>
       <c r="J23" t="n">
-        <v>6.2</v>
+        <v>6.44</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4122</v>
+        <v>1.4154</v>
       </c>
       <c r="F24" t="n">
-        <v>924.030704</v>
+        <v>926.1245280000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>124.059072</v>
+        <v>126.1528960000001</v>
       </c>
       <c r="J24" t="n">
-        <v>15.51</v>
+        <v>15.77</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7014</v>
+        <v>5.7153</v>
       </c>
       <c r="F26" t="n">
-        <v>2368.019475999999</v>
+        <v>2373.792702</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>268.0189019999993</v>
+        <v>273.7921279999996</v>
       </c>
       <c r="J26" t="n">
-        <v>12.76</v>
+        <v>13.04</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8293</v>
+        <v>1.8334</v>
       </c>
       <c r="F28" t="n">
-        <v>7058.90284</v>
+        <v>7074.72392</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>759.0259599999999</v>
+        <v>774.8470400000006</v>
       </c>
       <c r="J28" t="n">
-        <v>12.05</v>
+        <v>12.3</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8293</v>
+        <v>1.8334</v>
       </c>
       <c r="F29" t="n">
-        <v>15931.904197</v>
+        <v>15967.612286</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>931.8940300000013</v>
+        <v>967.602119000001</v>
       </c>
       <c r="J29" t="n">
-        <v>6.21</v>
+        <v>6.45</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2154</v>
+        <v>2.2218</v>
       </c>
       <c r="F33" t="n">
-        <v>13513.94</v>
+        <v>13552.98</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1240.739999999998</v>
+        <v>1279.779999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>10.11</v>
+        <v>10.43</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7841</v>
+        <v>1.7884</v>
       </c>
       <c r="F34" t="n">
-        <v>34076.31</v>
+        <v>34158.44</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2905.109999999997</v>
+        <v>2987.240000000002</v>
       </c>
       <c r="J34" t="n">
-        <v>9.32</v>
+        <v>9.58</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3473</v>
+        <v>2.3552</v>
       </c>
       <c r="F38" t="n">
-        <v>17072.875293</v>
+        <v>17130.335232</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1272.846750000001</v>
+        <v>1330.306688999997</v>
       </c>
       <c r="J38" t="n">
-        <v>8.06</v>
+        <v>8.42</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3473</v>
+        <v>2.3552</v>
       </c>
       <c r="F39" t="n">
-        <v>24477.433143</v>
+        <v>24559.813632</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1477.634847000001</v>
+        <v>1560.015335999997</v>
       </c>
       <c r="J39" t="n">
-        <v>6.42</v>
+        <v>6.78</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8908</v>
+        <v>1.8964</v>
       </c>
       <c r="F40" t="n">
-        <v>12668.36</v>
+        <v>12705.88</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2216.360000000001</v>
+        <v>2253.880000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>21.21</v>
+        <v>21.56</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.416</v>
+        <v>3.413</v>
       </c>
       <c r="F3" t="n">
-        <v>1107.87712</v>
+        <v>1106.90416</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>107.9336959999998</v>
+        <v>106.9607359999998</v>
       </c>
       <c r="J3" t="n">
-        <v>10.79</v>
+        <v>10.7</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0615</v>
+        <v>2.0517</v>
       </c>
       <c r="F5" t="n">
-        <v>2444.794695</v>
+        <v>2433.172581</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>44.82815400000027</v>
+        <v>33.20604000000003</v>
       </c>
       <c r="J5" t="n">
-        <v>1.87</v>
+        <v>1.38</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.949</v>
+        <v>2.9478</v>
       </c>
       <c r="F9" t="n">
-        <v>892.98669</v>
+        <v>892.623318</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>144.0467169999999</v>
+        <v>143.683345</v>
       </c>
       <c r="J9" t="n">
-        <v>19.23</v>
+        <v>19.18</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2989</v>
+        <v>2.2978</v>
       </c>
       <c r="F15" t="n">
-        <v>21379.77</v>
+        <v>21369.54</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1933.470000000001</v>
+        <v>1923.240000000002</v>
       </c>
       <c r="J15" t="n">
-        <v>9.94</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>26.88</v>
+        <v>26.61</v>
       </c>
       <c r="F16" t="n">
-        <v>13440</v>
+        <v>13305</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-375</v>
+        <v>-510</v>
       </c>
       <c r="J16" t="n">
-        <v>-2.71</v>
+        <v>-3.69</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.880000000000001</v>
+        <v>8.91</v>
       </c>
       <c r="F17" t="n">
-        <v>17760</v>
+        <v>17820</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8958</v>
+        <v>1.8952</v>
       </c>
       <c r="F30" t="n">
-        <v>9968.287022</v>
+        <v>9965.132168</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1087.898821000001</v>
+        <v>1084.743967</v>
       </c>
       <c r="J30" t="n">
-        <v>12.25</v>
+        <v>12.22</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8958</v>
+        <v>1.8952</v>
       </c>
       <c r="F31" t="n">
-        <v>1278.281066</v>
+        <v>1277.876504</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>78.28274699999997</v>
+        <v>77.87818500000003</v>
       </c>
       <c r="J31" t="n">
-        <v>6.52</v>
+        <v>6.49</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.7487</v>
+        <v>5.7539</v>
       </c>
       <c r="F35" t="n">
-        <v>34988.772706</v>
+        <v>35020.421882</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1788.787082000003</v>
+        <v>1820.436258000002</v>
       </c>
       <c r="J35" t="n">
-        <v>5.39</v>
+        <v>5.48</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.7487</v>
+        <v>5.7539</v>
       </c>
       <c r="F36" t="n">
-        <v>11881.758082</v>
+        <v>11892.505754</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>581.8210900000013</v>
+        <v>592.568761999999</v>
       </c>
       <c r="J36" t="n">
-        <v>5.15</v>
+        <v>5.24</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.7487</v>
+        <v>5.7539</v>
       </c>
       <c r="F37" t="n">
-        <v>86230.5</v>
+        <v>86308.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>2935.5</v>
+        <v>3013.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.52</v>
+        <v>3.62</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.67</v>
+        <v>7.6</v>
       </c>
       <c r="F41" t="n">
-        <v>7670</v>
+        <v>7600</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>561</v>
+        <v>491</v>
       </c>
       <c r="J41" t="n">
-        <v>7.89</v>
+        <v>6.91</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.33</v>
+        <v>7.17</v>
       </c>
       <c r="F42" t="n">
-        <v>8063</v>
+        <v>7887</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1478.4</v>
+        <v>1302.4</v>
       </c>
       <c r="J42" t="n">
-        <v>22.45</v>
+        <v>19.78</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>39.49</v>
+        <v>38.73</v>
       </c>
       <c r="F43" t="n">
-        <v>59235</v>
+        <v>58094.99999999999</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-5220</v>
+        <v>-6360.000000000007</v>
       </c>
       <c r="J43" t="n">
-        <v>-8.1</v>
+        <v>-9.869999999999999</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.2491</v>
+        <v>3.2884</v>
       </c>
       <c r="F2" t="n">
-        <v>2403.326779</v>
+        <v>2432.396596</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>533.0945830000001</v>
+        <v>562.1644000000006</v>
       </c>
       <c r="J2" t="n">
-        <v>28.5</v>
+        <v>30.06</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.413</v>
+        <v>3.4035</v>
       </c>
       <c r="F3" t="n">
-        <v>1106.90416</v>
+        <v>1103.82312</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>106.9607359999998</v>
+        <v>103.879696</v>
       </c>
       <c r="J3" t="n">
-        <v>10.7</v>
+        <v>10.39</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2955</v>
+        <v>1.2991</v>
       </c>
       <c r="F4" t="n">
-        <v>7384.35</v>
+        <v>7404.87</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1963.650000000001</v>
+        <v>1984.17</v>
       </c>
       <c r="J4" t="n">
-        <v>36.23</v>
+        <v>36.6</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4261</v>
+        <v>1.4202</v>
       </c>
       <c r="F6" t="n">
-        <v>2420.505269</v>
+        <v>2410.491258</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-79.43317200000001</v>
+        <v>-89.44718299999977</v>
       </c>
       <c r="J6" t="n">
-        <v>-3.18</v>
+        <v>-3.58</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4261</v>
+        <v>1.4202</v>
       </c>
       <c r="F7" t="n">
-        <v>5125.54601</v>
+        <v>5104.340819999999</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-194.4408100000001</v>
+        <v>-215.6460000000006</v>
       </c>
       <c r="J7" t="n">
-        <v>-3.65</v>
+        <v>-4.05</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8466</v>
+        <v>1.8387</v>
       </c>
       <c r="F8" t="n">
-        <v>23821.14</v>
+        <v>23719.23</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4522.739999999998</v>
+        <v>4420.829999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>23.44</v>
+        <v>22.91</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9478</v>
+        <v>2.9466</v>
       </c>
       <c r="F9" t="n">
-        <v>892.623318</v>
+        <v>892.259946</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>143.683345</v>
+        <v>143.319973</v>
       </c>
       <c r="J9" t="n">
-        <v>19.18</v>
+        <v>19.14</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1216</v>
+        <v>2.1199</v>
       </c>
       <c r="F10" t="n">
-        <v>2207.376288</v>
+        <v>2205.607557</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>207.3576989999999</v>
+        <v>205.5889679999998</v>
       </c>
       <c r="J10" t="n">
-        <v>10.37</v>
+        <v>10.28</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5853</v>
+        <v>1.5846</v>
       </c>
       <c r="F11" t="n">
-        <v>6558.750718999999</v>
+        <v>6555.854657999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>579.6259229999987</v>
+        <v>576.7298619999992</v>
       </c>
       <c r="J11" t="n">
-        <v>9.69</v>
+        <v>9.65</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5853</v>
+        <v>1.5846</v>
       </c>
       <c r="F12" t="n">
-        <v>9534.105170999999</v>
+        <v>9529.895322</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>434.215854</v>
+        <v>430.0060050000011</v>
       </c>
       <c r="J12" t="n">
-        <v>4.77</v>
+        <v>4.73</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2978</v>
+        <v>2.2968</v>
       </c>
       <c r="F15" t="n">
-        <v>21369.54</v>
+        <v>21360.24</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1923.240000000002</v>
+        <v>1913.940000000002</v>
       </c>
       <c r="J15" t="n">
-        <v>9.890000000000001</v>
+        <v>9.84</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>26.61</v>
+        <v>26.8</v>
       </c>
       <c r="F16" t="n">
-        <v>13305</v>
+        <v>13400</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-510</v>
+        <v>-415</v>
       </c>
       <c r="J16" t="n">
-        <v>-3.69</v>
+        <v>-3</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.91</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>17820</v>
+        <v>18100</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="J17" t="n">
-        <v>0.34</v>
+        <v>1.91</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0719</v>
+        <v>1.0741</v>
       </c>
       <c r="F18" t="n">
-        <v>4210.626861000001</v>
+        <v>4219.268879</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-95.84783599999901</v>
+        <v>-87.20581799999945</v>
       </c>
       <c r="J18" t="n">
-        <v>-2.23</v>
+        <v>-2.02</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5459</v>
+        <v>1.5586</v>
       </c>
       <c r="F19" t="n">
-        <v>13449.33</v>
+        <v>13559.82</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>-9.569999999999709</v>
+        <v>100.9200000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.29</v>
+        <v>1.2876</v>
       </c>
       <c r="F20" t="n">
-        <v>10224.3594</v>
+        <v>10205.337336</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>224.3018379999994</v>
+        <v>205.2797740000005</v>
       </c>
       <c r="J20" t="n">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1424</v>
+        <v>1.1436</v>
       </c>
       <c r="F21" t="n">
-        <v>12909.12</v>
+        <v>12922.68</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>275.7200000000012</v>
+        <v>289.2800000000007</v>
       </c>
       <c r="J21" t="n">
-        <v>2.18</v>
+        <v>2.29</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5816</v>
+        <v>1.5809</v>
       </c>
       <c r="F22" t="n">
-        <v>844.4004239999999</v>
+        <v>844.026701</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>115.266851</v>
+        <v>114.893128</v>
       </c>
       <c r="J22" t="n">
-        <v>15.81</v>
+        <v>15.76</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5816</v>
+        <v>1.5809</v>
       </c>
       <c r="F23" t="n">
-        <v>20437.023984</v>
+        <v>20427.978766</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1236.610517999998</v>
+        <v>1227.565299999998</v>
       </c>
       <c r="J23" t="n">
-        <v>6.44</v>
+        <v>6.39</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4154</v>
+        <v>1.4148</v>
       </c>
       <c r="F24" t="n">
-        <v>926.1245280000001</v>
+        <v>925.7319360000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>126.1528960000001</v>
+        <v>125.7603040000001</v>
       </c>
       <c r="J24" t="n">
-        <v>15.77</v>
+        <v>15.72</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7153</v>
+        <v>5.7122</v>
       </c>
       <c r="F26" t="n">
-        <v>2373.792702</v>
+        <v>2372.505148</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>273.7921279999996</v>
+        <v>272.5045739999996</v>
       </c>
       <c r="J26" t="n">
-        <v>13.04</v>
+        <v>12.98</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8334</v>
+        <v>1.8326</v>
       </c>
       <c r="F28" t="n">
-        <v>7074.72392</v>
+        <v>7071.63688</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>774.8470400000006</v>
+        <v>771.7600000000002</v>
       </c>
       <c r="J28" t="n">
-        <v>12.3</v>
+        <v>12.25</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8334</v>
+        <v>1.8326</v>
       </c>
       <c r="F29" t="n">
-        <v>15967.612286</v>
+        <v>15960.644854</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>967.602119000001</v>
+        <v>960.6346870000016</v>
       </c>
       <c r="J29" t="n">
-        <v>6.45</v>
+        <v>6.4</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8952</v>
+        <v>1.8944</v>
       </c>
       <c r="F30" t="n">
-        <v>9965.132168</v>
+        <v>9960.925696</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1084.743967</v>
+        <v>1080.537495</v>
       </c>
       <c r="J30" t="n">
-        <v>12.22</v>
+        <v>12.17</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8952</v>
+        <v>1.8944</v>
       </c>
       <c r="F31" t="n">
-        <v>1277.876504</v>
+        <v>1277.337088</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>77.87818500000003</v>
+        <v>77.33876899999996</v>
       </c>
       <c r="J31" t="n">
-        <v>6.49</v>
+        <v>6.44</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2218</v>
+        <v>2.2193</v>
       </c>
       <c r="F33" t="n">
-        <v>13552.98</v>
+        <v>13537.73</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1279.779999999999</v>
+        <v>1264.529999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>10.43</v>
+        <v>10.3</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7884</v>
+        <v>1.7874</v>
       </c>
       <c r="F34" t="n">
-        <v>34158.44</v>
+        <v>34139.34</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2987.240000000002</v>
+        <v>2968.140000000003</v>
       </c>
       <c r="J34" t="n">
-        <v>9.58</v>
+        <v>9.52</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.7539</v>
+        <v>5.7515</v>
       </c>
       <c r="F35" t="n">
-        <v>35020.421882</v>
+        <v>35005.81457</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1820.436258000002</v>
+        <v>1805.828946000001</v>
       </c>
       <c r="J35" t="n">
-        <v>5.48</v>
+        <v>5.44</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.7539</v>
+        <v>5.7515</v>
       </c>
       <c r="F36" t="n">
-        <v>11892.505754</v>
+        <v>11887.54529</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>592.568761999999</v>
+        <v>587.6082979999992</v>
       </c>
       <c r="J36" t="n">
-        <v>5.24</v>
+        <v>5.2</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.7539</v>
+        <v>5.7515</v>
       </c>
       <c r="F37" t="n">
-        <v>86308.5</v>
+        <v>86272.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>3013.5</v>
+        <v>2977.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.62</v>
+        <v>3.57</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3552</v>
+        <v>2.3572</v>
       </c>
       <c r="F38" t="n">
-        <v>17130.335232</v>
+        <v>17144.882052</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1330.306688999997</v>
+        <v>1344.853509</v>
       </c>
       <c r="J38" t="n">
-        <v>8.42</v>
+        <v>8.51</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3552</v>
+        <v>2.3572</v>
       </c>
       <c r="F39" t="n">
-        <v>24559.813632</v>
+        <v>24580.669452</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1560.015335999997</v>
+        <v>1580.871156000001</v>
       </c>
       <c r="J39" t="n">
-        <v>6.78</v>
+        <v>6.87</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8964</v>
+        <v>1.8976</v>
       </c>
       <c r="F40" t="n">
-        <v>12705.88</v>
+        <v>12713.92</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2253.880000000001</v>
+        <v>2261.92</v>
       </c>
       <c r="J40" t="n">
-        <v>21.56</v>
+        <v>21.64</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.6</v>
+        <v>7.52</v>
       </c>
       <c r="F41" t="n">
-        <v>7600</v>
+        <v>7520</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>491</v>
+        <v>411</v>
       </c>
       <c r="J41" t="n">
-        <v>6.91</v>
+        <v>5.78</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.17</v>
+        <v>7.09</v>
       </c>
       <c r="F42" t="n">
-        <v>7887</v>
+        <v>7799</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1302.4</v>
+        <v>1214.4</v>
       </c>
       <c r="J42" t="n">
-        <v>19.78</v>
+        <v>18.44</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>38.73</v>
+        <v>38.57</v>
       </c>
       <c r="F43" t="n">
-        <v>58094.99999999999</v>
+        <v>57855</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-6360.000000000007</v>
+        <v>-6600</v>
       </c>
       <c r="J43" t="n">
-        <v>-9.869999999999999</v>
+        <v>-10.24</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.2884</v>
+        <v>3.3209</v>
       </c>
       <c r="F2" t="n">
-        <v>2432.396596</v>
+        <v>2456.436521</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>562.1644000000006</v>
+        <v>586.2043250000002</v>
       </c>
       <c r="J2" t="n">
-        <v>30.06</v>
+        <v>31.34</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.4035</v>
+        <v>3.4154</v>
       </c>
       <c r="F3" t="n">
-        <v>1103.82312</v>
+        <v>1107.682528</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>103.879696</v>
+        <v>107.739104</v>
       </c>
       <c r="J3" t="n">
-        <v>10.39</v>
+        <v>10.77</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2991</v>
+        <v>1.293</v>
       </c>
       <c r="F4" t="n">
-        <v>7404.87</v>
+        <v>7370.099999999999</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1984.17</v>
+        <v>1949.4</v>
       </c>
       <c r="J4" t="n">
-        <v>36.6</v>
+        <v>35.96</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0517</v>
+        <v>2.0092</v>
       </c>
       <c r="F5" t="n">
-        <v>2433.172581</v>
+        <v>2382.770556</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>33.20604000000003</v>
+        <v>-17.19598499999984</v>
       </c>
       <c r="J5" t="n">
-        <v>1.38</v>
+        <v>-0.72</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4202</v>
+        <v>1.4126</v>
       </c>
       <c r="F6" t="n">
-        <v>2410.491258</v>
+        <v>2397.591854</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-89.44718299999977</v>
+        <v>-102.3465869999995</v>
       </c>
       <c r="J6" t="n">
-        <v>-3.58</v>
+        <v>-4.09</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4202</v>
+        <v>1.4126</v>
       </c>
       <c r="F7" t="n">
-        <v>5104.340819999999</v>
+        <v>5077.02566</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-215.6460000000006</v>
+        <v>-242.9611599999998</v>
       </c>
       <c r="J7" t="n">
-        <v>-4.05</v>
+        <v>-4.57</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8387</v>
+        <v>1.8152</v>
       </c>
       <c r="F8" t="n">
-        <v>23719.23</v>
+        <v>23416.08</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4420.829999999998</v>
+        <v>4117.679999999997</v>
       </c>
       <c r="J8" t="n">
-        <v>22.91</v>
+        <v>21.34</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9466</v>
+        <v>2.8881</v>
       </c>
       <c r="F9" t="n">
-        <v>892.259946</v>
+        <v>874.545561</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>143.319973</v>
+        <v>125.605588</v>
       </c>
       <c r="J9" t="n">
-        <v>19.14</v>
+        <v>16.77</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1199</v>
+        <v>2.1163</v>
       </c>
       <c r="F10" t="n">
-        <v>2205.607557</v>
+        <v>2201.862009</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>205.5889679999998</v>
+        <v>201.8434199999999</v>
       </c>
       <c r="J10" t="n">
-        <v>10.28</v>
+        <v>10.09</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5846</v>
+        <v>1.584</v>
       </c>
       <c r="F11" t="n">
-        <v>6555.854657999999</v>
+        <v>6553.372319999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>576.7298619999992</v>
+        <v>574.2475239999994</v>
       </c>
       <c r="J11" t="n">
-        <v>9.65</v>
+        <v>9.6</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5846</v>
+        <v>1.584</v>
       </c>
       <c r="F12" t="n">
-        <v>9529.895322</v>
+        <v>9526.28688</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>430.0060050000011</v>
+        <v>426.3975630000004</v>
       </c>
       <c r="J12" t="n">
-        <v>4.73</v>
+        <v>4.69</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2968</v>
+        <v>2.248</v>
       </c>
       <c r="F15" t="n">
-        <v>21360.24</v>
+        <v>20906.4</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1913.940000000002</v>
+        <v>1460.100000000002</v>
       </c>
       <c r="J15" t="n">
-        <v>9.84</v>
+        <v>7.51</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>26.8</v>
+        <v>26.89</v>
       </c>
       <c r="F16" t="n">
-        <v>13400</v>
+        <v>13445</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-415</v>
+        <v>-370</v>
       </c>
       <c r="J16" t="n">
-        <v>-3</v>
+        <v>-2.68</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>9.050000000000001</v>
+        <v>9.01</v>
       </c>
       <c r="F17" t="n">
-        <v>18100</v>
+        <v>18020</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="J17" t="n">
-        <v>1.91</v>
+        <v>1.46</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0741</v>
+        <v>1.0909</v>
       </c>
       <c r="F18" t="n">
-        <v>4219.268879</v>
+        <v>4285.262471</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-87.20581799999945</v>
+        <v>-21.21222599999965</v>
       </c>
       <c r="J18" t="n">
-        <v>-2.02</v>
+        <v>-0.49</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5586</v>
+        <v>1.579</v>
       </c>
       <c r="F19" t="n">
-        <v>13559.82</v>
+        <v>13737.3</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>100.9200000000001</v>
+        <v>278.3999999999996</v>
       </c>
       <c r="J19" t="n">
-        <v>0.75</v>
+        <v>2.07</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2876</v>
+        <v>1.2959</v>
       </c>
       <c r="F20" t="n">
-        <v>10205.337336</v>
+        <v>10271.121974</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>205.2797740000005</v>
+        <v>271.0644119999997</v>
       </c>
       <c r="J20" t="n">
-        <v>2.05</v>
+        <v>2.71</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1436</v>
+        <v>1.16</v>
       </c>
       <c r="F21" t="n">
-        <v>12922.68</v>
+        <v>13108</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>289.2800000000007</v>
+        <v>474.6000000000004</v>
       </c>
       <c r="J21" t="n">
-        <v>2.29</v>
+        <v>3.76</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5809</v>
+        <v>1.5802</v>
       </c>
       <c r="F22" t="n">
-        <v>844.026701</v>
+        <v>843.652978</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>114.893128</v>
+        <v>114.519405</v>
       </c>
       <c r="J22" t="n">
-        <v>15.76</v>
+        <v>15.71</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5809</v>
+        <v>1.5802</v>
       </c>
       <c r="F23" t="n">
-        <v>20427.978766</v>
+        <v>20418.933548</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1227.565299999998</v>
+        <v>1218.520081999999</v>
       </c>
       <c r="J23" t="n">
-        <v>6.39</v>
+        <v>6.35</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4148</v>
+        <v>1.3839</v>
       </c>
       <c r="F24" t="n">
-        <v>925.7319360000001</v>
+        <v>905.513448</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>125.7603040000001</v>
+        <v>105.541816</v>
       </c>
       <c r="J24" t="n">
-        <v>15.72</v>
+        <v>13.19</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7122</v>
+        <v>5.71</v>
       </c>
       <c r="F26" t="n">
-        <v>2372.505148</v>
+        <v>2371.5914</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>272.5045739999996</v>
+        <v>271.5908259999997</v>
       </c>
       <c r="J26" t="n">
-        <v>12.98</v>
+        <v>12.93</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8326</v>
+        <v>1.8319</v>
       </c>
       <c r="F28" t="n">
-        <v>7071.63688</v>
+        <v>7068.93572</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>771.7600000000002</v>
+        <v>769.0588400000006</v>
       </c>
       <c r="J28" t="n">
-        <v>12.25</v>
+        <v>12.21</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8326</v>
+        <v>1.8319</v>
       </c>
       <c r="F29" t="n">
-        <v>15960.644854</v>
+        <v>15954.548351</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>960.6346870000016</v>
+        <v>954.5381840000027</v>
       </c>
       <c r="J29" t="n">
-        <v>6.4</v>
+        <v>6.36</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8944</v>
+        <v>1.8544</v>
       </c>
       <c r="F30" t="n">
-        <v>9960.925696</v>
+        <v>9750.602096000001</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1080.537495</v>
+        <v>870.2138950000008</v>
       </c>
       <c r="J30" t="n">
-        <v>12.17</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8944</v>
+        <v>1.8544</v>
       </c>
       <c r="F31" t="n">
-        <v>1277.337088</v>
+        <v>1250.366288</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>77.33876899999996</v>
+        <v>50.3679689999999</v>
       </c>
       <c r="J31" t="n">
-        <v>6.44</v>
+        <v>4.2</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2193</v>
+        <v>2.2175</v>
       </c>
       <c r="F33" t="n">
-        <v>13537.73</v>
+        <v>13526.75</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1264.529999999999</v>
+        <v>1253.549999999997</v>
       </c>
       <c r="J33" t="n">
-        <v>10.3</v>
+        <v>10.21</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7874</v>
+        <v>1.7866</v>
       </c>
       <c r="F34" t="n">
-        <v>34139.34</v>
+        <v>34124.06</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2968.140000000003</v>
+        <v>2952.859999999997</v>
       </c>
       <c r="J34" t="n">
-        <v>9.52</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.7515</v>
+        <v>5.5923</v>
       </c>
       <c r="F35" t="n">
-        <v>35005.81457</v>
+        <v>34036.862874</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1805.828946000001</v>
+        <v>836.8772499999977</v>
       </c>
       <c r="J35" t="n">
-        <v>5.44</v>
+        <v>2.52</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.7515</v>
+        <v>5.5923</v>
       </c>
       <c r="F36" t="n">
-        <v>11887.54529</v>
+        <v>11558.501178</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>587.6082979999992</v>
+        <v>258.5641859999996</v>
       </c>
       <c r="J36" t="n">
-        <v>5.2</v>
+        <v>2.29</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.7515</v>
+        <v>5.5923</v>
       </c>
       <c r="F37" t="n">
-        <v>86272.5</v>
+        <v>83884.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>2977.5</v>
+        <v>589.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.57</v>
+        <v>0.71</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3572</v>
+        <v>2.3563</v>
       </c>
       <c r="F38" t="n">
-        <v>17144.882052</v>
+        <v>17138.335983</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1344.853509</v>
+        <v>1338.30744</v>
       </c>
       <c r="J38" t="n">
-        <v>8.51</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3572</v>
+        <v>2.3563</v>
       </c>
       <c r="F39" t="n">
-        <v>24580.669452</v>
+        <v>24571.284333</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1580.871156000001</v>
+        <v>1571.486036999999</v>
       </c>
       <c r="J39" t="n">
-        <v>6.87</v>
+        <v>6.83</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8976</v>
+        <v>1.8968</v>
       </c>
       <c r="F40" t="n">
-        <v>12713.92</v>
+        <v>12708.56</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2261.92</v>
+        <v>2256.559999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>21.64</v>
+        <v>21.59</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.52</v>
+        <v>7.53</v>
       </c>
       <c r="F41" t="n">
-        <v>7520</v>
+        <v>7530</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="J41" t="n">
-        <v>5.78</v>
+        <v>5.92</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.09</v>
+        <v>7.18</v>
       </c>
       <c r="F42" t="n">
-        <v>7799</v>
+        <v>7898</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1214.4</v>
+        <v>1313.4</v>
       </c>
       <c r="J42" t="n">
-        <v>18.44</v>
+        <v>19.95</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>38.57</v>
+        <v>38.92</v>
       </c>
       <c r="F43" t="n">
-        <v>57855</v>
+        <v>58380</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-6600</v>
+        <v>-6075</v>
       </c>
       <c r="J43" t="n">
-        <v>-10.24</v>
+        <v>-9.43</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.3209</v>
+        <v>3.4167</v>
       </c>
       <c r="F2" t="n">
-        <v>2456.436521</v>
+        <v>2527.298823</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>586.2043250000002</v>
+        <v>657.0666270000002</v>
       </c>
       <c r="J2" t="n">
-        <v>31.34</v>
+        <v>35.13</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.4154</v>
+        <v>3.4713</v>
       </c>
       <c r="F3" t="n">
-        <v>1107.682528</v>
+        <v>1125.812016</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>107.739104</v>
+        <v>125.8685919999998</v>
       </c>
       <c r="J3" t="n">
-        <v>10.77</v>
+        <v>12.59</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.293</v>
+        <v>1.2987</v>
       </c>
       <c r="F4" t="n">
-        <v>7370.099999999999</v>
+        <v>7402.59</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1949.4</v>
+        <v>1981.89</v>
       </c>
       <c r="J4" t="n">
-        <v>35.96</v>
+        <v>36.56</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4126</v>
+        <v>1.3899</v>
       </c>
       <c r="F6" t="n">
-        <v>2397.591854</v>
+        <v>2359.063371</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-102.3465869999995</v>
+        <v>-140.8750700000001</v>
       </c>
       <c r="J6" t="n">
-        <v>-4.09</v>
+        <v>-5.64</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4126</v>
+        <v>1.3899</v>
       </c>
       <c r="F7" t="n">
-        <v>5077.02566</v>
+        <v>4995.43959</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-242.9611599999998</v>
+        <v>-324.5472300000001</v>
       </c>
       <c r="J7" t="n">
-        <v>-4.57</v>
+        <v>-6.1</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8152</v>
+        <v>1.8063</v>
       </c>
       <c r="F8" t="n">
-        <v>23416.08</v>
+        <v>23301.27</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4117.679999999997</v>
+        <v>4002.869999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>21.34</v>
+        <v>20.74</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8881</v>
+        <v>2.9197</v>
       </c>
       <c r="F9" t="n">
-        <v>874.545561</v>
+        <v>884.114357</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>125.605588</v>
+        <v>135.174384</v>
       </c>
       <c r="J9" t="n">
-        <v>16.77</v>
+        <v>18.05</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1163</v>
+        <v>2.0792</v>
       </c>
       <c r="F10" t="n">
-        <v>2201.862009</v>
+        <v>2163.262056</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>201.8434199999999</v>
+        <v>163.2434670000005</v>
       </c>
       <c r="J10" t="n">
-        <v>10.09</v>
+        <v>8.16</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.584</v>
+        <v>1.5535</v>
       </c>
       <c r="F11" t="n">
-        <v>6553.372319999999</v>
+        <v>6427.186804999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>574.2475239999994</v>
+        <v>448.0620089999993</v>
       </c>
       <c r="J11" t="n">
-        <v>9.6</v>
+        <v>7.49</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.584</v>
+        <v>1.5535</v>
       </c>
       <c r="F12" t="n">
-        <v>9526.28688</v>
+        <v>9342.857744999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>426.3975630000004</v>
+        <v>242.9684280000001</v>
       </c>
       <c r="J12" t="n">
-        <v>4.69</v>
+        <v>2.67</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.248</v>
+        <v>2.2743</v>
       </c>
       <c r="F15" t="n">
-        <v>20906.4</v>
+        <v>21150.99</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1460.100000000002</v>
+        <v>1704.690000000002</v>
       </c>
       <c r="J15" t="n">
-        <v>7.51</v>
+        <v>8.77</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>26.89</v>
+        <v>26.58</v>
       </c>
       <c r="F16" t="n">
-        <v>13445</v>
+        <v>13290</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-370</v>
+        <v>-525</v>
       </c>
       <c r="J16" t="n">
-        <v>-2.68</v>
+        <v>-3.8</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>9.01</v>
+        <v>8.94</v>
       </c>
       <c r="F17" t="n">
-        <v>18020</v>
+        <v>17880</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="J17" t="n">
-        <v>1.46</v>
+        <v>0.68</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0909</v>
+        <v>1.081</v>
       </c>
       <c r="F18" t="n">
-        <v>4285.262471</v>
+        <v>4246.37339</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-21.21222599999965</v>
+        <v>-60.10130699999991</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.49</v>
+        <v>-1.4</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.579</v>
+        <v>1.5694</v>
       </c>
       <c r="F19" t="n">
-        <v>13737.3</v>
+        <v>13653.78</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>278.3999999999996</v>
+        <v>194.8799999999992</v>
       </c>
       <c r="J19" t="n">
-        <v>2.07</v>
+        <v>1.45</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2959</v>
+        <v>1.2986</v>
       </c>
       <c r="F20" t="n">
-        <v>10271.121974</v>
+        <v>10292.521796</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>271.0644119999997</v>
+        <v>292.4642339999991</v>
       </c>
       <c r="J20" t="n">
-        <v>2.71</v>
+        <v>2.92</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.16</v>
+        <v>1.1502</v>
       </c>
       <c r="F21" t="n">
-        <v>13108</v>
+        <v>12997.26</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>474.6000000000004</v>
+        <v>363.8599999999988</v>
       </c>
       <c r="J21" t="n">
-        <v>3.76</v>
+        <v>2.88</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5802</v>
+        <v>1.5464</v>
       </c>
       <c r="F22" t="n">
-        <v>843.652978</v>
+        <v>825.607496</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>114.519405</v>
+        <v>96.47392300000001</v>
       </c>
       <c r="J22" t="n">
-        <v>15.71</v>
+        <v>13.23</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5802</v>
+        <v>1.5464</v>
       </c>
       <c r="F23" t="n">
-        <v>20418.933548</v>
+        <v>19982.178736</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1218.520081999999</v>
+        <v>781.7652699999962</v>
       </c>
       <c r="J23" t="n">
-        <v>6.35</v>
+        <v>4.07</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3839</v>
+        <v>1.4015</v>
       </c>
       <c r="F24" t="n">
-        <v>905.513448</v>
+        <v>917.02948</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>105.541816</v>
+        <v>117.057848</v>
       </c>
       <c r="J24" t="n">
-        <v>13.19</v>
+        <v>14.63</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.71</v>
+        <v>5.5835</v>
       </c>
       <c r="F26" t="n">
-        <v>2371.5914</v>
+        <v>2319.05089</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>271.5908259999997</v>
+        <v>219.0503159999998</v>
       </c>
       <c r="J26" t="n">
-        <v>12.93</v>
+        <v>10.43</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8319</v>
+        <v>1.7932</v>
       </c>
       <c r="F28" t="n">
-        <v>7068.93572</v>
+        <v>6919.60016</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>769.0588400000006</v>
+        <v>619.7232800000002</v>
       </c>
       <c r="J28" t="n">
-        <v>12.21</v>
+        <v>9.84</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8319</v>
+        <v>1.7932</v>
       </c>
       <c r="F29" t="n">
-        <v>15954.548351</v>
+        <v>15617.498828</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>954.5381840000027</v>
+        <v>617.4886610000012</v>
       </c>
       <c r="J29" t="n">
-        <v>6.36</v>
+        <v>4.12</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8544</v>
+        <v>1.8788</v>
       </c>
       <c r="F30" t="n">
-        <v>9750.602096000001</v>
+        <v>9878.899492</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>870.2138950000008</v>
+        <v>998.5112910000007</v>
       </c>
       <c r="J30" t="n">
-        <v>9.800000000000001</v>
+        <v>11.24</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8544</v>
+        <v>1.8788</v>
       </c>
       <c r="F31" t="n">
-        <v>1250.366288</v>
+        <v>1266.818476</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>50.3679689999999</v>
+        <v>66.82015699999988</v>
       </c>
       <c r="J31" t="n">
-        <v>4.2</v>
+        <v>5.57</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2175</v>
+        <v>2.1689</v>
       </c>
       <c r="F33" t="n">
-        <v>13526.75</v>
+        <v>13230.29</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1253.549999999997</v>
+        <v>957.0899999999983</v>
       </c>
       <c r="J33" t="n">
-        <v>10.21</v>
+        <v>7.8</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7866</v>
+        <v>1.7476</v>
       </c>
       <c r="F34" t="n">
-        <v>34124.06</v>
+        <v>33379.16</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2952.859999999997</v>
+        <v>2207.960000000003</v>
       </c>
       <c r="J34" t="n">
-        <v>9.470000000000001</v>
+        <v>7.08</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.5923</v>
+        <v>5.6461</v>
       </c>
       <c r="F35" t="n">
-        <v>34036.862874</v>
+        <v>34364.310118</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>836.8772499999977</v>
+        <v>1164.324494</v>
       </c>
       <c r="J35" t="n">
-        <v>2.52</v>
+        <v>3.51</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.5923</v>
+        <v>5.6461</v>
       </c>
       <c r="F36" t="n">
-        <v>11558.501178</v>
+        <v>11669.698246</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>258.5641859999996</v>
+        <v>369.7612539999991</v>
       </c>
       <c r="J36" t="n">
-        <v>2.29</v>
+        <v>3.27</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.5923</v>
+        <v>5.6461</v>
       </c>
       <c r="F37" t="n">
-        <v>83884.5</v>
+        <v>84691.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>589.5</v>
+        <v>1396.5</v>
       </c>
       <c r="J37" t="n">
-        <v>0.71</v>
+        <v>1.68</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3563</v>
+        <v>2.2993</v>
       </c>
       <c r="F38" t="n">
-        <v>17138.335983</v>
+        <v>16723.751613</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1338.30744</v>
+        <v>923.72307</v>
       </c>
       <c r="J38" t="n">
-        <v>8.470000000000001</v>
+        <v>5.85</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3563</v>
+        <v>2.2993</v>
       </c>
       <c r="F39" t="n">
-        <v>24571.284333</v>
+        <v>23976.893463</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1571.486036999999</v>
+        <v>977.0951669999995</v>
       </c>
       <c r="J39" t="n">
-        <v>6.83</v>
+        <v>4.25</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8968</v>
+        <v>1.8484</v>
       </c>
       <c r="F40" t="n">
-        <v>12708.56</v>
+        <v>12384.28</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2256.559999999999</v>
+        <v>1932.280000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>21.59</v>
+        <v>18.49</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.53</v>
+        <v>7.35</v>
       </c>
       <c r="F41" t="n">
-        <v>7530</v>
+        <v>7350</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>421</v>
+        <v>241</v>
       </c>
       <c r="J41" t="n">
-        <v>5.92</v>
+        <v>3.39</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>7.18</v>
+        <v>6.9</v>
       </c>
       <c r="F42" t="n">
-        <v>7898</v>
+        <v>7590</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1313.4</v>
+        <v>1005.4</v>
       </c>
       <c r="J42" t="n">
-        <v>19.95</v>
+        <v>15.27</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>38.92</v>
+        <v>38.27</v>
       </c>
       <c r="F43" t="n">
-        <v>58380</v>
+        <v>57405.00000000001</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-6075</v>
+        <v>-7049.999999999993</v>
       </c>
       <c r="J43" t="n">
-        <v>-9.43</v>
+        <v>-10.94</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.4167</v>
+        <v>3.4049</v>
       </c>
       <c r="F2" t="n">
-        <v>2527.298823</v>
+        <v>2518.570481</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>657.0666270000002</v>
+        <v>648.3382850000003</v>
       </c>
       <c r="J2" t="n">
-        <v>35.13</v>
+        <v>34.67</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.4713</v>
+        <v>3.4506</v>
       </c>
       <c r="F3" t="n">
-        <v>1125.812016</v>
+        <v>1119.098592</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>125.8685919999998</v>
+        <v>119.155168</v>
       </c>
       <c r="J3" t="n">
-        <v>12.59</v>
+        <v>11.92</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2987</v>
+        <v>1.3003</v>
       </c>
       <c r="F4" t="n">
-        <v>7402.59</v>
+        <v>7411.71</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1981.89</v>
+        <v>1991.01</v>
       </c>
       <c r="J4" t="n">
-        <v>36.56</v>
+        <v>36.73</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0092</v>
+        <v>2.0285</v>
       </c>
       <c r="F5" t="n">
-        <v>2382.770556</v>
+        <v>2405.659005</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-17.19598499999984</v>
+        <v>5.692464000000655</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.72</v>
+        <v>0.24</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.3899</v>
+        <v>1.3762</v>
       </c>
       <c r="F6" t="n">
-        <v>2359.063371</v>
+        <v>2335.810498</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-140.8750700000001</v>
+        <v>-164.1279429999995</v>
       </c>
       <c r="J6" t="n">
-        <v>-5.64</v>
+        <v>-6.57</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.3899</v>
+        <v>1.3762</v>
       </c>
       <c r="F7" t="n">
-        <v>4995.43959</v>
+        <v>4946.20042</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-324.5472300000001</v>
+        <v>-373.7864</v>
       </c>
       <c r="J7" t="n">
-        <v>-6.1</v>
+        <v>-7.03</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8063</v>
+        <v>1.8317</v>
       </c>
       <c r="F8" t="n">
-        <v>23301.27</v>
+        <v>23628.93</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4002.869999999999</v>
+        <v>4330.529999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>20.74</v>
+        <v>22.44</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9197</v>
+        <v>2.9348</v>
       </c>
       <c r="F9" t="n">
-        <v>884.114357</v>
+        <v>888.686788</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>135.174384</v>
+        <v>139.746815</v>
       </c>
       <c r="J9" t="n">
-        <v>18.05</v>
+        <v>18.66</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0792</v>
+        <v>2.0989</v>
       </c>
       <c r="F10" t="n">
-        <v>2163.262056</v>
+        <v>2183.758527</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>163.2434670000005</v>
+        <v>183.7399379999999</v>
       </c>
       <c r="J10" t="n">
-        <v>8.16</v>
+        <v>9.19</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5535</v>
+        <v>1.57</v>
       </c>
       <c r="F11" t="n">
-        <v>6427.186804999999</v>
+        <v>6495.451099999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>448.0620089999993</v>
+        <v>516.3263039999993</v>
       </c>
       <c r="J11" t="n">
-        <v>7.49</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5535</v>
+        <v>1.57</v>
       </c>
       <c r="F12" t="n">
-        <v>9342.857744999999</v>
+        <v>9442.089899999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>242.9684280000001</v>
+        <v>342.2005829999998</v>
       </c>
       <c r="J12" t="n">
-        <v>2.67</v>
+        <v>3.76</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2743</v>
+        <v>2.287</v>
       </c>
       <c r="F15" t="n">
-        <v>21150.99</v>
+        <v>21269.1</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1704.690000000002</v>
+        <v>1822.799999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>8.77</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>26.58</v>
+        <v>26.36</v>
       </c>
       <c r="F16" t="n">
-        <v>13290</v>
+        <v>13180</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-525</v>
+        <v>-635</v>
       </c>
       <c r="J16" t="n">
-        <v>-3.8</v>
+        <v>-4.6</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.94</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>17880</v>
+        <v>17900</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="J17" t="n">
-        <v>0.68</v>
+        <v>0.79</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.081</v>
+        <v>1.0827</v>
       </c>
       <c r="F18" t="n">
-        <v>4246.37339</v>
+        <v>4253.051313</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-60.10130699999991</v>
+        <v>-53.42338399999971</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.4</v>
+        <v>-1.24</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5694</v>
+        <v>1.5807</v>
       </c>
       <c r="F19" t="n">
-        <v>13653.78</v>
+        <v>13752.09</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>194.8799999999992</v>
+        <v>293.1900000000005</v>
       </c>
       <c r="J19" t="n">
-        <v>1.45</v>
+        <v>2.18</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2986</v>
+        <v>1.3092</v>
       </c>
       <c r="F20" t="n">
-        <v>10292.521796</v>
+        <v>10376.535912</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>292.4642339999991</v>
+        <v>376.4783499999994</v>
       </c>
       <c r="J20" t="n">
-        <v>2.92</v>
+        <v>3.76</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1502</v>
+        <v>1.1517</v>
       </c>
       <c r="F21" t="n">
-        <v>12997.26</v>
+        <v>13014.21</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>363.8599999999988</v>
+        <v>380.8099999999995</v>
       </c>
       <c r="J21" t="n">
-        <v>2.88</v>
+        <v>3.01</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5464</v>
+        <v>1.5663</v>
       </c>
       <c r="F22" t="n">
-        <v>825.607496</v>
+        <v>836.231907</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>96.47392300000001</v>
+        <v>107.098334</v>
       </c>
       <c r="J22" t="n">
-        <v>13.23</v>
+        <v>14.69</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5464</v>
+        <v>1.5663</v>
       </c>
       <c r="F23" t="n">
-        <v>19982.178736</v>
+        <v>20239.321362</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>781.7652699999962</v>
+        <v>1038.907895999997</v>
       </c>
       <c r="J23" t="n">
-        <v>4.07</v>
+        <v>5.41</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.5835</v>
+        <v>5.6606</v>
       </c>
       <c r="F26" t="n">
-        <v>2319.05089</v>
+        <v>2351.073604</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>219.0503159999998</v>
+        <v>251.0730299999996</v>
       </c>
       <c r="J26" t="n">
-        <v>10.43</v>
+        <v>11.96</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.7932</v>
+        <v>1.8167</v>
       </c>
       <c r="F28" t="n">
-        <v>6919.60016</v>
+        <v>7010.28196</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>619.7232800000002</v>
+        <v>710.4050800000005</v>
       </c>
       <c r="J28" t="n">
-        <v>9.84</v>
+        <v>11.28</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.7932</v>
+        <v>1.8167</v>
       </c>
       <c r="F29" t="n">
-        <v>15617.498828</v>
+        <v>15822.167143</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>617.4886610000012</v>
+        <v>822.1569760000002</v>
       </c>
       <c r="J29" t="n">
-        <v>4.12</v>
+        <v>5.48</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8788</v>
+        <v>1.8928</v>
       </c>
       <c r="F30" t="n">
-        <v>9878.899492</v>
+        <v>9952.512752000001</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>998.5112910000007</v>
+        <v>1072.124551000001</v>
       </c>
       <c r="J30" t="n">
-        <v>11.24</v>
+        <v>12.07</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8788</v>
+        <v>1.8928</v>
       </c>
       <c r="F31" t="n">
-        <v>1266.818476</v>
+        <v>1276.258256</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>66.82015699999988</v>
+        <v>76.25993700000004</v>
       </c>
       <c r="J31" t="n">
-        <v>5.57</v>
+        <v>6.36</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.1689</v>
+        <v>2.1993</v>
       </c>
       <c r="F33" t="n">
-        <v>13230.29</v>
+        <v>13415.73</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>957.0899999999983</v>
+        <v>1142.529999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>7.8</v>
+        <v>9.31</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7476</v>
+        <v>1.7714</v>
       </c>
       <c r="F34" t="n">
-        <v>33379.16</v>
+        <v>33833.74000000001</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2207.960000000003</v>
+        <v>2662.540000000005</v>
       </c>
       <c r="J34" t="n">
-        <v>7.08</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.6461</v>
+        <v>5.6837</v>
       </c>
       <c r="F35" t="n">
-        <v>34364.310118</v>
+        <v>34593.158006</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1164.324494</v>
+        <v>1393.172381999997</v>
       </c>
       <c r="J35" t="n">
-        <v>3.51</v>
+        <v>4.2</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.6461</v>
+        <v>5.6837</v>
       </c>
       <c r="F36" t="n">
-        <v>11669.698246</v>
+        <v>11747.412182</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>369.7612539999991</v>
+        <v>447.4751899999992</v>
       </c>
       <c r="J36" t="n">
-        <v>3.27</v>
+        <v>3.96</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.6461</v>
+        <v>5.6837</v>
       </c>
       <c r="F37" t="n">
-        <v>84691.5</v>
+        <v>85255.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>1396.5</v>
+        <v>1960.5</v>
       </c>
       <c r="J37" t="n">
-        <v>1.68</v>
+        <v>2.35</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.2993</v>
+        <v>2.3277</v>
       </c>
       <c r="F38" t="n">
-        <v>16723.751613</v>
+        <v>16930.316457</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>923.72307</v>
+        <v>1130.287914</v>
       </c>
       <c r="J38" t="n">
-        <v>5.85</v>
+        <v>7.15</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.2993</v>
+        <v>2.3277</v>
       </c>
       <c r="F39" t="n">
-        <v>23976.893463</v>
+        <v>24273.046107</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>977.0951669999995</v>
+        <v>1273.247811000001</v>
       </c>
       <c r="J39" t="n">
-        <v>4.25</v>
+        <v>5.54</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8484</v>
+        <v>1.8721</v>
       </c>
       <c r="F40" t="n">
-        <v>12384.28</v>
+        <v>12543.07</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1932.280000000001</v>
+        <v>2091.070000000002</v>
       </c>
       <c r="J40" t="n">
-        <v>18.49</v>
+        <v>20.01</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.35</v>
+        <v>7.27</v>
       </c>
       <c r="F41" t="n">
-        <v>7350</v>
+        <v>7270</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="J41" t="n">
-        <v>3.39</v>
+        <v>2.26</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="F42" t="n">
-        <v>7590</v>
+        <v>7480</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1005.4</v>
+        <v>895.3999999999996</v>
       </c>
       <c r="J42" t="n">
-        <v>15.27</v>
+        <v>13.6</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>38.27</v>
+        <v>37.85</v>
       </c>
       <c r="F43" t="n">
-        <v>57405.00000000001</v>
+        <v>56775</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-7049.999999999993</v>
+        <v>-7680</v>
       </c>
       <c r="J43" t="n">
-        <v>-10.94</v>
+        <v>-11.92</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.4049</v>
+        <v>3.4863</v>
       </c>
       <c r="F2" t="n">
-        <v>2518.570481</v>
+        <v>2578.781247</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>648.3382850000003</v>
+        <v>708.5490510000004</v>
       </c>
       <c r="J2" t="n">
-        <v>34.67</v>
+        <v>37.89</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.3003</v>
+        <v>1.3056</v>
       </c>
       <c r="F4" t="n">
-        <v>7411.71</v>
+        <v>7441.920000000001</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1991.01</v>
+        <v>2021.220000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>36.73</v>
+        <v>37.29</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.3762</v>
+        <v>1.3835</v>
       </c>
       <c r="F6" t="n">
-        <v>2335.810498</v>
+        <v>2348.200715</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-164.1279429999995</v>
+        <v>-151.7377259999998</v>
       </c>
       <c r="J6" t="n">
-        <v>-6.57</v>
+        <v>-6.07</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.3762</v>
+        <v>1.3835</v>
       </c>
       <c r="F7" t="n">
-        <v>4946.20042</v>
+        <v>4972.43735</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-373.7864</v>
+        <v>-347.5494699999999</v>
       </c>
       <c r="J7" t="n">
-        <v>-7.03</v>
+        <v>-6.53</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8317</v>
+        <v>1.8392</v>
       </c>
       <c r="F8" t="n">
-        <v>23628.93</v>
+        <v>23725.68</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4330.529999999999</v>
+        <v>4427.279999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>22.44</v>
+        <v>22.94</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0989</v>
+        <v>2.11</v>
       </c>
       <c r="F10" t="n">
-        <v>2183.758527</v>
+        <v>2195.3073</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>183.7399379999999</v>
+        <v>195.2887109999999</v>
       </c>
       <c r="J10" t="n">
-        <v>9.19</v>
+        <v>9.76</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.57</v>
+        <v>1.578</v>
       </c>
       <c r="F11" t="n">
-        <v>6495.451099999999</v>
+        <v>6528.54894</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>516.3263039999993</v>
+        <v>549.4241439999996</v>
       </c>
       <c r="J11" t="n">
-        <v>8.640000000000001</v>
+        <v>9.19</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.57</v>
+        <v>1.578</v>
       </c>
       <c r="F12" t="n">
-        <v>9442.089899999999</v>
+        <v>9490.20246</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>342.2005829999998</v>
+        <v>390.3131430000012</v>
       </c>
       <c r="J12" t="n">
-        <v>3.76</v>
+        <v>4.29</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0827</v>
+        <v>1.0797</v>
       </c>
       <c r="F18" t="n">
-        <v>4253.051313</v>
+        <v>4241.266743</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-53.42338399999971</v>
+        <v>-65.20795399999952</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.24</v>
+        <v>-1.51</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5807</v>
+        <v>1.58</v>
       </c>
       <c r="F19" t="n">
-        <v>13752.09</v>
+        <v>13746</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>293.1900000000005</v>
+        <v>287.1000000000004</v>
       </c>
       <c r="J19" t="n">
-        <v>2.18</v>
+        <v>2.13</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3092</v>
+        <v>1.2987</v>
       </c>
       <c r="F20" t="n">
-        <v>10376.535912</v>
+        <v>10293.314382</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>376.4783499999994</v>
+        <v>293.2568199999987</v>
       </c>
       <c r="J20" t="n">
-        <v>3.76</v>
+        <v>2.93</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1517</v>
+        <v>1.1478</v>
       </c>
       <c r="F21" t="n">
-        <v>13014.21</v>
+        <v>12970.14</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>380.8099999999995</v>
+        <v>336.7399999999998</v>
       </c>
       <c r="J21" t="n">
-        <v>3.01</v>
+        <v>2.67</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5663</v>
+        <v>1.5776</v>
       </c>
       <c r="F22" t="n">
-        <v>836.231907</v>
+        <v>842.2648639999999</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>107.098334</v>
+        <v>113.1312909999999</v>
       </c>
       <c r="J22" t="n">
-        <v>14.69</v>
+        <v>15.52</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5663</v>
+        <v>1.5776</v>
       </c>
       <c r="F23" t="n">
-        <v>20239.321362</v>
+        <v>20385.337024</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1038.907895999997</v>
+        <v>1184.923557999995</v>
       </c>
       <c r="J23" t="n">
-        <v>5.41</v>
+        <v>6.17</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4015</v>
+        <v>1.4117</v>
       </c>
       <c r="F24" t="n">
-        <v>917.02948</v>
+        <v>923.7035440000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>117.057848</v>
+        <v>123.7319120000001</v>
       </c>
       <c r="J24" t="n">
-        <v>14.63</v>
+        <v>15.47</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.6606</v>
+        <v>5.7054</v>
       </c>
       <c r="F26" t="n">
-        <v>2351.073604</v>
+        <v>2369.680836</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>251.0730299999996</v>
+        <v>269.6802619999999</v>
       </c>
       <c r="J26" t="n">
-        <v>11.96</v>
+        <v>12.84</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8167</v>
+        <v>1.8297</v>
       </c>
       <c r="F28" t="n">
-        <v>7010.28196</v>
+        <v>7060.446360000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>710.4050800000005</v>
+        <v>760.569480000001</v>
       </c>
       <c r="J28" t="n">
-        <v>11.28</v>
+        <v>12.07</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8167</v>
+        <v>1.8297</v>
       </c>
       <c r="F29" t="n">
-        <v>15822.167143</v>
+        <v>15935.387913</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>822.1569760000002</v>
+        <v>935.3777460000019</v>
       </c>
       <c r="J29" t="n">
-        <v>5.48</v>
+        <v>6.24</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.1993</v>
+        <v>2.2157</v>
       </c>
       <c r="F33" t="n">
-        <v>13415.73</v>
+        <v>13515.77</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1142.529999999999</v>
+        <v>1242.57</v>
       </c>
       <c r="J33" t="n">
-        <v>9.31</v>
+        <v>10.12</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7714</v>
+        <v>1.7849</v>
       </c>
       <c r="F34" t="n">
-        <v>33833.74000000001</v>
+        <v>34091.59</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2662.540000000005</v>
+        <v>2920.389999999996</v>
       </c>
       <c r="J34" t="n">
-        <v>8.539999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3277</v>
+        <v>2.3486</v>
       </c>
       <c r="F38" t="n">
-        <v>16930.316457</v>
+        <v>17082.330726</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1130.287914</v>
+        <v>1282.302182999996</v>
       </c>
       <c r="J38" t="n">
-        <v>7.15</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3277</v>
+        <v>2.3486</v>
       </c>
       <c r="F39" t="n">
-        <v>24273.046107</v>
+        <v>24490.989426</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1273.247811000001</v>
+        <v>1491.191129999996</v>
       </c>
       <c r="J39" t="n">
-        <v>5.54</v>
+        <v>6.48</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8721</v>
+        <v>1.8901</v>
       </c>
       <c r="F40" t="n">
-        <v>12543.07</v>
+        <v>12663.67</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2091.070000000002</v>
+        <v>2211.67</v>
       </c>
       <c r="J40" t="n">
-        <v>20.01</v>
+        <v>21.16</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.4506</v>
+        <v>3.4832</v>
       </c>
       <c r="F3" t="n">
-        <v>1119.098592</v>
+        <v>1129.671424</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>119.155168</v>
+        <v>129.7279999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>11.92</v>
+        <v>12.97</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9348</v>
+        <v>2.9326</v>
       </c>
       <c r="F9" t="n">
-        <v>888.686788</v>
+        <v>888.0206059999999</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>139.746815</v>
+        <v>139.0806329999999</v>
       </c>
       <c r="J9" t="n">
-        <v>18.66</v>
+        <v>18.57</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>26.36</v>
+        <v>26.05</v>
       </c>
       <c r="F16" t="n">
-        <v>13180</v>
+        <v>13025</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-635</v>
+        <v>-790</v>
       </c>
       <c r="J16" t="n">
-        <v>-4.6</v>
+        <v>-5.72</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.949999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>17900</v>
+        <v>17760</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4117</v>
+        <v>1.4145</v>
       </c>
       <c r="F24" t="n">
-        <v>923.7035440000001</v>
+        <v>925.5356400000002</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>123.7319120000001</v>
+        <v>125.5640080000002</v>
       </c>
       <c r="J24" t="n">
-        <v>15.47</v>
+        <v>15.7</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8928</v>
+        <v>1.8968</v>
       </c>
       <c r="F30" t="n">
-        <v>9952.512752000001</v>
+        <v>9973.545112</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1072.124551000001</v>
+        <v>1093.156911</v>
       </c>
       <c r="J30" t="n">
-        <v>12.07</v>
+        <v>12.31</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8928</v>
+        <v>1.8968</v>
       </c>
       <c r="F31" t="n">
-        <v>1276.258256</v>
+        <v>1278.955336</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>76.25993700000004</v>
+        <v>78.95701699999995</v>
       </c>
       <c r="J31" t="n">
-        <v>6.36</v>
+        <v>6.58</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.6837</v>
+        <v>5.705</v>
       </c>
       <c r="F35" t="n">
-        <v>34593.158006</v>
+        <v>34722.7979</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1393.172381999997</v>
+        <v>1522.812275999997</v>
       </c>
       <c r="J35" t="n">
-        <v>4.2</v>
+        <v>4.59</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.6837</v>
+        <v>5.705</v>
       </c>
       <c r="F36" t="n">
-        <v>11747.412182</v>
+        <v>11791.4363</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>447.4751899999992</v>
+        <v>491.4993080000004</v>
       </c>
       <c r="J36" t="n">
-        <v>3.96</v>
+        <v>4.35</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.6837</v>
+        <v>5.705</v>
       </c>
       <c r="F37" t="n">
-        <v>85255.5</v>
+        <v>85575</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>1960.5</v>
+        <v>2280</v>
       </c>
       <c r="J37" t="n">
-        <v>2.35</v>
+        <v>2.74</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.27</v>
+        <v>7.19</v>
       </c>
       <c r="F41" t="n">
-        <v>7270</v>
+        <v>7190</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="J41" t="n">
-        <v>2.26</v>
+        <v>1.14</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>6.8</v>
+        <v>6.75</v>
       </c>
       <c r="F42" t="n">
-        <v>7480</v>
+        <v>7425</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>895.3999999999996</v>
+        <v>840.3999999999996</v>
       </c>
       <c r="J42" t="n">
-        <v>13.6</v>
+        <v>12.76</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>37.85</v>
+        <v>37.5</v>
       </c>
       <c r="F43" t="n">
-        <v>56775</v>
+        <v>56250</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-7680</v>
+        <v>-8205</v>
       </c>
       <c r="J43" t="n">
-        <v>-11.92</v>
+        <v>-12.73</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.4863</v>
+        <v>3.5908</v>
       </c>
       <c r="F2" t="n">
-        <v>2578.781247</v>
+        <v>2656.078852000001</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>708.5490510000004</v>
+        <v>785.8466560000006</v>
       </c>
       <c r="J2" t="n">
-        <v>37.89</v>
+        <v>42.02</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.4832</v>
+        <v>3.49</v>
       </c>
       <c r="F3" t="n">
-        <v>1129.671424</v>
+        <v>1131.8768</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>129.7279999999998</v>
+        <v>131.933376</v>
       </c>
       <c r="J3" t="n">
-        <v>12.97</v>
+        <v>13.19</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.3056</v>
+        <v>1.3035</v>
       </c>
       <c r="F4" t="n">
-        <v>7441.920000000001</v>
+        <v>7429.950000000001</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2021.220000000001</v>
+        <v>2009.250000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>37.29</v>
+        <v>37.07</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0285</v>
+        <v>2.039</v>
       </c>
       <c r="F5" t="n">
-        <v>2405.659005</v>
+        <v>2418.11127</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>5.692464000000655</v>
+        <v>18.14472900000055</v>
       </c>
       <c r="J5" t="n">
-        <v>0.24</v>
+        <v>0.76</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.3835</v>
+        <v>1.3645</v>
       </c>
       <c r="F6" t="n">
-        <v>2348.200715</v>
+        <v>2315.952205</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-151.7377259999998</v>
+        <v>-183.9862359999997</v>
       </c>
       <c r="J6" t="n">
-        <v>-6.07</v>
+        <v>-7.36</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.3835</v>
+        <v>1.3645</v>
       </c>
       <c r="F7" t="n">
-        <v>4972.43735</v>
+        <v>4904.14945</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-347.5494699999999</v>
+        <v>-415.8373700000002</v>
       </c>
       <c r="J7" t="n">
-        <v>-6.53</v>
+        <v>-7.82</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8392</v>
+        <v>1.8578</v>
       </c>
       <c r="F8" t="n">
-        <v>23725.68</v>
+        <v>23965.62</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4427.279999999999</v>
+        <v>4667.219999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>22.94</v>
+        <v>24.18</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9326</v>
+        <v>2.943</v>
       </c>
       <c r="F9" t="n">
-        <v>888.0206059999999</v>
+        <v>891.16983</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>139.0806329999999</v>
+        <v>142.229857</v>
       </c>
       <c r="J9" t="n">
-        <v>18.57</v>
+        <v>18.99</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.11</v>
+        <v>2.1081</v>
       </c>
       <c r="F10" t="n">
-        <v>2195.3073</v>
+        <v>2193.330483</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>195.2887109999999</v>
+        <v>193.3118940000002</v>
       </c>
       <c r="J10" t="n">
-        <v>9.76</v>
+        <v>9.67</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.578</v>
+        <v>1.5772</v>
       </c>
       <c r="F11" t="n">
-        <v>6528.54894</v>
+        <v>6525.239155999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>549.4241439999996</v>
+        <v>546.1143599999987</v>
       </c>
       <c r="J11" t="n">
-        <v>9.19</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.578</v>
+        <v>1.5772</v>
       </c>
       <c r="F12" t="n">
-        <v>9490.20246</v>
+        <v>9485.391204</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>390.3131430000012</v>
+        <v>385.5018870000004</v>
       </c>
       <c r="J12" t="n">
-        <v>4.29</v>
+        <v>4.24</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.287</v>
+        <v>2.2937</v>
       </c>
       <c r="F15" t="n">
-        <v>21269.1</v>
+        <v>21331.41</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1822.799999999999</v>
+        <v>1885.110000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>9.369999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>26.05</v>
+        <v>25.98</v>
       </c>
       <c r="F16" t="n">
-        <v>13025</v>
+        <v>12990</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-790</v>
+        <v>-825</v>
       </c>
       <c r="J16" t="n">
-        <v>-5.72</v>
+        <v>-5.97</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.880000000000001</v>
+        <v>8.81</v>
       </c>
       <c r="F17" t="n">
-        <v>17760</v>
+        <v>17620</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-140</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-0.79</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0797</v>
+        <v>1.082</v>
       </c>
       <c r="F18" t="n">
-        <v>4241.266743</v>
+        <v>4250.30158</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-65.20795399999952</v>
+        <v>-56.17311699999937</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.51</v>
+        <v>-1.3</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.58</v>
+        <v>1.5903</v>
       </c>
       <c r="F19" t="n">
-        <v>13746</v>
+        <v>13835.61</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>287.1000000000004</v>
+        <v>376.7100000000009</v>
       </c>
       <c r="J19" t="n">
-        <v>2.13</v>
+        <v>2.8</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2987</v>
+        <v>1.3076</v>
       </c>
       <c r="F20" t="n">
-        <v>10293.314382</v>
+        <v>10363.854536</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>293.2568199999987</v>
+        <v>363.7969740000008</v>
       </c>
       <c r="J20" t="n">
-        <v>2.93</v>
+        <v>3.64</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1478</v>
+        <v>1.1536</v>
       </c>
       <c r="F21" t="n">
-        <v>12970.14</v>
+        <v>13035.68</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>336.7399999999998</v>
+        <v>402.2800000000007</v>
       </c>
       <c r="J21" t="n">
-        <v>2.67</v>
+        <v>3.18</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5776</v>
+        <v>1.5806</v>
       </c>
       <c r="F22" t="n">
-        <v>842.2648639999999</v>
+        <v>843.866534</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>113.1312909999999</v>
+        <v>114.732961</v>
       </c>
       <c r="J22" t="n">
-        <v>15.52</v>
+        <v>15.74</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5776</v>
+        <v>1.5806</v>
       </c>
       <c r="F23" t="n">
-        <v>20385.337024</v>
+        <v>20424.102244</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1184.923557999995</v>
+        <v>1223.688778</v>
       </c>
       <c r="J23" t="n">
-        <v>6.17</v>
+        <v>6.37</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4145</v>
+        <v>1.4183</v>
       </c>
       <c r="F24" t="n">
-        <v>925.5356400000002</v>
+        <v>928.022056</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>125.5640080000002</v>
+        <v>128.050424</v>
       </c>
       <c r="J24" t="n">
-        <v>15.7</v>
+        <v>16.01</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7054</v>
+        <v>5.7183</v>
       </c>
       <c r="F26" t="n">
-        <v>2369.680836</v>
+        <v>2375.038722</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>269.6802619999999</v>
+        <v>275.0381479999996</v>
       </c>
       <c r="J26" t="n">
-        <v>12.84</v>
+        <v>13.1</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8297</v>
+        <v>1.8334</v>
       </c>
       <c r="F28" t="n">
-        <v>7060.446360000001</v>
+        <v>7074.72392</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>760.569480000001</v>
+        <v>774.8470400000006</v>
       </c>
       <c r="J28" t="n">
-        <v>12.07</v>
+        <v>12.3</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8297</v>
+        <v>1.8334</v>
       </c>
       <c r="F29" t="n">
-        <v>15935.387913</v>
+        <v>15967.612286</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>935.3777460000019</v>
+        <v>967.602119000001</v>
       </c>
       <c r="J29" t="n">
-        <v>6.24</v>
+        <v>6.45</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2157</v>
+        <v>2.2237</v>
       </c>
       <c r="F33" t="n">
-        <v>13515.77</v>
+        <v>13564.57</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1242.57</v>
+        <v>1291.369999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>10.12</v>
+        <v>10.52</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7849</v>
+        <v>1.7887</v>
       </c>
       <c r="F34" t="n">
-        <v>34091.59</v>
+        <v>34164.17</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2920.389999999996</v>
+        <v>2992.969999999998</v>
       </c>
       <c r="J34" t="n">
-        <v>9.369999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.705</v>
+        <v>5.7418</v>
       </c>
       <c r="F35" t="n">
-        <v>34722.7979</v>
+        <v>34946.776684</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1522.812275999997</v>
+        <v>1746.791059999996</v>
       </c>
       <c r="J35" t="n">
-        <v>4.59</v>
+        <v>5.26</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.705</v>
+        <v>5.7418</v>
       </c>
       <c r="F36" t="n">
-        <v>11791.4363</v>
+        <v>11867.496748</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>491.4993080000004</v>
+        <v>567.5597559999987</v>
       </c>
       <c r="J36" t="n">
-        <v>4.35</v>
+        <v>5.02</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.705</v>
+        <v>5.7418</v>
       </c>
       <c r="F37" t="n">
-        <v>85575</v>
+        <v>86127</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>2280</v>
+        <v>2832</v>
       </c>
       <c r="J37" t="n">
-        <v>2.74</v>
+        <v>3.4</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3486</v>
+        <v>2.3521</v>
       </c>
       <c r="F38" t="n">
-        <v>17082.330726</v>
+        <v>17107.787661</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1282.302182999996</v>
+        <v>1307.759117999998</v>
       </c>
       <c r="J38" t="n">
-        <v>8.119999999999999</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3486</v>
+        <v>2.3521</v>
       </c>
       <c r="F39" t="n">
-        <v>24490.989426</v>
+        <v>24527.487111</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1491.191129999996</v>
+        <v>1527.688815000001</v>
       </c>
       <c r="J39" t="n">
-        <v>6.48</v>
+        <v>6.64</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8901</v>
+        <v>1.8931</v>
       </c>
       <c r="F40" t="n">
-        <v>12663.67</v>
+        <v>12683.77</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2211.67</v>
+        <v>2231.77</v>
       </c>
       <c r="J40" t="n">
-        <v>21.16</v>
+        <v>21.35</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.19</v>
+        <v>7.24</v>
       </c>
       <c r="F41" t="n">
-        <v>7190</v>
+        <v>7240</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="J41" t="n">
-        <v>1.14</v>
+        <v>1.84</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>6.75</v>
+        <v>6.88</v>
       </c>
       <c r="F42" t="n">
-        <v>7425</v>
+        <v>7568</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>840.3999999999996</v>
+        <v>983.3999999999996</v>
       </c>
       <c r="J42" t="n">
-        <v>12.76</v>
+        <v>14.93</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>37.5</v>
+        <v>38.06</v>
       </c>
       <c r="F43" t="n">
-        <v>56250</v>
+        <v>57090</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-8205</v>
+        <v>-7365</v>
       </c>
       <c r="J43" t="n">
-        <v>-12.73</v>
+        <v>-11.43</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.5908</v>
+        <v>3.5911</v>
       </c>
       <c r="F2" t="n">
-        <v>2656.078852000001</v>
+        <v>2656.300759</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>785.8466560000006</v>
+        <v>786.0685630000003</v>
       </c>
       <c r="J2" t="n">
-        <v>42.02</v>
+        <v>42.03</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.3035</v>
+        <v>1.3045</v>
       </c>
       <c r="F4" t="n">
-        <v>7429.950000000001</v>
+        <v>7435.65</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2009.250000000001</v>
+        <v>2014.95</v>
       </c>
       <c r="J4" t="n">
-        <v>37.07</v>
+        <v>37.17</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.039</v>
+        <v>2.057</v>
       </c>
       <c r="F5" t="n">
-        <v>2418.11127</v>
+        <v>2439.45801</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>18.14472900000055</v>
+        <v>39.49146900000051</v>
       </c>
       <c r="J5" t="n">
-        <v>0.76</v>
+        <v>1.65</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8578</v>
+        <v>1.8659</v>
       </c>
       <c r="F8" t="n">
-        <v>23965.62</v>
+        <v>24070.11</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4667.219999999998</v>
+        <v>4771.709999999995</v>
       </c>
       <c r="J8" t="n">
-        <v>24.18</v>
+        <v>24.73</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.943</v>
+        <v>2.9547</v>
       </c>
       <c r="F9" t="n">
-        <v>891.16983</v>
+        <v>894.712707</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>142.229857</v>
+        <v>145.772734</v>
       </c>
       <c r="J9" t="n">
-        <v>18.99</v>
+        <v>19.46</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1081</v>
+        <v>2.1156</v>
       </c>
       <c r="F10" t="n">
-        <v>2193.330483</v>
+        <v>2201.133708</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>193.3118940000002</v>
+        <v>201.1151190000003</v>
       </c>
       <c r="J10" t="n">
-        <v>9.67</v>
+        <v>10.06</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5772</v>
+        <v>1.5828</v>
       </c>
       <c r="F11" t="n">
-        <v>6525.239155999999</v>
+        <v>6548.407643999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>546.1143599999987</v>
+        <v>569.2828479999989</v>
       </c>
       <c r="J11" t="n">
-        <v>9.130000000000001</v>
+        <v>9.52</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5772</v>
+        <v>1.5828</v>
       </c>
       <c r="F12" t="n">
-        <v>9485.391204</v>
+        <v>9519.069996</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>385.5018870000004</v>
+        <v>419.180679000001</v>
       </c>
       <c r="J12" t="n">
-        <v>4.24</v>
+        <v>4.61</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>25.98</v>
+        <v>25.93</v>
       </c>
       <c r="F16" t="n">
-        <v>12990</v>
+        <v>12965</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-825</v>
+        <v>-850</v>
       </c>
       <c r="J16" t="n">
-        <v>-5.97</v>
+        <v>-6.15</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.81</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>17620</v>
+        <v>17400</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-140</v>
+        <v>-360</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.79</v>
+        <v>-2.03</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.082</v>
+        <v>1.0735</v>
       </c>
       <c r="F18" t="n">
-        <v>4250.30158</v>
+        <v>4216.911964999999</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-56.17311699999937</v>
+        <v>-89.56273200000032</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.3</v>
+        <v>-2.08</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5903</v>
+        <v>1.5768</v>
       </c>
       <c r="F19" t="n">
-        <v>13835.61</v>
+        <v>13718.16</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>376.7100000000009</v>
+        <v>259.2600000000002</v>
       </c>
       <c r="J19" t="n">
-        <v>2.8</v>
+        <v>1.93</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3076</v>
+        <v>1.3087</v>
       </c>
       <c r="F20" t="n">
-        <v>10363.854536</v>
+        <v>10372.572982</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>363.7969740000008</v>
+        <v>372.5154199999997</v>
       </c>
       <c r="J20" t="n">
-        <v>3.64</v>
+        <v>3.73</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1536</v>
+        <v>1.148</v>
       </c>
       <c r="F21" t="n">
-        <v>13035.68</v>
+        <v>12972.4</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>402.2800000000007</v>
+        <v>339</v>
       </c>
       <c r="J21" t="n">
-        <v>3.18</v>
+        <v>2.68</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5806</v>
+        <v>1.5848</v>
       </c>
       <c r="F22" t="n">
-        <v>843.866534</v>
+        <v>846.108872</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>114.732961</v>
+        <v>116.9752990000001</v>
       </c>
       <c r="J22" t="n">
-        <v>15.74</v>
+        <v>16.04</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5806</v>
+        <v>1.5848</v>
       </c>
       <c r="F23" t="n">
-        <v>20424.102244</v>
+        <v>20478.373552</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1223.688778</v>
+        <v>1277.960085999999</v>
       </c>
       <c r="J23" t="n">
-        <v>6.37</v>
+        <v>6.66</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4183</v>
+        <v>1.4303</v>
       </c>
       <c r="F24" t="n">
-        <v>928.022056</v>
+        <v>935.8738960000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>128.050424</v>
+        <v>135.9022640000001</v>
       </c>
       <c r="J24" t="n">
-        <v>16.01</v>
+        <v>16.99</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7183</v>
+        <v>5.7365</v>
       </c>
       <c r="F26" t="n">
-        <v>2375.038722</v>
+        <v>2382.59791</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>275.0381479999996</v>
+        <v>282.5973359999998</v>
       </c>
       <c r="J26" t="n">
-        <v>13.1</v>
+        <v>13.46</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8334</v>
+        <v>1.8384</v>
       </c>
       <c r="F28" t="n">
-        <v>7074.72392</v>
+        <v>7094.01792</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>774.8470400000006</v>
+        <v>794.1410400000004</v>
       </c>
       <c r="J28" t="n">
-        <v>12.3</v>
+        <v>12.61</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8334</v>
+        <v>1.8384</v>
       </c>
       <c r="F29" t="n">
-        <v>15967.612286</v>
+        <v>16011.158736</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>967.602119000001</v>
+        <v>1011.148569000001</v>
       </c>
       <c r="J29" t="n">
-        <v>6.45</v>
+        <v>6.74</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8968</v>
+        <v>1.9187</v>
       </c>
       <c r="F30" t="n">
-        <v>9973.545112</v>
+        <v>10088.697283</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1093.156911</v>
+        <v>1208.309082000002</v>
       </c>
       <c r="J30" t="n">
-        <v>12.31</v>
+        <v>13.61</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8968</v>
+        <v>1.9187</v>
       </c>
       <c r="F31" t="n">
-        <v>1278.955336</v>
+        <v>1293.721849</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>78.95701699999995</v>
+        <v>93.72352999999998</v>
       </c>
       <c r="J31" t="n">
-        <v>6.58</v>
+        <v>7.81</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2237</v>
+        <v>2.2306</v>
       </c>
       <c r="F33" t="n">
-        <v>13564.57</v>
+        <v>13606.66</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1291.369999999999</v>
+        <v>1333.459999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>10.52</v>
+        <v>10.86</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7887</v>
+        <v>1.794</v>
       </c>
       <c r="F34" t="n">
-        <v>34164.17</v>
+        <v>34265.4</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2992.969999999998</v>
+        <v>3094.200000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>9.6</v>
+        <v>9.93</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.7418</v>
+        <v>5.8173</v>
       </c>
       <c r="F35" t="n">
-        <v>34946.776684</v>
+        <v>35406.29837400001</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1746.791059999996</v>
+        <v>2206.312750000005</v>
       </c>
       <c r="J35" t="n">
-        <v>5.26</v>
+        <v>6.65</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.7418</v>
+        <v>5.8173</v>
       </c>
       <c r="F36" t="n">
-        <v>11867.496748</v>
+        <v>12023.544678</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>567.5597559999987</v>
+        <v>723.6076860000012</v>
       </c>
       <c r="J36" t="n">
-        <v>5.02</v>
+        <v>6.4</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.7418</v>
+        <v>5.8173</v>
       </c>
       <c r="F37" t="n">
-        <v>86127</v>
+        <v>87259.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>2832</v>
+        <v>3964.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.4</v>
+        <v>4.76</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3521</v>
+        <v>2.3662</v>
       </c>
       <c r="F38" t="n">
-        <v>17107.787661</v>
+        <v>17210.342742</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1307.759117999998</v>
+        <v>1410.314199</v>
       </c>
       <c r="J38" t="n">
-        <v>8.279999999999999</v>
+        <v>8.93</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3521</v>
+        <v>2.3662</v>
       </c>
       <c r="F39" t="n">
-        <v>24527.487111</v>
+        <v>24674.520642</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1527.688815000001</v>
+        <v>1674.722345999999</v>
       </c>
       <c r="J39" t="n">
-        <v>6.64</v>
+        <v>7.28</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8931</v>
+        <v>1.9049</v>
       </c>
       <c r="F40" t="n">
-        <v>12683.77</v>
+        <v>12762.83</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2231.77</v>
+        <v>2310.83</v>
       </c>
       <c r="J40" t="n">
-        <v>21.35</v>
+        <v>22.11</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.24</v>
+        <v>7.21</v>
       </c>
       <c r="F41" t="n">
-        <v>7240</v>
+        <v>7210</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="J41" t="n">
-        <v>1.84</v>
+        <v>1.42</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>6.88</v>
+        <v>6.85</v>
       </c>
       <c r="F42" t="n">
-        <v>7568</v>
+        <v>7535</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>983.3999999999996</v>
+        <v>950.3999999999996</v>
       </c>
       <c r="J42" t="n">
-        <v>14.93</v>
+        <v>14.43</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>38.06</v>
+        <v>38.12</v>
       </c>
       <c r="F43" t="n">
-        <v>57090</v>
+        <v>57179.99999999999</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-7365</v>
+        <v>-7275.000000000007</v>
       </c>
       <c r="J43" t="n">
-        <v>-11.43</v>
+        <v>-11.29</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.5911</v>
+        <v>3.7124</v>
       </c>
       <c r="F2" t="n">
-        <v>2656.300759</v>
+        <v>2746.025156</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>786.0685630000003</v>
+        <v>875.7929600000002</v>
       </c>
       <c r="J2" t="n">
-        <v>42.03</v>
+        <v>46.83</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.49</v>
+        <v>3.634</v>
       </c>
       <c r="F3" t="n">
-        <v>1131.8768</v>
+        <v>1178.57888</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>131.933376</v>
+        <v>178.635456</v>
       </c>
       <c r="J3" t="n">
-        <v>13.19</v>
+        <v>17.86</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.3045</v>
+        <v>1.309</v>
       </c>
       <c r="F4" t="n">
-        <v>7435.65</v>
+        <v>7461.299999999999</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2014.95</v>
+        <v>2040.599999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>37.17</v>
+        <v>37.64</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.057</v>
+        <v>2.0661</v>
       </c>
       <c r="F5" t="n">
-        <v>2439.45801</v>
+        <v>2450.249973</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>39.49146900000051</v>
+        <v>50.28343200000063</v>
       </c>
       <c r="J5" t="n">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.3645</v>
+        <v>1.3695</v>
       </c>
       <c r="F6" t="n">
-        <v>2315.952205</v>
+        <v>2324.438655</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-183.9862359999997</v>
+        <v>-175.4997859999999</v>
       </c>
       <c r="J6" t="n">
-        <v>-7.36</v>
+        <v>-7.02</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.3645</v>
+        <v>1.3695</v>
       </c>
       <c r="F7" t="n">
-        <v>4904.14945</v>
+        <v>4922.119949999999</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-415.8373700000002</v>
+        <v>-397.8668700000007</v>
       </c>
       <c r="J7" t="n">
-        <v>-7.82</v>
+        <v>-7.48</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8659</v>
+        <v>1.8875</v>
       </c>
       <c r="F8" t="n">
-        <v>24070.11</v>
+        <v>24348.75</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4771.709999999995</v>
+        <v>5050.349999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>24.73</v>
+        <v>26.17</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9547</v>
+        <v>2.9507</v>
       </c>
       <c r="F9" t="n">
-        <v>894.712707</v>
+        <v>893.5014669999999</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>145.772734</v>
+        <v>144.5614939999999</v>
       </c>
       <c r="J9" t="n">
-        <v>19.46</v>
+        <v>19.3</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1156</v>
+        <v>2.124</v>
       </c>
       <c r="F10" t="n">
-        <v>2201.133708</v>
+        <v>2209.87332</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>201.1151190000003</v>
+        <v>209.8547310000001</v>
       </c>
       <c r="J10" t="n">
-        <v>10.06</v>
+        <v>10.49</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5828</v>
+        <v>1.5888</v>
       </c>
       <c r="F11" t="n">
-        <v>6548.407643999999</v>
+        <v>6573.231024</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>569.2828479999989</v>
+        <v>594.1062279999996</v>
       </c>
       <c r="J11" t="n">
-        <v>9.52</v>
+        <v>9.94</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5828</v>
+        <v>1.5888</v>
       </c>
       <c r="F12" t="n">
-        <v>9519.069996</v>
+        <v>9555.154415999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>419.180679000001</v>
+        <v>455.2650990000002</v>
       </c>
       <c r="J12" t="n">
-        <v>4.61</v>
+        <v>5</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2937</v>
+        <v>2.2994</v>
       </c>
       <c r="F15" t="n">
-        <v>21331.41</v>
+        <v>21384.42</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1885.110000000001</v>
+        <v>1938.119999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>9.69</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>25.93</v>
+        <v>25.65</v>
       </c>
       <c r="F16" t="n">
-        <v>12965</v>
+        <v>12825</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-850</v>
+        <v>-990</v>
       </c>
       <c r="J16" t="n">
-        <v>-6.15</v>
+        <v>-7.17</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.699999999999999</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>17400</v>
+        <v>17240</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-360</v>
+        <v>-520</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.03</v>
+        <v>-2.93</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0735</v>
+        <v>1.0822</v>
       </c>
       <c r="F18" t="n">
-        <v>4216.911964999999</v>
+        <v>4251.087218000001</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-89.56273200000032</v>
+        <v>-55.38747899999908</v>
       </c>
       <c r="J18" t="n">
-        <v>-2.08</v>
+        <v>-1.29</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5768</v>
+        <v>1.6012</v>
       </c>
       <c r="F19" t="n">
-        <v>13718.16</v>
+        <v>13930.44</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>259.2600000000002</v>
+        <v>471.5400000000009</v>
       </c>
       <c r="J19" t="n">
-        <v>1.93</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3087</v>
+        <v>1.3311</v>
       </c>
       <c r="F20" t="n">
-        <v>10372.572982</v>
+        <v>10550.112246</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>372.5154199999997</v>
+        <v>550.0546839999988</v>
       </c>
       <c r="J20" t="n">
-        <v>3.73</v>
+        <v>5.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.148</v>
+        <v>1.1505</v>
       </c>
       <c r="F21" t="n">
-        <v>12972.4</v>
+        <v>13000.65</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>339</v>
+        <v>367.2500000000018</v>
       </c>
       <c r="J21" t="n">
-        <v>2.68</v>
+        <v>2.91</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5848</v>
+        <v>1.5984</v>
       </c>
       <c r="F22" t="n">
-        <v>846.108872</v>
+        <v>853.369776</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>116.9752990000001</v>
+        <v>124.236203</v>
       </c>
       <c r="J22" t="n">
-        <v>16.04</v>
+        <v>17.04</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5848</v>
+        <v>1.5984</v>
       </c>
       <c r="F23" t="n">
-        <v>20478.373552</v>
+        <v>20654.109216</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1277.960085999999</v>
+        <v>1453.695749999999</v>
       </c>
       <c r="J23" t="n">
-        <v>6.66</v>
+        <v>7.57</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4303</v>
+        <v>1.4326</v>
       </c>
       <c r="F24" t="n">
-        <v>935.8738960000001</v>
+        <v>937.3788320000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>135.9022640000001</v>
+        <v>137.4072000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>16.99</v>
+        <v>17.18</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7365</v>
+        <v>5.7874</v>
       </c>
       <c r="F26" t="n">
-        <v>2382.59791</v>
+        <v>2403.738716</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>282.5973359999998</v>
+        <v>303.7381419999997</v>
       </c>
       <c r="J26" t="n">
-        <v>13.46</v>
+        <v>14.46</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8384</v>
+        <v>1.8543</v>
       </c>
       <c r="F28" t="n">
-        <v>7094.01792</v>
+        <v>7155.372840000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>794.1410400000004</v>
+        <v>855.4959600000011</v>
       </c>
       <c r="J28" t="n">
-        <v>12.61</v>
+        <v>13.58</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8384</v>
+        <v>1.8543</v>
       </c>
       <c r="F29" t="n">
-        <v>16011.158736</v>
+        <v>16149.636447</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1011.148569000001</v>
+        <v>1149.626280000002</v>
       </c>
       <c r="J29" t="n">
-        <v>6.74</v>
+        <v>7.66</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9187</v>
+        <v>1.922</v>
       </c>
       <c r="F30" t="n">
-        <v>10088.697283</v>
+        <v>10106.04898</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1208.309082000002</v>
+        <v>1225.660779</v>
       </c>
       <c r="J30" t="n">
-        <v>13.61</v>
+        <v>13.8</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9187</v>
+        <v>1.922</v>
       </c>
       <c r="F31" t="n">
-        <v>1293.721849</v>
+        <v>1295.94694</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>93.72352999999998</v>
+        <v>95.94862099999978</v>
       </c>
       <c r="J31" t="n">
-        <v>7.81</v>
+        <v>8</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2306</v>
+        <v>2.25</v>
       </c>
       <c r="F33" t="n">
-        <v>13606.66</v>
+        <v>13725</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1333.459999999999</v>
+        <v>1451.799999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>10.86</v>
+        <v>11.83</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.794</v>
+        <v>1.8101</v>
       </c>
       <c r="F34" t="n">
-        <v>34265.4</v>
+        <v>34572.91</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3094.200000000001</v>
+        <v>3401.710000000003</v>
       </c>
       <c r="J34" t="n">
-        <v>9.93</v>
+        <v>10.91</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8173</v>
+        <v>5.842</v>
       </c>
       <c r="F35" t="n">
-        <v>35406.29837400001</v>
+        <v>35556.63196</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2206.312750000005</v>
+        <v>2356.646335999998</v>
       </c>
       <c r="J35" t="n">
-        <v>6.65</v>
+        <v>7.1</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.8173</v>
+        <v>5.842</v>
       </c>
       <c r="F36" t="n">
-        <v>12023.544678</v>
+        <v>12074.59612</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>723.6076860000012</v>
+        <v>774.6591279999993</v>
       </c>
       <c r="J36" t="n">
-        <v>6.4</v>
+        <v>6.86</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.8173</v>
+        <v>5.842</v>
       </c>
       <c r="F37" t="n">
-        <v>87259.5</v>
+        <v>87630</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>3964.5</v>
+        <v>4335</v>
       </c>
       <c r="J37" t="n">
-        <v>4.76</v>
+        <v>5.2</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3662</v>
+        <v>2.3927</v>
       </c>
       <c r="F38" t="n">
-        <v>17210.342742</v>
+        <v>17403.088107</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1410.314199</v>
+        <v>1603.059563999999</v>
       </c>
       <c r="J38" t="n">
-        <v>8.93</v>
+        <v>10.15</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3662</v>
+        <v>2.3927</v>
       </c>
       <c r="F39" t="n">
-        <v>24674.520642</v>
+        <v>24950.860257</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1674.722345999999</v>
+        <v>1951.061960999999</v>
       </c>
       <c r="J39" t="n">
-        <v>7.28</v>
+        <v>8.48</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9049</v>
+        <v>1.9279</v>
       </c>
       <c r="F40" t="n">
-        <v>12762.83</v>
+        <v>12916.93</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2310.83</v>
+        <v>2464.93</v>
       </c>
       <c r="J40" t="n">
-        <v>22.11</v>
+        <v>23.58</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.21</v>
+        <v>7.19</v>
       </c>
       <c r="F41" t="n">
-        <v>7210</v>
+        <v>7190</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="J41" t="n">
-        <v>1.42</v>
+        <v>1.14</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>6.85</v>
+        <v>6.76</v>
       </c>
       <c r="F42" t="n">
-        <v>7535</v>
+        <v>7436</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>950.3999999999996</v>
+        <v>851.3999999999996</v>
       </c>
       <c r="J42" t="n">
-        <v>14.43</v>
+        <v>12.93</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>38.12</v>
+        <v>37.88</v>
       </c>
       <c r="F43" t="n">
-        <v>57179.99999999999</v>
+        <v>56820.00000000001</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-7275.000000000007</v>
+        <v>-7634.999999999993</v>
       </c>
       <c r="J43" t="n">
-        <v>-11.29</v>
+        <v>-11.85</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.7124</v>
+        <v>3.8921</v>
       </c>
       <c r="F2" t="n">
-        <v>2746.025156</v>
+        <v>2878.947449</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>875.7929600000002</v>
+        <v>1008.715253</v>
       </c>
       <c r="J2" t="n">
-        <v>46.83</v>
+        <v>53.94</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.634</v>
+        <v>3.6004</v>
       </c>
       <c r="F3" t="n">
-        <v>1178.57888</v>
+        <v>1167.681728</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>178.635456</v>
+        <v>167.738304</v>
       </c>
       <c r="J3" t="n">
-        <v>17.86</v>
+        <v>16.77</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.309</v>
+        <v>1.3129</v>
       </c>
       <c r="F4" t="n">
-        <v>7461.299999999999</v>
+        <v>7483.53</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2040.599999999999</v>
+        <v>2062.83</v>
       </c>
       <c r="J4" t="n">
-        <v>37.64</v>
+        <v>38.05</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0661</v>
+        <v>2.0246</v>
       </c>
       <c r="F5" t="n">
-        <v>2450.249973</v>
+        <v>2401.033878</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>50.28343200000063</v>
+        <v>1.067337000000407</v>
       </c>
       <c r="J5" t="n">
-        <v>2.1</v>
+        <v>0.04</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.3695</v>
+        <v>1.3801</v>
       </c>
       <c r="F6" t="n">
-        <v>2324.438655</v>
+        <v>2342.429929</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-175.4997859999999</v>
+        <v>-157.5085119999999</v>
       </c>
       <c r="J6" t="n">
-        <v>-7.02</v>
+        <v>-6.3</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.3695</v>
+        <v>1.3801</v>
       </c>
       <c r="F7" t="n">
-        <v>4922.119949999999</v>
+        <v>4960.21741</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-397.8668700000007</v>
+        <v>-359.7694099999999</v>
       </c>
       <c r="J7" t="n">
-        <v>-7.48</v>
+        <v>-6.76</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8875</v>
+        <v>1.8845</v>
       </c>
       <c r="F8" t="n">
-        <v>24348.75</v>
+        <v>24310.05</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>5050.349999999999</v>
+        <v>5011.649999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>26.17</v>
+        <v>25.97</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9507</v>
+        <v>2.9475</v>
       </c>
       <c r="F9" t="n">
-        <v>893.5014669999999</v>
+        <v>892.532475</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>144.5614939999999</v>
+        <v>143.592502</v>
       </c>
       <c r="J9" t="n">
-        <v>19.3</v>
+        <v>19.17</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.124</v>
+        <v>2.1207</v>
       </c>
       <c r="F10" t="n">
-        <v>2209.87332</v>
+        <v>2206.439901</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>209.8547310000001</v>
+        <v>206.4213119999997</v>
       </c>
       <c r="J10" t="n">
-        <v>10.49</v>
+        <v>10.32</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5888</v>
+        <v>1.5867</v>
       </c>
       <c r="F11" t="n">
-        <v>6573.231024</v>
+        <v>6564.542840999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>594.1062279999996</v>
+        <v>585.4180449999994</v>
       </c>
       <c r="J11" t="n">
-        <v>9.94</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5888</v>
+        <v>1.5867</v>
       </c>
       <c r="F12" t="n">
-        <v>9555.154415999999</v>
+        <v>9542.524868999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>455.2650990000002</v>
+        <v>442.6355519999997</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>4.86</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2994</v>
+        <v>2.2966</v>
       </c>
       <c r="F15" t="n">
-        <v>21384.42</v>
+        <v>21358.38</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1938.119999999999</v>
+        <v>1912.080000000002</v>
       </c>
       <c r="J15" t="n">
-        <v>9.970000000000001</v>
+        <v>9.83</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>25.65</v>
+        <v>26.04</v>
       </c>
       <c r="F16" t="n">
-        <v>12825</v>
+        <v>13020</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-990</v>
+        <v>-795</v>
       </c>
       <c r="J16" t="n">
-        <v>-7.17</v>
+        <v>-5.75</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.619999999999999</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>17240</v>
+        <v>17220</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-520</v>
+        <v>-540</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.93</v>
+        <v>-3.04</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0822</v>
+        <v>1.099</v>
       </c>
       <c r="F18" t="n">
-        <v>4251.087218000001</v>
+        <v>4317.08081</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-55.38747899999908</v>
+        <v>10.60611300000073</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.29</v>
+        <v>0.25</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6012</v>
+        <v>1.6209</v>
       </c>
       <c r="F19" t="n">
-        <v>13930.44</v>
+        <v>14101.83</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>471.5400000000009</v>
+        <v>642.9300000000003</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>4.78</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3311</v>
+        <v>1.3449</v>
       </c>
       <c r="F20" t="n">
-        <v>10550.112246</v>
+        <v>10659.489114</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>550.0546839999988</v>
+        <v>659.431552</v>
       </c>
       <c r="J20" t="n">
-        <v>5.5</v>
+        <v>6.59</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1505</v>
+        <v>1.1671</v>
       </c>
       <c r="F21" t="n">
-        <v>13000.65</v>
+        <v>13188.23</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>367.2500000000018</v>
+        <v>554.8299999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>2.91</v>
+        <v>4.39</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5984</v>
+        <v>1.6009</v>
       </c>
       <c r="F22" t="n">
-        <v>853.369776</v>
+        <v>854.7045009999999</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>124.236203</v>
+        <v>125.570928</v>
       </c>
       <c r="J22" t="n">
-        <v>17.04</v>
+        <v>17.22</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5984</v>
+        <v>1.6009</v>
       </c>
       <c r="F23" t="n">
-        <v>20654.109216</v>
+        <v>20686.413566</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1453.695749999999</v>
+        <v>1486.000099999997</v>
       </c>
       <c r="J23" t="n">
-        <v>7.57</v>
+        <v>7.74</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4326</v>
+        <v>1.4258</v>
       </c>
       <c r="F24" t="n">
-        <v>937.3788320000001</v>
+        <v>932.9294560000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>137.4072000000001</v>
+        <v>132.9578240000001</v>
       </c>
       <c r="J24" t="n">
-        <v>17.18</v>
+        <v>16.62</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7874</v>
+        <v>5.799</v>
       </c>
       <c r="F26" t="n">
-        <v>2403.738716</v>
+        <v>2408.55666</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>303.7381419999997</v>
+        <v>308.5560860000001</v>
       </c>
       <c r="J26" t="n">
-        <v>14.46</v>
+        <v>14.69</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8543</v>
+        <v>1.8576</v>
       </c>
       <c r="F28" t="n">
-        <v>7155.372840000001</v>
+        <v>7168.10688</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>855.4959600000011</v>
+        <v>868.2300000000005</v>
       </c>
       <c r="J28" t="n">
-        <v>13.58</v>
+        <v>13.78</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8543</v>
+        <v>1.8576</v>
       </c>
       <c r="F29" t="n">
-        <v>16149.636447</v>
+        <v>16178.377104</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1149.626280000002</v>
+        <v>1178.366937000001</v>
       </c>
       <c r="J29" t="n">
-        <v>7.66</v>
+        <v>7.86</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.922</v>
+        <v>1.9127</v>
       </c>
       <c r="F30" t="n">
-        <v>10106.04898</v>
+        <v>10057.148743</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1225.660779</v>
+        <v>1176.760542</v>
       </c>
       <c r="J30" t="n">
-        <v>13.8</v>
+        <v>13.25</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.922</v>
+        <v>1.9127</v>
       </c>
       <c r="F31" t="n">
-        <v>1295.94694</v>
+        <v>1289.676229</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>95.94862099999978</v>
+        <v>89.67790999999988</v>
       </c>
       <c r="J31" t="n">
-        <v>8</v>
+        <v>7.47</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.25</v>
+        <v>2.2535</v>
       </c>
       <c r="F33" t="n">
-        <v>13725</v>
+        <v>13746.35</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1451.799999999999</v>
+        <v>1473.149999999998</v>
       </c>
       <c r="J33" t="n">
-        <v>11.83</v>
+        <v>12</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.8101</v>
+        <v>1.8133</v>
       </c>
       <c r="F34" t="n">
-        <v>34572.91</v>
+        <v>34634.03</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3401.710000000003</v>
+        <v>3462.829999999998</v>
       </c>
       <c r="J34" t="n">
-        <v>10.91</v>
+        <v>11.11</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.842</v>
+        <v>5.7458</v>
       </c>
       <c r="F35" t="n">
-        <v>35556.63196</v>
+        <v>34971.122204</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>2356.646335999998</v>
+        <v>1771.136579999999</v>
       </c>
       <c r="J35" t="n">
-        <v>7.1</v>
+        <v>5.33</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.842</v>
+        <v>5.7458</v>
       </c>
       <c r="F36" t="n">
-        <v>12074.59612</v>
+        <v>11875.764188</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>774.6591279999993</v>
+        <v>575.8271960000002</v>
       </c>
       <c r="J36" t="n">
-        <v>6.86</v>
+        <v>5.1</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.842</v>
+        <v>5.7458</v>
       </c>
       <c r="F37" t="n">
-        <v>87630</v>
+        <v>86187</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>4335</v>
+        <v>2892</v>
       </c>
       <c r="J37" t="n">
-        <v>5.2</v>
+        <v>3.47</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3927</v>
+        <v>2.407</v>
       </c>
       <c r="F38" t="n">
-        <v>17403.088107</v>
+        <v>17507.09787</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1603.059563999999</v>
+        <v>1707.069327000001</v>
       </c>
       <c r="J38" t="n">
-        <v>10.15</v>
+        <v>10.8</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3927</v>
+        <v>2.407</v>
       </c>
       <c r="F39" t="n">
-        <v>24950.860257</v>
+        <v>25099.97937</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1951.061960999999</v>
+        <v>2100.181074</v>
       </c>
       <c r="J39" t="n">
-        <v>8.48</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9279</v>
+        <v>1.9398</v>
       </c>
       <c r="F40" t="n">
-        <v>12916.93</v>
+        <v>12996.66</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2464.93</v>
+        <v>2544.66</v>
       </c>
       <c r="J40" t="n">
-        <v>23.58</v>
+        <v>24.35</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.19</v>
+        <v>7.27</v>
       </c>
       <c r="F41" t="n">
-        <v>7190</v>
+        <v>7270</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="J41" t="n">
-        <v>1.14</v>
+        <v>2.26</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>6.76</v>
+        <v>6.78</v>
       </c>
       <c r="F42" t="n">
-        <v>7436</v>
+        <v>7458</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>851.3999999999996</v>
+        <v>873.3999999999996</v>
       </c>
       <c r="J42" t="n">
-        <v>12.93</v>
+        <v>13.26</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>37.88</v>
+        <v>38.53</v>
       </c>
       <c r="F43" t="n">
-        <v>56820.00000000001</v>
+        <v>57795</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-7634.999999999993</v>
+        <v>-6660</v>
       </c>
       <c r="J43" t="n">
-        <v>-11.85</v>
+        <v>-10.33</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.8921</v>
+        <v>3.656</v>
       </c>
       <c r="F2" t="n">
-        <v>2878.947449</v>
+        <v>2704.30664</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>1008.715253</v>
+        <v>834.0744440000003</v>
       </c>
       <c r="J2" t="n">
-        <v>53.94</v>
+        <v>44.6</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.3129</v>
+        <v>1.2974</v>
       </c>
       <c r="F4" t="n">
-        <v>7483.53</v>
+        <v>7395.18</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2062.83</v>
+        <v>1974.48</v>
       </c>
       <c r="J4" t="n">
-        <v>38.05</v>
+        <v>36.42</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.3801</v>
+        <v>1.3797</v>
       </c>
       <c r="F6" t="n">
-        <v>2342.429929</v>
+        <v>2341.751013</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-157.5085119999999</v>
+        <v>-158.1874280000002</v>
       </c>
       <c r="J6" t="n">
-        <v>-6.3</v>
+        <v>-6.33</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.3801</v>
+        <v>1.3797</v>
       </c>
       <c r="F7" t="n">
-        <v>4960.21741</v>
+        <v>4958.779769999999</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-359.7694099999999</v>
+        <v>-361.2070500000009</v>
       </c>
       <c r="J7" t="n">
-        <v>-6.76</v>
+        <v>-6.79</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8845</v>
+        <v>1.872</v>
       </c>
       <c r="F8" t="n">
-        <v>24310.05</v>
+        <v>24148.8</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>5011.649999999998</v>
+        <v>4850.400000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>25.97</v>
+        <v>25.13</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1207</v>
+        <v>2.115</v>
       </c>
       <c r="F10" t="n">
-        <v>2206.439901</v>
+        <v>2200.50945</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>206.4213119999997</v>
+        <v>200.4908610000005</v>
       </c>
       <c r="J10" t="n">
-        <v>10.32</v>
+        <v>10.02</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5867</v>
+        <v>1.5847</v>
       </c>
       <c r="F11" t="n">
-        <v>6564.542840999999</v>
+        <v>6556.268380999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>585.4180449999994</v>
+        <v>577.1435849999989</v>
       </c>
       <c r="J11" t="n">
-        <v>9.789999999999999</v>
+        <v>9.65</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5867</v>
+        <v>1.5847</v>
       </c>
       <c r="F12" t="n">
-        <v>9542.524868999999</v>
+        <v>9530.496729</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>442.6355519999997</v>
+        <v>430.6074120000012</v>
       </c>
       <c r="J12" t="n">
-        <v>4.86</v>
+        <v>4.73</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.099</v>
+        <v>1.086</v>
       </c>
       <c r="F18" t="n">
-        <v>4317.08081</v>
+        <v>4266.014340000001</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>10.60611300000073</v>
+        <v>-40.46035699999902</v>
       </c>
       <c r="J18" t="n">
-        <v>0.25</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6209</v>
+        <v>1.6048</v>
       </c>
       <c r="F19" t="n">
-        <v>14101.83</v>
+        <v>13961.76</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>642.9300000000003</v>
+        <v>502.8600000000006</v>
       </c>
       <c r="J19" t="n">
-        <v>4.78</v>
+        <v>3.74</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3449</v>
+        <v>1.3269</v>
       </c>
       <c r="F20" t="n">
-        <v>10659.489114</v>
+        <v>10516.823634</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>659.431552</v>
+        <v>516.7660719999985</v>
       </c>
       <c r="J20" t="n">
-        <v>6.59</v>
+        <v>5.17</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1671</v>
+        <v>1.1659</v>
       </c>
       <c r="F21" t="n">
-        <v>13188.23</v>
+        <v>13174.67</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>554.8299999999999</v>
+        <v>541.2700000000004</v>
       </c>
       <c r="J21" t="n">
-        <v>4.39</v>
+        <v>4.28</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.6009</v>
+        <v>1.5931</v>
       </c>
       <c r="F22" t="n">
-        <v>854.7045009999999</v>
+        <v>850.5401589999999</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>125.570928</v>
+        <v>121.4065859999999</v>
       </c>
       <c r="J22" t="n">
-        <v>17.22</v>
+        <v>16.65</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.6009</v>
+        <v>1.5931</v>
       </c>
       <c r="F23" t="n">
-        <v>20686.413566</v>
+        <v>20585.623994</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1486.000099999997</v>
+        <v>1385.210527999996</v>
       </c>
       <c r="J23" t="n">
-        <v>7.74</v>
+        <v>7.21</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.799</v>
+        <v>5.7682</v>
       </c>
       <c r="F26" t="n">
-        <v>2408.55666</v>
+        <v>2395.764188</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>308.5560860000001</v>
+        <v>295.763614</v>
       </c>
       <c r="J26" t="n">
-        <v>14.69</v>
+        <v>14.08</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8576</v>
+        <v>1.8486</v>
       </c>
       <c r="F28" t="n">
-        <v>7168.10688</v>
+        <v>7133.377680000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>868.2300000000005</v>
+        <v>833.5008000000007</v>
       </c>
       <c r="J28" t="n">
-        <v>13.78</v>
+        <v>13.23</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8576</v>
+        <v>1.8486</v>
       </c>
       <c r="F29" t="n">
-        <v>16178.377104</v>
+        <v>16099.993494</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1178.366937000001</v>
+        <v>1099.983327000002</v>
       </c>
       <c r="J29" t="n">
-        <v>7.86</v>
+        <v>7.33</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2535</v>
+        <v>2.2419</v>
       </c>
       <c r="F33" t="n">
-        <v>13746.35</v>
+        <v>13675.59</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1473.149999999998</v>
+        <v>1402.389999999998</v>
       </c>
       <c r="J33" t="n">
-        <v>12</v>
+        <v>11.43</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.8133</v>
+        <v>1.804</v>
       </c>
       <c r="F34" t="n">
-        <v>34634.03</v>
+        <v>34456.4</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3462.829999999998</v>
+        <v>3285.200000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>11.11</v>
+        <v>10.54</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.407</v>
+        <v>2.4014</v>
       </c>
       <c r="F38" t="n">
-        <v>17507.09787</v>
+        <v>17466.366774</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1707.069327000001</v>
+        <v>1666.338231000002</v>
       </c>
       <c r="J38" t="n">
-        <v>10.8</v>
+        <v>10.55</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.407</v>
+        <v>2.4014</v>
       </c>
       <c r="F39" t="n">
-        <v>25099.97937</v>
+        <v>25041.583074</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>2100.181074</v>
+        <v>2041.784778000001</v>
       </c>
       <c r="J39" t="n">
-        <v>9.130000000000001</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9398</v>
+        <v>1.9343</v>
       </c>
       <c r="F40" t="n">
-        <v>12996.66</v>
+        <v>12959.81</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2544.66</v>
+        <v>2507.809999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>24.35</v>
+        <v>23.99</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.6004</v>
+        <v>3.4762</v>
       </c>
       <c r="F3" t="n">
-        <v>1167.681728</v>
+        <v>1127.401184</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>167.738304</v>
+        <v>127.45776</v>
       </c>
       <c r="J3" t="n">
-        <v>16.77</v>
+        <v>12.75</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9475</v>
+        <v>2.9325</v>
       </c>
       <c r="F9" t="n">
-        <v>892.532475</v>
+        <v>887.990325</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>143.592502</v>
+        <v>139.050352</v>
       </c>
       <c r="J9" t="n">
-        <v>19.17</v>
+        <v>18.57</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>26.04</v>
+        <v>26.49</v>
       </c>
       <c r="F16" t="n">
-        <v>13020</v>
+        <v>13245</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-795</v>
+        <v>-570</v>
       </c>
       <c r="J16" t="n">
-        <v>-5.75</v>
+        <v>-4.13</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.609999999999999</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>17220</v>
+        <v>17240</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-540</v>
+        <v>-520</v>
       </c>
       <c r="J17" t="n">
-        <v>-3.04</v>
+        <v>-2.93</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4258</v>
+        <v>1.4069</v>
       </c>
       <c r="F24" t="n">
-        <v>932.9294560000001</v>
+        <v>920.5628080000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>132.9578240000001</v>
+        <v>120.5911760000001</v>
       </c>
       <c r="J24" t="n">
-        <v>16.62</v>
+        <v>15.07</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9127</v>
+        <v>1.8873</v>
       </c>
       <c r="F30" t="n">
-        <v>10057.148743</v>
+        <v>9923.593257</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1176.760542</v>
+        <v>1043.205056000001</v>
       </c>
       <c r="J30" t="n">
-        <v>13.25</v>
+        <v>11.75</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9127</v>
+        <v>1.8873</v>
       </c>
       <c r="F31" t="n">
-        <v>1289.676229</v>
+        <v>1272.549771</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>89.67790999999988</v>
+        <v>72.55145199999993</v>
       </c>
       <c r="J31" t="n">
-        <v>7.47</v>
+        <v>6.05</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.7458</v>
+        <v>5.6673</v>
       </c>
       <c r="F35" t="n">
-        <v>34971.122204</v>
+        <v>34493.341374</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1771.136579999999</v>
+        <v>1293.355750000002</v>
       </c>
       <c r="J35" t="n">
-        <v>5.33</v>
+        <v>3.9</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.7458</v>
+        <v>5.6673</v>
       </c>
       <c r="F36" t="n">
-        <v>11875.764188</v>
+        <v>11713.515678</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>575.8271960000002</v>
+        <v>413.5786860000007</v>
       </c>
       <c r="J36" t="n">
-        <v>5.1</v>
+        <v>3.66</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.7458</v>
+        <v>5.6673</v>
       </c>
       <c r="F37" t="n">
-        <v>86187</v>
+        <v>85009.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>2892</v>
+        <v>1714.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.47</v>
+        <v>2.06</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.27</v>
+        <v>7.26</v>
       </c>
       <c r="F41" t="n">
-        <v>7270</v>
+        <v>7260</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="J41" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>6.78</v>
+        <v>6.73</v>
       </c>
       <c r="F42" t="n">
-        <v>7458</v>
+        <v>7403.000000000001</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>873.3999999999996</v>
+        <v>818.4000000000005</v>
       </c>
       <c r="J42" t="n">
-        <v>13.26</v>
+        <v>12.43</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>38.53</v>
+        <v>38.88</v>
       </c>
       <c r="F43" t="n">
-        <v>57795</v>
+        <v>58320.00000000001</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-6660</v>
+        <v>-6134.999999999993</v>
       </c>
       <c r="J43" t="n">
-        <v>-10.33</v>
+        <v>-9.52</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.656</v>
+        <v>3.2467</v>
       </c>
       <c r="F2" t="n">
-        <v>2704.30664</v>
+        <v>2401.551523</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>834.0744440000003</v>
+        <v>531.3193270000002</v>
       </c>
       <c r="J2" t="n">
-        <v>44.6</v>
+        <v>28.41</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.4762</v>
+        <v>3.3884</v>
       </c>
       <c r="F3" t="n">
-        <v>1127.401184</v>
+        <v>1098.925888</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>127.45776</v>
+        <v>98.98246399999994</v>
       </c>
       <c r="J3" t="n">
-        <v>12.75</v>
+        <v>9.9</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2974</v>
+        <v>1.2632</v>
       </c>
       <c r="F4" t="n">
-        <v>7395.18</v>
+        <v>7200.240000000001</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1974.48</v>
+        <v>1779.540000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>36.42</v>
+        <v>32.83</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0246</v>
+        <v>2.047</v>
       </c>
       <c r="F5" t="n">
-        <v>2401.033878</v>
+        <v>2427.59871</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>1.067337000000407</v>
+        <v>27.63216900000043</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04</v>
+        <v>1.15</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.3797</v>
+        <v>1.3738</v>
       </c>
       <c r="F6" t="n">
-        <v>2341.751013</v>
+        <v>2331.737002</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-158.1874280000002</v>
+        <v>-168.2014389999999</v>
       </c>
       <c r="J6" t="n">
-        <v>-6.33</v>
+        <v>-6.73</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.3797</v>
+        <v>1.3738</v>
       </c>
       <c r="F7" t="n">
-        <v>4958.779769999999</v>
+        <v>4937.57458</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-361.2070500000009</v>
+        <v>-382.4122400000006</v>
       </c>
       <c r="J7" t="n">
-        <v>-6.79</v>
+        <v>-7.19</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.872</v>
+        <v>1.8401</v>
       </c>
       <c r="F8" t="n">
-        <v>24148.8</v>
+        <v>23737.29</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4850.400000000001</v>
+        <v>4438.889999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>25.13</v>
+        <v>23</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9325</v>
+        <v>2.9477</v>
       </c>
       <c r="F9" t="n">
-        <v>887.990325</v>
+        <v>892.5930370000001</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>139.050352</v>
+        <v>143.6530640000001</v>
       </c>
       <c r="J9" t="n">
-        <v>18.57</v>
+        <v>19.18</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.115</v>
+        <v>2.1079</v>
       </c>
       <c r="F10" t="n">
-        <v>2200.50945</v>
+        <v>2193.122397</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>200.4908610000005</v>
+        <v>193.1038080000001</v>
       </c>
       <c r="J10" t="n">
-        <v>10.02</v>
+        <v>9.66</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5847</v>
+        <v>1.5766</v>
       </c>
       <c r="F11" t="n">
-        <v>6556.268380999999</v>
+        <v>6522.756817999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>577.1435849999989</v>
+        <v>543.6320219999989</v>
       </c>
       <c r="J11" t="n">
-        <v>9.65</v>
+        <v>9.09</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5847</v>
+        <v>1.5766</v>
       </c>
       <c r="F12" t="n">
-        <v>9530.496729</v>
+        <v>9481.782761999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>430.6074120000012</v>
+        <v>381.8934449999997</v>
       </c>
       <c r="J12" t="n">
-        <v>4.73</v>
+        <v>4.2</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2966</v>
+        <v>2.2965</v>
       </c>
       <c r="F15" t="n">
-        <v>21358.38</v>
+        <v>21357.45</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,7 +4712,7 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1912.080000000002</v>
+        <v>1911.150000000001</v>
       </c>
       <c r="J15" t="n">
         <v>9.83</v>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>26.49</v>
+        <v>26.2</v>
       </c>
       <c r="F16" t="n">
-        <v>13245</v>
+        <v>13100</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-570</v>
+        <v>-715</v>
       </c>
       <c r="J16" t="n">
-        <v>-4.13</v>
+        <v>-5.18</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.619999999999999</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>17240</v>
+        <v>17100</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-520</v>
+        <v>-660</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.93</v>
+        <v>-3.72</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.086</v>
+        <v>1.0723</v>
       </c>
       <c r="F18" t="n">
-        <v>4266.014340000001</v>
+        <v>4212.198137</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-40.46035699999902</v>
+        <v>-94.27655999999934</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-2.19</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6048</v>
+        <v>1.5548</v>
       </c>
       <c r="F19" t="n">
-        <v>13961.76</v>
+        <v>13526.76</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>502.8600000000006</v>
+        <v>67.86000000000058</v>
       </c>
       <c r="J19" t="n">
-        <v>3.74</v>
+        <v>0.5</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3269</v>
+        <v>1.307</v>
       </c>
       <c r="F20" t="n">
-        <v>10516.823634</v>
+        <v>10359.09902</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>516.7660719999985</v>
+        <v>359.0414579999997</v>
       </c>
       <c r="J20" t="n">
-        <v>5.17</v>
+        <v>3.59</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1659</v>
+        <v>1.1522</v>
       </c>
       <c r="F21" t="n">
-        <v>13174.67</v>
+        <v>13019.86</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>541.2700000000004</v>
+        <v>386.4599999999991</v>
       </c>
       <c r="J21" t="n">
-        <v>4.28</v>
+        <v>3.06</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5931</v>
+        <v>1.5717</v>
       </c>
       <c r="F22" t="n">
-        <v>850.5401589999999</v>
+        <v>839.114913</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>121.4065859999999</v>
+        <v>109.98134</v>
       </c>
       <c r="J22" t="n">
-        <v>16.65</v>
+        <v>15.08</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5931</v>
+        <v>1.5717</v>
       </c>
       <c r="F23" t="n">
-        <v>20585.623994</v>
+        <v>20309.098758</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1385.210527999996</v>
+        <v>1108.685291999998</v>
       </c>
       <c r="J23" t="n">
-        <v>7.21</v>
+        <v>5.77</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4069</v>
+        <v>1.4168</v>
       </c>
       <c r="F24" t="n">
-        <v>920.5628080000001</v>
+        <v>927.0405760000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>120.5911760000001</v>
+        <v>127.0689440000001</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07</v>
+        <v>15.88</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7682</v>
+        <v>5.6895</v>
       </c>
       <c r="F26" t="n">
-        <v>2395.764188</v>
+        <v>2363.07693</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>295.763614</v>
+        <v>263.0763559999996</v>
       </c>
       <c r="J26" t="n">
-        <v>14.08</v>
+        <v>12.53</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8486</v>
+        <v>1.8237</v>
       </c>
       <c r="F28" t="n">
-        <v>7133.377680000001</v>
+        <v>7037.293560000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>833.5008000000007</v>
+        <v>737.4166800000012</v>
       </c>
       <c r="J28" t="n">
-        <v>13.23</v>
+        <v>11.71</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8486</v>
+        <v>1.8237</v>
       </c>
       <c r="F29" t="n">
-        <v>16099.993494</v>
+        <v>15883.132173</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>1099.983327000002</v>
+        <v>883.1220060000014</v>
       </c>
       <c r="J29" t="n">
-        <v>7.33</v>
+        <v>5.89</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8873</v>
+        <v>1.9007</v>
       </c>
       <c r="F30" t="n">
-        <v>9923.593257</v>
+        <v>9994.051663</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1043.205056000001</v>
+        <v>1113.663462</v>
       </c>
       <c r="J30" t="n">
-        <v>11.75</v>
+        <v>12.54</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8873</v>
+        <v>1.9007</v>
       </c>
       <c r="F31" t="n">
-        <v>1272.549771</v>
+        <v>1281.584989</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>72.55145199999993</v>
+        <v>81.58666999999991</v>
       </c>
       <c r="J31" t="n">
-        <v>6.05</v>
+        <v>6.8</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2419</v>
+        <v>2.2139</v>
       </c>
       <c r="F33" t="n">
-        <v>13675.59</v>
+        <v>13504.79</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1402.389999999998</v>
+        <v>1231.59</v>
       </c>
       <c r="J33" t="n">
-        <v>11.43</v>
+        <v>10.03</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.804</v>
+        <v>1.7788</v>
       </c>
       <c r="F34" t="n">
-        <v>34456.4</v>
+        <v>33975.08</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3285.200000000001</v>
+        <v>2803.880000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>10.54</v>
+        <v>9</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.6673</v>
+        <v>5.6939</v>
       </c>
       <c r="F35" t="n">
-        <v>34493.341374</v>
+        <v>34655.239082</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1293.355750000002</v>
+        <v>1455.253457999999</v>
       </c>
       <c r="J35" t="n">
-        <v>3.9</v>
+        <v>4.38</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.6673</v>
+        <v>5.6939</v>
       </c>
       <c r="F36" t="n">
-        <v>11713.515678</v>
+        <v>11768.494154</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>413.5786860000007</v>
+        <v>468.557162000001</v>
       </c>
       <c r="J36" t="n">
-        <v>3.66</v>
+        <v>4.15</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.6673</v>
+        <v>5.6939</v>
       </c>
       <c r="F37" t="n">
-        <v>85009.5</v>
+        <v>85408.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>1714.5</v>
+        <v>2113.5</v>
       </c>
       <c r="J37" t="n">
-        <v>2.06</v>
+        <v>2.54</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.4014</v>
+        <v>2.3551</v>
       </c>
       <c r="F38" t="n">
-        <v>17466.366774</v>
+        <v>17129.607891</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1666.338231000002</v>
+        <v>1329.579347999999</v>
       </c>
       <c r="J38" t="n">
-        <v>10.55</v>
+        <v>8.42</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.4014</v>
+        <v>2.3551</v>
       </c>
       <c r="F39" t="n">
-        <v>25041.583074</v>
+        <v>24558.770841</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>2041.784778000001</v>
+        <v>1558.972545000001</v>
       </c>
       <c r="J39" t="n">
-        <v>8.880000000000001</v>
+        <v>6.78</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9343</v>
+        <v>1.8946</v>
       </c>
       <c r="F40" t="n">
-        <v>12959.81</v>
+        <v>12693.82</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2507.809999999999</v>
+        <v>2241.82</v>
       </c>
       <c r="J40" t="n">
-        <v>23.99</v>
+        <v>21.45</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.26</v>
+        <v>7.3</v>
       </c>
       <c r="F41" t="n">
-        <v>7260</v>
+        <v>7300</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="J41" t="n">
-        <v>2.12</v>
+        <v>2.69</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>6.73</v>
+        <v>6.75</v>
       </c>
       <c r="F42" t="n">
-        <v>7403.000000000001</v>
+        <v>7425</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>818.4000000000005</v>
+        <v>840.3999999999996</v>
       </c>
       <c r="J42" t="n">
-        <v>12.43</v>
+        <v>12.76</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>38.88</v>
+        <v>38.67</v>
       </c>
       <c r="F43" t="n">
-        <v>58320.00000000001</v>
+        <v>58005</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-6134.999999999993</v>
+        <v>-6450</v>
       </c>
       <c r="J43" t="n">
-        <v>-9.52</v>
+        <v>-10.01</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.2467</v>
+        <v>3.447</v>
       </c>
       <c r="F2" t="n">
-        <v>2401.551523</v>
+        <v>2549.71143</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>531.3193270000002</v>
+        <v>679.4792340000004</v>
       </c>
       <c r="J2" t="n">
-        <v>28.41</v>
+        <v>36.33</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.3884</v>
+        <v>3.4481</v>
       </c>
       <c r="F3" t="n">
-        <v>1098.925888</v>
+        <v>1118.287792</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>98.98246399999994</v>
+        <v>118.344368</v>
       </c>
       <c r="J3" t="n">
-        <v>9.9</v>
+        <v>11.84</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2632</v>
+        <v>1.2873</v>
       </c>
       <c r="F4" t="n">
-        <v>7200.240000000001</v>
+        <v>7337.610000000001</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1779.540000000001</v>
+        <v>1916.910000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>32.83</v>
+        <v>35.36</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.3738</v>
+        <v>1.367</v>
       </c>
       <c r="F6" t="n">
-        <v>2331.737002</v>
+        <v>2320.19543</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-168.2014389999999</v>
+        <v>-179.743011</v>
       </c>
       <c r="J6" t="n">
-        <v>-6.73</v>
+        <v>-7.19</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.3738</v>
+        <v>1.367</v>
       </c>
       <c r="F7" t="n">
-        <v>4937.57458</v>
+        <v>4913.1347</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-382.4122400000006</v>
+        <v>-406.8521200000005</v>
       </c>
       <c r="J7" t="n">
-        <v>-7.19</v>
+        <v>-7.65</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8401</v>
+        <v>1.9</v>
       </c>
       <c r="F8" t="n">
-        <v>23737.29</v>
+        <v>24510</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4438.889999999999</v>
+        <v>5211.599999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>23</v>
+        <v>27.01</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9477</v>
+        <v>2.9213</v>
       </c>
       <c r="F9" t="n">
-        <v>892.5930370000001</v>
+        <v>884.598853</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>143.6530640000001</v>
+        <v>135.65888</v>
       </c>
       <c r="J9" t="n">
-        <v>19.18</v>
+        <v>18.11</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1079</v>
+        <v>2.1187</v>
       </c>
       <c r="F10" t="n">
-        <v>2193.122397</v>
+        <v>2204.359041</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>193.1038080000001</v>
+        <v>204.3404520000001</v>
       </c>
       <c r="J10" t="n">
-        <v>9.66</v>
+        <v>10.22</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5766</v>
+        <v>1.5847</v>
       </c>
       <c r="F11" t="n">
-        <v>6522.756817999999</v>
+        <v>6556.268380999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>543.6320219999989</v>
+        <v>577.1435849999989</v>
       </c>
       <c r="J11" t="n">
-        <v>9.09</v>
+        <v>9.65</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5766</v>
+        <v>1.5847</v>
       </c>
       <c r="F12" t="n">
-        <v>9481.782761999999</v>
+        <v>9530.496729</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>381.8934449999997</v>
+        <v>430.6074120000012</v>
       </c>
       <c r="J12" t="n">
-        <v>4.2</v>
+        <v>4.73</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2965</v>
+        <v>2.274</v>
       </c>
       <c r="F15" t="n">
-        <v>21357.45</v>
+        <v>21148.2</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1911.150000000001</v>
+        <v>1701.900000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>9.83</v>
+        <v>8.75</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>26.2</v>
+        <v>25.97</v>
       </c>
       <c r="F16" t="n">
-        <v>13100</v>
+        <v>12985</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-715</v>
+        <v>-830</v>
       </c>
       <c r="J16" t="n">
-        <v>-5.18</v>
+        <v>-6.01</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.550000000000001</v>
+        <v>8.56</v>
       </c>
       <c r="F17" t="n">
-        <v>17100</v>
+        <v>17120</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-660</v>
+        <v>-640</v>
       </c>
       <c r="J17" t="n">
-        <v>-3.72</v>
+        <v>-3.6</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0723</v>
+        <v>1.0728</v>
       </c>
       <c r="F18" t="n">
-        <v>4212.198137</v>
+        <v>4214.162232</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-94.27655999999934</v>
+        <v>-92.31246499999997</v>
       </c>
       <c r="J18" t="n">
-        <v>-2.19</v>
+        <v>-2.14</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5548</v>
+        <v>1.5665</v>
       </c>
       <c r="F19" t="n">
-        <v>13526.76</v>
+        <v>13628.55</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>67.86000000000058</v>
+        <v>169.6499999999996</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5</v>
+        <v>1.26</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.307</v>
+        <v>1.3125</v>
       </c>
       <c r="F20" t="n">
-        <v>10359.09902</v>
+        <v>10402.69125</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>359.0414579999997</v>
+        <v>402.6336879999999</v>
       </c>
       <c r="J20" t="n">
-        <v>3.59</v>
+        <v>4.03</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1522</v>
+        <v>1.1493</v>
       </c>
       <c r="F21" t="n">
-        <v>13019.86</v>
+        <v>12987.09</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>386.4599999999991</v>
+        <v>353.6900000000005</v>
       </c>
       <c r="J21" t="n">
-        <v>3.06</v>
+        <v>2.8</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5717</v>
+        <v>1.5829</v>
       </c>
       <c r="F22" t="n">
-        <v>839.114913</v>
+        <v>845.094481</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>109.98134</v>
+        <v>115.960908</v>
       </c>
       <c r="J22" t="n">
-        <v>15.08</v>
+        <v>15.9</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5717</v>
+        <v>1.5829</v>
       </c>
       <c r="F23" t="n">
-        <v>20309.098758</v>
+        <v>20453.822246</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1108.685291999998</v>
+        <v>1253.408779999998</v>
       </c>
       <c r="J23" t="n">
-        <v>5.77</v>
+        <v>6.53</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4168</v>
+        <v>1.3943</v>
       </c>
       <c r="F24" t="n">
-        <v>927.0405760000001</v>
+        <v>912.3183760000002</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>127.0689440000001</v>
+        <v>112.3467440000002</v>
       </c>
       <c r="J24" t="n">
-        <v>15.88</v>
+        <v>14.04</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.6895</v>
+        <v>5.7308</v>
       </c>
       <c r="F26" t="n">
-        <v>2363.07693</v>
+        <v>2380.230472</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>263.0763559999996</v>
+        <v>280.229898</v>
       </c>
       <c r="J26" t="n">
-        <v>12.53</v>
+        <v>13.34</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8237</v>
+        <v>1.8368</v>
       </c>
       <c r="F28" t="n">
-        <v>7037.293560000001</v>
+        <v>7087.84384</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>737.4166800000012</v>
+        <v>787.9669600000007</v>
       </c>
       <c r="J28" t="n">
-        <v>11.71</v>
+        <v>12.51</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8237</v>
+        <v>1.8368</v>
       </c>
       <c r="F29" t="n">
-        <v>15883.132173</v>
+        <v>15997.223872</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>883.1220060000014</v>
+        <v>997.2137050000019</v>
       </c>
       <c r="J29" t="n">
-        <v>5.89</v>
+        <v>6.65</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9007</v>
+        <v>1.8705</v>
       </c>
       <c r="F30" t="n">
-        <v>9994.051663</v>
+        <v>9835.257345</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>1113.663462</v>
+        <v>954.8691440000002</v>
       </c>
       <c r="J30" t="n">
-        <v>12.54</v>
+        <v>10.75</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.9007</v>
+        <v>1.8705</v>
       </c>
       <c r="F31" t="n">
-        <v>1281.584989</v>
+        <v>1261.222035</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>81.58666999999991</v>
+        <v>61.22371599999997</v>
       </c>
       <c r="J31" t="n">
-        <v>6.8</v>
+        <v>5.1</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2139</v>
+        <v>2.2308</v>
       </c>
       <c r="F33" t="n">
-        <v>13504.79</v>
+        <v>13607.88</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1231.59</v>
+        <v>1334.679999999998</v>
       </c>
       <c r="J33" t="n">
-        <v>10.03</v>
+        <v>10.87</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7788</v>
+        <v>1.792</v>
       </c>
       <c r="F34" t="n">
-        <v>33975.08</v>
+        <v>34227.2</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2803.880000000001</v>
+        <v>3055.999999999996</v>
       </c>
       <c r="J34" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.6939</v>
+        <v>5.5736</v>
       </c>
       <c r="F35" t="n">
-        <v>34655.239082</v>
+        <v>33923.047568</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1455.253457999999</v>
+        <v>723.0619440000009</v>
       </c>
       <c r="J35" t="n">
-        <v>4.38</v>
+        <v>2.18</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.6939</v>
+        <v>5.5736</v>
       </c>
       <c r="F36" t="n">
-        <v>11768.494154</v>
+        <v>11519.850896</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>468.557162000001</v>
+        <v>219.9139039999991</v>
       </c>
       <c r="J36" t="n">
-        <v>4.15</v>
+        <v>1.95</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.6939</v>
+        <v>5.5736</v>
       </c>
       <c r="F37" t="n">
-        <v>85408.5</v>
+        <v>83604</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>2113.5</v>
+        <v>309</v>
       </c>
       <c r="J37" t="n">
-        <v>2.54</v>
+        <v>0.37</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3551</v>
+        <v>2.3695</v>
       </c>
       <c r="F38" t="n">
-        <v>17129.607891</v>
+        <v>17234.344995</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1329.579347999999</v>
+        <v>1434.316451999999</v>
       </c>
       <c r="J38" t="n">
-        <v>8.42</v>
+        <v>9.08</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3551</v>
+        <v>2.3695</v>
       </c>
       <c r="F39" t="n">
-        <v>24558.770841</v>
+        <v>24708.932745</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1558.972545000001</v>
+        <v>1709.134448999997</v>
       </c>
       <c r="J39" t="n">
-        <v>6.78</v>
+        <v>7.43</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8946</v>
+        <v>1.9066</v>
       </c>
       <c r="F40" t="n">
-        <v>12693.82</v>
+        <v>12774.22</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2241.82</v>
+        <v>2322.220000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>21.45</v>
+        <v>22.22</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.3</v>
+        <v>7.18</v>
       </c>
       <c r="F41" t="n">
-        <v>7300</v>
+        <v>7180</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="J41" t="n">
-        <v>2.69</v>
+        <v>1</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>6.75</v>
+        <v>6.64</v>
       </c>
       <c r="F42" t="n">
-        <v>7425</v>
+        <v>7304</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>840.3999999999996</v>
+        <v>719.3999999999996</v>
       </c>
       <c r="J42" t="n">
-        <v>12.76</v>
+        <v>10.93</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>38.67</v>
+        <v>38.3</v>
       </c>
       <c r="F43" t="n">
-        <v>58005</v>
+        <v>57449.99999999999</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-6450</v>
+        <v>-7005.000000000007</v>
       </c>
       <c r="J43" t="n">
-        <v>-10.01</v>
+        <v>-10.87</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.447</v>
+        <v>3.5773</v>
       </c>
       <c r="F2" t="n">
-        <v>2549.71143</v>
+        <v>2646.093037</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>679.4792340000004</v>
+        <v>775.8608410000002</v>
       </c>
       <c r="J2" t="n">
-        <v>36.33</v>
+        <v>41.48</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.4481</v>
+        <v>3.4235</v>
       </c>
       <c r="F3" t="n">
-        <v>1118.287792</v>
+        <v>1110.30952</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>118.344368</v>
+        <v>110.366096</v>
       </c>
       <c r="J3" t="n">
-        <v>11.84</v>
+        <v>11.04</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2873</v>
+        <v>1.2948</v>
       </c>
       <c r="F4" t="n">
-        <v>7337.610000000001</v>
+        <v>7380.36</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1916.910000000001</v>
+        <v>1959.66</v>
       </c>
       <c r="J4" t="n">
-        <v>35.36</v>
+        <v>36.15</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.047</v>
+        <v>2.0211</v>
       </c>
       <c r="F5" t="n">
-        <v>2427.59871</v>
+        <v>2396.883123</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>27.63216900000043</v>
+        <v>-3.08341799999971</v>
       </c>
       <c r="J5" t="n">
-        <v>1.15</v>
+        <v>-0.13</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.367</v>
+        <v>1.4091</v>
       </c>
       <c r="F6" t="n">
-        <v>2320.19543</v>
+        <v>2391.651339</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-179.743011</v>
+        <v>-108.2871019999998</v>
       </c>
       <c r="J6" t="n">
-        <v>-7.19</v>
+        <v>-4.33</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.367</v>
+        <v>1.4091</v>
       </c>
       <c r="F7" t="n">
-        <v>4913.1347</v>
+        <v>5064.44631</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-406.8521200000005</v>
+        <v>-255.5405099999998</v>
       </c>
       <c r="J7" t="n">
-        <v>-7.65</v>
+        <v>-4.8</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.9</v>
+        <v>1.8751</v>
       </c>
       <c r="F8" t="n">
-        <v>24510</v>
+        <v>24188.79</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>5211.599999999999</v>
+        <v>4890.389999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>27.01</v>
+        <v>25.34</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9213</v>
+        <v>2.9045</v>
       </c>
       <c r="F9" t="n">
-        <v>884.598853</v>
+        <v>879.511645</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>135.65888</v>
+        <v>130.571672</v>
       </c>
       <c r="J9" t="n">
-        <v>18.11</v>
+        <v>17.43</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1187</v>
+        <v>2.0999</v>
       </c>
       <c r="F10" t="n">
-        <v>2204.359041</v>
+        <v>2184.798957</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>204.3404520000001</v>
+        <v>184.780368</v>
       </c>
       <c r="J10" t="n">
-        <v>10.22</v>
+        <v>9.24</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5847</v>
+        <v>1.5708</v>
       </c>
       <c r="F11" t="n">
-        <v>6556.268380999999</v>
+        <v>6498.760883999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>577.1435849999989</v>
+        <v>519.6360879999993</v>
       </c>
       <c r="J11" t="n">
-        <v>9.65</v>
+        <v>8.69</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5847</v>
+        <v>1.5708</v>
       </c>
       <c r="F12" t="n">
-        <v>9530.496729</v>
+        <v>9446.901156</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>430.6074120000012</v>
+        <v>347.0118390000007</v>
       </c>
       <c r="J12" t="n">
-        <v>4.73</v>
+        <v>3.81</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>25.97</v>
+        <v>26.42</v>
       </c>
       <c r="F16" t="n">
-        <v>12985</v>
+        <v>13210</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-830</v>
+        <v>-605</v>
       </c>
       <c r="J16" t="n">
-        <v>-6.01</v>
+        <v>-4.38</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.56</v>
+        <v>8.66</v>
       </c>
       <c r="F17" t="n">
-        <v>17120</v>
+        <v>17320</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-640</v>
+        <v>-440</v>
       </c>
       <c r="J17" t="n">
-        <v>-3.6</v>
+        <v>-2.48</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0728</v>
+        <v>1.0897</v>
       </c>
       <c r="F18" t="n">
-        <v>4214.162232</v>
+        <v>4280.548643</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-92.31246499999997</v>
+        <v>-25.92605399999957</v>
       </c>
       <c r="J18" t="n">
-        <v>-2.14</v>
+        <v>-0.6</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5665</v>
+        <v>1.6083</v>
       </c>
       <c r="F19" t="n">
-        <v>13628.55</v>
+        <v>13992.21</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>169.6499999999996</v>
+        <v>533.3100000000013</v>
       </c>
       <c r="J19" t="n">
-        <v>1.26</v>
+        <v>3.96</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3125</v>
+        <v>1.3369</v>
       </c>
       <c r="F20" t="n">
-        <v>10402.69125</v>
+        <v>10596.082234</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>402.6336879999999</v>
+        <v>596.0246719999996</v>
       </c>
       <c r="J20" t="n">
-        <v>4.03</v>
+        <v>5.96</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1493</v>
+        <v>1.1664</v>
       </c>
       <c r="F21" t="n">
-        <v>12987.09</v>
+        <v>13180.32</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>353.6900000000005</v>
+        <v>546.9200000000019</v>
       </c>
       <c r="J21" t="n">
-        <v>2.8</v>
+        <v>4.33</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5829</v>
+        <v>1.5574</v>
       </c>
       <c r="F22" t="n">
-        <v>845.094481</v>
+        <v>831.480286</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>115.960908</v>
+        <v>102.346713</v>
       </c>
       <c r="J22" t="n">
-        <v>15.9</v>
+        <v>14.04</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5829</v>
+        <v>1.5574</v>
       </c>
       <c r="F23" t="n">
-        <v>20453.822246</v>
+        <v>20124.317876</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>1253.408779999998</v>
+        <v>923.9044099999956</v>
       </c>
       <c r="J23" t="n">
-        <v>6.53</v>
+        <v>4.81</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3943</v>
+        <v>1.3697</v>
       </c>
       <c r="F24" t="n">
-        <v>912.3183760000002</v>
+        <v>896.2221040000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>112.3467440000002</v>
+        <v>96.25047200000006</v>
       </c>
       <c r="J24" t="n">
-        <v>14.04</v>
+        <v>12.03</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7308</v>
+        <v>5.6371</v>
       </c>
       <c r="F26" t="n">
-        <v>2380.230472</v>
+        <v>2341.313114</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>280.229898</v>
+        <v>241.3125399999999</v>
       </c>
       <c r="J26" t="n">
-        <v>13.34</v>
+        <v>11.49</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8368</v>
+        <v>1.8076</v>
       </c>
       <c r="F28" t="n">
-        <v>7087.84384</v>
+        <v>6975.166880000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>787.9669600000007</v>
+        <v>675.2900000000009</v>
       </c>
       <c r="J28" t="n">
-        <v>12.51</v>
+        <v>10.72</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8368</v>
+        <v>1.8076</v>
       </c>
       <c r="F29" t="n">
-        <v>15997.223872</v>
+        <v>15742.912604</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>997.2137050000019</v>
+        <v>742.9024370000025</v>
       </c>
       <c r="J29" t="n">
-        <v>6.65</v>
+        <v>4.95</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2308</v>
+        <v>2.1913</v>
       </c>
       <c r="F33" t="n">
-        <v>13607.88</v>
+        <v>13366.93</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1334.679999999998</v>
+        <v>1093.73</v>
       </c>
       <c r="J33" t="n">
-        <v>10.87</v>
+        <v>8.91</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.792</v>
+        <v>1.7621</v>
       </c>
       <c r="F34" t="n">
-        <v>34227.2</v>
+        <v>33656.11</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3055.999999999996</v>
+        <v>2484.91</v>
       </c>
       <c r="J34" t="n">
-        <v>9.800000000000001</v>
+        <v>7.97</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.5736</v>
+        <v>5.469</v>
       </c>
       <c r="F35" t="n">
-        <v>33923.047568</v>
+        <v>33286.41222000001</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>723.0619440000009</v>
+        <v>86.42659600000479</v>
       </c>
       <c r="J35" t="n">
-        <v>2.18</v>
+        <v>0.26</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.5736</v>
+        <v>5.469</v>
       </c>
       <c r="F36" t="n">
-        <v>11519.850896</v>
+        <v>11303.65734</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>219.9139039999991</v>
+        <v>3.72034800000074</v>
       </c>
       <c r="J36" t="n">
-        <v>1.95</v>
+        <v>0.03</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.5736</v>
+        <v>5.469</v>
       </c>
       <c r="F37" t="n">
-        <v>83604</v>
+        <v>82035</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>309</v>
+        <v>-1260</v>
       </c>
       <c r="J37" t="n">
-        <v>0.37</v>
+        <v>-1.51</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3695</v>
+        <v>2.3158</v>
       </c>
       <c r="F38" t="n">
-        <v>17234.344995</v>
+        <v>16843.762878</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1434.316451999999</v>
+        <v>1043.734334999997</v>
       </c>
       <c r="J38" t="n">
-        <v>9.08</v>
+        <v>6.61</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3695</v>
+        <v>2.3158</v>
       </c>
       <c r="F39" t="n">
-        <v>24708.932745</v>
+        <v>24148.953978</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1709.134448999997</v>
+        <v>1149.155681999997</v>
       </c>
       <c r="J39" t="n">
-        <v>7.43</v>
+        <v>5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9066</v>
+        <v>1.8627</v>
       </c>
       <c r="F40" t="n">
-        <v>12774.22</v>
+        <v>12480.09</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2322.220000000001</v>
+        <v>2028.09</v>
       </c>
       <c r="J40" t="n">
-        <v>22.22</v>
+        <v>19.4</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.18</v>
+        <v>7.25</v>
       </c>
       <c r="F41" t="n">
-        <v>7180</v>
+        <v>7250</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>1.98</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>6.64</v>
+        <v>6.67</v>
       </c>
       <c r="F42" t="n">
-        <v>7304</v>
+        <v>7337</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>719.3999999999996</v>
+        <v>752.3999999999996</v>
       </c>
       <c r="J42" t="n">
-        <v>10.93</v>
+        <v>11.43</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>38.3</v>
+        <v>38.94</v>
       </c>
       <c r="F43" t="n">
-        <v>57449.99999999999</v>
+        <v>58410</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-7005.000000000007</v>
+        <v>-6045</v>
       </c>
       <c r="J43" t="n">
-        <v>-10.87</v>
+        <v>-9.380000000000001</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.5773</v>
+        <v>3.4746</v>
       </c>
       <c r="F2" t="n">
-        <v>2646.093037</v>
+        <v>2570.126874</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>775.8608410000002</v>
+        <v>699.8946780000006</v>
       </c>
       <c r="J2" t="n">
-        <v>41.48</v>
+        <v>37.42</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.4235</v>
+        <v>3.3836</v>
       </c>
       <c r="F3" t="n">
-        <v>1110.30952</v>
+        <v>1097.369152</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>110.366096</v>
+        <v>97.42572799999994</v>
       </c>
       <c r="J3" t="n">
-        <v>11.04</v>
+        <v>9.74</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2948</v>
+        <v>1.2797</v>
       </c>
       <c r="F4" t="n">
-        <v>7380.36</v>
+        <v>7294.29</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1959.66</v>
+        <v>1873.59</v>
       </c>
       <c r="J4" t="n">
-        <v>36.15</v>
+        <v>34.56</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4091</v>
+        <v>1.4046</v>
       </c>
       <c r="F6" t="n">
-        <v>2391.651339</v>
+        <v>2384.013534</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-108.2871019999998</v>
+        <v>-115.9249069999996</v>
       </c>
       <c r="J6" t="n">
-        <v>-4.33</v>
+        <v>-4.64</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4091</v>
+        <v>1.4046</v>
       </c>
       <c r="F7" t="n">
-        <v>5064.44631</v>
+        <v>5048.27286</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-255.5405099999998</v>
+        <v>-271.71396</v>
       </c>
       <c r="J7" t="n">
-        <v>-4.8</v>
+        <v>-5.11</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8751</v>
+        <v>1.8561</v>
       </c>
       <c r="F8" t="n">
-        <v>24188.79</v>
+        <v>23943.69</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4890.389999999999</v>
+        <v>4645.290000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>25.34</v>
+        <v>24.07</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9045</v>
+        <v>2.8727</v>
       </c>
       <c r="F9" t="n">
-        <v>879.511645</v>
+        <v>869.882287</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>130.571672</v>
+        <v>120.942314</v>
       </c>
       <c r="J9" t="n">
-        <v>17.43</v>
+        <v>16.15</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0999</v>
+        <v>2.0881</v>
       </c>
       <c r="F10" t="n">
-        <v>2184.798957</v>
+        <v>2172.521883</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>184.780368</v>
+        <v>172.5032939999999</v>
       </c>
       <c r="J10" t="n">
-        <v>9.24</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5708</v>
+        <v>1.5624</v>
       </c>
       <c r="F11" t="n">
-        <v>6498.760883999999</v>
+        <v>6464.008151999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>519.6360879999993</v>
+        <v>484.8833559999994</v>
       </c>
       <c r="J11" t="n">
-        <v>8.69</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5708</v>
+        <v>1.5624</v>
       </c>
       <c r="F12" t="n">
-        <v>9446.901156</v>
+        <v>9396.382968</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>347.0118390000007</v>
+        <v>296.4936510000007</v>
       </c>
       <c r="J12" t="n">
-        <v>3.81</v>
+        <v>3.26</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.274</v>
+        <v>2.2337</v>
       </c>
       <c r="F15" t="n">
-        <v>21148.2</v>
+        <v>20773.41</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1701.900000000001</v>
+        <v>1327.110000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>8.75</v>
+        <v>6.82</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>26.42</v>
+        <v>26.6</v>
       </c>
       <c r="F16" t="n">
-        <v>13210</v>
+        <v>13300</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-605</v>
+        <v>-515</v>
       </c>
       <c r="J16" t="n">
-        <v>-4.38</v>
+        <v>-3.73</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.66</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>17320</v>
+        <v>17280</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-440</v>
+        <v>-480</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.48</v>
+        <v>-2.7</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0897</v>
+        <v>1.0847</v>
       </c>
       <c r="F18" t="n">
-        <v>4280.548643</v>
+        <v>4260.907693</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-25.92605399999957</v>
+        <v>-45.56700399999954</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.6</v>
+        <v>-1.06</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6083</v>
+        <v>1.6016</v>
       </c>
       <c r="F19" t="n">
-        <v>13992.21</v>
+        <v>13933.92</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>533.3100000000013</v>
+        <v>475.0200000000004</v>
       </c>
       <c r="J19" t="n">
-        <v>3.96</v>
+        <v>3.53</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3369</v>
+        <v>1.3393</v>
       </c>
       <c r="F20" t="n">
-        <v>10596.082234</v>
+        <v>10615.104298</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>596.0246719999996</v>
+        <v>615.0467359999984</v>
       </c>
       <c r="J20" t="n">
-        <v>5.96</v>
+        <v>6.15</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1664</v>
+        <v>1.1802</v>
       </c>
       <c r="F21" t="n">
-        <v>13180.32</v>
+        <v>13336.26</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>546.9200000000019</v>
+        <v>702.8599999999988</v>
       </c>
       <c r="J21" t="n">
-        <v>4.33</v>
+        <v>5.56</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5574</v>
+        <v>1.5298</v>
       </c>
       <c r="F22" t="n">
-        <v>831.480286</v>
+        <v>816.744922</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>102.346713</v>
+        <v>87.61134900000002</v>
       </c>
       <c r="J22" t="n">
-        <v>14.04</v>
+        <v>12.02</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5574</v>
+        <v>1.5298</v>
       </c>
       <c r="F23" t="n">
-        <v>20124.317876</v>
+        <v>19767.677852</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>923.9044099999956</v>
+        <v>567.2643859999989</v>
       </c>
       <c r="J23" t="n">
-        <v>4.81</v>
+        <v>2.95</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.6371</v>
+        <v>5.5335</v>
       </c>
       <c r="F26" t="n">
-        <v>2341.313114</v>
+        <v>2298.28389</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>241.3125399999999</v>
+        <v>198.2833159999996</v>
       </c>
       <c r="J26" t="n">
-        <v>11.49</v>
+        <v>9.44</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8076</v>
+        <v>1.7755</v>
       </c>
       <c r="F28" t="n">
-        <v>6975.166880000001</v>
+        <v>6851.299400000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>675.2900000000009</v>
+        <v>551.422520000001</v>
       </c>
       <c r="J28" t="n">
-        <v>10.72</v>
+        <v>8.75</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8076</v>
+        <v>1.7755</v>
       </c>
       <c r="F29" t="n">
-        <v>15742.912604</v>
+        <v>15463.344395</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>742.9024370000025</v>
+        <v>463.3342280000015</v>
       </c>
       <c r="J29" t="n">
-        <v>4.95</v>
+        <v>3.09</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8705</v>
+        <v>1.8144</v>
       </c>
       <c r="F30" t="n">
-        <v>9835.257345</v>
+        <v>9540.278496000001</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>954.8691440000002</v>
+        <v>659.8902950000011</v>
       </c>
       <c r="J30" t="n">
-        <v>10.75</v>
+        <v>7.43</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8705</v>
+        <v>1.8144</v>
       </c>
       <c r="F31" t="n">
-        <v>1261.222035</v>
+        <v>1223.395488</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>61.22371599999997</v>
+        <v>23.39716899999985</v>
       </c>
       <c r="J31" t="n">
-        <v>5.1</v>
+        <v>1.95</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.1913</v>
+        <v>2.1527</v>
       </c>
       <c r="F33" t="n">
-        <v>13366.93</v>
+        <v>13131.47</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1093.73</v>
+        <v>858.2699999999986</v>
       </c>
       <c r="J33" t="n">
-        <v>8.91</v>
+        <v>6.99</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7621</v>
+        <v>1.7292</v>
       </c>
       <c r="F34" t="n">
-        <v>33656.11</v>
+        <v>33027.72</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2484.91</v>
+        <v>1856.52</v>
       </c>
       <c r="J34" t="n">
-        <v>7.97</v>
+        <v>5.96</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.469</v>
+        <v>5.3842</v>
       </c>
       <c r="F35" t="n">
-        <v>33286.41222000001</v>
+        <v>32770.287196</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>86.42659600000479</v>
+        <v>-429.6984280000033</v>
       </c>
       <c r="J35" t="n">
-        <v>0.26</v>
+        <v>-1.29</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.469</v>
+        <v>5.3842</v>
       </c>
       <c r="F36" t="n">
-        <v>11303.65734</v>
+        <v>11128.387612</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>3.72034800000074</v>
+        <v>-171.5493800000004</v>
       </c>
       <c r="J36" t="n">
-        <v>0.03</v>
+        <v>-1.52</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.469</v>
+        <v>5.3842</v>
       </c>
       <c r="F37" t="n">
-        <v>82035</v>
+        <v>80763</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>-1260</v>
+        <v>-2532</v>
       </c>
       <c r="J37" t="n">
-        <v>-1.51</v>
+        <v>-3.04</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3158</v>
+        <v>2.2648</v>
       </c>
       <c r="F38" t="n">
-        <v>16843.762878</v>
+        <v>16472.818968</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1043.734334999997</v>
+        <v>672.7904249999992</v>
       </c>
       <c r="J38" t="n">
-        <v>6.61</v>
+        <v>4.26</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3158</v>
+        <v>2.2648</v>
       </c>
       <c r="F39" t="n">
-        <v>24148.953978</v>
+        <v>23617.130568</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1149.155681999997</v>
+        <v>617.3322719999996</v>
       </c>
       <c r="J39" t="n">
-        <v>5</v>
+        <v>2.68</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8627</v>
+        <v>1.8128</v>
       </c>
       <c r="F40" t="n">
-        <v>12480.09</v>
+        <v>12145.76</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2028.09</v>
+        <v>1693.76</v>
       </c>
       <c r="J40" t="n">
-        <v>19.4</v>
+        <v>16.21</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.25</v>
+        <v>7.31</v>
       </c>
       <c r="F41" t="n">
-        <v>7250</v>
+        <v>7310</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="J41" t="n">
-        <v>1.98</v>
+        <v>2.83</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>6.67</v>
+        <v>6.7</v>
       </c>
       <c r="F42" t="n">
-        <v>7337</v>
+        <v>7370</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>752.3999999999996</v>
+        <v>785.3999999999996</v>
       </c>
       <c r="J42" t="n">
-        <v>11.43</v>
+        <v>11.93</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>38.94</v>
+        <v>39.7</v>
       </c>
       <c r="F43" t="n">
-        <v>58410</v>
+        <v>59550.00000000001</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-6045</v>
+        <v>-4904.999999999993</v>
       </c>
       <c r="J43" t="n">
-        <v>-9.380000000000001</v>
+        <v>-7.61</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.4746</v>
+        <v>3.4377</v>
       </c>
       <c r="F2" t="n">
-        <v>2570.126874</v>
+        <v>2542.832313</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>699.8946780000006</v>
+        <v>672.6001170000004</v>
       </c>
       <c r="J2" t="n">
-        <v>37.42</v>
+        <v>35.96</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2797</v>
+        <v>1.2744</v>
       </c>
       <c r="F4" t="n">
-        <v>7294.29</v>
+        <v>7264.08</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1873.59</v>
+        <v>1843.38</v>
       </c>
       <c r="J4" t="n">
-        <v>34.56</v>
+        <v>34.01</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0211</v>
+        <v>2.0104</v>
       </c>
       <c r="F5" t="n">
-        <v>2396.883123</v>
+        <v>2384.193672</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-3.08341799999971</v>
+        <v>-15.77286899999945</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.13</v>
+        <v>-0.66</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4046</v>
+        <v>1.3983</v>
       </c>
       <c r="F6" t="n">
-        <v>2384.013534</v>
+        <v>2373.320607</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-115.9249069999996</v>
+        <v>-126.6178339999997</v>
       </c>
       <c r="J6" t="n">
-        <v>-4.64</v>
+        <v>-5.06</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4046</v>
+        <v>1.3983</v>
       </c>
       <c r="F7" t="n">
-        <v>5048.27286</v>
+        <v>5025.63003</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-271.71396</v>
+        <v>-294.3567899999998</v>
       </c>
       <c r="J7" t="n">
-        <v>-5.11</v>
+        <v>-5.53</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8561</v>
+        <v>1.869</v>
       </c>
       <c r="F8" t="n">
-        <v>23943.69</v>
+        <v>24110.1</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4645.290000000001</v>
+        <v>4811.699999999997</v>
       </c>
       <c r="J8" t="n">
-        <v>24.07</v>
+        <v>24.93</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0881</v>
+        <v>2.0653</v>
       </c>
       <c r="F10" t="n">
-        <v>2172.521883</v>
+        <v>2148.800079</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>172.5032939999999</v>
+        <v>148.7814900000001</v>
       </c>
       <c r="J10" t="n">
-        <v>8.630000000000001</v>
+        <v>7.44</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5624</v>
+        <v>1.5461</v>
       </c>
       <c r="F11" t="n">
-        <v>6464.008151999999</v>
+        <v>6396.571303</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>484.8833559999994</v>
+        <v>417.4465069999997</v>
       </c>
       <c r="J11" t="n">
-        <v>8.109999999999999</v>
+        <v>6.98</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5624</v>
+        <v>1.5461</v>
       </c>
       <c r="F12" t="n">
-        <v>9396.382968</v>
+        <v>9298.353627</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>296.4936510000007</v>
+        <v>198.4643100000012</v>
       </c>
       <c r="J12" t="n">
-        <v>3.26</v>
+        <v>2.18</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0847</v>
+        <v>1.0817</v>
       </c>
       <c r="F18" t="n">
-        <v>4260.907693</v>
+        <v>4249.123123</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-45.56700399999954</v>
+        <v>-57.35157399999935</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.06</v>
+        <v>-1.33</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6016</v>
+        <v>1.5977</v>
       </c>
       <c r="F19" t="n">
-        <v>13933.92</v>
+        <v>13899.99</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>475.0200000000004</v>
+        <v>441.0900000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>3.53</v>
+        <v>3.28</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3393</v>
+        <v>1.3426</v>
       </c>
       <c r="F20" t="n">
-        <v>10615.104298</v>
+        <v>10641.259636</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>615.0467359999984</v>
+        <v>641.2020739999989</v>
       </c>
       <c r="J20" t="n">
-        <v>6.15</v>
+        <v>6.41</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1802</v>
+        <v>1.1762</v>
       </c>
       <c r="F21" t="n">
-        <v>13336.26</v>
+        <v>13291.06</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>702.8599999999988</v>
+        <v>657.6599999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>5.56</v>
+        <v>5.21</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5298</v>
+        <v>1.5107</v>
       </c>
       <c r="F22" t="n">
-        <v>816.744922</v>
+        <v>806.5476229999999</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>87.61134900000002</v>
+        <v>77.41404999999997</v>
       </c>
       <c r="J22" t="n">
-        <v>12.02</v>
+        <v>10.62</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5298</v>
+        <v>1.5107</v>
       </c>
       <c r="F23" t="n">
-        <v>19767.677852</v>
+        <v>19520.872618</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>567.2643859999989</v>
+        <v>320.4591519999958</v>
       </c>
       <c r="J23" t="n">
-        <v>2.95</v>
+        <v>1.67</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3697</v>
+        <v>1.3526</v>
       </c>
       <c r="F24" t="n">
-        <v>896.2221040000001</v>
+        <v>885.0332320000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>96.25047200000006</v>
+        <v>85.06160000000011</v>
       </c>
       <c r="J24" t="n">
-        <v>12.03</v>
+        <v>10.63</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.5335</v>
+        <v>5.4595</v>
       </c>
       <c r="F26" t="n">
-        <v>2298.28389</v>
+        <v>2267.54873</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>198.2833159999996</v>
+        <v>167.5481559999998</v>
       </c>
       <c r="J26" t="n">
-        <v>9.44</v>
+        <v>7.98</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.7755</v>
+        <v>1.7531</v>
       </c>
       <c r="F28" t="n">
-        <v>6851.299400000001</v>
+        <v>6764.86228</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>551.422520000001</v>
+        <v>464.9854000000005</v>
       </c>
       <c r="J28" t="n">
-        <v>8.75</v>
+        <v>7.38</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.7755</v>
+        <v>1.7531</v>
       </c>
       <c r="F29" t="n">
-        <v>15463.344395</v>
+        <v>15268.256299</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>463.3342280000015</v>
+        <v>268.246132000002</v>
       </c>
       <c r="J29" t="n">
-        <v>3.09</v>
+        <v>1.79</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.1527</v>
+        <v>2.1246</v>
       </c>
       <c r="F33" t="n">
-        <v>13131.47</v>
+        <v>12960.06</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>858.2699999999986</v>
+        <v>686.8599999999988</v>
       </c>
       <c r="J33" t="n">
-        <v>6.99</v>
+        <v>5.6</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7292</v>
+        <v>1.7063</v>
       </c>
       <c r="F34" t="n">
-        <v>33027.72</v>
+        <v>32590.33</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>1856.52</v>
+        <v>1419.129999999997</v>
       </c>
       <c r="J34" t="n">
-        <v>5.96</v>
+        <v>4.55</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.2648</v>
+        <v>2.2366</v>
       </c>
       <c r="F38" t="n">
-        <v>16472.818968</v>
+        <v>16267.708806</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>672.7904249999992</v>
+        <v>467.6802630000002</v>
       </c>
       <c r="J38" t="n">
-        <v>4.26</v>
+        <v>2.96</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.2648</v>
+        <v>2.2366</v>
       </c>
       <c r="F39" t="n">
-        <v>23617.130568</v>
+        <v>23323.063506</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>617.3322719999996</v>
+        <v>323.2652100000014</v>
       </c>
       <c r="J39" t="n">
-        <v>2.68</v>
+        <v>1.41</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8128</v>
+        <v>1.7882</v>
       </c>
       <c r="F40" t="n">
-        <v>12145.76</v>
+        <v>11980.94</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1693.76</v>
+        <v>1528.940000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>16.21</v>
+        <v>14.63</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.3836</v>
+        <v>3.3687</v>
       </c>
       <c r="F3" t="n">
-        <v>1097.369152</v>
+        <v>1092.536784</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>97.42572799999994</v>
+        <v>92.59335999999985</v>
       </c>
       <c r="J3" t="n">
-        <v>9.74</v>
+        <v>9.26</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0104</v>
+        <v>2.0251</v>
       </c>
       <c r="F5" t="n">
-        <v>2384.193672</v>
+        <v>2401.626843</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>-15.77286899999945</v>
+        <v>1.660302000000684</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8727</v>
+        <v>2.9259</v>
       </c>
       <c r="F9" t="n">
-        <v>869.882287</v>
+        <v>885.991779</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>120.942314</v>
+        <v>137.0518059999999</v>
       </c>
       <c r="J9" t="n">
-        <v>16.15</v>
+        <v>18.3</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2337</v>
+        <v>2.2783</v>
       </c>
       <c r="F15" t="n">
-        <v>20773.41</v>
+        <v>21188.19</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1327.110000000001</v>
+        <v>1741.890000000003</v>
       </c>
       <c r="J15" t="n">
-        <v>6.82</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>26.6</v>
+        <v>26.53</v>
       </c>
       <c r="F16" t="n">
-        <v>13300</v>
+        <v>13265</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-515</v>
+        <v>-550</v>
       </c>
       <c r="J16" t="n">
-        <v>-3.73</v>
+        <v>-3.98</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.640000000000001</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>17280</v>
+        <v>17240</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-480</v>
+        <v>-520</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.7</v>
+        <v>-2.93</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3526</v>
+        <v>1.3802</v>
       </c>
       <c r="F24" t="n">
-        <v>885.0332320000001</v>
+        <v>903.0924640000002</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>85.06160000000011</v>
+        <v>103.1208320000002</v>
       </c>
       <c r="J24" t="n">
-        <v>10.63</v>
+        <v>12.89</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8144</v>
+        <v>1.8518</v>
       </c>
       <c r="F30" t="n">
-        <v>9540.278496000001</v>
+        <v>9736.931062</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>659.8902950000011</v>
+        <v>856.5428609999999</v>
       </c>
       <c r="J30" t="n">
-        <v>7.43</v>
+        <v>9.65</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8144</v>
+        <v>1.8518</v>
       </c>
       <c r="F31" t="n">
-        <v>1223.395488</v>
+        <v>1248.613186</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>23.39716899999985</v>
+        <v>48.61486699999978</v>
       </c>
       <c r="J31" t="n">
-        <v>1.95</v>
+        <v>4.05</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.3842</v>
+        <v>5.585</v>
       </c>
       <c r="F35" t="n">
-        <v>32770.287196</v>
+        <v>33992.4323</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>-429.6984280000033</v>
+        <v>792.4466759999996</v>
       </c>
       <c r="J35" t="n">
-        <v>-1.29</v>
+        <v>2.39</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.3842</v>
+        <v>5.585</v>
       </c>
       <c r="F36" t="n">
-        <v>11128.387612</v>
+        <v>11543.4131</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>-171.5493800000004</v>
+        <v>243.4761079999989</v>
       </c>
       <c r="J36" t="n">
-        <v>-1.52</v>
+        <v>2.15</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.3842</v>
+        <v>5.585</v>
       </c>
       <c r="F37" t="n">
-        <v>80763</v>
+        <v>83775</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>-2532</v>
+        <v>480</v>
       </c>
       <c r="J37" t="n">
-        <v>-3.04</v>
+        <v>0.58</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.31</v>
+        <v>7.25</v>
       </c>
       <c r="F41" t="n">
-        <v>7310</v>
+        <v>7250</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="J41" t="n">
-        <v>2.83</v>
+        <v>1.98</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>6.7</v>
+        <v>6.63</v>
       </c>
       <c r="F42" t="n">
-        <v>7370</v>
+        <v>7293</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>785.3999999999996</v>
+        <v>708.3999999999996</v>
       </c>
       <c r="J42" t="n">
-        <v>11.93</v>
+        <v>10.76</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="F43" t="n">
-        <v>59550.00000000001</v>
+        <v>59400</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-4904.999999999993</v>
+        <v>-5055</v>
       </c>
       <c r="J43" t="n">
-        <v>-7.61</v>
+        <v>-7.84</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.4377</v>
+        <v>3.5073</v>
       </c>
       <c r="F2" t="n">
-        <v>2542.832313</v>
+        <v>2594.314737</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>672.6001170000004</v>
+        <v>724.0825410000002</v>
       </c>
       <c r="J2" t="n">
-        <v>35.96</v>
+        <v>38.72</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.3687</v>
+        <v>3.4502</v>
       </c>
       <c r="F3" t="n">
-        <v>1092.536784</v>
+        <v>1118.968864</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>92.59335999999985</v>
+        <v>119.0254399999999</v>
       </c>
       <c r="J3" t="n">
-        <v>9.26</v>
+        <v>11.9</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2744</v>
+        <v>1.2981</v>
       </c>
       <c r="F4" t="n">
-        <v>7264.08</v>
+        <v>7399.17</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1843.38</v>
+        <v>1978.47</v>
       </c>
       <c r="J4" t="n">
-        <v>34.01</v>
+        <v>36.5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0251</v>
+        <v>2.0495</v>
       </c>
       <c r="F5" t="n">
-        <v>2401.626843</v>
+        <v>2430.563535</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>1.660302000000684</v>
+        <v>30.59699400000045</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.27</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.3983</v>
+        <v>1.3979</v>
       </c>
       <c r="F6" t="n">
-        <v>2373.320607</v>
+        <v>2372.641691</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-126.6178339999997</v>
+        <v>-127.29675</v>
       </c>
       <c r="J6" t="n">
-        <v>-5.06</v>
+        <v>-5.09</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.3983</v>
+        <v>1.3979</v>
       </c>
       <c r="F7" t="n">
-        <v>5025.63003</v>
+        <v>5024.192389999999</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-294.3567899999998</v>
+        <v>-295.7944300000008</v>
       </c>
       <c r="J7" t="n">
-        <v>-5.53</v>
+        <v>-5.56</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.869</v>
+        <v>1.9396</v>
       </c>
       <c r="F8" t="n">
-        <v>24110.1</v>
+        <v>25020.84</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4811.699999999997</v>
+        <v>5722.439999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>24.93</v>
+        <v>29.65</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9259</v>
+        <v>2.9362</v>
       </c>
       <c r="F9" t="n">
-        <v>885.991779</v>
+        <v>889.110722</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>137.0518059999999</v>
+        <v>140.170749</v>
       </c>
       <c r="J9" t="n">
-        <v>18.3</v>
+        <v>18.72</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0653</v>
+        <v>2.101</v>
       </c>
       <c r="F10" t="n">
-        <v>2148.800079</v>
+        <v>2185.94343</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>148.7814900000001</v>
+        <v>185.9248410000002</v>
       </c>
       <c r="J10" t="n">
-        <v>7.44</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5461</v>
+        <v>1.573</v>
       </c>
       <c r="F11" t="n">
-        <v>6396.571303</v>
+        <v>6507.862789999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>417.4465069999997</v>
+        <v>528.7379939999992</v>
       </c>
       <c r="J11" t="n">
-        <v>6.98</v>
+        <v>8.84</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5461</v>
+        <v>1.573</v>
       </c>
       <c r="F12" t="n">
-        <v>9298.353627</v>
+        <v>9460.132109999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>198.4643100000012</v>
+        <v>360.2427929999994</v>
       </c>
       <c r="J12" t="n">
-        <v>2.18</v>
+        <v>3.96</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2783</v>
+        <v>2.2869</v>
       </c>
       <c r="F15" t="n">
-        <v>21188.19</v>
+        <v>21268.17</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1741.890000000003</v>
+        <v>1821.870000000003</v>
       </c>
       <c r="J15" t="n">
-        <v>8.960000000000001</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>26.53</v>
+        <v>26.46</v>
       </c>
       <c r="F16" t="n">
-        <v>13265</v>
+        <v>13230</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-550</v>
+        <v>-585</v>
       </c>
       <c r="J16" t="n">
-        <v>-3.98</v>
+        <v>-4.23</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.619999999999999</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>17240</v>
+        <v>17260</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-520</v>
+        <v>-500</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.93</v>
+        <v>-2.82</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0817</v>
+        <v>1.0883</v>
       </c>
       <c r="F18" t="n">
-        <v>4249.123123</v>
+        <v>4275.049177</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-57.35157399999935</v>
+        <v>-31.42551999999978</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.33</v>
+        <v>-0.73</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5977</v>
+        <v>1.6085</v>
       </c>
       <c r="F19" t="n">
-        <v>13899.99</v>
+        <v>13993.95</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>441.0900000000001</v>
+        <v>535.0500000000011</v>
       </c>
       <c r="J19" t="n">
-        <v>3.28</v>
+        <v>3.98</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3426</v>
+        <v>1.3503</v>
       </c>
       <c r="F20" t="n">
-        <v>10641.259636</v>
+        <v>10702.288758</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>641.2020739999989</v>
+        <v>702.2311960000006</v>
       </c>
       <c r="J20" t="n">
-        <v>6.41</v>
+        <v>7.02</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1762</v>
+        <v>1.182</v>
       </c>
       <c r="F21" t="n">
-        <v>13291.06</v>
+        <v>13356.6</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>657.6599999999999</v>
+        <v>723.1999999999989</v>
       </c>
       <c r="J21" t="n">
-        <v>5.21</v>
+        <v>5.72</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5107</v>
+        <v>1.5417</v>
       </c>
       <c r="F22" t="n">
-        <v>806.5476229999999</v>
+        <v>823.098213</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>77.41404999999997</v>
+        <v>93.96464000000003</v>
       </c>
       <c r="J22" t="n">
-        <v>10.62</v>
+        <v>12.89</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5107</v>
+        <v>1.5417</v>
       </c>
       <c r="F23" t="n">
-        <v>19520.872618</v>
+        <v>19921.446558</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>320.4591519999958</v>
+        <v>721.0330919999979</v>
       </c>
       <c r="J23" t="n">
-        <v>1.67</v>
+        <v>3.76</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3802</v>
+        <v>1.3888</v>
       </c>
       <c r="F24" t="n">
-        <v>903.0924640000002</v>
+        <v>908.7196160000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>103.1208320000002</v>
+        <v>108.7479840000001</v>
       </c>
       <c r="J24" t="n">
-        <v>12.89</v>
+        <v>13.59</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.4595</v>
+        <v>5.5759</v>
       </c>
       <c r="F26" t="n">
-        <v>2267.54873</v>
+        <v>2315.894306</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>167.5481559999998</v>
+        <v>215.8937319999995</v>
       </c>
       <c r="J26" t="n">
-        <v>7.98</v>
+        <v>10.28</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.7531</v>
+        <v>1.7891</v>
       </c>
       <c r="F28" t="n">
-        <v>6764.86228</v>
+        <v>6903.77908</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>464.9854000000005</v>
+        <v>603.9022000000004</v>
       </c>
       <c r="J28" t="n">
-        <v>7.38</v>
+        <v>9.59</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.7531</v>
+        <v>1.7891</v>
       </c>
       <c r="F29" t="n">
-        <v>15268.256299</v>
+        <v>15581.790739</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>268.246132000002</v>
+        <v>581.7805719999997</v>
       </c>
       <c r="J29" t="n">
-        <v>1.79</v>
+        <v>3.88</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8518</v>
+        <v>1.8639</v>
       </c>
       <c r="F30" t="n">
-        <v>9736.931062</v>
+        <v>9800.553951</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>856.5428609999999</v>
+        <v>920.1657500000001</v>
       </c>
       <c r="J30" t="n">
-        <v>9.65</v>
+        <v>10.36</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8518</v>
+        <v>1.8639</v>
       </c>
       <c r="F31" t="n">
-        <v>1248.613186</v>
+        <v>1256.771853</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>48.61486699999978</v>
+        <v>56.77353399999993</v>
       </c>
       <c r="J31" t="n">
-        <v>4.05</v>
+        <v>4.73</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.1246</v>
+        <v>2.1696</v>
       </c>
       <c r="F33" t="n">
-        <v>12960.06</v>
+        <v>13234.56</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>686.8599999999988</v>
+        <v>961.3599999999988</v>
       </c>
       <c r="J33" t="n">
-        <v>5.6</v>
+        <v>7.83</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7063</v>
+        <v>1.7432</v>
       </c>
       <c r="F34" t="n">
-        <v>32590.33</v>
+        <v>33295.12</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>1419.129999999997</v>
+        <v>2123.920000000002</v>
       </c>
       <c r="J34" t="n">
-        <v>4.55</v>
+        <v>6.81</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.585</v>
+        <v>5.6604</v>
       </c>
       <c r="F35" t="n">
-        <v>33992.4323</v>
+        <v>34451.345352</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>792.4466759999996</v>
+        <v>1251.359728000003</v>
       </c>
       <c r="J35" t="n">
-        <v>2.39</v>
+        <v>3.77</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.585</v>
+        <v>5.6604</v>
       </c>
       <c r="F36" t="n">
-        <v>11543.4131</v>
+        <v>11699.254344</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>243.4761079999989</v>
+        <v>399.317352</v>
       </c>
       <c r="J36" t="n">
-        <v>2.15</v>
+        <v>3.53</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.585</v>
+        <v>5.6604</v>
       </c>
       <c r="F37" t="n">
-        <v>83775</v>
+        <v>84906</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>480</v>
+        <v>1611</v>
       </c>
       <c r="J37" t="n">
-        <v>0.58</v>
+        <v>1.93</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.2366</v>
+        <v>2.2919</v>
       </c>
       <c r="F38" t="n">
-        <v>16267.708806</v>
+        <v>16669.928379</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>467.6802630000002</v>
+        <v>869.8998360000005</v>
       </c>
       <c r="J38" t="n">
-        <v>2.96</v>
+        <v>5.51</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.2366</v>
+        <v>2.2919</v>
       </c>
       <c r="F39" t="n">
-        <v>23323.063506</v>
+        <v>23899.726929</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>323.2652100000014</v>
+        <v>899.9286329999995</v>
       </c>
       <c r="J39" t="n">
-        <v>1.41</v>
+        <v>3.91</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.7882</v>
+        <v>1.8361</v>
       </c>
       <c r="F40" t="n">
-        <v>11980.94</v>
+        <v>12301.87</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1528.940000000001</v>
+        <v>1849.870000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>14.63</v>
+        <v>17.7</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.25</v>
+        <v>7.28</v>
       </c>
       <c r="F41" t="n">
-        <v>7250</v>
+        <v>7280</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="J41" t="n">
-        <v>1.98</v>
+        <v>2.41</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>6.63</v>
+        <v>6.71</v>
       </c>
       <c r="F42" t="n">
-        <v>7293</v>
+        <v>7381</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>708.3999999999996</v>
+        <v>796.3999999999996</v>
       </c>
       <c r="J42" t="n">
-        <v>10.76</v>
+        <v>12.09</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>39.6</v>
+        <v>39.49</v>
       </c>
       <c r="F43" t="n">
-        <v>59400</v>
+        <v>59235</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-5055</v>
+        <v>-5220</v>
       </c>
       <c r="J43" t="n">
-        <v>-7.84</v>
+        <v>-8.1</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.5073</v>
+        <v>3.5099</v>
       </c>
       <c r="F2" t="n">
-        <v>2594.314737</v>
+        <v>2596.237931</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>724.0825410000002</v>
+        <v>726.0057350000002</v>
       </c>
       <c r="J2" t="n">
-        <v>38.72</v>
+        <v>38.82</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.4502</v>
+        <v>3.4828</v>
       </c>
       <c r="F3" t="n">
-        <v>1118.968864</v>
+        <v>1129.541696</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>119.0254399999999</v>
+        <v>129.598272</v>
       </c>
       <c r="J3" t="n">
-        <v>11.9</v>
+        <v>12.96</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2981</v>
+        <v>1.2991</v>
       </c>
       <c r="F4" t="n">
-        <v>7399.17</v>
+        <v>7404.87</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1978.47</v>
+        <v>1984.17</v>
       </c>
       <c r="J4" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0495</v>
+        <v>2.0572</v>
       </c>
       <c r="F5" t="n">
-        <v>2430.563535</v>
+        <v>2439.695196</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>30.59699400000045</v>
+        <v>39.72865500000034</v>
       </c>
       <c r="J5" t="n">
-        <v>1.27</v>
+        <v>1.66</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.3979</v>
+        <v>1.404</v>
       </c>
       <c r="F6" t="n">
-        <v>2372.641691</v>
+        <v>2382.99516</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-127.29675</v>
+        <v>-116.9432809999998</v>
       </c>
       <c r="J6" t="n">
-        <v>-5.09</v>
+        <v>-4.68</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.3979</v>
+        <v>1.404</v>
       </c>
       <c r="F7" t="n">
-        <v>5024.192389999999</v>
+        <v>5046.1164</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-295.7944300000008</v>
+        <v>-273.8704200000002</v>
       </c>
       <c r="J7" t="n">
-        <v>-5.56</v>
+        <v>-5.15</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.9396</v>
+        <v>1.9946</v>
       </c>
       <c r="F8" t="n">
-        <v>25020.84</v>
+        <v>25730.34</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>5722.439999999999</v>
+        <v>6431.939999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>29.65</v>
+        <v>33.33</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9362</v>
+        <v>2.9248</v>
       </c>
       <c r="F9" t="n">
-        <v>889.110722</v>
+        <v>885.658688</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>140.170749</v>
+        <v>136.718715</v>
       </c>
       <c r="J9" t="n">
-        <v>18.72</v>
+        <v>18.25</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.101</v>
+        <v>2.1093</v>
       </c>
       <c r="F10" t="n">
-        <v>2185.94343</v>
+        <v>2194.578999</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>185.9248410000002</v>
+        <v>194.5604100000003</v>
       </c>
       <c r="J10" t="n">
-        <v>9.300000000000001</v>
+        <v>9.73</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.573</v>
+        <v>1.5782</v>
       </c>
       <c r="F11" t="n">
-        <v>6507.862789999999</v>
+        <v>6529.376386</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>528.7379939999992</v>
+        <v>550.2515899999999</v>
       </c>
       <c r="J11" t="n">
-        <v>8.84</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.573</v>
+        <v>1.5782</v>
       </c>
       <c r="F12" t="n">
-        <v>9460.132109999999</v>
+        <v>9491.405274000001</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>360.2427929999994</v>
+        <v>391.5159570000014</v>
       </c>
       <c r="J12" t="n">
-        <v>3.96</v>
+        <v>4.3</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2869</v>
+        <v>2.2774</v>
       </c>
       <c r="F15" t="n">
-        <v>21268.17</v>
+        <v>21179.82</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1821.870000000003</v>
+        <v>1733.52</v>
       </c>
       <c r="J15" t="n">
-        <v>9.369999999999999</v>
+        <v>8.91</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>26.46</v>
+        <v>26.58</v>
       </c>
       <c r="F16" t="n">
-        <v>13230</v>
+        <v>13290</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-585</v>
+        <v>-525</v>
       </c>
       <c r="J16" t="n">
-        <v>-4.23</v>
+        <v>-3.8</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.630000000000001</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>17260</v>
+        <v>17220</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-500</v>
+        <v>-540</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.82</v>
+        <v>-3.04</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0883</v>
+        <v>1.0886</v>
       </c>
       <c r="F18" t="n">
-        <v>4275.049177</v>
+        <v>4276.227634</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-31.42551999999978</v>
+        <v>-30.2470629999998</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.73</v>
+        <v>-0.7</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6085</v>
+        <v>1.6143</v>
       </c>
       <c r="F19" t="n">
-        <v>13993.95</v>
+        <v>14044.41</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>535.0500000000011</v>
+        <v>585.5100000000002</v>
       </c>
       <c r="J19" t="n">
-        <v>3.98</v>
+        <v>4.35</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3503</v>
+        <v>1.356</v>
       </c>
       <c r="F20" t="n">
-        <v>10702.288758</v>
+        <v>10747.46616</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>702.2311960000006</v>
+        <v>747.408598</v>
       </c>
       <c r="J20" t="n">
-        <v>7.02</v>
+        <v>7.47</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.182</v>
+        <v>1.1853</v>
       </c>
       <c r="F21" t="n">
-        <v>13356.6</v>
+        <v>13393.89</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>723.1999999999989</v>
+        <v>760.4899999999998</v>
       </c>
       <c r="J21" t="n">
-        <v>5.72</v>
+        <v>6.02</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5417</v>
+        <v>1.5514</v>
       </c>
       <c r="F22" t="n">
-        <v>823.098213</v>
+        <v>828.276946</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>93.96464000000003</v>
+        <v>99.143373</v>
       </c>
       <c r="J22" t="n">
-        <v>12.89</v>
+        <v>13.6</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5417</v>
+        <v>1.5514</v>
       </c>
       <c r="F23" t="n">
-        <v>19921.446558</v>
+        <v>20046.787436</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>721.0330919999979</v>
+        <v>846.3739699999969</v>
       </c>
       <c r="J23" t="n">
-        <v>3.76</v>
+        <v>4.41</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.5759</v>
+        <v>5.6139</v>
       </c>
       <c r="F26" t="n">
-        <v>2315.894306</v>
+        <v>2331.677226</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>215.8937319999995</v>
+        <v>231.6766519999996</v>
       </c>
       <c r="J26" t="n">
-        <v>10.28</v>
+        <v>11.03</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.7891</v>
+        <v>1.8004</v>
       </c>
       <c r="F28" t="n">
-        <v>6903.77908</v>
+        <v>6947.38352</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>603.9022000000004</v>
+        <v>647.5066400000005</v>
       </c>
       <c r="J28" t="n">
-        <v>9.59</v>
+        <v>10.28</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.7891</v>
+        <v>1.8004</v>
       </c>
       <c r="F29" t="n">
-        <v>15581.790739</v>
+        <v>15680.205716</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>581.7805719999997</v>
+        <v>680.1955490000018</v>
       </c>
       <c r="J29" t="n">
-        <v>3.88</v>
+        <v>4.53</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8639</v>
+        <v>1.8524</v>
       </c>
       <c r="F30" t="n">
-        <v>9800.553951</v>
+        <v>9740.085916</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>920.1657500000001</v>
+        <v>859.6977150000002</v>
       </c>
       <c r="J30" t="n">
-        <v>10.36</v>
+        <v>9.68</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8639</v>
+        <v>1.8524</v>
       </c>
       <c r="F31" t="n">
-        <v>1256.771853</v>
+        <v>1249.017748</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>56.77353399999993</v>
+        <v>49.01942899999995</v>
       </c>
       <c r="J31" t="n">
-        <v>4.73</v>
+        <v>4.08</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.1696</v>
+        <v>2.1825</v>
       </c>
       <c r="F33" t="n">
-        <v>13234.56</v>
+        <v>13313.25</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>961.3599999999988</v>
+        <v>1040.049999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>7.83</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7432</v>
+        <v>1.7549</v>
       </c>
       <c r="F34" t="n">
-        <v>33295.12</v>
+        <v>33518.59</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2123.920000000002</v>
+        <v>2347.389999999996</v>
       </c>
       <c r="J34" t="n">
-        <v>6.81</v>
+        <v>7.53</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.6604</v>
+        <v>5.625</v>
       </c>
       <c r="F35" t="n">
-        <v>34451.345352</v>
+        <v>34235.8875</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1251.359728000003</v>
+        <v>1035.901875999996</v>
       </c>
       <c r="J35" t="n">
-        <v>3.77</v>
+        <v>3.12</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.6604</v>
+        <v>5.625</v>
       </c>
       <c r="F36" t="n">
-        <v>11699.254344</v>
+        <v>11626.0875</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>399.317352</v>
+        <v>326.1505080000006</v>
       </c>
       <c r="J36" t="n">
-        <v>3.53</v>
+        <v>2.89</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.6604</v>
+        <v>5.625</v>
       </c>
       <c r="F37" t="n">
-        <v>84906</v>
+        <v>84375</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>1611</v>
+        <v>1080</v>
       </c>
       <c r="J37" t="n">
-        <v>1.93</v>
+        <v>1.3</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.2919</v>
+        <v>2.3191</v>
       </c>
       <c r="F38" t="n">
-        <v>16669.928379</v>
+        <v>16867.765131</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>869.8998360000005</v>
+        <v>1067.736588</v>
       </c>
       <c r="J38" t="n">
-        <v>5.51</v>
+        <v>6.76</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.2919</v>
+        <v>2.3191</v>
       </c>
       <c r="F39" t="n">
-        <v>23899.726929</v>
+        <v>24183.366081</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>899.9286329999995</v>
+        <v>1183.567784999999</v>
       </c>
       <c r="J39" t="n">
-        <v>3.91</v>
+        <v>5.15</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8361</v>
+        <v>1.8599</v>
       </c>
       <c r="F40" t="n">
-        <v>12301.87</v>
+        <v>12461.33</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1849.870000000001</v>
+        <v>2009.33</v>
       </c>
       <c r="J40" t="n">
-        <v>17.7</v>
+        <v>19.22</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.28</v>
+        <v>7.32</v>
       </c>
       <c r="F41" t="n">
-        <v>7280</v>
+        <v>7320</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="J41" t="n">
-        <v>2.41</v>
+        <v>2.97</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>6.71</v>
+        <v>6.73</v>
       </c>
       <c r="F42" t="n">
-        <v>7381</v>
+        <v>7403.000000000001</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>796.3999999999996</v>
+        <v>818.4000000000005</v>
       </c>
       <c r="J42" t="n">
-        <v>12.09</v>
+        <v>12.43</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>39.49</v>
+        <v>39.36</v>
       </c>
       <c r="F43" t="n">
-        <v>59235</v>
+        <v>59040</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-5220</v>
+        <v>-5415</v>
       </c>
       <c r="J43" t="n">
-        <v>-8.1</v>
+        <v>-8.4</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.5099</v>
+        <v>3.5287</v>
       </c>
       <c r="F2" t="n">
-        <v>2596.237931</v>
+        <v>2610.144103000001</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>726.0057350000002</v>
+        <v>739.9119070000006</v>
       </c>
       <c r="J2" t="n">
-        <v>38.82</v>
+        <v>39.56</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.4828</v>
+        <v>3.5102</v>
       </c>
       <c r="F3" t="n">
-        <v>1129.541696</v>
+        <v>1138.428064</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>129.598272</v>
+        <v>138.4846399999999</v>
       </c>
       <c r="J3" t="n">
-        <v>12.96</v>
+        <v>13.85</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2991</v>
+        <v>1.2975</v>
       </c>
       <c r="F4" t="n">
-        <v>7404.87</v>
+        <v>7395.750000000001</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1984.17</v>
+        <v>1975.050000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>36.6</v>
+        <v>36.44</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0572</v>
+        <v>2.0447</v>
       </c>
       <c r="F5" t="n">
-        <v>2439.695196</v>
+        <v>2424.871071</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>39.72865500000034</v>
+        <v>24.9045300000007</v>
       </c>
       <c r="J5" t="n">
-        <v>1.66</v>
+        <v>1.04</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.404</v>
+        <v>1.4108</v>
       </c>
       <c r="F6" t="n">
-        <v>2382.99516</v>
+        <v>2394.536732</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-116.9432809999998</v>
+        <v>-105.4017089999998</v>
       </c>
       <c r="J6" t="n">
-        <v>-4.68</v>
+        <v>-4.22</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.404</v>
+        <v>1.4108</v>
       </c>
       <c r="F7" t="n">
-        <v>5046.1164</v>
+        <v>5070.55628</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-273.8704200000002</v>
+        <v>-249.4305400000003</v>
       </c>
       <c r="J7" t="n">
-        <v>-5.15</v>
+        <v>-4.69</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.9946</v>
+        <v>2.024</v>
       </c>
       <c r="F8" t="n">
-        <v>25730.34</v>
+        <v>26109.6</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>6431.939999999999</v>
+        <v>6811.199999999997</v>
       </c>
       <c r="J8" t="n">
-        <v>33.33</v>
+        <v>35.29</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9248</v>
+        <v>2.9239</v>
       </c>
       <c r="F9" t="n">
-        <v>885.658688</v>
+        <v>885.386159</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>136.718715</v>
+        <v>136.446186</v>
       </c>
       <c r="J9" t="n">
-        <v>18.25</v>
+        <v>18.22</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1093</v>
+        <v>2.1027</v>
       </c>
       <c r="F10" t="n">
-        <v>2194.578999</v>
+        <v>2187.712161</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>194.5604100000003</v>
+        <v>187.6935719999999</v>
       </c>
       <c r="J10" t="n">
-        <v>9.73</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5782</v>
+        <v>1.5726</v>
       </c>
       <c r="F11" t="n">
-        <v>6529.376386</v>
+        <v>6506.207898</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>550.2515899999999</v>
+        <v>527.0831019999996</v>
       </c>
       <c r="J11" t="n">
-        <v>9.199999999999999</v>
+        <v>8.82</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5782</v>
+        <v>1.5726</v>
       </c>
       <c r="F12" t="n">
-        <v>9491.405274000001</v>
+        <v>9457.726482</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>391.5159570000014</v>
+        <v>357.8371650000008</v>
       </c>
       <c r="J12" t="n">
-        <v>4.3</v>
+        <v>3.93</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2774</v>
+        <v>2.2766</v>
       </c>
       <c r="F15" t="n">
-        <v>21179.82</v>
+        <v>21172.38</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1733.52</v>
+        <v>1726.080000000002</v>
       </c>
       <c r="J15" t="n">
-        <v>8.91</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>26.58</v>
+        <v>26.27</v>
       </c>
       <c r="F16" t="n">
-        <v>13290</v>
+        <v>13135</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-525</v>
+        <v>-680</v>
       </c>
       <c r="J16" t="n">
-        <v>-3.8</v>
+        <v>-4.92</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.609999999999999</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>17220</v>
+        <v>17260</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-540</v>
+        <v>-500</v>
       </c>
       <c r="J17" t="n">
-        <v>-3.04</v>
+        <v>-2.82</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0886</v>
+        <v>1.0912</v>
       </c>
       <c r="F18" t="n">
-        <v>4276.227634</v>
+        <v>4286.440928</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-30.2470629999998</v>
+        <v>-20.03376899999967</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.7</v>
+        <v>-0.47</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6143</v>
+        <v>1.6259</v>
       </c>
       <c r="F19" t="n">
-        <v>14044.41</v>
+        <v>14145.33</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>585.5100000000002</v>
+        <v>686.4300000000003</v>
       </c>
       <c r="J19" t="n">
-        <v>4.35</v>
+        <v>5.1</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.356</v>
+        <v>1.3653</v>
       </c>
       <c r="F20" t="n">
-        <v>10747.46616</v>
+        <v>10821.176658</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>747.408598</v>
+        <v>821.1190959999985</v>
       </c>
       <c r="J20" t="n">
-        <v>7.47</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1853</v>
+        <v>1.1882</v>
       </c>
       <c r="F21" t="n">
-        <v>13393.89</v>
+        <v>13426.66</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>760.4899999999998</v>
+        <v>793.2600000000002</v>
       </c>
       <c r="J21" t="n">
-        <v>6.02</v>
+        <v>6.28</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5514</v>
+        <v>1.5418</v>
       </c>
       <c r="F22" t="n">
-        <v>828.276946</v>
+        <v>823.151602</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>99.143373</v>
+        <v>94.01802900000007</v>
       </c>
       <c r="J22" t="n">
-        <v>13.6</v>
+        <v>12.89</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5514</v>
+        <v>1.5418</v>
       </c>
       <c r="F23" t="n">
-        <v>20046.787436</v>
+        <v>19922.738732</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>846.3739699999969</v>
+        <v>722.3252659999998</v>
       </c>
       <c r="J23" t="n">
-        <v>4.41</v>
+        <v>3.76</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3888</v>
+        <v>1.3838</v>
       </c>
       <c r="F24" t="n">
-        <v>908.7196160000001</v>
+        <v>905.4480160000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>108.7479840000001</v>
+        <v>105.4763840000001</v>
       </c>
       <c r="J24" t="n">
-        <v>13.59</v>
+        <v>13.19</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.6139</v>
+        <v>5.5792</v>
       </c>
       <c r="F26" t="n">
-        <v>2331.677226</v>
+        <v>2317.264928</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>231.6766519999996</v>
+        <v>217.2643539999999</v>
       </c>
       <c r="J26" t="n">
-        <v>11.03</v>
+        <v>10.35</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8004</v>
+        <v>1.7893</v>
       </c>
       <c r="F28" t="n">
-        <v>6947.38352</v>
+        <v>6904.55084</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>647.5066400000005</v>
+        <v>604.6739600000001</v>
       </c>
       <c r="J28" t="n">
-        <v>10.28</v>
+        <v>9.6</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8004</v>
+        <v>1.7893</v>
       </c>
       <c r="F29" t="n">
-        <v>15680.205716</v>
+        <v>15583.532597</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>680.1955490000018</v>
+        <v>583.5224300000009</v>
       </c>
       <c r="J29" t="n">
-        <v>4.53</v>
+        <v>3.89</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8524</v>
+        <v>1.8571</v>
       </c>
       <c r="F30" t="n">
-        <v>9740.085916</v>
+        <v>9764.798939</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>859.6977150000002</v>
+        <v>884.4107380000005</v>
       </c>
       <c r="J30" t="n">
-        <v>9.68</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8524</v>
+        <v>1.8571</v>
       </c>
       <c r="F31" t="n">
-        <v>1249.017748</v>
+        <v>1252.186817</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>49.01942899999995</v>
+        <v>52.18849799999998</v>
       </c>
       <c r="J31" t="n">
-        <v>4.08</v>
+        <v>4.35</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.1825</v>
+        <v>2.1655</v>
       </c>
       <c r="F33" t="n">
-        <v>13313.25</v>
+        <v>13209.55</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1040.049999999999</v>
+        <v>936.3500000000004</v>
       </c>
       <c r="J33" t="n">
-        <v>8.470000000000001</v>
+        <v>7.63</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7549</v>
+        <v>1.7437</v>
       </c>
       <c r="F34" t="n">
-        <v>33518.59</v>
+        <v>33304.67</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2347.389999999996</v>
+        <v>2133.469999999998</v>
       </c>
       <c r="J34" t="n">
-        <v>7.53</v>
+        <v>6.84</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.625</v>
+        <v>5.6348</v>
       </c>
       <c r="F35" t="n">
-        <v>34235.8875</v>
+        <v>34295.534024</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1035.901875999996</v>
+        <v>1095.5484</v>
       </c>
       <c r="J35" t="n">
-        <v>3.12</v>
+        <v>3.3</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.625</v>
+        <v>5.6348</v>
       </c>
       <c r="F36" t="n">
-        <v>11626.0875</v>
+        <v>11646.342728</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>326.1505080000006</v>
+        <v>346.4057360000006</v>
       </c>
       <c r="J36" t="n">
-        <v>2.89</v>
+        <v>3.07</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.625</v>
+        <v>5.6348</v>
       </c>
       <c r="F37" t="n">
-        <v>84375</v>
+        <v>84522</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>1080</v>
+        <v>1227</v>
       </c>
       <c r="J37" t="n">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3191</v>
+        <v>2.3</v>
       </c>
       <c r="F38" t="n">
-        <v>16867.765131</v>
+        <v>16728.843</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>1067.736588</v>
+        <v>928.8144569999968</v>
       </c>
       <c r="J38" t="n">
-        <v>6.76</v>
+        <v>5.88</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3191</v>
+        <v>2.3</v>
       </c>
       <c r="F39" t="n">
-        <v>24183.366081</v>
+        <v>23984.193</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>1183.567784999999</v>
+        <v>984.3947039999985</v>
       </c>
       <c r="J39" t="n">
-        <v>5.15</v>
+        <v>4.28</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8599</v>
+        <v>1.8433</v>
       </c>
       <c r="F40" t="n">
-        <v>12461.33</v>
+        <v>12350.11</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>2009.33</v>
+        <v>1898.109999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>19.22</v>
+        <v>18.16</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.32</v>
+        <v>7.29</v>
       </c>
       <c r="F41" t="n">
-        <v>7320</v>
+        <v>7290</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="J41" t="n">
-        <v>2.97</v>
+        <v>2.55</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>6.73</v>
+        <v>6.79</v>
       </c>
       <c r="F42" t="n">
-        <v>7403.000000000001</v>
+        <v>7469</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>818.4000000000005</v>
+        <v>884.3999999999996</v>
       </c>
       <c r="J42" t="n">
-        <v>12.43</v>
+        <v>13.43</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>39.36</v>
+        <v>39.4</v>
       </c>
       <c r="F43" t="n">
-        <v>59040</v>
+        <v>59100</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-5415</v>
+        <v>-5355</v>
       </c>
       <c r="J43" t="n">
-        <v>-8.4</v>
+        <v>-8.31</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.5287</v>
+        <v>3.5275</v>
       </c>
       <c r="F2" t="n">
-        <v>2610.144103000001</v>
+        <v>2609.256475</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>739.9119070000006</v>
+        <v>739.0242790000002</v>
       </c>
       <c r="J2" t="n">
-        <v>39.56</v>
+        <v>39.52</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.5102</v>
+        <v>3.503</v>
       </c>
       <c r="F3" t="n">
-        <v>1138.428064</v>
+        <v>1136.09296</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>138.4846399999999</v>
+        <v>136.1495359999999</v>
       </c>
       <c r="J3" t="n">
-        <v>13.85</v>
+        <v>13.62</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2975</v>
+        <v>1.3035</v>
       </c>
       <c r="F4" t="n">
-        <v>7395.750000000001</v>
+        <v>7429.950000000001</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1975.050000000001</v>
+        <v>2009.250000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>36.44</v>
+        <v>37.07</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0447</v>
+        <v>2.0397</v>
       </c>
       <c r="F5" t="n">
-        <v>2424.871071</v>
+        <v>2418.941421</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>24.9045300000007</v>
+        <v>18.97488000000021</v>
       </c>
       <c r="J5" t="n">
-        <v>1.04</v>
+        <v>0.79</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4108</v>
+        <v>1.41</v>
       </c>
       <c r="F6" t="n">
-        <v>2394.536732</v>
+        <v>2393.1789</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-105.4017089999998</v>
+        <v>-106.7595409999999</v>
       </c>
       <c r="J6" t="n">
-        <v>-4.22</v>
+        <v>-4.27</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4108</v>
+        <v>1.41</v>
       </c>
       <c r="F7" t="n">
-        <v>5070.55628</v>
+        <v>5067.681</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-249.4305400000003</v>
+        <v>-252.3058200000005</v>
       </c>
       <c r="J7" t="n">
-        <v>-4.69</v>
+        <v>-4.74</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>2.024</v>
+        <v>2.0228</v>
       </c>
       <c r="F8" t="n">
-        <v>26109.6</v>
+        <v>26094.12</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>6811.199999999997</v>
+        <v>6795.720000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>35.29</v>
+        <v>35.21</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9239</v>
+        <v>2.8823</v>
       </c>
       <c r="F9" t="n">
-        <v>885.386159</v>
+        <v>872.789263</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>136.446186</v>
+        <v>123.84929</v>
       </c>
       <c r="J9" t="n">
-        <v>18.22</v>
+        <v>16.54</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1027</v>
+        <v>2.1012</v>
       </c>
       <c r="F10" t="n">
-        <v>2187.712161</v>
+        <v>2186.151516</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>187.6935719999999</v>
+        <v>186.1329269999999</v>
       </c>
       <c r="J10" t="n">
-        <v>9.380000000000001</v>
+        <v>9.31</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5726</v>
+        <v>1.5723</v>
       </c>
       <c r="F11" t="n">
-        <v>6506.207898</v>
+        <v>6504.966729</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>527.0831019999996</v>
+        <v>525.8419329999997</v>
       </c>
       <c r="J11" t="n">
-        <v>8.82</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5726</v>
+        <v>1.5723</v>
       </c>
       <c r="F12" t="n">
-        <v>9457.726482</v>
+        <v>9455.922261</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>357.8371650000008</v>
+        <v>356.0329440000005</v>
       </c>
       <c r="J12" t="n">
-        <v>3.93</v>
+        <v>3.91</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2766</v>
+        <v>2.241</v>
       </c>
       <c r="F15" t="n">
-        <v>21172.38</v>
+        <v>20841.3</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1726.080000000002</v>
+        <v>1395</v>
       </c>
       <c r="J15" t="n">
-        <v>8.880000000000001</v>
+        <v>7.17</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>26.27</v>
+        <v>26.13</v>
       </c>
       <c r="F16" t="n">
-        <v>13135</v>
+        <v>13065</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-680</v>
+        <v>-750</v>
       </c>
       <c r="J16" t="n">
-        <v>-4.92</v>
+        <v>-5.43</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.630000000000001</v>
+        <v>8.57</v>
       </c>
       <c r="F17" t="n">
-        <v>17260</v>
+        <v>17140</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-500</v>
+        <v>-620</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.82</v>
+        <v>-3.49</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0912</v>
+        <v>1.0839</v>
       </c>
       <c r="F18" t="n">
-        <v>4286.440928</v>
+        <v>4257.765141000001</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-20.03376899999967</v>
+        <v>-48.70955599999888</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.47</v>
+        <v>-1.13</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6259</v>
+        <v>1.6207</v>
       </c>
       <c r="F19" t="n">
-        <v>14145.33</v>
+        <v>14100.09</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>686.4300000000003</v>
+        <v>641.1900000000005</v>
       </c>
       <c r="J19" t="n">
-        <v>5.1</v>
+        <v>4.76</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3653</v>
+        <v>1.3562</v>
       </c>
       <c r="F20" t="n">
-        <v>10821.176658</v>
+        <v>10749.051332</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>821.1190959999985</v>
+        <v>748.9937700000009</v>
       </c>
       <c r="J20" t="n">
-        <v>8.210000000000001</v>
+        <v>7.49</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1882</v>
+        <v>1.1773</v>
       </c>
       <c r="F21" t="n">
-        <v>13426.66</v>
+        <v>13303.49</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>793.2600000000002</v>
+        <v>670.0900000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>6.28</v>
+        <v>5.3</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5418</v>
+        <v>1.5457</v>
       </c>
       <c r="F22" t="n">
-        <v>823.151602</v>
+        <v>825.233773</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>94.01802900000007</v>
+        <v>96.10020000000009</v>
       </c>
       <c r="J22" t="n">
-        <v>12.89</v>
+        <v>13.18</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5418</v>
+        <v>1.5457</v>
       </c>
       <c r="F23" t="n">
-        <v>19922.738732</v>
+        <v>19973.133518</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>722.3252659999998</v>
+        <v>772.7200520000006</v>
       </c>
       <c r="J23" t="n">
-        <v>3.76</v>
+        <v>4.02</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3838</v>
+        <v>1.3581</v>
       </c>
       <c r="F24" t="n">
-        <v>905.4480160000001</v>
+        <v>888.6319920000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>105.4763840000001</v>
+        <v>88.66036000000008</v>
       </c>
       <c r="J24" t="n">
-        <v>13.19</v>
+        <v>11.08</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.5792</v>
+        <v>5.5937</v>
       </c>
       <c r="F26" t="n">
-        <v>2317.264928</v>
+        <v>2323.287358</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>217.2643539999999</v>
+        <v>223.2867839999999</v>
       </c>
       <c r="J26" t="n">
-        <v>10.35</v>
+        <v>10.63</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.7893</v>
+        <v>1.794</v>
       </c>
       <c r="F28" t="n">
-        <v>6904.55084</v>
+        <v>6922.6872</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>604.6739600000001</v>
+        <v>622.8103200000005</v>
       </c>
       <c r="J28" t="n">
-        <v>9.6</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.7893</v>
+        <v>1.794</v>
       </c>
       <c r="F29" t="n">
-        <v>15583.532597</v>
+        <v>15624.46626</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>583.5224300000009</v>
+        <v>624.4560930000007</v>
       </c>
       <c r="J29" t="n">
-        <v>3.89</v>
+        <v>4.16</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8571</v>
+        <v>1.8216</v>
       </c>
       <c r="F30" t="n">
-        <v>9764.798939</v>
+        <v>9578.136744000001</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>884.4107380000005</v>
+        <v>697.7485430000015</v>
       </c>
       <c r="J30" t="n">
-        <v>9.960000000000001</v>
+        <v>7.86</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8571</v>
+        <v>1.8216</v>
       </c>
       <c r="F31" t="n">
-        <v>1252.186817</v>
+        <v>1228.250232</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>52.18849799999998</v>
+        <v>28.25191300000006</v>
       </c>
       <c r="J31" t="n">
-        <v>4.35</v>
+        <v>2.35</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.1655</v>
+        <v>2.1713</v>
       </c>
       <c r="F33" t="n">
-        <v>13209.55</v>
+        <v>13244.93</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>936.3500000000004</v>
+        <v>971.7299999999996</v>
       </c>
       <c r="J33" t="n">
-        <v>7.63</v>
+        <v>7.92</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7437</v>
+        <v>1.7482</v>
       </c>
       <c r="F34" t="n">
-        <v>33304.67</v>
+        <v>33390.62</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2133.469999999998</v>
+        <v>2219.420000000002</v>
       </c>
       <c r="J34" t="n">
-        <v>6.84</v>
+        <v>7.12</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.6348</v>
+        <v>5.4977</v>
       </c>
       <c r="F35" t="n">
-        <v>34295.534024</v>
+        <v>33461.091326</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1095.5484</v>
+        <v>261.1057020000007</v>
       </c>
       <c r="J35" t="n">
-        <v>3.3</v>
+        <v>0.79</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.6348</v>
+        <v>5.4977</v>
       </c>
       <c r="F36" t="n">
-        <v>11646.342728</v>
+        <v>11362.976222</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>346.4057360000006</v>
+        <v>63.03923000000032</v>
       </c>
       <c r="J36" t="n">
-        <v>3.07</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.6348</v>
+        <v>5.4977</v>
       </c>
       <c r="F37" t="n">
-        <v>84522</v>
+        <v>82465.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>1227</v>
+        <v>-829.5</v>
       </c>
       <c r="J37" t="n">
-        <v>1.47</v>
+        <v>-1</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3</v>
+        <v>2.3009</v>
       </c>
       <c r="F38" t="n">
-        <v>16728.843</v>
+        <v>16735.389069</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>928.8144569999968</v>
+        <v>935.3605260000004</v>
       </c>
       <c r="J38" t="n">
-        <v>5.88</v>
+        <v>5.92</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3</v>
+        <v>2.3009</v>
       </c>
       <c r="F39" t="n">
-        <v>23984.193</v>
+        <v>23993.578119</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>984.3947039999985</v>
+        <v>993.7798229999971</v>
       </c>
       <c r="J39" t="n">
-        <v>4.28</v>
+        <v>4.32</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8433</v>
+        <v>1.8441</v>
       </c>
       <c r="F40" t="n">
-        <v>12350.11</v>
+        <v>12355.47</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1898.109999999999</v>
+        <v>1903.470000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>18.16</v>
+        <v>18.21</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.29</v>
+        <v>7.19</v>
       </c>
       <c r="F41" t="n">
-        <v>7290</v>
+        <v>7190</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="J41" t="n">
-        <v>2.55</v>
+        <v>1.14</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>6.79</v>
+        <v>6.63</v>
       </c>
       <c r="F42" t="n">
-        <v>7469</v>
+        <v>7293</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>884.3999999999996</v>
+        <v>708.3999999999996</v>
       </c>
       <c r="J42" t="n">
-        <v>13.43</v>
+        <v>10.76</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>39.4</v>
+        <v>38.95</v>
       </c>
       <c r="F43" t="n">
-        <v>59100</v>
+        <v>58425.00000000001</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-5355</v>
+        <v>-6029.999999999993</v>
       </c>
       <c r="J43" t="n">
-        <v>-8.31</v>
+        <v>-9.359999999999999</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.5275</v>
+        <v>3.4845</v>
       </c>
       <c r="F2" t="n">
-        <v>2609.256475</v>
+        <v>2577.449805</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>739.0242790000002</v>
+        <v>707.2176090000003</v>
       </c>
       <c r="J2" t="n">
-        <v>39.52</v>
+        <v>37.81</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.3035</v>
+        <v>1.2854</v>
       </c>
       <c r="F4" t="n">
-        <v>7429.950000000001</v>
+        <v>7326.780000000001</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2009.250000000001</v>
+        <v>1906.080000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>37.07</v>
+        <v>35.16</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.41</v>
+        <v>1.4093</v>
       </c>
       <c r="F6" t="n">
-        <v>2393.1789</v>
+        <v>2391.990797</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-106.7595409999999</v>
+        <v>-107.9476439999999</v>
       </c>
       <c r="J6" t="n">
-        <v>-4.27</v>
+        <v>-4.32</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.41</v>
+        <v>1.4093</v>
       </c>
       <c r="F7" t="n">
-        <v>5067.681</v>
+        <v>5065.165129999999</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-252.3058200000005</v>
+        <v>-254.8216900000007</v>
       </c>
       <c r="J7" t="n">
-        <v>-4.74</v>
+        <v>-4.79</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>2.0228</v>
+        <v>1.998</v>
       </c>
       <c r="F8" t="n">
-        <v>26094.12</v>
+        <v>25774.2</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>6795.720000000001</v>
+        <v>6475.799999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>35.21</v>
+        <v>33.56</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1012</v>
+        <v>2.0724</v>
       </c>
       <c r="F10" t="n">
-        <v>2186.151516</v>
+        <v>2156.187132</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>186.1329269999999</v>
+        <v>156.168543</v>
       </c>
       <c r="J10" t="n">
-        <v>9.31</v>
+        <v>7.81</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5723</v>
+        <v>1.5498</v>
       </c>
       <c r="F11" t="n">
-        <v>6504.966729</v>
+        <v>6411.879054</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>525.8419329999997</v>
+        <v>432.7542579999999</v>
       </c>
       <c r="J11" t="n">
-        <v>8.789999999999999</v>
+        <v>7.24</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5723</v>
+        <v>1.5498</v>
       </c>
       <c r="F12" t="n">
-        <v>9455.922261</v>
+        <v>9320.605686000001</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>356.0329440000005</v>
+        <v>220.7163690000016</v>
       </c>
       <c r="J12" t="n">
-        <v>3.91</v>
+        <v>2.43</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0839</v>
+        <v>1.0755</v>
       </c>
       <c r="F18" t="n">
-        <v>4257.765141000001</v>
+        <v>4224.768344999999</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-48.70955599999888</v>
+        <v>-81.70635200000015</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.13</v>
+        <v>-1.9</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6207</v>
+        <v>1.5973</v>
       </c>
       <c r="F19" t="n">
-        <v>14100.09</v>
+        <v>13896.51</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>641.1900000000005</v>
+        <v>437.6100000000006</v>
       </c>
       <c r="J19" t="n">
-        <v>4.76</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3562</v>
+        <v>1.3376</v>
       </c>
       <c r="F20" t="n">
-        <v>10749.051332</v>
+        <v>10601.630336</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>748.9937700000009</v>
+        <v>601.5727739999984</v>
       </c>
       <c r="J20" t="n">
-        <v>7.49</v>
+        <v>6.02</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1773</v>
+        <v>1.1651</v>
       </c>
       <c r="F21" t="n">
-        <v>13303.49</v>
+        <v>13165.63</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>670.0900000000001</v>
+        <v>532.2300000000014</v>
       </c>
       <c r="J21" t="n">
-        <v>5.3</v>
+        <v>4.21</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5457</v>
+        <v>1.5164</v>
       </c>
       <c r="F22" t="n">
-        <v>825.233773</v>
+        <v>809.590796</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>96.10020000000009</v>
+        <v>80.457223</v>
       </c>
       <c r="J22" t="n">
-        <v>13.18</v>
+        <v>11.03</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5457</v>
+        <v>1.5164</v>
       </c>
       <c r="F23" t="n">
-        <v>19973.133518</v>
+        <v>19594.526536</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>772.7200520000006</v>
+        <v>394.1130699999958</v>
       </c>
       <c r="J23" t="n">
-        <v>4.02</v>
+        <v>2.05</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.5937</v>
+        <v>5.4814</v>
       </c>
       <c r="F26" t="n">
-        <v>2323.287358</v>
+        <v>2276.644676</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>223.2867839999999</v>
+        <v>176.6441019999997</v>
       </c>
       <c r="J26" t="n">
-        <v>10.63</v>
+        <v>8.41</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.794</v>
+        <v>1.7595</v>
       </c>
       <c r="F28" t="n">
-        <v>6922.6872</v>
+        <v>6789.5586</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>622.8103200000005</v>
+        <v>489.6817200000005</v>
       </c>
       <c r="J28" t="n">
-        <v>9.890000000000001</v>
+        <v>7.77</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.794</v>
+        <v>1.7595</v>
       </c>
       <c r="F29" t="n">
-        <v>15624.46626</v>
+        <v>15323.995755</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>624.4560930000007</v>
+        <v>323.9855880000014</v>
       </c>
       <c r="J29" t="n">
-        <v>4.16</v>
+        <v>2.16</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.1713</v>
+        <v>2.1243</v>
       </c>
       <c r="F33" t="n">
-        <v>13244.93</v>
+        <v>12958.23</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>971.7299999999996</v>
+        <v>685.0299999999988</v>
       </c>
       <c r="J33" t="n">
-        <v>7.92</v>
+        <v>5.58</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7482</v>
+        <v>1.7131</v>
       </c>
       <c r="F34" t="n">
-        <v>33390.62</v>
+        <v>32720.21</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2219.420000000002</v>
+        <v>1549.010000000002</v>
       </c>
       <c r="J34" t="n">
-        <v>7.12</v>
+        <v>4.97</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3009</v>
+        <v>2.2512</v>
       </c>
       <c r="F38" t="n">
-        <v>16735.389069</v>
+        <v>16373.900592</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>935.3605260000004</v>
+        <v>573.8720489999978</v>
       </c>
       <c r="J38" t="n">
-        <v>5.92</v>
+        <v>3.63</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.3009</v>
+        <v>2.2512</v>
       </c>
       <c r="F39" t="n">
-        <v>23993.578119</v>
+        <v>23475.310992</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>993.7798229999971</v>
+        <v>475.512695999998</v>
       </c>
       <c r="J39" t="n">
-        <v>4.32</v>
+        <v>2.07</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8441</v>
+        <v>1.8014</v>
       </c>
       <c r="F40" t="n">
-        <v>12355.47</v>
+        <v>12069.38</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1903.470000000001</v>
+        <v>1617.379999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>18.21</v>
+        <v>15.47</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.503</v>
+        <v>3.4132</v>
       </c>
       <c r="F3" t="n">
-        <v>1136.09296</v>
+        <v>1106.969024</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>136.1495359999999</v>
+        <v>107.0255999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>13.62</v>
+        <v>10.7</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0397</v>
+        <v>2.0417</v>
       </c>
       <c r="F5" t="n">
-        <v>2418.941421</v>
+        <v>2421.313281</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>18.97488000000021</v>
+        <v>21.34674000000041</v>
       </c>
       <c r="J5" t="n">
-        <v>0.79</v>
+        <v>0.89</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8823</v>
+        <v>2.8815</v>
       </c>
       <c r="F9" t="n">
-        <v>872.789263</v>
+        <v>872.547015</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>123.84929</v>
+        <v>123.607042</v>
       </c>
       <c r="J9" t="n">
-        <v>16.54</v>
+        <v>16.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.241</v>
+        <v>2.2404</v>
       </c>
       <c r="F15" t="n">
-        <v>20841.3</v>
+        <v>20835.72</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1395</v>
+        <v>1389.420000000002</v>
       </c>
       <c r="J15" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.57</v>
+        <v>8.56</v>
       </c>
       <c r="F17" t="n">
-        <v>17140</v>
+        <v>17120</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-620</v>
+        <v>-640</v>
       </c>
       <c r="J17" t="n">
-        <v>-3.49</v>
+        <v>-3.6</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3581</v>
+        <v>1.3594</v>
       </c>
       <c r="F24" t="n">
-        <v>888.6319920000001</v>
+        <v>889.482608</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>88.66036000000008</v>
+        <v>89.51097600000003</v>
       </c>
       <c r="J24" t="n">
-        <v>11.08</v>
+        <v>11.19</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8216</v>
+        <v>1.8233</v>
       </c>
       <c r="F30" t="n">
-        <v>9578.136744000001</v>
+        <v>9587.075497</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>697.7485430000015</v>
+        <v>706.6872960000001</v>
       </c>
       <c r="J30" t="n">
-        <v>7.86</v>
+        <v>7.96</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8216</v>
+        <v>1.8233</v>
       </c>
       <c r="F31" t="n">
-        <v>1228.250232</v>
+        <v>1229.396491</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>28.25191300000006</v>
+        <v>29.39817199999993</v>
       </c>
       <c r="J31" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.4977</v>
+        <v>5.4691</v>
       </c>
       <c r="F35" t="n">
-        <v>33461.091326</v>
+        <v>33287.020858</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>261.1057020000007</v>
+        <v>87.03523400000267</v>
       </c>
       <c r="J35" t="n">
-        <v>0.79</v>
+        <v>0.26</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.4977</v>
+        <v>5.4691</v>
       </c>
       <c r="F36" t="n">
-        <v>11362.976222</v>
+        <v>11303.864026</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>63.03923000000032</v>
+        <v>3.927034000000276</v>
       </c>
       <c r="J36" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.4977</v>
+        <v>5.4691</v>
       </c>
       <c r="F37" t="n">
-        <v>82465.5</v>
+        <v>82036.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>-829.5</v>
+        <v>-1258.5</v>
       </c>
       <c r="J37" t="n">
-        <v>-1</v>
+        <v>-1.51</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.19</v>
+        <v>7.13</v>
       </c>
       <c r="F41" t="n">
-        <v>7190</v>
+        <v>7130</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="J41" t="n">
-        <v>1.14</v>
+        <v>0.3</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>6.63</v>
+        <v>6.52</v>
       </c>
       <c r="F42" t="n">
-        <v>7293</v>
+        <v>7171.999999999999</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>708.3999999999996</v>
+        <v>587.3999999999987</v>
       </c>
       <c r="J42" t="n">
-        <v>10.76</v>
+        <v>8.92</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>38.95</v>
+        <v>39.2</v>
       </c>
       <c r="F43" t="n">
-        <v>58425.00000000001</v>
+        <v>58800.00000000001</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-6029.999999999993</v>
+        <v>-5654.999999999993</v>
       </c>
       <c r="J43" t="n">
-        <v>-9.359999999999999</v>
+        <v>-8.77</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.4845</v>
+        <v>3.602</v>
       </c>
       <c r="F2" t="n">
-        <v>2577.449805</v>
+        <v>2664.36338</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>707.2176090000003</v>
+        <v>794.1311840000003</v>
       </c>
       <c r="J2" t="n">
-        <v>37.81</v>
+        <v>42.46</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.4132</v>
+        <v>3.423</v>
       </c>
       <c r="F3" t="n">
-        <v>1106.969024</v>
+        <v>1110.14736</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>107.0255999999999</v>
+        <v>110.2039359999999</v>
       </c>
       <c r="J3" t="n">
-        <v>10.7</v>
+        <v>11.02</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2854</v>
+        <v>1.3006</v>
       </c>
       <c r="F4" t="n">
-        <v>7326.780000000001</v>
+        <v>7413.42</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1906.080000000001</v>
+        <v>1992.72</v>
       </c>
       <c r="J4" t="n">
-        <v>35.16</v>
+        <v>36.76</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0417</v>
+        <v>2.0363</v>
       </c>
       <c r="F5" t="n">
-        <v>2421.313281</v>
+        <v>2414.909259</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>21.34674000000041</v>
+        <v>14.9427180000007</v>
       </c>
       <c r="J5" t="n">
-        <v>0.89</v>
+        <v>0.62</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4093</v>
+        <v>1.394</v>
       </c>
       <c r="F6" t="n">
-        <v>2391.990797</v>
+        <v>2366.02226</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-107.9476439999999</v>
+        <v>-133.9161810000001</v>
       </c>
       <c r="J6" t="n">
-        <v>-4.32</v>
+        <v>-5.36</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4093</v>
+        <v>1.394</v>
       </c>
       <c r="F7" t="n">
-        <v>5065.165129999999</v>
+        <v>5010.175399999999</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-254.8216900000007</v>
+        <v>-309.8114200000009</v>
       </c>
       <c r="J7" t="n">
-        <v>-4.79</v>
+        <v>-5.82</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.998</v>
+        <v>1.9807</v>
       </c>
       <c r="F8" t="n">
-        <v>25774.2</v>
+        <v>25551.03</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>6475.799999999999</v>
+        <v>6252.629999999997</v>
       </c>
       <c r="J8" t="n">
-        <v>33.56</v>
+        <v>32.4</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8815</v>
+        <v>2.9032</v>
       </c>
       <c r="F9" t="n">
-        <v>872.547015</v>
+        <v>879.117992</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>123.607042</v>
+        <v>130.1780189999999</v>
       </c>
       <c r="J9" t="n">
-        <v>16.5</v>
+        <v>17.38</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0724</v>
+        <v>2.0715</v>
       </c>
       <c r="F10" t="n">
-        <v>2156.187132</v>
+        <v>2155.250745</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>156.168543</v>
+        <v>155.2321559999998</v>
       </c>
       <c r="J10" t="n">
-        <v>7.81</v>
+        <v>7.76</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5498</v>
+        <v>1.5492</v>
       </c>
       <c r="F11" t="n">
-        <v>6411.879054</v>
+        <v>6409.396715999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>432.7542579999999</v>
+        <v>430.2719199999992</v>
       </c>
       <c r="J11" t="n">
-        <v>7.24</v>
+        <v>7.2</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5498</v>
+        <v>1.5492</v>
       </c>
       <c r="F12" t="n">
-        <v>9320.605686000001</v>
+        <v>9316.997243999998</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>220.7163690000016</v>
+        <v>217.1079269999991</v>
       </c>
       <c r="J12" t="n">
-        <v>2.43</v>
+        <v>2.39</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2404</v>
+        <v>2.2589</v>
       </c>
       <c r="F15" t="n">
-        <v>20835.72</v>
+        <v>21007.77</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1389.420000000002</v>
+        <v>1561.470000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>7.14</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>26.13</v>
+        <v>26.08</v>
       </c>
       <c r="F16" t="n">
-        <v>13065</v>
+        <v>13040</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-750</v>
+        <v>-775</v>
       </c>
       <c r="J16" t="n">
-        <v>-5.43</v>
+        <v>-5.61</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.56</v>
+        <v>8.57</v>
       </c>
       <c r="F17" t="n">
-        <v>17120</v>
+        <v>17140</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-640</v>
+        <v>-620</v>
       </c>
       <c r="J17" t="n">
-        <v>-3.6</v>
+        <v>-3.49</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0755</v>
+        <v>1.0797</v>
       </c>
       <c r="F18" t="n">
-        <v>4224.768344999999</v>
+        <v>4241.266743</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-81.70635200000015</v>
+        <v>-65.20795399999952</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.9</v>
+        <v>-1.51</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5973</v>
+        <v>1.6214</v>
       </c>
       <c r="F19" t="n">
-        <v>13896.51</v>
+        <v>14106.18</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>437.6100000000006</v>
+        <v>647.2800000000007</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>4.81</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3376</v>
+        <v>1.3569</v>
       </c>
       <c r="F20" t="n">
-        <v>10601.630336</v>
+        <v>10754.599434</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>601.5727739999984</v>
+        <v>754.5418719999998</v>
       </c>
       <c r="J20" t="n">
-        <v>6.02</v>
+        <v>7.55</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1651</v>
+        <v>1.1717</v>
       </c>
       <c r="F21" t="n">
-        <v>13165.63</v>
+        <v>13240.21</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>532.2300000000014</v>
+        <v>606.8099999999995</v>
       </c>
       <c r="J21" t="n">
-        <v>4.21</v>
+        <v>4.8</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5164</v>
+        <v>1.5179</v>
       </c>
       <c r="F22" t="n">
-        <v>809.590796</v>
+        <v>810.391631</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>80.457223</v>
+        <v>81.25805800000001</v>
       </c>
       <c r="J22" t="n">
-        <v>11.03</v>
+        <v>11.14</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5164</v>
+        <v>1.5179</v>
       </c>
       <c r="F23" t="n">
-        <v>19594.526536</v>
+        <v>19613.909146</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>394.1130699999958</v>
+        <v>413.49568</v>
       </c>
       <c r="J23" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3594</v>
+        <v>1.3721</v>
       </c>
       <c r="F24" t="n">
-        <v>889.482608</v>
+        <v>897.7924720000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>89.51097600000003</v>
+        <v>97.82084000000009</v>
       </c>
       <c r="J24" t="n">
-        <v>11.19</v>
+        <v>12.23</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.4814</v>
+        <v>5.4872</v>
       </c>
       <c r="F26" t="n">
-        <v>2276.644676</v>
+        <v>2279.053648</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>176.6441019999997</v>
+        <v>179.0530739999995</v>
       </c>
       <c r="J26" t="n">
-        <v>8.41</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.7595</v>
+        <v>1.7613</v>
       </c>
       <c r="F28" t="n">
-        <v>6789.5586</v>
+        <v>6796.504440000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>489.6817200000005</v>
+        <v>496.6275600000008</v>
       </c>
       <c r="J28" t="n">
-        <v>7.77</v>
+        <v>7.88</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.7595</v>
+        <v>1.7613</v>
       </c>
       <c r="F29" t="n">
-        <v>15323.995755</v>
+        <v>15339.672477</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>323.9855880000014</v>
+        <v>339.6623100000015</v>
       </c>
       <c r="J29" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.1243</v>
+        <v>2.1307</v>
       </c>
       <c r="F33" t="n">
-        <v>12958.23</v>
+        <v>12997.27</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>685.0299999999988</v>
+        <v>724.0699999999997</v>
       </c>
       <c r="J33" t="n">
-        <v>5.58</v>
+        <v>5.9</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7131</v>
+        <v>1.7149</v>
       </c>
       <c r="F34" t="n">
-        <v>32720.21</v>
+        <v>32754.59</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>1549.010000000002</v>
+        <v>1583.389999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>4.97</v>
+        <v>5.08</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.4691</v>
+        <v>5.5486</v>
       </c>
       <c r="F35" t="n">
-        <v>33287.020858</v>
+        <v>33770.888068</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>87.03523400000267</v>
+        <v>570.9024439999994</v>
       </c>
       <c r="J35" t="n">
-        <v>0.26</v>
+        <v>1.72</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.4691</v>
+        <v>5.5486</v>
       </c>
       <c r="F36" t="n">
-        <v>11303.864026</v>
+        <v>11468.179396</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>3.927034000000276</v>
+        <v>168.2424040000005</v>
       </c>
       <c r="J36" t="n">
-        <v>0.03</v>
+        <v>1.49</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.4691</v>
+        <v>5.5486</v>
       </c>
       <c r="F37" t="n">
-        <v>82036.5</v>
+        <v>83229</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>-1258.5</v>
+        <v>-66</v>
       </c>
       <c r="J37" t="n">
-        <v>-1.51</v>
+        <v>-0.08</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.2512</v>
+        <v>2.2393</v>
       </c>
       <c r="F38" t="n">
-        <v>16373.900592</v>
+        <v>16287.347013</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>573.8720489999978</v>
+        <v>487.3184700000002</v>
       </c>
       <c r="J38" t="n">
-        <v>3.63</v>
+        <v>3.08</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.2512</v>
+        <v>2.2393</v>
       </c>
       <c r="F39" t="n">
-        <v>23475.310992</v>
+        <v>23351.218863</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>475.512695999998</v>
+        <v>351.420567000001</v>
       </c>
       <c r="J39" t="n">
-        <v>2.07</v>
+        <v>1.53</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8014</v>
+        <v>1.792</v>
       </c>
       <c r="F40" t="n">
-        <v>12069.38</v>
+        <v>12006.4</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1617.379999999999</v>
+        <v>1554.4</v>
       </c>
       <c r="J40" t="n">
-        <v>15.47</v>
+        <v>14.87</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.13</v>
+        <v>7.06</v>
       </c>
       <c r="F41" t="n">
-        <v>7130</v>
+        <v>7060</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>21</v>
+        <v>-49</v>
       </c>
       <c r="J41" t="n">
-        <v>0.3</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>6.52</v>
+        <v>6.49</v>
       </c>
       <c r="F42" t="n">
-        <v>7171.999999999999</v>
+        <v>7139</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>587.3999999999987</v>
+        <v>554.3999999999996</v>
       </c>
       <c r="J42" t="n">
-        <v>8.92</v>
+        <v>8.42</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>39.2</v>
+        <v>38.9</v>
       </c>
       <c r="F43" t="n">
-        <v>58800.00000000001</v>
+        <v>58350</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-5654.999999999993</v>
+        <v>-6105</v>
       </c>
       <c r="J43" t="n">
-        <v>-8.77</v>
+        <v>-9.470000000000001</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.602</v>
+        <v>3.5956</v>
       </c>
       <c r="F2" t="n">
-        <v>2664.36338</v>
+        <v>2659.629364</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>794.1311840000003</v>
+        <v>789.3971680000004</v>
       </c>
       <c r="J2" t="n">
-        <v>42.46</v>
+        <v>42.21</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.423</v>
+        <v>3.4793</v>
       </c>
       <c r="F3" t="n">
-        <v>1110.14736</v>
+        <v>1128.406576</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>110.2039359999999</v>
+        <v>128.4631519999998</v>
       </c>
       <c r="J3" t="n">
-        <v>11.02</v>
+        <v>12.85</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.3006</v>
+        <v>1.313</v>
       </c>
       <c r="F4" t="n">
-        <v>7413.42</v>
+        <v>7484.099999999999</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1992.72</v>
+        <v>2063.4</v>
       </c>
       <c r="J4" t="n">
-        <v>36.76</v>
+        <v>38.07</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0363</v>
+        <v>2.042</v>
       </c>
       <c r="F5" t="n">
-        <v>2414.909259</v>
+        <v>2421.66906</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>14.9427180000007</v>
+        <v>21.70251899999994</v>
       </c>
       <c r="J5" t="n">
-        <v>0.62</v>
+        <v>0.9</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.394</v>
+        <v>1.3879</v>
       </c>
       <c r="F6" t="n">
-        <v>2366.02226</v>
+        <v>2355.668791</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-133.9161810000001</v>
+        <v>-144.2696500000002</v>
       </c>
       <c r="J6" t="n">
-        <v>-5.36</v>
+        <v>-5.77</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.394</v>
+        <v>1.3879</v>
       </c>
       <c r="F7" t="n">
-        <v>5010.175399999999</v>
+        <v>4988.251389999999</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-309.8114200000009</v>
+        <v>-331.7354300000006</v>
       </c>
       <c r="J7" t="n">
-        <v>-5.82</v>
+        <v>-6.24</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>1.9807</v>
+        <v>2.0131</v>
       </c>
       <c r="F8" t="n">
-        <v>25551.03</v>
+        <v>25968.99</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>6252.629999999997</v>
+        <v>6670.59</v>
       </c>
       <c r="J8" t="n">
-        <v>32.4</v>
+        <v>34.57</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9032</v>
+        <v>2.9219</v>
       </c>
       <c r="F9" t="n">
-        <v>879.117992</v>
+        <v>884.780539</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>130.1780189999999</v>
+        <v>135.840566</v>
       </c>
       <c r="J9" t="n">
-        <v>17.38</v>
+        <v>18.14</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0715</v>
+        <v>2.0863</v>
       </c>
       <c r="F10" t="n">
-        <v>2155.250745</v>
+        <v>2170.649109</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>155.2321559999998</v>
+        <v>170.6305199999999</v>
       </c>
       <c r="J10" t="n">
-        <v>7.76</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5492</v>
+        <v>1.5612</v>
       </c>
       <c r="F11" t="n">
-        <v>6409.396715999999</v>
+        <v>6459.043475999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>430.2719199999992</v>
+        <v>479.9186799999989</v>
       </c>
       <c r="J11" t="n">
-        <v>7.2</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5492</v>
+        <v>1.5612</v>
       </c>
       <c r="F12" t="n">
-        <v>9316.997243999998</v>
+        <v>9389.166083999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>217.1079269999991</v>
+        <v>289.2767669999994</v>
       </c>
       <c r="J12" t="n">
-        <v>2.39</v>
+        <v>3.18</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>26.08</v>
+        <v>25.98</v>
       </c>
       <c r="F16" t="n">
-        <v>13040</v>
+        <v>12990</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-775</v>
+        <v>-825</v>
       </c>
       <c r="J16" t="n">
-        <v>-5.61</v>
+        <v>-5.97</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.57</v>
+        <v>8.5</v>
       </c>
       <c r="F17" t="n">
-        <v>17140</v>
+        <v>17000</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-620</v>
+        <v>-760</v>
       </c>
       <c r="J17" t="n">
-        <v>-3.49</v>
+        <v>-4.28</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0797</v>
+        <v>1.0775</v>
       </c>
       <c r="F18" t="n">
-        <v>4241.266743</v>
+        <v>4232.624725</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-65.20795399999952</v>
+        <v>-73.84997199999998</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.51</v>
+        <v>-1.71</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6214</v>
+        <v>1.6301</v>
       </c>
       <c r="F19" t="n">
-        <v>14106.18</v>
+        <v>14181.87</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>647.2800000000007</v>
+        <v>722.9700000000012</v>
       </c>
       <c r="J19" t="n">
-        <v>4.81</v>
+        <v>5.37</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3569</v>
+        <v>1.3506</v>
       </c>
       <c r="F20" t="n">
-        <v>10754.599434</v>
+        <v>10704.666516</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>754.5418719999998</v>
+        <v>704.6089539999994</v>
       </c>
       <c r="J20" t="n">
-        <v>7.55</v>
+        <v>7.05</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1717</v>
+        <v>1.1697</v>
       </c>
       <c r="F21" t="n">
-        <v>13240.21</v>
+        <v>13217.61</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>606.8099999999995</v>
+        <v>584.2099999999991</v>
       </c>
       <c r="J21" t="n">
-        <v>4.8</v>
+        <v>4.62</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5179</v>
+        <v>1.5324</v>
       </c>
       <c r="F22" t="n">
-        <v>810.391631</v>
+        <v>818.1330359999999</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>81.25805800000001</v>
+        <v>88.99946299999999</v>
       </c>
       <c r="J22" t="n">
-        <v>11.14</v>
+        <v>12.21</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5179</v>
+        <v>1.5324</v>
       </c>
       <c r="F23" t="n">
-        <v>19613.909146</v>
+        <v>19801.274376</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>413.49568</v>
+        <v>600.8609099999994</v>
       </c>
       <c r="J23" t="n">
-        <v>2.15</v>
+        <v>3.13</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3721</v>
+        <v>1.3881</v>
       </c>
       <c r="F24" t="n">
-        <v>897.7924720000001</v>
+        <v>908.261592</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>97.82084000000009</v>
+        <v>108.28996</v>
       </c>
       <c r="J24" t="n">
-        <v>12.23</v>
+        <v>13.54</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.4872</v>
+        <v>5.5407</v>
       </c>
       <c r="F26" t="n">
-        <v>2279.053648</v>
+        <v>2301.274338</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>179.0530739999995</v>
+        <v>201.2737639999996</v>
       </c>
       <c r="J26" t="n">
-        <v>8.529999999999999</v>
+        <v>9.58</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.7613</v>
+        <v>1.7782</v>
       </c>
       <c r="F28" t="n">
-        <v>6796.504440000001</v>
+        <v>6861.71816</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>496.6275600000008</v>
+        <v>561.8412800000006</v>
       </c>
       <c r="J28" t="n">
-        <v>7.88</v>
+        <v>8.92</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.7613</v>
+        <v>1.7782</v>
       </c>
       <c r="F29" t="n">
-        <v>15339.672477</v>
+        <v>15486.859478</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>339.6623100000015</v>
+        <v>486.8493110000018</v>
       </c>
       <c r="J29" t="n">
-        <v>2.26</v>
+        <v>3.25</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8233</v>
+        <v>1.863</v>
       </c>
       <c r="F30" t="n">
-        <v>9587.075497</v>
+        <v>9795.821669999999</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>706.6872960000001</v>
+        <v>915.4334689999996</v>
       </c>
       <c r="J30" t="n">
-        <v>7.96</v>
+        <v>10.31</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8233</v>
+        <v>1.863</v>
       </c>
       <c r="F31" t="n">
-        <v>1229.396491</v>
+        <v>1256.16501</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>29.39817199999993</v>
+        <v>56.1666909999999</v>
       </c>
       <c r="J31" t="n">
-        <v>2.45</v>
+        <v>4.68</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.1307</v>
+        <v>2.1453</v>
       </c>
       <c r="F33" t="n">
-        <v>12997.27</v>
+        <v>13086.33</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>724.0699999999997</v>
+        <v>813.130000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>5.9</v>
+        <v>6.63</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7149</v>
+        <v>1.732</v>
       </c>
       <c r="F34" t="n">
-        <v>32754.59</v>
+        <v>33081.2</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>1583.389999999999</v>
+        <v>1909.999999999996</v>
       </c>
       <c r="J34" t="n">
-        <v>5.08</v>
+        <v>6.13</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.5486</v>
+        <v>5.6339</v>
       </c>
       <c r="F35" t="n">
-        <v>33770.888068</v>
+        <v>34290.056282</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>570.9024439999994</v>
+        <v>1090.070657999997</v>
       </c>
       <c r="J35" t="n">
-        <v>1.72</v>
+        <v>3.28</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.5486</v>
+        <v>5.6339</v>
       </c>
       <c r="F36" t="n">
-        <v>11468.179396</v>
+        <v>11644.482554</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>168.2424040000005</v>
+        <v>344.5455619999993</v>
       </c>
       <c r="J36" t="n">
-        <v>1.49</v>
+        <v>3.05</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.5486</v>
+        <v>5.6339</v>
       </c>
       <c r="F37" t="n">
-        <v>83229</v>
+        <v>84508.5</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>-66</v>
+        <v>1213.5</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.08</v>
+        <v>1.46</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.2393</v>
+        <v>2.2624</v>
       </c>
       <c r="F38" t="n">
-        <v>16287.347013</v>
+        <v>16455.362784</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>487.3184700000002</v>
+        <v>655.3342410000005</v>
       </c>
       <c r="J38" t="n">
-        <v>3.08</v>
+        <v>4.15</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.2393</v>
+        <v>2.2624</v>
       </c>
       <c r="F39" t="n">
-        <v>23351.218863</v>
+        <v>23592.103584</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>351.420567000001</v>
+        <v>592.3052879999996</v>
       </c>
       <c r="J39" t="n">
-        <v>1.53</v>
+        <v>2.58</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.792</v>
+        <v>1.8126</v>
       </c>
       <c r="F40" t="n">
-        <v>12006.4</v>
+        <v>12144.42</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1554.4</v>
+        <v>1692.42</v>
       </c>
       <c r="J40" t="n">
-        <v>14.87</v>
+        <v>16.19</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>6.49</v>
+        <v>6.5</v>
       </c>
       <c r="F42" t="n">
-        <v>7139</v>
+        <v>7150</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>554.3999999999996</v>
+        <v>565.3999999999996</v>
       </c>
       <c r="J42" t="n">
-        <v>8.42</v>
+        <v>8.59</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="F43" t="n">
-        <v>58350</v>
+        <v>58199.99999999999</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-6105</v>
+        <v>-6255.000000000007</v>
       </c>
       <c r="J43" t="n">
-        <v>-9.470000000000001</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.5956</v>
+        <v>3.592</v>
       </c>
       <c r="F2" t="n">
-        <v>2659.629364</v>
+        <v>2656.96648</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>789.3971680000004</v>
+        <v>786.7342840000001</v>
       </c>
       <c r="J2" t="n">
-        <v>42.21</v>
+        <v>42.07</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>324.32</v>
       </c>
       <c r="E3" t="n">
-        <v>3.4793</v>
+        <v>3.4431</v>
       </c>
       <c r="F3" t="n">
-        <v>1128.406576</v>
+        <v>1116.666192</v>
       </c>
       <c r="G3" t="n">
         <v>3.0832</v>
@@ -4220,10 +4220,10 @@
         <v>999.9434240000001</v>
       </c>
       <c r="I3" t="n">
-        <v>128.4631519999998</v>
+        <v>116.7227679999999</v>
       </c>
       <c r="J3" t="n">
-        <v>12.85</v>
+        <v>11.67</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.313</v>
+        <v>1.3117</v>
       </c>
       <c r="F4" t="n">
-        <v>7484.099999999999</v>
+        <v>7476.690000000001</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2063.4</v>
+        <v>2055.990000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>38.07</v>
+        <v>37.93</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4290,10 +4290,10 @@
         <v>1185.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.042</v>
+        <v>2.0529</v>
       </c>
       <c r="F5" t="n">
-        <v>2421.66906</v>
+        <v>2434.595697</v>
       </c>
       <c r="G5" t="n">
         <v>2.0237</v>
@@ -4302,10 +4302,10 @@
         <v>2399.966541</v>
       </c>
       <c r="I5" t="n">
-        <v>21.70251899999994</v>
+        <v>34.62915600000042</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9</v>
+        <v>1.44</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.3879</v>
+        <v>1.3911</v>
       </c>
       <c r="F6" t="n">
-        <v>2355.668791</v>
+        <v>2361.100119</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-144.2696500000002</v>
+        <v>-138.8383219999996</v>
       </c>
       <c r="J6" t="n">
-        <v>-5.77</v>
+        <v>-5.55</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.3879</v>
+        <v>1.3911</v>
       </c>
       <c r="F7" t="n">
-        <v>4988.251389999999</v>
+        <v>4999.75251</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-331.7354300000006</v>
+        <v>-320.2343099999998</v>
       </c>
       <c r="J7" t="n">
-        <v>-6.24</v>
+        <v>-6.02</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>2.0131</v>
+        <v>2.0037</v>
       </c>
       <c r="F8" t="n">
-        <v>25968.99</v>
+        <v>25847.73</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>6670.59</v>
+        <v>6549.329999999994</v>
       </c>
       <c r="J8" t="n">
-        <v>34.57</v>
+        <v>33.94</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>302.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9219</v>
+        <v>2.904</v>
       </c>
       <c r="F9" t="n">
-        <v>884.780539</v>
+        <v>879.36024</v>
       </c>
       <c r="G9" t="n">
         <v>2.4733</v>
@@ -4466,10 +4466,10 @@
         <v>748.939973</v>
       </c>
       <c r="I9" t="n">
-        <v>135.840566</v>
+        <v>130.420267</v>
       </c>
       <c r="J9" t="n">
-        <v>18.14</v>
+        <v>17.41</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0863</v>
+        <v>2.1</v>
       </c>
       <c r="F10" t="n">
-        <v>2170.649109</v>
+        <v>2184.903</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>170.6305199999999</v>
+        <v>184.8844110000002</v>
       </c>
       <c r="J10" t="n">
-        <v>8.529999999999999</v>
+        <v>9.24</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5612</v>
+        <v>1.5712</v>
       </c>
       <c r="F11" t="n">
-        <v>6459.043475999999</v>
+        <v>6500.415775999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>479.9186799999989</v>
+        <v>521.2909799999989</v>
       </c>
       <c r="J11" t="n">
-        <v>8.029999999999999</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5612</v>
+        <v>1.5712</v>
       </c>
       <c r="F12" t="n">
-        <v>9389.166083999999</v>
+        <v>9449.306783999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>289.2767669999994</v>
+        <v>349.4174669999993</v>
       </c>
       <c r="J12" t="n">
-        <v>3.18</v>
+        <v>3.84</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         <v>9300</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2589</v>
+        <v>2.2593</v>
       </c>
       <c r="F15" t="n">
-        <v>21007.77</v>
+        <v>21011.49</v>
       </c>
       <c r="G15" t="n">
         <v>2.091</v>
@@ -4712,10 +4712,10 @@
         <v>19446.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1561.470000000001</v>
+        <v>1565.190000000002</v>
       </c>
       <c r="J15" t="n">
-        <v>8.029999999999999</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
         <v>500</v>
       </c>
       <c r="E16" t="n">
-        <v>25.98</v>
+        <v>26.05</v>
       </c>
       <c r="F16" t="n">
-        <v>12990</v>
+        <v>13025</v>
       </c>
       <c r="G16" t="n">
         <v>27.63</v>
@@ -4753,10 +4753,10 @@
         <v>13815</v>
       </c>
       <c r="I16" t="n">
-        <v>-825</v>
+        <v>-790</v>
       </c>
       <c r="J16" t="n">
-        <v>-5.97</v>
+        <v>-5.72</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4782,10 +4782,10 @@
         <v>2000</v>
       </c>
       <c r="E17" t="n">
-        <v>8.5</v>
+        <v>8.52</v>
       </c>
       <c r="F17" t="n">
-        <v>17000</v>
+        <v>17040</v>
       </c>
       <c r="G17" t="n">
         <v>8.880000000000001</v>
@@ -4794,10 +4794,10 @@
         <v>17760</v>
       </c>
       <c r="I17" t="n">
-        <v>-760</v>
+        <v>-720</v>
       </c>
       <c r="J17" t="n">
-        <v>-4.28</v>
+        <v>-4.05</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0775</v>
+        <v>1.0771</v>
       </c>
       <c r="F18" t="n">
-        <v>4232.624725</v>
+        <v>4231.053449</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-73.84997199999998</v>
+        <v>-75.42124799999965</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.71</v>
+        <v>-1.75</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6301</v>
+        <v>1.6254</v>
       </c>
       <c r="F19" t="n">
-        <v>14181.87</v>
+        <v>14140.98</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>722.9700000000012</v>
+        <v>682.0799999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>5.37</v>
+        <v>5.07</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3506</v>
+        <v>1.3386</v>
       </c>
       <c r="F20" t="n">
-        <v>10704.666516</v>
+        <v>10609.556196</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>704.6089539999994</v>
+        <v>609.4986339999996</v>
       </c>
       <c r="J20" t="n">
-        <v>7.05</v>
+        <v>6.09</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1697</v>
+        <v>1.1676</v>
       </c>
       <c r="F21" t="n">
-        <v>13217.61</v>
+        <v>13193.88</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>584.2099999999991</v>
+        <v>560.4799999999996</v>
       </c>
       <c r="J21" t="n">
-        <v>4.62</v>
+        <v>4.44</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5324</v>
+        <v>1.5507</v>
       </c>
       <c r="F22" t="n">
-        <v>818.1330359999999</v>
+        <v>827.9032229999999</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>88.99946299999999</v>
+        <v>98.76964999999996</v>
       </c>
       <c r="J22" t="n">
-        <v>12.21</v>
+        <v>13.55</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5324</v>
+        <v>1.5507</v>
       </c>
       <c r="F23" t="n">
-        <v>19801.274376</v>
+        <v>20037.742218</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>600.8609099999994</v>
+        <v>837.3287519999976</v>
       </c>
       <c r="J23" t="n">
-        <v>3.13</v>
+        <v>4.36</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5069,10 +5069,10 @@
         <v>654.3200000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3881</v>
+        <v>1.3715</v>
       </c>
       <c r="F24" t="n">
-        <v>908.261592</v>
+        <v>897.3998800000001</v>
       </c>
       <c r="G24" t="n">
         <v>1.2226</v>
@@ -5081,10 +5081,10 @@
         <v>799.971632</v>
       </c>
       <c r="I24" t="n">
-        <v>108.28996</v>
+        <v>97.42824800000005</v>
       </c>
       <c r="J24" t="n">
-        <v>13.54</v>
+        <v>12.18</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.5407</v>
+        <v>5.6124</v>
       </c>
       <c r="F26" t="n">
-        <v>2301.274338</v>
+        <v>2331.054216</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>201.2737639999996</v>
+        <v>231.0536419999999</v>
       </c>
       <c r="J26" t="n">
-        <v>9.58</v>
+        <v>11</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.7782</v>
+        <v>1.7998</v>
       </c>
       <c r="F28" t="n">
-        <v>6861.71816</v>
+        <v>6945.068240000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>561.8412800000006</v>
+        <v>645.1913600000007</v>
       </c>
       <c r="J28" t="n">
-        <v>8.92</v>
+        <v>10.24</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.7782</v>
+        <v>1.7998</v>
       </c>
       <c r="F29" t="n">
-        <v>15486.859478</v>
+        <v>15674.980142</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>486.8493110000018</v>
+        <v>674.9699750000018</v>
       </c>
       <c r="J29" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
         <v>5258.09</v>
       </c>
       <c r="E30" t="n">
-        <v>1.863</v>
+        <v>1.8399</v>
       </c>
       <c r="F30" t="n">
-        <v>9795.821669999999</v>
+        <v>9674.359791000001</v>
       </c>
       <c r="G30" t="n">
         <v>1.6889</v>
@@ -5327,10 +5327,10 @@
         <v>8880.388201</v>
       </c>
       <c r="I30" t="n">
-        <v>915.4334689999996</v>
+        <v>793.971590000001</v>
       </c>
       <c r="J30" t="n">
-        <v>10.31</v>
+        <v>8.94</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
         <v>674.27</v>
       </c>
       <c r="E31" t="n">
-        <v>1.863</v>
+        <v>1.8399</v>
       </c>
       <c r="F31" t="n">
-        <v>1256.16501</v>
+        <v>1240.589373</v>
       </c>
       <c r="G31" t="n">
         <v>1.7797</v>
@@ -5368,10 +5368,10 @@
         <v>1199.998319</v>
       </c>
       <c r="I31" t="n">
-        <v>56.1666909999999</v>
+        <v>40.59105399999999</v>
       </c>
       <c r="J31" t="n">
-        <v>4.68</v>
+        <v>3.38</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.1453</v>
+        <v>2.1685</v>
       </c>
       <c r="F33" t="n">
-        <v>13086.33</v>
+        <v>13227.85</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>813.130000000001</v>
+        <v>954.6499999999978</v>
       </c>
       <c r="J33" t="n">
-        <v>6.63</v>
+        <v>7.78</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.732</v>
+        <v>1.7541</v>
       </c>
       <c r="F34" t="n">
-        <v>33081.2</v>
+        <v>33503.31</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>1909.999999999996</v>
+        <v>2332.109999999997</v>
       </c>
       <c r="J34" t="n">
-        <v>6.13</v>
+        <v>7.48</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5520,10 +5520,10 @@
         <v>6086.38</v>
       </c>
       <c r="E35" t="n">
-        <v>5.6339</v>
+        <v>5.5338</v>
       </c>
       <c r="F35" t="n">
-        <v>34290.056282</v>
+        <v>33680.809644</v>
       </c>
       <c r="G35" t="n">
         <v>5.4548</v>
@@ -5532,10 +5532,10 @@
         <v>33199.985624</v>
       </c>
       <c r="I35" t="n">
-        <v>1090.070657999997</v>
+        <v>480.82402</v>
       </c>
       <c r="J35" t="n">
-        <v>3.28</v>
+        <v>1.45</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
         <v>2066.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.6339</v>
+        <v>5.5338</v>
       </c>
       <c r="F36" t="n">
-        <v>11644.482554</v>
+        <v>11437.589868</v>
       </c>
       <c r="G36" t="n">
         <v>5.4672</v>
@@ -5573,10 +5573,10 @@
         <v>11299.936992</v>
       </c>
       <c r="I36" t="n">
-        <v>344.5455619999993</v>
+        <v>137.6528760000001</v>
       </c>
       <c r="J36" t="n">
-        <v>3.05</v>
+        <v>1.22</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -5602,10 +5602,10 @@
         <v>15000</v>
       </c>
       <c r="E37" t="n">
-        <v>5.6339</v>
+        <v>5.5338</v>
       </c>
       <c r="F37" t="n">
-        <v>84508.5</v>
+        <v>83007</v>
       </c>
       <c r="G37" t="n">
         <v>5.553</v>
@@ -5614,10 +5614,10 @@
         <v>83295</v>
       </c>
       <c r="I37" t="n">
-        <v>1213.5</v>
+        <v>-288</v>
       </c>
       <c r="J37" t="n">
-        <v>1.46</v>
+        <v>-0.35</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.2624</v>
+        <v>2.298</v>
       </c>
       <c r="F38" t="n">
-        <v>16455.362784</v>
+        <v>16714.29618</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>655.3342410000005</v>
+        <v>914.2676370000008</v>
       </c>
       <c r="J38" t="n">
-        <v>4.15</v>
+        <v>5.79</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.2624</v>
+        <v>2.298</v>
       </c>
       <c r="F39" t="n">
-        <v>23592.103584</v>
+        <v>23963.33718</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>592.3052879999996</v>
+        <v>963.5388839999978</v>
       </c>
       <c r="J39" t="n">
-        <v>2.58</v>
+        <v>4.19</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8126</v>
+        <v>1.8438</v>
       </c>
       <c r="F40" t="n">
-        <v>12144.42</v>
+        <v>12353.46</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1692.42</v>
+        <v>1901.460000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>16.19</v>
+        <v>18.19</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5766,10 +5766,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>7.06</v>
+        <v>6.94</v>
       </c>
       <c r="F41" t="n">
-        <v>7060</v>
+        <v>6940</v>
       </c>
       <c r="G41" t="n">
         <v>7.109</v>
@@ -5778,10 +5778,10 @@
         <v>7109</v>
       </c>
       <c r="I41" t="n">
-        <v>-49</v>
+        <v>-169</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-2.38</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5807,10 +5807,10 @@
         <v>1100</v>
       </c>
       <c r="E42" t="n">
-        <v>6.5</v>
+        <v>6.42</v>
       </c>
       <c r="F42" t="n">
-        <v>7150</v>
+        <v>7062</v>
       </c>
       <c r="G42" t="n">
         <v>5.986</v>
@@ -5819,10 +5819,10 @@
         <v>6584.6</v>
       </c>
       <c r="I42" t="n">
-        <v>565.3999999999996</v>
+        <v>477.3999999999996</v>
       </c>
       <c r="J42" t="n">
-        <v>8.59</v>
+        <v>7.25</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5848,10 +5848,10 @@
         <v>1500</v>
       </c>
       <c r="E43" t="n">
-        <v>38.8</v>
+        <v>38.75</v>
       </c>
       <c r="F43" t="n">
-        <v>58199.99999999999</v>
+        <v>58125</v>
       </c>
       <c r="G43" t="n">
         <v>42.97</v>
@@ -5860,10 +5860,10 @@
         <v>64455</v>
       </c>
       <c r="I43" t="n">
-        <v>-6255.000000000007</v>
+        <v>-6330</v>
       </c>
       <c r="J43" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.82</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -4167,10 +4167,10 @@
         <v>739.6900000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>3.592</v>
+        <v>3.5874</v>
       </c>
       <c r="F2" t="n">
-        <v>2656.96648</v>
+        <v>2653.563906</v>
       </c>
       <c r="G2" t="n">
         <v>2.5284</v>
@@ -4179,10 +4179,10 @@
         <v>1870.232196</v>
       </c>
       <c r="I2" t="n">
-        <v>786.7342840000001</v>
+        <v>783.3317100000004</v>
       </c>
       <c r="J2" t="n">
-        <v>42.07</v>
+        <v>41.88</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4249,10 +4249,10 @@
         <v>5700</v>
       </c>
       <c r="E4" t="n">
-        <v>1.3117</v>
+        <v>1.3125</v>
       </c>
       <c r="F4" t="n">
-        <v>7476.690000000001</v>
+        <v>7481.25</v>
       </c>
       <c r="G4" t="n">
         <v>0.951</v>
@@ -4261,10 +4261,10 @@
         <v>5420.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2055.990000000001</v>
+        <v>2060.55</v>
       </c>
       <c r="J4" t="n">
-        <v>37.93</v>
+        <v>38.01</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>1697.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.3911</v>
+        <v>1.3933</v>
       </c>
       <c r="F6" t="n">
-        <v>2361.100119</v>
+        <v>2364.834157</v>
       </c>
       <c r="G6" t="n">
         <v>1.4729</v>
@@ -4343,10 +4343,10 @@
         <v>2499.938441</v>
       </c>
       <c r="I6" t="n">
-        <v>-138.8383219999996</v>
+        <v>-135.104284</v>
       </c>
       <c r="J6" t="n">
-        <v>-5.55</v>
+        <v>-5.4</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         <v>3594.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.3911</v>
+        <v>1.3933</v>
       </c>
       <c r="F7" t="n">
-        <v>4999.75251</v>
+        <v>5007.65953</v>
       </c>
       <c r="G7" t="n">
         <v>1.4802</v>
@@ -4384,10 +4384,10 @@
         <v>5319.98682</v>
       </c>
       <c r="I7" t="n">
-        <v>-320.2343099999998</v>
+        <v>-312.3272900000002</v>
       </c>
       <c r="J7" t="n">
-        <v>-6.02</v>
+        <v>-5.87</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         <v>12900</v>
       </c>
       <c r="E8" t="n">
-        <v>2.0037</v>
+        <v>2.0127</v>
       </c>
       <c r="F8" t="n">
-        <v>25847.73</v>
+        <v>25963.83</v>
       </c>
       <c r="G8" t="n">
         <v>1.496</v>
@@ -4425,10 +4425,10 @@
         <v>19298.4</v>
       </c>
       <c r="I8" t="n">
-        <v>6549.329999999994</v>
+        <v>6665.43</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94</v>
+        <v>34.54</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
         <v>1040.43</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1</v>
+        <v>2.0869</v>
       </c>
       <c r="F10" t="n">
-        <v>2184.903</v>
+        <v>2171.273367</v>
       </c>
       <c r="G10" t="n">
         <v>1.9223</v>
@@ -4507,10 +4507,10 @@
         <v>2000.018589</v>
       </c>
       <c r="I10" t="n">
-        <v>184.8844110000002</v>
+        <v>171.2547780000002</v>
       </c>
       <c r="J10" t="n">
-        <v>9.24</v>
+        <v>8.56</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4536,10 +4536,10 @@
         <v>4137.23</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5712</v>
+        <v>1.5612</v>
       </c>
       <c r="F11" t="n">
-        <v>6500.415775999999</v>
+        <v>6459.043475999999</v>
       </c>
       <c r="G11" t="n">
         <v>1.4452</v>
@@ -4548,10 +4548,10 @@
         <v>5979.124796</v>
       </c>
       <c r="I11" t="n">
-        <v>521.2909799999989</v>
+        <v>479.9186799999989</v>
       </c>
       <c r="J11" t="n">
-        <v>8.720000000000001</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4577,10 +4577,10 @@
         <v>6014.07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5712</v>
+        <v>1.5612</v>
       </c>
       <c r="F12" t="n">
-        <v>9449.306783999999</v>
+        <v>9389.166083999999</v>
       </c>
       <c r="G12" t="n">
         <v>1.5131</v>
@@ -4589,10 +4589,10 @@
         <v>9099.889316999999</v>
       </c>
       <c r="I12" t="n">
-        <v>349.4174669999993</v>
+        <v>289.2767669999994</v>
       </c>
       <c r="J12" t="n">
-        <v>3.84</v>
+        <v>3.18</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         <v>3928.19</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0771</v>
+        <v>1.081</v>
       </c>
       <c r="F18" t="n">
-        <v>4231.053449</v>
+        <v>4246.37339</v>
       </c>
       <c r="G18" t="n">
         <v>1.0963</v>
@@ -4835,10 +4835,10 @@
         <v>4306.474697</v>
       </c>
       <c r="I18" t="n">
-        <v>-75.42124799999965</v>
+        <v>-60.10130699999991</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.75</v>
+        <v>-1.4</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         <v>8700</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6254</v>
+        <v>1.6416</v>
       </c>
       <c r="F19" t="n">
-        <v>14140.98</v>
+        <v>14281.92</v>
       </c>
       <c r="G19" t="n">
         <v>1.547</v>
@@ -4876,10 +4876,10 @@
         <v>13458.9</v>
       </c>
       <c r="I19" t="n">
-        <v>682.0799999999999</v>
+        <v>823.0200000000004</v>
       </c>
       <c r="J19" t="n">
-        <v>5.07</v>
+        <v>6.12</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>7925.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3386</v>
+        <v>1.3513</v>
       </c>
       <c r="F20" t="n">
-        <v>10609.556196</v>
+        <v>10710.214618</v>
       </c>
       <c r="G20" t="n">
         <v>1.2617</v>
@@ -4917,10 +4917,10 @@
         <v>10000.057562</v>
       </c>
       <c r="I20" t="n">
-        <v>609.4986339999996</v>
+        <v>710.157056</v>
       </c>
       <c r="J20" t="n">
-        <v>6.09</v>
+        <v>7.1</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         <v>11300</v>
       </c>
       <c r="E21" t="n">
-        <v>1.1676</v>
+        <v>1.1712</v>
       </c>
       <c r="F21" t="n">
-        <v>13193.88</v>
+        <v>13234.56</v>
       </c>
       <c r="G21" t="n">
         <v>1.118</v>
@@ -4958,10 +4958,10 @@
         <v>12633.4</v>
       </c>
       <c r="I21" t="n">
-        <v>560.4799999999996</v>
+        <v>601.1599999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>4.44</v>
+        <v>4.76</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>533.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5507</v>
+        <v>1.5315</v>
       </c>
       <c r="F22" t="n">
-        <v>827.9032229999999</v>
+        <v>817.6525350000001</v>
       </c>
       <c r="G22" t="n">
         <v>1.3657</v>
@@ -4999,10 +4999,10 @@
         <v>729.133573</v>
       </c>
       <c r="I22" t="n">
-        <v>98.76964999999996</v>
+        <v>88.5189620000001</v>
       </c>
       <c r="J22" t="n">
-        <v>13.55</v>
+        <v>12.14</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
         <v>12921.74</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5507</v>
+        <v>1.5315</v>
       </c>
       <c r="F23" t="n">
-        <v>20037.742218</v>
+        <v>19789.64481</v>
       </c>
       <c r="G23" t="n">
         <v>1.4859</v>
@@ -5040,10 +5040,10 @@
         <v>19200.413466</v>
       </c>
       <c r="I23" t="n">
-        <v>837.3287519999976</v>
+        <v>589.2313439999998</v>
       </c>
       <c r="J23" t="n">
-        <v>4.36</v>
+        <v>3.07</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         <v>415.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.6124</v>
+        <v>5.5415</v>
       </c>
       <c r="F26" t="n">
-        <v>2331.054216</v>
+        <v>2301.60661</v>
       </c>
       <c r="G26" t="n">
         <v>5.0561</v>
@@ -5163,10 +5163,10 @@
         <v>2100.000574</v>
       </c>
       <c r="I26" t="n">
-        <v>231.0536419999999</v>
+        <v>201.6060359999997</v>
       </c>
       <c r="J26" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>3858.8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.7998</v>
+        <v>1.7772</v>
       </c>
       <c r="F28" t="n">
-        <v>6945.068240000001</v>
+        <v>6857.859359999999</v>
       </c>
       <c r="G28" t="n">
         <v>1.6326</v>
@@ -5245,10 +5245,10 @@
         <v>6299.87688</v>
       </c>
       <c r="I28" t="n">
-        <v>645.1913600000007</v>
+        <v>557.9824799999997</v>
       </c>
       <c r="J28" t="n">
-        <v>10.24</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         <v>8709.290000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.7998</v>
+        <v>1.7772</v>
       </c>
       <c r="F29" t="n">
-        <v>15674.980142</v>
+        <v>15478.150188</v>
       </c>
       <c r="G29" t="n">
         <v>1.7223</v>
@@ -5286,10 +5286,10 @@
         <v>15000.010167</v>
       </c>
       <c r="I29" t="n">
-        <v>674.9699750000018</v>
+        <v>478.1400210000011</v>
       </c>
       <c r="J29" t="n">
-        <v>4.5</v>
+        <v>3.19</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5438,10 +5438,10 @@
         <v>6100</v>
       </c>
       <c r="E33" t="n">
-        <v>2.1685</v>
+        <v>2.1342</v>
       </c>
       <c r="F33" t="n">
-        <v>13227.85</v>
+        <v>13018.62</v>
       </c>
       <c r="G33" t="n">
         <v>2.012</v>
@@ -5450,10 +5450,10 @@
         <v>12273.2</v>
       </c>
       <c r="I33" t="n">
-        <v>954.6499999999978</v>
+        <v>745.4199999999983</v>
       </c>
       <c r="J33" t="n">
-        <v>7.78</v>
+        <v>6.07</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>19100</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7541</v>
+        <v>1.7314</v>
       </c>
       <c r="F34" t="n">
-        <v>33503.31</v>
+        <v>33069.74</v>
       </c>
       <c r="G34" t="n">
         <v>1.632</v>
@@ -5491,10 +5491,10 @@
         <v>31171.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2332.109999999997</v>
+        <v>1898.539999999997</v>
       </c>
       <c r="J34" t="n">
-        <v>7.48</v>
+        <v>6.09</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>7273.41</v>
       </c>
       <c r="E38" t="n">
-        <v>2.298</v>
+        <v>2.2622</v>
       </c>
       <c r="F38" t="n">
-        <v>16714.29618</v>
+        <v>16453.908102</v>
       </c>
       <c r="G38" t="n">
         <v>2.1723</v>
@@ -5655,10 +5655,10 @@
         <v>15800.028543</v>
       </c>
       <c r="I38" t="n">
-        <v>914.2676370000008</v>
+        <v>653.8795590000009</v>
       </c>
       <c r="J38" t="n">
-        <v>5.79</v>
+        <v>4.14</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         <v>10427.91</v>
       </c>
       <c r="E39" t="n">
-        <v>2.298</v>
+        <v>2.2622</v>
       </c>
       <c r="F39" t="n">
-        <v>23963.33718</v>
+        <v>23590.018002</v>
       </c>
       <c r="G39" t="n">
         <v>2.2056</v>
@@ -5696,10 +5696,10 @@
         <v>22999.798296</v>
       </c>
       <c r="I39" t="n">
-        <v>963.5388839999978</v>
+        <v>590.2197059999999</v>
       </c>
       <c r="J39" t="n">
-        <v>4.19</v>
+        <v>2.57</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -5725,10 +5725,10 @@
         <v>6700</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8438</v>
+        <v>1.8138</v>
       </c>
       <c r="F40" t="n">
-        <v>12353.46</v>
+        <v>12152.46</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
@@ -5737,10 +5737,10 @@
         <v>10452</v>
       </c>
       <c r="I40" t="n">
-        <v>1901.460000000001</v>
+        <v>1700.460000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>18.19</v>
+        <v>16.27</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
